--- a/PROPUESTA FUNDEMERCA (2.5).xlsx
+++ b/PROPUESTA FUNDEMERCA (2.5).xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alejandro\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KEVINSTEVEN\Documents\GitHub\Consultoria\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8235" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11625" windowHeight="5025"/>
   </bookViews>
   <sheets>
-    <sheet name="procentaje de mortalidad" sheetId="1" r:id="rId1"/>
-    <sheet name="intervalos" sheetId="4" r:id="rId2"/>
-    <sheet name="cantidad inicial" sheetId="2" r:id="rId3"/>
-    <sheet name="cantidad pollos muertos" sheetId="3" r:id="rId4"/>
+    <sheet name="cantidad pollos muertos" sheetId="3" r:id="rId1"/>
+    <sheet name="procentaje de mortalidad" sheetId="1" r:id="rId2"/>
+    <sheet name="intervalos" sheetId="4" r:id="rId3"/>
+    <sheet name="cantidad inicial" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -453,7 +453,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1246,7 +1245,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2166,6 +2164,3604 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA49"/>
   <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L1" t="s">
+        <v>51</v>
+      </c>
+      <c r="M1" t="s">
+        <v>52</v>
+      </c>
+      <c r="N1" t="s">
+        <v>53</v>
+      </c>
+      <c r="O1" t="s">
+        <v>54</v>
+      </c>
+      <c r="P1" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>56</v>
+      </c>
+      <c r="R1" t="s">
+        <v>57</v>
+      </c>
+      <c r="S1" t="s">
+        <v>58</v>
+      </c>
+      <c r="T1" t="s">
+        <v>59</v>
+      </c>
+      <c r="U1" t="s">
+        <v>60</v>
+      </c>
+      <c r="V1" t="s">
+        <v>61</v>
+      </c>
+      <c r="W1" t="s">
+        <v>62</v>
+      </c>
+      <c r="X1" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2">
+        <v>100</v>
+      </c>
+      <c r="D2">
+        <v>135</v>
+      </c>
+      <c r="E2">
+        <v>183</v>
+      </c>
+      <c r="F2">
+        <v>532</v>
+      </c>
+      <c r="G2">
+        <v>216</v>
+      </c>
+      <c r="H2">
+        <v>55</v>
+      </c>
+      <c r="I2">
+        <v>72</v>
+      </c>
+      <c r="J2">
+        <v>124</v>
+      </c>
+      <c r="K2" s="4">
+        <v>68</v>
+      </c>
+      <c r="L2" s="4">
+        <v>76</v>
+      </c>
+      <c r="M2" s="4">
+        <v>134</v>
+      </c>
+      <c r="N2" s="4">
+        <v>120</v>
+      </c>
+      <c r="P2" s="8">
+        <v>55</v>
+      </c>
+      <c r="Q2" s="4">
+        <v>116</v>
+      </c>
+      <c r="R2" s="4">
+        <v>163</v>
+      </c>
+      <c r="S2" s="8"/>
+      <c r="T2" s="8">
+        <v>37</v>
+      </c>
+      <c r="U2" s="4">
+        <v>94</v>
+      </c>
+      <c r="V2" s="8">
+        <v>41</v>
+      </c>
+      <c r="X2">
+        <v>120</v>
+      </c>
+      <c r="Y2">
+        <v>129</v>
+      </c>
+      <c r="Z2">
+        <v>144</v>
+      </c>
+      <c r="AA2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>562</v>
+      </c>
+      <c r="D3">
+        <v>2817</v>
+      </c>
+      <c r="E3">
+        <v>3300</v>
+      </c>
+      <c r="F3">
+        <v>1078</v>
+      </c>
+      <c r="G3">
+        <v>518</v>
+      </c>
+      <c r="H3">
+        <v>355</v>
+      </c>
+      <c r="I3">
+        <v>378</v>
+      </c>
+      <c r="J3">
+        <v>104</v>
+      </c>
+      <c r="K3" s="4">
+        <v>459</v>
+      </c>
+      <c r="L3" s="4">
+        <v>239</v>
+      </c>
+      <c r="M3" s="4">
+        <v>257</v>
+      </c>
+      <c r="N3" s="4">
+        <v>338</v>
+      </c>
+      <c r="P3" s="8">
+        <v>260</v>
+      </c>
+      <c r="Q3" s="4">
+        <v>297</v>
+      </c>
+      <c r="R3" s="4">
+        <v>323</v>
+      </c>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8">
+        <v>220</v>
+      </c>
+      <c r="U3" s="4">
+        <v>363</v>
+      </c>
+      <c r="V3" s="8">
+        <v>199</v>
+      </c>
+      <c r="X3">
+        <v>345</v>
+      </c>
+      <c r="Y3">
+        <v>330</v>
+      </c>
+      <c r="Z3">
+        <v>510</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>74</v>
+      </c>
+      <c r="K4" s="4"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="4">
+        <v>389</v>
+      </c>
+      <c r="N4" s="4">
+        <v>84</v>
+      </c>
+      <c r="P4" s="8">
+        <v>55</v>
+      </c>
+      <c r="Q4" s="4">
+        <v>96</v>
+      </c>
+      <c r="R4" s="4">
+        <v>66</v>
+      </c>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8">
+        <v>42</v>
+      </c>
+      <c r="U4" s="4">
+        <v>60</v>
+      </c>
+      <c r="V4" s="8">
+        <v>84</v>
+      </c>
+      <c r="X4">
+        <v>83</v>
+      </c>
+      <c r="Y4">
+        <v>146</v>
+      </c>
+      <c r="Z4">
+        <v>112</v>
+      </c>
+      <c r="AA4">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5">
+        <v>78</v>
+      </c>
+      <c r="D5">
+        <v>99</v>
+      </c>
+      <c r="E5">
+        <v>107</v>
+      </c>
+      <c r="F5">
+        <v>87</v>
+      </c>
+      <c r="G5">
+        <v>83</v>
+      </c>
+      <c r="H5">
+        <v>51</v>
+      </c>
+      <c r="I5">
+        <v>31</v>
+      </c>
+      <c r="J5">
+        <v>83</v>
+      </c>
+      <c r="K5" s="4">
+        <v>72</v>
+      </c>
+      <c r="L5" s="4">
+        <v>59</v>
+      </c>
+      <c r="M5" s="4">
+        <v>42</v>
+      </c>
+      <c r="N5" s="4">
+        <v>58</v>
+      </c>
+      <c r="P5" s="8">
+        <v>60</v>
+      </c>
+      <c r="Q5" s="4">
+        <v>42</v>
+      </c>
+      <c r="R5" s="4">
+        <v>112</v>
+      </c>
+      <c r="S5" s="8"/>
+      <c r="T5" s="8">
+        <v>29</v>
+      </c>
+      <c r="U5" s="4">
+        <v>62</v>
+      </c>
+      <c r="V5" s="8">
+        <v>40</v>
+      </c>
+      <c r="X5">
+        <v>140</v>
+      </c>
+      <c r="Y5">
+        <v>56</v>
+      </c>
+      <c r="Z5">
+        <v>162</v>
+      </c>
+      <c r="AA5">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6">
+        <v>58</v>
+      </c>
+      <c r="D6">
+        <v>93</v>
+      </c>
+      <c r="E6">
+        <v>156</v>
+      </c>
+      <c r="F6">
+        <v>139</v>
+      </c>
+      <c r="G6">
+        <v>141</v>
+      </c>
+      <c r="H6">
+        <v>48</v>
+      </c>
+      <c r="I6">
+        <v>90</v>
+      </c>
+      <c r="J6">
+        <v>57</v>
+      </c>
+      <c r="K6" s="4">
+        <v>39</v>
+      </c>
+      <c r="L6" s="4">
+        <v>135</v>
+      </c>
+      <c r="M6" s="4">
+        <v>51</v>
+      </c>
+      <c r="N6" s="4">
+        <v>66</v>
+      </c>
+      <c r="P6" s="8">
+        <v>126</v>
+      </c>
+      <c r="Q6" s="4">
+        <v>56</v>
+      </c>
+      <c r="R6" s="4">
+        <v>44</v>
+      </c>
+      <c r="S6" s="8"/>
+      <c r="T6" s="8">
+        <v>66</v>
+      </c>
+      <c r="U6" s="4">
+        <v>76</v>
+      </c>
+      <c r="V6" s="8">
+        <v>76</v>
+      </c>
+      <c r="X6">
+        <v>96</v>
+      </c>
+      <c r="Y6">
+        <v>76</v>
+      </c>
+      <c r="Z6">
+        <v>41</v>
+      </c>
+      <c r="AA6">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7">
+        <v>184</v>
+      </c>
+      <c r="D7">
+        <v>56</v>
+      </c>
+      <c r="E7">
+        <v>90</v>
+      </c>
+      <c r="F7">
+        <v>124</v>
+      </c>
+      <c r="G7">
+        <v>73</v>
+      </c>
+      <c r="H7">
+        <v>31</v>
+      </c>
+      <c r="I7">
+        <v>31</v>
+      </c>
+      <c r="J7">
+        <v>40</v>
+      </c>
+      <c r="K7" s="4">
+        <v>114</v>
+      </c>
+      <c r="L7" s="4">
+        <v>45</v>
+      </c>
+      <c r="M7" s="4">
+        <v>43</v>
+      </c>
+      <c r="N7" s="4">
+        <v>80</v>
+      </c>
+      <c r="P7" s="8">
+        <v>45</v>
+      </c>
+      <c r="Q7" s="4">
+        <v>41</v>
+      </c>
+      <c r="R7" s="4">
+        <v>40</v>
+      </c>
+      <c r="S7" s="8"/>
+      <c r="T7" s="8">
+        <v>49</v>
+      </c>
+      <c r="U7" s="4">
+        <v>19</v>
+      </c>
+      <c r="V7" s="8">
+        <v>58</v>
+      </c>
+      <c r="X7">
+        <v>104</v>
+      </c>
+      <c r="Y7">
+        <v>98</v>
+      </c>
+      <c r="Z7">
+        <v>113</v>
+      </c>
+      <c r="AA7">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8">
+        <v>123</v>
+      </c>
+      <c r="D8">
+        <v>121</v>
+      </c>
+      <c r="E8">
+        <v>100</v>
+      </c>
+      <c r="F8">
+        <v>132</v>
+      </c>
+      <c r="G8">
+        <v>76</v>
+      </c>
+      <c r="H8">
+        <v>86</v>
+      </c>
+      <c r="I8">
+        <v>57</v>
+      </c>
+      <c r="J8">
+        <v>70</v>
+      </c>
+      <c r="K8" s="4">
+        <v>36</v>
+      </c>
+      <c r="L8" s="4">
+        <v>110</v>
+      </c>
+      <c r="M8" s="4">
+        <v>83</v>
+      </c>
+      <c r="N8" s="4">
+        <v>74</v>
+      </c>
+      <c r="P8" s="8">
+        <v>104</v>
+      </c>
+      <c r="Q8" s="4">
+        <v>110</v>
+      </c>
+      <c r="R8" s="4">
+        <v>126</v>
+      </c>
+      <c r="S8" s="8"/>
+      <c r="T8" s="8">
+        <v>906</v>
+      </c>
+      <c r="U8" s="4">
+        <v>81</v>
+      </c>
+      <c r="V8" s="8">
+        <v>86</v>
+      </c>
+      <c r="X8">
+        <v>176</v>
+      </c>
+      <c r="Y8">
+        <v>61</v>
+      </c>
+      <c r="Z8">
+        <v>88</v>
+      </c>
+      <c r="AA8">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>137</v>
+      </c>
+      <c r="D9">
+        <v>78</v>
+      </c>
+      <c r="E9">
+        <v>98</v>
+      </c>
+      <c r="F9">
+        <v>164</v>
+      </c>
+      <c r="G9">
+        <v>76</v>
+      </c>
+      <c r="H9">
+        <v>19</v>
+      </c>
+      <c r="I9">
+        <v>75</v>
+      </c>
+      <c r="J9">
+        <v>91</v>
+      </c>
+      <c r="K9" s="4">
+        <v>104</v>
+      </c>
+      <c r="L9" s="4">
+        <v>76</v>
+      </c>
+      <c r="M9" s="4">
+        <v>55</v>
+      </c>
+      <c r="N9" s="4">
+        <v>42</v>
+      </c>
+      <c r="P9" s="8">
+        <v>71</v>
+      </c>
+      <c r="Q9" s="4">
+        <v>51</v>
+      </c>
+      <c r="R9" s="4">
+        <v>52</v>
+      </c>
+      <c r="S9" s="8"/>
+      <c r="T9" s="8">
+        <v>129</v>
+      </c>
+      <c r="U9" s="4">
+        <v>31</v>
+      </c>
+      <c r="V9" s="8">
+        <v>86</v>
+      </c>
+      <c r="X9">
+        <v>66</v>
+      </c>
+      <c r="Y9">
+        <v>242</v>
+      </c>
+      <c r="Z9">
+        <v>56</v>
+      </c>
+      <c r="AA9">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10">
+        <v>154</v>
+      </c>
+      <c r="D10">
+        <v>140</v>
+      </c>
+      <c r="E10">
+        <v>96</v>
+      </c>
+      <c r="F10">
+        <v>394</v>
+      </c>
+      <c r="G10">
+        <v>84</v>
+      </c>
+      <c r="H10">
+        <v>58</v>
+      </c>
+      <c r="I10">
+        <v>82</v>
+      </c>
+      <c r="J10">
+        <v>71</v>
+      </c>
+      <c r="K10" s="4">
+        <v>106</v>
+      </c>
+      <c r="L10" s="4">
+        <v>101</v>
+      </c>
+      <c r="M10" s="4">
+        <v>90</v>
+      </c>
+      <c r="N10" s="4">
+        <v>35</v>
+      </c>
+      <c r="P10" s="8">
+        <v>193</v>
+      </c>
+      <c r="Q10" s="4">
+        <v>111</v>
+      </c>
+      <c r="R10" s="4">
+        <v>86</v>
+      </c>
+      <c r="S10" s="8"/>
+      <c r="T10" s="8">
+        <v>402</v>
+      </c>
+      <c r="U10" s="4">
+        <v>659</v>
+      </c>
+      <c r="V10" s="8">
+        <v>531</v>
+      </c>
+      <c r="X10">
+        <v>508</v>
+      </c>
+      <c r="Y10">
+        <v>623</v>
+      </c>
+      <c r="Z10">
+        <v>888</v>
+      </c>
+      <c r="AA10">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11">
+        <v>68</v>
+      </c>
+      <c r="D11">
+        <v>66</v>
+      </c>
+      <c r="E11">
+        <v>61</v>
+      </c>
+      <c r="F11">
+        <v>125</v>
+      </c>
+      <c r="G11">
+        <v>37</v>
+      </c>
+      <c r="H11">
+        <v>34</v>
+      </c>
+      <c r="I11">
+        <v>47</v>
+      </c>
+      <c r="J11">
+        <v>37</v>
+      </c>
+      <c r="K11" s="4">
+        <v>57</v>
+      </c>
+      <c r="L11" s="4">
+        <v>37</v>
+      </c>
+      <c r="M11" s="4">
+        <v>0</v>
+      </c>
+      <c r="N11" s="3"/>
+      <c r="X11">
+        <v>74</v>
+      </c>
+      <c r="Y11">
+        <v>52</v>
+      </c>
+      <c r="Z11">
+        <v>82</v>
+      </c>
+      <c r="AA11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>72</v>
+      </c>
+      <c r="K12" s="4">
+        <v>34</v>
+      </c>
+      <c r="L12" s="4">
+        <v>45</v>
+      </c>
+      <c r="M12" s="4">
+        <v>54</v>
+      </c>
+      <c r="N12" s="4">
+        <v>43</v>
+      </c>
+      <c r="P12" s="8">
+        <v>126</v>
+      </c>
+      <c r="Q12" s="4">
+        <v>34</v>
+      </c>
+      <c r="R12" s="4">
+        <v>42</v>
+      </c>
+      <c r="S12" s="10"/>
+      <c r="T12" s="10">
+        <v>46</v>
+      </c>
+      <c r="U12" s="4">
+        <v>50</v>
+      </c>
+      <c r="V12" s="8">
+        <v>40</v>
+      </c>
+      <c r="X12">
+        <v>67</v>
+      </c>
+      <c r="Y12">
+        <v>56</v>
+      </c>
+      <c r="Z12">
+        <v>30</v>
+      </c>
+      <c r="AA12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13">
+        <v>110</v>
+      </c>
+      <c r="D13">
+        <v>403</v>
+      </c>
+      <c r="E13">
+        <v>211</v>
+      </c>
+      <c r="F13">
+        <v>928</v>
+      </c>
+      <c r="G13">
+        <v>216</v>
+      </c>
+      <c r="H13">
+        <v>108</v>
+      </c>
+      <c r="I13">
+        <v>93</v>
+      </c>
+      <c r="J13">
+        <v>91</v>
+      </c>
+      <c r="K13" s="5">
+        <v>72</v>
+      </c>
+      <c r="L13" s="4">
+        <v>64</v>
+      </c>
+      <c r="M13" s="4">
+        <v>63</v>
+      </c>
+      <c r="N13" s="4">
+        <v>74</v>
+      </c>
+      <c r="P13" s="8">
+        <v>72</v>
+      </c>
+      <c r="Q13" s="4">
+        <v>134</v>
+      </c>
+      <c r="R13" s="4">
+        <v>70</v>
+      </c>
+      <c r="U13" s="4">
+        <v>22</v>
+      </c>
+      <c r="V13" s="8">
+        <v>158</v>
+      </c>
+      <c r="X13">
+        <v>337</v>
+      </c>
+      <c r="Y13">
+        <v>194</v>
+      </c>
+      <c r="Z13">
+        <v>160</v>
+      </c>
+      <c r="AA13">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14">
+        <v>595</v>
+      </c>
+      <c r="D14">
+        <v>2016</v>
+      </c>
+      <c r="E14">
+        <v>1022</v>
+      </c>
+      <c r="F14">
+        <v>639</v>
+      </c>
+      <c r="G14">
+        <v>716</v>
+      </c>
+      <c r="H14">
+        <v>212</v>
+      </c>
+      <c r="I14">
+        <v>459</v>
+      </c>
+      <c r="J14">
+        <v>241</v>
+      </c>
+      <c r="K14" s="4">
+        <v>320</v>
+      </c>
+      <c r="L14" s="4">
+        <v>228</v>
+      </c>
+      <c r="M14" s="4">
+        <v>333</v>
+      </c>
+      <c r="N14" s="4">
+        <v>180</v>
+      </c>
+      <c r="P14" s="8">
+        <v>232</v>
+      </c>
+      <c r="Q14" s="4">
+        <v>216</v>
+      </c>
+      <c r="R14" s="4">
+        <v>478</v>
+      </c>
+      <c r="S14" s="8"/>
+      <c r="T14" s="8">
+        <v>670</v>
+      </c>
+      <c r="U14" s="4">
+        <v>189</v>
+      </c>
+      <c r="V14" s="8">
+        <v>270</v>
+      </c>
+      <c r="X14">
+        <v>369</v>
+      </c>
+      <c r="Y14">
+        <v>242</v>
+      </c>
+      <c r="Z14">
+        <v>339</v>
+      </c>
+      <c r="AA14">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15">
+        <v>102</v>
+      </c>
+      <c r="E15">
+        <v>119</v>
+      </c>
+      <c r="F15">
+        <v>268</v>
+      </c>
+      <c r="G15">
+        <v>254</v>
+      </c>
+      <c r="H15">
+        <v>82</v>
+      </c>
+      <c r="I15">
+        <v>352</v>
+      </c>
+      <c r="J15">
+        <v>70</v>
+      </c>
+      <c r="K15" s="4">
+        <v>372</v>
+      </c>
+      <c r="L15" s="4">
+        <v>457</v>
+      </c>
+      <c r="M15" s="4">
+        <v>182</v>
+      </c>
+      <c r="N15" s="4">
+        <v>102</v>
+      </c>
+      <c r="P15" s="8">
+        <v>152</v>
+      </c>
+      <c r="Q15" s="4">
+        <v>124</v>
+      </c>
+      <c r="R15" s="4">
+        <v>116</v>
+      </c>
+      <c r="S15" s="8"/>
+      <c r="T15" s="8">
+        <v>88</v>
+      </c>
+      <c r="U15" s="4">
+        <v>86</v>
+      </c>
+      <c r="V15" s="8">
+        <v>236</v>
+      </c>
+      <c r="X15">
+        <v>194</v>
+      </c>
+      <c r="Y15">
+        <v>168</v>
+      </c>
+      <c r="Z15">
+        <v>297</v>
+      </c>
+      <c r="AA15">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16">
+        <v>455</v>
+      </c>
+      <c r="D16">
+        <v>1016</v>
+      </c>
+      <c r="E16">
+        <v>248</v>
+      </c>
+      <c r="F16">
+        <v>502</v>
+      </c>
+      <c r="G16">
+        <v>615</v>
+      </c>
+      <c r="H16">
+        <v>158</v>
+      </c>
+      <c r="I16">
+        <v>331</v>
+      </c>
+      <c r="J16">
+        <v>278</v>
+      </c>
+      <c r="K16" s="4">
+        <v>548</v>
+      </c>
+      <c r="L16" s="4">
+        <v>128</v>
+      </c>
+      <c r="M16" s="4">
+        <v>274</v>
+      </c>
+      <c r="N16" s="4">
+        <v>469</v>
+      </c>
+      <c r="P16" s="8">
+        <v>512</v>
+      </c>
+      <c r="Q16" s="4">
+        <v>269</v>
+      </c>
+      <c r="R16" s="4">
+        <v>396</v>
+      </c>
+      <c r="S16" s="8"/>
+      <c r="T16" s="8">
+        <v>385</v>
+      </c>
+      <c r="U16" s="4">
+        <v>219</v>
+      </c>
+      <c r="V16" s="8">
+        <v>536</v>
+      </c>
+      <c r="X16">
+        <v>567</v>
+      </c>
+      <c r="Y16">
+        <v>409</v>
+      </c>
+      <c r="Z16">
+        <v>374</v>
+      </c>
+      <c r="AA16">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17">
+        <v>266</v>
+      </c>
+      <c r="D17">
+        <v>432</v>
+      </c>
+      <c r="E17">
+        <v>560</v>
+      </c>
+      <c r="F17">
+        <v>857</v>
+      </c>
+      <c r="G17">
+        <v>538</v>
+      </c>
+      <c r="H17">
+        <v>145</v>
+      </c>
+      <c r="I17">
+        <v>177</v>
+      </c>
+      <c r="J17">
+        <v>264</v>
+      </c>
+      <c r="K17" s="4">
+        <v>163</v>
+      </c>
+      <c r="L17" s="4">
+        <v>361</v>
+      </c>
+      <c r="M17" s="4">
+        <v>108</v>
+      </c>
+      <c r="N17" s="4">
+        <v>208</v>
+      </c>
+      <c r="P17" s="8">
+        <v>108</v>
+      </c>
+      <c r="Q17" s="4">
+        <v>106</v>
+      </c>
+      <c r="R17" s="4">
+        <v>203</v>
+      </c>
+      <c r="S17" s="8"/>
+      <c r="T17" s="8">
+        <v>153</v>
+      </c>
+      <c r="U17" s="4">
+        <v>104</v>
+      </c>
+      <c r="V17" s="8">
+        <v>139</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Y17">
+        <v>87</v>
+      </c>
+      <c r="Z17">
+        <v>156</v>
+      </c>
+      <c r="AA17">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>73</v>
+      </c>
+      <c r="D18">
+        <v>693</v>
+      </c>
+      <c r="E18">
+        <v>174</v>
+      </c>
+      <c r="F18">
+        <v>120</v>
+      </c>
+      <c r="G18">
+        <v>414</v>
+      </c>
+      <c r="H18">
+        <v>46</v>
+      </c>
+      <c r="I18">
+        <v>95</v>
+      </c>
+      <c r="J18">
+        <v>56</v>
+      </c>
+      <c r="K18" s="4">
+        <v>66</v>
+      </c>
+      <c r="L18" s="4">
+        <v>106</v>
+      </c>
+      <c r="M18" s="4">
+        <v>185</v>
+      </c>
+      <c r="N18" s="4">
+        <v>96</v>
+      </c>
+      <c r="P18" s="8">
+        <v>36</v>
+      </c>
+      <c r="Q18" s="4">
+        <v>86</v>
+      </c>
+      <c r="R18" s="4">
+        <v>56</v>
+      </c>
+      <c r="S18" s="8"/>
+      <c r="T18" s="8">
+        <v>86</v>
+      </c>
+      <c r="U18" s="4">
+        <v>93</v>
+      </c>
+      <c r="V18" s="8">
+        <v>76</v>
+      </c>
+      <c r="X18">
+        <v>56</v>
+      </c>
+      <c r="Y18">
+        <v>106</v>
+      </c>
+      <c r="Z18">
+        <v>66</v>
+      </c>
+      <c r="AA18">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19">
+        <v>106</v>
+      </c>
+      <c r="D19">
+        <v>80</v>
+      </c>
+      <c r="E19">
+        <v>590</v>
+      </c>
+      <c r="F19">
+        <v>104</v>
+      </c>
+      <c r="G19">
+        <v>61</v>
+      </c>
+      <c r="H19">
+        <v>58</v>
+      </c>
+      <c r="I19">
+        <v>26</v>
+      </c>
+      <c r="J19">
+        <v>52</v>
+      </c>
+      <c r="K19" s="4">
+        <v>90</v>
+      </c>
+      <c r="L19" s="4">
+        <v>78</v>
+      </c>
+      <c r="M19" s="4">
+        <v>396</v>
+      </c>
+      <c r="N19" s="4">
+        <v>72</v>
+      </c>
+      <c r="P19" s="8">
+        <v>526</v>
+      </c>
+      <c r="Q19" s="4">
+        <v>88</v>
+      </c>
+      <c r="R19" s="4">
+        <v>62</v>
+      </c>
+      <c r="S19" s="8"/>
+      <c r="T19" s="8">
+        <v>68</v>
+      </c>
+      <c r="U19" s="4">
+        <v>34</v>
+      </c>
+      <c r="V19" s="8">
+        <v>74</v>
+      </c>
+      <c r="X19">
+        <v>154</v>
+      </c>
+      <c r="Y19">
+        <v>84</v>
+      </c>
+      <c r="Z19">
+        <v>24</v>
+      </c>
+      <c r="AA19">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>69</v>
+      </c>
+      <c r="D20">
+        <v>183</v>
+      </c>
+      <c r="E20">
+        <v>228</v>
+      </c>
+      <c r="F20">
+        <v>226</v>
+      </c>
+      <c r="G20">
+        <v>332</v>
+      </c>
+      <c r="H20">
+        <v>200</v>
+      </c>
+      <c r="I20">
+        <v>130</v>
+      </c>
+      <c r="J20">
+        <v>179</v>
+      </c>
+      <c r="K20" s="4">
+        <v>199</v>
+      </c>
+      <c r="L20" s="4">
+        <v>61</v>
+      </c>
+      <c r="M20" s="4">
+        <v>162</v>
+      </c>
+      <c r="N20" s="4">
+        <v>295</v>
+      </c>
+      <c r="P20" s="8">
+        <v>24</v>
+      </c>
+      <c r="Q20" s="4">
+        <v>24</v>
+      </c>
+      <c r="R20" s="4">
+        <v>4</v>
+      </c>
+      <c r="S20" s="8"/>
+      <c r="T20" s="8">
+        <v>23</v>
+      </c>
+      <c r="U20" s="4">
+        <v>36</v>
+      </c>
+      <c r="V20" s="8">
+        <v>40</v>
+      </c>
+      <c r="X20">
+        <v>9</v>
+      </c>
+      <c r="Y20">
+        <v>23</v>
+      </c>
+      <c r="Z20">
+        <v>45</v>
+      </c>
+      <c r="AA20">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21">
+        <v>46</v>
+      </c>
+      <c r="D21">
+        <v>40</v>
+      </c>
+      <c r="E21">
+        <v>68</v>
+      </c>
+      <c r="F21">
+        <v>44</v>
+      </c>
+      <c r="G21">
+        <v>80</v>
+      </c>
+      <c r="H21">
+        <v>28</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>44</v>
+      </c>
+      <c r="K21" s="4">
+        <v>25</v>
+      </c>
+      <c r="L21" s="4">
+        <v>228</v>
+      </c>
+      <c r="M21" s="4">
+        <v>50</v>
+      </c>
+      <c r="N21" s="4">
+        <v>45</v>
+      </c>
+      <c r="P21" s="8">
+        <v>49</v>
+      </c>
+      <c r="Q21" s="4">
+        <v>26</v>
+      </c>
+      <c r="R21" s="4">
+        <v>108</v>
+      </c>
+      <c r="S21" s="8"/>
+      <c r="T21" s="8">
+        <v>44</v>
+      </c>
+      <c r="U21" s="4">
+        <v>79</v>
+      </c>
+      <c r="V21" s="8">
+        <v>47</v>
+      </c>
+      <c r="X21">
+        <v>92</v>
+      </c>
+      <c r="Z21">
+        <v>18</v>
+      </c>
+      <c r="AA21">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22">
+        <v>149</v>
+      </c>
+      <c r="D22">
+        <v>98</v>
+      </c>
+      <c r="E22">
+        <v>272</v>
+      </c>
+      <c r="F22">
+        <v>164</v>
+      </c>
+      <c r="G22">
+        <v>78</v>
+      </c>
+      <c r="H22">
+        <v>95</v>
+      </c>
+      <c r="I22">
+        <v>36</v>
+      </c>
+      <c r="J22">
+        <v>94</v>
+      </c>
+      <c r="K22" s="4">
+        <v>67</v>
+      </c>
+      <c r="L22" s="4">
+        <v>46</v>
+      </c>
+      <c r="M22" s="4">
+        <v>58</v>
+      </c>
+      <c r="N22" s="4">
+        <v>53</v>
+      </c>
+      <c r="P22" s="8">
+        <v>66</v>
+      </c>
+      <c r="Q22" s="4">
+        <v>76</v>
+      </c>
+      <c r="R22" s="4">
+        <v>51</v>
+      </c>
+      <c r="S22" s="8"/>
+      <c r="T22" s="8">
+        <v>66</v>
+      </c>
+      <c r="U22" s="4">
+        <v>43</v>
+      </c>
+      <c r="V22" s="8">
+        <v>116</v>
+      </c>
+      <c r="X22">
+        <v>96</v>
+      </c>
+      <c r="Y22">
+        <v>70</v>
+      </c>
+      <c r="Z22">
+        <v>111</v>
+      </c>
+      <c r="AA22">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23">
+        <v>74</v>
+      </c>
+      <c r="D23">
+        <v>207</v>
+      </c>
+      <c r="E23">
+        <v>116</v>
+      </c>
+      <c r="F23">
+        <v>299</v>
+      </c>
+      <c r="G23">
+        <v>129</v>
+      </c>
+      <c r="H23">
+        <v>114</v>
+      </c>
+      <c r="I23">
+        <v>114</v>
+      </c>
+      <c r="J23">
+        <v>92</v>
+      </c>
+      <c r="K23" s="4">
+        <v>42</v>
+      </c>
+      <c r="L23" s="4">
+        <v>47</v>
+      </c>
+      <c r="M23" s="4">
+        <v>34</v>
+      </c>
+      <c r="N23" s="4">
+        <v>108</v>
+      </c>
+      <c r="P23" s="8">
+        <v>188</v>
+      </c>
+      <c r="Q23" s="4">
+        <v>189</v>
+      </c>
+      <c r="R23" s="4">
+        <v>108</v>
+      </c>
+      <c r="S23" s="8"/>
+      <c r="T23" s="8">
+        <v>268</v>
+      </c>
+      <c r="U23" s="4">
+        <v>85</v>
+      </c>
+      <c r="V23" s="8">
+        <v>114</v>
+      </c>
+      <c r="X23">
+        <v>132</v>
+      </c>
+      <c r="Y23">
+        <v>153</v>
+      </c>
+      <c r="Z23">
+        <v>130</v>
+      </c>
+      <c r="AA23">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24">
+        <v>48</v>
+      </c>
+      <c r="D24">
+        <v>33</v>
+      </c>
+      <c r="E24">
+        <v>75</v>
+      </c>
+      <c r="F24">
+        <v>97</v>
+      </c>
+      <c r="G24">
+        <v>84</v>
+      </c>
+      <c r="H24">
+        <v>94</v>
+      </c>
+      <c r="I24">
+        <v>41</v>
+      </c>
+      <c r="J24">
+        <v>125</v>
+      </c>
+      <c r="K24" s="4">
+        <v>69</v>
+      </c>
+      <c r="L24" s="4">
+        <v>97</v>
+      </c>
+      <c r="M24" s="4">
+        <v>97</v>
+      </c>
+      <c r="N24" s="4">
+        <v>64</v>
+      </c>
+      <c r="P24" s="8">
+        <v>64</v>
+      </c>
+      <c r="Q24" s="4">
+        <v>64</v>
+      </c>
+      <c r="R24" s="4">
+        <v>161</v>
+      </c>
+      <c r="S24" s="8"/>
+      <c r="T24" s="8">
+        <v>54</v>
+      </c>
+      <c r="U24" s="4">
+        <v>31</v>
+      </c>
+      <c r="V24" s="8">
+        <v>74</v>
+      </c>
+      <c r="X24">
+        <v>307</v>
+      </c>
+      <c r="Y24">
+        <v>54</v>
+      </c>
+      <c r="Z24">
+        <v>176</v>
+      </c>
+      <c r="AA24">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25">
+        <v>440</v>
+      </c>
+      <c r="D25">
+        <v>1477</v>
+      </c>
+      <c r="E25">
+        <v>663</v>
+      </c>
+      <c r="F25">
+        <v>1532</v>
+      </c>
+      <c r="G25">
+        <v>348</v>
+      </c>
+      <c r="H25">
+        <v>562</v>
+      </c>
+      <c r="I25">
+        <v>392</v>
+      </c>
+      <c r="J25">
+        <v>500</v>
+      </c>
+      <c r="K25" s="4">
+        <v>332</v>
+      </c>
+      <c r="L25" s="4">
+        <v>69</v>
+      </c>
+      <c r="M25" s="4">
+        <v>253</v>
+      </c>
+      <c r="N25" s="4">
+        <v>404</v>
+      </c>
+      <c r="P25" s="8">
+        <v>227</v>
+      </c>
+      <c r="Q25" s="4">
+        <v>365</v>
+      </c>
+      <c r="R25" s="4">
+        <v>300</v>
+      </c>
+      <c r="S25" s="8"/>
+      <c r="T25" s="8">
+        <v>356</v>
+      </c>
+      <c r="U25" s="4">
+        <v>317</v>
+      </c>
+      <c r="V25" s="8">
+        <v>311</v>
+      </c>
+      <c r="X25">
+        <v>280</v>
+      </c>
+      <c r="Y25">
+        <v>370</v>
+      </c>
+      <c r="Z25">
+        <v>233</v>
+      </c>
+      <c r="AA25">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>87</v>
+      </c>
+      <c r="D26">
+        <v>71</v>
+      </c>
+      <c r="E26">
+        <v>263</v>
+      </c>
+      <c r="F26">
+        <v>123</v>
+      </c>
+      <c r="G26">
+        <v>161</v>
+      </c>
+      <c r="H26">
+        <v>12</v>
+      </c>
+      <c r="I26">
+        <v>37</v>
+      </c>
+      <c r="J26">
+        <v>25</v>
+      </c>
+      <c r="K26" s="4">
+        <v>20</v>
+      </c>
+      <c r="L26" s="4">
+        <v>448</v>
+      </c>
+      <c r="M26" s="4">
+        <v>44</v>
+      </c>
+      <c r="N26" s="4">
+        <v>36</v>
+      </c>
+      <c r="P26" s="8">
+        <v>65</v>
+      </c>
+      <c r="Q26" s="4">
+        <v>39</v>
+      </c>
+      <c r="R26" s="4">
+        <v>53</v>
+      </c>
+      <c r="S26" s="8"/>
+      <c r="T26" s="8">
+        <v>236</v>
+      </c>
+      <c r="U26" s="4">
+        <v>66</v>
+      </c>
+      <c r="V26" s="8">
+        <v>60</v>
+      </c>
+      <c r="X26">
+        <v>33</v>
+      </c>
+      <c r="Y26">
+        <v>28</v>
+      </c>
+      <c r="Z26">
+        <v>46</v>
+      </c>
+      <c r="AA26">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>39</v>
+      </c>
+      <c r="C27">
+        <v>55</v>
+      </c>
+      <c r="D27">
+        <v>108</v>
+      </c>
+      <c r="E27">
+        <v>92</v>
+      </c>
+      <c r="F27">
+        <v>349</v>
+      </c>
+      <c r="G27">
+        <v>75</v>
+      </c>
+      <c r="H27">
+        <v>92</v>
+      </c>
+      <c r="I27">
+        <v>92</v>
+      </c>
+      <c r="J27">
+        <v>209</v>
+      </c>
+      <c r="K27" s="4">
+        <v>58</v>
+      </c>
+      <c r="L27" s="4">
+        <v>50</v>
+      </c>
+      <c r="M27" s="4">
+        <v>52</v>
+      </c>
+      <c r="N27" s="4">
+        <v>93</v>
+      </c>
+      <c r="P27" s="8">
+        <v>51</v>
+      </c>
+      <c r="Q27" s="4">
+        <v>70</v>
+      </c>
+      <c r="R27" s="4">
+        <v>121</v>
+      </c>
+      <c r="S27" s="8"/>
+      <c r="T27" s="8">
+        <v>36</v>
+      </c>
+      <c r="U27" s="4">
+        <v>68</v>
+      </c>
+      <c r="V27" s="8">
+        <v>60</v>
+      </c>
+      <c r="X27">
+        <v>62</v>
+      </c>
+      <c r="Y27">
+        <v>62</v>
+      </c>
+      <c r="Z27">
+        <v>150</v>
+      </c>
+      <c r="AA27">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28">
+        <v>123</v>
+      </c>
+      <c r="D28">
+        <v>462</v>
+      </c>
+      <c r="E28">
+        <v>535</v>
+      </c>
+      <c r="F28">
+        <v>398</v>
+      </c>
+      <c r="G28">
+        <v>127</v>
+      </c>
+      <c r="H28">
+        <v>54</v>
+      </c>
+      <c r="I28">
+        <v>74</v>
+      </c>
+      <c r="J28">
+        <v>50</v>
+      </c>
+      <c r="K28" s="4">
+        <v>58</v>
+      </c>
+      <c r="L28" s="4">
+        <v>94</v>
+      </c>
+      <c r="M28" s="4">
+        <v>48</v>
+      </c>
+      <c r="N28" s="4">
+        <v>29</v>
+      </c>
+      <c r="P28" s="8">
+        <v>141</v>
+      </c>
+      <c r="Q28" s="4">
+        <v>111</v>
+      </c>
+      <c r="R28" s="4">
+        <v>222</v>
+      </c>
+      <c r="S28" s="8"/>
+      <c r="T28" s="8">
+        <v>93</v>
+      </c>
+      <c r="U28" s="4">
+        <v>55</v>
+      </c>
+      <c r="V28" s="8">
+        <v>38</v>
+      </c>
+      <c r="X28">
+        <v>81</v>
+      </c>
+      <c r="Y28">
+        <v>112</v>
+      </c>
+      <c r="Z28">
+        <v>131</v>
+      </c>
+      <c r="AA28">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C29">
+        <v>105</v>
+      </c>
+      <c r="D29">
+        <v>386</v>
+      </c>
+      <c r="E29">
+        <v>167</v>
+      </c>
+      <c r="F29">
+        <v>115</v>
+      </c>
+      <c r="G29">
+        <v>57</v>
+      </c>
+      <c r="H29">
+        <v>63</v>
+      </c>
+      <c r="I29">
+        <v>49</v>
+      </c>
+      <c r="J29">
+        <v>82</v>
+      </c>
+      <c r="K29" s="4">
+        <v>36</v>
+      </c>
+      <c r="L29" s="4">
+        <v>116</v>
+      </c>
+      <c r="M29" s="4">
+        <v>216</v>
+      </c>
+      <c r="N29" s="4">
+        <v>73</v>
+      </c>
+      <c r="P29" s="8">
+        <v>124</v>
+      </c>
+      <c r="Q29" s="4">
+        <v>86</v>
+      </c>
+      <c r="R29" s="4">
+        <v>146</v>
+      </c>
+      <c r="S29" s="8"/>
+      <c r="T29" s="8">
+        <v>100</v>
+      </c>
+      <c r="U29" s="4">
+        <v>76</v>
+      </c>
+      <c r="V29" s="8">
+        <v>66</v>
+      </c>
+      <c r="X29">
+        <v>678</v>
+      </c>
+      <c r="Y29">
+        <v>146</v>
+      </c>
+      <c r="Z29">
+        <v>200</v>
+      </c>
+      <c r="AA29">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>517</v>
+      </c>
+      <c r="D30">
+        <v>304</v>
+      </c>
+      <c r="E30">
+        <v>404</v>
+      </c>
+      <c r="F30">
+        <v>188</v>
+      </c>
+      <c r="G30">
+        <v>189</v>
+      </c>
+      <c r="H30">
+        <v>146</v>
+      </c>
+      <c r="I30">
+        <v>109</v>
+      </c>
+      <c r="J30">
+        <v>92</v>
+      </c>
+      <c r="K30">
+        <v>184</v>
+      </c>
+      <c r="L30">
+        <v>15</v>
+      </c>
+      <c r="M30" s="4">
+        <v>266</v>
+      </c>
+      <c r="N30">
+        <v>249</v>
+      </c>
+      <c r="P30" s="8">
+        <v>409</v>
+      </c>
+      <c r="Q30">
+        <v>122</v>
+      </c>
+      <c r="R30" s="4">
+        <v>282</v>
+      </c>
+      <c r="S30" s="8"/>
+      <c r="T30" s="8">
+        <v>208</v>
+      </c>
+      <c r="U30">
+        <v>272</v>
+      </c>
+      <c r="V30" s="8">
+        <v>114</v>
+      </c>
+      <c r="X30">
+        <v>153</v>
+      </c>
+      <c r="Y30">
+        <v>176</v>
+      </c>
+      <c r="Z30">
+        <v>153</v>
+      </c>
+      <c r="AA30">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31">
+        <v>73</v>
+      </c>
+      <c r="D31">
+        <v>29</v>
+      </c>
+      <c r="E31">
+        <v>211</v>
+      </c>
+      <c r="F31">
+        <v>269</v>
+      </c>
+      <c r="G31">
+        <v>145</v>
+      </c>
+      <c r="H31">
+        <v>70</v>
+      </c>
+      <c r="I31">
+        <v>96</v>
+      </c>
+      <c r="J31">
+        <v>78</v>
+      </c>
+      <c r="K31" s="4">
+        <v>77</v>
+      </c>
+      <c r="L31" s="4">
+        <v>103</v>
+      </c>
+      <c r="M31" s="4">
+        <v>84</v>
+      </c>
+      <c r="N31" s="4">
+        <v>104</v>
+      </c>
+      <c r="P31" s="8">
+        <v>86</v>
+      </c>
+      <c r="Q31" s="4">
+        <v>53</v>
+      </c>
+      <c r="R31" s="4">
+        <v>144</v>
+      </c>
+      <c r="S31" s="8"/>
+      <c r="T31" s="8">
+        <v>146</v>
+      </c>
+      <c r="U31" s="4">
+        <v>76</v>
+      </c>
+      <c r="V31" s="8">
+        <v>104</v>
+      </c>
+      <c r="X31">
+        <v>126</v>
+      </c>
+      <c r="Y31">
+        <v>321</v>
+      </c>
+      <c r="Z31">
+        <v>165</v>
+      </c>
+      <c r="AA31">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32">
+        <v>160</v>
+      </c>
+      <c r="D32">
+        <v>282</v>
+      </c>
+      <c r="E32">
+        <v>218</v>
+      </c>
+      <c r="F32">
+        <v>503</v>
+      </c>
+      <c r="G32">
+        <v>117</v>
+      </c>
+      <c r="H32">
+        <v>63</v>
+      </c>
+      <c r="I32">
+        <v>73</v>
+      </c>
+      <c r="J32">
+        <v>53</v>
+      </c>
+      <c r="K32" s="4">
+        <v>43</v>
+      </c>
+      <c r="L32" s="4">
+        <v>62</v>
+      </c>
+      <c r="M32" s="4">
+        <v>63</v>
+      </c>
+      <c r="N32" s="4">
+        <v>84</v>
+      </c>
+      <c r="P32" s="8">
+        <v>74</v>
+      </c>
+      <c r="Q32" s="4">
+        <v>80</v>
+      </c>
+      <c r="R32" s="4">
+        <v>64</v>
+      </c>
+      <c r="S32" s="8"/>
+      <c r="T32" s="8">
+        <v>72</v>
+      </c>
+      <c r="U32" s="4">
+        <v>137</v>
+      </c>
+      <c r="V32" s="8">
+        <v>77</v>
+      </c>
+      <c r="X32">
+        <v>52</v>
+      </c>
+      <c r="Y32">
+        <v>106</v>
+      </c>
+      <c r="Z32">
+        <v>96</v>
+      </c>
+      <c r="AA32">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33">
+        <v>61</v>
+      </c>
+      <c r="D33">
+        <v>165</v>
+      </c>
+      <c r="E33">
+        <v>157</v>
+      </c>
+      <c r="F33">
+        <v>69</v>
+      </c>
+      <c r="G33">
+        <v>116</v>
+      </c>
+      <c r="H33">
+        <v>37</v>
+      </c>
+      <c r="I33">
+        <v>12</v>
+      </c>
+      <c r="J33">
+        <v>75</v>
+      </c>
+      <c r="K33" s="4">
+        <v>59</v>
+      </c>
+      <c r="L33" s="4">
+        <v>89</v>
+      </c>
+      <c r="M33" s="4">
+        <v>93</v>
+      </c>
+      <c r="N33" s="4">
+        <v>70</v>
+      </c>
+      <c r="P33" s="8">
+        <v>98</v>
+      </c>
+      <c r="Q33" s="4">
+        <v>57</v>
+      </c>
+      <c r="R33" s="4">
+        <v>39</v>
+      </c>
+      <c r="S33" s="8"/>
+      <c r="T33" s="8">
+        <v>69</v>
+      </c>
+      <c r="U33" s="4">
+        <v>91</v>
+      </c>
+      <c r="V33" s="8">
+        <v>54</v>
+      </c>
+      <c r="X33">
+        <v>46</v>
+      </c>
+      <c r="Y33">
+        <v>72</v>
+      </c>
+      <c r="Z33">
+        <v>90</v>
+      </c>
+      <c r="AA33">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>18</v>
+      </c>
+      <c r="C34">
+        <v>129</v>
+      </c>
+      <c r="D34">
+        <v>144</v>
+      </c>
+      <c r="E34">
+        <v>165</v>
+      </c>
+      <c r="F34">
+        <v>304</v>
+      </c>
+      <c r="G34">
+        <v>198</v>
+      </c>
+      <c r="H34">
+        <v>164</v>
+      </c>
+      <c r="I34">
+        <v>66</v>
+      </c>
+      <c r="J34">
+        <v>163</v>
+      </c>
+      <c r="K34" s="4">
+        <v>152</v>
+      </c>
+      <c r="L34" s="4">
+        <v>407</v>
+      </c>
+      <c r="M34" s="4">
+        <v>443</v>
+      </c>
+      <c r="N34" s="4">
+        <v>180</v>
+      </c>
+      <c r="P34" s="8">
+        <v>176</v>
+      </c>
+      <c r="Q34" s="4">
+        <v>741</v>
+      </c>
+      <c r="R34" s="4">
+        <v>292</v>
+      </c>
+      <c r="S34" s="8"/>
+      <c r="T34" s="8">
+        <v>132</v>
+      </c>
+      <c r="U34" s="4">
+        <v>56</v>
+      </c>
+      <c r="V34" s="8">
+        <v>94</v>
+      </c>
+      <c r="X34">
+        <v>165</v>
+      </c>
+      <c r="Y34">
+        <v>259</v>
+      </c>
+      <c r="Z34">
+        <v>271</v>
+      </c>
+      <c r="AA34">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <v>208</v>
+      </c>
+      <c r="D35">
+        <v>130</v>
+      </c>
+      <c r="E35">
+        <v>152</v>
+      </c>
+      <c r="F35">
+        <v>182</v>
+      </c>
+      <c r="G35">
+        <v>287</v>
+      </c>
+      <c r="H35">
+        <v>86</v>
+      </c>
+      <c r="I35">
+        <v>72</v>
+      </c>
+      <c r="J35">
+        <v>53</v>
+      </c>
+      <c r="K35">
+        <v>64</v>
+      </c>
+      <c r="L35">
+        <v>89</v>
+      </c>
+      <c r="M35" s="4">
+        <v>68</v>
+      </c>
+      <c r="N35">
+        <v>28</v>
+      </c>
+      <c r="P35" s="8">
+        <v>45</v>
+      </c>
+      <c r="Q35">
+        <v>56</v>
+      </c>
+      <c r="R35" s="4">
+        <v>106</v>
+      </c>
+      <c r="S35" s="8"/>
+      <c r="T35" s="8">
+        <v>49</v>
+      </c>
+      <c r="U35">
+        <v>76</v>
+      </c>
+      <c r="V35" s="8">
+        <v>70</v>
+      </c>
+      <c r="X35">
+        <v>84</v>
+      </c>
+      <c r="Y35">
+        <v>90</v>
+      </c>
+      <c r="Z35">
+        <v>71</v>
+      </c>
+      <c r="AA35">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>37</v>
+      </c>
+      <c r="C36">
+        <v>64</v>
+      </c>
+      <c r="D36">
+        <v>142</v>
+      </c>
+      <c r="E36">
+        <v>134</v>
+      </c>
+      <c r="F36">
+        <v>295</v>
+      </c>
+      <c r="G36">
+        <v>113</v>
+      </c>
+      <c r="H36">
+        <v>111</v>
+      </c>
+      <c r="I36">
+        <v>84</v>
+      </c>
+      <c r="J36">
+        <v>191</v>
+      </c>
+      <c r="K36" s="4">
+        <v>16</v>
+      </c>
+      <c r="L36" s="4">
+        <v>125</v>
+      </c>
+      <c r="M36" s="4">
+        <v>93</v>
+      </c>
+      <c r="N36" s="4">
+        <v>60</v>
+      </c>
+      <c r="P36" s="8">
+        <v>96</v>
+      </c>
+      <c r="Q36" s="4">
+        <v>118</v>
+      </c>
+      <c r="R36" s="4">
+        <v>112</v>
+      </c>
+      <c r="S36" s="8"/>
+      <c r="T36" s="8">
+        <v>68</v>
+      </c>
+      <c r="U36" s="4">
+        <v>71</v>
+      </c>
+      <c r="V36" s="8">
+        <v>118</v>
+      </c>
+      <c r="X36">
+        <v>88</v>
+      </c>
+      <c r="Y36">
+        <v>148</v>
+      </c>
+      <c r="Z36">
+        <v>137</v>
+      </c>
+      <c r="AA36">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>20</v>
+      </c>
+      <c r="C37">
+        <v>71</v>
+      </c>
+      <c r="D37">
+        <v>47</v>
+      </c>
+      <c r="E37">
+        <v>42</v>
+      </c>
+      <c r="F37">
+        <v>122</v>
+      </c>
+      <c r="G37">
+        <v>84</v>
+      </c>
+      <c r="H37">
+        <v>81</v>
+      </c>
+      <c r="I37">
+        <v>45</v>
+      </c>
+      <c r="J37">
+        <v>68</v>
+      </c>
+      <c r="K37" s="4">
+        <v>60</v>
+      </c>
+      <c r="L37" s="4">
+        <v>66</v>
+      </c>
+      <c r="M37" s="4">
+        <v>172</v>
+      </c>
+      <c r="N37" s="4">
+        <v>64</v>
+      </c>
+      <c r="P37" s="8">
+        <v>70</v>
+      </c>
+      <c r="Q37" s="4">
+        <v>75</v>
+      </c>
+      <c r="R37" s="4">
+        <v>126</v>
+      </c>
+      <c r="S37" s="8"/>
+      <c r="T37" s="8">
+        <v>47</v>
+      </c>
+      <c r="U37" s="4">
+        <v>81</v>
+      </c>
+      <c r="V37" s="8">
+        <v>70</v>
+      </c>
+      <c r="X37">
+        <v>120</v>
+      </c>
+      <c r="Y37">
+        <v>89</v>
+      </c>
+      <c r="Z37">
+        <v>98</v>
+      </c>
+      <c r="AA37">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>70</v>
+      </c>
+      <c r="F38">
+        <v>175</v>
+      </c>
+      <c r="G38">
+        <v>820</v>
+      </c>
+      <c r="H38">
+        <v>252</v>
+      </c>
+      <c r="I38">
+        <v>252</v>
+      </c>
+      <c r="J38">
+        <v>247</v>
+      </c>
+      <c r="K38" s="4">
+        <v>108</v>
+      </c>
+      <c r="L38" s="4">
+        <v>106</v>
+      </c>
+      <c r="M38" s="4">
+        <v>346</v>
+      </c>
+      <c r="N38" s="4">
+        <v>131</v>
+      </c>
+      <c r="P38" s="8">
+        <v>104</v>
+      </c>
+      <c r="Q38" s="4">
+        <v>126</v>
+      </c>
+      <c r="R38" s="4">
+        <v>96</v>
+      </c>
+      <c r="S38" s="8"/>
+      <c r="T38" s="8">
+        <v>94</v>
+      </c>
+      <c r="U38" s="4">
+        <v>106</v>
+      </c>
+      <c r="V38" s="8">
+        <v>92</v>
+      </c>
+      <c r="X38">
+        <v>170</v>
+      </c>
+      <c r="Y38">
+        <v>163</v>
+      </c>
+      <c r="Z38">
+        <v>255</v>
+      </c>
+      <c r="AA38">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>19</v>
+      </c>
+      <c r="C39">
+        <v>228</v>
+      </c>
+      <c r="D39">
+        <v>166</v>
+      </c>
+      <c r="E39">
+        <v>206</v>
+      </c>
+      <c r="F39">
+        <v>230</v>
+      </c>
+      <c r="G39">
+        <v>181</v>
+      </c>
+      <c r="H39">
+        <v>116</v>
+      </c>
+      <c r="I39">
+        <v>83</v>
+      </c>
+      <c r="J39">
+        <v>220</v>
+      </c>
+      <c r="K39" s="4">
+        <v>140</v>
+      </c>
+      <c r="L39" s="4">
+        <v>279</v>
+      </c>
+      <c r="M39" s="4">
+        <v>196</v>
+      </c>
+      <c r="N39" s="4">
+        <v>190</v>
+      </c>
+      <c r="P39" s="8">
+        <v>200</v>
+      </c>
+      <c r="Q39" s="4">
+        <v>396</v>
+      </c>
+      <c r="R39" s="4">
+        <v>246</v>
+      </c>
+      <c r="S39" s="8"/>
+      <c r="T39" s="8">
+        <v>114</v>
+      </c>
+      <c r="U39" s="4">
+        <v>122</v>
+      </c>
+      <c r="V39" s="8">
+        <v>140</v>
+      </c>
+      <c r="X39">
+        <v>155</v>
+      </c>
+      <c r="Y39">
+        <v>320</v>
+      </c>
+      <c r="Z39">
+        <v>164</v>
+      </c>
+      <c r="AA39">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>26</v>
+      </c>
+      <c r="C40">
+        <v>595</v>
+      </c>
+      <c r="D40">
+        <v>1113</v>
+      </c>
+      <c r="E40">
+        <v>985</v>
+      </c>
+      <c r="F40">
+        <v>357</v>
+      </c>
+      <c r="G40">
+        <v>1049</v>
+      </c>
+      <c r="H40">
+        <v>84</v>
+      </c>
+      <c r="I40">
+        <v>141</v>
+      </c>
+      <c r="J40">
+        <v>126</v>
+      </c>
+      <c r="K40" s="4">
+        <v>100</v>
+      </c>
+      <c r="L40" s="4">
+        <v>226</v>
+      </c>
+      <c r="M40" s="4">
+        <v>150</v>
+      </c>
+      <c r="N40" s="4">
+        <v>77</v>
+      </c>
+      <c r="P40" s="8">
+        <v>224</v>
+      </c>
+      <c r="Q40" s="4">
+        <v>162</v>
+      </c>
+      <c r="R40" s="4">
+        <v>108</v>
+      </c>
+      <c r="S40" s="8"/>
+      <c r="T40" s="8">
+        <v>264</v>
+      </c>
+      <c r="U40" s="4">
+        <v>161</v>
+      </c>
+      <c r="V40" s="8">
+        <v>218</v>
+      </c>
+      <c r="X40">
+        <v>270</v>
+      </c>
+      <c r="Y40">
+        <v>166</v>
+      </c>
+      <c r="Z40">
+        <v>176</v>
+      </c>
+      <c r="AA40">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>33</v>
+      </c>
+      <c r="C41">
+        <v>201</v>
+      </c>
+      <c r="D41">
+        <v>355</v>
+      </c>
+      <c r="E41">
+        <v>251</v>
+      </c>
+      <c r="F41">
+        <v>196</v>
+      </c>
+      <c r="G41">
+        <v>132</v>
+      </c>
+      <c r="H41">
+        <v>83</v>
+      </c>
+      <c r="I41">
+        <v>83</v>
+      </c>
+      <c r="J41">
+        <v>281</v>
+      </c>
+      <c r="K41" s="4">
+        <v>44</v>
+      </c>
+      <c r="L41" s="4">
+        <v>47</v>
+      </c>
+      <c r="M41" s="4">
+        <v>154</v>
+      </c>
+      <c r="N41" s="4">
+        <v>31</v>
+      </c>
+      <c r="P41" s="8">
+        <v>46</v>
+      </c>
+      <c r="Q41" s="4">
+        <v>59</v>
+      </c>
+      <c r="R41" s="4">
+        <v>56</v>
+      </c>
+      <c r="S41" s="8"/>
+      <c r="T41" s="8">
+        <v>52</v>
+      </c>
+      <c r="U41" s="4">
+        <v>92</v>
+      </c>
+      <c r="V41" s="8">
+        <v>64</v>
+      </c>
+      <c r="X41">
+        <v>74</v>
+      </c>
+      <c r="Y41">
+        <v>66</v>
+      </c>
+      <c r="Z41">
+        <v>36</v>
+      </c>
+      <c r="AA41">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42">
+        <v>1029</v>
+      </c>
+      <c r="D42">
+        <v>1778</v>
+      </c>
+      <c r="E42">
+        <v>4717</v>
+      </c>
+      <c r="F42">
+        <v>930</v>
+      </c>
+      <c r="G42">
+        <v>752</v>
+      </c>
+      <c r="H42">
+        <v>522</v>
+      </c>
+      <c r="I42">
+        <v>923</v>
+      </c>
+      <c r="J42">
+        <v>236</v>
+      </c>
+      <c r="K42" s="4">
+        <v>591</v>
+      </c>
+      <c r="L42" s="4">
+        <v>356</v>
+      </c>
+      <c r="M42" s="4">
+        <v>362</v>
+      </c>
+      <c r="N42" s="4">
+        <v>438</v>
+      </c>
+      <c r="P42" s="7">
+        <v>1118</v>
+      </c>
+      <c r="Q42" s="4">
+        <v>648</v>
+      </c>
+      <c r="R42" s="4">
+        <v>529</v>
+      </c>
+      <c r="S42" s="8"/>
+      <c r="T42" s="8">
+        <v>666</v>
+      </c>
+      <c r="U42" s="4">
+        <v>680</v>
+      </c>
+      <c r="V42" s="8">
+        <v>575</v>
+      </c>
+      <c r="X42">
+        <v>700</v>
+      </c>
+      <c r="Y42">
+        <v>1158</v>
+      </c>
+      <c r="Z42">
+        <v>788</v>
+      </c>
+      <c r="AA42">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>4</v>
+      </c>
+      <c r="C43">
+        <v>1047</v>
+      </c>
+      <c r="D43">
+        <v>1430</v>
+      </c>
+      <c r="E43">
+        <v>4084</v>
+      </c>
+      <c r="F43">
+        <v>1604</v>
+      </c>
+      <c r="G43">
+        <v>1180</v>
+      </c>
+      <c r="H43">
+        <v>657</v>
+      </c>
+      <c r="I43">
+        <v>730</v>
+      </c>
+      <c r="J43">
+        <v>829</v>
+      </c>
+      <c r="K43" s="3">
+        <v>1237</v>
+      </c>
+      <c r="L43" s="4">
+        <v>987</v>
+      </c>
+      <c r="M43" s="4">
+        <v>2239</v>
+      </c>
+      <c r="N43" s="4">
+        <v>607</v>
+      </c>
+      <c r="P43" s="8">
+        <v>560</v>
+      </c>
+      <c r="Q43" s="4">
+        <v>688</v>
+      </c>
+      <c r="R43" s="4">
+        <v>511</v>
+      </c>
+      <c r="S43" s="8"/>
+      <c r="T43" s="8">
+        <v>341</v>
+      </c>
+      <c r="U43" s="4">
+        <v>605</v>
+      </c>
+      <c r="V43" s="8">
+        <v>460</v>
+      </c>
+      <c r="X43">
+        <v>826</v>
+      </c>
+      <c r="Y43">
+        <v>1207</v>
+      </c>
+      <c r="Z43">
+        <v>954</v>
+      </c>
+      <c r="AA43">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>2</v>
+      </c>
+      <c r="C44">
+        <v>102</v>
+      </c>
+      <c r="D44">
+        <v>101</v>
+      </c>
+      <c r="E44">
+        <v>137</v>
+      </c>
+      <c r="F44">
+        <v>128</v>
+      </c>
+      <c r="G44">
+        <v>106</v>
+      </c>
+      <c r="H44">
+        <v>66</v>
+      </c>
+      <c r="I44">
+        <v>71</v>
+      </c>
+      <c r="J44">
+        <v>54</v>
+      </c>
+      <c r="K44" s="4">
+        <v>68</v>
+      </c>
+      <c r="L44" s="4">
+        <v>156</v>
+      </c>
+      <c r="M44" s="4">
+        <v>83</v>
+      </c>
+      <c r="N44" s="4">
+        <v>84</v>
+      </c>
+      <c r="P44" s="4">
+        <v>45</v>
+      </c>
+      <c r="Q44" s="4">
+        <v>63</v>
+      </c>
+      <c r="R44" s="4">
+        <v>76</v>
+      </c>
+      <c r="S44" s="8"/>
+      <c r="T44" s="8">
+        <v>71</v>
+      </c>
+      <c r="U44" s="4">
+        <v>61</v>
+      </c>
+      <c r="V44" s="8">
+        <v>36</v>
+      </c>
+      <c r="X44">
+        <v>62</v>
+      </c>
+      <c r="Y44">
+        <v>76</v>
+      </c>
+      <c r="Z44">
+        <v>78</v>
+      </c>
+      <c r="AA44">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>29</v>
+      </c>
+      <c r="C45">
+        <v>155</v>
+      </c>
+      <c r="D45">
+        <v>581</v>
+      </c>
+      <c r="E45">
+        <v>691</v>
+      </c>
+      <c r="F45">
+        <v>400</v>
+      </c>
+      <c r="G45">
+        <v>93</v>
+      </c>
+      <c r="H45">
+        <v>90</v>
+      </c>
+      <c r="I45">
+        <v>98</v>
+      </c>
+      <c r="J45">
+        <v>64</v>
+      </c>
+      <c r="K45" s="4">
+        <v>90</v>
+      </c>
+      <c r="L45" s="4">
+        <v>266</v>
+      </c>
+      <c r="M45" s="4">
+        <v>106</v>
+      </c>
+      <c r="N45" s="4">
+        <v>66</v>
+      </c>
+      <c r="P45" s="8">
+        <v>83</v>
+      </c>
+      <c r="Q45" s="4">
+        <v>69</v>
+      </c>
+      <c r="R45" s="4">
+        <v>56</v>
+      </c>
+      <c r="S45" s="8"/>
+      <c r="T45" s="8">
+        <v>116</v>
+      </c>
+      <c r="U45" s="4">
+        <v>39</v>
+      </c>
+      <c r="V45" s="8">
+        <v>91</v>
+      </c>
+      <c r="X45">
+        <v>106</v>
+      </c>
+      <c r="Y45">
+        <v>90</v>
+      </c>
+      <c r="Z45">
+        <v>120</v>
+      </c>
+      <c r="AA45">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>22</v>
+      </c>
+      <c r="C46">
+        <v>40</v>
+      </c>
+      <c r="D46">
+        <v>38</v>
+      </c>
+      <c r="E46">
+        <v>53</v>
+      </c>
+      <c r="F46">
+        <v>44</v>
+      </c>
+      <c r="G46">
+        <v>69</v>
+      </c>
+      <c r="H46">
+        <v>36</v>
+      </c>
+      <c r="I46">
+        <v>24</v>
+      </c>
+      <c r="J46">
+        <v>42</v>
+      </c>
+      <c r="K46" s="4">
+        <v>7</v>
+      </c>
+      <c r="L46" s="4">
+        <v>50</v>
+      </c>
+      <c r="M46" s="4">
+        <v>59</v>
+      </c>
+      <c r="N46" s="4">
+        <v>45</v>
+      </c>
+      <c r="P46" s="8">
+        <v>85</v>
+      </c>
+      <c r="R46" s="4">
+        <v>45</v>
+      </c>
+      <c r="S46" s="8"/>
+      <c r="T46" s="8">
+        <v>24</v>
+      </c>
+      <c r="U46" s="4">
+        <v>62</v>
+      </c>
+      <c r="V46" s="8">
+        <v>111</v>
+      </c>
+      <c r="X46">
+        <v>116</v>
+      </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
+      <c r="AA46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>71</v>
+      </c>
+      <c r="D47">
+        <v>312</v>
+      </c>
+      <c r="E47">
+        <v>320</v>
+      </c>
+      <c r="F47">
+        <v>95</v>
+      </c>
+      <c r="G47">
+        <v>215</v>
+      </c>
+      <c r="H47">
+        <v>66</v>
+      </c>
+      <c r="I47">
+        <v>122</v>
+      </c>
+      <c r="J47">
+        <v>102</v>
+      </c>
+      <c r="K47" s="4">
+        <v>271</v>
+      </c>
+      <c r="L47" s="4">
+        <v>393</v>
+      </c>
+      <c r="M47" s="4">
+        <v>208</v>
+      </c>
+      <c r="N47" s="4">
+        <v>103</v>
+      </c>
+      <c r="P47" s="8">
+        <v>440</v>
+      </c>
+      <c r="Q47" s="4">
+        <v>237</v>
+      </c>
+      <c r="R47" s="4">
+        <v>110</v>
+      </c>
+      <c r="S47" s="8"/>
+      <c r="T47" s="8">
+        <v>94</v>
+      </c>
+      <c r="U47" s="4">
+        <v>95</v>
+      </c>
+      <c r="V47" s="8">
+        <v>138</v>
+      </c>
+      <c r="X47">
+        <v>144</v>
+      </c>
+      <c r="Y47">
+        <v>120</v>
+      </c>
+      <c r="Z47">
+        <v>483</v>
+      </c>
+      <c r="AA47">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>3</v>
+      </c>
+      <c r="C48">
+        <v>98</v>
+      </c>
+      <c r="D48">
+        <v>50</v>
+      </c>
+      <c r="E48">
+        <v>107</v>
+      </c>
+      <c r="F48">
+        <v>63</v>
+      </c>
+      <c r="G48">
+        <v>66</v>
+      </c>
+      <c r="H48">
+        <v>54</v>
+      </c>
+      <c r="I48">
+        <v>83</v>
+      </c>
+      <c r="J48">
+        <v>46</v>
+      </c>
+      <c r="K48" s="4">
+        <v>94</v>
+      </c>
+      <c r="L48" s="4">
+        <v>181</v>
+      </c>
+      <c r="M48" s="4">
+        <v>93</v>
+      </c>
+      <c r="N48" s="4">
+        <v>139</v>
+      </c>
+      <c r="P48" s="4">
+        <v>83</v>
+      </c>
+      <c r="Q48" s="4">
+        <v>76</v>
+      </c>
+      <c r="R48" s="4">
+        <v>131</v>
+      </c>
+      <c r="S48" s="8"/>
+      <c r="T48" s="8">
+        <v>76</v>
+      </c>
+      <c r="U48" s="4">
+        <v>75</v>
+      </c>
+      <c r="V48" s="8">
+        <v>49</v>
+      </c>
+      <c r="X48">
+        <v>40</v>
+      </c>
+      <c r="Y48">
+        <v>76</v>
+      </c>
+      <c r="Z48">
+        <v>61</v>
+      </c>
+      <c r="AA48">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>17</v>
+      </c>
+      <c r="C49">
+        <v>58</v>
+      </c>
+      <c r="D49">
+        <v>38</v>
+      </c>
+      <c r="E49">
+        <v>122</v>
+      </c>
+      <c r="F49">
+        <v>48</v>
+      </c>
+      <c r="G49">
+        <v>139</v>
+      </c>
+      <c r="H49">
+        <v>99</v>
+      </c>
+      <c r="I49">
+        <v>35</v>
+      </c>
+      <c r="J49">
+        <v>42</v>
+      </c>
+      <c r="K49" s="4">
+        <v>39</v>
+      </c>
+      <c r="L49" s="4">
+        <v>48</v>
+      </c>
+      <c r="M49" s="4">
+        <v>122</v>
+      </c>
+      <c r="N49" s="4">
+        <v>61</v>
+      </c>
+      <c r="P49" s="8">
+        <v>128</v>
+      </c>
+      <c r="Q49" s="4">
+        <v>54</v>
+      </c>
+      <c r="R49" s="4">
+        <v>69</v>
+      </c>
+      <c r="S49" s="8"/>
+      <c r="T49" s="8">
+        <v>48</v>
+      </c>
+      <c r="U49" s="4">
+        <v>79</v>
+      </c>
+      <c r="V49" s="8">
+        <v>44</v>
+      </c>
+      <c r="X49">
+        <v>438</v>
+      </c>
+      <c r="Y49">
+        <v>156</v>
+      </c>
+      <c r="Z49">
+        <v>132</v>
+      </c>
+      <c r="AA49">
+        <v>269</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="B2:AD49">
+    <sortCondition ref="B2"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AA49"/>
+  <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4:D4"/>
     </sheetView>
@@ -7451,11 +11047,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="R21" sqref="R21"/>
     </sheetView>
   </sheetViews>
@@ -8656,7 +12252,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA54"/>
   <sheetViews>
@@ -12271,3602 +15867,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967294" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA49"/>
-  <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="U35" sqref="U35"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I1" t="s">
-        <v>48</v>
-      </c>
-      <c r="J1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K1" t="s">
-        <v>50</v>
-      </c>
-      <c r="L1" t="s">
-        <v>51</v>
-      </c>
-      <c r="M1" t="s">
-        <v>52</v>
-      </c>
-      <c r="N1" t="s">
-        <v>53</v>
-      </c>
-      <c r="O1" t="s">
-        <v>54</v>
-      </c>
-      <c r="P1" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>56</v>
-      </c>
-      <c r="R1" t="s">
-        <v>57</v>
-      </c>
-      <c r="S1" t="s">
-        <v>58</v>
-      </c>
-      <c r="T1" t="s">
-        <v>59</v>
-      </c>
-      <c r="U1" t="s">
-        <v>60</v>
-      </c>
-      <c r="V1" t="s">
-        <v>61</v>
-      </c>
-      <c r="W1" t="s">
-        <v>62</v>
-      </c>
-      <c r="X1" t="s">
-        <v>63</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>64</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>65</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2">
-        <v>100</v>
-      </c>
-      <c r="D2">
-        <v>135</v>
-      </c>
-      <c r="E2">
-        <v>183</v>
-      </c>
-      <c r="F2">
-        <v>532</v>
-      </c>
-      <c r="G2">
-        <v>216</v>
-      </c>
-      <c r="H2">
-        <v>55</v>
-      </c>
-      <c r="I2">
-        <v>72</v>
-      </c>
-      <c r="J2">
-        <v>124</v>
-      </c>
-      <c r="K2" s="4">
-        <v>68</v>
-      </c>
-      <c r="L2" s="4">
-        <v>76</v>
-      </c>
-      <c r="M2" s="4">
-        <v>134</v>
-      </c>
-      <c r="N2" s="4">
-        <v>120</v>
-      </c>
-      <c r="P2" s="8">
-        <v>55</v>
-      </c>
-      <c r="Q2" s="4">
-        <v>116</v>
-      </c>
-      <c r="R2" s="4">
-        <v>163</v>
-      </c>
-      <c r="S2" s="8"/>
-      <c r="T2" s="8">
-        <v>37</v>
-      </c>
-      <c r="U2" s="4">
-        <v>94</v>
-      </c>
-      <c r="V2" s="8">
-        <v>41</v>
-      </c>
-      <c r="X2">
-        <v>120</v>
-      </c>
-      <c r="Y2">
-        <v>129</v>
-      </c>
-      <c r="Z2">
-        <v>144</v>
-      </c>
-      <c r="AA2">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3">
-        <v>562</v>
-      </c>
-      <c r="D3">
-        <v>2817</v>
-      </c>
-      <c r="E3">
-        <v>3300</v>
-      </c>
-      <c r="F3">
-        <v>1078</v>
-      </c>
-      <c r="G3">
-        <v>518</v>
-      </c>
-      <c r="H3">
-        <v>355</v>
-      </c>
-      <c r="I3">
-        <v>378</v>
-      </c>
-      <c r="J3">
-        <v>104</v>
-      </c>
-      <c r="K3" s="4">
-        <v>459</v>
-      </c>
-      <c r="L3" s="4">
-        <v>239</v>
-      </c>
-      <c r="M3" s="4">
-        <v>257</v>
-      </c>
-      <c r="N3" s="4">
-        <v>338</v>
-      </c>
-      <c r="P3" s="8">
-        <v>260</v>
-      </c>
-      <c r="Q3" s="4">
-        <v>297</v>
-      </c>
-      <c r="R3" s="4">
-        <v>323</v>
-      </c>
-      <c r="S3" s="8"/>
-      <c r="T3" s="8">
-        <v>220</v>
-      </c>
-      <c r="U3" s="4">
-        <v>363</v>
-      </c>
-      <c r="V3" s="8">
-        <v>199</v>
-      </c>
-      <c r="X3">
-        <v>345</v>
-      </c>
-      <c r="Y3">
-        <v>330</v>
-      </c>
-      <c r="Z3">
-        <v>510</v>
-      </c>
-      <c r="AA3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>74</v>
-      </c>
-      <c r="K4" s="4"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="4">
-        <v>389</v>
-      </c>
-      <c r="N4" s="4">
-        <v>84</v>
-      </c>
-      <c r="P4" s="8">
-        <v>55</v>
-      </c>
-      <c r="Q4" s="4">
-        <v>96</v>
-      </c>
-      <c r="R4" s="4">
-        <v>66</v>
-      </c>
-      <c r="S4" s="8"/>
-      <c r="T4" s="8">
-        <v>42</v>
-      </c>
-      <c r="U4" s="4">
-        <v>60</v>
-      </c>
-      <c r="V4" s="8">
-        <v>84</v>
-      </c>
-      <c r="X4">
-        <v>83</v>
-      </c>
-      <c r="Y4">
-        <v>146</v>
-      </c>
-      <c r="Z4">
-        <v>112</v>
-      </c>
-      <c r="AA4">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5">
-        <v>78</v>
-      </c>
-      <c r="D5">
-        <v>99</v>
-      </c>
-      <c r="E5">
-        <v>107</v>
-      </c>
-      <c r="F5">
-        <v>87</v>
-      </c>
-      <c r="G5">
-        <v>83</v>
-      </c>
-      <c r="H5">
-        <v>51</v>
-      </c>
-      <c r="I5">
-        <v>31</v>
-      </c>
-      <c r="J5">
-        <v>83</v>
-      </c>
-      <c r="K5" s="4">
-        <v>72</v>
-      </c>
-      <c r="L5" s="4">
-        <v>59</v>
-      </c>
-      <c r="M5" s="4">
-        <v>42</v>
-      </c>
-      <c r="N5" s="4">
-        <v>58</v>
-      </c>
-      <c r="P5" s="8">
-        <v>60</v>
-      </c>
-      <c r="Q5" s="4">
-        <v>42</v>
-      </c>
-      <c r="R5" s="4">
-        <v>112</v>
-      </c>
-      <c r="S5" s="8"/>
-      <c r="T5" s="8">
-        <v>29</v>
-      </c>
-      <c r="U5" s="4">
-        <v>62</v>
-      </c>
-      <c r="V5" s="8">
-        <v>40</v>
-      </c>
-      <c r="X5">
-        <v>140</v>
-      </c>
-      <c r="Y5">
-        <v>56</v>
-      </c>
-      <c r="Z5">
-        <v>162</v>
-      </c>
-      <c r="AA5">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6">
-        <v>58</v>
-      </c>
-      <c r="D6">
-        <v>93</v>
-      </c>
-      <c r="E6">
-        <v>156</v>
-      </c>
-      <c r="F6">
-        <v>139</v>
-      </c>
-      <c r="G6">
-        <v>141</v>
-      </c>
-      <c r="H6">
-        <v>48</v>
-      </c>
-      <c r="I6">
-        <v>90</v>
-      </c>
-      <c r="J6">
-        <v>57</v>
-      </c>
-      <c r="K6" s="4">
-        <v>39</v>
-      </c>
-      <c r="L6" s="4">
-        <v>135</v>
-      </c>
-      <c r="M6" s="4">
-        <v>51</v>
-      </c>
-      <c r="N6" s="4">
-        <v>66</v>
-      </c>
-      <c r="P6" s="8">
-        <v>126</v>
-      </c>
-      <c r="Q6" s="4">
-        <v>56</v>
-      </c>
-      <c r="R6" s="4">
-        <v>44</v>
-      </c>
-      <c r="S6" s="8"/>
-      <c r="T6" s="8">
-        <v>66</v>
-      </c>
-      <c r="U6" s="4">
-        <v>76</v>
-      </c>
-      <c r="V6" s="8">
-        <v>76</v>
-      </c>
-      <c r="X6">
-        <v>96</v>
-      </c>
-      <c r="Y6">
-        <v>76</v>
-      </c>
-      <c r="Z6">
-        <v>41</v>
-      </c>
-      <c r="AA6">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7">
-        <v>184</v>
-      </c>
-      <c r="D7">
-        <v>56</v>
-      </c>
-      <c r="E7">
-        <v>90</v>
-      </c>
-      <c r="F7">
-        <v>124</v>
-      </c>
-      <c r="G7">
-        <v>73</v>
-      </c>
-      <c r="H7">
-        <v>31</v>
-      </c>
-      <c r="I7">
-        <v>31</v>
-      </c>
-      <c r="J7">
-        <v>40</v>
-      </c>
-      <c r="K7" s="4">
-        <v>114</v>
-      </c>
-      <c r="L7" s="4">
-        <v>45</v>
-      </c>
-      <c r="M7" s="4">
-        <v>43</v>
-      </c>
-      <c r="N7" s="4">
-        <v>80</v>
-      </c>
-      <c r="P7" s="8">
-        <v>45</v>
-      </c>
-      <c r="Q7" s="4">
-        <v>41</v>
-      </c>
-      <c r="R7" s="4">
-        <v>40</v>
-      </c>
-      <c r="S7" s="8"/>
-      <c r="T7" s="8">
-        <v>49</v>
-      </c>
-      <c r="U7" s="4">
-        <v>19</v>
-      </c>
-      <c r="V7" s="8">
-        <v>58</v>
-      </c>
-      <c r="X7">
-        <v>104</v>
-      </c>
-      <c r="Y7">
-        <v>98</v>
-      </c>
-      <c r="Z7">
-        <v>113</v>
-      </c>
-      <c r="AA7">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8">
-        <v>123</v>
-      </c>
-      <c r="D8">
-        <v>121</v>
-      </c>
-      <c r="E8">
-        <v>100</v>
-      </c>
-      <c r="F8">
-        <v>132</v>
-      </c>
-      <c r="G8">
-        <v>76</v>
-      </c>
-      <c r="H8">
-        <v>86</v>
-      </c>
-      <c r="I8">
-        <v>57</v>
-      </c>
-      <c r="J8">
-        <v>70</v>
-      </c>
-      <c r="K8" s="4">
-        <v>36</v>
-      </c>
-      <c r="L8" s="4">
-        <v>110</v>
-      </c>
-      <c r="M8" s="4">
-        <v>83</v>
-      </c>
-      <c r="N8" s="4">
-        <v>74</v>
-      </c>
-      <c r="P8" s="8">
-        <v>104</v>
-      </c>
-      <c r="Q8" s="4">
-        <v>110</v>
-      </c>
-      <c r="R8" s="4">
-        <v>126</v>
-      </c>
-      <c r="S8" s="8"/>
-      <c r="T8" s="8">
-        <v>906</v>
-      </c>
-      <c r="U8" s="4">
-        <v>81</v>
-      </c>
-      <c r="V8" s="8">
-        <v>86</v>
-      </c>
-      <c r="X8">
-        <v>176</v>
-      </c>
-      <c r="Y8">
-        <v>61</v>
-      </c>
-      <c r="Z8">
-        <v>88</v>
-      </c>
-      <c r="AA8">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9">
-        <v>137</v>
-      </c>
-      <c r="D9">
-        <v>78</v>
-      </c>
-      <c r="E9">
-        <v>98</v>
-      </c>
-      <c r="F9">
-        <v>164</v>
-      </c>
-      <c r="G9">
-        <v>76</v>
-      </c>
-      <c r="H9">
-        <v>19</v>
-      </c>
-      <c r="I9">
-        <v>75</v>
-      </c>
-      <c r="J9">
-        <v>91</v>
-      </c>
-      <c r="K9" s="4">
-        <v>104</v>
-      </c>
-      <c r="L9" s="4">
-        <v>76</v>
-      </c>
-      <c r="M9" s="4">
-        <v>55</v>
-      </c>
-      <c r="N9" s="4">
-        <v>42</v>
-      </c>
-      <c r="P9" s="8">
-        <v>71</v>
-      </c>
-      <c r="Q9" s="4">
-        <v>51</v>
-      </c>
-      <c r="R9" s="4">
-        <v>52</v>
-      </c>
-      <c r="S9" s="8"/>
-      <c r="T9" s="8">
-        <v>129</v>
-      </c>
-      <c r="U9" s="4">
-        <v>31</v>
-      </c>
-      <c r="V9" s="8">
-        <v>86</v>
-      </c>
-      <c r="X9">
-        <v>66</v>
-      </c>
-      <c r="Y9">
-        <v>242</v>
-      </c>
-      <c r="Z9">
-        <v>56</v>
-      </c>
-      <c r="AA9">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10">
-        <v>154</v>
-      </c>
-      <c r="D10">
-        <v>140</v>
-      </c>
-      <c r="E10">
-        <v>96</v>
-      </c>
-      <c r="F10">
-        <v>394</v>
-      </c>
-      <c r="G10">
-        <v>84</v>
-      </c>
-      <c r="H10">
-        <v>58</v>
-      </c>
-      <c r="I10">
-        <v>82</v>
-      </c>
-      <c r="J10">
-        <v>71</v>
-      </c>
-      <c r="K10" s="4">
-        <v>106</v>
-      </c>
-      <c r="L10" s="4">
-        <v>101</v>
-      </c>
-      <c r="M10" s="4">
-        <v>90</v>
-      </c>
-      <c r="N10" s="4">
-        <v>35</v>
-      </c>
-      <c r="P10" s="8">
-        <v>193</v>
-      </c>
-      <c r="Q10" s="4">
-        <v>111</v>
-      </c>
-      <c r="R10" s="4">
-        <v>86</v>
-      </c>
-      <c r="S10" s="8"/>
-      <c r="T10" s="8">
-        <v>402</v>
-      </c>
-      <c r="U10" s="4">
-        <v>659</v>
-      </c>
-      <c r="V10" s="8">
-        <v>531</v>
-      </c>
-      <c r="X10">
-        <v>508</v>
-      </c>
-      <c r="Y10">
-        <v>623</v>
-      </c>
-      <c r="Z10">
-        <v>888</v>
-      </c>
-      <c r="AA10">
-        <v>1013</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>75</v>
-      </c>
-      <c r="C11">
-        <v>68</v>
-      </c>
-      <c r="D11">
-        <v>66</v>
-      </c>
-      <c r="E11">
-        <v>61</v>
-      </c>
-      <c r="F11">
-        <v>125</v>
-      </c>
-      <c r="G11">
-        <v>37</v>
-      </c>
-      <c r="H11">
-        <v>34</v>
-      </c>
-      <c r="I11">
-        <v>47</v>
-      </c>
-      <c r="J11">
-        <v>37</v>
-      </c>
-      <c r="K11" s="4">
-        <v>57</v>
-      </c>
-      <c r="L11" s="4">
-        <v>37</v>
-      </c>
-      <c r="M11" s="4">
-        <v>0</v>
-      </c>
-      <c r="N11" s="3"/>
-      <c r="X11">
-        <v>74</v>
-      </c>
-      <c r="Y11">
-        <v>52</v>
-      </c>
-      <c r="Z11">
-        <v>82</v>
-      </c>
-      <c r="AA11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>72</v>
-      </c>
-      <c r="K12" s="4">
-        <v>34</v>
-      </c>
-      <c r="L12" s="4">
-        <v>45</v>
-      </c>
-      <c r="M12" s="4">
-        <v>54</v>
-      </c>
-      <c r="N12" s="4">
-        <v>43</v>
-      </c>
-      <c r="P12" s="8">
-        <v>126</v>
-      </c>
-      <c r="Q12" s="4">
-        <v>34</v>
-      </c>
-      <c r="R12" s="4">
-        <v>42</v>
-      </c>
-      <c r="S12" s="10"/>
-      <c r="T12" s="10">
-        <v>46</v>
-      </c>
-      <c r="U12" s="4">
-        <v>50</v>
-      </c>
-      <c r="V12" s="8">
-        <v>40</v>
-      </c>
-      <c r="X12">
-        <v>67</v>
-      </c>
-      <c r="Y12">
-        <v>56</v>
-      </c>
-      <c r="Z12">
-        <v>30</v>
-      </c>
-      <c r="AA12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13">
-        <v>110</v>
-      </c>
-      <c r="D13">
-        <v>403</v>
-      </c>
-      <c r="E13">
-        <v>211</v>
-      </c>
-      <c r="F13">
-        <v>928</v>
-      </c>
-      <c r="G13">
-        <v>216</v>
-      </c>
-      <c r="H13">
-        <v>108</v>
-      </c>
-      <c r="I13">
-        <v>93</v>
-      </c>
-      <c r="J13">
-        <v>91</v>
-      </c>
-      <c r="K13" s="5">
-        <v>72</v>
-      </c>
-      <c r="L13" s="4">
-        <v>64</v>
-      </c>
-      <c r="M13" s="4">
-        <v>63</v>
-      </c>
-      <c r="N13" s="4">
-        <v>74</v>
-      </c>
-      <c r="P13" s="8">
-        <v>72</v>
-      </c>
-      <c r="Q13" s="4">
-        <v>134</v>
-      </c>
-      <c r="R13" s="4">
-        <v>70</v>
-      </c>
-      <c r="U13" s="4">
-        <v>22</v>
-      </c>
-      <c r="V13" s="8">
-        <v>158</v>
-      </c>
-      <c r="X13">
-        <v>337</v>
-      </c>
-      <c r="Y13">
-        <v>194</v>
-      </c>
-      <c r="Z13">
-        <v>160</v>
-      </c>
-      <c r="AA13">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14">
-        <v>595</v>
-      </c>
-      <c r="D14">
-        <v>2016</v>
-      </c>
-      <c r="E14">
-        <v>1022</v>
-      </c>
-      <c r="F14">
-        <v>639</v>
-      </c>
-      <c r="G14">
-        <v>716</v>
-      </c>
-      <c r="H14">
-        <v>212</v>
-      </c>
-      <c r="I14">
-        <v>459</v>
-      </c>
-      <c r="J14">
-        <v>241</v>
-      </c>
-      <c r="K14" s="4">
-        <v>320</v>
-      </c>
-      <c r="L14" s="4">
-        <v>228</v>
-      </c>
-      <c r="M14" s="4">
-        <v>333</v>
-      </c>
-      <c r="N14" s="4">
-        <v>180</v>
-      </c>
-      <c r="P14" s="8">
-        <v>232</v>
-      </c>
-      <c r="Q14" s="4">
-        <v>216</v>
-      </c>
-      <c r="R14" s="4">
-        <v>478</v>
-      </c>
-      <c r="S14" s="8"/>
-      <c r="T14" s="8">
-        <v>670</v>
-      </c>
-      <c r="U14" s="4">
-        <v>189</v>
-      </c>
-      <c r="V14" s="8">
-        <v>270</v>
-      </c>
-      <c r="X14">
-        <v>369</v>
-      </c>
-      <c r="Y14">
-        <v>242</v>
-      </c>
-      <c r="Z14">
-        <v>339</v>
-      </c>
-      <c r="AA14">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>68</v>
-      </c>
-      <c r="D15">
-        <v>102</v>
-      </c>
-      <c r="E15">
-        <v>119</v>
-      </c>
-      <c r="F15">
-        <v>268</v>
-      </c>
-      <c r="G15">
-        <v>254</v>
-      </c>
-      <c r="H15">
-        <v>82</v>
-      </c>
-      <c r="I15">
-        <v>352</v>
-      </c>
-      <c r="J15">
-        <v>70</v>
-      </c>
-      <c r="K15" s="4">
-        <v>372</v>
-      </c>
-      <c r="L15" s="4">
-        <v>457</v>
-      </c>
-      <c r="M15" s="4">
-        <v>182</v>
-      </c>
-      <c r="N15" s="4">
-        <v>102</v>
-      </c>
-      <c r="P15" s="8">
-        <v>152</v>
-      </c>
-      <c r="Q15" s="4">
-        <v>124</v>
-      </c>
-      <c r="R15" s="4">
-        <v>116</v>
-      </c>
-      <c r="S15" s="8"/>
-      <c r="T15" s="8">
-        <v>88</v>
-      </c>
-      <c r="U15" s="4">
-        <v>86</v>
-      </c>
-      <c r="V15" s="8">
-        <v>236</v>
-      </c>
-      <c r="X15">
-        <v>194</v>
-      </c>
-      <c r="Y15">
-        <v>168</v>
-      </c>
-      <c r="Z15">
-        <v>297</v>
-      </c>
-      <c r="AA15">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16">
-        <v>455</v>
-      </c>
-      <c r="D16">
-        <v>1016</v>
-      </c>
-      <c r="E16">
-        <v>248</v>
-      </c>
-      <c r="F16">
-        <v>502</v>
-      </c>
-      <c r="G16">
-        <v>615</v>
-      </c>
-      <c r="H16">
-        <v>158</v>
-      </c>
-      <c r="I16">
-        <v>331</v>
-      </c>
-      <c r="J16">
-        <v>278</v>
-      </c>
-      <c r="K16" s="4">
-        <v>548</v>
-      </c>
-      <c r="L16" s="4">
-        <v>128</v>
-      </c>
-      <c r="M16" s="4">
-        <v>274</v>
-      </c>
-      <c r="N16" s="4">
-        <v>469</v>
-      </c>
-      <c r="P16" s="8">
-        <v>512</v>
-      </c>
-      <c r="Q16" s="4">
-        <v>269</v>
-      </c>
-      <c r="R16" s="4">
-        <v>396</v>
-      </c>
-      <c r="S16" s="8"/>
-      <c r="T16" s="8">
-        <v>385</v>
-      </c>
-      <c r="U16" s="4">
-        <v>219</v>
-      </c>
-      <c r="V16" s="8">
-        <v>536</v>
-      </c>
-      <c r="X16">
-        <v>567</v>
-      </c>
-      <c r="Y16">
-        <v>409</v>
-      </c>
-      <c r="Z16">
-        <v>374</v>
-      </c>
-      <c r="AA16">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17">
-        <v>266</v>
-      </c>
-      <c r="D17">
-        <v>432</v>
-      </c>
-      <c r="E17">
-        <v>560</v>
-      </c>
-      <c r="F17">
-        <v>857</v>
-      </c>
-      <c r="G17">
-        <v>538</v>
-      </c>
-      <c r="H17">
-        <v>145</v>
-      </c>
-      <c r="I17">
-        <v>177</v>
-      </c>
-      <c r="J17">
-        <v>264</v>
-      </c>
-      <c r="K17" s="4">
-        <v>163</v>
-      </c>
-      <c r="L17" s="4">
-        <v>361</v>
-      </c>
-      <c r="M17" s="4">
-        <v>108</v>
-      </c>
-      <c r="N17" s="4">
-        <v>208</v>
-      </c>
-      <c r="P17" s="8">
-        <v>108</v>
-      </c>
-      <c r="Q17" s="4">
-        <v>106</v>
-      </c>
-      <c r="R17" s="4">
-        <v>203</v>
-      </c>
-      <c r="S17" s="8"/>
-      <c r="T17" s="8">
-        <v>153</v>
-      </c>
-      <c r="U17" s="4">
-        <v>104</v>
-      </c>
-      <c r="V17" s="8">
-        <v>139</v>
-      </c>
-      <c r="X17">
-        <v>0</v>
-      </c>
-      <c r="Y17">
-        <v>87</v>
-      </c>
-      <c r="Z17">
-        <v>156</v>
-      </c>
-      <c r="AA17">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>73</v>
-      </c>
-      <c r="D18">
-        <v>693</v>
-      </c>
-      <c r="E18">
-        <v>174</v>
-      </c>
-      <c r="F18">
-        <v>120</v>
-      </c>
-      <c r="G18">
-        <v>414</v>
-      </c>
-      <c r="H18">
-        <v>46</v>
-      </c>
-      <c r="I18">
-        <v>95</v>
-      </c>
-      <c r="J18">
-        <v>56</v>
-      </c>
-      <c r="K18" s="4">
-        <v>66</v>
-      </c>
-      <c r="L18" s="4">
-        <v>106</v>
-      </c>
-      <c r="M18" s="4">
-        <v>185</v>
-      </c>
-      <c r="N18" s="4">
-        <v>96</v>
-      </c>
-      <c r="P18" s="8">
-        <v>36</v>
-      </c>
-      <c r="Q18" s="4">
-        <v>86</v>
-      </c>
-      <c r="R18" s="4">
-        <v>56</v>
-      </c>
-      <c r="S18" s="8"/>
-      <c r="T18" s="8">
-        <v>86</v>
-      </c>
-      <c r="U18" s="4">
-        <v>93</v>
-      </c>
-      <c r="V18" s="8">
-        <v>76</v>
-      </c>
-      <c r="X18">
-        <v>56</v>
-      </c>
-      <c r="Y18">
-        <v>106</v>
-      </c>
-      <c r="Z18">
-        <v>66</v>
-      </c>
-      <c r="AA18">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19">
-        <v>106</v>
-      </c>
-      <c r="D19">
-        <v>80</v>
-      </c>
-      <c r="E19">
-        <v>590</v>
-      </c>
-      <c r="F19">
-        <v>104</v>
-      </c>
-      <c r="G19">
-        <v>61</v>
-      </c>
-      <c r="H19">
-        <v>58</v>
-      </c>
-      <c r="I19">
-        <v>26</v>
-      </c>
-      <c r="J19">
-        <v>52</v>
-      </c>
-      <c r="K19" s="4">
-        <v>90</v>
-      </c>
-      <c r="L19" s="4">
-        <v>78</v>
-      </c>
-      <c r="M19" s="4">
-        <v>396</v>
-      </c>
-      <c r="N19" s="4">
-        <v>72</v>
-      </c>
-      <c r="P19" s="8">
-        <v>526</v>
-      </c>
-      <c r="Q19" s="4">
-        <v>88</v>
-      </c>
-      <c r="R19" s="4">
-        <v>62</v>
-      </c>
-      <c r="S19" s="8"/>
-      <c r="T19" s="8">
-        <v>68</v>
-      </c>
-      <c r="U19" s="4">
-        <v>34</v>
-      </c>
-      <c r="V19" s="8">
-        <v>74</v>
-      </c>
-      <c r="X19">
-        <v>154</v>
-      </c>
-      <c r="Y19">
-        <v>84</v>
-      </c>
-      <c r="Z19">
-        <v>24</v>
-      </c>
-      <c r="AA19">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
-        <v>69</v>
-      </c>
-      <c r="D20">
-        <v>183</v>
-      </c>
-      <c r="E20">
-        <v>228</v>
-      </c>
-      <c r="F20">
-        <v>226</v>
-      </c>
-      <c r="G20">
-        <v>332</v>
-      </c>
-      <c r="H20">
-        <v>200</v>
-      </c>
-      <c r="I20">
-        <v>130</v>
-      </c>
-      <c r="J20">
-        <v>179</v>
-      </c>
-      <c r="K20" s="4">
-        <v>199</v>
-      </c>
-      <c r="L20" s="4">
-        <v>61</v>
-      </c>
-      <c r="M20" s="4">
-        <v>162</v>
-      </c>
-      <c r="N20" s="4">
-        <v>295</v>
-      </c>
-      <c r="P20" s="8">
-        <v>24</v>
-      </c>
-      <c r="Q20" s="4">
-        <v>24</v>
-      </c>
-      <c r="R20" s="4">
-        <v>4</v>
-      </c>
-      <c r="S20" s="8"/>
-      <c r="T20" s="8">
-        <v>23</v>
-      </c>
-      <c r="U20" s="4">
-        <v>36</v>
-      </c>
-      <c r="V20" s="8">
-        <v>40</v>
-      </c>
-      <c r="X20">
-        <v>9</v>
-      </c>
-      <c r="Y20">
-        <v>23</v>
-      </c>
-      <c r="Z20">
-        <v>45</v>
-      </c>
-      <c r="AA20">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
-        <v>23</v>
-      </c>
-      <c r="C21">
-        <v>46</v>
-      </c>
-      <c r="D21">
-        <v>40</v>
-      </c>
-      <c r="E21">
-        <v>68</v>
-      </c>
-      <c r="F21">
-        <v>44</v>
-      </c>
-      <c r="G21">
-        <v>80</v>
-      </c>
-      <c r="H21">
-        <v>28</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21">
-        <v>44</v>
-      </c>
-      <c r="K21" s="4">
-        <v>25</v>
-      </c>
-      <c r="L21" s="4">
-        <v>228</v>
-      </c>
-      <c r="M21" s="4">
-        <v>50</v>
-      </c>
-      <c r="N21" s="4">
-        <v>45</v>
-      </c>
-      <c r="P21" s="8">
-        <v>49</v>
-      </c>
-      <c r="Q21" s="4">
-        <v>26</v>
-      </c>
-      <c r="R21" s="4">
-        <v>108</v>
-      </c>
-      <c r="S21" s="8"/>
-      <c r="T21" s="8">
-        <v>44</v>
-      </c>
-      <c r="U21" s="4">
-        <v>79</v>
-      </c>
-      <c r="V21" s="8">
-        <v>47</v>
-      </c>
-      <c r="X21">
-        <v>92</v>
-      </c>
-      <c r="Z21">
-        <v>18</v>
-      </c>
-      <c r="AA21">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22" t="s">
-        <v>10</v>
-      </c>
-      <c r="C22">
-        <v>149</v>
-      </c>
-      <c r="D22">
-        <v>98</v>
-      </c>
-      <c r="E22">
-        <v>272</v>
-      </c>
-      <c r="F22">
-        <v>164</v>
-      </c>
-      <c r="G22">
-        <v>78</v>
-      </c>
-      <c r="H22">
-        <v>95</v>
-      </c>
-      <c r="I22">
-        <v>36</v>
-      </c>
-      <c r="J22">
-        <v>94</v>
-      </c>
-      <c r="K22" s="4">
-        <v>67</v>
-      </c>
-      <c r="L22" s="4">
-        <v>46</v>
-      </c>
-      <c r="M22" s="4">
-        <v>58</v>
-      </c>
-      <c r="N22" s="4">
-        <v>53</v>
-      </c>
-      <c r="P22" s="8">
-        <v>66</v>
-      </c>
-      <c r="Q22" s="4">
-        <v>76</v>
-      </c>
-      <c r="R22" s="4">
-        <v>51</v>
-      </c>
-      <c r="S22" s="8"/>
-      <c r="T22" s="8">
-        <v>66</v>
-      </c>
-      <c r="U22" s="4">
-        <v>43</v>
-      </c>
-      <c r="V22" s="8">
-        <v>116</v>
-      </c>
-      <c r="X22">
-        <v>96</v>
-      </c>
-      <c r="Y22">
-        <v>70</v>
-      </c>
-      <c r="Z22">
-        <v>111</v>
-      </c>
-      <c r="AA22">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23" t="s">
-        <v>38</v>
-      </c>
-      <c r="C23">
-        <v>74</v>
-      </c>
-      <c r="D23">
-        <v>207</v>
-      </c>
-      <c r="E23">
-        <v>116</v>
-      </c>
-      <c r="F23">
-        <v>299</v>
-      </c>
-      <c r="G23">
-        <v>129</v>
-      </c>
-      <c r="H23">
-        <v>114</v>
-      </c>
-      <c r="I23">
-        <v>114</v>
-      </c>
-      <c r="J23">
-        <v>92</v>
-      </c>
-      <c r="K23" s="4">
-        <v>42</v>
-      </c>
-      <c r="L23" s="4">
-        <v>47</v>
-      </c>
-      <c r="M23" s="4">
-        <v>34</v>
-      </c>
-      <c r="N23" s="4">
-        <v>108</v>
-      </c>
-      <c r="P23" s="8">
-        <v>188</v>
-      </c>
-      <c r="Q23" s="4">
-        <v>189</v>
-      </c>
-      <c r="R23" s="4">
-        <v>108</v>
-      </c>
-      <c r="S23" s="8"/>
-      <c r="T23" s="8">
-        <v>268</v>
-      </c>
-      <c r="U23" s="4">
-        <v>85</v>
-      </c>
-      <c r="V23" s="8">
-        <v>114</v>
-      </c>
-      <c r="X23">
-        <v>132</v>
-      </c>
-      <c r="Y23">
-        <v>153</v>
-      </c>
-      <c r="Z23">
-        <v>130</v>
-      </c>
-      <c r="AA23">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>14</v>
-      </c>
-      <c r="C24">
-        <v>48</v>
-      </c>
-      <c r="D24">
-        <v>33</v>
-      </c>
-      <c r="E24">
-        <v>75</v>
-      </c>
-      <c r="F24">
-        <v>97</v>
-      </c>
-      <c r="G24">
-        <v>84</v>
-      </c>
-      <c r="H24">
-        <v>94</v>
-      </c>
-      <c r="I24">
-        <v>41</v>
-      </c>
-      <c r="J24">
-        <v>125</v>
-      </c>
-      <c r="K24" s="4">
-        <v>69</v>
-      </c>
-      <c r="L24" s="4">
-        <v>97</v>
-      </c>
-      <c r="M24" s="4">
-        <v>97</v>
-      </c>
-      <c r="N24" s="4">
-        <v>64</v>
-      </c>
-      <c r="P24" s="8">
-        <v>64</v>
-      </c>
-      <c r="Q24" s="4">
-        <v>64</v>
-      </c>
-      <c r="R24" s="4">
-        <v>161</v>
-      </c>
-      <c r="S24" s="8"/>
-      <c r="T24" s="8">
-        <v>54</v>
-      </c>
-      <c r="U24" s="4">
-        <v>31</v>
-      </c>
-      <c r="V24" s="8">
-        <v>74</v>
-      </c>
-      <c r="X24">
-        <v>307</v>
-      </c>
-      <c r="Y24">
-        <v>54</v>
-      </c>
-      <c r="Z24">
-        <v>176</v>
-      </c>
-      <c r="AA24">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>36</v>
-      </c>
-      <c r="C25">
-        <v>440</v>
-      </c>
-      <c r="D25">
-        <v>1477</v>
-      </c>
-      <c r="E25">
-        <v>663</v>
-      </c>
-      <c r="F25">
-        <v>1532</v>
-      </c>
-      <c r="G25">
-        <v>348</v>
-      </c>
-      <c r="H25">
-        <v>562</v>
-      </c>
-      <c r="I25">
-        <v>392</v>
-      </c>
-      <c r="J25">
-        <v>500</v>
-      </c>
-      <c r="K25" s="4">
-        <v>332</v>
-      </c>
-      <c r="L25" s="4">
-        <v>69</v>
-      </c>
-      <c r="M25" s="4">
-        <v>253</v>
-      </c>
-      <c r="N25" s="4">
-        <v>404</v>
-      </c>
-      <c r="P25" s="8">
-        <v>227</v>
-      </c>
-      <c r="Q25" s="4">
-        <v>365</v>
-      </c>
-      <c r="R25" s="4">
-        <v>300</v>
-      </c>
-      <c r="S25" s="8"/>
-      <c r="T25" s="8">
-        <v>356</v>
-      </c>
-      <c r="U25" s="4">
-        <v>317</v>
-      </c>
-      <c r="V25" s="8">
-        <v>311</v>
-      </c>
-      <c r="X25">
-        <v>280</v>
-      </c>
-      <c r="Y25">
-        <v>370</v>
-      </c>
-      <c r="Z25">
-        <v>233</v>
-      </c>
-      <c r="AA25">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="B26" t="s">
-        <v>24</v>
-      </c>
-      <c r="C26">
-        <v>87</v>
-      </c>
-      <c r="D26">
-        <v>71</v>
-      </c>
-      <c r="E26">
-        <v>263</v>
-      </c>
-      <c r="F26">
-        <v>123</v>
-      </c>
-      <c r="G26">
-        <v>161</v>
-      </c>
-      <c r="H26">
-        <v>12</v>
-      </c>
-      <c r="I26">
-        <v>37</v>
-      </c>
-      <c r="J26">
-        <v>25</v>
-      </c>
-      <c r="K26" s="4">
-        <v>20</v>
-      </c>
-      <c r="L26" s="4">
-        <v>448</v>
-      </c>
-      <c r="M26" s="4">
-        <v>44</v>
-      </c>
-      <c r="N26" s="4">
-        <v>36</v>
-      </c>
-      <c r="P26" s="8">
-        <v>65</v>
-      </c>
-      <c r="Q26" s="4">
-        <v>39</v>
-      </c>
-      <c r="R26" s="4">
-        <v>53</v>
-      </c>
-      <c r="S26" s="8"/>
-      <c r="T26" s="8">
-        <v>236</v>
-      </c>
-      <c r="U26" s="4">
-        <v>66</v>
-      </c>
-      <c r="V26" s="8">
-        <v>60</v>
-      </c>
-      <c r="X26">
-        <v>33</v>
-      </c>
-      <c r="Y26">
-        <v>28</v>
-      </c>
-      <c r="Z26">
-        <v>46</v>
-      </c>
-      <c r="AA26">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="B27" t="s">
-        <v>39</v>
-      </c>
-      <c r="C27">
-        <v>55</v>
-      </c>
-      <c r="D27">
-        <v>108</v>
-      </c>
-      <c r="E27">
-        <v>92</v>
-      </c>
-      <c r="F27">
-        <v>349</v>
-      </c>
-      <c r="G27">
-        <v>75</v>
-      </c>
-      <c r="H27">
-        <v>92</v>
-      </c>
-      <c r="I27">
-        <v>92</v>
-      </c>
-      <c r="J27">
-        <v>209</v>
-      </c>
-      <c r="K27" s="4">
-        <v>58</v>
-      </c>
-      <c r="L27" s="4">
-        <v>50</v>
-      </c>
-      <c r="M27" s="4">
-        <v>52</v>
-      </c>
-      <c r="N27" s="4">
-        <v>93</v>
-      </c>
-      <c r="P27" s="8">
-        <v>51</v>
-      </c>
-      <c r="Q27" s="4">
-        <v>70</v>
-      </c>
-      <c r="R27" s="4">
-        <v>121</v>
-      </c>
-      <c r="S27" s="8"/>
-      <c r="T27" s="8">
-        <v>36</v>
-      </c>
-      <c r="U27" s="4">
-        <v>68</v>
-      </c>
-      <c r="V27" s="8">
-        <v>60</v>
-      </c>
-      <c r="X27">
-        <v>62</v>
-      </c>
-      <c r="Y27">
-        <v>62</v>
-      </c>
-      <c r="Z27">
-        <v>150</v>
-      </c>
-      <c r="AA27">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>27</v>
-      </c>
-      <c r="B28" t="s">
-        <v>28</v>
-      </c>
-      <c r="C28">
-        <v>123</v>
-      </c>
-      <c r="D28">
-        <v>462</v>
-      </c>
-      <c r="E28">
-        <v>535</v>
-      </c>
-      <c r="F28">
-        <v>398</v>
-      </c>
-      <c r="G28">
-        <v>127</v>
-      </c>
-      <c r="H28">
-        <v>54</v>
-      </c>
-      <c r="I28">
-        <v>74</v>
-      </c>
-      <c r="J28">
-        <v>50</v>
-      </c>
-      <c r="K28" s="4">
-        <v>58</v>
-      </c>
-      <c r="L28" s="4">
-        <v>94</v>
-      </c>
-      <c r="M28" s="4">
-        <v>48</v>
-      </c>
-      <c r="N28" s="4">
-        <v>29</v>
-      </c>
-      <c r="P28" s="8">
-        <v>141</v>
-      </c>
-      <c r="Q28" s="4">
-        <v>111</v>
-      </c>
-      <c r="R28" s="4">
-        <v>222</v>
-      </c>
-      <c r="S28" s="8"/>
-      <c r="T28" s="8">
-        <v>93</v>
-      </c>
-      <c r="U28" s="4">
-        <v>55</v>
-      </c>
-      <c r="V28" s="8">
-        <v>38</v>
-      </c>
-      <c r="X28">
-        <v>81</v>
-      </c>
-      <c r="Y28">
-        <v>112</v>
-      </c>
-      <c r="Z28">
-        <v>131</v>
-      </c>
-      <c r="AA28">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>28</v>
-      </c>
-      <c r="B29" t="s">
-        <v>21</v>
-      </c>
-      <c r="C29">
-        <v>105</v>
-      </c>
-      <c r="D29">
-        <v>386</v>
-      </c>
-      <c r="E29">
-        <v>167</v>
-      </c>
-      <c r="F29">
-        <v>115</v>
-      </c>
-      <c r="G29">
-        <v>57</v>
-      </c>
-      <c r="H29">
-        <v>63</v>
-      </c>
-      <c r="I29">
-        <v>49</v>
-      </c>
-      <c r="J29">
-        <v>82</v>
-      </c>
-      <c r="K29" s="4">
-        <v>36</v>
-      </c>
-      <c r="L29" s="4">
-        <v>116</v>
-      </c>
-      <c r="M29" s="4">
-        <v>216</v>
-      </c>
-      <c r="N29" s="4">
-        <v>73</v>
-      </c>
-      <c r="P29" s="8">
-        <v>124</v>
-      </c>
-      <c r="Q29" s="4">
-        <v>86</v>
-      </c>
-      <c r="R29" s="4">
-        <v>146</v>
-      </c>
-      <c r="S29" s="8"/>
-      <c r="T29" s="8">
-        <v>100</v>
-      </c>
-      <c r="U29" s="4">
-        <v>76</v>
-      </c>
-      <c r="V29" s="8">
-        <v>66</v>
-      </c>
-      <c r="X29">
-        <v>678</v>
-      </c>
-      <c r="Y29">
-        <v>146</v>
-      </c>
-      <c r="Z29">
-        <v>200</v>
-      </c>
-      <c r="AA29">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>29</v>
-      </c>
-      <c r="B30" t="s">
-        <v>0</v>
-      </c>
-      <c r="C30">
-        <v>517</v>
-      </c>
-      <c r="D30">
-        <v>304</v>
-      </c>
-      <c r="E30">
-        <v>404</v>
-      </c>
-      <c r="F30">
-        <v>188</v>
-      </c>
-      <c r="G30">
-        <v>189</v>
-      </c>
-      <c r="H30">
-        <v>146</v>
-      </c>
-      <c r="I30">
-        <v>109</v>
-      </c>
-      <c r="J30">
-        <v>92</v>
-      </c>
-      <c r="K30">
-        <v>184</v>
-      </c>
-      <c r="L30">
-        <v>15</v>
-      </c>
-      <c r="M30" s="4">
-        <v>266</v>
-      </c>
-      <c r="N30">
-        <v>249</v>
-      </c>
-      <c r="P30" s="8">
-        <v>409</v>
-      </c>
-      <c r="Q30">
-        <v>122</v>
-      </c>
-      <c r="R30" s="4">
-        <v>282</v>
-      </c>
-      <c r="S30" s="8"/>
-      <c r="T30" s="8">
-        <v>208</v>
-      </c>
-      <c r="U30">
-        <v>272</v>
-      </c>
-      <c r="V30" s="8">
-        <v>114</v>
-      </c>
-      <c r="X30">
-        <v>153</v>
-      </c>
-      <c r="Y30">
-        <v>176</v>
-      </c>
-      <c r="Z30">
-        <v>153</v>
-      </c>
-      <c r="AA30">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>30</v>
-      </c>
-      <c r="B31" t="s">
-        <v>31</v>
-      </c>
-      <c r="C31">
-        <v>73</v>
-      </c>
-      <c r="D31">
-        <v>29</v>
-      </c>
-      <c r="E31">
-        <v>211</v>
-      </c>
-      <c r="F31">
-        <v>269</v>
-      </c>
-      <c r="G31">
-        <v>145</v>
-      </c>
-      <c r="H31">
-        <v>70</v>
-      </c>
-      <c r="I31">
-        <v>96</v>
-      </c>
-      <c r="J31">
-        <v>78</v>
-      </c>
-      <c r="K31" s="4">
-        <v>77</v>
-      </c>
-      <c r="L31" s="4">
-        <v>103</v>
-      </c>
-      <c r="M31" s="4">
-        <v>84</v>
-      </c>
-      <c r="N31" s="4">
-        <v>104</v>
-      </c>
-      <c r="P31" s="8">
-        <v>86</v>
-      </c>
-      <c r="Q31" s="4">
-        <v>53</v>
-      </c>
-      <c r="R31" s="4">
-        <v>144</v>
-      </c>
-      <c r="S31" s="8"/>
-      <c r="T31" s="8">
-        <v>146</v>
-      </c>
-      <c r="U31" s="4">
-        <v>76</v>
-      </c>
-      <c r="V31" s="8">
-        <v>104</v>
-      </c>
-      <c r="X31">
-        <v>126</v>
-      </c>
-      <c r="Y31">
-        <v>321</v>
-      </c>
-      <c r="Z31">
-        <v>165</v>
-      </c>
-      <c r="AA31">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>31</v>
-      </c>
-      <c r="B32" t="s">
-        <v>32</v>
-      </c>
-      <c r="C32">
-        <v>160</v>
-      </c>
-      <c r="D32">
-        <v>282</v>
-      </c>
-      <c r="E32">
-        <v>218</v>
-      </c>
-      <c r="F32">
-        <v>503</v>
-      </c>
-      <c r="G32">
-        <v>117</v>
-      </c>
-      <c r="H32">
-        <v>63</v>
-      </c>
-      <c r="I32">
-        <v>73</v>
-      </c>
-      <c r="J32">
-        <v>53</v>
-      </c>
-      <c r="K32" s="4">
-        <v>43</v>
-      </c>
-      <c r="L32" s="4">
-        <v>62</v>
-      </c>
-      <c r="M32" s="4">
-        <v>63</v>
-      </c>
-      <c r="N32" s="4">
-        <v>84</v>
-      </c>
-      <c r="P32" s="8">
-        <v>74</v>
-      </c>
-      <c r="Q32" s="4">
-        <v>80</v>
-      </c>
-      <c r="R32" s="4">
-        <v>64</v>
-      </c>
-      <c r="S32" s="8"/>
-      <c r="T32" s="8">
-        <v>72</v>
-      </c>
-      <c r="U32" s="4">
-        <v>137</v>
-      </c>
-      <c r="V32" s="8">
-        <v>77</v>
-      </c>
-      <c r="X32">
-        <v>52</v>
-      </c>
-      <c r="Y32">
-        <v>106</v>
-      </c>
-      <c r="Z32">
-        <v>96</v>
-      </c>
-      <c r="AA32">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>32</v>
-      </c>
-      <c r="B33" t="s">
-        <v>13</v>
-      </c>
-      <c r="C33">
-        <v>61</v>
-      </c>
-      <c r="D33">
-        <v>165</v>
-      </c>
-      <c r="E33">
-        <v>157</v>
-      </c>
-      <c r="F33">
-        <v>69</v>
-      </c>
-      <c r="G33">
-        <v>116</v>
-      </c>
-      <c r="H33">
-        <v>37</v>
-      </c>
-      <c r="I33">
-        <v>12</v>
-      </c>
-      <c r="J33">
-        <v>75</v>
-      </c>
-      <c r="K33" s="4">
-        <v>59</v>
-      </c>
-      <c r="L33" s="4">
-        <v>89</v>
-      </c>
-      <c r="M33" s="4">
-        <v>93</v>
-      </c>
-      <c r="N33" s="4">
-        <v>70</v>
-      </c>
-      <c r="P33" s="8">
-        <v>98</v>
-      </c>
-      <c r="Q33" s="4">
-        <v>57</v>
-      </c>
-      <c r="R33" s="4">
-        <v>39</v>
-      </c>
-      <c r="S33" s="8"/>
-      <c r="T33" s="8">
-        <v>69</v>
-      </c>
-      <c r="U33" s="4">
-        <v>91</v>
-      </c>
-      <c r="V33" s="8">
-        <v>54</v>
-      </c>
-      <c r="X33">
-        <v>46</v>
-      </c>
-      <c r="Y33">
-        <v>72</v>
-      </c>
-      <c r="Z33">
-        <v>90</v>
-      </c>
-      <c r="AA33">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>33</v>
-      </c>
-      <c r="B34" t="s">
-        <v>18</v>
-      </c>
-      <c r="C34">
-        <v>129</v>
-      </c>
-      <c r="D34">
-        <v>144</v>
-      </c>
-      <c r="E34">
-        <v>165</v>
-      </c>
-      <c r="F34">
-        <v>304</v>
-      </c>
-      <c r="G34">
-        <v>198</v>
-      </c>
-      <c r="H34">
-        <v>164</v>
-      </c>
-      <c r="I34">
-        <v>66</v>
-      </c>
-      <c r="J34">
-        <v>163</v>
-      </c>
-      <c r="K34" s="4">
-        <v>152</v>
-      </c>
-      <c r="L34" s="4">
-        <v>407</v>
-      </c>
-      <c r="M34" s="4">
-        <v>443</v>
-      </c>
-      <c r="N34" s="4">
-        <v>180</v>
-      </c>
-      <c r="P34" s="8">
-        <v>176</v>
-      </c>
-      <c r="Q34" s="4">
-        <v>741</v>
-      </c>
-      <c r="R34" s="4">
-        <v>292</v>
-      </c>
-      <c r="S34" s="8"/>
-      <c r="T34" s="8">
-        <v>132</v>
-      </c>
-      <c r="U34" s="4">
-        <v>56</v>
-      </c>
-      <c r="V34" s="8">
-        <v>94</v>
-      </c>
-      <c r="X34">
-        <v>165</v>
-      </c>
-      <c r="Y34">
-        <v>259</v>
-      </c>
-      <c r="Z34">
-        <v>271</v>
-      </c>
-      <c r="AA34">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>34</v>
-      </c>
-      <c r="B35" t="s">
-        <v>1</v>
-      </c>
-      <c r="C35">
-        <v>208</v>
-      </c>
-      <c r="D35">
-        <v>130</v>
-      </c>
-      <c r="E35">
-        <v>152</v>
-      </c>
-      <c r="F35">
-        <v>182</v>
-      </c>
-      <c r="G35">
-        <v>287</v>
-      </c>
-      <c r="H35">
-        <v>86</v>
-      </c>
-      <c r="I35">
-        <v>72</v>
-      </c>
-      <c r="J35">
-        <v>53</v>
-      </c>
-      <c r="K35">
-        <v>64</v>
-      </c>
-      <c r="L35">
-        <v>89</v>
-      </c>
-      <c r="M35" s="4">
-        <v>68</v>
-      </c>
-      <c r="N35">
-        <v>28</v>
-      </c>
-      <c r="P35" s="8">
-        <v>45</v>
-      </c>
-      <c r="Q35">
-        <v>56</v>
-      </c>
-      <c r="R35" s="4">
-        <v>106</v>
-      </c>
-      <c r="S35" s="8"/>
-      <c r="T35" s="8">
-        <v>49</v>
-      </c>
-      <c r="U35">
-        <v>76</v>
-      </c>
-      <c r="V35" s="8">
-        <v>70</v>
-      </c>
-      <c r="X35">
-        <v>84</v>
-      </c>
-      <c r="Y35">
-        <v>90</v>
-      </c>
-      <c r="Z35">
-        <v>71</v>
-      </c>
-      <c r="AA35">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>35</v>
-      </c>
-      <c r="B36" t="s">
-        <v>37</v>
-      </c>
-      <c r="C36">
-        <v>64</v>
-      </c>
-      <c r="D36">
-        <v>142</v>
-      </c>
-      <c r="E36">
-        <v>134</v>
-      </c>
-      <c r="F36">
-        <v>295</v>
-      </c>
-      <c r="G36">
-        <v>113</v>
-      </c>
-      <c r="H36">
-        <v>111</v>
-      </c>
-      <c r="I36">
-        <v>84</v>
-      </c>
-      <c r="J36">
-        <v>191</v>
-      </c>
-      <c r="K36" s="4">
-        <v>16</v>
-      </c>
-      <c r="L36" s="4">
-        <v>125</v>
-      </c>
-      <c r="M36" s="4">
-        <v>93</v>
-      </c>
-      <c r="N36" s="4">
-        <v>60</v>
-      </c>
-      <c r="P36" s="8">
-        <v>96</v>
-      </c>
-      <c r="Q36" s="4">
-        <v>118</v>
-      </c>
-      <c r="R36" s="4">
-        <v>112</v>
-      </c>
-      <c r="S36" s="8"/>
-      <c r="T36" s="8">
-        <v>68</v>
-      </c>
-      <c r="U36" s="4">
-        <v>71</v>
-      </c>
-      <c r="V36" s="8">
-        <v>118</v>
-      </c>
-      <c r="X36">
-        <v>88</v>
-      </c>
-      <c r="Y36">
-        <v>148</v>
-      </c>
-      <c r="Z36">
-        <v>137</v>
-      </c>
-      <c r="AA36">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>36</v>
-      </c>
-      <c r="B37" t="s">
-        <v>20</v>
-      </c>
-      <c r="C37">
-        <v>71</v>
-      </c>
-      <c r="D37">
-        <v>47</v>
-      </c>
-      <c r="E37">
-        <v>42</v>
-      </c>
-      <c r="F37">
-        <v>122</v>
-      </c>
-      <c r="G37">
-        <v>84</v>
-      </c>
-      <c r="H37">
-        <v>81</v>
-      </c>
-      <c r="I37">
-        <v>45</v>
-      </c>
-      <c r="J37">
-        <v>68</v>
-      </c>
-      <c r="K37" s="4">
-        <v>60</v>
-      </c>
-      <c r="L37" s="4">
-        <v>66</v>
-      </c>
-      <c r="M37" s="4">
-        <v>172</v>
-      </c>
-      <c r="N37" s="4">
-        <v>64</v>
-      </c>
-      <c r="P37" s="8">
-        <v>70</v>
-      </c>
-      <c r="Q37" s="4">
-        <v>75</v>
-      </c>
-      <c r="R37" s="4">
-        <v>126</v>
-      </c>
-      <c r="S37" s="8"/>
-      <c r="T37" s="8">
-        <v>47</v>
-      </c>
-      <c r="U37" s="4">
-        <v>81</v>
-      </c>
-      <c r="V37" s="8">
-        <v>70</v>
-      </c>
-      <c r="X37">
-        <v>120</v>
-      </c>
-      <c r="Y37">
-        <v>89</v>
-      </c>
-      <c r="Z37">
-        <v>98</v>
-      </c>
-      <c r="AA37">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>37</v>
-      </c>
-      <c r="B38" t="s">
-        <v>70</v>
-      </c>
-      <c r="F38">
-        <v>175</v>
-      </c>
-      <c r="G38">
-        <v>820</v>
-      </c>
-      <c r="H38">
-        <v>252</v>
-      </c>
-      <c r="I38">
-        <v>252</v>
-      </c>
-      <c r="J38">
-        <v>247</v>
-      </c>
-      <c r="K38" s="4">
-        <v>108</v>
-      </c>
-      <c r="L38" s="4">
-        <v>106</v>
-      </c>
-      <c r="M38" s="4">
-        <v>346</v>
-      </c>
-      <c r="N38" s="4">
-        <v>131</v>
-      </c>
-      <c r="P38" s="8">
-        <v>104</v>
-      </c>
-      <c r="Q38" s="4">
-        <v>126</v>
-      </c>
-      <c r="R38" s="4">
-        <v>96</v>
-      </c>
-      <c r="S38" s="8"/>
-      <c r="T38" s="8">
-        <v>94</v>
-      </c>
-      <c r="U38" s="4">
-        <v>106</v>
-      </c>
-      <c r="V38" s="8">
-        <v>92</v>
-      </c>
-      <c r="X38">
-        <v>170</v>
-      </c>
-      <c r="Y38">
-        <v>163</v>
-      </c>
-      <c r="Z38">
-        <v>255</v>
-      </c>
-      <c r="AA38">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>38</v>
-      </c>
-      <c r="B39" t="s">
-        <v>19</v>
-      </c>
-      <c r="C39">
-        <v>228</v>
-      </c>
-      <c r="D39">
-        <v>166</v>
-      </c>
-      <c r="E39">
-        <v>206</v>
-      </c>
-      <c r="F39">
-        <v>230</v>
-      </c>
-      <c r="G39">
-        <v>181</v>
-      </c>
-      <c r="H39">
-        <v>116</v>
-      </c>
-      <c r="I39">
-        <v>83</v>
-      </c>
-      <c r="J39">
-        <v>220</v>
-      </c>
-      <c r="K39" s="4">
-        <v>140</v>
-      </c>
-      <c r="L39" s="4">
-        <v>279</v>
-      </c>
-      <c r="M39" s="4">
-        <v>196</v>
-      </c>
-      <c r="N39" s="4">
-        <v>190</v>
-      </c>
-      <c r="P39" s="8">
-        <v>200</v>
-      </c>
-      <c r="Q39" s="4">
-        <v>396</v>
-      </c>
-      <c r="R39" s="4">
-        <v>246</v>
-      </c>
-      <c r="S39" s="8"/>
-      <c r="T39" s="8">
-        <v>114</v>
-      </c>
-      <c r="U39" s="4">
-        <v>122</v>
-      </c>
-      <c r="V39" s="8">
-        <v>140</v>
-      </c>
-      <c r="X39">
-        <v>155</v>
-      </c>
-      <c r="Y39">
-        <v>320</v>
-      </c>
-      <c r="Z39">
-        <v>164</v>
-      </c>
-      <c r="AA39">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>39</v>
-      </c>
-      <c r="B40" t="s">
-        <v>26</v>
-      </c>
-      <c r="C40">
-        <v>595</v>
-      </c>
-      <c r="D40">
-        <v>1113</v>
-      </c>
-      <c r="E40">
-        <v>985</v>
-      </c>
-      <c r="F40">
-        <v>357</v>
-      </c>
-      <c r="G40">
-        <v>1049</v>
-      </c>
-      <c r="H40">
-        <v>84</v>
-      </c>
-      <c r="I40">
-        <v>141</v>
-      </c>
-      <c r="J40">
-        <v>126</v>
-      </c>
-      <c r="K40" s="4">
-        <v>100</v>
-      </c>
-      <c r="L40" s="4">
-        <v>226</v>
-      </c>
-      <c r="M40" s="4">
-        <v>150</v>
-      </c>
-      <c r="N40" s="4">
-        <v>77</v>
-      </c>
-      <c r="P40" s="8">
-        <v>224</v>
-      </c>
-      <c r="Q40" s="4">
-        <v>162</v>
-      </c>
-      <c r="R40" s="4">
-        <v>108</v>
-      </c>
-      <c r="S40" s="8"/>
-      <c r="T40" s="8">
-        <v>264</v>
-      </c>
-      <c r="U40" s="4">
-        <v>161</v>
-      </c>
-      <c r="V40" s="8">
-        <v>218</v>
-      </c>
-      <c r="X40">
-        <v>270</v>
-      </c>
-      <c r="Y40">
-        <v>166</v>
-      </c>
-      <c r="Z40">
-        <v>176</v>
-      </c>
-      <c r="AA40">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>40</v>
-      </c>
-      <c r="B41" t="s">
-        <v>33</v>
-      </c>
-      <c r="C41">
-        <v>201</v>
-      </c>
-      <c r="D41">
-        <v>355</v>
-      </c>
-      <c r="E41">
-        <v>251</v>
-      </c>
-      <c r="F41">
-        <v>196</v>
-      </c>
-      <c r="G41">
-        <v>132</v>
-      </c>
-      <c r="H41">
-        <v>83</v>
-      </c>
-      <c r="I41">
-        <v>83</v>
-      </c>
-      <c r="J41">
-        <v>281</v>
-      </c>
-      <c r="K41" s="4">
-        <v>44</v>
-      </c>
-      <c r="L41" s="4">
-        <v>47</v>
-      </c>
-      <c r="M41" s="4">
-        <v>154</v>
-      </c>
-      <c r="N41" s="4">
-        <v>31</v>
-      </c>
-      <c r="P41" s="8">
-        <v>46</v>
-      </c>
-      <c r="Q41" s="4">
-        <v>59</v>
-      </c>
-      <c r="R41" s="4">
-        <v>56</v>
-      </c>
-      <c r="S41" s="8"/>
-      <c r="T41" s="8">
-        <v>52</v>
-      </c>
-      <c r="U41" s="4">
-        <v>92</v>
-      </c>
-      <c r="V41" s="8">
-        <v>64</v>
-      </c>
-      <c r="X41">
-        <v>74</v>
-      </c>
-      <c r="Y41">
-        <v>66</v>
-      </c>
-      <c r="Z41">
-        <v>36</v>
-      </c>
-      <c r="AA41">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>41</v>
-      </c>
-      <c r="B42" t="s">
-        <v>6</v>
-      </c>
-      <c r="C42">
-        <v>1029</v>
-      </c>
-      <c r="D42">
-        <v>1778</v>
-      </c>
-      <c r="E42">
-        <v>4717</v>
-      </c>
-      <c r="F42">
-        <v>930</v>
-      </c>
-      <c r="G42">
-        <v>752</v>
-      </c>
-      <c r="H42">
-        <v>522</v>
-      </c>
-      <c r="I42">
-        <v>923</v>
-      </c>
-      <c r="J42">
-        <v>236</v>
-      </c>
-      <c r="K42" s="4">
-        <v>591</v>
-      </c>
-      <c r="L42" s="4">
-        <v>356</v>
-      </c>
-      <c r="M42" s="4">
-        <v>362</v>
-      </c>
-      <c r="N42" s="4">
-        <v>438</v>
-      </c>
-      <c r="P42" s="7">
-        <v>1118</v>
-      </c>
-      <c r="Q42" s="4">
-        <v>648</v>
-      </c>
-      <c r="R42" s="4">
-        <v>529</v>
-      </c>
-      <c r="S42" s="8"/>
-      <c r="T42" s="8">
-        <v>666</v>
-      </c>
-      <c r="U42" s="4">
-        <v>680</v>
-      </c>
-      <c r="V42" s="8">
-        <v>575</v>
-      </c>
-      <c r="X42">
-        <v>700</v>
-      </c>
-      <c r="Y42">
-        <v>1158</v>
-      </c>
-      <c r="Z42">
-        <v>788</v>
-      </c>
-      <c r="AA42">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>42</v>
-      </c>
-      <c r="B43" t="s">
-        <v>4</v>
-      </c>
-      <c r="C43">
-        <v>1047</v>
-      </c>
-      <c r="D43">
-        <v>1430</v>
-      </c>
-      <c r="E43">
-        <v>4084</v>
-      </c>
-      <c r="F43">
-        <v>1604</v>
-      </c>
-      <c r="G43">
-        <v>1180</v>
-      </c>
-      <c r="H43">
-        <v>657</v>
-      </c>
-      <c r="I43">
-        <v>730</v>
-      </c>
-      <c r="J43">
-        <v>829</v>
-      </c>
-      <c r="K43" s="3">
-        <v>1237</v>
-      </c>
-      <c r="L43" s="4">
-        <v>987</v>
-      </c>
-      <c r="M43" s="4">
-        <v>2239</v>
-      </c>
-      <c r="N43" s="4">
-        <v>607</v>
-      </c>
-      <c r="P43" s="8">
-        <v>560</v>
-      </c>
-      <c r="Q43" s="4">
-        <v>688</v>
-      </c>
-      <c r="R43" s="4">
-        <v>511</v>
-      </c>
-      <c r="S43" s="8"/>
-      <c r="T43" s="8">
-        <v>341</v>
-      </c>
-      <c r="U43" s="4">
-        <v>605</v>
-      </c>
-      <c r="V43" s="8">
-        <v>460</v>
-      </c>
-      <c r="X43">
-        <v>826</v>
-      </c>
-      <c r="Y43">
-        <v>1207</v>
-      </c>
-      <c r="Z43">
-        <v>954</v>
-      </c>
-      <c r="AA43">
-        <v>1650</v>
-      </c>
-    </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>43</v>
-      </c>
-      <c r="B44" t="s">
-        <v>2</v>
-      </c>
-      <c r="C44">
-        <v>102</v>
-      </c>
-      <c r="D44">
-        <v>101</v>
-      </c>
-      <c r="E44">
-        <v>137</v>
-      </c>
-      <c r="F44">
-        <v>128</v>
-      </c>
-      <c r="G44">
-        <v>106</v>
-      </c>
-      <c r="H44">
-        <v>66</v>
-      </c>
-      <c r="I44">
-        <v>71</v>
-      </c>
-      <c r="J44">
-        <v>54</v>
-      </c>
-      <c r="K44" s="4">
-        <v>68</v>
-      </c>
-      <c r="L44" s="4">
-        <v>156</v>
-      </c>
-      <c r="M44" s="4">
-        <v>83</v>
-      </c>
-      <c r="N44" s="4">
-        <v>84</v>
-      </c>
-      <c r="P44" s="4">
-        <v>45</v>
-      </c>
-      <c r="Q44" s="4">
-        <v>63</v>
-      </c>
-      <c r="R44" s="4">
-        <v>76</v>
-      </c>
-      <c r="S44" s="8"/>
-      <c r="T44" s="8">
-        <v>71</v>
-      </c>
-      <c r="U44" s="4">
-        <v>61</v>
-      </c>
-      <c r="V44" s="8">
-        <v>36</v>
-      </c>
-      <c r="X44">
-        <v>62</v>
-      </c>
-      <c r="Y44">
-        <v>76</v>
-      </c>
-      <c r="Z44">
-        <v>78</v>
-      </c>
-      <c r="AA44">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>44</v>
-      </c>
-      <c r="B45" t="s">
-        <v>29</v>
-      </c>
-      <c r="C45">
-        <v>155</v>
-      </c>
-      <c r="D45">
-        <v>581</v>
-      </c>
-      <c r="E45">
-        <v>691</v>
-      </c>
-      <c r="F45">
-        <v>400</v>
-      </c>
-      <c r="G45">
-        <v>93</v>
-      </c>
-      <c r="H45">
-        <v>90</v>
-      </c>
-      <c r="I45">
-        <v>98</v>
-      </c>
-      <c r="J45">
-        <v>64</v>
-      </c>
-      <c r="K45" s="4">
-        <v>90</v>
-      </c>
-      <c r="L45" s="4">
-        <v>266</v>
-      </c>
-      <c r="M45" s="4">
-        <v>106</v>
-      </c>
-      <c r="N45" s="4">
-        <v>66</v>
-      </c>
-      <c r="P45" s="8">
-        <v>83</v>
-      </c>
-      <c r="Q45" s="4">
-        <v>69</v>
-      </c>
-      <c r="R45" s="4">
-        <v>56</v>
-      </c>
-      <c r="S45" s="8"/>
-      <c r="T45" s="8">
-        <v>116</v>
-      </c>
-      <c r="U45" s="4">
-        <v>39</v>
-      </c>
-      <c r="V45" s="8">
-        <v>91</v>
-      </c>
-      <c r="X45">
-        <v>106</v>
-      </c>
-      <c r="Y45">
-        <v>90</v>
-      </c>
-      <c r="Z45">
-        <v>120</v>
-      </c>
-      <c r="AA45">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>45</v>
-      </c>
-      <c r="B46" t="s">
-        <v>22</v>
-      </c>
-      <c r="C46">
-        <v>40</v>
-      </c>
-      <c r="D46">
-        <v>38</v>
-      </c>
-      <c r="E46">
-        <v>53</v>
-      </c>
-      <c r="F46">
-        <v>44</v>
-      </c>
-      <c r="G46">
-        <v>69</v>
-      </c>
-      <c r="H46">
-        <v>36</v>
-      </c>
-      <c r="I46">
-        <v>24</v>
-      </c>
-      <c r="J46">
-        <v>42</v>
-      </c>
-      <c r="K46" s="4">
-        <v>7</v>
-      </c>
-      <c r="L46" s="4">
-        <v>50</v>
-      </c>
-      <c r="M46" s="4">
-        <v>59</v>
-      </c>
-      <c r="N46" s="4">
-        <v>45</v>
-      </c>
-      <c r="P46" s="8">
-        <v>85</v>
-      </c>
-      <c r="R46" s="4">
-        <v>45</v>
-      </c>
-      <c r="S46" s="8"/>
-      <c r="T46" s="8">
-        <v>24</v>
-      </c>
-      <c r="U46" s="4">
-        <v>62</v>
-      </c>
-      <c r="V46" s="8">
-        <v>111</v>
-      </c>
-      <c r="X46">
-        <v>116</v>
-      </c>
-      <c r="Z46">
-        <v>0</v>
-      </c>
-      <c r="AA46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>46</v>
-      </c>
-      <c r="B47" t="s">
-        <v>71</v>
-      </c>
-      <c r="D47">
-        <v>312</v>
-      </c>
-      <c r="E47">
-        <v>320</v>
-      </c>
-      <c r="F47">
-        <v>95</v>
-      </c>
-      <c r="G47">
-        <v>215</v>
-      </c>
-      <c r="H47">
-        <v>66</v>
-      </c>
-      <c r="I47">
-        <v>122</v>
-      </c>
-      <c r="J47">
-        <v>102</v>
-      </c>
-      <c r="K47" s="4">
-        <v>271</v>
-      </c>
-      <c r="L47" s="4">
-        <v>393</v>
-      </c>
-      <c r="M47" s="4">
-        <v>208</v>
-      </c>
-      <c r="N47" s="4">
-        <v>103</v>
-      </c>
-      <c r="P47" s="8">
-        <v>440</v>
-      </c>
-      <c r="Q47" s="4">
-        <v>237</v>
-      </c>
-      <c r="R47" s="4">
-        <v>110</v>
-      </c>
-      <c r="S47" s="8"/>
-      <c r="T47" s="8">
-        <v>94</v>
-      </c>
-      <c r="U47" s="4">
-        <v>95</v>
-      </c>
-      <c r="V47" s="8">
-        <v>138</v>
-      </c>
-      <c r="X47">
-        <v>144</v>
-      </c>
-      <c r="Y47">
-        <v>120</v>
-      </c>
-      <c r="Z47">
-        <v>483</v>
-      </c>
-      <c r="AA47">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>47</v>
-      </c>
-      <c r="B48" t="s">
-        <v>3</v>
-      </c>
-      <c r="C48">
-        <v>98</v>
-      </c>
-      <c r="D48">
-        <v>50</v>
-      </c>
-      <c r="E48">
-        <v>107</v>
-      </c>
-      <c r="F48">
-        <v>63</v>
-      </c>
-      <c r="G48">
-        <v>66</v>
-      </c>
-      <c r="H48">
-        <v>54</v>
-      </c>
-      <c r="I48">
-        <v>83</v>
-      </c>
-      <c r="J48">
-        <v>46</v>
-      </c>
-      <c r="K48" s="4">
-        <v>94</v>
-      </c>
-      <c r="L48" s="4">
-        <v>181</v>
-      </c>
-      <c r="M48" s="4">
-        <v>93</v>
-      </c>
-      <c r="N48" s="4">
-        <v>139</v>
-      </c>
-      <c r="P48" s="4">
-        <v>83</v>
-      </c>
-      <c r="Q48" s="4">
-        <v>76</v>
-      </c>
-      <c r="R48" s="4">
-        <v>131</v>
-      </c>
-      <c r="S48" s="8"/>
-      <c r="T48" s="8">
-        <v>76</v>
-      </c>
-      <c r="U48" s="4">
-        <v>75</v>
-      </c>
-      <c r="V48" s="8">
-        <v>49</v>
-      </c>
-      <c r="X48">
-        <v>40</v>
-      </c>
-      <c r="Y48">
-        <v>76</v>
-      </c>
-      <c r="Z48">
-        <v>61</v>
-      </c>
-      <c r="AA48">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="49" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>48</v>
-      </c>
-      <c r="B49" t="s">
-        <v>17</v>
-      </c>
-      <c r="C49">
-        <v>58</v>
-      </c>
-      <c r="D49">
-        <v>38</v>
-      </c>
-      <c r="E49">
-        <v>122</v>
-      </c>
-      <c r="F49">
-        <v>48</v>
-      </c>
-      <c r="G49">
-        <v>139</v>
-      </c>
-      <c r="H49">
-        <v>99</v>
-      </c>
-      <c r="I49">
-        <v>35</v>
-      </c>
-      <c r="J49">
-        <v>42</v>
-      </c>
-      <c r="K49" s="4">
-        <v>39</v>
-      </c>
-      <c r="L49" s="4">
-        <v>48</v>
-      </c>
-      <c r="M49" s="4">
-        <v>122</v>
-      </c>
-      <c r="N49" s="4">
-        <v>61</v>
-      </c>
-      <c r="P49" s="8">
-        <v>128</v>
-      </c>
-      <c r="Q49" s="4">
-        <v>54</v>
-      </c>
-      <c r="R49" s="4">
-        <v>69</v>
-      </c>
-      <c r="S49" s="8"/>
-      <c r="T49" s="8">
-        <v>48</v>
-      </c>
-      <c r="U49" s="4">
-        <v>79</v>
-      </c>
-      <c r="V49" s="8">
-        <v>44</v>
-      </c>
-      <c r="X49">
-        <v>438</v>
-      </c>
-      <c r="Y49">
-        <v>156</v>
-      </c>
-      <c r="Z49">
-        <v>132</v>
-      </c>
-      <c r="AA49">
-        <v>269</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState ref="B2:AD49">
-    <sortCondition ref="B2"/>
-  </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/PROPUESTA FUNDEMERCA (2.5).xlsx
+++ b/PROPUESTA FUNDEMERCA (2.5).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11625" windowHeight="5025" firstSheet="4" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11625" windowHeight="5025" firstSheet="5" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="cantidad inicial pollos" sheetId="2" r:id="rId1"/>
@@ -27205,6 +27205,3269 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="AJ1:AK1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="AD1:AE1"/>
+    <mergeCell ref="AF1:AG1"/>
+    <mergeCell ref="AH1:AI1"/>
+    <mergeCell ref="AX1:AY1"/>
+    <mergeCell ref="AZ1:BA1"/>
+    <mergeCell ref="BB1:BC1"/>
+    <mergeCell ref="BD1:BE1"/>
+    <mergeCell ref="AL1:AM1"/>
+    <mergeCell ref="AN1:AO1"/>
+    <mergeCell ref="AP1:AQ1"/>
+    <mergeCell ref="AR1:AS1"/>
+    <mergeCell ref="AT1:AU1"/>
+    <mergeCell ref="AV1:AW1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BE50"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="P3" sqref="P3:Q3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="B1" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="S1" s="16"/>
+      <c r="T1" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="U1" s="16"/>
+      <c r="V1" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="W1" s="16"/>
+      <c r="X1" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y1" s="16"/>
+      <c r="Z1" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA1" s="16"/>
+      <c r="AB1" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC1" s="16"/>
+      <c r="AD1" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE1" s="16"/>
+      <c r="AF1" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG1" s="16"/>
+      <c r="AH1" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="AI1" s="16"/>
+      <c r="AJ1" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK1" s="16"/>
+      <c r="AL1" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="AM1" s="16"/>
+      <c r="AN1" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AO1" s="16"/>
+      <c r="AP1" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="AQ1" s="16"/>
+      <c r="AR1" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="AS1" s="16"/>
+      <c r="AT1" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="AU1" s="16"/>
+      <c r="AV1" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="AW1" s="16"/>
+      <c r="AX1" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="AY1" s="16"/>
+      <c r="AZ1" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="BA1" s="16"/>
+      <c r="BB1" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="BC1" s="16"/>
+      <c r="BD1" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="BE1" s="16"/>
+    </row>
+    <row r="2" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H2" t="s">
+        <v>78</v>
+      </c>
+      <c r="I2" t="s">
+        <v>79</v>
+      </c>
+      <c r="J2" t="s">
+        <v>78</v>
+      </c>
+      <c r="K2" t="s">
+        <v>79</v>
+      </c>
+      <c r="L2" t="s">
+        <v>78</v>
+      </c>
+      <c r="M2" t="s">
+        <v>79</v>
+      </c>
+      <c r="N2" t="s">
+        <v>78</v>
+      </c>
+      <c r="O2" t="s">
+        <v>79</v>
+      </c>
+      <c r="P2" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>79</v>
+      </c>
+      <c r="R2" t="s">
+        <v>78</v>
+      </c>
+      <c r="S2" t="s">
+        <v>79</v>
+      </c>
+      <c r="T2" t="s">
+        <v>78</v>
+      </c>
+      <c r="U2" t="s">
+        <v>79</v>
+      </c>
+      <c r="V2" t="s">
+        <v>78</v>
+      </c>
+      <c r="W2" t="s">
+        <v>79</v>
+      </c>
+      <c r="X2" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>78</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>78</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>78</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3">
+        <f>IF('cantidad pollos muertos'!C2="","",GAMMAINV(0.025,'cantidad pollos muertos'!C2+(1/2),1))</f>
+        <v>81.81501408848392</v>
+      </c>
+      <c r="C3">
+        <f>IF('cantidad pollos muertos'!C2="","",GAMMAINV(0.975,'cantidad pollos muertos'!C2+(1/2),1))</f>
+        <v>121.07793174019264</v>
+      </c>
+      <c r="D3">
+        <f>IF('cantidad pollos muertos'!D2="","",GAMMAINV(0.025,'cantidad pollos muertos'!D2+(1/2),1))</f>
+        <v>113.64654356442688</v>
+      </c>
+      <c r="E3">
+        <f>IF('cantidad pollos muertos'!D2="","",GAMMAINV(0.975,'cantidad pollos muertos'!D2+(1/2),1))</f>
+        <v>159.24675449675792</v>
+      </c>
+      <c r="F3">
+        <f>IF('cantidad pollos muertos'!E2="","",GAMMAINV(0.025,'cantidad pollos muertos'!E2+(1/2),1))</f>
+        <v>157.90936386034264</v>
+      </c>
+      <c r="G3">
+        <f>IF('cantidad pollos muertos'!E2="","",GAMMAINV(0.975,'cantidad pollos muertos'!E2+(1/2),1))</f>
+        <v>210.98419834076878</v>
+      </c>
+      <c r="H3">
+        <f>IF('cantidad pollos muertos'!F2="","",GAMMAINV(0.025,'cantidad pollos muertos'!F2+(1/2),1))</f>
+        <v>488.22642066888108</v>
+      </c>
+      <c r="I3">
+        <f>IF('cantidad pollos muertos'!F2="","",GAMMAINV(0.975,'cantidad pollos muertos'!F2+(1/2),1))</f>
+        <v>578.66762926654928</v>
+      </c>
+      <c r="J3">
+        <f>IF('cantidad pollos muertos'!G2="","",GAMMAINV(0.025,'cantidad pollos muertos'!G2+(1/2),1))</f>
+        <v>188.61972359104468</v>
+      </c>
+      <c r="K3">
+        <f>IF('cantidad pollos muertos'!G2="","",GAMMAINV(0.975,'cantidad pollos muertos'!G2+(1/2),1))</f>
+        <v>246.27395215279662</v>
+      </c>
+      <c r="L3">
+        <f>IF('cantidad pollos muertos'!H2="","",GAMMAINV(0.025,'cantidad pollos muertos'!H2+(1/2),1))</f>
+        <v>41.867513849812639</v>
+      </c>
+      <c r="M3">
+        <f>IF('cantidad pollos muertos'!H2="","",GAMMAINV(0.975,'cantidad pollos muertos'!H2+(1/2),1))</f>
+        <v>71.024322115123894</v>
+      </c>
+      <c r="N3">
+        <f>IF('cantidad pollos muertos'!I2="","",GAMMAINV(0.025,'cantidad pollos muertos'!I2+(1/2),1))</f>
+        <v>56.777856776887383</v>
+      </c>
+      <c r="O3">
+        <f>IF('cantidad pollos muertos'!I2="","",GAMMAINV(0.975,'cantidad pollos muertos'!I2+(1/2),1))</f>
+        <v>90.114561196020517</v>
+      </c>
+    </row>
+    <row r="4" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <f>IF('cantidad pollos muertos'!C3="","",GAMMAINV(0.025,'cantidad pollos muertos'!C3+(1/2),1))</f>
+        <v>516.96965233938352</v>
+      </c>
+      <c r="C4">
+        <f>IF('cantidad pollos muertos'!C3="","",GAMMAINV(0.975,'cantidad pollos muertos'!C3+(1/2),1))</f>
+        <v>609.92441125514006</v>
+      </c>
+      <c r="D4">
+        <f>IF('cantidad pollos muertos'!D3="","",GAMMAINV(0.025,'cantidad pollos muertos'!D3+(1/2),1))</f>
+        <v>2714.4152288149658</v>
+      </c>
+      <c r="E4">
+        <f>IF('cantidad pollos muertos'!D3="","",GAMMAINV(0.975,'cantidad pollos muertos'!D3+(1/2),1))</f>
+        <v>2922.4790287189476</v>
+      </c>
+      <c r="F4">
+        <f>IF('cantidad pollos muertos'!E3="","",GAMMAINV(0.025,'cantidad pollos muertos'!E3+(1/2),1))</f>
+        <v>3188.8502371014001</v>
+      </c>
+      <c r="G4">
+        <f>IF('cantidad pollos muertos'!E3="","",GAMMAINV(0.975,'cantidad pollos muertos'!E3+(1/2),1))</f>
+        <v>3414.0440275083861</v>
+      </c>
+      <c r="H4">
+        <f>IF('cantidad pollos muertos'!F3="","",GAMMAINV(0.025,'cantidad pollos muertos'!F3+(1/2),1))</f>
+        <v>1015.0860812957022</v>
+      </c>
+      <c r="I4">
+        <f>IF('cantidad pollos muertos'!F3="","",GAMMAINV(0.975,'cantidad pollos muertos'!F3+(1/2),1))</f>
+        <v>1143.8080982571503</v>
+      </c>
+      <c r="J4">
+        <f>IF('cantidad pollos muertos'!G3="","",GAMMAINV(0.025,'cantidad pollos muertos'!G3+(1/2),1))</f>
+        <v>474.82502426625246</v>
+      </c>
+      <c r="K4">
+        <f>IF('cantidad pollos muertos'!G3="","",GAMMAINV(0.975,'cantidad pollos muertos'!G3+(1/2),1))</f>
+        <v>564.06901875364156</v>
+      </c>
+      <c r="L4">
+        <f>IF('cantidad pollos muertos'!H3="","",GAMMAINV(0.025,'cantidad pollos muertos'!H3+(1/2),1))</f>
+        <v>319.5015285063526</v>
+      </c>
+      <c r="M4">
+        <f>IF('cantidad pollos muertos'!H3="","",GAMMAINV(0.975,'cantidad pollos muertos'!H3+(1/2),1))</f>
+        <v>393.39239386812818</v>
+      </c>
+      <c r="N4">
+        <f>IF('cantidad pollos muertos'!I3="","",GAMMAINV(0.025,'cantidad pollos muertos'!I3+(1/2),1))</f>
+        <v>341.32455791271349</v>
+      </c>
+      <c r="O4">
+        <f>IF('cantidad pollos muertos'!I3="","",GAMMAINV(0.975,'cantidad pollos muertos'!I3+(1/2),1))</f>
+        <v>417.56938778801128</v>
+      </c>
+    </row>
+    <row r="5" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" t="str">
+        <f>IF('cantidad pollos muertos'!C4="","",GAMMAINV(0.025,'cantidad pollos muertos'!C4+(1/2),1))</f>
+        <v/>
+      </c>
+      <c r="C5" t="str">
+        <f>IF('cantidad pollos muertos'!C4="","",GAMMAINV(0.975,'cantidad pollos muertos'!C4+(1/2),1))</f>
+        <v/>
+      </c>
+      <c r="D5" t="str">
+        <f>IF('cantidad pollos muertos'!D4="","",GAMMAINV(0.025,'cantidad pollos muertos'!D4+(1/2),1))</f>
+        <v/>
+      </c>
+      <c r="E5" t="str">
+        <f>IF('cantidad pollos muertos'!D4="","",GAMMAINV(0.975,'cantidad pollos muertos'!D4+(1/2),1))</f>
+        <v/>
+      </c>
+      <c r="F5" t="str">
+        <f>IF('cantidad pollos muertos'!E4="","",GAMMAINV(0.025,'cantidad pollos muertos'!E4+(1/2),1))</f>
+        <v/>
+      </c>
+      <c r="G5" t="str">
+        <f>IF('cantidad pollos muertos'!E4="","",GAMMAINV(0.975,'cantidad pollos muertos'!E4+(1/2),1))</f>
+        <v/>
+      </c>
+      <c r="H5" t="str">
+        <f>IF('cantidad pollos muertos'!F4="","",GAMMAINV(0.025,'cantidad pollos muertos'!F4+(1/2),1))</f>
+        <v/>
+      </c>
+      <c r="I5" t="str">
+        <f>IF('cantidad pollos muertos'!F4="","",GAMMAINV(0.975,'cantidad pollos muertos'!F4+(1/2),1))</f>
+        <v/>
+      </c>
+      <c r="J5" t="str">
+        <f>IF('cantidad pollos muertos'!G4="","",GAMMAINV(0.025,'cantidad pollos muertos'!G4+(1/2),1))</f>
+        <v/>
+      </c>
+      <c r="K5" t="str">
+        <f>IF('cantidad pollos muertos'!G4="","",GAMMAINV(0.975,'cantidad pollos muertos'!G4+(1/2),1))</f>
+        <v/>
+      </c>
+      <c r="L5" t="str">
+        <f>IF('cantidad pollos muertos'!H4="","",GAMMAINV(0.025,'cantidad pollos muertos'!H4+(1/2),1))</f>
+        <v/>
+      </c>
+      <c r="M5" t="str">
+        <f>IF('cantidad pollos muertos'!H4="","",GAMMAINV(0.975,'cantidad pollos muertos'!H4+(1/2),1))</f>
+        <v/>
+      </c>
+      <c r="N5" t="str">
+        <f>IF('cantidad pollos muertos'!I4="","",GAMMAINV(0.025,'cantidad pollos muertos'!I4+(1/2),1))</f>
+        <v/>
+      </c>
+      <c r="O5" t="str">
+        <f>IF('cantidad pollos muertos'!I4="","",GAMMAINV(0.975,'cantidad pollos muertos'!I4+(1/2),1))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6">
+        <f>IF('cantidad pollos muertos'!C5="","",GAMMAINV(0.025,'cantidad pollos muertos'!C5+(1/2),1))</f>
+        <v>62.100315262370202</v>
+      </c>
+      <c r="C6">
+        <f>IF('cantidad pollos muertos'!C5="","",GAMMAINV(0.975,'cantidad pollos muertos'!C5+(1/2),1))</f>
+        <v>96.792247666792676</v>
+      </c>
+      <c r="D6">
+        <f>IF('cantidad pollos muertos'!D5="","",GAMMAINV(0.025,'cantidad pollos muertos'!D5+(1/2),1))</f>
+        <v>80.91309119682343</v>
+      </c>
+      <c r="E6">
+        <f>IF('cantidad pollos muertos'!D5="","",GAMMAINV(0.975,'cantidad pollos muertos'!D5+(1/2),1))</f>
+        <v>119.9798409138221</v>
+      </c>
+      <c r="F6">
+        <f>IF('cantidad pollos muertos'!E5="","",GAMMAINV(0.025,'cantidad pollos muertos'!E5+(1/2),1))</f>
+        <v>88.141732680851817</v>
+      </c>
+      <c r="G6">
+        <f>IF('cantidad pollos muertos'!E5="","",GAMMAINV(0.975,'cantidad pollos muertos'!E5+(1/2),1))</f>
+        <v>128.75130200416774</v>
+      </c>
+      <c r="H6">
+        <f>IF('cantidad pollos muertos'!F5="","",GAMMAINV(0.025,'cantidad pollos muertos'!F5+(1/2),1))</f>
+        <v>70.13092837414608</v>
+      </c>
+      <c r="I6">
+        <f>IF('cantidad pollos muertos'!F5="","",GAMMAINV(0.975,'cantidad pollos muertos'!F5+(1/2),1))</f>
+        <v>106.76181456300202</v>
+      </c>
+      <c r="J6">
+        <f>IF('cantidad pollos muertos'!G5="","",GAMMAINV(0.025,'cantidad pollos muertos'!G5+(1/2),1))</f>
+        <v>66.555282724745524</v>
+      </c>
+      <c r="K6">
+        <f>IF('cantidad pollos muertos'!G5="","",GAMMAINV(0.975,'cantidad pollos muertos'!G5+(1/2),1))</f>
+        <v>102.33738501995983</v>
+      </c>
+      <c r="L6">
+        <f>IF('cantidad pollos muertos'!H5="","",GAMMAINV(0.025,'cantidad pollos muertos'!H5+(1/2),1))</f>
+        <v>38.404302086786373</v>
+      </c>
+      <c r="M6">
+        <f>IF('cantidad pollos muertos'!H5="","",GAMMAINV(0.975,'cantidad pollos muertos'!H5+(1/2),1))</f>
+        <v>66.487340707595948</v>
+      </c>
+      <c r="N6">
+        <f>IF('cantidad pollos muertos'!I5="","",GAMMAINV(0.025,'cantidad pollos muertos'!I5+(1/2),1))</f>
+        <v>21.47513743774951</v>
+      </c>
+      <c r="O6">
+        <f>IF('cantidad pollos muertos'!I5="","",GAMMAINV(0.975,'cantidad pollos muertos'!I5+(1/2),1))</f>
+        <v>43.414795283643059</v>
+      </c>
+    </row>
+    <row r="7" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7">
+        <f>IF('cantidad pollos muertos'!C6="","",GAMMAINV(0.025,'cantidad pollos muertos'!C6+(1/2),1))</f>
+        <v>44.47754524508602</v>
+      </c>
+      <c r="C7">
+        <f>IF('cantidad pollos muertos'!C6="","",GAMMAINV(0.975,'cantidad pollos muertos'!C6+(1/2),1))</f>
+        <v>74.414418156443148</v>
+      </c>
+      <c r="D7">
+        <f>IF('cantidad pollos muertos'!D6="","",GAMMAINV(0.025,'cantidad pollos muertos'!D6+(1/2),1))</f>
+        <v>75.512217647445581</v>
+      </c>
+      <c r="E7">
+        <f>IF('cantidad pollos muertos'!D6="","",GAMMAINV(0.975,'cantidad pollos muertos'!D6+(1/2),1))</f>
+        <v>113.38062596936612</v>
+      </c>
+      <c r="F7">
+        <f>IF('cantidad pollos muertos'!E6="","",GAMMAINV(0.025,'cantidad pollos muertos'!E6+(1/2),1))</f>
+        <v>132.94130350503522</v>
+      </c>
+      <c r="G7">
+        <f>IF('cantidad pollos muertos'!E6="","",GAMMAINV(0.975,'cantidad pollos muertos'!E6+(1/2),1))</f>
+        <v>181.95213009999131</v>
+      </c>
+      <c r="H7">
+        <f>IF('cantidad pollos muertos'!F6="","",GAMMAINV(0.025,'cantidad pollos muertos'!F6+(1/2),1))</f>
+        <v>117.31204422916028</v>
+      </c>
+      <c r="I7">
+        <f>IF('cantidad pollos muertos'!F6="","",GAMMAINV(0.975,'cantidad pollos muertos'!F6+(1/2),1))</f>
+        <v>163.58128280422588</v>
+      </c>
+      <c r="J7">
+        <f>IF('cantidad pollos muertos'!G6="","",GAMMAINV(0.025,'cantidad pollos muertos'!G6+(1/2),1))</f>
+        <v>119.14659511982991</v>
+      </c>
+      <c r="K7">
+        <f>IF('cantidad pollos muertos'!G6="","",GAMMAINV(0.975,'cantidad pollos muertos'!G6+(1/2),1))</f>
+        <v>165.74674578385378</v>
+      </c>
+      <c r="L7">
+        <f>IF('cantidad pollos muertos'!H6="","",GAMMAINV(0.025,'cantidad pollos muertos'!H6+(1/2),1))</f>
+        <v>35.820758132639803</v>
+      </c>
+      <c r="M7">
+        <f>IF('cantidad pollos muertos'!H6="","",GAMMAINV(0.975,'cantidad pollos muertos'!H6+(1/2),1))</f>
+        <v>63.070718720047985</v>
+      </c>
+      <c r="N7">
+        <f>IF('cantidad pollos muertos'!I6="","",GAMMAINV(0.025,'cantidad pollos muertos'!I6+(1/2),1))</f>
+        <v>72.819004490068878</v>
+      </c>
+      <c r="O7">
+        <f>IF('cantidad pollos muertos'!I6="","",GAMMAINV(0.975,'cantidad pollos muertos'!I6+(1/2),1))</f>
+        <v>110.07379046221725</v>
+      </c>
+    </row>
+    <row r="8" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8">
+        <f>IF('cantidad pollos muertos'!C7="","",GAMMAINV(0.025,'cantidad pollos muertos'!C7+(1/2),1))</f>
+        <v>158.83708624586913</v>
+      </c>
+      <c r="C8">
+        <f>IF('cantidad pollos muertos'!C7="","",GAMMAINV(0.975,'cantidad pollos muertos'!C7+(1/2),1))</f>
+        <v>212.05647999384703</v>
+      </c>
+      <c r="D8">
+        <f>IF('cantidad pollos muertos'!D7="","",GAMMAINV(0.025,'cantidad pollos muertos'!D7+(1/2),1))</f>
+        <v>42.736375985688582</v>
+      </c>
+      <c r="E8">
+        <f>IF('cantidad pollos muertos'!D7="","",GAMMAINV(0.975,'cantidad pollos muertos'!D7+(1/2),1))</f>
+        <v>72.155503971269738</v>
+      </c>
+      <c r="F8">
+        <f>IF('cantidad pollos muertos'!E7="","",GAMMAINV(0.025,'cantidad pollos muertos'!E7+(1/2),1))</f>
+        <v>72.819004490068878</v>
+      </c>
+      <c r="G8">
+        <f>IF('cantidad pollos muertos'!E7="","",GAMMAINV(0.975,'cantidad pollos muertos'!E7+(1/2),1))</f>
+        <v>110.07379046221725</v>
+      </c>
+      <c r="H8">
+        <f>IF('cantidad pollos muertos'!F7="","",GAMMAINV(0.025,'cantidad pollos muertos'!F7+(1/2),1))</f>
+        <v>103.59279761759664</v>
+      </c>
+      <c r="I8">
+        <f>IF('cantidad pollos muertos'!F7="","",GAMMAINV(0.975,'cantidad pollos muertos'!F7+(1/2),1))</f>
+        <v>147.3004111432507</v>
+      </c>
+      <c r="J8">
+        <f>IF('cantidad pollos muertos'!G7="","",GAMMAINV(0.025,'cantidad pollos muertos'!G7+(1/2),1))</f>
+        <v>57.663034081546456</v>
+      </c>
+      <c r="K8">
+        <f>IF('cantidad pollos muertos'!G7="","",GAMMAINV(0.975,'cantidad pollos muertos'!G7+(1/2),1))</f>
+        <v>91.229409702209395</v>
+      </c>
+      <c r="L8">
+        <f>IF('cantidad pollos muertos'!H7="","",GAMMAINV(0.025,'cantidad pollos muertos'!H7+(1/2),1))</f>
+        <v>21.47513743774951</v>
+      </c>
+      <c r="M8">
+        <f>IF('cantidad pollos muertos'!H7="","",GAMMAINV(0.975,'cantidad pollos muertos'!H7+(1/2),1))</f>
+        <v>43.414795283643059</v>
+      </c>
+      <c r="N8">
+        <f>IF('cantidad pollos muertos'!I7="","",GAMMAINV(0.025,'cantidad pollos muertos'!I7+(1/2),1))</f>
+        <v>21.47513743774951</v>
+      </c>
+      <c r="O8">
+        <f>IF('cantidad pollos muertos'!I7="","",GAMMAINV(0.975,'cantidad pollos muertos'!I7+(1/2),1))</f>
+        <v>43.414795283643059</v>
+      </c>
+    </row>
+    <row r="9" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9">
+        <f>IF('cantidad pollos muertos'!C8="","",GAMMAINV(0.025,'cantidad pollos muertos'!C8+(1/2),1))</f>
+        <v>102.68086028845509</v>
+      </c>
+      <c r="C9">
+        <f>IF('cantidad pollos muertos'!C8="","",GAMMAINV(0.975,'cantidad pollos muertos'!C8+(1/2),1))</f>
+        <v>146.21233956308285</v>
+      </c>
+      <c r="D9">
+        <f>IF('cantidad pollos muertos'!D8="","",GAMMAINV(0.025,'cantidad pollos muertos'!D8+(1/2),1))</f>
+        <v>100.85806313977369</v>
+      </c>
+      <c r="E9">
+        <f>IF('cantidad pollos muertos'!D8="","",GAMMAINV(0.975,'cantidad pollos muertos'!D8+(1/2),1))</f>
+        <v>144.03511845188567</v>
+      </c>
+      <c r="F9">
+        <f>IF('cantidad pollos muertos'!E8="","",GAMMAINV(0.025,'cantidad pollos muertos'!E8+(1/2),1))</f>
+        <v>81.81501408848392</v>
+      </c>
+      <c r="G9">
+        <f>IF('cantidad pollos muertos'!E8="","",GAMMAINV(0.975,'cantidad pollos muertos'!E8+(1/2),1))</f>
+        <v>121.07793174019264</v>
+      </c>
+      <c r="H9">
+        <f>IF('cantidad pollos muertos'!F8="","",GAMMAINV(0.025,'cantidad pollos muertos'!F8+(1/2),1))</f>
+        <v>110.90067430604017</v>
+      </c>
+      <c r="I9">
+        <f>IF('cantidad pollos muertos'!F8="","",GAMMAINV(0.975,'cantidad pollos muertos'!F8+(1/2),1))</f>
+        <v>155.99260087494179</v>
+      </c>
+      <c r="J9">
+        <f>IF('cantidad pollos muertos'!G8="","",GAMMAINV(0.025,'cantidad pollos muertos'!G8+(1/2),1))</f>
+        <v>60.323184053048578</v>
+      </c>
+      <c r="K9">
+        <f>IF('cantidad pollos muertos'!G8="","",GAMMAINV(0.975,'cantidad pollos muertos'!G8+(1/2),1))</f>
+        <v>94.569333095614553</v>
+      </c>
+      <c r="L9">
+        <f>IF('cantidad pollos muertos'!H8="","",GAMMAINV(0.025,'cantidad pollos muertos'!H8+(1/2),1))</f>
+        <v>69.236090053698319</v>
+      </c>
+      <c r="M9">
+        <f>IF('cantidad pollos muertos'!H8="","",GAMMAINV(0.975,'cantidad pollos muertos'!H8+(1/2),1))</f>
+        <v>105.65663473998677</v>
+      </c>
+      <c r="N9">
+        <f>IF('cantidad pollos muertos'!I8="","",GAMMAINV(0.025,'cantidad pollos muertos'!I8+(1/2),1))</f>
+        <v>43.606396503709874</v>
+      </c>
+      <c r="O9">
+        <f>IF('cantidad pollos muertos'!I8="","",GAMMAINV(0.975,'cantidad pollos muertos'!I8+(1/2),1))</f>
+        <v>73.285525905634486</v>
+      </c>
+    </row>
+    <row r="10" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <f>IF('cantidad pollos muertos'!C9="","",GAMMAINV(0.025,'cantidad pollos muertos'!C9+(1/2),1))</f>
+        <v>115.47868500239804</v>
+      </c>
+      <c r="C10">
+        <f>IF('cantidad pollos muertos'!C9="","",GAMMAINV(0.975,'cantidad pollos muertos'!C9+(1/2),1))</f>
+        <v>161.41462775614207</v>
+      </c>
+      <c r="D10">
+        <f>IF('cantidad pollos muertos'!D9="","",GAMMAINV(0.025,'cantidad pollos muertos'!D9+(1/2),1))</f>
+        <v>62.100315262370202</v>
+      </c>
+      <c r="E10">
+        <f>IF('cantidad pollos muertos'!D9="","",GAMMAINV(0.975,'cantidad pollos muertos'!D9+(1/2),1))</f>
+        <v>96.792247666792676</v>
+      </c>
+      <c r="F10">
+        <f>IF('cantidad pollos muertos'!E9="","",GAMMAINV(0.025,'cantidad pollos muertos'!E9+(1/2),1))</f>
+        <v>80.01166316279793</v>
+      </c>
+      <c r="G10">
+        <f>IF('cantidad pollos muertos'!E9="","",GAMMAINV(0.975,'cantidad pollos muertos'!E9+(1/2),1))</f>
+        <v>118.88125495026803</v>
+      </c>
+      <c r="H10">
+        <f>IF('cantidad pollos muertos'!F9="","",GAMMAINV(0.025,'cantidad pollos muertos'!F9+(1/2),1))</f>
+        <v>140.32211069619123</v>
+      </c>
+      <c r="I10">
+        <f>IF('cantidad pollos muertos'!F9="","",GAMMAINV(0.975,'cantidad pollos muertos'!F9+(1/2),1))</f>
+        <v>190.57136542184699</v>
+      </c>
+      <c r="J10">
+        <f>IF('cantidad pollos muertos'!G9="","",GAMMAINV(0.025,'cantidad pollos muertos'!G9+(1/2),1))</f>
+        <v>60.323184053048578</v>
+      </c>
+      <c r="K10">
+        <f>IF('cantidad pollos muertos'!G9="","",GAMMAINV(0.975,'cantidad pollos muertos'!G9+(1/2),1))</f>
+        <v>94.569333095614553</v>
+      </c>
+      <c r="L10">
+        <f>IF('cantidad pollos muertos'!H9="","",GAMMAINV(0.025,'cantidad pollos muertos'!H9+(1/2),1))</f>
+        <v>11.827162278796511</v>
+      </c>
+      <c r="M10">
+        <f>IF('cantidad pollos muertos'!H9="","",GAMMAINV(0.975,'cantidad pollos muertos'!H9+(1/2),1))</f>
+        <v>29.060029867343136</v>
+      </c>
+      <c r="N10">
+        <f>IF('cantidad pollos muertos'!I9="","",GAMMAINV(0.025,'cantidad pollos muertos'!I9+(1/2),1))</f>
+        <v>59.435713143054343</v>
+      </c>
+      <c r="O10">
+        <f>IF('cantidad pollos muertos'!I9="","",GAMMAINV(0.975,'cantidad pollos muertos'!I9+(1/2),1))</f>
+        <v>93.456780201514249</v>
+      </c>
+    </row>
+    <row r="11" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <f>IF('cantidad pollos muertos'!C10="","",GAMMAINV(0.025,'cantidad pollos muertos'!C10+(1/2),1))</f>
+        <v>131.09856179092077</v>
+      </c>
+      <c r="C11">
+        <f>IF('cantidad pollos muertos'!C10="","",GAMMAINV(0.975,'cantidad pollos muertos'!C10+(1/2),1))</f>
+        <v>179.79486049634806</v>
+      </c>
+      <c r="D11">
+        <f>IF('cantidad pollos muertos'!D10="","",GAMMAINV(0.025,'cantidad pollos muertos'!D10+(1/2),1))</f>
+        <v>118.22917231280019</v>
+      </c>
+      <c r="E11">
+        <f>IF('cantidad pollos muertos'!D10="","",GAMMAINV(0.975,'cantidad pollos muertos'!D10+(1/2),1))</f>
+        <v>164.66416170522081</v>
+      </c>
+      <c r="F11">
+        <f>IF('cantidad pollos muertos'!E10="","",GAMMAINV(0.025,'cantidad pollos muertos'!E10+(1/2),1))</f>
+        <v>78.210322127740184</v>
+      </c>
+      <c r="G11">
+        <f>IF('cantidad pollos muertos'!E10="","",GAMMAINV(0.975,'cantidad pollos muertos'!E10+(1/2),1))</f>
+        <v>116.68256711663008</v>
+      </c>
+      <c r="H11">
+        <f>IF('cantidad pollos muertos'!F10="","",GAMMAINV(0.025,'cantidad pollos muertos'!F10+(1/2),1))</f>
+        <v>356.52678175263407</v>
+      </c>
+      <c r="I11">
+        <f>IF('cantidad pollos muertos'!F10="","",GAMMAINV(0.975,'cantidad pollos muertos'!F10+(1/2),1))</f>
+        <v>434.3671785694022</v>
+      </c>
+      <c r="J11">
+        <f>IF('cantidad pollos muertos'!G10="","",GAMMAINV(0.025,'cantidad pollos muertos'!G10+(1/2),1))</f>
+        <v>67.448256305265616</v>
+      </c>
+      <c r="K11">
+        <f>IF('cantidad pollos muertos'!G10="","",GAMMAINV(0.975,'cantidad pollos muertos'!G10+(1/2),1))</f>
+        <v>103.44443090775799</v>
+      </c>
+      <c r="L11">
+        <f>IF('cantidad pollos muertos'!H10="","",GAMMAINV(0.025,'cantidad pollos muertos'!H10+(1/2),1))</f>
+        <v>44.47754524508602</v>
+      </c>
+      <c r="M11">
+        <f>IF('cantidad pollos muertos'!H10="","",GAMMAINV(0.975,'cantidad pollos muertos'!H10+(1/2),1))</f>
+        <v>74.414418156443148</v>
+      </c>
+      <c r="N11">
+        <f>IF('cantidad pollos muertos'!I10="","",GAMMAINV(0.025,'cantidad pollos muertos'!I10+(1/2),1))</f>
+        <v>65.662953118336475</v>
+      </c>
+      <c r="O11">
+        <f>IF('cantidad pollos muertos'!I10="","",GAMMAINV(0.975,'cantidad pollos muertos'!I10+(1/2),1))</f>
+        <v>101.22969468404963</v>
+      </c>
+    </row>
+    <row r="12" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B12">
+        <f>IF('cantidad pollos muertos'!C11="","",GAMMAINV(0.025,'cantidad pollos muertos'!C11+(1/2),1))</f>
+        <v>53.245281263312236</v>
+      </c>
+      <c r="C12">
+        <f>IF('cantidad pollos muertos'!C11="","",GAMMAINV(0.975,'cantidad pollos muertos'!C11+(1/2),1))</f>
+        <v>85.647025890944377</v>
+      </c>
+      <c r="D12">
+        <f>IF('cantidad pollos muertos'!D11="","",GAMMAINV(0.025,'cantidad pollos muertos'!D11+(1/2),1))</f>
+        <v>51.484124143889233</v>
+      </c>
+      <c r="E12">
+        <f>IF('cantidad pollos muertos'!D11="","",GAMMAINV(0.975,'cantidad pollos muertos'!D11+(1/2),1))</f>
+        <v>83.40812257489047</v>
+      </c>
+      <c r="F12">
+        <f>IF('cantidad pollos muertos'!E11="","",GAMMAINV(0.025,'cantidad pollos muertos'!E11+(1/2),1))</f>
+        <v>47.097478066231957</v>
+      </c>
+      <c r="G12">
+        <f>IF('cantidad pollos muertos'!E11="","",GAMMAINV(0.975,'cantidad pollos muertos'!E11+(1/2),1))</f>
+        <v>77.794600267046718</v>
+      </c>
+      <c r="H12">
+        <f>IF('cantidad pollos muertos'!F11="","",GAMMAINV(0.025,'cantidad pollos muertos'!F11+(1/2),1))</f>
+        <v>104.50508834559244</v>
+      </c>
+      <c r="I12">
+        <f>IF('cantidad pollos muertos'!F11="","",GAMMAINV(0.975,'cantidad pollos muertos'!F11+(1/2),1))</f>
+        <v>148.38812918217897</v>
+      </c>
+      <c r="J12">
+        <f>IF('cantidad pollos muertos'!G11="","",GAMMAINV(0.025,'cantidad pollos muertos'!G11+(1/2),1))</f>
+        <v>26.470969885266424</v>
+      </c>
+      <c r="K12">
+        <f>IF('cantidad pollos muertos'!G11="","",GAMMAINV(0.975,'cantidad pollos muertos'!G11+(1/2),1))</f>
+        <v>50.419669200906682</v>
+      </c>
+      <c r="L12">
+        <f>IF('cantidad pollos muertos'!H11="","",GAMMAINV(0.025,'cantidad pollos muertos'!H11+(1/2),1))</f>
+        <v>23.962081311793447</v>
+      </c>
+      <c r="M12">
+        <f>IF('cantidad pollos muertos'!H11="","",GAMMAINV(0.975,'cantidad pollos muertos'!H11+(1/2),1))</f>
+        <v>46.928235619342686</v>
+      </c>
+      <c r="N12">
+        <f>IF('cantidad pollos muertos'!I11="","",GAMMAINV(0.025,'cantidad pollos muertos'!I11+(1/2),1))</f>
+        <v>34.962433543720138</v>
+      </c>
+      <c r="O12">
+        <f>IF('cantidad pollos muertos'!I11="","",GAMMAINV(0.975,'cantidad pollos muertos'!I11+(1/2),1))</f>
+        <v>61.928983302147522</v>
+      </c>
+    </row>
+    <row r="13" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>72</v>
+      </c>
+      <c r="B13" t="str">
+        <f>IF('cantidad pollos muertos'!C12="","",GAMMAINV(0.025,'cantidad pollos muertos'!C12+(1/2),1))</f>
+        <v/>
+      </c>
+      <c r="C13" t="str">
+        <f>IF('cantidad pollos muertos'!C12="","",GAMMAINV(0.975,'cantidad pollos muertos'!C12+(1/2),1))</f>
+        <v/>
+      </c>
+      <c r="D13" t="str">
+        <f>IF('cantidad pollos muertos'!D12="","",GAMMAINV(0.025,'cantidad pollos muertos'!D12+(1/2),1))</f>
+        <v/>
+      </c>
+      <c r="E13" t="str">
+        <f>IF('cantidad pollos muertos'!D12="","",GAMMAINV(0.975,'cantidad pollos muertos'!D12+(1/2),1))</f>
+        <v/>
+      </c>
+      <c r="F13" t="str">
+        <f>IF('cantidad pollos muertos'!E12="","",GAMMAINV(0.025,'cantidad pollos muertos'!E12+(1/2),1))</f>
+        <v/>
+      </c>
+      <c r="G13" t="str">
+        <f>IF('cantidad pollos muertos'!E12="","",GAMMAINV(0.975,'cantidad pollos muertos'!E12+(1/2),1))</f>
+        <v/>
+      </c>
+      <c r="H13" t="str">
+        <f>IF('cantidad pollos muertos'!F12="","",GAMMAINV(0.025,'cantidad pollos muertos'!F12+(1/2),1))</f>
+        <v/>
+      </c>
+      <c r="I13" t="str">
+        <f>IF('cantidad pollos muertos'!F12="","",GAMMAINV(0.975,'cantidad pollos muertos'!F12+(1/2),1))</f>
+        <v/>
+      </c>
+      <c r="J13" t="str">
+        <f>IF('cantidad pollos muertos'!G12="","",GAMMAINV(0.025,'cantidad pollos muertos'!G12+(1/2),1))</f>
+        <v/>
+      </c>
+      <c r="K13" t="str">
+        <f>IF('cantidad pollos muertos'!G12="","",GAMMAINV(0.975,'cantidad pollos muertos'!G12+(1/2),1))</f>
+        <v/>
+      </c>
+      <c r="L13" t="str">
+        <f>IF('cantidad pollos muertos'!H12="","",GAMMAINV(0.025,'cantidad pollos muertos'!H12+(1/2),1))</f>
+        <v/>
+      </c>
+      <c r="M13" t="str">
+        <f>IF('cantidad pollos muertos'!H12="","",GAMMAINV(0.975,'cantidad pollos muertos'!H12+(1/2),1))</f>
+        <v/>
+      </c>
+      <c r="N13" t="str">
+        <f>IF('cantidad pollos muertos'!I12="","",GAMMAINV(0.025,'cantidad pollos muertos'!I12+(1/2),1))</f>
+        <v/>
+      </c>
+      <c r="O13" t="str">
+        <f>IF('cantidad pollos muertos'!I12="","",GAMMAINV(0.975,'cantidad pollos muertos'!I12+(1/2),1))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14">
+        <f>IF('cantidad pollos muertos'!C13="","",GAMMAINV(0.025,'cantidad pollos muertos'!C13+(1/2),1))</f>
+        <v>90.859922139610205</v>
+      </c>
+      <c r="C14">
+        <f>IF('cantidad pollos muertos'!C13="","",GAMMAINV(0.975,'cantidad pollos muertos'!C13+(1/2),1))</f>
+        <v>132.0331471692906</v>
+      </c>
+      <c r="D14">
+        <f>IF('cantidad pollos muertos'!D13="","",GAMMAINV(0.025,'cantidad pollos muertos'!D13+(1/2),1))</f>
+        <v>365.08513746329737</v>
+      </c>
+      <c r="E14">
+        <f>IF('cantidad pollos muertos'!D13="","",GAMMAINV(0.975,'cantidad pollos muertos'!D13+(1/2),1))</f>
+        <v>443.8088305732029</v>
+      </c>
+      <c r="F14">
+        <f>IF('cantidad pollos muertos'!E13="","",GAMMAINV(0.025,'cantidad pollos muertos'!E13+(1/2),1))</f>
+        <v>183.95480974406874</v>
+      </c>
+      <c r="G14">
+        <f>IF('cantidad pollos muertos'!E13="","",GAMMAINV(0.975,'cantidad pollos muertos'!E13+(1/2),1))</f>
+        <v>240.93885107770447</v>
+      </c>
+      <c r="H14">
+        <f>IF('cantidad pollos muertos'!F13="","",GAMMAINV(0.025,'cantidad pollos muertos'!F13+(1/2),1))</f>
+        <v>869.73007517075735</v>
+      </c>
+      <c r="I14">
+        <f>IF('cantidad pollos muertos'!F13="","",GAMMAINV(0.975,'cantidad pollos muertos'!F13+(1/2),1))</f>
+        <v>989.1640839658844</v>
+      </c>
+      <c r="J14">
+        <f>IF('cantidad pollos muertos'!G13="","",GAMMAINV(0.025,'cantidad pollos muertos'!G13+(1/2),1))</f>
+        <v>188.61972359104468</v>
+      </c>
+      <c r="K14">
+        <f>IF('cantidad pollos muertos'!G13="","",GAMMAINV(0.975,'cantidad pollos muertos'!G13+(1/2),1))</f>
+        <v>246.27395215279662</v>
+      </c>
+      <c r="L14">
+        <f>IF('cantidad pollos muertos'!H13="","",GAMMAINV(0.025,'cantidad pollos muertos'!H13+(1/2),1))</f>
+        <v>89.047363315798918</v>
+      </c>
+      <c r="M14">
+        <f>IF('cantidad pollos muertos'!H13="","",GAMMAINV(0.975,'cantidad pollos muertos'!H13+(1/2),1))</f>
+        <v>129.84568312395754</v>
+      </c>
+      <c r="N14">
+        <f>IF('cantidad pollos muertos'!I13="","",GAMMAINV(0.025,'cantidad pollos muertos'!I13+(1/2),1))</f>
+        <v>75.512217647445581</v>
+      </c>
+      <c r="O14">
+        <f>IF('cantidad pollos muertos'!I13="","",GAMMAINV(0.975,'cantidad pollos muertos'!I13+(1/2),1))</f>
+        <v>113.38062596936612</v>
+      </c>
+    </row>
+    <row r="15" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15">
+        <f>IF('cantidad pollos muertos'!C14="","",GAMMAINV(0.025,'cantidad pollos muertos'!C14+(1/2),1))</f>
+        <v>548.62533919166628</v>
+      </c>
+      <c r="C15">
+        <f>IF('cantidad pollos muertos'!C14="","",GAMMAINV(0.975,'cantidad pollos muertos'!C14+(1/2),1))</f>
+        <v>644.26873783735732</v>
+      </c>
+      <c r="D15">
+        <f>IF('cantidad pollos muertos'!D14="","",GAMMAINV(0.025,'cantidad pollos muertos'!D14+(1/2),1))</f>
+        <v>1929.4378712657417</v>
+      </c>
+      <c r="E15">
+        <f>IF('cantidad pollos muertos'!D14="","",GAMMAINV(0.975,'cantidad pollos muertos'!D14+(1/2),1))</f>
+        <v>2105.4563670604039</v>
+      </c>
+      <c r="F15">
+        <f>IF('cantidad pollos muertos'!E14="","",GAMMAINV(0.025,'cantidad pollos muertos'!E14+(1/2),1))</f>
+        <v>960.77956899582364</v>
+      </c>
+      <c r="G15">
+        <f>IF('cantidad pollos muertos'!E14="","",GAMMAINV(0.975,'cantidad pollos muertos'!E14+(1/2),1))</f>
+        <v>1086.1146036359291</v>
+      </c>
+      <c r="H15">
+        <f>IF('cantidad pollos muertos'!F14="","",GAMMAINV(0.025,'cantidad pollos muertos'!F14+(1/2),1))</f>
+        <v>590.88961410159629</v>
+      </c>
+      <c r="I15">
+        <f>IF('cantidad pollos muertos'!F14="","",GAMMAINV(0.975,'cantidad pollos muertos'!F14+(1/2),1))</f>
+        <v>690.0044786820838</v>
+      </c>
+      <c r="J15">
+        <f>IF('cantidad pollos muertos'!G14="","",GAMMAINV(0.025,'cantidad pollos muertos'!G14+(1/2),1))</f>
+        <v>664.99010981710069</v>
+      </c>
+      <c r="K15">
+        <f>IF('cantidad pollos muertos'!G14="","",GAMMAINV(0.975,'cantidad pollos muertos'!G14+(1/2),1))</f>
+        <v>769.90400587886734</v>
+      </c>
+      <c r="L15">
+        <f>IF('cantidad pollos muertos'!H14="","",GAMMAINV(0.025,'cantidad pollos muertos'!H14+(1/2),1))</f>
+        <v>184.8874780024845</v>
+      </c>
+      <c r="M15">
+        <f>IF('cantidad pollos muertos'!H14="","",GAMMAINV(0.975,'cantidad pollos muertos'!H14+(1/2),1))</f>
+        <v>242.00618585997404</v>
+      </c>
+      <c r="N15">
+        <f>IF('cantidad pollos muertos'!I14="","",GAMMAINV(0.025,'cantidad pollos muertos'!I14+(1/2),1))</f>
+        <v>418.4413310947719</v>
+      </c>
+      <c r="O15">
+        <f>IF('cantidad pollos muertos'!I14="","",GAMMAINV(0.975,'cantidad pollos muertos'!I14+(1/2),1))</f>
+        <v>502.45267814740237</v>
+      </c>
+    </row>
+    <row r="16" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>68</v>
+      </c>
+      <c r="B16" t="str">
+        <f>IF('cantidad pollos muertos'!C15="","",GAMMAINV(0.025,'cantidad pollos muertos'!C15+(1/2),1))</f>
+        <v/>
+      </c>
+      <c r="C16" t="str">
+        <f>IF('cantidad pollos muertos'!C15="","",GAMMAINV(0.975,'cantidad pollos muertos'!C15+(1/2),1))</f>
+        <v/>
+      </c>
+      <c r="D16">
+        <f>IF('cantidad pollos muertos'!D15="","",GAMMAINV(0.025,'cantidad pollos muertos'!D15+(1/2),1))</f>
+        <v>83.620315112988024</v>
+      </c>
+      <c r="E16">
+        <f>IF('cantidad pollos muertos'!D15="","",GAMMAINV(0.975,'cantidad pollos muertos'!D15+(1/2),1))</f>
+        <v>123.27265734594629</v>
+      </c>
+      <c r="F16">
+        <f>IF('cantidad pollos muertos'!E15="","",GAMMAINV(0.025,'cantidad pollos muertos'!E15+(1/2),1))</f>
+        <v>99.036732422663277</v>
+      </c>
+      <c r="G16">
+        <f>IF('cantidad pollos muertos'!E15="","",GAMMAINV(0.975,'cantidad pollos muertos'!E15+(1/2),1))</f>
+        <v>141.85643029608053</v>
+      </c>
+      <c r="H16">
+        <f>IF('cantidad pollos muertos'!F15="","",GAMMAINV(0.025,'cantidad pollos muertos'!F15+(1/2),1))</f>
+        <v>237.34147530468096</v>
+      </c>
+      <c r="I16">
+        <f>IF('cantidad pollos muertos'!F15="","",GAMMAINV(0.975,'cantidad pollos muertos'!F15+(1/2),1))</f>
+        <v>301.5523226395245</v>
+      </c>
+      <c r="J16">
+        <f>IF('cantidad pollos muertos'!G15="","",GAMMAINV(0.025,'cantidad pollos muertos'!G15+(1/2),1))</f>
+        <v>224.19024026146081</v>
+      </c>
+      <c r="K16">
+        <f>IF('cantidad pollos muertos'!G15="","",GAMMAINV(0.975,'cantidad pollos muertos'!G15+(1/2),1))</f>
+        <v>286.70352970194375</v>
+      </c>
+      <c r="L16">
+        <f>IF('cantidad pollos muertos'!H15="","",GAMMAINV(0.025,'cantidad pollos muertos'!H15+(1/2),1))</f>
+        <v>65.662953118336475</v>
+      </c>
+      <c r="M16">
+        <f>IF('cantidad pollos muertos'!H15="","",GAMMAINV(0.975,'cantidad pollos muertos'!H15+(1/2),1))</f>
+        <v>101.22969468404963</v>
+      </c>
+      <c r="N16">
+        <f>IF('cantidad pollos muertos'!I15="","",GAMMAINV(0.025,'cantidad pollos muertos'!I15+(1/2),1))</f>
+        <v>316.65782225114049</v>
+      </c>
+      <c r="O16">
+        <f>IF('cantidad pollos muertos'!I15="","",GAMMAINV(0.975,'cantidad pollos muertos'!I15+(1/2),1))</f>
+        <v>390.23609685614366</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17">
+        <f>IF('cantidad pollos muertos'!C16="","",GAMMAINV(0.025,'cantidad pollos muertos'!C16+(1/2),1))</f>
+        <v>414.62463159782908</v>
+      </c>
+      <c r="C17">
+        <f>IF('cantidad pollos muertos'!C16="","",GAMMAINV(0.975,'cantidad pollos muertos'!C16+(1/2),1))</f>
+        <v>498.26937503735041</v>
+      </c>
+      <c r="D17">
+        <f>IF('cantidad pollos muertos'!D16="","",GAMMAINV(0.025,'cantidad pollos muertos'!D16+(1/2),1))</f>
+        <v>954.96373633968722</v>
+      </c>
+      <c r="E17">
+        <f>IF('cantidad pollos muertos'!D16="","",GAMMAINV(0.975,'cantidad pollos muertos'!D16+(1/2),1))</f>
+        <v>1079.9304355052736</v>
+      </c>
+      <c r="F17">
+        <f>IF('cantidad pollos muertos'!E16="","",GAMMAINV(0.025,'cantidad pollos muertos'!E16+(1/2),1))</f>
+        <v>218.56113580640749</v>
+      </c>
+      <c r="G17">
+        <f>IF('cantidad pollos muertos'!E16="","",GAMMAINV(0.975,'cantidad pollos muertos'!E16+(1/2),1))</f>
+        <v>280.33262119870307</v>
+      </c>
+      <c r="H17">
+        <f>IF('cantidad pollos muertos'!F16="","",GAMMAINV(0.025,'cantidad pollos muertos'!F16+(1/2),1))</f>
+        <v>459.5191297448269</v>
+      </c>
+      <c r="I17">
+        <f>IF('cantidad pollos muertos'!F16="","",GAMMAINV(0.975,'cantidad pollos muertos'!F16+(1/2),1))</f>
+        <v>547.37490489941183</v>
+      </c>
+      <c r="J17">
+        <f>IF('cantidad pollos muertos'!G16="","",GAMMAINV(0.025,'cantidad pollos muertos'!G16+(1/2),1))</f>
+        <v>567.82869082765899</v>
+      </c>
+      <c r="K17">
+        <f>IF('cantidad pollos muertos'!G16="","",GAMMAINV(0.975,'cantidad pollos muertos'!G16+(1/2),1))</f>
+        <v>665.06539364196919</v>
+      </c>
+      <c r="L17">
+        <f>IF('cantidad pollos muertos'!H16="","",GAMMAINV(0.025,'cantidad pollos muertos'!H16+(1/2),1))</f>
+        <v>134.78504789814309</v>
+      </c>
+      <c r="M17">
+        <f>IF('cantidad pollos muertos'!H16="","",GAMMAINV(0.975,'cantidad pollos muertos'!H16+(1/2),1))</f>
+        <v>184.10839673837526</v>
+      </c>
+      <c r="N17">
+        <f>IF('cantidad pollos muertos'!I16="","",GAMMAINV(0.025,'cantidad pollos muertos'!I16+(1/2),1))</f>
+        <v>296.77104480838858</v>
+      </c>
+      <c r="O17">
+        <f>IF('cantidad pollos muertos'!I16="","",GAMMAINV(0.975,'cantidad pollos muertos'!I16+(1/2),1))</f>
+        <v>368.12284977095686</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18">
+        <f>IF('cantidad pollos muertos'!C17="","",GAMMAINV(0.025,'cantidad pollos muertos'!C17+(1/2),1))</f>
+        <v>235.46134851689186</v>
+      </c>
+      <c r="C18">
+        <f>IF('cantidad pollos muertos'!C17="","",GAMMAINV(0.975,'cantidad pollos muertos'!C17+(1/2),1))</f>
+        <v>299.43244561028706</v>
+      </c>
+      <c r="D18">
+        <f>IF('cantidad pollos muertos'!D17="","",GAMMAINV(0.025,'cantidad pollos muertos'!D17+(1/2),1))</f>
+        <v>392.69460594412999</v>
+      </c>
+      <c r="E18">
+        <f>IF('cantidad pollos muertos'!D17="","",GAMMAINV(0.975,'cantidad pollos muertos'!D17+(1/2),1))</f>
+        <v>474.19938476424937</v>
+      </c>
+      <c r="F18">
+        <f>IF('cantidad pollos muertos'!E17="","",GAMMAINV(0.025,'cantidad pollos muertos'!E17+(1/2),1))</f>
+        <v>515.05237774304203</v>
+      </c>
+      <c r="G18">
+        <f>IF('cantidad pollos muertos'!E17="","",GAMMAINV(0.975,'cantidad pollos muertos'!E17+(1/2),1))</f>
+        <v>607.84168498639417</v>
+      </c>
+      <c r="H18">
+        <f>IF('cantidad pollos muertos'!F17="","",GAMMAINV(0.025,'cantidad pollos muertos'!F17+(1/2),1))</f>
+        <v>801.0591213348855</v>
+      </c>
+      <c r="I18">
+        <f>IF('cantidad pollos muertos'!F17="","",GAMMAINV(0.975,'cantidad pollos muertos'!F17+(1/2),1))</f>
+        <v>915.83502564646369</v>
+      </c>
+      <c r="J18">
+        <f>IF('cantidad pollos muertos'!G17="","",GAMMAINV(0.025,'cantidad pollos muertos'!G17+(1/2),1))</f>
+        <v>493.97228832351379</v>
+      </c>
+      <c r="K18">
+        <f>IF('cantidad pollos muertos'!G17="","",GAMMAINV(0.975,'cantidad pollos muertos'!G17+(1/2),1))</f>
+        <v>584.92176446556857</v>
+      </c>
+      <c r="L18">
+        <f>IF('cantidad pollos muertos'!H17="","",GAMMAINV(0.025,'cantidad pollos muertos'!H17+(1/2),1))</f>
+        <v>122.81917195302653</v>
+      </c>
+      <c r="M18">
+        <f>IF('cantidad pollos muertos'!H17="","",GAMMAINV(0.975,'cantidad pollos muertos'!H17+(1/2),1))</f>
+        <v>170.07419554450007</v>
+      </c>
+      <c r="N18">
+        <f>IF('cantidad pollos muertos'!I17="","",GAMMAINV(0.025,'cantidad pollos muertos'!I17+(1/2),1))</f>
+        <v>152.3472322788605</v>
+      </c>
+      <c r="O18">
+        <f>IF('cantidad pollos muertos'!I17="","",GAMMAINV(0.975,'cantidad pollos muertos'!I17+(1/2),1))</f>
+        <v>204.54630473308362</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>73</v>
+      </c>
+      <c r="B19" t="str">
+        <f>IF('cantidad pollos muertos'!C18="","",GAMMAINV(0.025,'cantidad pollos muertos'!C18+(1/2),1))</f>
+        <v/>
+      </c>
+      <c r="C19" t="str">
+        <f>IF('cantidad pollos muertos'!C18="","",GAMMAINV(0.975,'cantidad pollos muertos'!C18+(1/2),1))</f>
+        <v/>
+      </c>
+      <c r="D19">
+        <f>IF('cantidad pollos muertos'!D18="","",GAMMAINV(0.025,'cantidad pollos muertos'!D18+(1/2),1))</f>
+        <v>642.83913038380899</v>
+      </c>
+      <c r="E19">
+        <f>IF('cantidad pollos muertos'!D18="","",GAMMAINV(0.975,'cantidad pollos muertos'!D18+(1/2),1))</f>
+        <v>746.05497900141279</v>
+      </c>
+      <c r="F19">
+        <f>IF('cantidad pollos muertos'!E18="","",GAMMAINV(0.025,'cantidad pollos muertos'!E18+(1/2),1))</f>
+        <v>149.56894453321635</v>
+      </c>
+      <c r="G19">
+        <f>IF('cantidad pollos muertos'!E18="","",GAMMAINV(0.975,'cantidad pollos muertos'!E18+(1/2),1))</f>
+        <v>201.32457923323548</v>
+      </c>
+      <c r="H19">
+        <f>IF('cantidad pollos muertos'!F18="","",GAMMAINV(0.025,'cantidad pollos muertos'!F18+(1/2),1))</f>
+        <v>99.947212199714798</v>
+      </c>
+      <c r="I19">
+        <f>IF('cantidad pollos muertos'!F18="","",GAMMAINV(0.975,'cantidad pollos muertos'!F18+(1/2),1))</f>
+        <v>142.94596003402984</v>
+      </c>
+      <c r="J19">
+        <f>IF('cantidad pollos muertos'!G18="","",GAMMAINV(0.025,'cantidad pollos muertos'!G18+(1/2),1))</f>
+        <v>375.55198881323582</v>
+      </c>
+      <c r="K19">
+        <f>IF('cantidad pollos muertos'!G18="","",GAMMAINV(0.975,'cantidad pollos muertos'!G18+(1/2),1))</f>
+        <v>455.34198819671326</v>
+      </c>
+      <c r="L19">
+        <f>IF('cantidad pollos muertos'!H18="","",GAMMAINV(0.025,'cantidad pollos muertos'!H18+(1/2),1))</f>
+        <v>34.105612724253191</v>
+      </c>
+      <c r="M19">
+        <f>IF('cantidad pollos muertos'!H18="","",GAMMAINV(0.975,'cantidad pollos muertos'!H18+(1/2),1))</f>
+        <v>60.785741514103385</v>
+      </c>
+      <c r="N19">
+        <f>IF('cantidad pollos muertos'!I18="","",GAMMAINV(0.025,'cantidad pollos muertos'!I18+(1/2),1))</f>
+        <v>77.310424850812296</v>
+      </c>
+      <c r="O19">
+        <f>IF('cantidad pollos muertos'!I18="","",GAMMAINV(0.975,'cantidad pollos muertos'!I18+(1/2),1))</f>
+        <v>115.58244950407959</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20">
+        <f>IF('cantidad pollos muertos'!C19="","",GAMMAINV(0.025,'cantidad pollos muertos'!C19+(1/2),1))</f>
+        <v>87.236542631327438</v>
+      </c>
+      <c r="C20">
+        <f>IF('cantidad pollos muertos'!C19="","",GAMMAINV(0.975,'cantidad pollos muertos'!C19+(1/2),1))</f>
+        <v>127.65648007746864</v>
+      </c>
+      <c r="D20">
+        <f>IF('cantidad pollos muertos'!D19="","",GAMMAINV(0.025,'cantidad pollos muertos'!D19+(1/2),1))</f>
+        <v>63.880273249180242</v>
+      </c>
+      <c r="E20">
+        <f>IF('cantidad pollos muertos'!D19="","",GAMMAINV(0.975,'cantidad pollos muertos'!D19+(1/2),1))</f>
+        <v>99.012333175593525</v>
+      </c>
+      <c r="F20">
+        <f>IF('cantidad pollos muertos'!E19="","",GAMMAINV(0.025,'cantidad pollos muertos'!E19+(1/2),1))</f>
+        <v>543.82658359546087</v>
+      </c>
+      <c r="G20">
+        <f>IF('cantidad pollos muertos'!E19="","",GAMMAINV(0.975,'cantidad pollos muertos'!E19+(1/2),1))</f>
+        <v>639.06749149461064</v>
+      </c>
+      <c r="H20">
+        <f>IF('cantidad pollos muertos'!F19="","",GAMMAINV(0.025,'cantidad pollos muertos'!F19+(1/2),1))</f>
+        <v>85.427509351337406</v>
+      </c>
+      <c r="I20">
+        <f>IF('cantidad pollos muertos'!F19="","",GAMMAINV(0.975,'cantidad pollos muertos'!F19+(1/2),1))</f>
+        <v>125.46548871503119</v>
+      </c>
+      <c r="J20">
+        <f>IF('cantidad pollos muertos'!G19="","",GAMMAINV(0.025,'cantidad pollos muertos'!G19+(1/2),1))</f>
+        <v>47.097478066231957</v>
+      </c>
+      <c r="K20">
+        <f>IF('cantidad pollos muertos'!G19="","",GAMMAINV(0.975,'cantidad pollos muertos'!G19+(1/2),1))</f>
+        <v>77.794600267046718</v>
+      </c>
+      <c r="L20">
+        <f>IF('cantidad pollos muertos'!H19="","",GAMMAINV(0.025,'cantidad pollos muertos'!H19+(1/2),1))</f>
+        <v>44.47754524508602</v>
+      </c>
+      <c r="M20">
+        <f>IF('cantidad pollos muertos'!H19="","",GAMMAINV(0.975,'cantidad pollos muertos'!H19+(1/2),1))</f>
+        <v>74.414418156443148</v>
+      </c>
+      <c r="N20">
+        <f>IF('cantidad pollos muertos'!I19="","",GAMMAINV(0.025,'cantidad pollos muertos'!I19+(1/2),1))</f>
+        <v>17.388164308345313</v>
+      </c>
+      <c r="O20">
+        <f>IF('cantidad pollos muertos'!I19="","",GAMMAINV(0.975,'cantidad pollos muertos'!I19+(1/2),1))</f>
+        <v>37.500932160964304</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>69</v>
+      </c>
+      <c r="B21" t="str">
+        <f>IF('cantidad pollos muertos'!C20="","",GAMMAINV(0.025,'cantidad pollos muertos'!C20+(1/2),1))</f>
+        <v/>
+      </c>
+      <c r="C21" t="str">
+        <f>IF('cantidad pollos muertos'!C20="","",GAMMAINV(0.975,'cantidad pollos muertos'!C20+(1/2),1))</f>
+        <v/>
+      </c>
+      <c r="D21">
+        <f>IF('cantidad pollos muertos'!D20="","",GAMMAINV(0.025,'cantidad pollos muertos'!D20+(1/2),1))</f>
+        <v>157.90936386034264</v>
+      </c>
+      <c r="E21">
+        <f>IF('cantidad pollos muertos'!D20="","",GAMMAINV(0.975,'cantidad pollos muertos'!D20+(1/2),1))</f>
+        <v>210.98419834076878</v>
+      </c>
+      <c r="F21">
+        <f>IF('cantidad pollos muertos'!E20="","",GAMMAINV(0.025,'cantidad pollos muertos'!E20+(1/2),1))</f>
+        <v>199.83098059938479</v>
+      </c>
+      <c r="G21">
+        <f>IF('cantidad pollos muertos'!E20="","",GAMMAINV(0.975,'cantidad pollos muertos'!E20+(1/2),1))</f>
+        <v>259.06272828882726</v>
+      </c>
+      <c r="H21">
+        <f>IF('cantidad pollos muertos'!F20="","",GAMMAINV(0.025,'cantidad pollos muertos'!F20+(1/2),1))</f>
+        <v>197.96097260210999</v>
+      </c>
+      <c r="I21">
+        <f>IF('cantidad pollos muertos'!F20="","",GAMMAINV(0.975,'cantidad pollos muertos'!F20+(1/2),1))</f>
+        <v>256.93273100631336</v>
+      </c>
+      <c r="J21">
+        <f>IF('cantidad pollos muertos'!G20="","",GAMMAINV(0.025,'cantidad pollos muertos'!G20+(1/2),1))</f>
+        <v>297.71724772566876</v>
+      </c>
+      <c r="K21">
+        <f>IF('cantidad pollos muertos'!G20="","",GAMMAINV(0.975,'cantidad pollos muertos'!G20+(1/2),1))</f>
+        <v>369.17664809200483</v>
+      </c>
+      <c r="L21">
+        <f>IF('cantidad pollos muertos'!H20="","",GAMMAINV(0.025,'cantidad pollos muertos'!H20+(1/2),1))</f>
+        <v>173.70624244043358</v>
+      </c>
+      <c r="M21">
+        <f>IF('cantidad pollos muertos'!H20="","",GAMMAINV(0.975,'cantidad pollos muertos'!H20+(1/2),1))</f>
+        <v>229.1873829283812</v>
+      </c>
+      <c r="N21">
+        <f>IF('cantidad pollos muertos'!I20="","",GAMMAINV(0.025,'cantidad pollos muertos'!I20+(1/2),1))</f>
+        <v>109.07169811998602</v>
+      </c>
+      <c r="O21">
+        <f>IF('cantidad pollos muertos'!I20="","",GAMMAINV(0.975,'cantidad pollos muertos'!I20+(1/2),1))</f>
+        <v>153.82156122150266</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22">
+        <f>IF('cantidad pollos muertos'!C21="","",GAMMAINV(0.025,'cantidad pollos muertos'!C21+(1/2),1))</f>
+        <v>34.105612724253191</v>
+      </c>
+      <c r="C22">
+        <f>IF('cantidad pollos muertos'!C21="","",GAMMAINV(0.975,'cantidad pollos muertos'!C21+(1/2),1))</f>
+        <v>60.785741514103385</v>
+      </c>
+      <c r="D22">
+        <f>IF('cantidad pollos muertos'!D21="","",GAMMAINV(0.025,'cantidad pollos muertos'!D21+(1/2),1))</f>
+        <v>28.999208263699717</v>
+      </c>
+      <c r="E22">
+        <f>IF('cantidad pollos muertos'!D21="","",GAMMAINV(0.975,'cantidad pollos muertos'!D21+(1/2),1))</f>
+        <v>53.891704832667266</v>
+      </c>
+      <c r="F22">
+        <f>IF('cantidad pollos muertos'!E21="","",GAMMAINV(0.025,'cantidad pollos muertos'!E21+(1/2),1))</f>
+        <v>53.245281263312236</v>
+      </c>
+      <c r="G22">
+        <f>IF('cantidad pollos muertos'!E21="","",GAMMAINV(0.975,'cantidad pollos muertos'!E21+(1/2),1))</f>
+        <v>85.647025890944377</v>
+      </c>
+      <c r="H22">
+        <f>IF('cantidad pollos muertos'!F21="","",GAMMAINV(0.025,'cantidad pollos muertos'!F21+(1/2),1))</f>
+        <v>32.396680742579541</v>
+      </c>
+      <c r="I22">
+        <f>IF('cantidad pollos muertos'!F21="","",GAMMAINV(0.975,'cantidad pollos muertos'!F21+(1/2),1))</f>
+        <v>58.494539771790699</v>
+      </c>
+      <c r="J22">
+        <f>IF('cantidad pollos muertos'!G21="","",GAMMAINV(0.025,'cantidad pollos muertos'!G21+(1/2),1))</f>
+        <v>63.880273249180242</v>
+      </c>
+      <c r="K22">
+        <f>IF('cantidad pollos muertos'!G21="","",GAMMAINV(0.975,'cantidad pollos muertos'!G21+(1/2),1))</f>
+        <v>99.012333175593525</v>
+      </c>
+      <c r="L22">
+        <f>IF('cantidad pollos muertos'!H21="","",GAMMAINV(0.025,'cantidad pollos muertos'!H21+(1/2),1))</f>
+        <v>19.013370478108719</v>
+      </c>
+      <c r="M22">
+        <f>IF('cantidad pollos muertos'!H21="","",GAMMAINV(0.975,'cantidad pollos muertos'!H21+(1/2),1))</f>
+        <v>39.876096140145194</v>
+      </c>
+      <c r="N22">
+        <f>IF('cantidad pollos muertos'!I21="","",GAMMAINV(0.025,'cantidad pollos muertos'!I21+(1/2),1))</f>
+        <v>4.9103455858762819E-4</v>
+      </c>
+      <c r="O22">
+        <f>IF('cantidad pollos muertos'!I21="","",GAMMAINV(0.975,'cantidad pollos muertos'!I21+(1/2),1))</f>
+        <v>2.5119430936574432</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23">
+        <f>IF('cantidad pollos muertos'!C22="","",GAMMAINV(0.025,'cantidad pollos muertos'!C22+(1/2),1))</f>
+        <v>126.49622413335962</v>
+      </c>
+      <c r="C23">
+        <f>IF('cantidad pollos muertos'!C22="","",GAMMAINV(0.975,'cantidad pollos muertos'!C22+(1/2),1))</f>
+        <v>174.39716853152555</v>
+      </c>
+      <c r="D23">
+        <f>IF('cantidad pollos muertos'!D22="","",GAMMAINV(0.025,'cantidad pollos muertos'!D22+(1/2),1))</f>
+        <v>80.01166316279793</v>
+      </c>
+      <c r="E23">
+        <f>IF('cantidad pollos muertos'!D22="","",GAMMAINV(0.975,'cantidad pollos muertos'!D22+(1/2),1))</f>
+        <v>118.88125495026803</v>
+      </c>
+      <c r="F23">
+        <f>IF('cantidad pollos muertos'!E22="","",GAMMAINV(0.025,'cantidad pollos muertos'!E22+(1/2),1))</f>
+        <v>241.10306163544675</v>
+      </c>
+      <c r="G23">
+        <f>IF('cantidad pollos muertos'!E22="","",GAMMAINV(0.975,'cantidad pollos muertos'!E22+(1/2),1))</f>
+        <v>305.79074377450195</v>
+      </c>
+      <c r="H23">
+        <f>IF('cantidad pollos muertos'!F22="","",GAMMAINV(0.025,'cantidad pollos muertos'!F22+(1/2),1))</f>
+        <v>140.32211069619123</v>
+      </c>
+      <c r="I23">
+        <f>IF('cantidad pollos muertos'!F22="","",GAMMAINV(0.975,'cantidad pollos muertos'!F22+(1/2),1))</f>
+        <v>190.57136542184699</v>
+      </c>
+      <c r="J23">
+        <f>IF('cantidad pollos muertos'!G22="","",GAMMAINV(0.025,'cantidad pollos muertos'!G22+(1/2),1))</f>
+        <v>62.100315262370202</v>
+      </c>
+      <c r="K23">
+        <f>IF('cantidad pollos muertos'!G22="","",GAMMAINV(0.975,'cantidad pollos muertos'!G22+(1/2),1))</f>
+        <v>96.792247666792676</v>
+      </c>
+      <c r="L23">
+        <f>IF('cantidad pollos muertos'!H22="","",GAMMAINV(0.025,'cantidad pollos muertos'!H22+(1/2),1))</f>
+        <v>77.310424850812296</v>
+      </c>
+      <c r="M23">
+        <f>IF('cantidad pollos muertos'!H22="","",GAMMAINV(0.975,'cantidad pollos muertos'!H22+(1/2),1))</f>
+        <v>115.58244950407959</v>
+      </c>
+      <c r="N23">
+        <f>IF('cantidad pollos muertos'!I22="","",GAMMAINV(0.025,'cantidad pollos muertos'!I22+(1/2),1))</f>
+        <v>25.632406636710915</v>
+      </c>
+      <c r="O23">
+        <f>IF('cantidad pollos muertos'!I22="","",GAMMAINV(0.975,'cantidad pollos muertos'!I22+(1/2),1))</f>
+        <v>49.258131005783902</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24">
+        <f>IF('cantidad pollos muertos'!C23="","",GAMMAINV(0.025,'cantidad pollos muertos'!C23+(1/2),1))</f>
+        <v>58.548991431160559</v>
+      </c>
+      <c r="C24">
+        <f>IF('cantidad pollos muertos'!C23="","",GAMMAINV(0.975,'cantidad pollos muertos'!C23+(1/2),1))</f>
+        <v>92.343477467217241</v>
+      </c>
+      <c r="D24">
+        <f>IF('cantidad pollos muertos'!D23="","",GAMMAINV(0.025,'cantidad pollos muertos'!D23+(1/2),1))</f>
+        <v>180.22574302985143</v>
+      </c>
+      <c r="E24">
+        <f>IF('cantidad pollos muertos'!D23="","",GAMMAINV(0.975,'cantidad pollos muertos'!D23+(1/2),1))</f>
+        <v>236.66790533559694</v>
+      </c>
+      <c r="F24">
+        <f>IF('cantidad pollos muertos'!E23="","",GAMMAINV(0.025,'cantidad pollos muertos'!E23+(1/2),1))</f>
+        <v>96.307567312785139</v>
+      </c>
+      <c r="G24">
+        <f>IF('cantidad pollos muertos'!E23="","",GAMMAINV(0.975,'cantidad pollos muertos'!E23+(1/2),1))</f>
+        <v>138.5855658778643</v>
+      </c>
+      <c r="H24">
+        <f>IF('cantidad pollos muertos'!F23="","",GAMMAINV(0.025,'cantidad pollos muertos'!F23+(1/2),1))</f>
+        <v>266.53758456086342</v>
+      </c>
+      <c r="I24">
+        <f>IF('cantidad pollos muertos'!F23="","",GAMMAINV(0.975,'cantidad pollos muertos'!F23+(1/2),1))</f>
+        <v>334.35626602057096</v>
+      </c>
+      <c r="J24">
+        <f>IF('cantidad pollos muertos'!G23="","",GAMMAINV(0.025,'cantidad pollos muertos'!G23+(1/2),1))</f>
+        <v>108.15770207238351</v>
+      </c>
+      <c r="K24">
+        <f>IF('cantidad pollos muertos'!G23="","",GAMMAINV(0.975,'cantidad pollos muertos'!G23+(1/2),1))</f>
+        <v>152.73554916538322</v>
+      </c>
+      <c r="L24">
+        <f>IF('cantidad pollos muertos'!H23="","",GAMMAINV(0.025,'cantidad pollos muertos'!H23+(1/2),1))</f>
+        <v>94.490068117969813</v>
+      </c>
+      <c r="M24">
+        <f>IF('cantidad pollos muertos'!H23="","",GAMMAINV(0.975,'cantidad pollos muertos'!H23+(1/2),1))</f>
+        <v>136.40304452497662</v>
+      </c>
+      <c r="N24">
+        <f>IF('cantidad pollos muertos'!I23="","",GAMMAINV(0.025,'cantidad pollos muertos'!I23+(1/2),1))</f>
+        <v>94.490068117969813</v>
+      </c>
+      <c r="O24">
+        <f>IF('cantidad pollos muertos'!I23="","",GAMMAINV(0.975,'cantidad pollos muertos'!I23+(1/2),1))</f>
+        <v>136.40304452497662</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25">
+        <f>IF('cantidad pollos muertos'!C24="","",GAMMAINV(0.025,'cantidad pollos muertos'!C24+(1/2),1))</f>
+        <v>35.820758132639803</v>
+      </c>
+      <c r="C25">
+        <f>IF('cantidad pollos muertos'!C24="","",GAMMAINV(0.975,'cantidad pollos muertos'!C24+(1/2),1))</f>
+        <v>63.070718720047985</v>
+      </c>
+      <c r="D25">
+        <f>IF('cantidad pollos muertos'!D24="","",GAMMAINV(0.025,'cantidad pollos muertos'!D24+(1/2),1))</f>
+        <v>23.13051713198502</v>
+      </c>
+      <c r="E25">
+        <f>IF('cantidad pollos muertos'!D24="","",GAMMAINV(0.975,'cantidad pollos muertos'!D24+(1/2),1))</f>
+        <v>45.759679456144767</v>
+      </c>
+      <c r="F25">
+        <f>IF('cantidad pollos muertos'!E24="","",GAMMAINV(0.025,'cantidad pollos muertos'!E24+(1/2),1))</f>
+        <v>59.435713143054343</v>
+      </c>
+      <c r="G25">
+        <f>IF('cantidad pollos muertos'!E24="","",GAMMAINV(0.975,'cantidad pollos muertos'!E24+(1/2),1))</f>
+        <v>93.456780201514249</v>
+      </c>
+      <c r="H25">
+        <f>IF('cantidad pollos muertos'!F24="","",GAMMAINV(0.025,'cantidad pollos muertos'!F24+(1/2),1))</f>
+        <v>79.110737552732772</v>
+      </c>
+      <c r="I25">
+        <f>IF('cantidad pollos muertos'!F24="","",GAMMAINV(0.975,'cantidad pollos muertos'!F24+(1/2),1))</f>
+        <v>117.78216627457212</v>
+      </c>
+      <c r="J25">
+        <f>IF('cantidad pollos muertos'!G24="","",GAMMAINV(0.025,'cantidad pollos muertos'!G24+(1/2),1))</f>
+        <v>67.448256305265616</v>
+      </c>
+      <c r="K25">
+        <f>IF('cantidad pollos muertos'!G24="","",GAMMAINV(0.975,'cantidad pollos muertos'!G24+(1/2),1))</f>
+        <v>103.44443090775799</v>
+      </c>
+      <c r="L25">
+        <f>IF('cantidad pollos muertos'!H24="","",GAMMAINV(0.025,'cantidad pollos muertos'!H24+(1/2),1))</f>
+        <v>76.411053894249775</v>
+      </c>
+      <c r="M25">
+        <f>IF('cantidad pollos muertos'!H24="","",GAMMAINV(0.975,'cantidad pollos muertos'!H24+(1/2),1))</f>
+        <v>114.48180525485184</v>
+      </c>
+      <c r="N25">
+        <f>IF('cantidad pollos muertos'!I24="","",GAMMAINV(0.025,'cantidad pollos muertos'!I24+(1/2),1))</f>
+        <v>29.845876516766921</v>
+      </c>
+      <c r="O25">
+        <f>IF('cantidad pollos muertos'!I24="","",GAMMAINV(0.975,'cantidad pollos muertos'!I24+(1/2),1))</f>
+        <v>55.045119037444387</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26">
+        <f>IF('cantidad pollos muertos'!C25="","",GAMMAINV(0.025,'cantidad pollos muertos'!C25+(1/2),1))</f>
+        <v>400.31928364210245</v>
+      </c>
+      <c r="C26">
+        <f>IF('cantidad pollos muertos'!C25="","",GAMMAINV(0.975,'cantidad pollos muertos'!C25+(1/2),1))</f>
+        <v>482.57471279482775</v>
+      </c>
+      <c r="D26">
+        <f>IF('cantidad pollos muertos'!D25="","",GAMMAINV(0.025,'cantidad pollos muertos'!D25+(1/2),1))</f>
+        <v>1403.1139704312056</v>
+      </c>
+      <c r="E26">
+        <f>IF('cantidad pollos muertos'!D25="","",GAMMAINV(0.975,'cantidad pollos muertos'!D25+(1/2),1))</f>
+        <v>1553.7802432447843</v>
+      </c>
+      <c r="F26">
+        <f>IF('cantidad pollos muertos'!E25="","",GAMMAINV(0.025,'cantidad pollos muertos'!E25+(1/2),1))</f>
+        <v>613.96800412404264</v>
+      </c>
+      <c r="G26">
+        <f>IF('cantidad pollos muertos'!E25="","",GAMMAINV(0.975,'cantidad pollos muertos'!E25+(1/2),1))</f>
+        <v>714.92609637189594</v>
+      </c>
+      <c r="H26">
+        <f>IF('cantidad pollos muertos'!F25="","",GAMMAINV(0.025,'cantidad pollos muertos'!F25+(1/2),1))</f>
+        <v>1456.7244803313497</v>
+      </c>
+      <c r="I26">
+        <f>IF('cantidad pollos muertos'!F25="","",GAMMAINV(0.975,'cantidad pollos muertos'!F25+(1/2),1))</f>
+        <v>1610.1697366545463</v>
+      </c>
+      <c r="J26">
+        <f>IF('cantidad pollos muertos'!G25="","",GAMMAINV(0.025,'cantidad pollos muertos'!G25+(1/2),1))</f>
+        <v>312.86725266441226</v>
+      </c>
+      <c r="K26">
+        <f>IF('cantidad pollos muertos'!G25="","",GAMMAINV(0.975,'cantidad pollos muertos'!G25+(1/2),1))</f>
+        <v>386.02666199901944</v>
+      </c>
+      <c r="L26">
+        <f>IF('cantidad pollos muertos'!H25="","",GAMMAINV(0.025,'cantidad pollos muertos'!H25+(1/2),1))</f>
+        <v>516.96965233938352</v>
+      </c>
+      <c r="M26">
+        <f>IF('cantidad pollos muertos'!H25="","",GAMMAINV(0.975,'cantidad pollos muertos'!H25+(1/2),1))</f>
+        <v>609.92441125514006</v>
+      </c>
+      <c r="N26">
+        <f>IF('cantidad pollos muertos'!I25="","",GAMMAINV(0.025,'cantidad pollos muertos'!I25+(1/2),1))</f>
+        <v>354.62560721962421</v>
+      </c>
+      <c r="O26">
+        <f>IF('cantidad pollos muertos'!I25="","",GAMMAINV(0.975,'cantidad pollos muertos'!I25+(1/2),1))</f>
+        <v>432.26835133999811</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27">
+        <f>IF('cantidad pollos muertos'!C26="","",GAMMAINV(0.025,'cantidad pollos muertos'!C26+(1/2),1))</f>
+        <v>70.13092837414608</v>
+      </c>
+      <c r="C27">
+        <f>IF('cantidad pollos muertos'!C26="","",GAMMAINV(0.975,'cantidad pollos muertos'!C26+(1/2),1))</f>
+        <v>106.76181456300202</v>
+      </c>
+      <c r="D27">
+        <f>IF('cantidad pollos muertos'!D26="","",GAMMAINV(0.025,'cantidad pollos muertos'!D26+(1/2),1))</f>
+        <v>55.893475743516525</v>
+      </c>
+      <c r="E27">
+        <f>IF('cantidad pollos muertos'!D26="","",GAMMAINV(0.975,'cantidad pollos muertos'!D26+(1/2),1))</f>
+        <v>88.998915692959812</v>
+      </c>
+      <c r="F27">
+        <f>IF('cantidad pollos muertos'!E26="","",GAMMAINV(0.025,'cantidad pollos muertos'!E26+(1/2),1))</f>
+        <v>232.64200542759227</v>
+      </c>
+      <c r="G27">
+        <f>IF('cantidad pollos muertos'!E26="","",GAMMAINV(0.975,'cantidad pollos muertos'!E26+(1/2),1))</f>
+        <v>296.25178286525528</v>
+      </c>
+      <c r="H27">
+        <f>IF('cantidad pollos muertos'!F26="","",GAMMAINV(0.025,'cantidad pollos muertos'!F26+(1/2),1))</f>
+        <v>102.68086028845509</v>
+      </c>
+      <c r="I27">
+        <f>IF('cantidad pollos muertos'!F26="","",GAMMAINV(0.975,'cantidad pollos muertos'!F26+(1/2),1))</f>
+        <v>146.21233956308285</v>
+      </c>
+      <c r="J27">
+        <f>IF('cantidad pollos muertos'!G26="","",GAMMAINV(0.025,'cantidad pollos muertos'!G26+(1/2),1))</f>
+        <v>137.55250324716494</v>
+      </c>
+      <c r="K27">
+        <f>IF('cantidad pollos muertos'!G26="","",GAMMAINV(0.975,'cantidad pollos muertos'!G26+(1/2),1))</f>
+        <v>187.3409574231587</v>
+      </c>
+      <c r="L27">
+        <f>IF('cantidad pollos muertos'!H26="","",GAMMAINV(0.025,'cantidad pollos muertos'!H26+(1/2),1))</f>
+        <v>6.5598600124688922</v>
+      </c>
+      <c r="M27">
+        <f>IF('cantidad pollos muertos'!H26="","",GAMMAINV(0.975,'cantidad pollos muertos'!H26+(1/2),1))</f>
+        <v>20.3232345601376</v>
+      </c>
+      <c r="N27">
+        <f>IF('cantidad pollos muertos'!I26="","",GAMMAINV(0.025,'cantidad pollos muertos'!I26+(1/2),1))</f>
+        <v>26.470969885266424</v>
+      </c>
+      <c r="O27">
+        <f>IF('cantidad pollos muertos'!I26="","",GAMMAINV(0.975,'cantidad pollos muertos'!I26+(1/2),1))</f>
+        <v>50.419669200906682</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28">
+        <f>IF('cantidad pollos muertos'!C27="","",GAMMAINV(0.025,'cantidad pollos muertos'!C27+(1/2),1))</f>
+        <v>41.867513849812639</v>
+      </c>
+      <c r="C28">
+        <f>IF('cantidad pollos muertos'!C27="","",GAMMAINV(0.975,'cantidad pollos muertos'!C27+(1/2),1))</f>
+        <v>71.024322115123894</v>
+      </c>
+      <c r="D28">
+        <f>IF('cantidad pollos muertos'!D27="","",GAMMAINV(0.025,'cantidad pollos muertos'!D27+(1/2),1))</f>
+        <v>89.047363315798918</v>
+      </c>
+      <c r="E28">
+        <f>IF('cantidad pollos muertos'!D27="","",GAMMAINV(0.975,'cantidad pollos muertos'!D27+(1/2),1))</f>
+        <v>129.84568312395754</v>
+      </c>
+      <c r="F28">
+        <f>IF('cantidad pollos muertos'!E27="","",GAMMAINV(0.025,'cantidad pollos muertos'!E27+(1/2),1))</f>
+        <v>74.613924725044839</v>
+      </c>
+      <c r="G28">
+        <f>IF('cantidad pollos muertos'!E27="","",GAMMAINV(0.975,'cantidad pollos muertos'!E27+(1/2),1))</f>
+        <v>112.27890302234732</v>
+      </c>
+      <c r="H28">
+        <f>IF('cantidad pollos muertos'!F27="","",GAMMAINV(0.025,'cantidad pollos muertos'!F27+(1/2),1))</f>
+        <v>313.81478281302623</v>
+      </c>
+      <c r="I28">
+        <f>IF('cantidad pollos muertos'!F27="","",GAMMAINV(0.975,'cantidad pollos muertos'!F27+(1/2),1))</f>
+        <v>387.07913297091449</v>
+      </c>
+      <c r="J28">
+        <f>IF('cantidad pollos muertos'!G27="","",GAMMAINV(0.025,'cantidad pollos muertos'!G27+(1/2),1))</f>
+        <v>59.435713143054343</v>
+      </c>
+      <c r="K28">
+        <f>IF('cantidad pollos muertos'!G27="","",GAMMAINV(0.975,'cantidad pollos muertos'!G27+(1/2),1))</f>
+        <v>93.456780201514249</v>
+      </c>
+      <c r="L28">
+        <f>IF('cantidad pollos muertos'!H27="","",GAMMAINV(0.025,'cantidad pollos muertos'!H27+(1/2),1))</f>
+        <v>74.613924725044839</v>
+      </c>
+      <c r="M28">
+        <f>IF('cantidad pollos muertos'!H27="","",GAMMAINV(0.975,'cantidad pollos muertos'!H27+(1/2),1))</f>
+        <v>112.27890302234732</v>
+      </c>
+      <c r="N28">
+        <f>IF('cantidad pollos muertos'!I27="","",GAMMAINV(0.025,'cantidad pollos muertos'!I27+(1/2),1))</f>
+        <v>74.613924725044839</v>
+      </c>
+      <c r="O28">
+        <f>IF('cantidad pollos muertos'!I27="","",GAMMAINV(0.975,'cantidad pollos muertos'!I27+(1/2),1))</f>
+        <v>112.27890302234732</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <f>IF('cantidad pollos muertos'!C28="","",GAMMAINV(0.025,'cantidad pollos muertos'!C28+(1/2),1))</f>
+        <v>102.68086028845509</v>
+      </c>
+      <c r="C29">
+        <f>IF('cantidad pollos muertos'!C28="","",GAMMAINV(0.975,'cantidad pollos muertos'!C28+(1/2),1))</f>
+        <v>146.21233956308285</v>
+      </c>
+      <c r="D29">
+        <f>IF('cantidad pollos muertos'!D28="","",GAMMAINV(0.025,'cantidad pollos muertos'!D28+(1/2),1))</f>
+        <v>421.30437891522735</v>
+      </c>
+      <c r="E29">
+        <f>IF('cantidad pollos muertos'!D28="","",GAMMAINV(0.975,'cantidad pollos muertos'!D28+(1/2),1))</f>
+        <v>505.58963225257719</v>
+      </c>
+      <c r="F29">
+        <f>IF('cantidad pollos muertos'!E28="","",GAMMAINV(0.025,'cantidad pollos muertos'!E28+(1/2),1))</f>
+        <v>491.09917647614657</v>
+      </c>
+      <c r="G29">
+        <f>IF('cantidad pollos muertos'!E28="","",GAMMAINV(0.975,'cantidad pollos muertos'!E28+(1/2),1))</f>
+        <v>581.7948748941086</v>
+      </c>
+      <c r="H29">
+        <f>IF('cantidad pollos muertos'!F28="","",GAMMAINV(0.025,'cantidad pollos muertos'!F28+(1/2),1))</f>
+        <v>360.32987981559398</v>
+      </c>
+      <c r="I29">
+        <f>IF('cantidad pollos muertos'!F28="","",GAMMAINV(0.975,'cantidad pollos muertos'!F28+(1/2),1))</f>
+        <v>438.56408397815102</v>
+      </c>
+      <c r="J29">
+        <f>IF('cantidad pollos muertos'!G28="","",GAMMAINV(0.025,'cantidad pollos muertos'!G28+(1/2),1))</f>
+        <v>106.33071319944781</v>
+      </c>
+      <c r="K29">
+        <f>IF('cantidad pollos muertos'!G28="","",GAMMAINV(0.975,'cantidad pollos muertos'!G28+(1/2),1))</f>
+        <v>150.56252144845442</v>
+      </c>
+      <c r="L29">
+        <f>IF('cantidad pollos muertos'!H28="","",GAMMAINV(0.025,'cantidad pollos muertos'!H28+(1/2),1))</f>
+        <v>40.999841622666459</v>
+      </c>
+      <c r="M29">
+        <f>IF('cantidad pollos muertos'!H28="","",GAMMAINV(0.975,'cantidad pollos muertos'!H28+(1/2),1))</f>
+        <v>69.891948725310272</v>
+      </c>
+      <c r="N29">
+        <f>IF('cantidad pollos muertos'!I28="","",GAMMAINV(0.025,'cantidad pollos muertos'!I28+(1/2),1))</f>
+        <v>58.548991431160559</v>
+      </c>
+      <c r="O29">
+        <f>IF('cantidad pollos muertos'!I28="","",GAMMAINV(0.975,'cantidad pollos muertos'!I28+(1/2),1))</f>
+        <v>92.343477467217241</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>21</v>
+      </c>
+      <c r="B30">
+        <f>IF('cantidad pollos muertos'!C29="","",GAMMAINV(0.025,'cantidad pollos muertos'!C29+(1/2),1))</f>
+        <v>86.331799395886435</v>
+      </c>
+      <c r="C30">
+        <f>IF('cantidad pollos muertos'!C29="","",GAMMAINV(0.975,'cantidad pollos muertos'!C29+(1/2),1))</f>
+        <v>126.56121110888003</v>
+      </c>
+      <c r="D30">
+        <f>IF('cantidad pollos muertos'!D29="","",GAMMAINV(0.025,'cantidad pollos muertos'!D29+(1/2),1))</f>
+        <v>348.92360468551533</v>
+      </c>
+      <c r="E30">
+        <f>IF('cantidad pollos muertos'!D29="","",GAMMAINV(0.975,'cantidad pollos muertos'!D29+(1/2),1))</f>
+        <v>425.9703484773255</v>
+      </c>
+      <c r="F30">
+        <f>IF('cantidad pollos muertos'!E29="","",GAMMAINV(0.025,'cantidad pollos muertos'!E29+(1/2),1))</f>
+        <v>143.09381158067083</v>
+      </c>
+      <c r="G30">
+        <f>IF('cantidad pollos muertos'!E29="","",GAMMAINV(0.975,'cantidad pollos muertos'!E29+(1/2),1))</f>
+        <v>193.79967943054982</v>
+      </c>
+      <c r="H30">
+        <f>IF('cantidad pollos muertos'!F29="","",GAMMAINV(0.025,'cantidad pollos muertos'!F29+(1/2),1))</f>
+        <v>95.398619937676514</v>
+      </c>
+      <c r="I30">
+        <f>IF('cantidad pollos muertos'!F29="","",GAMMAINV(0.975,'cantidad pollos muertos'!F29+(1/2),1))</f>
+        <v>137.49450306834768</v>
+      </c>
+      <c r="J30">
+        <f>IF('cantidad pollos muertos'!G29="","",GAMMAINV(0.025,'cantidad pollos muertos'!G29+(1/2),1))</f>
+        <v>43.606396503709874</v>
+      </c>
+      <c r="K30">
+        <f>IF('cantidad pollos muertos'!G29="","",GAMMAINV(0.975,'cantidad pollos muertos'!G29+(1/2),1))</f>
+        <v>73.285525905634486</v>
+      </c>
+      <c r="L30">
+        <f>IF('cantidad pollos muertos'!H29="","",GAMMAINV(0.025,'cantidad pollos muertos'!H29+(1/2),1))</f>
+        <v>48.849242700029897</v>
+      </c>
+      <c r="M30">
+        <f>IF('cantidad pollos muertos'!H29="","",GAMMAINV(0.975,'cantidad pollos muertos'!H29+(1/2),1))</f>
+        <v>80.042906187400447</v>
+      </c>
+      <c r="N30">
+        <f>IF('cantidad pollos muertos'!I29="","",GAMMAINV(0.025,'cantidad pollos muertos'!I29+(1/2),1))</f>
+        <v>36.680540095641831</v>
+      </c>
+      <c r="O30">
+        <f>IF('cantidad pollos muertos'!I29="","",GAMMAINV(0.975,'cantidad pollos muertos'!I29+(1/2),1))</f>
+        <v>64.210994321920154</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31">
+        <f>IF('cantidad pollos muertos'!C30="","",GAMMAINV(0.025,'cantidad pollos muertos'!C30+(1/2),1))</f>
+        <v>473.86808923842597</v>
+      </c>
+      <c r="C31">
+        <f>IF('cantidad pollos muertos'!C30="","",GAMMAINV(0.975,'cantidad pollos muertos'!C30+(1/2),1))</f>
+        <v>563.0259532731734</v>
+      </c>
+      <c r="D31">
+        <f>IF('cantidad pollos muertos'!D30="","",GAMMAINV(0.025,'cantidad pollos muertos'!D30+(1/2),1))</f>
+        <v>271.25554599892587</v>
+      </c>
+      <c r="E31">
+        <f>IF('cantidad pollos muertos'!D30="","",GAMMAINV(0.975,'cantidad pollos muertos'!D30+(1/2),1))</f>
+        <v>339.63831206747551</v>
+      </c>
+      <c r="F31">
+        <f>IF('cantidad pollos muertos'!E30="","",GAMMAINV(0.025,'cantidad pollos muertos'!E30+(1/2),1))</f>
+        <v>366.03637137290895</v>
+      </c>
+      <c r="G31">
+        <f>IF('cantidad pollos muertos'!E30="","",GAMMAINV(0.975,'cantidad pollos muertos'!E30+(1/2),1))</f>
+        <v>444.85759749954457</v>
+      </c>
+      <c r="H31">
+        <f>IF('cantidad pollos muertos'!F30="","",GAMMAINV(0.025,'cantidad pollos muertos'!F30+(1/2),1))</f>
+        <v>162.54991785519817</v>
+      </c>
+      <c r="I31">
+        <f>IF('cantidad pollos muertos'!F30="","",GAMMAINV(0.975,'cantidad pollos muertos'!F30+(1/2),1))</f>
+        <v>216.34366410962483</v>
+      </c>
+      <c r="J31">
+        <f>IF('cantidad pollos muertos'!G30="","",GAMMAINV(0.025,'cantidad pollos muertos'!G30+(1/2),1))</f>
+        <v>163.47860352006961</v>
+      </c>
+      <c r="K31">
+        <f>IF('cantidad pollos muertos'!G30="","",GAMMAINV(0.975,'cantidad pollos muertos'!G30+(1/2),1))</f>
+        <v>217.41498227210667</v>
+      </c>
+      <c r="L31">
+        <f>IF('cantidad pollos muertos'!H30="","",GAMMAINV(0.025,'cantidad pollos muertos'!H30+(1/2),1))</f>
+        <v>123.73802262051886</v>
+      </c>
+      <c r="M31">
+        <f>IF('cantidad pollos muertos'!H30="","",GAMMAINV(0.975,'cantidad pollos muertos'!H30+(1/2),1))</f>
+        <v>171.15535129800489</v>
+      </c>
+      <c r="N31">
+        <f>IF('cantidad pollos muertos'!I30="","",GAMMAINV(0.025,'cantidad pollos muertos'!I30+(1/2),1))</f>
+        <v>89.953428450881972</v>
+      </c>
+      <c r="O31">
+        <f>IF('cantidad pollos muertos'!I30="","",GAMMAINV(0.975,'cantidad pollos muertos'!I30+(1/2),1))</f>
+        <v>130.93962952821263</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <f>IF('cantidad pollos muertos'!C31="","",GAMMAINV(0.025,'cantidad pollos muertos'!C31+(1/2),1))</f>
+        <v>57.663034081546456</v>
+      </c>
+      <c r="C32">
+        <f>IF('cantidad pollos muertos'!C31="","",GAMMAINV(0.975,'cantidad pollos muertos'!C31+(1/2),1))</f>
+        <v>91.229409702209395</v>
+      </c>
+      <c r="D32">
+        <f>IF('cantidad pollos muertos'!D31="","",GAMMAINV(0.025,'cantidad pollos muertos'!D31+(1/2),1))</f>
+        <v>19.83092967575783</v>
+      </c>
+      <c r="E32">
+        <f>IF('cantidad pollos muertos'!D31="","",GAMMAINV(0.975,'cantidad pollos muertos'!D31+(1/2),1))</f>
+        <v>41.058702970119143</v>
+      </c>
+      <c r="F32">
+        <f>IF('cantidad pollos muertos'!E31="","",GAMMAINV(0.025,'cantidad pollos muertos'!E31+(1/2),1))</f>
+        <v>183.95480974406874</v>
+      </c>
+      <c r="G32">
+        <f>IF('cantidad pollos muertos'!E31="","",GAMMAINV(0.975,'cantidad pollos muertos'!E31+(1/2),1))</f>
+        <v>240.93885107770447</v>
+      </c>
+      <c r="H32">
+        <f>IF('cantidad pollos muertos'!F31="","",GAMMAINV(0.025,'cantidad pollos muertos'!F31+(1/2),1))</f>
+        <v>238.28170622120132</v>
+      </c>
+      <c r="I32">
+        <f>IF('cantidad pollos muertos'!F31="","",GAMMAINV(0.975,'cantidad pollos muertos'!F31+(1/2),1))</f>
+        <v>302.61209361024419</v>
+      </c>
+      <c r="J32">
+        <f>IF('cantidad pollos muertos'!G31="","",GAMMAINV(0.025,'cantidad pollos muertos'!G31+(1/2),1))</f>
+        <v>122.81917195302653</v>
+      </c>
+      <c r="K32">
+        <f>IF('cantidad pollos muertos'!G31="","",GAMMAINV(0.975,'cantidad pollos muertos'!G31+(1/2),1))</f>
+        <v>170.07419554450007</v>
+      </c>
+      <c r="L32">
+        <f>IF('cantidad pollos muertos'!H31="","",GAMMAINV(0.025,'cantidad pollos muertos'!H31+(1/2),1))</f>
+        <v>55.009907778178558</v>
+      </c>
+      <c r="M32">
+        <f>IF('cantidad pollos muertos'!H31="","",GAMMAINV(0.975,'cantidad pollos muertos'!H31+(1/2),1))</f>
+        <v>87.882456365251016</v>
+      </c>
+      <c r="N32">
+        <f>IF('cantidad pollos muertos'!I31="","",GAMMAINV(0.025,'cantidad pollos muertos'!I31+(1/2),1))</f>
+        <v>78.210322127740184</v>
+      </c>
+      <c r="O32">
+        <f>IF('cantidad pollos muertos'!I31="","",GAMMAINV(0.975,'cantidad pollos muertos'!I31+(1/2),1))</f>
+        <v>116.68256711663008</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <f>IF('cantidad pollos muertos'!C32="","",GAMMAINV(0.025,'cantidad pollos muertos'!C32+(1/2),1))</f>
+        <v>136.62977603290807</v>
+      </c>
+      <c r="C33">
+        <f>IF('cantidad pollos muertos'!C32="","",GAMMAINV(0.975,'cantidad pollos muertos'!C32+(1/2),1))</f>
+        <v>186.26367935956154</v>
+      </c>
+      <c r="D33">
+        <f>IF('cantidad pollos muertos'!D32="","",GAMMAINV(0.025,'cantidad pollos muertos'!D32+(1/2),1))</f>
+        <v>250.51457758582322</v>
+      </c>
+      <c r="E33">
+        <f>IF('cantidad pollos muertos'!D32="","",GAMMAINV(0.975,'cantidad pollos muertos'!D32+(1/2),1))</f>
+        <v>316.37924556235248</v>
+      </c>
+      <c r="F33">
+        <f>IF('cantidad pollos muertos'!E32="","",GAMMAINV(0.025,'cantidad pollos muertos'!E32+(1/2),1))</f>
+        <v>190.48677466209961</v>
+      </c>
+      <c r="G33">
+        <f>IF('cantidad pollos muertos'!E32="","",GAMMAINV(0.975,'cantidad pollos muertos'!E32+(1/2),1))</f>
+        <v>248.40690685903488</v>
+      </c>
+      <c r="H33">
+        <f>IF('cantidad pollos muertos'!F32="","",GAMMAINV(0.025,'cantidad pollos muertos'!F32+(1/2),1))</f>
+        <v>460.47542715905729</v>
+      </c>
+      <c r="I33">
+        <f>IF('cantidad pollos muertos'!F32="","",GAMMAINV(0.975,'cantidad pollos muertos'!F32+(1/2),1))</f>
+        <v>548.41860802426629</v>
+      </c>
+      <c r="J33">
+        <f>IF('cantidad pollos muertos'!G32="","",GAMMAINV(0.025,'cantidad pollos muertos'!G32+(1/2),1))</f>
+        <v>97.216905154744765</v>
+      </c>
+      <c r="K33">
+        <f>IF('cantidad pollos muertos'!G32="","",GAMMAINV(0.975,'cantidad pollos muertos'!G32+(1/2),1))</f>
+        <v>139.67623804664751</v>
+      </c>
+      <c r="L33">
+        <f>IF('cantidad pollos muertos'!H32="","",GAMMAINV(0.025,'cantidad pollos muertos'!H32+(1/2),1))</f>
+        <v>48.849242700029897</v>
+      </c>
+      <c r="M33">
+        <f>IF('cantidad pollos muertos'!H32="","",GAMMAINV(0.975,'cantidad pollos muertos'!H32+(1/2),1))</f>
+        <v>80.042906187400447</v>
+      </c>
+      <c r="N33">
+        <f>IF('cantidad pollos muertos'!I32="","",GAMMAINV(0.025,'cantidad pollos muertos'!I32+(1/2),1))</f>
+        <v>57.663034081546456</v>
+      </c>
+      <c r="O33">
+        <f>IF('cantidad pollos muertos'!I32="","",GAMMAINV(0.975,'cantidad pollos muertos'!I32+(1/2),1))</f>
+        <v>91.229409702209395</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>13</v>
+      </c>
+      <c r="B34">
+        <f>IF('cantidad pollos muertos'!C33="","",GAMMAINV(0.025,'cantidad pollos muertos'!C33+(1/2),1))</f>
+        <v>47.097478066231957</v>
+      </c>
+      <c r="C34">
+        <f>IF('cantidad pollos muertos'!C33="","",GAMMAINV(0.975,'cantidad pollos muertos'!C33+(1/2),1))</f>
+        <v>77.794600267046718</v>
+      </c>
+      <c r="D34">
+        <f>IF('cantidad pollos muertos'!D33="","",GAMMAINV(0.025,'cantidad pollos muertos'!D33+(1/2),1))</f>
+        <v>141.24578120708773</v>
+      </c>
+      <c r="E34">
+        <f>IF('cantidad pollos muertos'!D33="","",GAMMAINV(0.975,'cantidad pollos muertos'!D33+(1/2),1))</f>
+        <v>191.6476999354669</v>
+      </c>
+      <c r="F34">
+        <f>IF('cantidad pollos muertos'!E33="","",GAMMAINV(0.025,'cantidad pollos muertos'!E33+(1/2),1))</f>
+        <v>133.86305156440224</v>
+      </c>
+      <c r="G34">
+        <f>IF('cantidad pollos muertos'!E33="","",GAMMAINV(0.975,'cantidad pollos muertos'!E33+(1/2),1))</f>
+        <v>183.03038759147029</v>
+      </c>
+      <c r="H34">
+        <f>IF('cantidad pollos muertos'!F33="","",GAMMAINV(0.025,'cantidad pollos muertos'!F33+(1/2),1))</f>
+        <v>54.127170276499882</v>
+      </c>
+      <c r="I34">
+        <f>IF('cantidad pollos muertos'!F33="","",GAMMAINV(0.975,'cantidad pollos muertos'!F33+(1/2),1))</f>
+        <v>86.765165784440967</v>
+      </c>
+      <c r="J34">
+        <f>IF('cantidad pollos muertos'!G33="","",GAMMAINV(0.025,'cantidad pollos muertos'!G33+(1/2),1))</f>
+        <v>96.307567312785139</v>
+      </c>
+      <c r="K34">
+        <f>IF('cantidad pollos muertos'!G33="","",GAMMAINV(0.975,'cantidad pollos muertos'!G33+(1/2),1))</f>
+        <v>138.5855658778643</v>
+      </c>
+      <c r="L34">
+        <f>IF('cantidad pollos muertos'!H33="","",GAMMAINV(0.025,'cantidad pollos muertos'!H33+(1/2),1))</f>
+        <v>26.470969885266424</v>
+      </c>
+      <c r="M34">
+        <f>IF('cantidad pollos muertos'!H33="","",GAMMAINV(0.975,'cantidad pollos muertos'!H33+(1/2),1))</f>
+        <v>50.419669200906682</v>
+      </c>
+      <c r="N34">
+        <f>IF('cantidad pollos muertos'!I33="","",GAMMAINV(0.025,'cantidad pollos muertos'!I33+(1/2),1))</f>
+        <v>6.5598600124688922</v>
+      </c>
+      <c r="O34">
+        <f>IF('cantidad pollos muertos'!I33="","",GAMMAINV(0.975,'cantidad pollos muertos'!I33+(1/2),1))</f>
+        <v>20.3232345601376</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>18</v>
+      </c>
+      <c r="B35">
+        <f>IF('cantidad pollos muertos'!C34="","",GAMMAINV(0.025,'cantidad pollos muertos'!C34+(1/2),1))</f>
+        <v>108.15770207238351</v>
+      </c>
+      <c r="C35">
+        <f>IF('cantidad pollos muertos'!C34="","",GAMMAINV(0.975,'cantidad pollos muertos'!C34+(1/2),1))</f>
+        <v>152.73554916538322</v>
+      </c>
+      <c r="D35">
+        <f>IF('cantidad pollos muertos'!D34="","",GAMMAINV(0.025,'cantidad pollos muertos'!D34+(1/2),1))</f>
+        <v>121.90060093266091</v>
+      </c>
+      <c r="E35">
+        <f>IF('cantidad pollos muertos'!D34="","",GAMMAINV(0.975,'cantidad pollos muertos'!D34+(1/2),1))</f>
+        <v>168.99276005477674</v>
+      </c>
+      <c r="F35">
+        <f>IF('cantidad pollos muertos'!E34="","",GAMMAINV(0.025,'cantidad pollos muertos'!E34+(1/2),1))</f>
+        <v>141.24578120708773</v>
+      </c>
+      <c r="G35">
+        <f>IF('cantidad pollos muertos'!E34="","",GAMMAINV(0.975,'cantidad pollos muertos'!E34+(1/2),1))</f>
+        <v>191.6476999354669</v>
+      </c>
+      <c r="H35">
+        <f>IF('cantidad pollos muertos'!F34="","",GAMMAINV(0.025,'cantidad pollos muertos'!F34+(1/2),1))</f>
+        <v>271.25554599892587</v>
+      </c>
+      <c r="I35">
+        <f>IF('cantidad pollos muertos'!F34="","",GAMMAINV(0.975,'cantidad pollos muertos'!F34+(1/2),1))</f>
+        <v>339.63831206747551</v>
+      </c>
+      <c r="J35">
+        <f>IF('cantidad pollos muertos'!G34="","",GAMMAINV(0.025,'cantidad pollos muertos'!G34+(1/2),1))</f>
+        <v>171.84506423059591</v>
+      </c>
+      <c r="K35">
+        <f>IF('cantidad pollos muertos'!G34="","",GAMMAINV(0.975,'cantidad pollos muertos'!G34+(1/2),1))</f>
+        <v>227.04855426931005</v>
+      </c>
+      <c r="L35">
+        <f>IF('cantidad pollos muertos'!H34="","",GAMMAINV(0.025,'cantidad pollos muertos'!H34+(1/2),1))</f>
+        <v>140.32211069619123</v>
+      </c>
+      <c r="M35">
+        <f>IF('cantidad pollos muertos'!H34="","",GAMMAINV(0.975,'cantidad pollos muertos'!H34+(1/2),1))</f>
+        <v>190.57136542184699</v>
+      </c>
+      <c r="N35">
+        <f>IF('cantidad pollos muertos'!I34="","",GAMMAINV(0.025,'cantidad pollos muertos'!I34+(1/2),1))</f>
+        <v>51.484124143889233</v>
+      </c>
+      <c r="O35">
+        <f>IF('cantidad pollos muertos'!I34="","",GAMMAINV(0.975,'cantidad pollos muertos'!I34+(1/2),1))</f>
+        <v>83.40812257489047</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>1</v>
+      </c>
+      <c r="B36">
+        <f>IF('cantidad pollos muertos'!C35="","",GAMMAINV(0.025,'cantidad pollos muertos'!C35+(1/2),1))</f>
+        <v>181.15776645576832</v>
+      </c>
+      <c r="C36">
+        <f>IF('cantidad pollos muertos'!C35="","",GAMMAINV(0.975,'cantidad pollos muertos'!C35+(1/2),1))</f>
+        <v>237.73588506864502</v>
+      </c>
+      <c r="D36">
+        <f>IF('cantidad pollos muertos'!D35="","",GAMMAINV(0.025,'cantidad pollos muertos'!D35+(1/2),1))</f>
+        <v>109.07169811998602</v>
+      </c>
+      <c r="E36">
+        <f>IF('cantidad pollos muertos'!D35="","",GAMMAINV(0.975,'cantidad pollos muertos'!D35+(1/2),1))</f>
+        <v>153.82156122150266</v>
+      </c>
+      <c r="F36">
+        <f>IF('cantidad pollos muertos'!E35="","",GAMMAINV(0.025,'cantidad pollos muertos'!E35+(1/2),1))</f>
+        <v>129.25684230860779</v>
+      </c>
+      <c r="G36">
+        <f>IF('cantidad pollos muertos'!E35="","",GAMMAINV(0.975,'cantidad pollos muertos'!E35+(1/2),1))</f>
+        <v>177.63656836334818</v>
+      </c>
+      <c r="H36">
+        <f>IF('cantidad pollos muertos'!F35="","",GAMMAINV(0.025,'cantidad pollos muertos'!F35+(1/2),1))</f>
+        <v>156.98183885717842</v>
+      </c>
+      <c r="I36">
+        <f>IF('cantidad pollos muertos'!F35="","",GAMMAINV(0.975,'cantidad pollos muertos'!F35+(1/2),1))</f>
+        <v>209.91171926098286</v>
+      </c>
+      <c r="J36">
+        <f>IF('cantidad pollos muertos'!G35="","",GAMMAINV(0.025,'cantidad pollos muertos'!G35+(1/2),1))</f>
+        <v>255.22424421274033</v>
+      </c>
+      <c r="K36">
+        <f>IF('cantidad pollos muertos'!G35="","",GAMMAINV(0.975,'cantidad pollos muertos'!G35+(1/2),1))</f>
+        <v>321.66958734123659</v>
+      </c>
+      <c r="L36">
+        <f>IF('cantidad pollos muertos'!H35="","",GAMMAINV(0.025,'cantidad pollos muertos'!H35+(1/2),1))</f>
+        <v>69.236090053698319</v>
+      </c>
+      <c r="M36">
+        <f>IF('cantidad pollos muertos'!H35="","",GAMMAINV(0.975,'cantidad pollos muertos'!H35+(1/2),1))</f>
+        <v>105.65663473998677</v>
+      </c>
+      <c r="N36">
+        <f>IF('cantidad pollos muertos'!I35="","",GAMMAINV(0.025,'cantidad pollos muertos'!I35+(1/2),1))</f>
+        <v>56.777856776887383</v>
+      </c>
+      <c r="O36">
+        <f>IF('cantidad pollos muertos'!I35="","",GAMMAINV(0.975,'cantidad pollos muertos'!I35+(1/2),1))</f>
+        <v>90.114561196020517</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37">
+        <f>IF('cantidad pollos muertos'!C36="","",GAMMAINV(0.025,'cantidad pollos muertos'!C36+(1/2),1))</f>
+        <v>49.726594486708123</v>
+      </c>
+      <c r="C37">
+        <f>IF('cantidad pollos muertos'!C36="","",GAMMAINV(0.975,'cantidad pollos muertos'!C36+(1/2),1))</f>
+        <v>81.165588027937574</v>
+      </c>
+      <c r="D37">
+        <f>IF('cantidad pollos muertos'!D36="","",GAMMAINV(0.025,'cantidad pollos muertos'!D36+(1/2),1))</f>
+        <v>120.06430952815636</v>
+      </c>
+      <c r="E37">
+        <f>IF('cantidad pollos muertos'!D36="","",GAMMAINV(0.975,'cantidad pollos muertos'!D36+(1/2),1))</f>
+        <v>166.82903816430675</v>
+      </c>
+      <c r="F37">
+        <f>IF('cantidad pollos muertos'!E36="","",GAMMAINV(0.025,'cantidad pollos muertos'!E36+(1/2),1))</f>
+        <v>112.73093794377093</v>
+      </c>
+      <c r="G37">
+        <f>IF('cantidad pollos muertos'!E36="","",GAMMAINV(0.975,'cantidad pollos muertos'!E36+(1/2),1))</f>
+        <v>158.16235260438964</v>
+      </c>
+      <c r="H37">
+        <f>IF('cantidad pollos muertos'!F36="","",GAMMAINV(0.025,'cantidad pollos muertos'!F36+(1/2),1))</f>
+        <v>262.76491571972474</v>
+      </c>
+      <c r="I37">
+        <f>IF('cantidad pollos muertos'!F36="","",GAMMAINV(0.975,'cantidad pollos muertos'!F36+(1/2),1))</f>
+        <v>330.12892869114035</v>
+      </c>
+      <c r="J37">
+        <f>IF('cantidad pollos muertos'!G36="","",GAMMAINV(0.025,'cantidad pollos muertos'!G36+(1/2),1))</f>
+        <v>93.581917053701943</v>
+      </c>
+      <c r="K37">
+        <f>IF('cantidad pollos muertos'!G36="","",GAMMAINV(0.975,'cantidad pollos muertos'!G36+(1/2),1))</f>
+        <v>135.31118504298269</v>
+      </c>
+      <c r="L37">
+        <f>IF('cantidad pollos muertos'!H36="","",GAMMAINV(0.025,'cantidad pollos muertos'!H36+(1/2),1))</f>
+        <v>91.766838569897061</v>
+      </c>
+      <c r="M37">
+        <f>IF('cantidad pollos muertos'!H36="","",GAMMAINV(0.975,'cantidad pollos muertos'!H36+(1/2),1))</f>
+        <v>133.12624186493369</v>
+      </c>
+      <c r="N37">
+        <f>IF('cantidad pollos muertos'!I36="","",GAMMAINV(0.025,'cantidad pollos muertos'!I36+(1/2),1))</f>
+        <v>67.448256305265616</v>
+      </c>
+      <c r="O37">
+        <f>IF('cantidad pollos muertos'!I36="","",GAMMAINV(0.975,'cantidad pollos muertos'!I36+(1/2),1))</f>
+        <v>103.44443090775799</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>20</v>
+      </c>
+      <c r="B38">
+        <f>IF('cantidad pollos muertos'!C37="","",GAMMAINV(0.025,'cantidad pollos muertos'!C37+(1/2),1))</f>
+        <v>55.893475743516525</v>
+      </c>
+      <c r="C38">
+        <f>IF('cantidad pollos muertos'!C37="","",GAMMAINV(0.975,'cantidad pollos muertos'!C37+(1/2),1))</f>
+        <v>88.998915692959812</v>
+      </c>
+      <c r="D38">
+        <f>IF('cantidad pollos muertos'!D37="","",GAMMAINV(0.025,'cantidad pollos muertos'!D37+(1/2),1))</f>
+        <v>34.962433543720138</v>
+      </c>
+      <c r="E38">
+        <f>IF('cantidad pollos muertos'!D37="","",GAMMAINV(0.975,'cantidad pollos muertos'!D37+(1/2),1))</f>
+        <v>61.928983302147522</v>
+      </c>
+      <c r="F38">
+        <f>IF('cantidad pollos muertos'!E37="","",GAMMAINV(0.025,'cantidad pollos muertos'!E37+(1/2),1))</f>
+        <v>30.694387291605764</v>
+      </c>
+      <c r="G38">
+        <f>IF('cantidad pollos muertos'!E37="","",GAMMAINV(0.975,'cantidad pollos muertos'!E37+(1/2),1))</f>
+        <v>56.196686807634066</v>
+      </c>
+      <c r="H38">
+        <f>IF('cantidad pollos muertos'!F37="","",GAMMAINV(0.025,'cantidad pollos muertos'!F37+(1/2),1))</f>
+        <v>101.76928066438617</v>
+      </c>
+      <c r="I38">
+        <f>IF('cantidad pollos muertos'!F37="","",GAMMAINV(0.975,'cantidad pollos muertos'!F37+(1/2),1))</f>
+        <v>145.12391013196</v>
+      </c>
+      <c r="J38">
+        <f>IF('cantidad pollos muertos'!G37="","",GAMMAINV(0.025,'cantidad pollos muertos'!G37+(1/2),1))</f>
+        <v>67.448256305265616</v>
+      </c>
+      <c r="K38">
+        <f>IF('cantidad pollos muertos'!G37="","",GAMMAINV(0.975,'cantidad pollos muertos'!G37+(1/2),1))</f>
+        <v>103.44443090775799</v>
+      </c>
+      <c r="L38">
+        <f>IF('cantidad pollos muertos'!H37="","",GAMMAINV(0.025,'cantidad pollos muertos'!H37+(1/2),1))</f>
+        <v>64.77127925072125</v>
+      </c>
+      <c r="M38">
+        <f>IF('cantidad pollos muertos'!H37="","",GAMMAINV(0.975,'cantidad pollos muertos'!H37+(1/2),1))</f>
+        <v>100.12134811782056</v>
+      </c>
+      <c r="N38">
+        <f>IF('cantidad pollos muertos'!I37="","",GAMMAINV(0.025,'cantidad pollos muertos'!I37+(1/2),1))</f>
+        <v>33.250344584097988</v>
+      </c>
+      <c r="O38">
+        <f>IF('cantidad pollos muertos'!I37="","",GAMMAINV(0.975,'cantidad pollos muertos'!I37+(1/2),1))</f>
+        <v>59.640944273247818</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>70</v>
+      </c>
+      <c r="B39" t="str">
+        <f>IF('cantidad pollos muertos'!C38="","",GAMMAINV(0.025,'cantidad pollos muertos'!C38+(1/2),1))</f>
+        <v/>
+      </c>
+      <c r="C39" t="str">
+        <f>IF('cantidad pollos muertos'!C38="","",GAMMAINV(0.975,'cantidad pollos muertos'!C38+(1/2),1))</f>
+        <v/>
+      </c>
+      <c r="D39" t="str">
+        <f>IF('cantidad pollos muertos'!D38="","",GAMMAINV(0.025,'cantidad pollos muertos'!D38+(1/2),1))</f>
+        <v/>
+      </c>
+      <c r="E39" t="str">
+        <f>IF('cantidad pollos muertos'!D38="","",GAMMAINV(0.975,'cantidad pollos muertos'!D38+(1/2),1))</f>
+        <v/>
+      </c>
+      <c r="F39" t="str">
+        <f>IF('cantidad pollos muertos'!E38="","",GAMMAINV(0.025,'cantidad pollos muertos'!E38+(1/2),1))</f>
+        <v/>
+      </c>
+      <c r="G39" t="str">
+        <f>IF('cantidad pollos muertos'!E38="","",GAMMAINV(0.975,'cantidad pollos muertos'!E38+(1/2),1))</f>
+        <v/>
+      </c>
+      <c r="H39">
+        <f>IF('cantidad pollos muertos'!F38="","",GAMMAINV(0.025,'cantidad pollos muertos'!F38+(1/2),1))</f>
+        <v>150.49483000255319</v>
+      </c>
+      <c r="I39">
+        <f>IF('cantidad pollos muertos'!F38="","",GAMMAINV(0.975,'cantidad pollos muertos'!F38+(1/2),1))</f>
+        <v>202.39869822948049</v>
+      </c>
+      <c r="J39">
+        <f>IF('cantidad pollos muertos'!G38="","",GAMMAINV(0.025,'cantidad pollos muertos'!G38+(1/2),1))</f>
+        <v>765.31113591636995</v>
+      </c>
+      <c r="K39">
+        <f>IF('cantidad pollos muertos'!G38="","",GAMMAINV(0.975,'cantidad pollos muertos'!G38+(1/2),1))</f>
+        <v>877.58300389638237</v>
+      </c>
+      <c r="L39">
+        <f>IF('cantidad pollos muertos'!H38="","",GAMMAINV(0.025,'cantidad pollos muertos'!H38+(1/2),1))</f>
+        <v>222.31338117944131</v>
+      </c>
+      <c r="M39">
+        <f>IF('cantidad pollos muertos'!H38="","",GAMMAINV(0.975,'cantidad pollos muertos'!H38+(1/2),1))</f>
+        <v>284.58038453305556</v>
+      </c>
+      <c r="N39">
+        <f>IF('cantidad pollos muertos'!I38="","",GAMMAINV(0.025,'cantidad pollos muertos'!I38+(1/2),1))</f>
+        <v>222.31338117944131</v>
+      </c>
+      <c r="O39">
+        <f>IF('cantidad pollos muertos'!I38="","",GAMMAINV(0.975,'cantidad pollos muertos'!I38+(1/2),1))</f>
+        <v>284.58038453305556</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>19</v>
+      </c>
+      <c r="B40">
+        <f>IF('cantidad pollos muertos'!C39="","",GAMMAINV(0.025,'cantidad pollos muertos'!C39+(1/2),1))</f>
+        <v>199.83098059938479</v>
+      </c>
+      <c r="C40">
+        <f>IF('cantidad pollos muertos'!C39="","",GAMMAINV(0.975,'cantidad pollos muertos'!C39+(1/2),1))</f>
+        <v>259.06272828882726</v>
+      </c>
+      <c r="D40">
+        <f>IF('cantidad pollos muertos'!D39="","",GAMMAINV(0.025,'cantidad pollos muertos'!D39+(1/2),1))</f>
+        <v>142.16968219363059</v>
+      </c>
+      <c r="E40">
+        <f>IF('cantidad pollos muertos'!D39="","",GAMMAINV(0.975,'cantidad pollos muertos'!D39+(1/2),1))</f>
+        <v>192.72380391295633</v>
+      </c>
+      <c r="F40">
+        <f>IF('cantidad pollos muertos'!E39="","",GAMMAINV(0.025,'cantidad pollos muertos'!E39+(1/2),1))</f>
+        <v>179.29388372768716</v>
+      </c>
+      <c r="G40">
+        <f>IF('cantidad pollos muertos'!E39="","",GAMMAINV(0.975,'cantidad pollos muertos'!E39+(1/2),1))</f>
+        <v>235.59976144814786</v>
+      </c>
+      <c r="H40">
+        <f>IF('cantidad pollos muertos'!F39="","",GAMMAINV(0.025,'cantidad pollos muertos'!F39+(1/2),1))</f>
+        <v>201.70155665364121</v>
+      </c>
+      <c r="I40">
+        <f>IF('cantidad pollos muertos'!F39="","",GAMMAINV(0.975,'cantidad pollos muertos'!F39+(1/2),1))</f>
+        <v>261.19215742259411</v>
+      </c>
+      <c r="J40">
+        <f>IF('cantidad pollos muertos'!G39="","",GAMMAINV(0.025,'cantidad pollos muertos'!G39+(1/2),1))</f>
+        <v>156.05451286229808</v>
+      </c>
+      <c r="K40">
+        <f>IF('cantidad pollos muertos'!G39="","",GAMMAINV(0.975,'cantidad pollos muertos'!G39+(1/2),1))</f>
+        <v>208.83904112783321</v>
+      </c>
+      <c r="L40">
+        <f>IF('cantidad pollos muertos'!H39="","",GAMMAINV(0.025,'cantidad pollos muertos'!H39+(1/2),1))</f>
+        <v>96.307567312785139</v>
+      </c>
+      <c r="M40">
+        <f>IF('cantidad pollos muertos'!H39="","",GAMMAINV(0.975,'cantidad pollos muertos'!H39+(1/2),1))</f>
+        <v>138.5855658778643</v>
+      </c>
+      <c r="N40">
+        <f>IF('cantidad pollos muertos'!I39="","",GAMMAINV(0.025,'cantidad pollos muertos'!I39+(1/2),1))</f>
+        <v>66.555282724745524</v>
+      </c>
+      <c r="O40">
+        <f>IF('cantidad pollos muertos'!I39="","",GAMMAINV(0.975,'cantidad pollos muertos'!I39+(1/2),1))</f>
+        <v>102.33738501995983</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>26</v>
+      </c>
+      <c r="B41">
+        <f>IF('cantidad pollos muertos'!C40="","",GAMMAINV(0.025,'cantidad pollos muertos'!C40+(1/2),1))</f>
+        <v>548.62533919166628</v>
+      </c>
+      <c r="C41">
+        <f>IF('cantidad pollos muertos'!C40="","",GAMMAINV(0.975,'cantidad pollos muertos'!C40+(1/2),1))</f>
+        <v>644.26873783735732</v>
+      </c>
+      <c r="D41">
+        <f>IF('cantidad pollos muertos'!D40="","",GAMMAINV(0.025,'cantidad pollos muertos'!D40+(1/2),1))</f>
+        <v>1049.0499170025248</v>
+      </c>
+      <c r="E41">
+        <f>IF('cantidad pollos muertos'!D40="","",GAMMAINV(0.975,'cantidad pollos muertos'!D40+(1/2),1))</f>
+        <v>1179.8442665223874</v>
+      </c>
+      <c r="F41">
+        <f>IF('cantidad pollos muertos'!E40="","",GAMMAINV(0.025,'cantidad pollos muertos'!E40+(1/2),1))</f>
+        <v>924.924049454586</v>
+      </c>
+      <c r="G41">
+        <f>IF('cantidad pollos muertos'!E40="","",GAMMAINV(0.975,'cantidad pollos muertos'!E40+(1/2),1))</f>
+        <v>1047.9701181726064</v>
+      </c>
+      <c r="H41">
+        <f>IF('cantidad pollos muertos'!F40="","",GAMMAINV(0.025,'cantidad pollos muertos'!F40+(1/2),1))</f>
+        <v>321.39769896169901</v>
+      </c>
+      <c r="I41">
+        <f>IF('cantidad pollos muertos'!F40="","",GAMMAINV(0.975,'cantidad pollos muertos'!F40+(1/2),1))</f>
+        <v>395.49622556041908</v>
+      </c>
+      <c r="J41">
+        <f>IF('cantidad pollos muertos'!G40="","",GAMMAINV(0.025,'cantidad pollos muertos'!G40+(1/2),1))</f>
+        <v>986.95742658016775</v>
+      </c>
+      <c r="K41">
+        <f>IF('cantidad pollos muertos'!G40="","",GAMMAINV(0.975,'cantidad pollos muertos'!G40+(1/2),1))</f>
+        <v>1113.9367494807827</v>
+      </c>
+      <c r="L41">
+        <f>IF('cantidad pollos muertos'!H40="","",GAMMAINV(0.025,'cantidad pollos muertos'!H40+(1/2),1))</f>
+        <v>67.448256305265616</v>
+      </c>
+      <c r="M41">
+        <f>IF('cantidad pollos muertos'!H40="","",GAMMAINV(0.975,'cantidad pollos muertos'!H40+(1/2),1))</f>
+        <v>103.44443090775799</v>
+      </c>
+      <c r="N41">
+        <f>IF('cantidad pollos muertos'!I40="","",GAMMAINV(0.025,'cantidad pollos muertos'!I40+(1/2),1))</f>
+        <v>119.14659511982991</v>
+      </c>
+      <c r="O41">
+        <f>IF('cantidad pollos muertos'!I40="","",GAMMAINV(0.975,'cantidad pollos muertos'!I40+(1/2),1))</f>
+        <v>165.74674578385378</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>33</v>
+      </c>
+      <c r="B42">
+        <f>IF('cantidad pollos muertos'!C41="","",GAMMAINV(0.025,'cantidad pollos muertos'!C41+(1/2),1))</f>
+        <v>174.63709139652676</v>
+      </c>
+      <c r="C42">
+        <f>IF('cantidad pollos muertos'!C41="","",GAMMAINV(0.975,'cantidad pollos muertos'!C41+(1/2),1))</f>
+        <v>230.25653735551839</v>
+      </c>
+      <c r="D42">
+        <f>IF('cantidad pollos muertos'!D41="","",GAMMAINV(0.025,'cantidad pollos muertos'!D41+(1/2),1))</f>
+        <v>319.5015285063526</v>
+      </c>
+      <c r="E42">
+        <f>IF('cantidad pollos muertos'!D41="","",GAMMAINV(0.975,'cantidad pollos muertos'!D41+(1/2),1))</f>
+        <v>393.39239386812818</v>
+      </c>
+      <c r="F42">
+        <f>IF('cantidad pollos muertos'!E41="","",GAMMAINV(0.025,'cantidad pollos muertos'!E41+(1/2),1))</f>
+        <v>221.37513463914547</v>
+      </c>
+      <c r="G42">
+        <f>IF('cantidad pollos muertos'!E41="","",GAMMAINV(0.975,'cantidad pollos muertos'!E41+(1/2),1))</f>
+        <v>283.51862892250807</v>
+      </c>
+      <c r="H42">
+        <f>IF('cantidad pollos muertos'!F41="","",GAMMAINV(0.025,'cantidad pollos muertos'!F41+(1/2),1))</f>
+        <v>169.9845877189511</v>
+      </c>
+      <c r="I42">
+        <f>IF('cantidad pollos muertos'!F41="","",GAMMAINV(0.975,'cantidad pollos muertos'!F41+(1/2),1))</f>
+        <v>224.90902377196636</v>
+      </c>
+      <c r="J42">
+        <f>IF('cantidad pollos muertos'!G41="","",GAMMAINV(0.025,'cantidad pollos muertos'!G41+(1/2),1))</f>
+        <v>110.90067430604017</v>
+      </c>
+      <c r="K42">
+        <f>IF('cantidad pollos muertos'!G41="","",GAMMAINV(0.975,'cantidad pollos muertos'!G41+(1/2),1))</f>
+        <v>155.99260087494179</v>
+      </c>
+      <c r="L42">
+        <f>IF('cantidad pollos muertos'!H41="","",GAMMAINV(0.025,'cantidad pollos muertos'!H41+(1/2),1))</f>
+        <v>66.555282724745524</v>
+      </c>
+      <c r="M42">
+        <f>IF('cantidad pollos muertos'!H41="","",GAMMAINV(0.975,'cantidad pollos muertos'!H41+(1/2),1))</f>
+        <v>102.33738501995983</v>
+      </c>
+      <c r="N42">
+        <f>IF('cantidad pollos muertos'!I41="","",GAMMAINV(0.025,'cantidad pollos muertos'!I41+(1/2),1))</f>
+        <v>66.555282724745524</v>
+      </c>
+      <c r="O42">
+        <f>IF('cantidad pollos muertos'!I41="","",GAMMAINV(0.975,'cantidad pollos muertos'!I41+(1/2),1))</f>
+        <v>102.33738501995983</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>6</v>
+      </c>
+      <c r="B43">
+        <f>IF('cantidad pollos muertos'!C42="","",GAMMAINV(0.025,'cantidad pollos muertos'!C42+(1/2),1))</f>
+        <v>967.56538881400036</v>
+      </c>
+      <c r="C43">
+        <f>IF('cantidad pollos muertos'!C42="","",GAMMAINV(0.975,'cantidad pollos muertos'!C42+(1/2),1))</f>
+        <v>1093.3287847240811</v>
+      </c>
+      <c r="D43">
+        <f>IF('cantidad pollos muertos'!D42="","",GAMMAINV(0.025,'cantidad pollos muertos'!D42+(1/2),1))</f>
+        <v>1696.7950697366227</v>
+      </c>
+      <c r="E43">
+        <f>IF('cantidad pollos muertos'!D42="","",GAMMAINV(0.975,'cantidad pollos muertos'!D42+(1/2),1))</f>
+        <v>1862.0991595475402</v>
+      </c>
+      <c r="F43">
+        <f>IF('cantidad pollos muertos'!E42="","",GAMMAINV(0.025,'cantidad pollos muertos'!E42+(1/2),1))</f>
+        <v>4583.8313595495547</v>
+      </c>
+      <c r="G43">
+        <f>IF('cantidad pollos muertos'!E42="","",GAMMAINV(0.975,'cantidad pollos muertos'!E42+(1/2),1))</f>
+        <v>4853.0629174576852</v>
+      </c>
+      <c r="H43">
+        <f>IF('cantidad pollos muertos'!F42="","",GAMMAINV(0.025,'cantidad pollos muertos'!F42+(1/2),1))</f>
+        <v>871.66578222027056</v>
+      </c>
+      <c r="I43">
+        <f>IF('cantidad pollos muertos'!F42="","",GAMMAINV(0.975,'cantidad pollos muertos'!F42+(1/2),1))</f>
+        <v>991.22837723190105</v>
+      </c>
+      <c r="J43">
+        <f>IF('cantidad pollos muertos'!G42="","",GAMMAINV(0.025,'cantidad pollos muertos'!G42+(1/2),1))</f>
+        <v>699.6881198571507</v>
+      </c>
+      <c r="K43">
+        <f>IF('cantidad pollos muertos'!G42="","",GAMMAINV(0.975,'cantidad pollos muertos'!G42+(1/2),1))</f>
+        <v>807.20600494167547</v>
+      </c>
+      <c r="L43">
+        <f>IF('cantidad pollos muertos'!H42="","",GAMMAINV(0.025,'cantidad pollos muertos'!H42+(1/2),1))</f>
+        <v>478.65317839881567</v>
+      </c>
+      <c r="M43">
+        <f>IF('cantidad pollos muertos'!H42="","",GAMMAINV(0.975,'cantidad pollos muertos'!H42+(1/2),1))</f>
+        <v>568.24086663478749</v>
+      </c>
+      <c r="N43">
+        <f>IF('cantidad pollos muertos'!I42="","",GAMMAINV(0.025,'cantidad pollos muertos'!I42+(1/2),1))</f>
+        <v>864.89111119897188</v>
+      </c>
+      <c r="O43">
+        <f>IF('cantidad pollos muertos'!I42="","",GAMMAINV(0.975,'cantidad pollos muertos'!I42+(1/2),1))</f>
+        <v>984.00304714286347</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>4</v>
+      </c>
+      <c r="B44">
+        <f>IF('cantidad pollos muertos'!C43="","",GAMMAINV(0.025,'cantidad pollos muertos'!C43+(1/2),1))</f>
+        <v>985.01796057738704</v>
+      </c>
+      <c r="C44">
+        <f>IF('cantidad pollos muertos'!C43="","",GAMMAINV(0.975,'cantidad pollos muertos'!C43+(1/2),1))</f>
+        <v>1111.8762152356135</v>
+      </c>
+      <c r="D44">
+        <f>IF('cantidad pollos muertos'!D43="","",GAMMAINV(0.025,'cantidad pollos muertos'!D43+(1/2),1))</f>
+        <v>1357.3219889319423</v>
+      </c>
+      <c r="E44">
+        <f>IF('cantidad pollos muertos'!D43="","",GAMMAINV(0.975,'cantidad pollos muertos'!D43+(1/2),1))</f>
+        <v>1505.5722217138516</v>
+      </c>
+      <c r="F44">
+        <f>IF('cantidad pollos muertos'!E43="","",GAMMAINV(0.025,'cantidad pollos muertos'!E43+(1/2),1))</f>
+        <v>3960.1883460942354</v>
+      </c>
+      <c r="G44">
+        <f>IF('cantidad pollos muertos'!E43="","",GAMMAINV(0.975,'cantidad pollos muertos'!E43+(1/2),1))</f>
+        <v>4210.7059264379523</v>
+      </c>
+      <c r="H44">
+        <f>IF('cantidad pollos muertos'!F43="","",GAMMAINV(0.025,'cantidad pollos muertos'!F43+(1/2),1))</f>
+        <v>1526.9426730191165</v>
+      </c>
+      <c r="I44">
+        <f>IF('cantidad pollos muertos'!F43="","",GAMMAINV(0.975,'cantidad pollos muertos'!F43+(1/2),1))</f>
+        <v>1683.9515479567065</v>
+      </c>
+      <c r="J44">
+        <f>IF('cantidad pollos muertos'!G43="","",GAMMAINV(0.025,'cantidad pollos muertos'!G43+(1/2),1))</f>
+        <v>1114.110862795982</v>
+      </c>
+      <c r="K44">
+        <f>IF('cantidad pollos muertos'!G43="","",GAMMAINV(0.975,'cantidad pollos muertos'!G43+(1/2),1))</f>
+        <v>1248.7833276754016</v>
+      </c>
+      <c r="L44">
+        <f>IF('cantidad pollos muertos'!H43="","",GAMMAINV(0.025,'cantidad pollos muertos'!H43+(1/2),1))</f>
+        <v>608.19682197829161</v>
+      </c>
+      <c r="M44">
+        <f>IF('cantidad pollos muertos'!H43="","",GAMMAINV(0.975,'cantidad pollos muertos'!H43+(1/2),1))</f>
+        <v>708.69727664239463</v>
+      </c>
+      <c r="N44">
+        <f>IF('cantidad pollos muertos'!I43="","",GAMMAINV(0.025,'cantidad pollos muertos'!I43+(1/2),1))</f>
+        <v>678.47997729179644</v>
+      </c>
+      <c r="O44">
+        <f>IF('cantidad pollos muertos'!I43="","",GAMMAINV(0.975,'cantidad pollos muertos'!I43+(1/2),1))</f>
+        <v>784.41414205083629</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>2</v>
+      </c>
+      <c r="B45">
+        <f>IF('cantidad pollos muertos'!C44="","",GAMMAINV(0.025,'cantidad pollos muertos'!C44+(1/2),1))</f>
+        <v>83.620315112988024</v>
+      </c>
+      <c r="C45">
+        <f>IF('cantidad pollos muertos'!C44="","",GAMMAINV(0.975,'cantidad pollos muertos'!C44+(1/2),1))</f>
+        <v>123.27265734594629</v>
+      </c>
+      <c r="D45">
+        <f>IF('cantidad pollos muertos'!D44="","",GAMMAINV(0.025,'cantidad pollos muertos'!D44+(1/2),1))</f>
+        <v>82.717424459465121</v>
+      </c>
+      <c r="E45">
+        <f>IF('cantidad pollos muertos'!D44="","",GAMMAINV(0.975,'cantidad pollos muertos'!D44+(1/2),1))</f>
+        <v>122.17553481598543</v>
+      </c>
+      <c r="F45">
+        <f>IF('cantidad pollos muertos'!E44="","",GAMMAINV(0.025,'cantidad pollos muertos'!E44+(1/2),1))</f>
+        <v>115.47868500239804</v>
+      </c>
+      <c r="G45">
+        <f>IF('cantidad pollos muertos'!E44="","",GAMMAINV(0.975,'cantidad pollos muertos'!E44+(1/2),1))</f>
+        <v>161.41462775614207</v>
+      </c>
+      <c r="H45">
+        <f>IF('cantidad pollos muertos'!F44="","",GAMMAINV(0.025,'cantidad pollos muertos'!F44+(1/2),1))</f>
+        <v>107.24403913202086</v>
+      </c>
+      <c r="I45">
+        <f>IF('cantidad pollos muertos'!F44="","",GAMMAINV(0.975,'cantidad pollos muertos'!F44+(1/2),1))</f>
+        <v>151.64920387554514</v>
+      </c>
+      <c r="J45">
+        <f>IF('cantidad pollos muertos'!G44="","",GAMMAINV(0.025,'cantidad pollos muertos'!G44+(1/2),1))</f>
+        <v>87.236542631327438</v>
+      </c>
+      <c r="K45">
+        <f>IF('cantidad pollos muertos'!G44="","",GAMMAINV(0.975,'cantidad pollos muertos'!G44+(1/2),1))</f>
+        <v>127.65648007746864</v>
+      </c>
+      <c r="L45">
+        <f>IF('cantidad pollos muertos'!H44="","",GAMMAINV(0.025,'cantidad pollos muertos'!H44+(1/2),1))</f>
+        <v>51.484124143889233</v>
+      </c>
+      <c r="M45">
+        <f>IF('cantidad pollos muertos'!H44="","",GAMMAINV(0.975,'cantidad pollos muertos'!H44+(1/2),1))</f>
+        <v>83.40812257489047</v>
+      </c>
+      <c r="N45">
+        <f>IF('cantidad pollos muertos'!I44="","",GAMMAINV(0.025,'cantidad pollos muertos'!I44+(1/2),1))</f>
+        <v>55.893475743516525</v>
+      </c>
+      <c r="O45">
+        <f>IF('cantidad pollos muertos'!I44="","",GAMMAINV(0.975,'cantidad pollos muertos'!I44+(1/2),1))</f>
+        <v>88.998915692959812</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>29</v>
+      </c>
+      <c r="B46">
+        <f>IF('cantidad pollos muertos'!C45="","",GAMMAINV(0.025,'cantidad pollos muertos'!C45+(1/2),1))</f>
+        <v>132.0198061058029</v>
+      </c>
+      <c r="C46">
+        <f>IF('cantidad pollos muertos'!C45="","",GAMMAINV(0.975,'cantidad pollos muertos'!C45+(1/2),1))</f>
+        <v>180.87362187681995</v>
+      </c>
+      <c r="D46">
+        <f>IF('cantidad pollos muertos'!D45="","",GAMMAINV(0.025,'cantidad pollos muertos'!D45+(1/2),1))</f>
+        <v>535.19098313718803</v>
+      </c>
+      <c r="E46">
+        <f>IF('cantidad pollos muertos'!D45="","",GAMMAINV(0.975,'cantidad pollos muertos'!D45+(1/2),1))</f>
+        <v>629.70308837869106</v>
+      </c>
+      <c r="F46">
+        <f>IF('cantidad pollos muertos'!E45="","",GAMMAINV(0.025,'cantidad pollos muertos'!E45+(1/2),1))</f>
+        <v>640.91361929566665</v>
+      </c>
+      <c r="G46">
+        <f>IF('cantidad pollos muertos'!E45="","",GAMMAINV(0.975,'cantidad pollos muertos'!E45+(1/2),1))</f>
+        <v>743.98048952094484</v>
+      </c>
+      <c r="H46">
+        <f>IF('cantidad pollos muertos'!F45="","",GAMMAINV(0.025,'cantidad pollos muertos'!F45+(1/2),1))</f>
+        <v>362.23179958488959</v>
+      </c>
+      <c r="I46">
+        <f>IF('cantidad pollos muertos'!F45="","",GAMMAINV(0.975,'cantidad pollos muertos'!F45+(1/2),1))</f>
+        <v>440.66216591868124</v>
+      </c>
+      <c r="J46">
+        <f>IF('cantidad pollos muertos'!G45="","",GAMMAINV(0.025,'cantidad pollos muertos'!G45+(1/2),1))</f>
+        <v>75.512217647445581</v>
+      </c>
+      <c r="K46">
+        <f>IF('cantidad pollos muertos'!G45="","",GAMMAINV(0.975,'cantidad pollos muertos'!G45+(1/2),1))</f>
+        <v>113.38062596936612</v>
+      </c>
+      <c r="L46">
+        <f>IF('cantidad pollos muertos'!H45="","",GAMMAINV(0.025,'cantidad pollos muertos'!H45+(1/2),1))</f>
+        <v>72.819004490068878</v>
+      </c>
+      <c r="M46">
+        <f>IF('cantidad pollos muertos'!H45="","",GAMMAINV(0.975,'cantidad pollos muertos'!H45+(1/2),1))</f>
+        <v>110.07379046221725</v>
+      </c>
+      <c r="N46">
+        <f>IF('cantidad pollos muertos'!I45="","",GAMMAINV(0.025,'cantidad pollos muertos'!I45+(1/2),1))</f>
+        <v>80.01166316279793</v>
+      </c>
+      <c r="O46">
+        <f>IF('cantidad pollos muertos'!I45="","",GAMMAINV(0.975,'cantidad pollos muertos'!I45+(1/2),1))</f>
+        <v>118.88125495026803</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>22</v>
+      </c>
+      <c r="B47">
+        <f>IF('cantidad pollos muertos'!C46="","",GAMMAINV(0.025,'cantidad pollos muertos'!C46+(1/2),1))</f>
+        <v>28.999208263699717</v>
+      </c>
+      <c r="C47">
+        <f>IF('cantidad pollos muertos'!C46="","",GAMMAINV(0.975,'cantidad pollos muertos'!C46+(1/2),1))</f>
+        <v>53.891704832667266</v>
+      </c>
+      <c r="D47">
+        <f>IF('cantidad pollos muertos'!D46="","",GAMMAINV(0.025,'cantidad pollos muertos'!D46+(1/2),1))</f>
+        <v>27.311679260779517</v>
+      </c>
+      <c r="E47">
+        <f>IF('cantidad pollos muertos'!D46="","",GAMMAINV(0.975,'cantidad pollos muertos'!D46+(1/2),1))</f>
+        <v>51.579055950673293</v>
+      </c>
+      <c r="F47">
+        <f>IF('cantidad pollos muertos'!E46="","",GAMMAINV(0.025,'cantidad pollos muertos'!E46+(1/2),1))</f>
+        <v>40.133392287067011</v>
+      </c>
+      <c r="G47">
+        <f>IF('cantidad pollos muertos'!E46="","",GAMMAINV(0.975,'cantidad pollos muertos'!E46+(1/2),1))</f>
+        <v>68.758350727289638</v>
+      </c>
+      <c r="H47">
+        <f>IF('cantidad pollos muertos'!F46="","",GAMMAINV(0.025,'cantidad pollos muertos'!F46+(1/2),1))</f>
+        <v>32.396680742579541</v>
+      </c>
+      <c r="I47">
+        <f>IF('cantidad pollos muertos'!F46="","",GAMMAINV(0.975,'cantidad pollos muertos'!F46+(1/2),1))</f>
+        <v>58.494539771790699</v>
+      </c>
+      <c r="J47">
+        <f>IF('cantidad pollos muertos'!G46="","",GAMMAINV(0.025,'cantidad pollos muertos'!G46+(1/2),1))</f>
+        <v>54.127170276499882</v>
+      </c>
+      <c r="K47">
+        <f>IF('cantidad pollos muertos'!G46="","",GAMMAINV(0.975,'cantidad pollos muertos'!G46+(1/2),1))</f>
+        <v>86.765165784440967</v>
+      </c>
+      <c r="L47">
+        <f>IF('cantidad pollos muertos'!H46="","",GAMMAINV(0.025,'cantidad pollos muertos'!H46+(1/2),1))</f>
+        <v>25.632406636710915</v>
+      </c>
+      <c r="M47">
+        <f>IF('cantidad pollos muertos'!H46="","",GAMMAINV(0.975,'cantidad pollos muertos'!H46+(1/2),1))</f>
+        <v>49.258131005783902</v>
+      </c>
+      <c r="N47">
+        <f>IF('cantidad pollos muertos'!I46="","",GAMMAINV(0.025,'cantidad pollos muertos'!I46+(1/2),1))</f>
+        <v>15.777458231333561</v>
+      </c>
+      <c r="O47">
+        <f>IF('cantidad pollos muertos'!I46="","",GAMMAINV(0.975,'cantidad pollos muertos'!I46+(1/2),1))</f>
+        <v>35.11120678321727</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>71</v>
+      </c>
+      <c r="B48" t="str">
+        <f>IF('cantidad pollos muertos'!C47="","",GAMMAINV(0.025,'cantidad pollos muertos'!C47+(1/2),1))</f>
+        <v/>
+      </c>
+      <c r="C48" t="str">
+        <f>IF('cantidad pollos muertos'!C47="","",GAMMAINV(0.975,'cantidad pollos muertos'!C47+(1/2),1))</f>
+        <v/>
+      </c>
+      <c r="D48">
+        <f>IF('cantidad pollos muertos'!D47="","",GAMMAINV(0.025,'cantidad pollos muertos'!D47+(1/2),1))</f>
+        <v>278.80906055151064</v>
+      </c>
+      <c r="E48">
+        <f>IF('cantidad pollos muertos'!D47="","",GAMMAINV(0.975,'cantidad pollos muertos'!D47+(1/2),1))</f>
+        <v>348.08480899206802</v>
+      </c>
+      <c r="F48">
+        <f>IF('cantidad pollos muertos'!E47="","",GAMMAINV(0.025,'cantidad pollos muertos'!E47+(1/2),1))</f>
+        <v>286.36825741056521</v>
+      </c>
+      <c r="G48">
+        <f>IF('cantidad pollos muertos'!E47="","",GAMMAINV(0.975,'cantidad pollos muertos'!E47+(1/2),1))</f>
+        <v>356.52562303658738</v>
+      </c>
+      <c r="H48">
+        <f>IF('cantidad pollos muertos'!F47="","",GAMMAINV(0.025,'cantidad pollos muertos'!F47+(1/2),1))</f>
+        <v>77.310424850812296</v>
+      </c>
+      <c r="I48">
+        <f>IF('cantidad pollos muertos'!F47="","",GAMMAINV(0.975,'cantidad pollos muertos'!F47+(1/2),1))</f>
+        <v>115.58244950407959</v>
+      </c>
+      <c r="J48">
+        <f>IF('cantidad pollos muertos'!G47="","",GAMMAINV(0.025,'cantidad pollos muertos'!G47+(1/2),1))</f>
+        <v>187.68642850911837</v>
+      </c>
+      <c r="K48">
+        <f>IF('cantidad pollos muertos'!G47="","",GAMMAINV(0.975,'cantidad pollos muertos'!G47+(1/2),1))</f>
+        <v>245.20724430579639</v>
+      </c>
+      <c r="L48">
+        <f>IF('cantidad pollos muertos'!H47="","",GAMMAINV(0.025,'cantidad pollos muertos'!H47+(1/2),1))</f>
+        <v>51.484124143889233</v>
+      </c>
+      <c r="M48">
+        <f>IF('cantidad pollos muertos'!H47="","",GAMMAINV(0.975,'cantidad pollos muertos'!H47+(1/2),1))</f>
+        <v>83.40812257489047</v>
+      </c>
+      <c r="N48">
+        <f>IF('cantidad pollos muertos'!I47="","",GAMMAINV(0.025,'cantidad pollos muertos'!I47+(1/2),1))</f>
+        <v>101.76928066438617</v>
+      </c>
+      <c r="O48">
+        <f>IF('cantidad pollos muertos'!I47="","",GAMMAINV(0.975,'cantidad pollos muertos'!I47+(1/2),1))</f>
+        <v>145.12391013196</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>3</v>
+      </c>
+      <c r="B49">
+        <f>IF('cantidad pollos muertos'!C48="","",GAMMAINV(0.025,'cantidad pollos muertos'!C48+(1/2),1))</f>
+        <v>80.01166316279793</v>
+      </c>
+      <c r="C49">
+        <f>IF('cantidad pollos muertos'!C48="","",GAMMAINV(0.975,'cantidad pollos muertos'!C48+(1/2),1))</f>
+        <v>118.88125495026803</v>
+      </c>
+      <c r="D49">
+        <f>IF('cantidad pollos muertos'!D48="","",GAMMAINV(0.025,'cantidad pollos muertos'!D48+(1/2),1))</f>
+        <v>37.5417353745407</v>
+      </c>
+      <c r="E49">
+        <f>IF('cantidad pollos muertos'!D48="","",GAMMAINV(0.975,'cantidad pollos muertos'!D48+(1/2),1))</f>
+        <v>65.349854312032974</v>
+      </c>
+      <c r="F49">
+        <f>IF('cantidad pollos muertos'!E48="","",GAMMAINV(0.025,'cantidad pollos muertos'!E48+(1/2),1))</f>
+        <v>88.141732680851817</v>
+      </c>
+      <c r="G49">
+        <f>IF('cantidad pollos muertos'!E48="","",GAMMAINV(0.975,'cantidad pollos muertos'!E48+(1/2),1))</f>
+        <v>128.75130200416774</v>
+      </c>
+      <c r="H49">
+        <f>IF('cantidad pollos muertos'!F48="","",GAMMAINV(0.025,'cantidad pollos muertos'!F48+(1/2),1))</f>
+        <v>48.849242700029897</v>
+      </c>
+      <c r="I49">
+        <f>IF('cantidad pollos muertos'!F48="","",GAMMAINV(0.975,'cantidad pollos muertos'!F48+(1/2),1))</f>
+        <v>80.042906187400447</v>
+      </c>
+      <c r="J49">
+        <f>IF('cantidad pollos muertos'!G48="","",GAMMAINV(0.025,'cantidad pollos muertos'!G48+(1/2),1))</f>
+        <v>51.484124143889233</v>
+      </c>
+      <c r="K49">
+        <f>IF('cantidad pollos muertos'!G48="","",GAMMAINV(0.975,'cantidad pollos muertos'!G48+(1/2),1))</f>
+        <v>83.40812257489047</v>
+      </c>
+      <c r="L49">
+        <f>IF('cantidad pollos muertos'!H48="","",GAMMAINV(0.025,'cantidad pollos muertos'!H48+(1/2),1))</f>
+        <v>40.999841622666459</v>
+      </c>
+      <c r="M49">
+        <f>IF('cantidad pollos muertos'!H48="","",GAMMAINV(0.975,'cantidad pollos muertos'!H48+(1/2),1))</f>
+        <v>69.891948725310272</v>
+      </c>
+      <c r="N49">
+        <f>IF('cantidad pollos muertos'!I48="","",GAMMAINV(0.025,'cantidad pollos muertos'!I48+(1/2),1))</f>
+        <v>66.555282724745524</v>
+      </c>
+      <c r="O49">
+        <f>IF('cantidad pollos muertos'!I48="","",GAMMAINV(0.975,'cantidad pollos muertos'!I48+(1/2),1))</f>
+        <v>102.33738501995983</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>17</v>
+      </c>
+      <c r="B50">
+        <f>IF('cantidad pollos muertos'!C49="","",GAMMAINV(0.025,'cantidad pollos muertos'!C49+(1/2),1))</f>
+        <v>44.47754524508602</v>
+      </c>
+      <c r="C50">
+        <f>IF('cantidad pollos muertos'!C49="","",GAMMAINV(0.975,'cantidad pollos muertos'!C49+(1/2),1))</f>
+        <v>74.414418156443148</v>
+      </c>
+      <c r="D50">
+        <f>IF('cantidad pollos muertos'!D49="","",GAMMAINV(0.025,'cantidad pollos muertos'!D49+(1/2),1))</f>
+        <v>27.311679260779517</v>
+      </c>
+      <c r="E50">
+        <f>IF('cantidad pollos muertos'!D49="","",GAMMAINV(0.975,'cantidad pollos muertos'!D49+(1/2),1))</f>
+        <v>51.579055950673293</v>
+      </c>
+      <c r="F50">
+        <f>IF('cantidad pollos muertos'!E49="","",GAMMAINV(0.025,'cantidad pollos muertos'!E49+(1/2),1))</f>
+        <v>101.76928066438617</v>
+      </c>
+      <c r="G50">
+        <f>IF('cantidad pollos muertos'!E49="","",GAMMAINV(0.975,'cantidad pollos muertos'!E49+(1/2),1))</f>
+        <v>145.12391013196</v>
+      </c>
+      <c r="H50">
+        <f>IF('cantidad pollos muertos'!F49="","",GAMMAINV(0.025,'cantidad pollos muertos'!F49+(1/2),1))</f>
+        <v>35.820758132639803</v>
+      </c>
+      <c r="I50">
+        <f>IF('cantidad pollos muertos'!F49="","",GAMMAINV(0.975,'cantidad pollos muertos'!F49+(1/2),1))</f>
+        <v>63.070718720047985</v>
+      </c>
+      <c r="J50">
+        <f>IF('cantidad pollos muertos'!G49="","",GAMMAINV(0.025,'cantidad pollos muertos'!G49+(1/2),1))</f>
+        <v>117.31204422916028</v>
+      </c>
+      <c r="K50">
+        <f>IF('cantidad pollos muertos'!G49="","",GAMMAINV(0.975,'cantidad pollos muertos'!G49+(1/2),1))</f>
+        <v>163.58128280422588</v>
+      </c>
+      <c r="L50">
+        <f>IF('cantidad pollos muertos'!H49="","",GAMMAINV(0.025,'cantidad pollos muertos'!H49+(1/2),1))</f>
+        <v>80.91309119682343</v>
+      </c>
+      <c r="M50">
+        <f>IF('cantidad pollos muertos'!H49="","",GAMMAINV(0.975,'cantidad pollos muertos'!H49+(1/2),1))</f>
+        <v>119.9798409138221</v>
+      </c>
+      <c r="N50">
+        <f>IF('cantidad pollos muertos'!I49="","",GAMMAINV(0.025,'cantidad pollos muertos'!I49+(1/2),1))</f>
+        <v>24.796078627840313</v>
+      </c>
+      <c r="O50">
+        <f>IF('cantidad pollos muertos'!I49="","",GAMMAINV(0.975,'cantidad pollos muertos'!I49+(1/2),1))</f>
+        <v>48.094351798666601</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="28">
     <mergeCell ref="AX1:AY1"/>
     <mergeCell ref="AZ1:BA1"/>
     <mergeCell ref="BB1:BC1"/>
@@ -27238,3274 +30501,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BE50"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="23.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="B1" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="S1" s="16"/>
-      <c r="T1" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="U1" s="16"/>
-      <c r="V1" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="W1" s="16"/>
-      <c r="X1" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y1" s="16"/>
-      <c r="Z1" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="AA1" s="16"/>
-      <c r="AB1" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="AC1" s="16"/>
-      <c r="AD1" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="AE1" s="16"/>
-      <c r="AF1" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="AG1" s="16"/>
-      <c r="AH1" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="AI1" s="16"/>
-      <c r="AJ1" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="AK1" s="16"/>
-      <c r="AL1" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="AM1" s="16"/>
-      <c r="AN1" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO1" s="16"/>
-      <c r="AP1" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="AQ1" s="16"/>
-      <c r="AR1" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="AS1" s="16"/>
-      <c r="AT1" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="AU1" s="16"/>
-      <c r="AV1" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="AW1" s="16"/>
-      <c r="AX1" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="AY1" s="16"/>
-      <c r="AZ1" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="BA1" s="16"/>
-      <c r="BB1" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="BC1" s="16"/>
-      <c r="BD1" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="BE1" s="16"/>
-    </row>
-    <row r="2" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E2" t="s">
-        <v>79</v>
-      </c>
-      <c r="F2" t="s">
-        <v>78</v>
-      </c>
-      <c r="G2" t="s">
-        <v>79</v>
-      </c>
-      <c r="H2" t="s">
-        <v>78</v>
-      </c>
-      <c r="I2" t="s">
-        <v>79</v>
-      </c>
-      <c r="J2" t="s">
-        <v>78</v>
-      </c>
-      <c r="K2" t="s">
-        <v>79</v>
-      </c>
-      <c r="L2" t="s">
-        <v>78</v>
-      </c>
-      <c r="M2" t="s">
-        <v>79</v>
-      </c>
-      <c r="N2" t="s">
-        <v>78</v>
-      </c>
-      <c r="O2" t="s">
-        <v>79</v>
-      </c>
-      <c r="P2" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>79</v>
-      </c>
-      <c r="R2" t="s">
-        <v>78</v>
-      </c>
-      <c r="S2" t="s">
-        <v>79</v>
-      </c>
-      <c r="T2" t="s">
-        <v>78</v>
-      </c>
-      <c r="U2" t="s">
-        <v>79</v>
-      </c>
-      <c r="V2" t="s">
-        <v>78</v>
-      </c>
-      <c r="W2" t="s">
-        <v>79</v>
-      </c>
-      <c r="X2" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AR2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AS2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AT2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AU2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AV2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AW2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AX2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AY2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AZ2" t="s">
-        <v>78</v>
-      </c>
-      <c r="BA2" t="s">
-        <v>79</v>
-      </c>
-      <c r="BB2" t="s">
-        <v>78</v>
-      </c>
-      <c r="BC2" t="s">
-        <v>79</v>
-      </c>
-      <c r="BD2" t="s">
-        <v>78</v>
-      </c>
-      <c r="BE2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="3" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3">
-        <f>IF('cantidad pollos muertos'!C2="","",GAMMAINV(0.025,'cantidad pollos muertos'!C2+(1/2),1))</f>
-        <v>81.81501408848392</v>
-      </c>
-      <c r="C3">
-        <f>IF('cantidad pollos muertos'!C2="","",GAMMAINV(0.975,'cantidad pollos muertos'!C2+(1/2),1))</f>
-        <v>121.07793174019264</v>
-      </c>
-      <c r="D3">
-        <f>IF('cantidad pollos muertos'!D2="","",GAMMAINV(0.025,'cantidad pollos muertos'!D2+(1/2),1))</f>
-        <v>113.64654356442688</v>
-      </c>
-      <c r="E3">
-        <f>IF('cantidad pollos muertos'!D2="","",GAMMAINV(0.975,'cantidad pollos muertos'!D2+(1/2),1))</f>
-        <v>159.24675449675792</v>
-      </c>
-      <c r="F3">
-        <f>IF('cantidad pollos muertos'!E2="","",GAMMAINV(0.025,'cantidad pollos muertos'!E2+(1/2),1))</f>
-        <v>157.90936386034264</v>
-      </c>
-      <c r="G3">
-        <f>IF('cantidad pollos muertos'!E2="","",GAMMAINV(0.975,'cantidad pollos muertos'!E2+(1/2),1))</f>
-        <v>210.98419834076878</v>
-      </c>
-      <c r="H3">
-        <f>IF('cantidad pollos muertos'!F2="","",GAMMAINV(0.025,'cantidad pollos muertos'!F2+(1/2),1))</f>
-        <v>488.22642066888108</v>
-      </c>
-      <c r="I3">
-        <f>IF('cantidad pollos muertos'!F2="","",GAMMAINV(0.975,'cantidad pollos muertos'!F2+(1/2),1))</f>
-        <v>578.66762926654928</v>
-      </c>
-      <c r="J3">
-        <f>IF('cantidad pollos muertos'!G2="","",GAMMAINV(0.025,'cantidad pollos muertos'!G2+(1/2),1))</f>
-        <v>188.61972359104468</v>
-      </c>
-      <c r="K3">
-        <f>IF('cantidad pollos muertos'!G2="","",GAMMAINV(0.975,'cantidad pollos muertos'!G2+(1/2),1))</f>
-        <v>246.27395215279662</v>
-      </c>
-      <c r="L3">
-        <f>IF('cantidad pollos muertos'!H2="","",GAMMAINV(0.025,'cantidad pollos muertos'!H2+(1/2),1))</f>
-        <v>41.867513849812639</v>
-      </c>
-      <c r="M3">
-        <f>IF('cantidad pollos muertos'!H2="","",GAMMAINV(0.975,'cantidad pollos muertos'!H2+(1/2),1))</f>
-        <v>71.024322115123894</v>
-      </c>
-      <c r="N3">
-        <f>IF('cantidad pollos muertos'!I2="","",GAMMAINV(0.025,'cantidad pollos muertos'!I2+(1/2),1))</f>
-        <v>56.777856776887383</v>
-      </c>
-      <c r="O3">
-        <f>IF('cantidad pollos muertos'!I2="","",GAMMAINV(0.975,'cantidad pollos muertos'!I2+(1/2),1))</f>
-        <v>90.114561196020517</v>
-      </c>
-    </row>
-    <row r="4" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4">
-        <f>IF('cantidad pollos muertos'!C3="","",GAMMAINV(0.025,'cantidad pollos muertos'!C3+(1/2),1))</f>
-        <v>516.96965233938352</v>
-      </c>
-      <c r="C4">
-        <f>IF('cantidad pollos muertos'!C3="","",GAMMAINV(0.975,'cantidad pollos muertos'!C3+(1/2),1))</f>
-        <v>609.92441125514006</v>
-      </c>
-      <c r="D4">
-        <f>IF('cantidad pollos muertos'!D3="","",GAMMAINV(0.025,'cantidad pollos muertos'!D3+(1/2),1))</f>
-        <v>2714.4152288149658</v>
-      </c>
-      <c r="E4">
-        <f>IF('cantidad pollos muertos'!D3="","",GAMMAINV(0.975,'cantidad pollos muertos'!D3+(1/2),1))</f>
-        <v>2922.4790287189476</v>
-      </c>
-      <c r="F4">
-        <f>IF('cantidad pollos muertos'!E3="","",GAMMAINV(0.025,'cantidad pollos muertos'!E3+(1/2),1))</f>
-        <v>3188.8502371014001</v>
-      </c>
-      <c r="G4">
-        <f>IF('cantidad pollos muertos'!E3="","",GAMMAINV(0.975,'cantidad pollos muertos'!E3+(1/2),1))</f>
-        <v>3414.0440275083861</v>
-      </c>
-      <c r="H4">
-        <f>IF('cantidad pollos muertos'!F3="","",GAMMAINV(0.025,'cantidad pollos muertos'!F3+(1/2),1))</f>
-        <v>1015.0860812957022</v>
-      </c>
-      <c r="I4">
-        <f>IF('cantidad pollos muertos'!F3="","",GAMMAINV(0.975,'cantidad pollos muertos'!F3+(1/2),1))</f>
-        <v>1143.8080982571503</v>
-      </c>
-      <c r="J4">
-        <f>IF('cantidad pollos muertos'!G3="","",GAMMAINV(0.025,'cantidad pollos muertos'!G3+(1/2),1))</f>
-        <v>474.82502426625246</v>
-      </c>
-      <c r="K4">
-        <f>IF('cantidad pollos muertos'!G3="","",GAMMAINV(0.975,'cantidad pollos muertos'!G3+(1/2),1))</f>
-        <v>564.06901875364156</v>
-      </c>
-      <c r="L4">
-        <f>IF('cantidad pollos muertos'!H3="","",GAMMAINV(0.025,'cantidad pollos muertos'!H3+(1/2),1))</f>
-        <v>319.5015285063526</v>
-      </c>
-      <c r="M4">
-        <f>IF('cantidad pollos muertos'!H3="","",GAMMAINV(0.975,'cantidad pollos muertos'!H3+(1/2),1))</f>
-        <v>393.39239386812818</v>
-      </c>
-      <c r="N4">
-        <f>IF('cantidad pollos muertos'!I3="","",GAMMAINV(0.025,'cantidad pollos muertos'!I3+(1/2),1))</f>
-        <v>341.32455791271349</v>
-      </c>
-      <c r="O4">
-        <f>IF('cantidad pollos muertos'!I3="","",GAMMAINV(0.975,'cantidad pollos muertos'!I3+(1/2),1))</f>
-        <v>417.56938778801128</v>
-      </c>
-    </row>
-    <row r="5" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>74</v>
-      </c>
-      <c r="B5" t="str">
-        <f>IF('cantidad pollos muertos'!C4="","",GAMMAINV(0.025,'cantidad pollos muertos'!C4+(1/2),1))</f>
-        <v/>
-      </c>
-      <c r="C5" t="str">
-        <f>IF('cantidad pollos muertos'!C4="","",GAMMAINV(0.975,'cantidad pollos muertos'!C4+(1/2),1))</f>
-        <v/>
-      </c>
-      <c r="D5" t="str">
-        <f>IF('cantidad pollos muertos'!D4="","",GAMMAINV(0.025,'cantidad pollos muertos'!D4+(1/2),1))</f>
-        <v/>
-      </c>
-      <c r="E5" t="str">
-        <f>IF('cantidad pollos muertos'!D4="","",GAMMAINV(0.975,'cantidad pollos muertos'!D4+(1/2),1))</f>
-        <v/>
-      </c>
-      <c r="F5" t="str">
-        <f>IF('cantidad pollos muertos'!E4="","",GAMMAINV(0.025,'cantidad pollos muertos'!E4+(1/2),1))</f>
-        <v/>
-      </c>
-      <c r="G5" t="str">
-        <f>IF('cantidad pollos muertos'!E4="","",GAMMAINV(0.975,'cantidad pollos muertos'!E4+(1/2),1))</f>
-        <v/>
-      </c>
-      <c r="H5" t="str">
-        <f>IF('cantidad pollos muertos'!F4="","",GAMMAINV(0.025,'cantidad pollos muertos'!F4+(1/2),1))</f>
-        <v/>
-      </c>
-      <c r="I5" t="str">
-        <f>IF('cantidad pollos muertos'!F4="","",GAMMAINV(0.975,'cantidad pollos muertos'!F4+(1/2),1))</f>
-        <v/>
-      </c>
-      <c r="J5" t="str">
-        <f>IF('cantidad pollos muertos'!G4="","",GAMMAINV(0.025,'cantidad pollos muertos'!G4+(1/2),1))</f>
-        <v/>
-      </c>
-      <c r="K5" t="str">
-        <f>IF('cantidad pollos muertos'!G4="","",GAMMAINV(0.975,'cantidad pollos muertos'!G4+(1/2),1))</f>
-        <v/>
-      </c>
-      <c r="L5" t="str">
-        <f>IF('cantidad pollos muertos'!H4="","",GAMMAINV(0.025,'cantidad pollos muertos'!H4+(1/2),1))</f>
-        <v/>
-      </c>
-      <c r="M5" t="str">
-        <f>IF('cantidad pollos muertos'!H4="","",GAMMAINV(0.975,'cantidad pollos muertos'!H4+(1/2),1))</f>
-        <v/>
-      </c>
-      <c r="N5" t="str">
-        <f>IF('cantidad pollos muertos'!I4="","",GAMMAINV(0.025,'cantidad pollos muertos'!I4+(1/2),1))</f>
-        <v/>
-      </c>
-      <c r="O5" t="str">
-        <f>IF('cantidad pollos muertos'!I4="","",GAMMAINV(0.975,'cantidad pollos muertos'!I4+(1/2),1))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6">
-        <f>IF('cantidad pollos muertos'!C5="","",GAMMAINV(0.025,'cantidad pollos muertos'!C5+(1/2),1))</f>
-        <v>62.100315262370202</v>
-      </c>
-      <c r="C6">
-        <f>IF('cantidad pollos muertos'!C5="","",GAMMAINV(0.975,'cantidad pollos muertos'!C5+(1/2),1))</f>
-        <v>96.792247666792676</v>
-      </c>
-      <c r="D6">
-        <f>IF('cantidad pollos muertos'!D5="","",GAMMAINV(0.025,'cantidad pollos muertos'!D5+(1/2),1))</f>
-        <v>80.91309119682343</v>
-      </c>
-      <c r="E6">
-        <f>IF('cantidad pollos muertos'!D5="","",GAMMAINV(0.975,'cantidad pollos muertos'!D5+(1/2),1))</f>
-        <v>119.9798409138221</v>
-      </c>
-      <c r="F6">
-        <f>IF('cantidad pollos muertos'!E5="","",GAMMAINV(0.025,'cantidad pollos muertos'!E5+(1/2),1))</f>
-        <v>88.141732680851817</v>
-      </c>
-      <c r="G6">
-        <f>IF('cantidad pollos muertos'!E5="","",GAMMAINV(0.975,'cantidad pollos muertos'!E5+(1/2),1))</f>
-        <v>128.75130200416774</v>
-      </c>
-      <c r="H6">
-        <f>IF('cantidad pollos muertos'!F5="","",GAMMAINV(0.025,'cantidad pollos muertos'!F5+(1/2),1))</f>
-        <v>70.13092837414608</v>
-      </c>
-      <c r="I6">
-        <f>IF('cantidad pollos muertos'!F5="","",GAMMAINV(0.975,'cantidad pollos muertos'!F5+(1/2),1))</f>
-        <v>106.76181456300202</v>
-      </c>
-      <c r="J6">
-        <f>IF('cantidad pollos muertos'!G5="","",GAMMAINV(0.025,'cantidad pollos muertos'!G5+(1/2),1))</f>
-        <v>66.555282724745524</v>
-      </c>
-      <c r="K6">
-        <f>IF('cantidad pollos muertos'!G5="","",GAMMAINV(0.975,'cantidad pollos muertos'!G5+(1/2),1))</f>
-        <v>102.33738501995983</v>
-      </c>
-      <c r="L6">
-        <f>IF('cantidad pollos muertos'!H5="","",GAMMAINV(0.025,'cantidad pollos muertos'!H5+(1/2),1))</f>
-        <v>38.404302086786373</v>
-      </c>
-      <c r="M6">
-        <f>IF('cantidad pollos muertos'!H5="","",GAMMAINV(0.975,'cantidad pollos muertos'!H5+(1/2),1))</f>
-        <v>66.487340707595948</v>
-      </c>
-      <c r="N6">
-        <f>IF('cantidad pollos muertos'!I5="","",GAMMAINV(0.025,'cantidad pollos muertos'!I5+(1/2),1))</f>
-        <v>21.47513743774951</v>
-      </c>
-      <c r="O6">
-        <f>IF('cantidad pollos muertos'!I5="","",GAMMAINV(0.975,'cantidad pollos muertos'!I5+(1/2),1))</f>
-        <v>43.414795283643059</v>
-      </c>
-    </row>
-    <row r="7" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7">
-        <f>IF('cantidad pollos muertos'!C6="","",GAMMAINV(0.025,'cantidad pollos muertos'!C6+(1/2),1))</f>
-        <v>44.47754524508602</v>
-      </c>
-      <c r="C7">
-        <f>IF('cantidad pollos muertos'!C6="","",GAMMAINV(0.975,'cantidad pollos muertos'!C6+(1/2),1))</f>
-        <v>74.414418156443148</v>
-      </c>
-      <c r="D7">
-        <f>IF('cantidad pollos muertos'!D6="","",GAMMAINV(0.025,'cantidad pollos muertos'!D6+(1/2),1))</f>
-        <v>75.512217647445581</v>
-      </c>
-      <c r="E7">
-        <f>IF('cantidad pollos muertos'!D6="","",GAMMAINV(0.975,'cantidad pollos muertos'!D6+(1/2),1))</f>
-        <v>113.38062596936612</v>
-      </c>
-      <c r="F7">
-        <f>IF('cantidad pollos muertos'!E6="","",GAMMAINV(0.025,'cantidad pollos muertos'!E6+(1/2),1))</f>
-        <v>132.94130350503522</v>
-      </c>
-      <c r="G7">
-        <f>IF('cantidad pollos muertos'!E6="","",GAMMAINV(0.975,'cantidad pollos muertos'!E6+(1/2),1))</f>
-        <v>181.95213009999131</v>
-      </c>
-      <c r="H7">
-        <f>IF('cantidad pollos muertos'!F6="","",GAMMAINV(0.025,'cantidad pollos muertos'!F6+(1/2),1))</f>
-        <v>117.31204422916028</v>
-      </c>
-      <c r="I7">
-        <f>IF('cantidad pollos muertos'!F6="","",GAMMAINV(0.975,'cantidad pollos muertos'!F6+(1/2),1))</f>
-        <v>163.58128280422588</v>
-      </c>
-      <c r="J7">
-        <f>IF('cantidad pollos muertos'!G6="","",GAMMAINV(0.025,'cantidad pollos muertos'!G6+(1/2),1))</f>
-        <v>119.14659511982991</v>
-      </c>
-      <c r="K7">
-        <f>IF('cantidad pollos muertos'!G6="","",GAMMAINV(0.975,'cantidad pollos muertos'!G6+(1/2),1))</f>
-        <v>165.74674578385378</v>
-      </c>
-      <c r="L7">
-        <f>IF('cantidad pollos muertos'!H6="","",GAMMAINV(0.025,'cantidad pollos muertos'!H6+(1/2),1))</f>
-        <v>35.820758132639803</v>
-      </c>
-      <c r="M7">
-        <f>IF('cantidad pollos muertos'!H6="","",GAMMAINV(0.975,'cantidad pollos muertos'!H6+(1/2),1))</f>
-        <v>63.070718720047985</v>
-      </c>
-      <c r="N7">
-        <f>IF('cantidad pollos muertos'!I6="","",GAMMAINV(0.025,'cantidad pollos muertos'!I6+(1/2),1))</f>
-        <v>72.819004490068878</v>
-      </c>
-      <c r="O7">
-        <f>IF('cantidad pollos muertos'!I6="","",GAMMAINV(0.975,'cantidad pollos muertos'!I6+(1/2),1))</f>
-        <v>110.07379046221725</v>
-      </c>
-    </row>
-    <row r="8" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8">
-        <f>IF('cantidad pollos muertos'!C7="","",GAMMAINV(0.025,'cantidad pollos muertos'!C7+(1/2),1))</f>
-        <v>158.83708624586913</v>
-      </c>
-      <c r="C8">
-        <f>IF('cantidad pollos muertos'!C7="","",GAMMAINV(0.975,'cantidad pollos muertos'!C7+(1/2),1))</f>
-        <v>212.05647999384703</v>
-      </c>
-      <c r="D8">
-        <f>IF('cantidad pollos muertos'!D7="","",GAMMAINV(0.025,'cantidad pollos muertos'!D7+(1/2),1))</f>
-        <v>42.736375985688582</v>
-      </c>
-      <c r="E8">
-        <f>IF('cantidad pollos muertos'!D7="","",GAMMAINV(0.975,'cantidad pollos muertos'!D7+(1/2),1))</f>
-        <v>72.155503971269738</v>
-      </c>
-      <c r="F8">
-        <f>IF('cantidad pollos muertos'!E7="","",GAMMAINV(0.025,'cantidad pollos muertos'!E7+(1/2),1))</f>
-        <v>72.819004490068878</v>
-      </c>
-      <c r="G8">
-        <f>IF('cantidad pollos muertos'!E7="","",GAMMAINV(0.975,'cantidad pollos muertos'!E7+(1/2),1))</f>
-        <v>110.07379046221725</v>
-      </c>
-      <c r="H8">
-        <f>IF('cantidad pollos muertos'!F7="","",GAMMAINV(0.025,'cantidad pollos muertos'!F7+(1/2),1))</f>
-        <v>103.59279761759664</v>
-      </c>
-      <c r="I8">
-        <f>IF('cantidad pollos muertos'!F7="","",GAMMAINV(0.975,'cantidad pollos muertos'!F7+(1/2),1))</f>
-        <v>147.3004111432507</v>
-      </c>
-      <c r="J8">
-        <f>IF('cantidad pollos muertos'!G7="","",GAMMAINV(0.025,'cantidad pollos muertos'!G7+(1/2),1))</f>
-        <v>57.663034081546456</v>
-      </c>
-      <c r="K8">
-        <f>IF('cantidad pollos muertos'!G7="","",GAMMAINV(0.975,'cantidad pollos muertos'!G7+(1/2),1))</f>
-        <v>91.229409702209395</v>
-      </c>
-      <c r="L8">
-        <f>IF('cantidad pollos muertos'!H7="","",GAMMAINV(0.025,'cantidad pollos muertos'!H7+(1/2),1))</f>
-        <v>21.47513743774951</v>
-      </c>
-      <c r="M8">
-        <f>IF('cantidad pollos muertos'!H7="","",GAMMAINV(0.975,'cantidad pollos muertos'!H7+(1/2),1))</f>
-        <v>43.414795283643059</v>
-      </c>
-      <c r="N8">
-        <f>IF('cantidad pollos muertos'!I7="","",GAMMAINV(0.025,'cantidad pollos muertos'!I7+(1/2),1))</f>
-        <v>21.47513743774951</v>
-      </c>
-      <c r="O8">
-        <f>IF('cantidad pollos muertos'!I7="","",GAMMAINV(0.975,'cantidad pollos muertos'!I7+(1/2),1))</f>
-        <v>43.414795283643059</v>
-      </c>
-    </row>
-    <row r="9" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9">
-        <f>IF('cantidad pollos muertos'!C8="","",GAMMAINV(0.025,'cantidad pollos muertos'!C8+(1/2),1))</f>
-        <v>102.68086028845509</v>
-      </c>
-      <c r="C9">
-        <f>IF('cantidad pollos muertos'!C8="","",GAMMAINV(0.975,'cantidad pollos muertos'!C8+(1/2),1))</f>
-        <v>146.21233956308285</v>
-      </c>
-      <c r="D9">
-        <f>IF('cantidad pollos muertos'!D8="","",GAMMAINV(0.025,'cantidad pollos muertos'!D8+(1/2),1))</f>
-        <v>100.85806313977369</v>
-      </c>
-      <c r="E9">
-        <f>IF('cantidad pollos muertos'!D8="","",GAMMAINV(0.975,'cantidad pollos muertos'!D8+(1/2),1))</f>
-        <v>144.03511845188567</v>
-      </c>
-      <c r="F9">
-        <f>IF('cantidad pollos muertos'!E8="","",GAMMAINV(0.025,'cantidad pollos muertos'!E8+(1/2),1))</f>
-        <v>81.81501408848392</v>
-      </c>
-      <c r="G9">
-        <f>IF('cantidad pollos muertos'!E8="","",GAMMAINV(0.975,'cantidad pollos muertos'!E8+(1/2),1))</f>
-        <v>121.07793174019264</v>
-      </c>
-      <c r="H9">
-        <f>IF('cantidad pollos muertos'!F8="","",GAMMAINV(0.025,'cantidad pollos muertos'!F8+(1/2),1))</f>
-        <v>110.90067430604017</v>
-      </c>
-      <c r="I9">
-        <f>IF('cantidad pollos muertos'!F8="","",GAMMAINV(0.975,'cantidad pollos muertos'!F8+(1/2),1))</f>
-        <v>155.99260087494179</v>
-      </c>
-      <c r="J9">
-        <f>IF('cantidad pollos muertos'!G8="","",GAMMAINV(0.025,'cantidad pollos muertos'!G8+(1/2),1))</f>
-        <v>60.323184053048578</v>
-      </c>
-      <c r="K9">
-        <f>IF('cantidad pollos muertos'!G8="","",GAMMAINV(0.975,'cantidad pollos muertos'!G8+(1/2),1))</f>
-        <v>94.569333095614553</v>
-      </c>
-      <c r="L9">
-        <f>IF('cantidad pollos muertos'!H8="","",GAMMAINV(0.025,'cantidad pollos muertos'!H8+(1/2),1))</f>
-        <v>69.236090053698319</v>
-      </c>
-      <c r="M9">
-        <f>IF('cantidad pollos muertos'!H8="","",GAMMAINV(0.975,'cantidad pollos muertos'!H8+(1/2),1))</f>
-        <v>105.65663473998677</v>
-      </c>
-      <c r="N9">
-        <f>IF('cantidad pollos muertos'!I8="","",GAMMAINV(0.025,'cantidad pollos muertos'!I8+(1/2),1))</f>
-        <v>43.606396503709874</v>
-      </c>
-      <c r="O9">
-        <f>IF('cantidad pollos muertos'!I8="","",GAMMAINV(0.975,'cantidad pollos muertos'!I8+(1/2),1))</f>
-        <v>73.285525905634486</v>
-      </c>
-    </row>
-    <row r="10" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <f>IF('cantidad pollos muertos'!C9="","",GAMMAINV(0.025,'cantidad pollos muertos'!C9+(1/2),1))</f>
-        <v>115.47868500239804</v>
-      </c>
-      <c r="C10">
-        <f>IF('cantidad pollos muertos'!C9="","",GAMMAINV(0.975,'cantidad pollos muertos'!C9+(1/2),1))</f>
-        <v>161.41462775614207</v>
-      </c>
-      <c r="D10">
-        <f>IF('cantidad pollos muertos'!D9="","",GAMMAINV(0.025,'cantidad pollos muertos'!D9+(1/2),1))</f>
-        <v>62.100315262370202</v>
-      </c>
-      <c r="E10">
-        <f>IF('cantidad pollos muertos'!D9="","",GAMMAINV(0.975,'cantidad pollos muertos'!D9+(1/2),1))</f>
-        <v>96.792247666792676</v>
-      </c>
-      <c r="F10">
-        <f>IF('cantidad pollos muertos'!E9="","",GAMMAINV(0.025,'cantidad pollos muertos'!E9+(1/2),1))</f>
-        <v>80.01166316279793</v>
-      </c>
-      <c r="G10">
-        <f>IF('cantidad pollos muertos'!E9="","",GAMMAINV(0.975,'cantidad pollos muertos'!E9+(1/2),1))</f>
-        <v>118.88125495026803</v>
-      </c>
-      <c r="H10">
-        <f>IF('cantidad pollos muertos'!F9="","",GAMMAINV(0.025,'cantidad pollos muertos'!F9+(1/2),1))</f>
-        <v>140.32211069619123</v>
-      </c>
-      <c r="I10">
-        <f>IF('cantidad pollos muertos'!F9="","",GAMMAINV(0.975,'cantidad pollos muertos'!F9+(1/2),1))</f>
-        <v>190.57136542184699</v>
-      </c>
-      <c r="J10">
-        <f>IF('cantidad pollos muertos'!G9="","",GAMMAINV(0.025,'cantidad pollos muertos'!G9+(1/2),1))</f>
-        <v>60.323184053048578</v>
-      </c>
-      <c r="K10">
-        <f>IF('cantidad pollos muertos'!G9="","",GAMMAINV(0.975,'cantidad pollos muertos'!G9+(1/2),1))</f>
-        <v>94.569333095614553</v>
-      </c>
-      <c r="L10">
-        <f>IF('cantidad pollos muertos'!H9="","",GAMMAINV(0.025,'cantidad pollos muertos'!H9+(1/2),1))</f>
-        <v>11.827162278796511</v>
-      </c>
-      <c r="M10">
-        <f>IF('cantidad pollos muertos'!H9="","",GAMMAINV(0.975,'cantidad pollos muertos'!H9+(1/2),1))</f>
-        <v>29.060029867343136</v>
-      </c>
-      <c r="N10">
-        <f>IF('cantidad pollos muertos'!I9="","",GAMMAINV(0.025,'cantidad pollos muertos'!I9+(1/2),1))</f>
-        <v>59.435713143054343</v>
-      </c>
-      <c r="O10">
-        <f>IF('cantidad pollos muertos'!I9="","",GAMMAINV(0.975,'cantidad pollos muertos'!I9+(1/2),1))</f>
-        <v>93.456780201514249</v>
-      </c>
-    </row>
-    <row r="11" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11">
-        <f>IF('cantidad pollos muertos'!C10="","",GAMMAINV(0.025,'cantidad pollos muertos'!C10+(1/2),1))</f>
-        <v>131.09856179092077</v>
-      </c>
-      <c r="C11">
-        <f>IF('cantidad pollos muertos'!C10="","",GAMMAINV(0.975,'cantidad pollos muertos'!C10+(1/2),1))</f>
-        <v>179.79486049634806</v>
-      </c>
-      <c r="D11">
-        <f>IF('cantidad pollos muertos'!D10="","",GAMMAINV(0.025,'cantidad pollos muertos'!D10+(1/2),1))</f>
-        <v>118.22917231280019</v>
-      </c>
-      <c r="E11">
-        <f>IF('cantidad pollos muertos'!D10="","",GAMMAINV(0.975,'cantidad pollos muertos'!D10+(1/2),1))</f>
-        <v>164.66416170522081</v>
-      </c>
-      <c r="F11">
-        <f>IF('cantidad pollos muertos'!E10="","",GAMMAINV(0.025,'cantidad pollos muertos'!E10+(1/2),1))</f>
-        <v>78.210322127740184</v>
-      </c>
-      <c r="G11">
-        <f>IF('cantidad pollos muertos'!E10="","",GAMMAINV(0.975,'cantidad pollos muertos'!E10+(1/2),1))</f>
-        <v>116.68256711663008</v>
-      </c>
-      <c r="H11">
-        <f>IF('cantidad pollos muertos'!F10="","",GAMMAINV(0.025,'cantidad pollos muertos'!F10+(1/2),1))</f>
-        <v>356.52678175263407</v>
-      </c>
-      <c r="I11">
-        <f>IF('cantidad pollos muertos'!F10="","",GAMMAINV(0.975,'cantidad pollos muertos'!F10+(1/2),1))</f>
-        <v>434.3671785694022</v>
-      </c>
-      <c r="J11">
-        <f>IF('cantidad pollos muertos'!G10="","",GAMMAINV(0.025,'cantidad pollos muertos'!G10+(1/2),1))</f>
-        <v>67.448256305265616</v>
-      </c>
-      <c r="K11">
-        <f>IF('cantidad pollos muertos'!G10="","",GAMMAINV(0.975,'cantidad pollos muertos'!G10+(1/2),1))</f>
-        <v>103.44443090775799</v>
-      </c>
-      <c r="L11">
-        <f>IF('cantidad pollos muertos'!H10="","",GAMMAINV(0.025,'cantidad pollos muertos'!H10+(1/2),1))</f>
-        <v>44.47754524508602</v>
-      </c>
-      <c r="M11">
-        <f>IF('cantidad pollos muertos'!H10="","",GAMMAINV(0.975,'cantidad pollos muertos'!H10+(1/2),1))</f>
-        <v>74.414418156443148</v>
-      </c>
-      <c r="N11">
-        <f>IF('cantidad pollos muertos'!I10="","",GAMMAINV(0.025,'cantidad pollos muertos'!I10+(1/2),1))</f>
-        <v>65.662953118336475</v>
-      </c>
-      <c r="O11">
-        <f>IF('cantidad pollos muertos'!I10="","",GAMMAINV(0.975,'cantidad pollos muertos'!I10+(1/2),1))</f>
-        <v>101.22969468404963</v>
-      </c>
-    </row>
-    <row r="12" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>75</v>
-      </c>
-      <c r="B12">
-        <f>IF('cantidad pollos muertos'!C11="","",GAMMAINV(0.025,'cantidad pollos muertos'!C11+(1/2),1))</f>
-        <v>53.245281263312236</v>
-      </c>
-      <c r="C12">
-        <f>IF('cantidad pollos muertos'!C11="","",GAMMAINV(0.975,'cantidad pollos muertos'!C11+(1/2),1))</f>
-        <v>85.647025890944377</v>
-      </c>
-      <c r="D12">
-        <f>IF('cantidad pollos muertos'!D11="","",GAMMAINV(0.025,'cantidad pollos muertos'!D11+(1/2),1))</f>
-        <v>51.484124143889233</v>
-      </c>
-      <c r="E12">
-        <f>IF('cantidad pollos muertos'!D11="","",GAMMAINV(0.975,'cantidad pollos muertos'!D11+(1/2),1))</f>
-        <v>83.40812257489047</v>
-      </c>
-      <c r="F12">
-        <f>IF('cantidad pollos muertos'!E11="","",GAMMAINV(0.025,'cantidad pollos muertos'!E11+(1/2),1))</f>
-        <v>47.097478066231957</v>
-      </c>
-      <c r="G12">
-        <f>IF('cantidad pollos muertos'!E11="","",GAMMAINV(0.975,'cantidad pollos muertos'!E11+(1/2),1))</f>
-        <v>77.794600267046718</v>
-      </c>
-      <c r="H12">
-        <f>IF('cantidad pollos muertos'!F11="","",GAMMAINV(0.025,'cantidad pollos muertos'!F11+(1/2),1))</f>
-        <v>104.50508834559244</v>
-      </c>
-      <c r="I12">
-        <f>IF('cantidad pollos muertos'!F11="","",GAMMAINV(0.975,'cantidad pollos muertos'!F11+(1/2),1))</f>
-        <v>148.38812918217897</v>
-      </c>
-      <c r="J12">
-        <f>IF('cantidad pollos muertos'!G11="","",GAMMAINV(0.025,'cantidad pollos muertos'!G11+(1/2),1))</f>
-        <v>26.470969885266424</v>
-      </c>
-      <c r="K12">
-        <f>IF('cantidad pollos muertos'!G11="","",GAMMAINV(0.975,'cantidad pollos muertos'!G11+(1/2),1))</f>
-        <v>50.419669200906682</v>
-      </c>
-      <c r="L12">
-        <f>IF('cantidad pollos muertos'!H11="","",GAMMAINV(0.025,'cantidad pollos muertos'!H11+(1/2),1))</f>
-        <v>23.962081311793447</v>
-      </c>
-      <c r="M12">
-        <f>IF('cantidad pollos muertos'!H11="","",GAMMAINV(0.975,'cantidad pollos muertos'!H11+(1/2),1))</f>
-        <v>46.928235619342686</v>
-      </c>
-      <c r="N12">
-        <f>IF('cantidad pollos muertos'!I11="","",GAMMAINV(0.025,'cantidad pollos muertos'!I11+(1/2),1))</f>
-        <v>34.962433543720138</v>
-      </c>
-      <c r="O12">
-        <f>IF('cantidad pollos muertos'!I11="","",GAMMAINV(0.975,'cantidad pollos muertos'!I11+(1/2),1))</f>
-        <v>61.928983302147522</v>
-      </c>
-    </row>
-    <row r="13" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>72</v>
-      </c>
-      <c r="B13" t="str">
-        <f>IF('cantidad pollos muertos'!C12="","",GAMMAINV(0.025,'cantidad pollos muertos'!C12+(1/2),1))</f>
-        <v/>
-      </c>
-      <c r="C13" t="str">
-        <f>IF('cantidad pollos muertos'!C12="","",GAMMAINV(0.975,'cantidad pollos muertos'!C12+(1/2),1))</f>
-        <v/>
-      </c>
-      <c r="D13" t="str">
-        <f>IF('cantidad pollos muertos'!D12="","",GAMMAINV(0.025,'cantidad pollos muertos'!D12+(1/2),1))</f>
-        <v/>
-      </c>
-      <c r="E13" t="str">
-        <f>IF('cantidad pollos muertos'!D12="","",GAMMAINV(0.975,'cantidad pollos muertos'!D12+(1/2),1))</f>
-        <v/>
-      </c>
-      <c r="F13" t="str">
-        <f>IF('cantidad pollos muertos'!E12="","",GAMMAINV(0.025,'cantidad pollos muertos'!E12+(1/2),1))</f>
-        <v/>
-      </c>
-      <c r="G13" t="str">
-        <f>IF('cantidad pollos muertos'!E12="","",GAMMAINV(0.975,'cantidad pollos muertos'!E12+(1/2),1))</f>
-        <v/>
-      </c>
-      <c r="H13" t="str">
-        <f>IF('cantidad pollos muertos'!F12="","",GAMMAINV(0.025,'cantidad pollos muertos'!F12+(1/2),1))</f>
-        <v/>
-      </c>
-      <c r="I13" t="str">
-        <f>IF('cantidad pollos muertos'!F12="","",GAMMAINV(0.975,'cantidad pollos muertos'!F12+(1/2),1))</f>
-        <v/>
-      </c>
-      <c r="J13" t="str">
-        <f>IF('cantidad pollos muertos'!G12="","",GAMMAINV(0.025,'cantidad pollos muertos'!G12+(1/2),1))</f>
-        <v/>
-      </c>
-      <c r="K13" t="str">
-        <f>IF('cantidad pollos muertos'!G12="","",GAMMAINV(0.975,'cantidad pollos muertos'!G12+(1/2),1))</f>
-        <v/>
-      </c>
-      <c r="L13" t="str">
-        <f>IF('cantidad pollos muertos'!H12="","",GAMMAINV(0.025,'cantidad pollos muertos'!H12+(1/2),1))</f>
-        <v/>
-      </c>
-      <c r="M13" t="str">
-        <f>IF('cantidad pollos muertos'!H12="","",GAMMAINV(0.975,'cantidad pollos muertos'!H12+(1/2),1))</f>
-        <v/>
-      </c>
-      <c r="N13" t="str">
-        <f>IF('cantidad pollos muertos'!I12="","",GAMMAINV(0.025,'cantidad pollos muertos'!I12+(1/2),1))</f>
-        <v/>
-      </c>
-      <c r="O13" t="str">
-        <f>IF('cantidad pollos muertos'!I12="","",GAMMAINV(0.975,'cantidad pollos muertos'!I12+(1/2),1))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14">
-        <f>IF('cantidad pollos muertos'!C13="","",GAMMAINV(0.025,'cantidad pollos muertos'!C13+(1/2),1))</f>
-        <v>90.859922139610205</v>
-      </c>
-      <c r="C14">
-        <f>IF('cantidad pollos muertos'!C13="","",GAMMAINV(0.975,'cantidad pollos muertos'!C13+(1/2),1))</f>
-        <v>132.0331471692906</v>
-      </c>
-      <c r="D14">
-        <f>IF('cantidad pollos muertos'!D13="","",GAMMAINV(0.025,'cantidad pollos muertos'!D13+(1/2),1))</f>
-        <v>365.08513746329737</v>
-      </c>
-      <c r="E14">
-        <f>IF('cantidad pollos muertos'!D13="","",GAMMAINV(0.975,'cantidad pollos muertos'!D13+(1/2),1))</f>
-        <v>443.8088305732029</v>
-      </c>
-      <c r="F14">
-        <f>IF('cantidad pollos muertos'!E13="","",GAMMAINV(0.025,'cantidad pollos muertos'!E13+(1/2),1))</f>
-        <v>183.95480974406874</v>
-      </c>
-      <c r="G14">
-        <f>IF('cantidad pollos muertos'!E13="","",GAMMAINV(0.975,'cantidad pollos muertos'!E13+(1/2),1))</f>
-        <v>240.93885107770447</v>
-      </c>
-      <c r="H14">
-        <f>IF('cantidad pollos muertos'!F13="","",GAMMAINV(0.025,'cantidad pollos muertos'!F13+(1/2),1))</f>
-        <v>869.73007517075735</v>
-      </c>
-      <c r="I14">
-        <f>IF('cantidad pollos muertos'!F13="","",GAMMAINV(0.975,'cantidad pollos muertos'!F13+(1/2),1))</f>
-        <v>989.1640839658844</v>
-      </c>
-      <c r="J14">
-        <f>IF('cantidad pollos muertos'!G13="","",GAMMAINV(0.025,'cantidad pollos muertos'!G13+(1/2),1))</f>
-        <v>188.61972359104468</v>
-      </c>
-      <c r="K14">
-        <f>IF('cantidad pollos muertos'!G13="","",GAMMAINV(0.975,'cantidad pollos muertos'!G13+(1/2),1))</f>
-        <v>246.27395215279662</v>
-      </c>
-      <c r="L14">
-        <f>IF('cantidad pollos muertos'!H13="","",GAMMAINV(0.025,'cantidad pollos muertos'!H13+(1/2),1))</f>
-        <v>89.047363315798918</v>
-      </c>
-      <c r="M14">
-        <f>IF('cantidad pollos muertos'!H13="","",GAMMAINV(0.975,'cantidad pollos muertos'!H13+(1/2),1))</f>
-        <v>129.84568312395754</v>
-      </c>
-      <c r="N14">
-        <f>IF('cantidad pollos muertos'!I13="","",GAMMAINV(0.025,'cantidad pollos muertos'!I13+(1/2),1))</f>
-        <v>75.512217647445581</v>
-      </c>
-      <c r="O14">
-        <f>IF('cantidad pollos muertos'!I13="","",GAMMAINV(0.975,'cantidad pollos muertos'!I13+(1/2),1))</f>
-        <v>113.38062596936612</v>
-      </c>
-    </row>
-    <row r="15" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15">
-        <f>IF('cantidad pollos muertos'!C14="","",GAMMAINV(0.025,'cantidad pollos muertos'!C14+(1/2),1))</f>
-        <v>548.62533919166628</v>
-      </c>
-      <c r="C15">
-        <f>IF('cantidad pollos muertos'!C14="","",GAMMAINV(0.975,'cantidad pollos muertos'!C14+(1/2),1))</f>
-        <v>644.26873783735732</v>
-      </c>
-      <c r="D15">
-        <f>IF('cantidad pollos muertos'!D14="","",GAMMAINV(0.025,'cantidad pollos muertos'!D14+(1/2),1))</f>
-        <v>1929.4378712657417</v>
-      </c>
-      <c r="E15">
-        <f>IF('cantidad pollos muertos'!D14="","",GAMMAINV(0.975,'cantidad pollos muertos'!D14+(1/2),1))</f>
-        <v>2105.4563670604039</v>
-      </c>
-      <c r="F15">
-        <f>IF('cantidad pollos muertos'!E14="","",GAMMAINV(0.025,'cantidad pollos muertos'!E14+(1/2),1))</f>
-        <v>960.77956899582364</v>
-      </c>
-      <c r="G15">
-        <f>IF('cantidad pollos muertos'!E14="","",GAMMAINV(0.975,'cantidad pollos muertos'!E14+(1/2),1))</f>
-        <v>1086.1146036359291</v>
-      </c>
-      <c r="H15">
-        <f>IF('cantidad pollos muertos'!F14="","",GAMMAINV(0.025,'cantidad pollos muertos'!F14+(1/2),1))</f>
-        <v>590.88961410159629</v>
-      </c>
-      <c r="I15">
-        <f>IF('cantidad pollos muertos'!F14="","",GAMMAINV(0.975,'cantidad pollos muertos'!F14+(1/2),1))</f>
-        <v>690.0044786820838</v>
-      </c>
-      <c r="J15">
-        <f>IF('cantidad pollos muertos'!G14="","",GAMMAINV(0.025,'cantidad pollos muertos'!G14+(1/2),1))</f>
-        <v>664.99010981710069</v>
-      </c>
-      <c r="K15">
-        <f>IF('cantidad pollos muertos'!G14="","",GAMMAINV(0.975,'cantidad pollos muertos'!G14+(1/2),1))</f>
-        <v>769.90400587886734</v>
-      </c>
-      <c r="L15">
-        <f>IF('cantidad pollos muertos'!H14="","",GAMMAINV(0.025,'cantidad pollos muertos'!H14+(1/2),1))</f>
-        <v>184.8874780024845</v>
-      </c>
-      <c r="M15">
-        <f>IF('cantidad pollos muertos'!H14="","",GAMMAINV(0.975,'cantidad pollos muertos'!H14+(1/2),1))</f>
-        <v>242.00618585997404</v>
-      </c>
-      <c r="N15">
-        <f>IF('cantidad pollos muertos'!I14="","",GAMMAINV(0.025,'cantidad pollos muertos'!I14+(1/2),1))</f>
-        <v>418.4413310947719</v>
-      </c>
-      <c r="O15">
-        <f>IF('cantidad pollos muertos'!I14="","",GAMMAINV(0.975,'cantidad pollos muertos'!I14+(1/2),1))</f>
-        <v>502.45267814740237</v>
-      </c>
-    </row>
-    <row r="16" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>68</v>
-      </c>
-      <c r="B16" t="str">
-        <f>IF('cantidad pollos muertos'!C15="","",GAMMAINV(0.025,'cantidad pollos muertos'!C15+(1/2),1))</f>
-        <v/>
-      </c>
-      <c r="C16" t="str">
-        <f>IF('cantidad pollos muertos'!C15="","",GAMMAINV(0.975,'cantidad pollos muertos'!C15+(1/2),1))</f>
-        <v/>
-      </c>
-      <c r="D16">
-        <f>IF('cantidad pollos muertos'!D15="","",GAMMAINV(0.025,'cantidad pollos muertos'!D15+(1/2),1))</f>
-        <v>83.620315112988024</v>
-      </c>
-      <c r="E16">
-        <f>IF('cantidad pollos muertos'!D15="","",GAMMAINV(0.975,'cantidad pollos muertos'!D15+(1/2),1))</f>
-        <v>123.27265734594629</v>
-      </c>
-      <c r="F16">
-        <f>IF('cantidad pollos muertos'!E15="","",GAMMAINV(0.025,'cantidad pollos muertos'!E15+(1/2),1))</f>
-        <v>99.036732422663277</v>
-      </c>
-      <c r="G16">
-        <f>IF('cantidad pollos muertos'!E15="","",GAMMAINV(0.975,'cantidad pollos muertos'!E15+(1/2),1))</f>
-        <v>141.85643029608053</v>
-      </c>
-      <c r="H16">
-        <f>IF('cantidad pollos muertos'!F15="","",GAMMAINV(0.025,'cantidad pollos muertos'!F15+(1/2),1))</f>
-        <v>237.34147530468096</v>
-      </c>
-      <c r="I16">
-        <f>IF('cantidad pollos muertos'!F15="","",GAMMAINV(0.975,'cantidad pollos muertos'!F15+(1/2),1))</f>
-        <v>301.5523226395245</v>
-      </c>
-      <c r="J16">
-        <f>IF('cantidad pollos muertos'!G15="","",GAMMAINV(0.025,'cantidad pollos muertos'!G15+(1/2),1))</f>
-        <v>224.19024026146081</v>
-      </c>
-      <c r="K16">
-        <f>IF('cantidad pollos muertos'!G15="","",GAMMAINV(0.975,'cantidad pollos muertos'!G15+(1/2),1))</f>
-        <v>286.70352970194375</v>
-      </c>
-      <c r="L16">
-        <f>IF('cantidad pollos muertos'!H15="","",GAMMAINV(0.025,'cantidad pollos muertos'!H15+(1/2),1))</f>
-        <v>65.662953118336475</v>
-      </c>
-      <c r="M16">
-        <f>IF('cantidad pollos muertos'!H15="","",GAMMAINV(0.975,'cantidad pollos muertos'!H15+(1/2),1))</f>
-        <v>101.22969468404963</v>
-      </c>
-      <c r="N16">
-        <f>IF('cantidad pollos muertos'!I15="","",GAMMAINV(0.025,'cantidad pollos muertos'!I15+(1/2),1))</f>
-        <v>316.65782225114049</v>
-      </c>
-      <c r="O16">
-        <f>IF('cantidad pollos muertos'!I15="","",GAMMAINV(0.975,'cantidad pollos muertos'!I15+(1/2),1))</f>
-        <v>390.23609685614366</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17">
-        <f>IF('cantidad pollos muertos'!C16="","",GAMMAINV(0.025,'cantidad pollos muertos'!C16+(1/2),1))</f>
-        <v>414.62463159782908</v>
-      </c>
-      <c r="C17">
-        <f>IF('cantidad pollos muertos'!C16="","",GAMMAINV(0.975,'cantidad pollos muertos'!C16+(1/2),1))</f>
-        <v>498.26937503735041</v>
-      </c>
-      <c r="D17">
-        <f>IF('cantidad pollos muertos'!D16="","",GAMMAINV(0.025,'cantidad pollos muertos'!D16+(1/2),1))</f>
-        <v>954.96373633968722</v>
-      </c>
-      <c r="E17">
-        <f>IF('cantidad pollos muertos'!D16="","",GAMMAINV(0.975,'cantidad pollos muertos'!D16+(1/2),1))</f>
-        <v>1079.9304355052736</v>
-      </c>
-      <c r="F17">
-        <f>IF('cantidad pollos muertos'!E16="","",GAMMAINV(0.025,'cantidad pollos muertos'!E16+(1/2),1))</f>
-        <v>218.56113580640749</v>
-      </c>
-      <c r="G17">
-        <f>IF('cantidad pollos muertos'!E16="","",GAMMAINV(0.975,'cantidad pollos muertos'!E16+(1/2),1))</f>
-        <v>280.33262119870307</v>
-      </c>
-      <c r="H17">
-        <f>IF('cantidad pollos muertos'!F16="","",GAMMAINV(0.025,'cantidad pollos muertos'!F16+(1/2),1))</f>
-        <v>459.5191297448269</v>
-      </c>
-      <c r="I17">
-        <f>IF('cantidad pollos muertos'!F16="","",GAMMAINV(0.975,'cantidad pollos muertos'!F16+(1/2),1))</f>
-        <v>547.37490489941183</v>
-      </c>
-      <c r="J17">
-        <f>IF('cantidad pollos muertos'!G16="","",GAMMAINV(0.025,'cantidad pollos muertos'!G16+(1/2),1))</f>
-        <v>567.82869082765899</v>
-      </c>
-      <c r="K17">
-        <f>IF('cantidad pollos muertos'!G16="","",GAMMAINV(0.975,'cantidad pollos muertos'!G16+(1/2),1))</f>
-        <v>665.06539364196919</v>
-      </c>
-      <c r="L17">
-        <f>IF('cantidad pollos muertos'!H16="","",GAMMAINV(0.025,'cantidad pollos muertos'!H16+(1/2),1))</f>
-        <v>134.78504789814309</v>
-      </c>
-      <c r="M17">
-        <f>IF('cantidad pollos muertos'!H16="","",GAMMAINV(0.975,'cantidad pollos muertos'!H16+(1/2),1))</f>
-        <v>184.10839673837526</v>
-      </c>
-      <c r="N17">
-        <f>IF('cantidad pollos muertos'!I16="","",GAMMAINV(0.025,'cantidad pollos muertos'!I16+(1/2),1))</f>
-        <v>296.77104480838858</v>
-      </c>
-      <c r="O17">
-        <f>IF('cantidad pollos muertos'!I16="","",GAMMAINV(0.975,'cantidad pollos muertos'!I16+(1/2),1))</f>
-        <v>368.12284977095686</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18">
-        <f>IF('cantidad pollos muertos'!C17="","",GAMMAINV(0.025,'cantidad pollos muertos'!C17+(1/2),1))</f>
-        <v>235.46134851689186</v>
-      </c>
-      <c r="C18">
-        <f>IF('cantidad pollos muertos'!C17="","",GAMMAINV(0.975,'cantidad pollos muertos'!C17+(1/2),1))</f>
-        <v>299.43244561028706</v>
-      </c>
-      <c r="D18">
-        <f>IF('cantidad pollos muertos'!D17="","",GAMMAINV(0.025,'cantidad pollos muertos'!D17+(1/2),1))</f>
-        <v>392.69460594412999</v>
-      </c>
-      <c r="E18">
-        <f>IF('cantidad pollos muertos'!D17="","",GAMMAINV(0.975,'cantidad pollos muertos'!D17+(1/2),1))</f>
-        <v>474.19938476424937</v>
-      </c>
-      <c r="F18">
-        <f>IF('cantidad pollos muertos'!E17="","",GAMMAINV(0.025,'cantidad pollos muertos'!E17+(1/2),1))</f>
-        <v>515.05237774304203</v>
-      </c>
-      <c r="G18">
-        <f>IF('cantidad pollos muertos'!E17="","",GAMMAINV(0.975,'cantidad pollos muertos'!E17+(1/2),1))</f>
-        <v>607.84168498639417</v>
-      </c>
-      <c r="H18">
-        <f>IF('cantidad pollos muertos'!F17="","",GAMMAINV(0.025,'cantidad pollos muertos'!F17+(1/2),1))</f>
-        <v>801.0591213348855</v>
-      </c>
-      <c r="I18">
-        <f>IF('cantidad pollos muertos'!F17="","",GAMMAINV(0.975,'cantidad pollos muertos'!F17+(1/2),1))</f>
-        <v>915.83502564646369</v>
-      </c>
-      <c r="J18">
-        <f>IF('cantidad pollos muertos'!G17="","",GAMMAINV(0.025,'cantidad pollos muertos'!G17+(1/2),1))</f>
-        <v>493.97228832351379</v>
-      </c>
-      <c r="K18">
-        <f>IF('cantidad pollos muertos'!G17="","",GAMMAINV(0.975,'cantidad pollos muertos'!G17+(1/2),1))</f>
-        <v>584.92176446556857</v>
-      </c>
-      <c r="L18">
-        <f>IF('cantidad pollos muertos'!H17="","",GAMMAINV(0.025,'cantidad pollos muertos'!H17+(1/2),1))</f>
-        <v>122.81917195302653</v>
-      </c>
-      <c r="M18">
-        <f>IF('cantidad pollos muertos'!H17="","",GAMMAINV(0.975,'cantidad pollos muertos'!H17+(1/2),1))</f>
-        <v>170.07419554450007</v>
-      </c>
-      <c r="N18">
-        <f>IF('cantidad pollos muertos'!I17="","",GAMMAINV(0.025,'cantidad pollos muertos'!I17+(1/2),1))</f>
-        <v>152.3472322788605</v>
-      </c>
-      <c r="O18">
-        <f>IF('cantidad pollos muertos'!I17="","",GAMMAINV(0.975,'cantidad pollos muertos'!I17+(1/2),1))</f>
-        <v>204.54630473308362</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>73</v>
-      </c>
-      <c r="B19" t="str">
-        <f>IF('cantidad pollos muertos'!C18="","",GAMMAINV(0.025,'cantidad pollos muertos'!C18+(1/2),1))</f>
-        <v/>
-      </c>
-      <c r="C19" t="str">
-        <f>IF('cantidad pollos muertos'!C18="","",GAMMAINV(0.975,'cantidad pollos muertos'!C18+(1/2),1))</f>
-        <v/>
-      </c>
-      <c r="D19">
-        <f>IF('cantidad pollos muertos'!D18="","",GAMMAINV(0.025,'cantidad pollos muertos'!D18+(1/2),1))</f>
-        <v>642.83913038380899</v>
-      </c>
-      <c r="E19">
-        <f>IF('cantidad pollos muertos'!D18="","",GAMMAINV(0.975,'cantidad pollos muertos'!D18+(1/2),1))</f>
-        <v>746.05497900141279</v>
-      </c>
-      <c r="F19">
-        <f>IF('cantidad pollos muertos'!E18="","",GAMMAINV(0.025,'cantidad pollos muertos'!E18+(1/2),1))</f>
-        <v>149.56894453321635</v>
-      </c>
-      <c r="G19">
-        <f>IF('cantidad pollos muertos'!E18="","",GAMMAINV(0.975,'cantidad pollos muertos'!E18+(1/2),1))</f>
-        <v>201.32457923323548</v>
-      </c>
-      <c r="H19">
-        <f>IF('cantidad pollos muertos'!F18="","",GAMMAINV(0.025,'cantidad pollos muertos'!F18+(1/2),1))</f>
-        <v>99.947212199714798</v>
-      </c>
-      <c r="I19">
-        <f>IF('cantidad pollos muertos'!F18="","",GAMMAINV(0.975,'cantidad pollos muertos'!F18+(1/2),1))</f>
-        <v>142.94596003402984</v>
-      </c>
-      <c r="J19">
-        <f>IF('cantidad pollos muertos'!G18="","",GAMMAINV(0.025,'cantidad pollos muertos'!G18+(1/2),1))</f>
-        <v>375.55198881323582</v>
-      </c>
-      <c r="K19">
-        <f>IF('cantidad pollos muertos'!G18="","",GAMMAINV(0.975,'cantidad pollos muertos'!G18+(1/2),1))</f>
-        <v>455.34198819671326</v>
-      </c>
-      <c r="L19">
-        <f>IF('cantidad pollos muertos'!H18="","",GAMMAINV(0.025,'cantidad pollos muertos'!H18+(1/2),1))</f>
-        <v>34.105612724253191</v>
-      </c>
-      <c r="M19">
-        <f>IF('cantidad pollos muertos'!H18="","",GAMMAINV(0.975,'cantidad pollos muertos'!H18+(1/2),1))</f>
-        <v>60.785741514103385</v>
-      </c>
-      <c r="N19">
-        <f>IF('cantidad pollos muertos'!I18="","",GAMMAINV(0.025,'cantidad pollos muertos'!I18+(1/2),1))</f>
-        <v>77.310424850812296</v>
-      </c>
-      <c r="O19">
-        <f>IF('cantidad pollos muertos'!I18="","",GAMMAINV(0.975,'cantidad pollos muertos'!I18+(1/2),1))</f>
-        <v>115.58244950407959</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>11</v>
-      </c>
-      <c r="B20">
-        <f>IF('cantidad pollos muertos'!C19="","",GAMMAINV(0.025,'cantidad pollos muertos'!C19+(1/2),1))</f>
-        <v>87.236542631327438</v>
-      </c>
-      <c r="C20">
-        <f>IF('cantidad pollos muertos'!C19="","",GAMMAINV(0.975,'cantidad pollos muertos'!C19+(1/2),1))</f>
-        <v>127.65648007746864</v>
-      </c>
-      <c r="D20">
-        <f>IF('cantidad pollos muertos'!D19="","",GAMMAINV(0.025,'cantidad pollos muertos'!D19+(1/2),1))</f>
-        <v>63.880273249180242</v>
-      </c>
-      <c r="E20">
-        <f>IF('cantidad pollos muertos'!D19="","",GAMMAINV(0.975,'cantidad pollos muertos'!D19+(1/2),1))</f>
-        <v>99.012333175593525</v>
-      </c>
-      <c r="F20">
-        <f>IF('cantidad pollos muertos'!E19="","",GAMMAINV(0.025,'cantidad pollos muertos'!E19+(1/2),1))</f>
-        <v>543.82658359546087</v>
-      </c>
-      <c r="G20">
-        <f>IF('cantidad pollos muertos'!E19="","",GAMMAINV(0.975,'cantidad pollos muertos'!E19+(1/2),1))</f>
-        <v>639.06749149461064</v>
-      </c>
-      <c r="H20">
-        <f>IF('cantidad pollos muertos'!F19="","",GAMMAINV(0.025,'cantidad pollos muertos'!F19+(1/2),1))</f>
-        <v>85.427509351337406</v>
-      </c>
-      <c r="I20">
-        <f>IF('cantidad pollos muertos'!F19="","",GAMMAINV(0.975,'cantidad pollos muertos'!F19+(1/2),1))</f>
-        <v>125.46548871503119</v>
-      </c>
-      <c r="J20">
-        <f>IF('cantidad pollos muertos'!G19="","",GAMMAINV(0.025,'cantidad pollos muertos'!G19+(1/2),1))</f>
-        <v>47.097478066231957</v>
-      </c>
-      <c r="K20">
-        <f>IF('cantidad pollos muertos'!G19="","",GAMMAINV(0.975,'cantidad pollos muertos'!G19+(1/2),1))</f>
-        <v>77.794600267046718</v>
-      </c>
-      <c r="L20">
-        <f>IF('cantidad pollos muertos'!H19="","",GAMMAINV(0.025,'cantidad pollos muertos'!H19+(1/2),1))</f>
-        <v>44.47754524508602</v>
-      </c>
-      <c r="M20">
-        <f>IF('cantidad pollos muertos'!H19="","",GAMMAINV(0.975,'cantidad pollos muertos'!H19+(1/2),1))</f>
-        <v>74.414418156443148</v>
-      </c>
-      <c r="N20">
-        <f>IF('cantidad pollos muertos'!I19="","",GAMMAINV(0.025,'cantidad pollos muertos'!I19+(1/2),1))</f>
-        <v>17.388164308345313</v>
-      </c>
-      <c r="O20">
-        <f>IF('cantidad pollos muertos'!I19="","",GAMMAINV(0.975,'cantidad pollos muertos'!I19+(1/2),1))</f>
-        <v>37.500932160964304</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>69</v>
-      </c>
-      <c r="B21" t="str">
-        <f>IF('cantidad pollos muertos'!C20="","",GAMMAINV(0.025,'cantidad pollos muertos'!C20+(1/2),1))</f>
-        <v/>
-      </c>
-      <c r="C21" t="str">
-        <f>IF('cantidad pollos muertos'!C20="","",GAMMAINV(0.975,'cantidad pollos muertos'!C20+(1/2),1))</f>
-        <v/>
-      </c>
-      <c r="D21">
-        <f>IF('cantidad pollos muertos'!D20="","",GAMMAINV(0.025,'cantidad pollos muertos'!D20+(1/2),1))</f>
-        <v>157.90936386034264</v>
-      </c>
-      <c r="E21">
-        <f>IF('cantidad pollos muertos'!D20="","",GAMMAINV(0.975,'cantidad pollos muertos'!D20+(1/2),1))</f>
-        <v>210.98419834076878</v>
-      </c>
-      <c r="F21">
-        <f>IF('cantidad pollos muertos'!E20="","",GAMMAINV(0.025,'cantidad pollos muertos'!E20+(1/2),1))</f>
-        <v>199.83098059938479</v>
-      </c>
-      <c r="G21">
-        <f>IF('cantidad pollos muertos'!E20="","",GAMMAINV(0.975,'cantidad pollos muertos'!E20+(1/2),1))</f>
-        <v>259.06272828882726</v>
-      </c>
-      <c r="H21">
-        <f>IF('cantidad pollos muertos'!F20="","",GAMMAINV(0.025,'cantidad pollos muertos'!F20+(1/2),1))</f>
-        <v>197.96097260210999</v>
-      </c>
-      <c r="I21">
-        <f>IF('cantidad pollos muertos'!F20="","",GAMMAINV(0.975,'cantidad pollos muertos'!F20+(1/2),1))</f>
-        <v>256.93273100631336</v>
-      </c>
-      <c r="J21">
-        <f>IF('cantidad pollos muertos'!G20="","",GAMMAINV(0.025,'cantidad pollos muertos'!G20+(1/2),1))</f>
-        <v>297.71724772566876</v>
-      </c>
-      <c r="K21">
-        <f>IF('cantidad pollos muertos'!G20="","",GAMMAINV(0.975,'cantidad pollos muertos'!G20+(1/2),1))</f>
-        <v>369.17664809200483</v>
-      </c>
-      <c r="L21">
-        <f>IF('cantidad pollos muertos'!H20="","",GAMMAINV(0.025,'cantidad pollos muertos'!H20+(1/2),1))</f>
-        <v>173.70624244043358</v>
-      </c>
-      <c r="M21">
-        <f>IF('cantidad pollos muertos'!H20="","",GAMMAINV(0.975,'cantidad pollos muertos'!H20+(1/2),1))</f>
-        <v>229.1873829283812</v>
-      </c>
-      <c r="N21">
-        <f>IF('cantidad pollos muertos'!I20="","",GAMMAINV(0.025,'cantidad pollos muertos'!I20+(1/2),1))</f>
-        <v>109.07169811998602</v>
-      </c>
-      <c r="O21">
-        <f>IF('cantidad pollos muertos'!I20="","",GAMMAINV(0.975,'cantidad pollos muertos'!I20+(1/2),1))</f>
-        <v>153.82156122150266</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22">
-        <f>IF('cantidad pollos muertos'!C21="","",GAMMAINV(0.025,'cantidad pollos muertos'!C21+(1/2),1))</f>
-        <v>34.105612724253191</v>
-      </c>
-      <c r="C22">
-        <f>IF('cantidad pollos muertos'!C21="","",GAMMAINV(0.975,'cantidad pollos muertos'!C21+(1/2),1))</f>
-        <v>60.785741514103385</v>
-      </c>
-      <c r="D22">
-        <f>IF('cantidad pollos muertos'!D21="","",GAMMAINV(0.025,'cantidad pollos muertos'!D21+(1/2),1))</f>
-        <v>28.999208263699717</v>
-      </c>
-      <c r="E22">
-        <f>IF('cantidad pollos muertos'!D21="","",GAMMAINV(0.975,'cantidad pollos muertos'!D21+(1/2),1))</f>
-        <v>53.891704832667266</v>
-      </c>
-      <c r="F22">
-        <f>IF('cantidad pollos muertos'!E21="","",GAMMAINV(0.025,'cantidad pollos muertos'!E21+(1/2),1))</f>
-        <v>53.245281263312236</v>
-      </c>
-      <c r="G22">
-        <f>IF('cantidad pollos muertos'!E21="","",GAMMAINV(0.975,'cantidad pollos muertos'!E21+(1/2),1))</f>
-        <v>85.647025890944377</v>
-      </c>
-      <c r="H22">
-        <f>IF('cantidad pollos muertos'!F21="","",GAMMAINV(0.025,'cantidad pollos muertos'!F21+(1/2),1))</f>
-        <v>32.396680742579541</v>
-      </c>
-      <c r="I22">
-        <f>IF('cantidad pollos muertos'!F21="","",GAMMAINV(0.975,'cantidad pollos muertos'!F21+(1/2),1))</f>
-        <v>58.494539771790699</v>
-      </c>
-      <c r="J22">
-        <f>IF('cantidad pollos muertos'!G21="","",GAMMAINV(0.025,'cantidad pollos muertos'!G21+(1/2),1))</f>
-        <v>63.880273249180242</v>
-      </c>
-      <c r="K22">
-        <f>IF('cantidad pollos muertos'!G21="","",GAMMAINV(0.975,'cantidad pollos muertos'!G21+(1/2),1))</f>
-        <v>99.012333175593525</v>
-      </c>
-      <c r="L22">
-        <f>IF('cantidad pollos muertos'!H21="","",GAMMAINV(0.025,'cantidad pollos muertos'!H21+(1/2),1))</f>
-        <v>19.013370478108719</v>
-      </c>
-      <c r="M22">
-        <f>IF('cantidad pollos muertos'!H21="","",GAMMAINV(0.975,'cantidad pollos muertos'!H21+(1/2),1))</f>
-        <v>39.876096140145194</v>
-      </c>
-      <c r="N22">
-        <f>IF('cantidad pollos muertos'!I21="","",GAMMAINV(0.025,'cantidad pollos muertos'!I21+(1/2),1))</f>
-        <v>4.9103455858762819E-4</v>
-      </c>
-      <c r="O22">
-        <f>IF('cantidad pollos muertos'!I21="","",GAMMAINV(0.975,'cantidad pollos muertos'!I21+(1/2),1))</f>
-        <v>2.5119430936574432</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>10</v>
-      </c>
-      <c r="B23">
-        <f>IF('cantidad pollos muertos'!C22="","",GAMMAINV(0.025,'cantidad pollos muertos'!C22+(1/2),1))</f>
-        <v>126.49622413335962</v>
-      </c>
-      <c r="C23">
-        <f>IF('cantidad pollos muertos'!C22="","",GAMMAINV(0.975,'cantidad pollos muertos'!C22+(1/2),1))</f>
-        <v>174.39716853152555</v>
-      </c>
-      <c r="D23">
-        <f>IF('cantidad pollos muertos'!D22="","",GAMMAINV(0.025,'cantidad pollos muertos'!D22+(1/2),1))</f>
-        <v>80.01166316279793</v>
-      </c>
-      <c r="E23">
-        <f>IF('cantidad pollos muertos'!D22="","",GAMMAINV(0.975,'cantidad pollos muertos'!D22+(1/2),1))</f>
-        <v>118.88125495026803</v>
-      </c>
-      <c r="F23">
-        <f>IF('cantidad pollos muertos'!E22="","",GAMMAINV(0.025,'cantidad pollos muertos'!E22+(1/2),1))</f>
-        <v>241.10306163544675</v>
-      </c>
-      <c r="G23">
-        <f>IF('cantidad pollos muertos'!E22="","",GAMMAINV(0.975,'cantidad pollos muertos'!E22+(1/2),1))</f>
-        <v>305.79074377450195</v>
-      </c>
-      <c r="H23">
-        <f>IF('cantidad pollos muertos'!F22="","",GAMMAINV(0.025,'cantidad pollos muertos'!F22+(1/2),1))</f>
-        <v>140.32211069619123</v>
-      </c>
-      <c r="I23">
-        <f>IF('cantidad pollos muertos'!F22="","",GAMMAINV(0.975,'cantidad pollos muertos'!F22+(1/2),1))</f>
-        <v>190.57136542184699</v>
-      </c>
-      <c r="J23">
-        <f>IF('cantidad pollos muertos'!G22="","",GAMMAINV(0.025,'cantidad pollos muertos'!G22+(1/2),1))</f>
-        <v>62.100315262370202</v>
-      </c>
-      <c r="K23">
-        <f>IF('cantidad pollos muertos'!G22="","",GAMMAINV(0.975,'cantidad pollos muertos'!G22+(1/2),1))</f>
-        <v>96.792247666792676</v>
-      </c>
-      <c r="L23">
-        <f>IF('cantidad pollos muertos'!H22="","",GAMMAINV(0.025,'cantidad pollos muertos'!H22+(1/2),1))</f>
-        <v>77.310424850812296</v>
-      </c>
-      <c r="M23">
-        <f>IF('cantidad pollos muertos'!H22="","",GAMMAINV(0.975,'cantidad pollos muertos'!H22+(1/2),1))</f>
-        <v>115.58244950407959</v>
-      </c>
-      <c r="N23">
-        <f>IF('cantidad pollos muertos'!I22="","",GAMMAINV(0.025,'cantidad pollos muertos'!I22+(1/2),1))</f>
-        <v>25.632406636710915</v>
-      </c>
-      <c r="O23">
-        <f>IF('cantidad pollos muertos'!I22="","",GAMMAINV(0.975,'cantidad pollos muertos'!I22+(1/2),1))</f>
-        <v>49.258131005783902</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>38</v>
-      </c>
-      <c r="B24">
-        <f>IF('cantidad pollos muertos'!C23="","",GAMMAINV(0.025,'cantidad pollos muertos'!C23+(1/2),1))</f>
-        <v>58.548991431160559</v>
-      </c>
-      <c r="C24">
-        <f>IF('cantidad pollos muertos'!C23="","",GAMMAINV(0.975,'cantidad pollos muertos'!C23+(1/2),1))</f>
-        <v>92.343477467217241</v>
-      </c>
-      <c r="D24">
-        <f>IF('cantidad pollos muertos'!D23="","",GAMMAINV(0.025,'cantidad pollos muertos'!D23+(1/2),1))</f>
-        <v>180.22574302985143</v>
-      </c>
-      <c r="E24">
-        <f>IF('cantidad pollos muertos'!D23="","",GAMMAINV(0.975,'cantidad pollos muertos'!D23+(1/2),1))</f>
-        <v>236.66790533559694</v>
-      </c>
-      <c r="F24">
-        <f>IF('cantidad pollos muertos'!E23="","",GAMMAINV(0.025,'cantidad pollos muertos'!E23+(1/2),1))</f>
-        <v>96.307567312785139</v>
-      </c>
-      <c r="G24">
-        <f>IF('cantidad pollos muertos'!E23="","",GAMMAINV(0.975,'cantidad pollos muertos'!E23+(1/2),1))</f>
-        <v>138.5855658778643</v>
-      </c>
-      <c r="H24">
-        <f>IF('cantidad pollos muertos'!F23="","",GAMMAINV(0.025,'cantidad pollos muertos'!F23+(1/2),1))</f>
-        <v>266.53758456086342</v>
-      </c>
-      <c r="I24">
-        <f>IF('cantidad pollos muertos'!F23="","",GAMMAINV(0.975,'cantidad pollos muertos'!F23+(1/2),1))</f>
-        <v>334.35626602057096</v>
-      </c>
-      <c r="J24">
-        <f>IF('cantidad pollos muertos'!G23="","",GAMMAINV(0.025,'cantidad pollos muertos'!G23+(1/2),1))</f>
-        <v>108.15770207238351</v>
-      </c>
-      <c r="K24">
-        <f>IF('cantidad pollos muertos'!G23="","",GAMMAINV(0.975,'cantidad pollos muertos'!G23+(1/2),1))</f>
-        <v>152.73554916538322</v>
-      </c>
-      <c r="L24">
-        <f>IF('cantidad pollos muertos'!H23="","",GAMMAINV(0.025,'cantidad pollos muertos'!H23+(1/2),1))</f>
-        <v>94.490068117969813</v>
-      </c>
-      <c r="M24">
-        <f>IF('cantidad pollos muertos'!H23="","",GAMMAINV(0.975,'cantidad pollos muertos'!H23+(1/2),1))</f>
-        <v>136.40304452497662</v>
-      </c>
-      <c r="N24">
-        <f>IF('cantidad pollos muertos'!I23="","",GAMMAINV(0.025,'cantidad pollos muertos'!I23+(1/2),1))</f>
-        <v>94.490068117969813</v>
-      </c>
-      <c r="O24">
-        <f>IF('cantidad pollos muertos'!I23="","",GAMMAINV(0.975,'cantidad pollos muertos'!I23+(1/2),1))</f>
-        <v>136.40304452497662</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>14</v>
-      </c>
-      <c r="B25">
-        <f>IF('cantidad pollos muertos'!C24="","",GAMMAINV(0.025,'cantidad pollos muertos'!C24+(1/2),1))</f>
-        <v>35.820758132639803</v>
-      </c>
-      <c r="C25">
-        <f>IF('cantidad pollos muertos'!C24="","",GAMMAINV(0.975,'cantidad pollos muertos'!C24+(1/2),1))</f>
-        <v>63.070718720047985</v>
-      </c>
-      <c r="D25">
-        <f>IF('cantidad pollos muertos'!D24="","",GAMMAINV(0.025,'cantidad pollos muertos'!D24+(1/2),1))</f>
-        <v>23.13051713198502</v>
-      </c>
-      <c r="E25">
-        <f>IF('cantidad pollos muertos'!D24="","",GAMMAINV(0.975,'cantidad pollos muertos'!D24+(1/2),1))</f>
-        <v>45.759679456144767</v>
-      </c>
-      <c r="F25">
-        <f>IF('cantidad pollos muertos'!E24="","",GAMMAINV(0.025,'cantidad pollos muertos'!E24+(1/2),1))</f>
-        <v>59.435713143054343</v>
-      </c>
-      <c r="G25">
-        <f>IF('cantidad pollos muertos'!E24="","",GAMMAINV(0.975,'cantidad pollos muertos'!E24+(1/2),1))</f>
-        <v>93.456780201514249</v>
-      </c>
-      <c r="H25">
-        <f>IF('cantidad pollos muertos'!F24="","",GAMMAINV(0.025,'cantidad pollos muertos'!F24+(1/2),1))</f>
-        <v>79.110737552732772</v>
-      </c>
-      <c r="I25">
-        <f>IF('cantidad pollos muertos'!F24="","",GAMMAINV(0.975,'cantidad pollos muertos'!F24+(1/2),1))</f>
-        <v>117.78216627457212</v>
-      </c>
-      <c r="J25">
-        <f>IF('cantidad pollos muertos'!G24="","",GAMMAINV(0.025,'cantidad pollos muertos'!G24+(1/2),1))</f>
-        <v>67.448256305265616</v>
-      </c>
-      <c r="K25">
-        <f>IF('cantidad pollos muertos'!G24="","",GAMMAINV(0.975,'cantidad pollos muertos'!G24+(1/2),1))</f>
-        <v>103.44443090775799</v>
-      </c>
-      <c r="L25">
-        <f>IF('cantidad pollos muertos'!H24="","",GAMMAINV(0.025,'cantidad pollos muertos'!H24+(1/2),1))</f>
-        <v>76.411053894249775</v>
-      </c>
-      <c r="M25">
-        <f>IF('cantidad pollos muertos'!H24="","",GAMMAINV(0.975,'cantidad pollos muertos'!H24+(1/2),1))</f>
-        <v>114.48180525485184</v>
-      </c>
-      <c r="N25">
-        <f>IF('cantidad pollos muertos'!I24="","",GAMMAINV(0.025,'cantidad pollos muertos'!I24+(1/2),1))</f>
-        <v>29.845876516766921</v>
-      </c>
-      <c r="O25">
-        <f>IF('cantidad pollos muertos'!I24="","",GAMMAINV(0.975,'cantidad pollos muertos'!I24+(1/2),1))</f>
-        <v>55.045119037444387</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>36</v>
-      </c>
-      <c r="B26">
-        <f>IF('cantidad pollos muertos'!C25="","",GAMMAINV(0.025,'cantidad pollos muertos'!C25+(1/2),1))</f>
-        <v>400.31928364210245</v>
-      </c>
-      <c r="C26">
-        <f>IF('cantidad pollos muertos'!C25="","",GAMMAINV(0.975,'cantidad pollos muertos'!C25+(1/2),1))</f>
-        <v>482.57471279482775</v>
-      </c>
-      <c r="D26">
-        <f>IF('cantidad pollos muertos'!D25="","",GAMMAINV(0.025,'cantidad pollos muertos'!D25+(1/2),1))</f>
-        <v>1403.1139704312056</v>
-      </c>
-      <c r="E26">
-        <f>IF('cantidad pollos muertos'!D25="","",GAMMAINV(0.975,'cantidad pollos muertos'!D25+(1/2),1))</f>
-        <v>1553.7802432447843</v>
-      </c>
-      <c r="F26">
-        <f>IF('cantidad pollos muertos'!E25="","",GAMMAINV(0.025,'cantidad pollos muertos'!E25+(1/2),1))</f>
-        <v>613.96800412404264</v>
-      </c>
-      <c r="G26">
-        <f>IF('cantidad pollos muertos'!E25="","",GAMMAINV(0.975,'cantidad pollos muertos'!E25+(1/2),1))</f>
-        <v>714.92609637189594</v>
-      </c>
-      <c r="H26">
-        <f>IF('cantidad pollos muertos'!F25="","",GAMMAINV(0.025,'cantidad pollos muertos'!F25+(1/2),1))</f>
-        <v>1456.7244803313497</v>
-      </c>
-      <c r="I26">
-        <f>IF('cantidad pollos muertos'!F25="","",GAMMAINV(0.975,'cantidad pollos muertos'!F25+(1/2),1))</f>
-        <v>1610.1697366545463</v>
-      </c>
-      <c r="J26">
-        <f>IF('cantidad pollos muertos'!G25="","",GAMMAINV(0.025,'cantidad pollos muertos'!G25+(1/2),1))</f>
-        <v>312.86725266441226</v>
-      </c>
-      <c r="K26">
-        <f>IF('cantidad pollos muertos'!G25="","",GAMMAINV(0.975,'cantidad pollos muertos'!G25+(1/2),1))</f>
-        <v>386.02666199901944</v>
-      </c>
-      <c r="L26">
-        <f>IF('cantidad pollos muertos'!H25="","",GAMMAINV(0.025,'cantidad pollos muertos'!H25+(1/2),1))</f>
-        <v>516.96965233938352</v>
-      </c>
-      <c r="M26">
-        <f>IF('cantidad pollos muertos'!H25="","",GAMMAINV(0.975,'cantidad pollos muertos'!H25+(1/2),1))</f>
-        <v>609.92441125514006</v>
-      </c>
-      <c r="N26">
-        <f>IF('cantidad pollos muertos'!I25="","",GAMMAINV(0.025,'cantidad pollos muertos'!I25+(1/2),1))</f>
-        <v>354.62560721962421</v>
-      </c>
-      <c r="O26">
-        <f>IF('cantidad pollos muertos'!I25="","",GAMMAINV(0.975,'cantidad pollos muertos'!I25+(1/2),1))</f>
-        <v>432.26835133999811</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27">
-        <f>IF('cantidad pollos muertos'!C26="","",GAMMAINV(0.025,'cantidad pollos muertos'!C26+(1/2),1))</f>
-        <v>70.13092837414608</v>
-      </c>
-      <c r="C27">
-        <f>IF('cantidad pollos muertos'!C26="","",GAMMAINV(0.975,'cantidad pollos muertos'!C26+(1/2),1))</f>
-        <v>106.76181456300202</v>
-      </c>
-      <c r="D27">
-        <f>IF('cantidad pollos muertos'!D26="","",GAMMAINV(0.025,'cantidad pollos muertos'!D26+(1/2),1))</f>
-        <v>55.893475743516525</v>
-      </c>
-      <c r="E27">
-        <f>IF('cantidad pollos muertos'!D26="","",GAMMAINV(0.975,'cantidad pollos muertos'!D26+(1/2),1))</f>
-        <v>88.998915692959812</v>
-      </c>
-      <c r="F27">
-        <f>IF('cantidad pollos muertos'!E26="","",GAMMAINV(0.025,'cantidad pollos muertos'!E26+(1/2),1))</f>
-        <v>232.64200542759227</v>
-      </c>
-      <c r="G27">
-        <f>IF('cantidad pollos muertos'!E26="","",GAMMAINV(0.975,'cantidad pollos muertos'!E26+(1/2),1))</f>
-        <v>296.25178286525528</v>
-      </c>
-      <c r="H27">
-        <f>IF('cantidad pollos muertos'!F26="","",GAMMAINV(0.025,'cantidad pollos muertos'!F26+(1/2),1))</f>
-        <v>102.68086028845509</v>
-      </c>
-      <c r="I27">
-        <f>IF('cantidad pollos muertos'!F26="","",GAMMAINV(0.975,'cantidad pollos muertos'!F26+(1/2),1))</f>
-        <v>146.21233956308285</v>
-      </c>
-      <c r="J27">
-        <f>IF('cantidad pollos muertos'!G26="","",GAMMAINV(0.025,'cantidad pollos muertos'!G26+(1/2),1))</f>
-        <v>137.55250324716494</v>
-      </c>
-      <c r="K27">
-        <f>IF('cantidad pollos muertos'!G26="","",GAMMAINV(0.975,'cantidad pollos muertos'!G26+(1/2),1))</f>
-        <v>187.3409574231587</v>
-      </c>
-      <c r="L27">
-        <f>IF('cantidad pollos muertos'!H26="","",GAMMAINV(0.025,'cantidad pollos muertos'!H26+(1/2),1))</f>
-        <v>6.5598600124688922</v>
-      </c>
-      <c r="M27">
-        <f>IF('cantidad pollos muertos'!H26="","",GAMMAINV(0.975,'cantidad pollos muertos'!H26+(1/2),1))</f>
-        <v>20.3232345601376</v>
-      </c>
-      <c r="N27">
-        <f>IF('cantidad pollos muertos'!I26="","",GAMMAINV(0.025,'cantidad pollos muertos'!I26+(1/2),1))</f>
-        <v>26.470969885266424</v>
-      </c>
-      <c r="O27">
-        <f>IF('cantidad pollos muertos'!I26="","",GAMMAINV(0.975,'cantidad pollos muertos'!I26+(1/2),1))</f>
-        <v>50.419669200906682</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>39</v>
-      </c>
-      <c r="B28">
-        <f>IF('cantidad pollos muertos'!C27="","",GAMMAINV(0.025,'cantidad pollos muertos'!C27+(1/2),1))</f>
-        <v>41.867513849812639</v>
-      </c>
-      <c r="C28">
-        <f>IF('cantidad pollos muertos'!C27="","",GAMMAINV(0.975,'cantidad pollos muertos'!C27+(1/2),1))</f>
-        <v>71.024322115123894</v>
-      </c>
-      <c r="D28">
-        <f>IF('cantidad pollos muertos'!D27="","",GAMMAINV(0.025,'cantidad pollos muertos'!D27+(1/2),1))</f>
-        <v>89.047363315798918</v>
-      </c>
-      <c r="E28">
-        <f>IF('cantidad pollos muertos'!D27="","",GAMMAINV(0.975,'cantidad pollos muertos'!D27+(1/2),1))</f>
-        <v>129.84568312395754</v>
-      </c>
-      <c r="F28">
-        <f>IF('cantidad pollos muertos'!E27="","",GAMMAINV(0.025,'cantidad pollos muertos'!E27+(1/2),1))</f>
-        <v>74.613924725044839</v>
-      </c>
-      <c r="G28">
-        <f>IF('cantidad pollos muertos'!E27="","",GAMMAINV(0.975,'cantidad pollos muertos'!E27+(1/2),1))</f>
-        <v>112.27890302234732</v>
-      </c>
-      <c r="H28">
-        <f>IF('cantidad pollos muertos'!F27="","",GAMMAINV(0.025,'cantidad pollos muertos'!F27+(1/2),1))</f>
-        <v>313.81478281302623</v>
-      </c>
-      <c r="I28">
-        <f>IF('cantidad pollos muertos'!F27="","",GAMMAINV(0.975,'cantidad pollos muertos'!F27+(1/2),1))</f>
-        <v>387.07913297091449</v>
-      </c>
-      <c r="J28">
-        <f>IF('cantidad pollos muertos'!G27="","",GAMMAINV(0.025,'cantidad pollos muertos'!G27+(1/2),1))</f>
-        <v>59.435713143054343</v>
-      </c>
-      <c r="K28">
-        <f>IF('cantidad pollos muertos'!G27="","",GAMMAINV(0.975,'cantidad pollos muertos'!G27+(1/2),1))</f>
-        <v>93.456780201514249</v>
-      </c>
-      <c r="L28">
-        <f>IF('cantidad pollos muertos'!H27="","",GAMMAINV(0.025,'cantidad pollos muertos'!H27+(1/2),1))</f>
-        <v>74.613924725044839</v>
-      </c>
-      <c r="M28">
-        <f>IF('cantidad pollos muertos'!H27="","",GAMMAINV(0.975,'cantidad pollos muertos'!H27+(1/2),1))</f>
-        <v>112.27890302234732</v>
-      </c>
-      <c r="N28">
-        <f>IF('cantidad pollos muertos'!I27="","",GAMMAINV(0.025,'cantidad pollos muertos'!I27+(1/2),1))</f>
-        <v>74.613924725044839</v>
-      </c>
-      <c r="O28">
-        <f>IF('cantidad pollos muertos'!I27="","",GAMMAINV(0.975,'cantidad pollos muertos'!I27+(1/2),1))</f>
-        <v>112.27890302234732</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29">
-        <f>IF('cantidad pollos muertos'!C28="","",GAMMAINV(0.025,'cantidad pollos muertos'!C28+(1/2),1))</f>
-        <v>102.68086028845509</v>
-      </c>
-      <c r="C29">
-        <f>IF('cantidad pollos muertos'!C28="","",GAMMAINV(0.975,'cantidad pollos muertos'!C28+(1/2),1))</f>
-        <v>146.21233956308285</v>
-      </c>
-      <c r="D29">
-        <f>IF('cantidad pollos muertos'!D28="","",GAMMAINV(0.025,'cantidad pollos muertos'!D28+(1/2),1))</f>
-        <v>421.30437891522735</v>
-      </c>
-      <c r="E29">
-        <f>IF('cantidad pollos muertos'!D28="","",GAMMAINV(0.975,'cantidad pollos muertos'!D28+(1/2),1))</f>
-        <v>505.58963225257719</v>
-      </c>
-      <c r="F29">
-        <f>IF('cantidad pollos muertos'!E28="","",GAMMAINV(0.025,'cantidad pollos muertos'!E28+(1/2),1))</f>
-        <v>491.09917647614657</v>
-      </c>
-      <c r="G29">
-        <f>IF('cantidad pollos muertos'!E28="","",GAMMAINV(0.975,'cantidad pollos muertos'!E28+(1/2),1))</f>
-        <v>581.7948748941086</v>
-      </c>
-      <c r="H29">
-        <f>IF('cantidad pollos muertos'!F28="","",GAMMAINV(0.025,'cantidad pollos muertos'!F28+(1/2),1))</f>
-        <v>360.32987981559398</v>
-      </c>
-      <c r="I29">
-        <f>IF('cantidad pollos muertos'!F28="","",GAMMAINV(0.975,'cantidad pollos muertos'!F28+(1/2),1))</f>
-        <v>438.56408397815102</v>
-      </c>
-      <c r="J29">
-        <f>IF('cantidad pollos muertos'!G28="","",GAMMAINV(0.025,'cantidad pollos muertos'!G28+(1/2),1))</f>
-        <v>106.33071319944781</v>
-      </c>
-      <c r="K29">
-        <f>IF('cantidad pollos muertos'!G28="","",GAMMAINV(0.975,'cantidad pollos muertos'!G28+(1/2),1))</f>
-        <v>150.56252144845442</v>
-      </c>
-      <c r="L29">
-        <f>IF('cantidad pollos muertos'!H28="","",GAMMAINV(0.025,'cantidad pollos muertos'!H28+(1/2),1))</f>
-        <v>40.999841622666459</v>
-      </c>
-      <c r="M29">
-        <f>IF('cantidad pollos muertos'!H28="","",GAMMAINV(0.975,'cantidad pollos muertos'!H28+(1/2),1))</f>
-        <v>69.891948725310272</v>
-      </c>
-      <c r="N29">
-        <f>IF('cantidad pollos muertos'!I28="","",GAMMAINV(0.025,'cantidad pollos muertos'!I28+(1/2),1))</f>
-        <v>58.548991431160559</v>
-      </c>
-      <c r="O29">
-        <f>IF('cantidad pollos muertos'!I28="","",GAMMAINV(0.975,'cantidad pollos muertos'!I28+(1/2),1))</f>
-        <v>92.343477467217241</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>21</v>
-      </c>
-      <c r="B30">
-        <f>IF('cantidad pollos muertos'!C29="","",GAMMAINV(0.025,'cantidad pollos muertos'!C29+(1/2),1))</f>
-        <v>86.331799395886435</v>
-      </c>
-      <c r="C30">
-        <f>IF('cantidad pollos muertos'!C29="","",GAMMAINV(0.975,'cantidad pollos muertos'!C29+(1/2),1))</f>
-        <v>126.56121110888003</v>
-      </c>
-      <c r="D30">
-        <f>IF('cantidad pollos muertos'!D29="","",GAMMAINV(0.025,'cantidad pollos muertos'!D29+(1/2),1))</f>
-        <v>348.92360468551533</v>
-      </c>
-      <c r="E30">
-        <f>IF('cantidad pollos muertos'!D29="","",GAMMAINV(0.975,'cantidad pollos muertos'!D29+(1/2),1))</f>
-        <v>425.9703484773255</v>
-      </c>
-      <c r="F30">
-        <f>IF('cantidad pollos muertos'!E29="","",GAMMAINV(0.025,'cantidad pollos muertos'!E29+(1/2),1))</f>
-        <v>143.09381158067083</v>
-      </c>
-      <c r="G30">
-        <f>IF('cantidad pollos muertos'!E29="","",GAMMAINV(0.975,'cantidad pollos muertos'!E29+(1/2),1))</f>
-        <v>193.79967943054982</v>
-      </c>
-      <c r="H30">
-        <f>IF('cantidad pollos muertos'!F29="","",GAMMAINV(0.025,'cantidad pollos muertos'!F29+(1/2),1))</f>
-        <v>95.398619937676514</v>
-      </c>
-      <c r="I30">
-        <f>IF('cantidad pollos muertos'!F29="","",GAMMAINV(0.975,'cantidad pollos muertos'!F29+(1/2),1))</f>
-        <v>137.49450306834768</v>
-      </c>
-      <c r="J30">
-        <f>IF('cantidad pollos muertos'!G29="","",GAMMAINV(0.025,'cantidad pollos muertos'!G29+(1/2),1))</f>
-        <v>43.606396503709874</v>
-      </c>
-      <c r="K30">
-        <f>IF('cantidad pollos muertos'!G29="","",GAMMAINV(0.975,'cantidad pollos muertos'!G29+(1/2),1))</f>
-        <v>73.285525905634486</v>
-      </c>
-      <c r="L30">
-        <f>IF('cantidad pollos muertos'!H29="","",GAMMAINV(0.025,'cantidad pollos muertos'!H29+(1/2),1))</f>
-        <v>48.849242700029897</v>
-      </c>
-      <c r="M30">
-        <f>IF('cantidad pollos muertos'!H29="","",GAMMAINV(0.975,'cantidad pollos muertos'!H29+(1/2),1))</f>
-        <v>80.042906187400447</v>
-      </c>
-      <c r="N30">
-        <f>IF('cantidad pollos muertos'!I29="","",GAMMAINV(0.025,'cantidad pollos muertos'!I29+(1/2),1))</f>
-        <v>36.680540095641831</v>
-      </c>
-      <c r="O30">
-        <f>IF('cantidad pollos muertos'!I29="","",GAMMAINV(0.975,'cantidad pollos muertos'!I29+(1/2),1))</f>
-        <v>64.210994321920154</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>0</v>
-      </c>
-      <c r="B31">
-        <f>IF('cantidad pollos muertos'!C30="","",GAMMAINV(0.025,'cantidad pollos muertos'!C30+(1/2),1))</f>
-        <v>473.86808923842597</v>
-      </c>
-      <c r="C31">
-        <f>IF('cantidad pollos muertos'!C30="","",GAMMAINV(0.975,'cantidad pollos muertos'!C30+(1/2),1))</f>
-        <v>563.0259532731734</v>
-      </c>
-      <c r="D31">
-        <f>IF('cantidad pollos muertos'!D30="","",GAMMAINV(0.025,'cantidad pollos muertos'!D30+(1/2),1))</f>
-        <v>271.25554599892587</v>
-      </c>
-      <c r="E31">
-        <f>IF('cantidad pollos muertos'!D30="","",GAMMAINV(0.975,'cantidad pollos muertos'!D30+(1/2),1))</f>
-        <v>339.63831206747551</v>
-      </c>
-      <c r="F31">
-        <f>IF('cantidad pollos muertos'!E30="","",GAMMAINV(0.025,'cantidad pollos muertos'!E30+(1/2),1))</f>
-        <v>366.03637137290895</v>
-      </c>
-      <c r="G31">
-        <f>IF('cantidad pollos muertos'!E30="","",GAMMAINV(0.975,'cantidad pollos muertos'!E30+(1/2),1))</f>
-        <v>444.85759749954457</v>
-      </c>
-      <c r="H31">
-        <f>IF('cantidad pollos muertos'!F30="","",GAMMAINV(0.025,'cantidad pollos muertos'!F30+(1/2),1))</f>
-        <v>162.54991785519817</v>
-      </c>
-      <c r="I31">
-        <f>IF('cantidad pollos muertos'!F30="","",GAMMAINV(0.975,'cantidad pollos muertos'!F30+(1/2),1))</f>
-        <v>216.34366410962483</v>
-      </c>
-      <c r="J31">
-        <f>IF('cantidad pollos muertos'!G30="","",GAMMAINV(0.025,'cantidad pollos muertos'!G30+(1/2),1))</f>
-        <v>163.47860352006961</v>
-      </c>
-      <c r="K31">
-        <f>IF('cantidad pollos muertos'!G30="","",GAMMAINV(0.975,'cantidad pollos muertos'!G30+(1/2),1))</f>
-        <v>217.41498227210667</v>
-      </c>
-      <c r="L31">
-        <f>IF('cantidad pollos muertos'!H30="","",GAMMAINV(0.025,'cantidad pollos muertos'!H30+(1/2),1))</f>
-        <v>123.73802262051886</v>
-      </c>
-      <c r="M31">
-        <f>IF('cantidad pollos muertos'!H30="","",GAMMAINV(0.975,'cantidad pollos muertos'!H30+(1/2),1))</f>
-        <v>171.15535129800489</v>
-      </c>
-      <c r="N31">
-        <f>IF('cantidad pollos muertos'!I30="","",GAMMAINV(0.025,'cantidad pollos muertos'!I30+(1/2),1))</f>
-        <v>89.953428450881972</v>
-      </c>
-      <c r="O31">
-        <f>IF('cantidad pollos muertos'!I30="","",GAMMAINV(0.975,'cantidad pollos muertos'!I30+(1/2),1))</f>
-        <v>130.93962952821263</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>31</v>
-      </c>
-      <c r="B32">
-        <f>IF('cantidad pollos muertos'!C31="","",GAMMAINV(0.025,'cantidad pollos muertos'!C31+(1/2),1))</f>
-        <v>57.663034081546456</v>
-      </c>
-      <c r="C32">
-        <f>IF('cantidad pollos muertos'!C31="","",GAMMAINV(0.975,'cantidad pollos muertos'!C31+(1/2),1))</f>
-        <v>91.229409702209395</v>
-      </c>
-      <c r="D32">
-        <f>IF('cantidad pollos muertos'!D31="","",GAMMAINV(0.025,'cantidad pollos muertos'!D31+(1/2),1))</f>
-        <v>19.83092967575783</v>
-      </c>
-      <c r="E32">
-        <f>IF('cantidad pollos muertos'!D31="","",GAMMAINV(0.975,'cantidad pollos muertos'!D31+(1/2),1))</f>
-        <v>41.058702970119143</v>
-      </c>
-      <c r="F32">
-        <f>IF('cantidad pollos muertos'!E31="","",GAMMAINV(0.025,'cantidad pollos muertos'!E31+(1/2),1))</f>
-        <v>183.95480974406874</v>
-      </c>
-      <c r="G32">
-        <f>IF('cantidad pollos muertos'!E31="","",GAMMAINV(0.975,'cantidad pollos muertos'!E31+(1/2),1))</f>
-        <v>240.93885107770447</v>
-      </c>
-      <c r="H32">
-        <f>IF('cantidad pollos muertos'!F31="","",GAMMAINV(0.025,'cantidad pollos muertos'!F31+(1/2),1))</f>
-        <v>238.28170622120132</v>
-      </c>
-      <c r="I32">
-        <f>IF('cantidad pollos muertos'!F31="","",GAMMAINV(0.975,'cantidad pollos muertos'!F31+(1/2),1))</f>
-        <v>302.61209361024419</v>
-      </c>
-      <c r="J32">
-        <f>IF('cantidad pollos muertos'!G31="","",GAMMAINV(0.025,'cantidad pollos muertos'!G31+(1/2),1))</f>
-        <v>122.81917195302653</v>
-      </c>
-      <c r="K32">
-        <f>IF('cantidad pollos muertos'!G31="","",GAMMAINV(0.975,'cantidad pollos muertos'!G31+(1/2),1))</f>
-        <v>170.07419554450007</v>
-      </c>
-      <c r="L32">
-        <f>IF('cantidad pollos muertos'!H31="","",GAMMAINV(0.025,'cantidad pollos muertos'!H31+(1/2),1))</f>
-        <v>55.009907778178558</v>
-      </c>
-      <c r="M32">
-        <f>IF('cantidad pollos muertos'!H31="","",GAMMAINV(0.975,'cantidad pollos muertos'!H31+(1/2),1))</f>
-        <v>87.882456365251016</v>
-      </c>
-      <c r="N32">
-        <f>IF('cantidad pollos muertos'!I31="","",GAMMAINV(0.025,'cantidad pollos muertos'!I31+(1/2),1))</f>
-        <v>78.210322127740184</v>
-      </c>
-      <c r="O32">
-        <f>IF('cantidad pollos muertos'!I31="","",GAMMAINV(0.975,'cantidad pollos muertos'!I31+(1/2),1))</f>
-        <v>116.68256711663008</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>32</v>
-      </c>
-      <c r="B33">
-        <f>IF('cantidad pollos muertos'!C32="","",GAMMAINV(0.025,'cantidad pollos muertos'!C32+(1/2),1))</f>
-        <v>136.62977603290807</v>
-      </c>
-      <c r="C33">
-        <f>IF('cantidad pollos muertos'!C32="","",GAMMAINV(0.975,'cantidad pollos muertos'!C32+(1/2),1))</f>
-        <v>186.26367935956154</v>
-      </c>
-      <c r="D33">
-        <f>IF('cantidad pollos muertos'!D32="","",GAMMAINV(0.025,'cantidad pollos muertos'!D32+(1/2),1))</f>
-        <v>250.51457758582322</v>
-      </c>
-      <c r="E33">
-        <f>IF('cantidad pollos muertos'!D32="","",GAMMAINV(0.975,'cantidad pollos muertos'!D32+(1/2),1))</f>
-        <v>316.37924556235248</v>
-      </c>
-      <c r="F33">
-        <f>IF('cantidad pollos muertos'!E32="","",GAMMAINV(0.025,'cantidad pollos muertos'!E32+(1/2),1))</f>
-        <v>190.48677466209961</v>
-      </c>
-      <c r="G33">
-        <f>IF('cantidad pollos muertos'!E32="","",GAMMAINV(0.975,'cantidad pollos muertos'!E32+(1/2),1))</f>
-        <v>248.40690685903488</v>
-      </c>
-      <c r="H33">
-        <f>IF('cantidad pollos muertos'!F32="","",GAMMAINV(0.025,'cantidad pollos muertos'!F32+(1/2),1))</f>
-        <v>460.47542715905729</v>
-      </c>
-      <c r="I33">
-        <f>IF('cantidad pollos muertos'!F32="","",GAMMAINV(0.975,'cantidad pollos muertos'!F32+(1/2),1))</f>
-        <v>548.41860802426629</v>
-      </c>
-      <c r="J33">
-        <f>IF('cantidad pollos muertos'!G32="","",GAMMAINV(0.025,'cantidad pollos muertos'!G32+(1/2),1))</f>
-        <v>97.216905154744765</v>
-      </c>
-      <c r="K33">
-        <f>IF('cantidad pollos muertos'!G32="","",GAMMAINV(0.975,'cantidad pollos muertos'!G32+(1/2),1))</f>
-        <v>139.67623804664751</v>
-      </c>
-      <c r="L33">
-        <f>IF('cantidad pollos muertos'!H32="","",GAMMAINV(0.025,'cantidad pollos muertos'!H32+(1/2),1))</f>
-        <v>48.849242700029897</v>
-      </c>
-      <c r="M33">
-        <f>IF('cantidad pollos muertos'!H32="","",GAMMAINV(0.975,'cantidad pollos muertos'!H32+(1/2),1))</f>
-        <v>80.042906187400447</v>
-      </c>
-      <c r="N33">
-        <f>IF('cantidad pollos muertos'!I32="","",GAMMAINV(0.025,'cantidad pollos muertos'!I32+(1/2),1))</f>
-        <v>57.663034081546456</v>
-      </c>
-      <c r="O33">
-        <f>IF('cantidad pollos muertos'!I32="","",GAMMAINV(0.975,'cantidad pollos muertos'!I32+(1/2),1))</f>
-        <v>91.229409702209395</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>13</v>
-      </c>
-      <c r="B34">
-        <f>IF('cantidad pollos muertos'!C33="","",GAMMAINV(0.025,'cantidad pollos muertos'!C33+(1/2),1))</f>
-        <v>47.097478066231957</v>
-      </c>
-      <c r="C34">
-        <f>IF('cantidad pollos muertos'!C33="","",GAMMAINV(0.975,'cantidad pollos muertos'!C33+(1/2),1))</f>
-        <v>77.794600267046718</v>
-      </c>
-      <c r="D34">
-        <f>IF('cantidad pollos muertos'!D33="","",GAMMAINV(0.025,'cantidad pollos muertos'!D33+(1/2),1))</f>
-        <v>141.24578120708773</v>
-      </c>
-      <c r="E34">
-        <f>IF('cantidad pollos muertos'!D33="","",GAMMAINV(0.975,'cantidad pollos muertos'!D33+(1/2),1))</f>
-        <v>191.6476999354669</v>
-      </c>
-      <c r="F34">
-        <f>IF('cantidad pollos muertos'!E33="","",GAMMAINV(0.025,'cantidad pollos muertos'!E33+(1/2),1))</f>
-        <v>133.86305156440224</v>
-      </c>
-      <c r="G34">
-        <f>IF('cantidad pollos muertos'!E33="","",GAMMAINV(0.975,'cantidad pollos muertos'!E33+(1/2),1))</f>
-        <v>183.03038759147029</v>
-      </c>
-      <c r="H34">
-        <f>IF('cantidad pollos muertos'!F33="","",GAMMAINV(0.025,'cantidad pollos muertos'!F33+(1/2),1))</f>
-        <v>54.127170276499882</v>
-      </c>
-      <c r="I34">
-        <f>IF('cantidad pollos muertos'!F33="","",GAMMAINV(0.975,'cantidad pollos muertos'!F33+(1/2),1))</f>
-        <v>86.765165784440967</v>
-      </c>
-      <c r="J34">
-        <f>IF('cantidad pollos muertos'!G33="","",GAMMAINV(0.025,'cantidad pollos muertos'!G33+(1/2),1))</f>
-        <v>96.307567312785139</v>
-      </c>
-      <c r="K34">
-        <f>IF('cantidad pollos muertos'!G33="","",GAMMAINV(0.975,'cantidad pollos muertos'!G33+(1/2),1))</f>
-        <v>138.5855658778643</v>
-      </c>
-      <c r="L34">
-        <f>IF('cantidad pollos muertos'!H33="","",GAMMAINV(0.025,'cantidad pollos muertos'!H33+(1/2),1))</f>
-        <v>26.470969885266424</v>
-      </c>
-      <c r="M34">
-        <f>IF('cantidad pollos muertos'!H33="","",GAMMAINV(0.975,'cantidad pollos muertos'!H33+(1/2),1))</f>
-        <v>50.419669200906682</v>
-      </c>
-      <c r="N34">
-        <f>IF('cantidad pollos muertos'!I33="","",GAMMAINV(0.025,'cantidad pollos muertos'!I33+(1/2),1))</f>
-        <v>6.5598600124688922</v>
-      </c>
-      <c r="O34">
-        <f>IF('cantidad pollos muertos'!I33="","",GAMMAINV(0.975,'cantidad pollos muertos'!I33+(1/2),1))</f>
-        <v>20.3232345601376</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>18</v>
-      </c>
-      <c r="B35">
-        <f>IF('cantidad pollos muertos'!C34="","",GAMMAINV(0.025,'cantidad pollos muertos'!C34+(1/2),1))</f>
-        <v>108.15770207238351</v>
-      </c>
-      <c r="C35">
-        <f>IF('cantidad pollos muertos'!C34="","",GAMMAINV(0.975,'cantidad pollos muertos'!C34+(1/2),1))</f>
-        <v>152.73554916538322</v>
-      </c>
-      <c r="D35">
-        <f>IF('cantidad pollos muertos'!D34="","",GAMMAINV(0.025,'cantidad pollos muertos'!D34+(1/2),1))</f>
-        <v>121.90060093266091</v>
-      </c>
-      <c r="E35">
-        <f>IF('cantidad pollos muertos'!D34="","",GAMMAINV(0.975,'cantidad pollos muertos'!D34+(1/2),1))</f>
-        <v>168.99276005477674</v>
-      </c>
-      <c r="F35">
-        <f>IF('cantidad pollos muertos'!E34="","",GAMMAINV(0.025,'cantidad pollos muertos'!E34+(1/2),1))</f>
-        <v>141.24578120708773</v>
-      </c>
-      <c r="G35">
-        <f>IF('cantidad pollos muertos'!E34="","",GAMMAINV(0.975,'cantidad pollos muertos'!E34+(1/2),1))</f>
-        <v>191.6476999354669</v>
-      </c>
-      <c r="H35">
-        <f>IF('cantidad pollos muertos'!F34="","",GAMMAINV(0.025,'cantidad pollos muertos'!F34+(1/2),1))</f>
-        <v>271.25554599892587</v>
-      </c>
-      <c r="I35">
-        <f>IF('cantidad pollos muertos'!F34="","",GAMMAINV(0.975,'cantidad pollos muertos'!F34+(1/2),1))</f>
-        <v>339.63831206747551</v>
-      </c>
-      <c r="J35">
-        <f>IF('cantidad pollos muertos'!G34="","",GAMMAINV(0.025,'cantidad pollos muertos'!G34+(1/2),1))</f>
-        <v>171.84506423059591</v>
-      </c>
-      <c r="K35">
-        <f>IF('cantidad pollos muertos'!G34="","",GAMMAINV(0.975,'cantidad pollos muertos'!G34+(1/2),1))</f>
-        <v>227.04855426931005</v>
-      </c>
-      <c r="L35">
-        <f>IF('cantidad pollos muertos'!H34="","",GAMMAINV(0.025,'cantidad pollos muertos'!H34+(1/2),1))</f>
-        <v>140.32211069619123</v>
-      </c>
-      <c r="M35">
-        <f>IF('cantidad pollos muertos'!H34="","",GAMMAINV(0.975,'cantidad pollos muertos'!H34+(1/2),1))</f>
-        <v>190.57136542184699</v>
-      </c>
-      <c r="N35">
-        <f>IF('cantidad pollos muertos'!I34="","",GAMMAINV(0.025,'cantidad pollos muertos'!I34+(1/2),1))</f>
-        <v>51.484124143889233</v>
-      </c>
-      <c r="O35">
-        <f>IF('cantidad pollos muertos'!I34="","",GAMMAINV(0.975,'cantidad pollos muertos'!I34+(1/2),1))</f>
-        <v>83.40812257489047</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>1</v>
-      </c>
-      <c r="B36">
-        <f>IF('cantidad pollos muertos'!C35="","",GAMMAINV(0.025,'cantidad pollos muertos'!C35+(1/2),1))</f>
-        <v>181.15776645576832</v>
-      </c>
-      <c r="C36">
-        <f>IF('cantidad pollos muertos'!C35="","",GAMMAINV(0.975,'cantidad pollos muertos'!C35+(1/2),1))</f>
-        <v>237.73588506864502</v>
-      </c>
-      <c r="D36">
-        <f>IF('cantidad pollos muertos'!D35="","",GAMMAINV(0.025,'cantidad pollos muertos'!D35+(1/2),1))</f>
-        <v>109.07169811998602</v>
-      </c>
-      <c r="E36">
-        <f>IF('cantidad pollos muertos'!D35="","",GAMMAINV(0.975,'cantidad pollos muertos'!D35+(1/2),1))</f>
-        <v>153.82156122150266</v>
-      </c>
-      <c r="F36">
-        <f>IF('cantidad pollos muertos'!E35="","",GAMMAINV(0.025,'cantidad pollos muertos'!E35+(1/2),1))</f>
-        <v>129.25684230860779</v>
-      </c>
-      <c r="G36">
-        <f>IF('cantidad pollos muertos'!E35="","",GAMMAINV(0.975,'cantidad pollos muertos'!E35+(1/2),1))</f>
-        <v>177.63656836334818</v>
-      </c>
-      <c r="H36">
-        <f>IF('cantidad pollos muertos'!F35="","",GAMMAINV(0.025,'cantidad pollos muertos'!F35+(1/2),1))</f>
-        <v>156.98183885717842</v>
-      </c>
-      <c r="I36">
-        <f>IF('cantidad pollos muertos'!F35="","",GAMMAINV(0.975,'cantidad pollos muertos'!F35+(1/2),1))</f>
-        <v>209.91171926098286</v>
-      </c>
-      <c r="J36">
-        <f>IF('cantidad pollos muertos'!G35="","",GAMMAINV(0.025,'cantidad pollos muertos'!G35+(1/2),1))</f>
-        <v>255.22424421274033</v>
-      </c>
-      <c r="K36">
-        <f>IF('cantidad pollos muertos'!G35="","",GAMMAINV(0.975,'cantidad pollos muertos'!G35+(1/2),1))</f>
-        <v>321.66958734123659</v>
-      </c>
-      <c r="L36">
-        <f>IF('cantidad pollos muertos'!H35="","",GAMMAINV(0.025,'cantidad pollos muertos'!H35+(1/2),1))</f>
-        <v>69.236090053698319</v>
-      </c>
-      <c r="M36">
-        <f>IF('cantidad pollos muertos'!H35="","",GAMMAINV(0.975,'cantidad pollos muertos'!H35+(1/2),1))</f>
-        <v>105.65663473998677</v>
-      </c>
-      <c r="N36">
-        <f>IF('cantidad pollos muertos'!I35="","",GAMMAINV(0.025,'cantidad pollos muertos'!I35+(1/2),1))</f>
-        <v>56.777856776887383</v>
-      </c>
-      <c r="O36">
-        <f>IF('cantidad pollos muertos'!I35="","",GAMMAINV(0.975,'cantidad pollos muertos'!I35+(1/2),1))</f>
-        <v>90.114561196020517</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>37</v>
-      </c>
-      <c r="B37">
-        <f>IF('cantidad pollos muertos'!C36="","",GAMMAINV(0.025,'cantidad pollos muertos'!C36+(1/2),1))</f>
-        <v>49.726594486708123</v>
-      </c>
-      <c r="C37">
-        <f>IF('cantidad pollos muertos'!C36="","",GAMMAINV(0.975,'cantidad pollos muertos'!C36+(1/2),1))</f>
-        <v>81.165588027937574</v>
-      </c>
-      <c r="D37">
-        <f>IF('cantidad pollos muertos'!D36="","",GAMMAINV(0.025,'cantidad pollos muertos'!D36+(1/2),1))</f>
-        <v>120.06430952815636</v>
-      </c>
-      <c r="E37">
-        <f>IF('cantidad pollos muertos'!D36="","",GAMMAINV(0.975,'cantidad pollos muertos'!D36+(1/2),1))</f>
-        <v>166.82903816430675</v>
-      </c>
-      <c r="F37">
-        <f>IF('cantidad pollos muertos'!E36="","",GAMMAINV(0.025,'cantidad pollos muertos'!E36+(1/2),1))</f>
-        <v>112.73093794377093</v>
-      </c>
-      <c r="G37">
-        <f>IF('cantidad pollos muertos'!E36="","",GAMMAINV(0.975,'cantidad pollos muertos'!E36+(1/2),1))</f>
-        <v>158.16235260438964</v>
-      </c>
-      <c r="H37">
-        <f>IF('cantidad pollos muertos'!F36="","",GAMMAINV(0.025,'cantidad pollos muertos'!F36+(1/2),1))</f>
-        <v>262.76491571972474</v>
-      </c>
-      <c r="I37">
-        <f>IF('cantidad pollos muertos'!F36="","",GAMMAINV(0.975,'cantidad pollos muertos'!F36+(1/2),1))</f>
-        <v>330.12892869114035</v>
-      </c>
-      <c r="J37">
-        <f>IF('cantidad pollos muertos'!G36="","",GAMMAINV(0.025,'cantidad pollos muertos'!G36+(1/2),1))</f>
-        <v>93.581917053701943</v>
-      </c>
-      <c r="K37">
-        <f>IF('cantidad pollos muertos'!G36="","",GAMMAINV(0.975,'cantidad pollos muertos'!G36+(1/2),1))</f>
-        <v>135.31118504298269</v>
-      </c>
-      <c r="L37">
-        <f>IF('cantidad pollos muertos'!H36="","",GAMMAINV(0.025,'cantidad pollos muertos'!H36+(1/2),1))</f>
-        <v>91.766838569897061</v>
-      </c>
-      <c r="M37">
-        <f>IF('cantidad pollos muertos'!H36="","",GAMMAINV(0.975,'cantidad pollos muertos'!H36+(1/2),1))</f>
-        <v>133.12624186493369</v>
-      </c>
-      <c r="N37">
-        <f>IF('cantidad pollos muertos'!I36="","",GAMMAINV(0.025,'cantidad pollos muertos'!I36+(1/2),1))</f>
-        <v>67.448256305265616</v>
-      </c>
-      <c r="O37">
-        <f>IF('cantidad pollos muertos'!I36="","",GAMMAINV(0.975,'cantidad pollos muertos'!I36+(1/2),1))</f>
-        <v>103.44443090775799</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>20</v>
-      </c>
-      <c r="B38">
-        <f>IF('cantidad pollos muertos'!C37="","",GAMMAINV(0.025,'cantidad pollos muertos'!C37+(1/2),1))</f>
-        <v>55.893475743516525</v>
-      </c>
-      <c r="C38">
-        <f>IF('cantidad pollos muertos'!C37="","",GAMMAINV(0.975,'cantidad pollos muertos'!C37+(1/2),1))</f>
-        <v>88.998915692959812</v>
-      </c>
-      <c r="D38">
-        <f>IF('cantidad pollos muertos'!D37="","",GAMMAINV(0.025,'cantidad pollos muertos'!D37+(1/2),1))</f>
-        <v>34.962433543720138</v>
-      </c>
-      <c r="E38">
-        <f>IF('cantidad pollos muertos'!D37="","",GAMMAINV(0.975,'cantidad pollos muertos'!D37+(1/2),1))</f>
-        <v>61.928983302147522</v>
-      </c>
-      <c r="F38">
-        <f>IF('cantidad pollos muertos'!E37="","",GAMMAINV(0.025,'cantidad pollos muertos'!E37+(1/2),1))</f>
-        <v>30.694387291605764</v>
-      </c>
-      <c r="G38">
-        <f>IF('cantidad pollos muertos'!E37="","",GAMMAINV(0.975,'cantidad pollos muertos'!E37+(1/2),1))</f>
-        <v>56.196686807634066</v>
-      </c>
-      <c r="H38">
-        <f>IF('cantidad pollos muertos'!F37="","",GAMMAINV(0.025,'cantidad pollos muertos'!F37+(1/2),1))</f>
-        <v>101.76928066438617</v>
-      </c>
-      <c r="I38">
-        <f>IF('cantidad pollos muertos'!F37="","",GAMMAINV(0.975,'cantidad pollos muertos'!F37+(1/2),1))</f>
-        <v>145.12391013196</v>
-      </c>
-      <c r="J38">
-        <f>IF('cantidad pollos muertos'!G37="","",GAMMAINV(0.025,'cantidad pollos muertos'!G37+(1/2),1))</f>
-        <v>67.448256305265616</v>
-      </c>
-      <c r="K38">
-        <f>IF('cantidad pollos muertos'!G37="","",GAMMAINV(0.975,'cantidad pollos muertos'!G37+(1/2),1))</f>
-        <v>103.44443090775799</v>
-      </c>
-      <c r="L38">
-        <f>IF('cantidad pollos muertos'!H37="","",GAMMAINV(0.025,'cantidad pollos muertos'!H37+(1/2),1))</f>
-        <v>64.77127925072125</v>
-      </c>
-      <c r="M38">
-        <f>IF('cantidad pollos muertos'!H37="","",GAMMAINV(0.975,'cantidad pollos muertos'!H37+(1/2),1))</f>
-        <v>100.12134811782056</v>
-      </c>
-      <c r="N38">
-        <f>IF('cantidad pollos muertos'!I37="","",GAMMAINV(0.025,'cantidad pollos muertos'!I37+(1/2),1))</f>
-        <v>33.250344584097988</v>
-      </c>
-      <c r="O38">
-        <f>IF('cantidad pollos muertos'!I37="","",GAMMAINV(0.975,'cantidad pollos muertos'!I37+(1/2),1))</f>
-        <v>59.640944273247818</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>70</v>
-      </c>
-      <c r="B39" t="str">
-        <f>IF('cantidad pollos muertos'!C38="","",GAMMAINV(0.025,'cantidad pollos muertos'!C38+(1/2),1))</f>
-        <v/>
-      </c>
-      <c r="C39" t="str">
-        <f>IF('cantidad pollos muertos'!C38="","",GAMMAINV(0.975,'cantidad pollos muertos'!C38+(1/2),1))</f>
-        <v/>
-      </c>
-      <c r="D39" t="str">
-        <f>IF('cantidad pollos muertos'!D38="","",GAMMAINV(0.025,'cantidad pollos muertos'!D38+(1/2),1))</f>
-        <v/>
-      </c>
-      <c r="E39" t="str">
-        <f>IF('cantidad pollos muertos'!D38="","",GAMMAINV(0.975,'cantidad pollos muertos'!D38+(1/2),1))</f>
-        <v/>
-      </c>
-      <c r="F39" t="str">
-        <f>IF('cantidad pollos muertos'!E38="","",GAMMAINV(0.025,'cantidad pollos muertos'!E38+(1/2),1))</f>
-        <v/>
-      </c>
-      <c r="G39" t="str">
-        <f>IF('cantidad pollos muertos'!E38="","",GAMMAINV(0.975,'cantidad pollos muertos'!E38+(1/2),1))</f>
-        <v/>
-      </c>
-      <c r="H39">
-        <f>IF('cantidad pollos muertos'!F38="","",GAMMAINV(0.025,'cantidad pollos muertos'!F38+(1/2),1))</f>
-        <v>150.49483000255319</v>
-      </c>
-      <c r="I39">
-        <f>IF('cantidad pollos muertos'!F38="","",GAMMAINV(0.975,'cantidad pollos muertos'!F38+(1/2),1))</f>
-        <v>202.39869822948049</v>
-      </c>
-      <c r="J39">
-        <f>IF('cantidad pollos muertos'!G38="","",GAMMAINV(0.025,'cantidad pollos muertos'!G38+(1/2),1))</f>
-        <v>765.31113591636995</v>
-      </c>
-      <c r="K39">
-        <f>IF('cantidad pollos muertos'!G38="","",GAMMAINV(0.975,'cantidad pollos muertos'!G38+(1/2),1))</f>
-        <v>877.58300389638237</v>
-      </c>
-      <c r="L39">
-        <f>IF('cantidad pollos muertos'!H38="","",GAMMAINV(0.025,'cantidad pollos muertos'!H38+(1/2),1))</f>
-        <v>222.31338117944131</v>
-      </c>
-      <c r="M39">
-        <f>IF('cantidad pollos muertos'!H38="","",GAMMAINV(0.975,'cantidad pollos muertos'!H38+(1/2),1))</f>
-        <v>284.58038453305556</v>
-      </c>
-      <c r="N39">
-        <f>IF('cantidad pollos muertos'!I38="","",GAMMAINV(0.025,'cantidad pollos muertos'!I38+(1/2),1))</f>
-        <v>222.31338117944131</v>
-      </c>
-      <c r="O39">
-        <f>IF('cantidad pollos muertos'!I38="","",GAMMAINV(0.975,'cantidad pollos muertos'!I38+(1/2),1))</f>
-        <v>284.58038453305556</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>19</v>
-      </c>
-      <c r="B40">
-        <f>IF('cantidad pollos muertos'!C39="","",GAMMAINV(0.025,'cantidad pollos muertos'!C39+(1/2),1))</f>
-        <v>199.83098059938479</v>
-      </c>
-      <c r="C40">
-        <f>IF('cantidad pollos muertos'!C39="","",GAMMAINV(0.975,'cantidad pollos muertos'!C39+(1/2),1))</f>
-        <v>259.06272828882726</v>
-      </c>
-      <c r="D40">
-        <f>IF('cantidad pollos muertos'!D39="","",GAMMAINV(0.025,'cantidad pollos muertos'!D39+(1/2),1))</f>
-        <v>142.16968219363059</v>
-      </c>
-      <c r="E40">
-        <f>IF('cantidad pollos muertos'!D39="","",GAMMAINV(0.975,'cantidad pollos muertos'!D39+(1/2),1))</f>
-        <v>192.72380391295633</v>
-      </c>
-      <c r="F40">
-        <f>IF('cantidad pollos muertos'!E39="","",GAMMAINV(0.025,'cantidad pollos muertos'!E39+(1/2),1))</f>
-        <v>179.29388372768716</v>
-      </c>
-      <c r="G40">
-        <f>IF('cantidad pollos muertos'!E39="","",GAMMAINV(0.975,'cantidad pollos muertos'!E39+(1/2),1))</f>
-        <v>235.59976144814786</v>
-      </c>
-      <c r="H40">
-        <f>IF('cantidad pollos muertos'!F39="","",GAMMAINV(0.025,'cantidad pollos muertos'!F39+(1/2),1))</f>
-        <v>201.70155665364121</v>
-      </c>
-      <c r="I40">
-        <f>IF('cantidad pollos muertos'!F39="","",GAMMAINV(0.975,'cantidad pollos muertos'!F39+(1/2),1))</f>
-        <v>261.19215742259411</v>
-      </c>
-      <c r="J40">
-        <f>IF('cantidad pollos muertos'!G39="","",GAMMAINV(0.025,'cantidad pollos muertos'!G39+(1/2),1))</f>
-        <v>156.05451286229808</v>
-      </c>
-      <c r="K40">
-        <f>IF('cantidad pollos muertos'!G39="","",GAMMAINV(0.975,'cantidad pollos muertos'!G39+(1/2),1))</f>
-        <v>208.83904112783321</v>
-      </c>
-      <c r="L40">
-        <f>IF('cantidad pollos muertos'!H39="","",GAMMAINV(0.025,'cantidad pollos muertos'!H39+(1/2),1))</f>
-        <v>96.307567312785139</v>
-      </c>
-      <c r="M40">
-        <f>IF('cantidad pollos muertos'!H39="","",GAMMAINV(0.975,'cantidad pollos muertos'!H39+(1/2),1))</f>
-        <v>138.5855658778643</v>
-      </c>
-      <c r="N40">
-        <f>IF('cantidad pollos muertos'!I39="","",GAMMAINV(0.025,'cantidad pollos muertos'!I39+(1/2),1))</f>
-        <v>66.555282724745524</v>
-      </c>
-      <c r="O40">
-        <f>IF('cantidad pollos muertos'!I39="","",GAMMAINV(0.975,'cantidad pollos muertos'!I39+(1/2),1))</f>
-        <v>102.33738501995983</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>26</v>
-      </c>
-      <c r="B41">
-        <f>IF('cantidad pollos muertos'!C40="","",GAMMAINV(0.025,'cantidad pollos muertos'!C40+(1/2),1))</f>
-        <v>548.62533919166628</v>
-      </c>
-      <c r="C41">
-        <f>IF('cantidad pollos muertos'!C40="","",GAMMAINV(0.975,'cantidad pollos muertos'!C40+(1/2),1))</f>
-        <v>644.26873783735732</v>
-      </c>
-      <c r="D41">
-        <f>IF('cantidad pollos muertos'!D40="","",GAMMAINV(0.025,'cantidad pollos muertos'!D40+(1/2),1))</f>
-        <v>1049.0499170025248</v>
-      </c>
-      <c r="E41">
-        <f>IF('cantidad pollos muertos'!D40="","",GAMMAINV(0.975,'cantidad pollos muertos'!D40+(1/2),1))</f>
-        <v>1179.8442665223874</v>
-      </c>
-      <c r="F41">
-        <f>IF('cantidad pollos muertos'!E40="","",GAMMAINV(0.025,'cantidad pollos muertos'!E40+(1/2),1))</f>
-        <v>924.924049454586</v>
-      </c>
-      <c r="G41">
-        <f>IF('cantidad pollos muertos'!E40="","",GAMMAINV(0.975,'cantidad pollos muertos'!E40+(1/2),1))</f>
-        <v>1047.9701181726064</v>
-      </c>
-      <c r="H41">
-        <f>IF('cantidad pollos muertos'!F40="","",GAMMAINV(0.025,'cantidad pollos muertos'!F40+(1/2),1))</f>
-        <v>321.39769896169901</v>
-      </c>
-      <c r="I41">
-        <f>IF('cantidad pollos muertos'!F40="","",GAMMAINV(0.975,'cantidad pollos muertos'!F40+(1/2),1))</f>
-        <v>395.49622556041908</v>
-      </c>
-      <c r="J41">
-        <f>IF('cantidad pollos muertos'!G40="","",GAMMAINV(0.025,'cantidad pollos muertos'!G40+(1/2),1))</f>
-        <v>986.95742658016775</v>
-      </c>
-      <c r="K41">
-        <f>IF('cantidad pollos muertos'!G40="","",GAMMAINV(0.975,'cantidad pollos muertos'!G40+(1/2),1))</f>
-        <v>1113.9367494807827</v>
-      </c>
-      <c r="L41">
-        <f>IF('cantidad pollos muertos'!H40="","",GAMMAINV(0.025,'cantidad pollos muertos'!H40+(1/2),1))</f>
-        <v>67.448256305265616</v>
-      </c>
-      <c r="M41">
-        <f>IF('cantidad pollos muertos'!H40="","",GAMMAINV(0.975,'cantidad pollos muertos'!H40+(1/2),1))</f>
-        <v>103.44443090775799</v>
-      </c>
-      <c r="N41">
-        <f>IF('cantidad pollos muertos'!I40="","",GAMMAINV(0.025,'cantidad pollos muertos'!I40+(1/2),1))</f>
-        <v>119.14659511982991</v>
-      </c>
-      <c r="O41">
-        <f>IF('cantidad pollos muertos'!I40="","",GAMMAINV(0.975,'cantidad pollos muertos'!I40+(1/2),1))</f>
-        <v>165.74674578385378</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>33</v>
-      </c>
-      <c r="B42">
-        <f>IF('cantidad pollos muertos'!C41="","",GAMMAINV(0.025,'cantidad pollos muertos'!C41+(1/2),1))</f>
-        <v>174.63709139652676</v>
-      </c>
-      <c r="C42">
-        <f>IF('cantidad pollos muertos'!C41="","",GAMMAINV(0.975,'cantidad pollos muertos'!C41+(1/2),1))</f>
-        <v>230.25653735551839</v>
-      </c>
-      <c r="D42">
-        <f>IF('cantidad pollos muertos'!D41="","",GAMMAINV(0.025,'cantidad pollos muertos'!D41+(1/2),1))</f>
-        <v>319.5015285063526</v>
-      </c>
-      <c r="E42">
-        <f>IF('cantidad pollos muertos'!D41="","",GAMMAINV(0.975,'cantidad pollos muertos'!D41+(1/2),1))</f>
-        <v>393.39239386812818</v>
-      </c>
-      <c r="F42">
-        <f>IF('cantidad pollos muertos'!E41="","",GAMMAINV(0.025,'cantidad pollos muertos'!E41+(1/2),1))</f>
-        <v>221.37513463914547</v>
-      </c>
-      <c r="G42">
-        <f>IF('cantidad pollos muertos'!E41="","",GAMMAINV(0.975,'cantidad pollos muertos'!E41+(1/2),1))</f>
-        <v>283.51862892250807</v>
-      </c>
-      <c r="H42">
-        <f>IF('cantidad pollos muertos'!F41="","",GAMMAINV(0.025,'cantidad pollos muertos'!F41+(1/2),1))</f>
-        <v>169.9845877189511</v>
-      </c>
-      <c r="I42">
-        <f>IF('cantidad pollos muertos'!F41="","",GAMMAINV(0.975,'cantidad pollos muertos'!F41+(1/2),1))</f>
-        <v>224.90902377196636</v>
-      </c>
-      <c r="J42">
-        <f>IF('cantidad pollos muertos'!G41="","",GAMMAINV(0.025,'cantidad pollos muertos'!G41+(1/2),1))</f>
-        <v>110.90067430604017</v>
-      </c>
-      <c r="K42">
-        <f>IF('cantidad pollos muertos'!G41="","",GAMMAINV(0.975,'cantidad pollos muertos'!G41+(1/2),1))</f>
-        <v>155.99260087494179</v>
-      </c>
-      <c r="L42">
-        <f>IF('cantidad pollos muertos'!H41="","",GAMMAINV(0.025,'cantidad pollos muertos'!H41+(1/2),1))</f>
-        <v>66.555282724745524</v>
-      </c>
-      <c r="M42">
-        <f>IF('cantidad pollos muertos'!H41="","",GAMMAINV(0.975,'cantidad pollos muertos'!H41+(1/2),1))</f>
-        <v>102.33738501995983</v>
-      </c>
-      <c r="N42">
-        <f>IF('cantidad pollos muertos'!I41="","",GAMMAINV(0.025,'cantidad pollos muertos'!I41+(1/2),1))</f>
-        <v>66.555282724745524</v>
-      </c>
-      <c r="O42">
-        <f>IF('cantidad pollos muertos'!I41="","",GAMMAINV(0.975,'cantidad pollos muertos'!I41+(1/2),1))</f>
-        <v>102.33738501995983</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>6</v>
-      </c>
-      <c r="B43">
-        <f>IF('cantidad pollos muertos'!C42="","",GAMMAINV(0.025,'cantidad pollos muertos'!C42+(1/2),1))</f>
-        <v>967.56538881400036</v>
-      </c>
-      <c r="C43">
-        <f>IF('cantidad pollos muertos'!C42="","",GAMMAINV(0.975,'cantidad pollos muertos'!C42+(1/2),1))</f>
-        <v>1093.3287847240811</v>
-      </c>
-      <c r="D43">
-        <f>IF('cantidad pollos muertos'!D42="","",GAMMAINV(0.025,'cantidad pollos muertos'!D42+(1/2),1))</f>
-        <v>1696.7950697366227</v>
-      </c>
-      <c r="E43">
-        <f>IF('cantidad pollos muertos'!D42="","",GAMMAINV(0.975,'cantidad pollos muertos'!D42+(1/2),1))</f>
-        <v>1862.0991595475402</v>
-      </c>
-      <c r="F43">
-        <f>IF('cantidad pollos muertos'!E42="","",GAMMAINV(0.025,'cantidad pollos muertos'!E42+(1/2),1))</f>
-        <v>4583.8313595495547</v>
-      </c>
-      <c r="G43">
-        <f>IF('cantidad pollos muertos'!E42="","",GAMMAINV(0.975,'cantidad pollos muertos'!E42+(1/2),1))</f>
-        <v>4853.0629174576852</v>
-      </c>
-      <c r="H43">
-        <f>IF('cantidad pollos muertos'!F42="","",GAMMAINV(0.025,'cantidad pollos muertos'!F42+(1/2),1))</f>
-        <v>871.66578222027056</v>
-      </c>
-      <c r="I43">
-        <f>IF('cantidad pollos muertos'!F42="","",GAMMAINV(0.975,'cantidad pollos muertos'!F42+(1/2),1))</f>
-        <v>991.22837723190105</v>
-      </c>
-      <c r="J43">
-        <f>IF('cantidad pollos muertos'!G42="","",GAMMAINV(0.025,'cantidad pollos muertos'!G42+(1/2),1))</f>
-        <v>699.6881198571507</v>
-      </c>
-      <c r="K43">
-        <f>IF('cantidad pollos muertos'!G42="","",GAMMAINV(0.975,'cantidad pollos muertos'!G42+(1/2),1))</f>
-        <v>807.20600494167547</v>
-      </c>
-      <c r="L43">
-        <f>IF('cantidad pollos muertos'!H42="","",GAMMAINV(0.025,'cantidad pollos muertos'!H42+(1/2),1))</f>
-        <v>478.65317839881567</v>
-      </c>
-      <c r="M43">
-        <f>IF('cantidad pollos muertos'!H42="","",GAMMAINV(0.975,'cantidad pollos muertos'!H42+(1/2),1))</f>
-        <v>568.24086663478749</v>
-      </c>
-      <c r="N43">
-        <f>IF('cantidad pollos muertos'!I42="","",GAMMAINV(0.025,'cantidad pollos muertos'!I42+(1/2),1))</f>
-        <v>864.89111119897188</v>
-      </c>
-      <c r="O43">
-        <f>IF('cantidad pollos muertos'!I42="","",GAMMAINV(0.975,'cantidad pollos muertos'!I42+(1/2),1))</f>
-        <v>984.00304714286347</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>4</v>
-      </c>
-      <c r="B44">
-        <f>IF('cantidad pollos muertos'!C43="","",GAMMAINV(0.025,'cantidad pollos muertos'!C43+(1/2),1))</f>
-        <v>985.01796057738704</v>
-      </c>
-      <c r="C44">
-        <f>IF('cantidad pollos muertos'!C43="","",GAMMAINV(0.975,'cantidad pollos muertos'!C43+(1/2),1))</f>
-        <v>1111.8762152356135</v>
-      </c>
-      <c r="D44">
-        <f>IF('cantidad pollos muertos'!D43="","",GAMMAINV(0.025,'cantidad pollos muertos'!D43+(1/2),1))</f>
-        <v>1357.3219889319423</v>
-      </c>
-      <c r="E44">
-        <f>IF('cantidad pollos muertos'!D43="","",GAMMAINV(0.975,'cantidad pollos muertos'!D43+(1/2),1))</f>
-        <v>1505.5722217138516</v>
-      </c>
-      <c r="F44">
-        <f>IF('cantidad pollos muertos'!E43="","",GAMMAINV(0.025,'cantidad pollos muertos'!E43+(1/2),1))</f>
-        <v>3960.1883460942354</v>
-      </c>
-      <c r="G44">
-        <f>IF('cantidad pollos muertos'!E43="","",GAMMAINV(0.975,'cantidad pollos muertos'!E43+(1/2),1))</f>
-        <v>4210.7059264379523</v>
-      </c>
-      <c r="H44">
-        <f>IF('cantidad pollos muertos'!F43="","",GAMMAINV(0.025,'cantidad pollos muertos'!F43+(1/2),1))</f>
-        <v>1526.9426730191165</v>
-      </c>
-      <c r="I44">
-        <f>IF('cantidad pollos muertos'!F43="","",GAMMAINV(0.975,'cantidad pollos muertos'!F43+(1/2),1))</f>
-        <v>1683.9515479567065</v>
-      </c>
-      <c r="J44">
-        <f>IF('cantidad pollos muertos'!G43="","",GAMMAINV(0.025,'cantidad pollos muertos'!G43+(1/2),1))</f>
-        <v>1114.110862795982</v>
-      </c>
-      <c r="K44">
-        <f>IF('cantidad pollos muertos'!G43="","",GAMMAINV(0.975,'cantidad pollos muertos'!G43+(1/2),1))</f>
-        <v>1248.7833276754016</v>
-      </c>
-      <c r="L44">
-        <f>IF('cantidad pollos muertos'!H43="","",GAMMAINV(0.025,'cantidad pollos muertos'!H43+(1/2),1))</f>
-        <v>608.19682197829161</v>
-      </c>
-      <c r="M44">
-        <f>IF('cantidad pollos muertos'!H43="","",GAMMAINV(0.975,'cantidad pollos muertos'!H43+(1/2),1))</f>
-        <v>708.69727664239463</v>
-      </c>
-      <c r="N44">
-        <f>IF('cantidad pollos muertos'!I43="","",GAMMAINV(0.025,'cantidad pollos muertos'!I43+(1/2),1))</f>
-        <v>678.47997729179644</v>
-      </c>
-      <c r="O44">
-        <f>IF('cantidad pollos muertos'!I43="","",GAMMAINV(0.975,'cantidad pollos muertos'!I43+(1/2),1))</f>
-        <v>784.41414205083629</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>2</v>
-      </c>
-      <c r="B45">
-        <f>IF('cantidad pollos muertos'!C44="","",GAMMAINV(0.025,'cantidad pollos muertos'!C44+(1/2),1))</f>
-        <v>83.620315112988024</v>
-      </c>
-      <c r="C45">
-        <f>IF('cantidad pollos muertos'!C44="","",GAMMAINV(0.975,'cantidad pollos muertos'!C44+(1/2),1))</f>
-        <v>123.27265734594629</v>
-      </c>
-      <c r="D45">
-        <f>IF('cantidad pollos muertos'!D44="","",GAMMAINV(0.025,'cantidad pollos muertos'!D44+(1/2),1))</f>
-        <v>82.717424459465121</v>
-      </c>
-      <c r="E45">
-        <f>IF('cantidad pollos muertos'!D44="","",GAMMAINV(0.975,'cantidad pollos muertos'!D44+(1/2),1))</f>
-        <v>122.17553481598543</v>
-      </c>
-      <c r="F45">
-        <f>IF('cantidad pollos muertos'!E44="","",GAMMAINV(0.025,'cantidad pollos muertos'!E44+(1/2),1))</f>
-        <v>115.47868500239804</v>
-      </c>
-      <c r="G45">
-        <f>IF('cantidad pollos muertos'!E44="","",GAMMAINV(0.975,'cantidad pollos muertos'!E44+(1/2),1))</f>
-        <v>161.41462775614207</v>
-      </c>
-      <c r="H45">
-        <f>IF('cantidad pollos muertos'!F44="","",GAMMAINV(0.025,'cantidad pollos muertos'!F44+(1/2),1))</f>
-        <v>107.24403913202086</v>
-      </c>
-      <c r="I45">
-        <f>IF('cantidad pollos muertos'!F44="","",GAMMAINV(0.975,'cantidad pollos muertos'!F44+(1/2),1))</f>
-        <v>151.64920387554514</v>
-      </c>
-      <c r="J45">
-        <f>IF('cantidad pollos muertos'!G44="","",GAMMAINV(0.025,'cantidad pollos muertos'!G44+(1/2),1))</f>
-        <v>87.236542631327438</v>
-      </c>
-      <c r="K45">
-        <f>IF('cantidad pollos muertos'!G44="","",GAMMAINV(0.975,'cantidad pollos muertos'!G44+(1/2),1))</f>
-        <v>127.65648007746864</v>
-      </c>
-      <c r="L45">
-        <f>IF('cantidad pollos muertos'!H44="","",GAMMAINV(0.025,'cantidad pollos muertos'!H44+(1/2),1))</f>
-        <v>51.484124143889233</v>
-      </c>
-      <c r="M45">
-        <f>IF('cantidad pollos muertos'!H44="","",GAMMAINV(0.975,'cantidad pollos muertos'!H44+(1/2),1))</f>
-        <v>83.40812257489047</v>
-      </c>
-      <c r="N45">
-        <f>IF('cantidad pollos muertos'!I44="","",GAMMAINV(0.025,'cantidad pollos muertos'!I44+(1/2),1))</f>
-        <v>55.893475743516525</v>
-      </c>
-      <c r="O45">
-        <f>IF('cantidad pollos muertos'!I44="","",GAMMAINV(0.975,'cantidad pollos muertos'!I44+(1/2),1))</f>
-        <v>88.998915692959812</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>29</v>
-      </c>
-      <c r="B46">
-        <f>IF('cantidad pollos muertos'!C45="","",GAMMAINV(0.025,'cantidad pollos muertos'!C45+(1/2),1))</f>
-        <v>132.0198061058029</v>
-      </c>
-      <c r="C46">
-        <f>IF('cantidad pollos muertos'!C45="","",GAMMAINV(0.975,'cantidad pollos muertos'!C45+(1/2),1))</f>
-        <v>180.87362187681995</v>
-      </c>
-      <c r="D46">
-        <f>IF('cantidad pollos muertos'!D45="","",GAMMAINV(0.025,'cantidad pollos muertos'!D45+(1/2),1))</f>
-        <v>535.19098313718803</v>
-      </c>
-      <c r="E46">
-        <f>IF('cantidad pollos muertos'!D45="","",GAMMAINV(0.975,'cantidad pollos muertos'!D45+(1/2),1))</f>
-        <v>629.70308837869106</v>
-      </c>
-      <c r="F46">
-        <f>IF('cantidad pollos muertos'!E45="","",GAMMAINV(0.025,'cantidad pollos muertos'!E45+(1/2),1))</f>
-        <v>640.91361929566665</v>
-      </c>
-      <c r="G46">
-        <f>IF('cantidad pollos muertos'!E45="","",GAMMAINV(0.975,'cantidad pollos muertos'!E45+(1/2),1))</f>
-        <v>743.98048952094484</v>
-      </c>
-      <c r="H46">
-        <f>IF('cantidad pollos muertos'!F45="","",GAMMAINV(0.025,'cantidad pollos muertos'!F45+(1/2),1))</f>
-        <v>362.23179958488959</v>
-      </c>
-      <c r="I46">
-        <f>IF('cantidad pollos muertos'!F45="","",GAMMAINV(0.975,'cantidad pollos muertos'!F45+(1/2),1))</f>
-        <v>440.66216591868124</v>
-      </c>
-      <c r="J46">
-        <f>IF('cantidad pollos muertos'!G45="","",GAMMAINV(0.025,'cantidad pollos muertos'!G45+(1/2),1))</f>
-        <v>75.512217647445581</v>
-      </c>
-      <c r="K46">
-        <f>IF('cantidad pollos muertos'!G45="","",GAMMAINV(0.975,'cantidad pollos muertos'!G45+(1/2),1))</f>
-        <v>113.38062596936612</v>
-      </c>
-      <c r="L46">
-        <f>IF('cantidad pollos muertos'!H45="","",GAMMAINV(0.025,'cantidad pollos muertos'!H45+(1/2),1))</f>
-        <v>72.819004490068878</v>
-      </c>
-      <c r="M46">
-        <f>IF('cantidad pollos muertos'!H45="","",GAMMAINV(0.975,'cantidad pollos muertos'!H45+(1/2),1))</f>
-        <v>110.07379046221725</v>
-      </c>
-      <c r="N46">
-        <f>IF('cantidad pollos muertos'!I45="","",GAMMAINV(0.025,'cantidad pollos muertos'!I45+(1/2),1))</f>
-        <v>80.01166316279793</v>
-      </c>
-      <c r="O46">
-        <f>IF('cantidad pollos muertos'!I45="","",GAMMAINV(0.975,'cantidad pollos muertos'!I45+(1/2),1))</f>
-        <v>118.88125495026803</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>22</v>
-      </c>
-      <c r="B47">
-        <f>IF('cantidad pollos muertos'!C46="","",GAMMAINV(0.025,'cantidad pollos muertos'!C46+(1/2),1))</f>
-        <v>28.999208263699717</v>
-      </c>
-      <c r="C47">
-        <f>IF('cantidad pollos muertos'!C46="","",GAMMAINV(0.975,'cantidad pollos muertos'!C46+(1/2),1))</f>
-        <v>53.891704832667266</v>
-      </c>
-      <c r="D47">
-        <f>IF('cantidad pollos muertos'!D46="","",GAMMAINV(0.025,'cantidad pollos muertos'!D46+(1/2),1))</f>
-        <v>27.311679260779517</v>
-      </c>
-      <c r="E47">
-        <f>IF('cantidad pollos muertos'!D46="","",GAMMAINV(0.975,'cantidad pollos muertos'!D46+(1/2),1))</f>
-        <v>51.579055950673293</v>
-      </c>
-      <c r="F47">
-        <f>IF('cantidad pollos muertos'!E46="","",GAMMAINV(0.025,'cantidad pollos muertos'!E46+(1/2),1))</f>
-        <v>40.133392287067011</v>
-      </c>
-      <c r="G47">
-        <f>IF('cantidad pollos muertos'!E46="","",GAMMAINV(0.975,'cantidad pollos muertos'!E46+(1/2),1))</f>
-        <v>68.758350727289638</v>
-      </c>
-      <c r="H47">
-        <f>IF('cantidad pollos muertos'!F46="","",GAMMAINV(0.025,'cantidad pollos muertos'!F46+(1/2),1))</f>
-        <v>32.396680742579541</v>
-      </c>
-      <c r="I47">
-        <f>IF('cantidad pollos muertos'!F46="","",GAMMAINV(0.975,'cantidad pollos muertos'!F46+(1/2),1))</f>
-        <v>58.494539771790699</v>
-      </c>
-      <c r="J47">
-        <f>IF('cantidad pollos muertos'!G46="","",GAMMAINV(0.025,'cantidad pollos muertos'!G46+(1/2),1))</f>
-        <v>54.127170276499882</v>
-      </c>
-      <c r="K47">
-        <f>IF('cantidad pollos muertos'!G46="","",GAMMAINV(0.975,'cantidad pollos muertos'!G46+(1/2),1))</f>
-        <v>86.765165784440967</v>
-      </c>
-      <c r="L47">
-        <f>IF('cantidad pollos muertos'!H46="","",GAMMAINV(0.025,'cantidad pollos muertos'!H46+(1/2),1))</f>
-        <v>25.632406636710915</v>
-      </c>
-      <c r="M47">
-        <f>IF('cantidad pollos muertos'!H46="","",GAMMAINV(0.975,'cantidad pollos muertos'!H46+(1/2),1))</f>
-        <v>49.258131005783902</v>
-      </c>
-      <c r="N47">
-        <f>IF('cantidad pollos muertos'!I46="","",GAMMAINV(0.025,'cantidad pollos muertos'!I46+(1/2),1))</f>
-        <v>15.777458231333561</v>
-      </c>
-      <c r="O47">
-        <f>IF('cantidad pollos muertos'!I46="","",GAMMAINV(0.975,'cantidad pollos muertos'!I46+(1/2),1))</f>
-        <v>35.11120678321727</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>71</v>
-      </c>
-      <c r="B48" t="str">
-        <f>IF('cantidad pollos muertos'!C47="","",GAMMAINV(0.025,'cantidad pollos muertos'!C47+(1/2),1))</f>
-        <v/>
-      </c>
-      <c r="C48" t="str">
-        <f>IF('cantidad pollos muertos'!C47="","",GAMMAINV(0.975,'cantidad pollos muertos'!C47+(1/2),1))</f>
-        <v/>
-      </c>
-      <c r="D48">
-        <f>IF('cantidad pollos muertos'!D47="","",GAMMAINV(0.025,'cantidad pollos muertos'!D47+(1/2),1))</f>
-        <v>278.80906055151064</v>
-      </c>
-      <c r="E48">
-        <f>IF('cantidad pollos muertos'!D47="","",GAMMAINV(0.975,'cantidad pollos muertos'!D47+(1/2),1))</f>
-        <v>348.08480899206802</v>
-      </c>
-      <c r="F48">
-        <f>IF('cantidad pollos muertos'!E47="","",GAMMAINV(0.025,'cantidad pollos muertos'!E47+(1/2),1))</f>
-        <v>286.36825741056521</v>
-      </c>
-      <c r="G48">
-        <f>IF('cantidad pollos muertos'!E47="","",GAMMAINV(0.975,'cantidad pollos muertos'!E47+(1/2),1))</f>
-        <v>356.52562303658738</v>
-      </c>
-      <c r="H48">
-        <f>IF('cantidad pollos muertos'!F47="","",GAMMAINV(0.025,'cantidad pollos muertos'!F47+(1/2),1))</f>
-        <v>77.310424850812296</v>
-      </c>
-      <c r="I48">
-        <f>IF('cantidad pollos muertos'!F47="","",GAMMAINV(0.975,'cantidad pollos muertos'!F47+(1/2),1))</f>
-        <v>115.58244950407959</v>
-      </c>
-      <c r="J48">
-        <f>IF('cantidad pollos muertos'!G47="","",GAMMAINV(0.025,'cantidad pollos muertos'!G47+(1/2),1))</f>
-        <v>187.68642850911837</v>
-      </c>
-      <c r="K48">
-        <f>IF('cantidad pollos muertos'!G47="","",GAMMAINV(0.975,'cantidad pollos muertos'!G47+(1/2),1))</f>
-        <v>245.20724430579639</v>
-      </c>
-      <c r="L48">
-        <f>IF('cantidad pollos muertos'!H47="","",GAMMAINV(0.025,'cantidad pollos muertos'!H47+(1/2),1))</f>
-        <v>51.484124143889233</v>
-      </c>
-      <c r="M48">
-        <f>IF('cantidad pollos muertos'!H47="","",GAMMAINV(0.975,'cantidad pollos muertos'!H47+(1/2),1))</f>
-        <v>83.40812257489047</v>
-      </c>
-      <c r="N48">
-        <f>IF('cantidad pollos muertos'!I47="","",GAMMAINV(0.025,'cantidad pollos muertos'!I47+(1/2),1))</f>
-        <v>101.76928066438617</v>
-      </c>
-      <c r="O48">
-        <f>IF('cantidad pollos muertos'!I47="","",GAMMAINV(0.975,'cantidad pollos muertos'!I47+(1/2),1))</f>
-        <v>145.12391013196</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>3</v>
-      </c>
-      <c r="B49">
-        <f>IF('cantidad pollos muertos'!C48="","",GAMMAINV(0.025,'cantidad pollos muertos'!C48+(1/2),1))</f>
-        <v>80.01166316279793</v>
-      </c>
-      <c r="C49">
-        <f>IF('cantidad pollos muertos'!C48="","",GAMMAINV(0.975,'cantidad pollos muertos'!C48+(1/2),1))</f>
-        <v>118.88125495026803</v>
-      </c>
-      <c r="D49">
-        <f>IF('cantidad pollos muertos'!D48="","",GAMMAINV(0.025,'cantidad pollos muertos'!D48+(1/2),1))</f>
-        <v>37.5417353745407</v>
-      </c>
-      <c r="E49">
-        <f>IF('cantidad pollos muertos'!D48="","",GAMMAINV(0.975,'cantidad pollos muertos'!D48+(1/2),1))</f>
-        <v>65.349854312032974</v>
-      </c>
-      <c r="F49">
-        <f>IF('cantidad pollos muertos'!E48="","",GAMMAINV(0.025,'cantidad pollos muertos'!E48+(1/2),1))</f>
-        <v>88.141732680851817</v>
-      </c>
-      <c r="G49">
-        <f>IF('cantidad pollos muertos'!E48="","",GAMMAINV(0.975,'cantidad pollos muertos'!E48+(1/2),1))</f>
-        <v>128.75130200416774</v>
-      </c>
-      <c r="H49">
-        <f>IF('cantidad pollos muertos'!F48="","",GAMMAINV(0.025,'cantidad pollos muertos'!F48+(1/2),1))</f>
-        <v>48.849242700029897</v>
-      </c>
-      <c r="I49">
-        <f>IF('cantidad pollos muertos'!F48="","",GAMMAINV(0.975,'cantidad pollos muertos'!F48+(1/2),1))</f>
-        <v>80.042906187400447</v>
-      </c>
-      <c r="J49">
-        <f>IF('cantidad pollos muertos'!G48="","",GAMMAINV(0.025,'cantidad pollos muertos'!G48+(1/2),1))</f>
-        <v>51.484124143889233</v>
-      </c>
-      <c r="K49">
-        <f>IF('cantidad pollos muertos'!G48="","",GAMMAINV(0.975,'cantidad pollos muertos'!G48+(1/2),1))</f>
-        <v>83.40812257489047</v>
-      </c>
-      <c r="L49">
-        <f>IF('cantidad pollos muertos'!H48="","",GAMMAINV(0.025,'cantidad pollos muertos'!H48+(1/2),1))</f>
-        <v>40.999841622666459</v>
-      </c>
-      <c r="M49">
-        <f>IF('cantidad pollos muertos'!H48="","",GAMMAINV(0.975,'cantidad pollos muertos'!H48+(1/2),1))</f>
-        <v>69.891948725310272</v>
-      </c>
-      <c r="N49">
-        <f>IF('cantidad pollos muertos'!I48="","",GAMMAINV(0.025,'cantidad pollos muertos'!I48+(1/2),1))</f>
-        <v>66.555282724745524</v>
-      </c>
-      <c r="O49">
-        <f>IF('cantidad pollos muertos'!I48="","",GAMMAINV(0.975,'cantidad pollos muertos'!I48+(1/2),1))</f>
-        <v>102.33738501995983</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>17</v>
-      </c>
-      <c r="B50">
-        <f>IF('cantidad pollos muertos'!C49="","",GAMMAINV(0.025,'cantidad pollos muertos'!C49+(1/2),1))</f>
-        <v>44.47754524508602</v>
-      </c>
-      <c r="C50">
-        <f>IF('cantidad pollos muertos'!C49="","",GAMMAINV(0.975,'cantidad pollos muertos'!C49+(1/2),1))</f>
-        <v>74.414418156443148</v>
-      </c>
-      <c r="D50">
-        <f>IF('cantidad pollos muertos'!D49="","",GAMMAINV(0.025,'cantidad pollos muertos'!D49+(1/2),1))</f>
-        <v>27.311679260779517</v>
-      </c>
-      <c r="E50">
-        <f>IF('cantidad pollos muertos'!D49="","",GAMMAINV(0.975,'cantidad pollos muertos'!D49+(1/2),1))</f>
-        <v>51.579055950673293</v>
-      </c>
-      <c r="F50">
-        <f>IF('cantidad pollos muertos'!E49="","",GAMMAINV(0.025,'cantidad pollos muertos'!E49+(1/2),1))</f>
-        <v>101.76928066438617</v>
-      </c>
-      <c r="G50">
-        <f>IF('cantidad pollos muertos'!E49="","",GAMMAINV(0.975,'cantidad pollos muertos'!E49+(1/2),1))</f>
-        <v>145.12391013196</v>
-      </c>
-      <c r="H50">
-        <f>IF('cantidad pollos muertos'!F49="","",GAMMAINV(0.025,'cantidad pollos muertos'!F49+(1/2),1))</f>
-        <v>35.820758132639803</v>
-      </c>
-      <c r="I50">
-        <f>IF('cantidad pollos muertos'!F49="","",GAMMAINV(0.975,'cantidad pollos muertos'!F49+(1/2),1))</f>
-        <v>63.070718720047985</v>
-      </c>
-      <c r="J50">
-        <f>IF('cantidad pollos muertos'!G49="","",GAMMAINV(0.025,'cantidad pollos muertos'!G49+(1/2),1))</f>
-        <v>117.31204422916028</v>
-      </c>
-      <c r="K50">
-        <f>IF('cantidad pollos muertos'!G49="","",GAMMAINV(0.975,'cantidad pollos muertos'!G49+(1/2),1))</f>
-        <v>163.58128280422588</v>
-      </c>
-      <c r="L50">
-        <f>IF('cantidad pollos muertos'!H49="","",GAMMAINV(0.025,'cantidad pollos muertos'!H49+(1/2),1))</f>
-        <v>80.91309119682343</v>
-      </c>
-      <c r="M50">
-        <f>IF('cantidad pollos muertos'!H49="","",GAMMAINV(0.975,'cantidad pollos muertos'!H49+(1/2),1))</f>
-        <v>119.9798409138221</v>
-      </c>
-      <c r="N50">
-        <f>IF('cantidad pollos muertos'!I49="","",GAMMAINV(0.025,'cantidad pollos muertos'!I49+(1/2),1))</f>
-        <v>24.796078627840313</v>
-      </c>
-      <c r="O50">
-        <f>IF('cantidad pollos muertos'!I49="","",GAMMAINV(0.975,'cantidad pollos muertos'!I49+(1/2),1))</f>
-        <v>48.094351798666601</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="28">
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="AJ1:AK1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="X1:Y1"/>
-    <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="AD1:AE1"/>
-    <mergeCell ref="AF1:AG1"/>
-    <mergeCell ref="AH1:AI1"/>
-    <mergeCell ref="AX1:AY1"/>
-    <mergeCell ref="AZ1:BA1"/>
-    <mergeCell ref="BB1:BC1"/>
-    <mergeCell ref="BD1:BE1"/>
-    <mergeCell ref="AL1:AM1"/>
-    <mergeCell ref="AN1:AO1"/>
-    <mergeCell ref="AP1:AQ1"/>
-    <mergeCell ref="AR1:AS1"/>
-    <mergeCell ref="AT1:AU1"/>
-    <mergeCell ref="AV1:AW1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P50" sqref="P50"/>
     </sheetView>
   </sheetViews>

--- a/PROPUESTA FUNDEMERCA (2.5).xlsx
+++ b/PROPUESTA FUNDEMERCA (2.5).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11625" windowHeight="5025" firstSheet="5" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11625" windowHeight="5025" firstSheet="5" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="cantidad inicial pollos" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="83">
   <si>
     <t>MANAEM LUCUMI</t>
   </si>
@@ -279,15 +279,6 @@
     <t>Confianza</t>
   </si>
   <si>
-    <t>CICLO 55</t>
-  </si>
-  <si>
-    <t>CICLO 56</t>
-  </si>
-  <si>
-    <t>CICLO 57</t>
-  </si>
-  <si>
     <t>confianza</t>
   </si>
 </sst>
@@ -380,7 +371,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -407,6 +398,9 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -472,7 +466,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1265,7 +1258,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -15894,8 +15886,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BE54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="AZ1" sqref="AZ1:BE2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15926,97 +15918,109 @@
       </c>
       <c r="K1" s="16"/>
       <c r="L1" s="16" t="s">
-        <v>82</v>
+        <v>47</v>
       </c>
       <c r="M1" s="16"/>
       <c r="N1" s="16" t="s">
-        <v>83</v>
+        <v>48</v>
       </c>
       <c r="O1" s="16"/>
       <c r="P1" s="16" t="s">
-        <v>84</v>
+        <v>49</v>
       </c>
       <c r="Q1" s="16"/>
       <c r="R1" s="16" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="S1" s="16"/>
       <c r="T1" s="16" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="U1" s="16"/>
       <c r="V1" s="16" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="W1" s="16"/>
       <c r="X1" s="16" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="Y1" s="16"/>
       <c r="Z1" s="16" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="AA1" s="16"/>
       <c r="AB1" s="16" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="AC1" s="16"/>
       <c r="AD1" s="16" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="AE1" s="16"/>
       <c r="AF1" s="16" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="AG1" s="16"/>
       <c r="AH1" s="16" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AI1" s="16"/>
       <c r="AJ1" s="16" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AK1" s="16"/>
       <c r="AL1" s="16" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="AM1" s="16"/>
       <c r="AN1" s="16" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="AO1" s="16"/>
       <c r="AP1" s="16" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="AQ1" s="16"/>
       <c r="AR1" s="16" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="AS1" s="16"/>
       <c r="AT1" s="16" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="AU1" s="16"/>
       <c r="AV1" s="16" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="AW1" s="16"/>
       <c r="AX1" s="16" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="AY1" s="16"/>
-      <c r="AZ1" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="BA1" s="16"/>
-      <c r="BB1" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="BC1" s="16"/>
-      <c r="BD1" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="BE1" s="16"/>
+      <c r="AZ1" t="str">
+        <f>IF('cantidad pollos muertos'!AX2="","",BETAINV(0.975,'cantidad pollos muertos'!AX2+1,'cantidad inicial pollos'!AX2-'cantidad pollos muertos'!AX2+1))</f>
+        <v/>
+      </c>
+      <c r="BA1" t="str">
+        <f>IF('cantidad pollos muertos'!AY2="","",BETAINV(0.975,'cantidad pollos muertos'!AY2+1,'cantidad inicial pollos'!AY2-'cantidad pollos muertos'!AY2+1))</f>
+        <v/>
+      </c>
+      <c r="BB1" t="str">
+        <f>IF('cantidad pollos muertos'!AZ2="","",BETAINV(0.975,'cantidad pollos muertos'!AZ2+1,'cantidad inicial pollos'!AZ2-'cantidad pollos muertos'!AZ2+1))</f>
+        <v/>
+      </c>
+      <c r="BC1" t="str">
+        <f>IF('cantidad pollos muertos'!BA2="","",BETAINV(0.975,'cantidad pollos muertos'!BA2+1,'cantidad inicial pollos'!BA2-'cantidad pollos muertos'!BA2+1))</f>
+        <v/>
+      </c>
+      <c r="BD1" t="str">
+        <f>IF('cantidad pollos muertos'!BB2="","",BETAINV(0.975,'cantidad pollos muertos'!BB2+1,'cantidad inicial pollos'!BB2-'cantidad pollos muertos'!BB2+1))</f>
+        <v/>
+      </c>
+      <c r="BE1" t="str">
+        <f>IF('cantidad pollos muertos'!BC2="","",BETAINV(0.975,'cantidad pollos muertos'!BC2+1,'cantidad inicial pollos'!BC2-'cantidad pollos muertos'!BC2+1))</f>
+        <v/>
+      </c>
     </row>
     <row r="2" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
@@ -16172,23 +16176,29 @@
       <c r="AY2" t="s">
         <v>79</v>
       </c>
-      <c r="AZ2" t="s">
-        <v>78</v>
-      </c>
-      <c r="BA2" t="s">
-        <v>79</v>
-      </c>
-      <c r="BB2" t="s">
-        <v>78</v>
-      </c>
-      <c r="BC2" t="s">
-        <v>79</v>
-      </c>
-      <c r="BD2" t="s">
-        <v>78</v>
-      </c>
-      <c r="BE2" t="s">
-        <v>79</v>
+      <c r="AZ2" t="str">
+        <f>IF('cantidad pollos muertos'!AZ3="","",BETAINV(0.025,'cantidad pollos muertos'!AZ3+1,'cantidad inicial pollos'!AZ3-'cantidad pollos muertos'!AZ3+1))</f>
+        <v/>
+      </c>
+      <c r="BA2" t="str">
+        <f>IF('cantidad pollos muertos'!AZ3="","",BETAINV(0.975,'cantidad pollos muertos'!AZ3+1,'cantidad inicial pollos'!AZ3-'cantidad pollos muertos'!AZ3+1))</f>
+        <v/>
+      </c>
+      <c r="BB2" t="str">
+        <f>IF('cantidad pollos muertos'!BC3="","",BETAINV(0.025,'cantidad pollos muertos'!BC3+1,'cantidad inicial pollos'!BC3-'cantidad pollos muertos'!BC3+1))</f>
+        <v/>
+      </c>
+      <c r="BC2" t="str">
+        <f>IF('cantidad pollos muertos'!BC3="","",BETAINV(0.975,'cantidad pollos muertos'!BC3+1,'cantidad inicial pollos'!BC3-'cantidad pollos muertos'!BC3+1))</f>
+        <v/>
+      </c>
+      <c r="BD2" t="str">
+        <f>IF('cantidad pollos muertos'!BD3="","",BETAINV(0.025,'cantidad pollos muertos'!BD3+1,'cantidad inicial pollos'!BD3-'cantidad pollos muertos'!BD3+1))</f>
+        <v/>
+      </c>
+      <c r="BE2" t="str">
+        <f>IF('cantidad pollos muertos'!BD3="","",BETAINV(0.975,'cantidad pollos muertos'!BD3+1,'cantidad inicial pollos'!BD3-'cantidad pollos muertos'!BD3+1))</f>
+        <v/>
       </c>
     </row>
     <row r="3" spans="1:57" x14ac:dyDescent="0.25">
@@ -16396,27 +16406,27 @@
         <v/>
       </c>
       <c r="AZ3" t="str">
-        <f>IF('cantidad pollos muertos'!AX2="","",BETAINV(0.975,'cantidad pollos muertos'!AX2+1,'cantidad inicial pollos'!AX2-'cantidad pollos muertos'!AX2+1))</f>
+        <f>IF('cantidad pollos muertos'!AZ4="","",BETAINV(0.025,'cantidad pollos muertos'!AZ4+1,'cantidad inicial pollos'!AZ4-'cantidad pollos muertos'!AZ4+1))</f>
         <v/>
       </c>
       <c r="BA3" t="str">
-        <f>IF('cantidad pollos muertos'!AY2="","",BETAINV(0.975,'cantidad pollos muertos'!AY2+1,'cantidad inicial pollos'!AY2-'cantidad pollos muertos'!AY2+1))</f>
+        <f>IF('cantidad pollos muertos'!AZ4="","",BETAINV(0.975,'cantidad pollos muertos'!AZ4+1,'cantidad inicial pollos'!AZ4-'cantidad pollos muertos'!AZ4+1))</f>
         <v/>
       </c>
       <c r="BB3" t="str">
-        <f>IF('cantidad pollos muertos'!AZ2="","",BETAINV(0.975,'cantidad pollos muertos'!AZ2+1,'cantidad inicial pollos'!AZ2-'cantidad pollos muertos'!AZ2+1))</f>
+        <f>IF('cantidad pollos muertos'!BC4="","",BETAINV(0.025,'cantidad pollos muertos'!BC4+1,'cantidad inicial pollos'!BC4-'cantidad pollos muertos'!BC4+1))</f>
         <v/>
       </c>
       <c r="BC3" t="str">
-        <f>IF('cantidad pollos muertos'!BA2="","",BETAINV(0.975,'cantidad pollos muertos'!BA2+1,'cantidad inicial pollos'!BA2-'cantidad pollos muertos'!BA2+1))</f>
+        <f>IF('cantidad pollos muertos'!BC4="","",BETAINV(0.975,'cantidad pollos muertos'!BC4+1,'cantidad inicial pollos'!BC4-'cantidad pollos muertos'!BC4+1))</f>
         <v/>
       </c>
       <c r="BD3" t="str">
-        <f>IF('cantidad pollos muertos'!BB2="","",BETAINV(0.975,'cantidad pollos muertos'!BB2+1,'cantidad inicial pollos'!BB2-'cantidad pollos muertos'!BB2+1))</f>
+        <f>IF('cantidad pollos muertos'!BD4="","",BETAINV(0.025,'cantidad pollos muertos'!BD4+1,'cantidad inicial pollos'!BD4-'cantidad pollos muertos'!BD4+1))</f>
         <v/>
       </c>
       <c r="BE3" t="str">
-        <f>IF('cantidad pollos muertos'!BC2="","",BETAINV(0.975,'cantidad pollos muertos'!BC2+1,'cantidad inicial pollos'!BC2-'cantidad pollos muertos'!BC2+1))</f>
+        <f>IF('cantidad pollos muertos'!BD4="","",BETAINV(0.975,'cantidad pollos muertos'!BD4+1,'cantidad inicial pollos'!BD4-'cantidad pollos muertos'!BD4+1))</f>
         <v/>
       </c>
     </row>
@@ -16625,27 +16635,27 @@
         <v/>
       </c>
       <c r="AZ4" t="str">
-        <f>IF('cantidad pollos muertos'!AZ3="","",BETAINV(0.025,'cantidad pollos muertos'!AZ3+1,'cantidad inicial pollos'!AZ3-'cantidad pollos muertos'!AZ3+1))</f>
+        <f>IF('cantidad pollos muertos'!AZ5="","",BETAINV(0.025,'cantidad pollos muertos'!AZ5+1,'cantidad inicial pollos'!AZ5-'cantidad pollos muertos'!AZ5+1))</f>
         <v/>
       </c>
       <c r="BA4" t="str">
-        <f>IF('cantidad pollos muertos'!AZ3="","",BETAINV(0.975,'cantidad pollos muertos'!AZ3+1,'cantidad inicial pollos'!AZ3-'cantidad pollos muertos'!AZ3+1))</f>
+        <f>IF('cantidad pollos muertos'!AZ5="","",BETAINV(0.975,'cantidad pollos muertos'!AZ5+1,'cantidad inicial pollos'!AZ5-'cantidad pollos muertos'!AZ5+1))</f>
         <v/>
       </c>
       <c r="BB4" t="str">
-        <f>IF('cantidad pollos muertos'!BC3="","",BETAINV(0.025,'cantidad pollos muertos'!BC3+1,'cantidad inicial pollos'!BC3-'cantidad pollos muertos'!BC3+1))</f>
+        <f>IF('cantidad pollos muertos'!BC5="","",BETAINV(0.025,'cantidad pollos muertos'!BC5+1,'cantidad inicial pollos'!BC5-'cantidad pollos muertos'!BC5+1))</f>
         <v/>
       </c>
       <c r="BC4" t="str">
-        <f>IF('cantidad pollos muertos'!BC3="","",BETAINV(0.975,'cantidad pollos muertos'!BC3+1,'cantidad inicial pollos'!BC3-'cantidad pollos muertos'!BC3+1))</f>
+        <f>IF('cantidad pollos muertos'!BC5="","",BETAINV(0.975,'cantidad pollos muertos'!BC5+1,'cantidad inicial pollos'!BC5-'cantidad pollos muertos'!BC5+1))</f>
         <v/>
       </c>
       <c r="BD4" t="str">
-        <f>IF('cantidad pollos muertos'!BD3="","",BETAINV(0.025,'cantidad pollos muertos'!BD3+1,'cantidad inicial pollos'!BD3-'cantidad pollos muertos'!BD3+1))</f>
+        <f>IF('cantidad pollos muertos'!BD5="","",BETAINV(0.025,'cantidad pollos muertos'!BD5+1,'cantidad inicial pollos'!BD5-'cantidad pollos muertos'!BD5+1))</f>
         <v/>
       </c>
       <c r="BE4" t="str">
-        <f>IF('cantidad pollos muertos'!BD3="","",BETAINV(0.975,'cantidad pollos muertos'!BD3+1,'cantidad inicial pollos'!BD3-'cantidad pollos muertos'!BD3+1))</f>
+        <f>IF('cantidad pollos muertos'!BD5="","",BETAINV(0.975,'cantidad pollos muertos'!BD5+1,'cantidad inicial pollos'!BD5-'cantidad pollos muertos'!BD5+1))</f>
         <v/>
       </c>
     </row>
@@ -16854,27 +16864,27 @@
         <v/>
       </c>
       <c r="AZ5" t="str">
-        <f>IF('cantidad pollos muertos'!AZ4="","",BETAINV(0.025,'cantidad pollos muertos'!AZ4+1,'cantidad inicial pollos'!AZ4-'cantidad pollos muertos'!AZ4+1))</f>
+        <f>IF('cantidad pollos muertos'!AZ6="","",BETAINV(0.025,'cantidad pollos muertos'!AZ6+1,'cantidad inicial pollos'!AZ6-'cantidad pollos muertos'!AZ6+1))</f>
         <v/>
       </c>
       <c r="BA5" t="str">
-        <f>IF('cantidad pollos muertos'!AZ4="","",BETAINV(0.975,'cantidad pollos muertos'!AZ4+1,'cantidad inicial pollos'!AZ4-'cantidad pollos muertos'!AZ4+1))</f>
+        <f>IF('cantidad pollos muertos'!AZ6="","",BETAINV(0.975,'cantidad pollos muertos'!AZ6+1,'cantidad inicial pollos'!AZ6-'cantidad pollos muertos'!AZ6+1))</f>
         <v/>
       </c>
       <c r="BB5" t="str">
-        <f>IF('cantidad pollos muertos'!BC4="","",BETAINV(0.025,'cantidad pollos muertos'!BC4+1,'cantidad inicial pollos'!BC4-'cantidad pollos muertos'!BC4+1))</f>
+        <f>IF('cantidad pollos muertos'!BC6="","",BETAINV(0.025,'cantidad pollos muertos'!BC6+1,'cantidad inicial pollos'!BC6-'cantidad pollos muertos'!BC6+1))</f>
         <v/>
       </c>
       <c r="BC5" t="str">
-        <f>IF('cantidad pollos muertos'!BC4="","",BETAINV(0.975,'cantidad pollos muertos'!BC4+1,'cantidad inicial pollos'!BC4-'cantidad pollos muertos'!BC4+1))</f>
+        <f>IF('cantidad pollos muertos'!BC6="","",BETAINV(0.975,'cantidad pollos muertos'!BC6+1,'cantidad inicial pollos'!BC6-'cantidad pollos muertos'!BC6+1))</f>
         <v/>
       </c>
       <c r="BD5" t="str">
-        <f>IF('cantidad pollos muertos'!BD4="","",BETAINV(0.025,'cantidad pollos muertos'!BD4+1,'cantidad inicial pollos'!BD4-'cantidad pollos muertos'!BD4+1))</f>
+        <f>IF('cantidad pollos muertos'!BD6="","",BETAINV(0.025,'cantidad pollos muertos'!BD6+1,'cantidad inicial pollos'!BD6-'cantidad pollos muertos'!BD6+1))</f>
         <v/>
       </c>
       <c r="BE5" t="str">
-        <f>IF('cantidad pollos muertos'!BD4="","",BETAINV(0.975,'cantidad pollos muertos'!BD4+1,'cantidad inicial pollos'!BD4-'cantidad pollos muertos'!BD4+1))</f>
+        <f>IF('cantidad pollos muertos'!BD6="","",BETAINV(0.975,'cantidad pollos muertos'!BD6+1,'cantidad inicial pollos'!BD6-'cantidad pollos muertos'!BD6+1))</f>
         <v/>
       </c>
     </row>
@@ -17083,27 +17093,27 @@
         <v/>
       </c>
       <c r="AZ6" t="str">
-        <f>IF('cantidad pollos muertos'!AZ5="","",BETAINV(0.025,'cantidad pollos muertos'!AZ5+1,'cantidad inicial pollos'!AZ5-'cantidad pollos muertos'!AZ5+1))</f>
+        <f>IF('cantidad pollos muertos'!AZ7="","",BETAINV(0.025,'cantidad pollos muertos'!AZ7+1,'cantidad inicial pollos'!AZ7-'cantidad pollos muertos'!AZ7+1))</f>
         <v/>
       </c>
       <c r="BA6" t="str">
-        <f>IF('cantidad pollos muertos'!AZ5="","",BETAINV(0.975,'cantidad pollos muertos'!AZ5+1,'cantidad inicial pollos'!AZ5-'cantidad pollos muertos'!AZ5+1))</f>
+        <f>IF('cantidad pollos muertos'!AZ7="","",BETAINV(0.975,'cantidad pollos muertos'!AZ7+1,'cantidad inicial pollos'!AZ7-'cantidad pollos muertos'!AZ7+1))</f>
         <v/>
       </c>
       <c r="BB6" t="str">
-        <f>IF('cantidad pollos muertos'!BC5="","",BETAINV(0.025,'cantidad pollos muertos'!BC5+1,'cantidad inicial pollos'!BC5-'cantidad pollos muertos'!BC5+1))</f>
+        <f>IF('cantidad pollos muertos'!BC7="","",BETAINV(0.025,'cantidad pollos muertos'!BC7+1,'cantidad inicial pollos'!BC7-'cantidad pollos muertos'!BC7+1))</f>
         <v/>
       </c>
       <c r="BC6" t="str">
-        <f>IF('cantidad pollos muertos'!BC5="","",BETAINV(0.975,'cantidad pollos muertos'!BC5+1,'cantidad inicial pollos'!BC5-'cantidad pollos muertos'!BC5+1))</f>
+        <f>IF('cantidad pollos muertos'!BC7="","",BETAINV(0.975,'cantidad pollos muertos'!BC7+1,'cantidad inicial pollos'!BC7-'cantidad pollos muertos'!BC7+1))</f>
         <v/>
       </c>
       <c r="BD6" t="str">
-        <f>IF('cantidad pollos muertos'!BD5="","",BETAINV(0.025,'cantidad pollos muertos'!BD5+1,'cantidad inicial pollos'!BD5-'cantidad pollos muertos'!BD5+1))</f>
+        <f>IF('cantidad pollos muertos'!BD7="","",BETAINV(0.025,'cantidad pollos muertos'!BD7+1,'cantidad inicial pollos'!BD7-'cantidad pollos muertos'!BD7+1))</f>
         <v/>
       </c>
       <c r="BE6" t="str">
-        <f>IF('cantidad pollos muertos'!BD5="","",BETAINV(0.975,'cantidad pollos muertos'!BD5+1,'cantidad inicial pollos'!BD5-'cantidad pollos muertos'!BD5+1))</f>
+        <f>IF('cantidad pollos muertos'!BD7="","",BETAINV(0.975,'cantidad pollos muertos'!BD7+1,'cantidad inicial pollos'!BD7-'cantidad pollos muertos'!BD7+1))</f>
         <v/>
       </c>
     </row>
@@ -17312,27 +17322,27 @@
         <v/>
       </c>
       <c r="AZ7" t="str">
-        <f>IF('cantidad pollos muertos'!AZ6="","",BETAINV(0.025,'cantidad pollos muertos'!AZ6+1,'cantidad inicial pollos'!AZ6-'cantidad pollos muertos'!AZ6+1))</f>
+        <f>IF('cantidad pollos muertos'!AZ8="","",BETAINV(0.025,'cantidad pollos muertos'!AZ8+1,'cantidad inicial pollos'!AZ8-'cantidad pollos muertos'!AZ8+1))</f>
         <v/>
       </c>
       <c r="BA7" t="str">
-        <f>IF('cantidad pollos muertos'!AZ6="","",BETAINV(0.975,'cantidad pollos muertos'!AZ6+1,'cantidad inicial pollos'!AZ6-'cantidad pollos muertos'!AZ6+1))</f>
+        <f>IF('cantidad pollos muertos'!AZ8="","",BETAINV(0.975,'cantidad pollos muertos'!AZ8+1,'cantidad inicial pollos'!AZ8-'cantidad pollos muertos'!AZ8+1))</f>
         <v/>
       </c>
       <c r="BB7" t="str">
-        <f>IF('cantidad pollos muertos'!BC6="","",BETAINV(0.025,'cantidad pollos muertos'!BC6+1,'cantidad inicial pollos'!BC6-'cantidad pollos muertos'!BC6+1))</f>
+        <f>IF('cantidad pollos muertos'!BC8="","",BETAINV(0.025,'cantidad pollos muertos'!BC8+1,'cantidad inicial pollos'!BC8-'cantidad pollos muertos'!BC8+1))</f>
         <v/>
       </c>
       <c r="BC7" t="str">
-        <f>IF('cantidad pollos muertos'!BC6="","",BETAINV(0.975,'cantidad pollos muertos'!BC6+1,'cantidad inicial pollos'!BC6-'cantidad pollos muertos'!BC6+1))</f>
+        <f>IF('cantidad pollos muertos'!BC8="","",BETAINV(0.975,'cantidad pollos muertos'!BC8+1,'cantidad inicial pollos'!BC8-'cantidad pollos muertos'!BC8+1))</f>
         <v/>
       </c>
       <c r="BD7" t="str">
-        <f>IF('cantidad pollos muertos'!BD6="","",BETAINV(0.025,'cantidad pollos muertos'!BD6+1,'cantidad inicial pollos'!BD6-'cantidad pollos muertos'!BD6+1))</f>
+        <f>IF('cantidad pollos muertos'!BD8="","",BETAINV(0.025,'cantidad pollos muertos'!BD8+1,'cantidad inicial pollos'!BD8-'cantidad pollos muertos'!BD8+1))</f>
         <v/>
       </c>
       <c r="BE7" t="str">
-        <f>IF('cantidad pollos muertos'!BD6="","",BETAINV(0.975,'cantidad pollos muertos'!BD6+1,'cantidad inicial pollos'!BD6-'cantidad pollos muertos'!BD6+1))</f>
+        <f>IF('cantidad pollos muertos'!BD8="","",BETAINV(0.975,'cantidad pollos muertos'!BD8+1,'cantidad inicial pollos'!BD8-'cantidad pollos muertos'!BD8+1))</f>
         <v/>
       </c>
     </row>
@@ -17541,27 +17551,27 @@
         <v/>
       </c>
       <c r="AZ8" t="str">
-        <f>IF('cantidad pollos muertos'!AZ7="","",BETAINV(0.025,'cantidad pollos muertos'!AZ7+1,'cantidad inicial pollos'!AZ7-'cantidad pollos muertos'!AZ7+1))</f>
+        <f>IF('cantidad pollos muertos'!AZ9="","",BETAINV(0.025,'cantidad pollos muertos'!AZ9+1,'cantidad inicial pollos'!AZ9-'cantidad pollos muertos'!AZ9+1))</f>
         <v/>
       </c>
       <c r="BA8" t="str">
-        <f>IF('cantidad pollos muertos'!AZ7="","",BETAINV(0.975,'cantidad pollos muertos'!AZ7+1,'cantidad inicial pollos'!AZ7-'cantidad pollos muertos'!AZ7+1))</f>
+        <f>IF('cantidad pollos muertos'!AZ9="","",BETAINV(0.975,'cantidad pollos muertos'!AZ9+1,'cantidad inicial pollos'!AZ9-'cantidad pollos muertos'!AZ9+1))</f>
         <v/>
       </c>
       <c r="BB8" t="str">
-        <f>IF('cantidad pollos muertos'!BC7="","",BETAINV(0.025,'cantidad pollos muertos'!BC7+1,'cantidad inicial pollos'!BC7-'cantidad pollos muertos'!BC7+1))</f>
+        <f>IF('cantidad pollos muertos'!BC9="","",BETAINV(0.025,'cantidad pollos muertos'!BC9+1,'cantidad inicial pollos'!BC9-'cantidad pollos muertos'!BC9+1))</f>
         <v/>
       </c>
       <c r="BC8" t="str">
-        <f>IF('cantidad pollos muertos'!BC7="","",BETAINV(0.975,'cantidad pollos muertos'!BC7+1,'cantidad inicial pollos'!BC7-'cantidad pollos muertos'!BC7+1))</f>
+        <f>IF('cantidad pollos muertos'!BC9="","",BETAINV(0.975,'cantidad pollos muertos'!BC9+1,'cantidad inicial pollos'!BC9-'cantidad pollos muertos'!BC9+1))</f>
         <v/>
       </c>
       <c r="BD8" t="str">
-        <f>IF('cantidad pollos muertos'!BD7="","",BETAINV(0.025,'cantidad pollos muertos'!BD7+1,'cantidad inicial pollos'!BD7-'cantidad pollos muertos'!BD7+1))</f>
+        <f>IF('cantidad pollos muertos'!BD9="","",BETAINV(0.025,'cantidad pollos muertos'!BD9+1,'cantidad inicial pollos'!BD9-'cantidad pollos muertos'!BD9+1))</f>
         <v/>
       </c>
       <c r="BE8" t="str">
-        <f>IF('cantidad pollos muertos'!BD7="","",BETAINV(0.975,'cantidad pollos muertos'!BD7+1,'cantidad inicial pollos'!BD7-'cantidad pollos muertos'!BD7+1))</f>
+        <f>IF('cantidad pollos muertos'!BD9="","",BETAINV(0.975,'cantidad pollos muertos'!BD9+1,'cantidad inicial pollos'!BD9-'cantidad pollos muertos'!BD9+1))</f>
         <v/>
       </c>
     </row>
@@ -17770,27 +17780,27 @@
         <v/>
       </c>
       <c r="AZ9" t="str">
-        <f>IF('cantidad pollos muertos'!AZ8="","",BETAINV(0.025,'cantidad pollos muertos'!AZ8+1,'cantidad inicial pollos'!AZ8-'cantidad pollos muertos'!AZ8+1))</f>
+        <f>IF('cantidad pollos muertos'!AZ10="","",BETAINV(0.025,'cantidad pollos muertos'!AZ10+1,'cantidad inicial pollos'!AZ10-'cantidad pollos muertos'!AZ10+1))</f>
         <v/>
       </c>
       <c r="BA9" t="str">
-        <f>IF('cantidad pollos muertos'!AZ8="","",BETAINV(0.975,'cantidad pollos muertos'!AZ8+1,'cantidad inicial pollos'!AZ8-'cantidad pollos muertos'!AZ8+1))</f>
+        <f>IF('cantidad pollos muertos'!AZ10="","",BETAINV(0.975,'cantidad pollos muertos'!AZ10+1,'cantidad inicial pollos'!AZ10-'cantidad pollos muertos'!AZ10+1))</f>
         <v/>
       </c>
       <c r="BB9" t="str">
-        <f>IF('cantidad pollos muertos'!BC8="","",BETAINV(0.025,'cantidad pollos muertos'!BC8+1,'cantidad inicial pollos'!BC8-'cantidad pollos muertos'!BC8+1))</f>
+        <f>IF('cantidad pollos muertos'!BC10="","",BETAINV(0.025,'cantidad pollos muertos'!BC10+1,'cantidad inicial pollos'!BC10-'cantidad pollos muertos'!BC10+1))</f>
         <v/>
       </c>
       <c r="BC9" t="str">
-        <f>IF('cantidad pollos muertos'!BC8="","",BETAINV(0.975,'cantidad pollos muertos'!BC8+1,'cantidad inicial pollos'!BC8-'cantidad pollos muertos'!BC8+1))</f>
+        <f>IF('cantidad pollos muertos'!BC10="","",BETAINV(0.975,'cantidad pollos muertos'!BC10+1,'cantidad inicial pollos'!BC10-'cantidad pollos muertos'!BC10+1))</f>
         <v/>
       </c>
       <c r="BD9" t="str">
-        <f>IF('cantidad pollos muertos'!BD8="","",BETAINV(0.025,'cantidad pollos muertos'!BD8+1,'cantidad inicial pollos'!BD8-'cantidad pollos muertos'!BD8+1))</f>
+        <f>IF('cantidad pollos muertos'!BD10="","",BETAINV(0.025,'cantidad pollos muertos'!BD10+1,'cantidad inicial pollos'!BD10-'cantidad pollos muertos'!BD10+1))</f>
         <v/>
       </c>
       <c r="BE9" t="str">
-        <f>IF('cantidad pollos muertos'!BD8="","",BETAINV(0.975,'cantidad pollos muertos'!BD8+1,'cantidad inicial pollos'!BD8-'cantidad pollos muertos'!BD8+1))</f>
+        <f>IF('cantidad pollos muertos'!BD10="","",BETAINV(0.975,'cantidad pollos muertos'!BD10+1,'cantidad inicial pollos'!BD10-'cantidad pollos muertos'!BD10+1))</f>
         <v/>
       </c>
     </row>
@@ -17999,27 +18009,27 @@
         <v/>
       </c>
       <c r="AZ10" t="str">
-        <f>IF('cantidad pollos muertos'!AZ9="","",BETAINV(0.025,'cantidad pollos muertos'!AZ9+1,'cantidad inicial pollos'!AZ9-'cantidad pollos muertos'!AZ9+1))</f>
+        <f>IF('cantidad pollos muertos'!AZ11="","",BETAINV(0.025,'cantidad pollos muertos'!AZ11+1,'cantidad inicial pollos'!AZ11-'cantidad pollos muertos'!AZ11+1))</f>
         <v/>
       </c>
       <c r="BA10" t="str">
-        <f>IF('cantidad pollos muertos'!AZ9="","",BETAINV(0.975,'cantidad pollos muertos'!AZ9+1,'cantidad inicial pollos'!AZ9-'cantidad pollos muertos'!AZ9+1))</f>
+        <f>IF('cantidad pollos muertos'!AZ11="","",BETAINV(0.975,'cantidad pollos muertos'!AZ11+1,'cantidad inicial pollos'!AZ11-'cantidad pollos muertos'!AZ11+1))</f>
         <v/>
       </c>
       <c r="BB10" t="str">
-        <f>IF('cantidad pollos muertos'!BC9="","",BETAINV(0.025,'cantidad pollos muertos'!BC9+1,'cantidad inicial pollos'!BC9-'cantidad pollos muertos'!BC9+1))</f>
+        <f>IF('cantidad pollos muertos'!BC11="","",BETAINV(0.025,'cantidad pollos muertos'!BC11+1,'cantidad inicial pollos'!BC11-'cantidad pollos muertos'!BC11+1))</f>
         <v/>
       </c>
       <c r="BC10" t="str">
-        <f>IF('cantidad pollos muertos'!BC9="","",BETAINV(0.975,'cantidad pollos muertos'!BC9+1,'cantidad inicial pollos'!BC9-'cantidad pollos muertos'!BC9+1))</f>
+        <f>IF('cantidad pollos muertos'!BC11="","",BETAINV(0.975,'cantidad pollos muertos'!BC11+1,'cantidad inicial pollos'!BC11-'cantidad pollos muertos'!BC11+1))</f>
         <v/>
       </c>
       <c r="BD10" t="str">
-        <f>IF('cantidad pollos muertos'!BD9="","",BETAINV(0.025,'cantidad pollos muertos'!BD9+1,'cantidad inicial pollos'!BD9-'cantidad pollos muertos'!BD9+1))</f>
+        <f>IF('cantidad pollos muertos'!BD11="","",BETAINV(0.025,'cantidad pollos muertos'!BD11+1,'cantidad inicial pollos'!BD11-'cantidad pollos muertos'!BD11+1))</f>
         <v/>
       </c>
       <c r="BE10" t="str">
-        <f>IF('cantidad pollos muertos'!BD9="","",BETAINV(0.975,'cantidad pollos muertos'!BD9+1,'cantidad inicial pollos'!BD9-'cantidad pollos muertos'!BD9+1))</f>
+        <f>IF('cantidad pollos muertos'!BD11="","",BETAINV(0.975,'cantidad pollos muertos'!BD11+1,'cantidad inicial pollos'!BD11-'cantidad pollos muertos'!BD11+1))</f>
         <v/>
       </c>
     </row>
@@ -18228,27 +18238,27 @@
         <v/>
       </c>
       <c r="AZ11" t="str">
-        <f>IF('cantidad pollos muertos'!AZ10="","",BETAINV(0.025,'cantidad pollos muertos'!AZ10+1,'cantidad inicial pollos'!AZ10-'cantidad pollos muertos'!AZ10+1))</f>
+        <f>IF('cantidad pollos muertos'!AZ12="","",BETAINV(0.025,'cantidad pollos muertos'!AZ12+1,'cantidad inicial pollos'!AZ12-'cantidad pollos muertos'!AZ12+1))</f>
         <v/>
       </c>
       <c r="BA11" t="str">
-        <f>IF('cantidad pollos muertos'!AZ10="","",BETAINV(0.975,'cantidad pollos muertos'!AZ10+1,'cantidad inicial pollos'!AZ10-'cantidad pollos muertos'!AZ10+1))</f>
+        <f>IF('cantidad pollos muertos'!AZ12="","",BETAINV(0.975,'cantidad pollos muertos'!AZ12+1,'cantidad inicial pollos'!AZ12-'cantidad pollos muertos'!AZ12+1))</f>
         <v/>
       </c>
       <c r="BB11" t="str">
-        <f>IF('cantidad pollos muertos'!BC10="","",BETAINV(0.025,'cantidad pollos muertos'!BC10+1,'cantidad inicial pollos'!BC10-'cantidad pollos muertos'!BC10+1))</f>
+        <f>IF('cantidad pollos muertos'!BC12="","",BETAINV(0.025,'cantidad pollos muertos'!BC12+1,'cantidad inicial pollos'!BC12-'cantidad pollos muertos'!BC12+1))</f>
         <v/>
       </c>
       <c r="BC11" t="str">
-        <f>IF('cantidad pollos muertos'!BC10="","",BETAINV(0.975,'cantidad pollos muertos'!BC10+1,'cantidad inicial pollos'!BC10-'cantidad pollos muertos'!BC10+1))</f>
+        <f>IF('cantidad pollos muertos'!BC12="","",BETAINV(0.975,'cantidad pollos muertos'!BC12+1,'cantidad inicial pollos'!BC12-'cantidad pollos muertos'!BC12+1))</f>
         <v/>
       </c>
       <c r="BD11" t="str">
-        <f>IF('cantidad pollos muertos'!BD10="","",BETAINV(0.025,'cantidad pollos muertos'!BD10+1,'cantidad inicial pollos'!BD10-'cantidad pollos muertos'!BD10+1))</f>
+        <f>IF('cantidad pollos muertos'!BD12="","",BETAINV(0.025,'cantidad pollos muertos'!BD12+1,'cantidad inicial pollos'!BD12-'cantidad pollos muertos'!BD12+1))</f>
         <v/>
       </c>
       <c r="BE11" t="str">
-        <f>IF('cantidad pollos muertos'!BD10="","",BETAINV(0.975,'cantidad pollos muertos'!BD10+1,'cantidad inicial pollos'!BD10-'cantidad pollos muertos'!BD10+1))</f>
+        <f>IF('cantidad pollos muertos'!BD12="","",BETAINV(0.975,'cantidad pollos muertos'!BD12+1,'cantidad inicial pollos'!BD12-'cantidad pollos muertos'!BD12+1))</f>
         <v/>
       </c>
     </row>
@@ -18457,27 +18467,27 @@
         <v/>
       </c>
       <c r="AZ12" t="str">
-        <f>IF('cantidad pollos muertos'!AZ11="","",BETAINV(0.025,'cantidad pollos muertos'!AZ11+1,'cantidad inicial pollos'!AZ11-'cantidad pollos muertos'!AZ11+1))</f>
+        <f>IF('cantidad pollos muertos'!AZ13="","",BETAINV(0.025,'cantidad pollos muertos'!AZ13+1,'cantidad inicial pollos'!AZ13-'cantidad pollos muertos'!AZ13+1))</f>
         <v/>
       </c>
       <c r="BA12" t="str">
-        <f>IF('cantidad pollos muertos'!AZ11="","",BETAINV(0.975,'cantidad pollos muertos'!AZ11+1,'cantidad inicial pollos'!AZ11-'cantidad pollos muertos'!AZ11+1))</f>
+        <f>IF('cantidad pollos muertos'!AZ13="","",BETAINV(0.975,'cantidad pollos muertos'!AZ13+1,'cantidad inicial pollos'!AZ13-'cantidad pollos muertos'!AZ13+1))</f>
         <v/>
       </c>
       <c r="BB12" t="str">
-        <f>IF('cantidad pollos muertos'!BC11="","",BETAINV(0.025,'cantidad pollos muertos'!BC11+1,'cantidad inicial pollos'!BC11-'cantidad pollos muertos'!BC11+1))</f>
+        <f>IF('cantidad pollos muertos'!BC13="","",BETAINV(0.025,'cantidad pollos muertos'!BC13+1,'cantidad inicial pollos'!BC13-'cantidad pollos muertos'!BC13+1))</f>
         <v/>
       </c>
       <c r="BC12" t="str">
-        <f>IF('cantidad pollos muertos'!BC11="","",BETAINV(0.975,'cantidad pollos muertos'!BC11+1,'cantidad inicial pollos'!BC11-'cantidad pollos muertos'!BC11+1))</f>
+        <f>IF('cantidad pollos muertos'!BC13="","",BETAINV(0.975,'cantidad pollos muertos'!BC13+1,'cantidad inicial pollos'!BC13-'cantidad pollos muertos'!BC13+1))</f>
         <v/>
       </c>
       <c r="BD12" t="str">
-        <f>IF('cantidad pollos muertos'!BD11="","",BETAINV(0.025,'cantidad pollos muertos'!BD11+1,'cantidad inicial pollos'!BD11-'cantidad pollos muertos'!BD11+1))</f>
+        <f>IF('cantidad pollos muertos'!BD13="","",BETAINV(0.025,'cantidad pollos muertos'!BD13+1,'cantidad inicial pollos'!BD13-'cantidad pollos muertos'!BD13+1))</f>
         <v/>
       </c>
       <c r="BE12" t="str">
-        <f>IF('cantidad pollos muertos'!BD11="","",BETAINV(0.975,'cantidad pollos muertos'!BD11+1,'cantidad inicial pollos'!BD11-'cantidad pollos muertos'!BD11+1))</f>
+        <f>IF('cantidad pollos muertos'!BD13="","",BETAINV(0.975,'cantidad pollos muertos'!BD13+1,'cantidad inicial pollos'!BD13-'cantidad pollos muertos'!BD13+1))</f>
         <v/>
       </c>
     </row>
@@ -18686,27 +18696,27 @@
         <v/>
       </c>
       <c r="AZ13" t="str">
-        <f>IF('cantidad pollos muertos'!AZ12="","",BETAINV(0.025,'cantidad pollos muertos'!AZ12+1,'cantidad inicial pollos'!AZ12-'cantidad pollos muertos'!AZ12+1))</f>
+        <f>IF('cantidad pollos muertos'!AZ14="","",BETAINV(0.025,'cantidad pollos muertos'!AZ14+1,'cantidad inicial pollos'!AZ14-'cantidad pollos muertos'!AZ14+1))</f>
         <v/>
       </c>
       <c r="BA13" t="str">
-        <f>IF('cantidad pollos muertos'!AZ12="","",BETAINV(0.975,'cantidad pollos muertos'!AZ12+1,'cantidad inicial pollos'!AZ12-'cantidad pollos muertos'!AZ12+1))</f>
+        <f>IF('cantidad pollos muertos'!AZ14="","",BETAINV(0.975,'cantidad pollos muertos'!AZ14+1,'cantidad inicial pollos'!AZ14-'cantidad pollos muertos'!AZ14+1))</f>
         <v/>
       </c>
       <c r="BB13" t="str">
-        <f>IF('cantidad pollos muertos'!BC12="","",BETAINV(0.025,'cantidad pollos muertos'!BC12+1,'cantidad inicial pollos'!BC12-'cantidad pollos muertos'!BC12+1))</f>
+        <f>IF('cantidad pollos muertos'!BC14="","",BETAINV(0.025,'cantidad pollos muertos'!BC14+1,'cantidad inicial pollos'!BC14-'cantidad pollos muertos'!BC14+1))</f>
         <v/>
       </c>
       <c r="BC13" t="str">
-        <f>IF('cantidad pollos muertos'!BC12="","",BETAINV(0.975,'cantidad pollos muertos'!BC12+1,'cantidad inicial pollos'!BC12-'cantidad pollos muertos'!BC12+1))</f>
+        <f>IF('cantidad pollos muertos'!BC14="","",BETAINV(0.975,'cantidad pollos muertos'!BC14+1,'cantidad inicial pollos'!BC14-'cantidad pollos muertos'!BC14+1))</f>
         <v/>
       </c>
       <c r="BD13" t="str">
-        <f>IF('cantidad pollos muertos'!BD12="","",BETAINV(0.025,'cantidad pollos muertos'!BD12+1,'cantidad inicial pollos'!BD12-'cantidad pollos muertos'!BD12+1))</f>
+        <f>IF('cantidad pollos muertos'!BD14="","",BETAINV(0.025,'cantidad pollos muertos'!BD14+1,'cantidad inicial pollos'!BD14-'cantidad pollos muertos'!BD14+1))</f>
         <v/>
       </c>
       <c r="BE13" t="str">
-        <f>IF('cantidad pollos muertos'!BD12="","",BETAINV(0.975,'cantidad pollos muertos'!BD12+1,'cantidad inicial pollos'!BD12-'cantidad pollos muertos'!BD12+1))</f>
+        <f>IF('cantidad pollos muertos'!BD14="","",BETAINV(0.975,'cantidad pollos muertos'!BD14+1,'cantidad inicial pollos'!BD14-'cantidad pollos muertos'!BD14+1))</f>
         <v/>
       </c>
     </row>
@@ -18915,27 +18925,27 @@
         <v/>
       </c>
       <c r="AZ14" t="str">
-        <f>IF('cantidad pollos muertos'!AZ13="","",BETAINV(0.025,'cantidad pollos muertos'!AZ13+1,'cantidad inicial pollos'!AZ13-'cantidad pollos muertos'!AZ13+1))</f>
+        <f>IF('cantidad pollos muertos'!AZ15="","",BETAINV(0.025,'cantidad pollos muertos'!AZ15+1,'cantidad inicial pollos'!AZ15-'cantidad pollos muertos'!AZ15+1))</f>
         <v/>
       </c>
       <c r="BA14" t="str">
-        <f>IF('cantidad pollos muertos'!AZ13="","",BETAINV(0.975,'cantidad pollos muertos'!AZ13+1,'cantidad inicial pollos'!AZ13-'cantidad pollos muertos'!AZ13+1))</f>
+        <f>IF('cantidad pollos muertos'!AZ15="","",BETAINV(0.975,'cantidad pollos muertos'!AZ15+1,'cantidad inicial pollos'!AZ15-'cantidad pollos muertos'!AZ15+1))</f>
         <v/>
       </c>
       <c r="BB14" t="str">
-        <f>IF('cantidad pollos muertos'!BC13="","",BETAINV(0.025,'cantidad pollos muertos'!BC13+1,'cantidad inicial pollos'!BC13-'cantidad pollos muertos'!BC13+1))</f>
+        <f>IF('cantidad pollos muertos'!BC15="","",BETAINV(0.025,'cantidad pollos muertos'!BC15+1,'cantidad inicial pollos'!BC15-'cantidad pollos muertos'!BC15+1))</f>
         <v/>
       </c>
       <c r="BC14" t="str">
-        <f>IF('cantidad pollos muertos'!BC13="","",BETAINV(0.975,'cantidad pollos muertos'!BC13+1,'cantidad inicial pollos'!BC13-'cantidad pollos muertos'!BC13+1))</f>
+        <f>IF('cantidad pollos muertos'!BC15="","",BETAINV(0.975,'cantidad pollos muertos'!BC15+1,'cantidad inicial pollos'!BC15-'cantidad pollos muertos'!BC15+1))</f>
         <v/>
       </c>
       <c r="BD14" t="str">
-        <f>IF('cantidad pollos muertos'!BD13="","",BETAINV(0.025,'cantidad pollos muertos'!BD13+1,'cantidad inicial pollos'!BD13-'cantidad pollos muertos'!BD13+1))</f>
+        <f>IF('cantidad pollos muertos'!BD15="","",BETAINV(0.025,'cantidad pollos muertos'!BD15+1,'cantidad inicial pollos'!BD15-'cantidad pollos muertos'!BD15+1))</f>
         <v/>
       </c>
       <c r="BE14" t="str">
-        <f>IF('cantidad pollos muertos'!BD13="","",BETAINV(0.975,'cantidad pollos muertos'!BD13+1,'cantidad inicial pollos'!BD13-'cantidad pollos muertos'!BD13+1))</f>
+        <f>IF('cantidad pollos muertos'!BD15="","",BETAINV(0.975,'cantidad pollos muertos'!BD15+1,'cantidad inicial pollos'!BD15-'cantidad pollos muertos'!BD15+1))</f>
         <v/>
       </c>
     </row>
@@ -19144,27 +19154,27 @@
         <v/>
       </c>
       <c r="AZ15" t="str">
-        <f>IF('cantidad pollos muertos'!AZ14="","",BETAINV(0.025,'cantidad pollos muertos'!AZ14+1,'cantidad inicial pollos'!AZ14-'cantidad pollos muertos'!AZ14+1))</f>
+        <f>IF('cantidad pollos muertos'!AZ16="","",BETAINV(0.025,'cantidad pollos muertos'!AZ16+1,'cantidad inicial pollos'!AZ16-'cantidad pollos muertos'!AZ16+1))</f>
         <v/>
       </c>
       <c r="BA15" t="str">
-        <f>IF('cantidad pollos muertos'!AZ14="","",BETAINV(0.975,'cantidad pollos muertos'!AZ14+1,'cantidad inicial pollos'!AZ14-'cantidad pollos muertos'!AZ14+1))</f>
+        <f>IF('cantidad pollos muertos'!AZ16="","",BETAINV(0.975,'cantidad pollos muertos'!AZ16+1,'cantidad inicial pollos'!AZ16-'cantidad pollos muertos'!AZ16+1))</f>
         <v/>
       </c>
       <c r="BB15" t="str">
-        <f>IF('cantidad pollos muertos'!BC14="","",BETAINV(0.025,'cantidad pollos muertos'!BC14+1,'cantidad inicial pollos'!BC14-'cantidad pollos muertos'!BC14+1))</f>
+        <f>IF('cantidad pollos muertos'!BC16="","",BETAINV(0.025,'cantidad pollos muertos'!BC16+1,'cantidad inicial pollos'!BC16-'cantidad pollos muertos'!BC16+1))</f>
         <v/>
       </c>
       <c r="BC15" t="str">
-        <f>IF('cantidad pollos muertos'!BC14="","",BETAINV(0.975,'cantidad pollos muertos'!BC14+1,'cantidad inicial pollos'!BC14-'cantidad pollos muertos'!BC14+1))</f>
+        <f>IF('cantidad pollos muertos'!BC16="","",BETAINV(0.975,'cantidad pollos muertos'!BC16+1,'cantidad inicial pollos'!BC16-'cantidad pollos muertos'!BC16+1))</f>
         <v/>
       </c>
       <c r="BD15" t="str">
-        <f>IF('cantidad pollos muertos'!BD14="","",BETAINV(0.025,'cantidad pollos muertos'!BD14+1,'cantidad inicial pollos'!BD14-'cantidad pollos muertos'!BD14+1))</f>
+        <f>IF('cantidad pollos muertos'!BD16="","",BETAINV(0.025,'cantidad pollos muertos'!BD16+1,'cantidad inicial pollos'!BD16-'cantidad pollos muertos'!BD16+1))</f>
         <v/>
       </c>
       <c r="BE15" t="str">
-        <f>IF('cantidad pollos muertos'!BD14="","",BETAINV(0.975,'cantidad pollos muertos'!BD14+1,'cantidad inicial pollos'!BD14-'cantidad pollos muertos'!BD14+1))</f>
+        <f>IF('cantidad pollos muertos'!BD16="","",BETAINV(0.975,'cantidad pollos muertos'!BD16+1,'cantidad inicial pollos'!BD16-'cantidad pollos muertos'!BD16+1))</f>
         <v/>
       </c>
     </row>
@@ -19373,27 +19383,27 @@
         <v/>
       </c>
       <c r="AZ16" t="str">
-        <f>IF('cantidad pollos muertos'!AZ15="","",BETAINV(0.025,'cantidad pollos muertos'!AZ15+1,'cantidad inicial pollos'!AZ15-'cantidad pollos muertos'!AZ15+1))</f>
+        <f>IF('cantidad pollos muertos'!AZ17="","",BETAINV(0.025,'cantidad pollos muertos'!AZ17+1,'cantidad inicial pollos'!AZ17-'cantidad pollos muertos'!AZ17+1))</f>
         <v/>
       </c>
       <c r="BA16" t="str">
-        <f>IF('cantidad pollos muertos'!AZ15="","",BETAINV(0.975,'cantidad pollos muertos'!AZ15+1,'cantidad inicial pollos'!AZ15-'cantidad pollos muertos'!AZ15+1))</f>
+        <f>IF('cantidad pollos muertos'!AZ17="","",BETAINV(0.975,'cantidad pollos muertos'!AZ17+1,'cantidad inicial pollos'!AZ17-'cantidad pollos muertos'!AZ17+1))</f>
         <v/>
       </c>
       <c r="BB16" t="str">
-        <f>IF('cantidad pollos muertos'!BC15="","",BETAINV(0.025,'cantidad pollos muertos'!BC15+1,'cantidad inicial pollos'!BC15-'cantidad pollos muertos'!BC15+1))</f>
+        <f>IF('cantidad pollos muertos'!BC17="","",BETAINV(0.025,'cantidad pollos muertos'!BC17+1,'cantidad inicial pollos'!BC17-'cantidad pollos muertos'!BC17+1))</f>
         <v/>
       </c>
       <c r="BC16" t="str">
-        <f>IF('cantidad pollos muertos'!BC15="","",BETAINV(0.975,'cantidad pollos muertos'!BC15+1,'cantidad inicial pollos'!BC15-'cantidad pollos muertos'!BC15+1))</f>
+        <f>IF('cantidad pollos muertos'!BC17="","",BETAINV(0.975,'cantidad pollos muertos'!BC17+1,'cantidad inicial pollos'!BC17-'cantidad pollos muertos'!BC17+1))</f>
         <v/>
       </c>
       <c r="BD16" t="str">
-        <f>IF('cantidad pollos muertos'!BD15="","",BETAINV(0.025,'cantidad pollos muertos'!BD15+1,'cantidad inicial pollos'!BD15-'cantidad pollos muertos'!BD15+1))</f>
+        <f>IF('cantidad pollos muertos'!BD17="","",BETAINV(0.025,'cantidad pollos muertos'!BD17+1,'cantidad inicial pollos'!BD17-'cantidad pollos muertos'!BD17+1))</f>
         <v/>
       </c>
       <c r="BE16" t="str">
-        <f>IF('cantidad pollos muertos'!BD15="","",BETAINV(0.975,'cantidad pollos muertos'!BD15+1,'cantidad inicial pollos'!BD15-'cantidad pollos muertos'!BD15+1))</f>
+        <f>IF('cantidad pollos muertos'!BD17="","",BETAINV(0.975,'cantidad pollos muertos'!BD17+1,'cantidad inicial pollos'!BD17-'cantidad pollos muertos'!BD17+1))</f>
         <v/>
       </c>
     </row>
@@ -19602,27 +19612,27 @@
         <v/>
       </c>
       <c r="AZ17" t="str">
-        <f>IF('cantidad pollos muertos'!AZ16="","",BETAINV(0.025,'cantidad pollos muertos'!AZ16+1,'cantidad inicial pollos'!AZ16-'cantidad pollos muertos'!AZ16+1))</f>
+        <f>IF('cantidad pollos muertos'!AZ18="","",BETAINV(0.025,'cantidad pollos muertos'!AZ18+1,'cantidad inicial pollos'!AZ18-'cantidad pollos muertos'!AZ18+1))</f>
         <v/>
       </c>
       <c r="BA17" t="str">
-        <f>IF('cantidad pollos muertos'!AZ16="","",BETAINV(0.975,'cantidad pollos muertos'!AZ16+1,'cantidad inicial pollos'!AZ16-'cantidad pollos muertos'!AZ16+1))</f>
+        <f>IF('cantidad pollos muertos'!AZ18="","",BETAINV(0.975,'cantidad pollos muertos'!AZ18+1,'cantidad inicial pollos'!AZ18-'cantidad pollos muertos'!AZ18+1))</f>
         <v/>
       </c>
       <c r="BB17" t="str">
-        <f>IF('cantidad pollos muertos'!BC16="","",BETAINV(0.025,'cantidad pollos muertos'!BC16+1,'cantidad inicial pollos'!BC16-'cantidad pollos muertos'!BC16+1))</f>
+        <f>IF('cantidad pollos muertos'!BC18="","",BETAINV(0.025,'cantidad pollos muertos'!BC18+1,'cantidad inicial pollos'!BC18-'cantidad pollos muertos'!BC18+1))</f>
         <v/>
       </c>
       <c r="BC17" t="str">
-        <f>IF('cantidad pollos muertos'!BC16="","",BETAINV(0.975,'cantidad pollos muertos'!BC16+1,'cantidad inicial pollos'!BC16-'cantidad pollos muertos'!BC16+1))</f>
+        <f>IF('cantidad pollos muertos'!BC18="","",BETAINV(0.975,'cantidad pollos muertos'!BC18+1,'cantidad inicial pollos'!BC18-'cantidad pollos muertos'!BC18+1))</f>
         <v/>
       </c>
       <c r="BD17" t="str">
-        <f>IF('cantidad pollos muertos'!BD16="","",BETAINV(0.025,'cantidad pollos muertos'!BD16+1,'cantidad inicial pollos'!BD16-'cantidad pollos muertos'!BD16+1))</f>
+        <f>IF('cantidad pollos muertos'!BD18="","",BETAINV(0.025,'cantidad pollos muertos'!BD18+1,'cantidad inicial pollos'!BD18-'cantidad pollos muertos'!BD18+1))</f>
         <v/>
       </c>
       <c r="BE17" t="str">
-        <f>IF('cantidad pollos muertos'!BD16="","",BETAINV(0.975,'cantidad pollos muertos'!BD16+1,'cantidad inicial pollos'!BD16-'cantidad pollos muertos'!BD16+1))</f>
+        <f>IF('cantidad pollos muertos'!BD18="","",BETAINV(0.975,'cantidad pollos muertos'!BD18+1,'cantidad inicial pollos'!BD18-'cantidad pollos muertos'!BD18+1))</f>
         <v/>
       </c>
     </row>
@@ -19831,27 +19841,27 @@
         <v/>
       </c>
       <c r="AZ18" t="str">
-        <f>IF('cantidad pollos muertos'!AZ17="","",BETAINV(0.025,'cantidad pollos muertos'!AZ17+1,'cantidad inicial pollos'!AZ17-'cantidad pollos muertos'!AZ17+1))</f>
+        <f>IF('cantidad pollos muertos'!AZ19="","",BETAINV(0.025,'cantidad pollos muertos'!AZ19+1,'cantidad inicial pollos'!AZ19-'cantidad pollos muertos'!AZ19+1))</f>
         <v/>
       </c>
       <c r="BA18" t="str">
-        <f>IF('cantidad pollos muertos'!AZ17="","",BETAINV(0.975,'cantidad pollos muertos'!AZ17+1,'cantidad inicial pollos'!AZ17-'cantidad pollos muertos'!AZ17+1))</f>
+        <f>IF('cantidad pollos muertos'!AZ19="","",BETAINV(0.975,'cantidad pollos muertos'!AZ19+1,'cantidad inicial pollos'!AZ19-'cantidad pollos muertos'!AZ19+1))</f>
         <v/>
       </c>
       <c r="BB18" t="str">
-        <f>IF('cantidad pollos muertos'!BC17="","",BETAINV(0.025,'cantidad pollos muertos'!BC17+1,'cantidad inicial pollos'!BC17-'cantidad pollos muertos'!BC17+1))</f>
+        <f>IF('cantidad pollos muertos'!BC19="","",BETAINV(0.025,'cantidad pollos muertos'!BC19+1,'cantidad inicial pollos'!BC19-'cantidad pollos muertos'!BC19+1))</f>
         <v/>
       </c>
       <c r="BC18" t="str">
-        <f>IF('cantidad pollos muertos'!BC17="","",BETAINV(0.975,'cantidad pollos muertos'!BC17+1,'cantidad inicial pollos'!BC17-'cantidad pollos muertos'!BC17+1))</f>
+        <f>IF('cantidad pollos muertos'!BC19="","",BETAINV(0.975,'cantidad pollos muertos'!BC19+1,'cantidad inicial pollos'!BC19-'cantidad pollos muertos'!BC19+1))</f>
         <v/>
       </c>
       <c r="BD18" t="str">
-        <f>IF('cantidad pollos muertos'!BD17="","",BETAINV(0.025,'cantidad pollos muertos'!BD17+1,'cantidad inicial pollos'!BD17-'cantidad pollos muertos'!BD17+1))</f>
+        <f>IF('cantidad pollos muertos'!BD19="","",BETAINV(0.025,'cantidad pollos muertos'!BD19+1,'cantidad inicial pollos'!BD19-'cantidad pollos muertos'!BD19+1))</f>
         <v/>
       </c>
       <c r="BE18" t="str">
-        <f>IF('cantidad pollos muertos'!BD17="","",BETAINV(0.975,'cantidad pollos muertos'!BD17+1,'cantidad inicial pollos'!BD17-'cantidad pollos muertos'!BD17+1))</f>
+        <f>IF('cantidad pollos muertos'!BD19="","",BETAINV(0.975,'cantidad pollos muertos'!BD19+1,'cantidad inicial pollos'!BD19-'cantidad pollos muertos'!BD19+1))</f>
         <v/>
       </c>
     </row>
@@ -20060,27 +20070,27 @@
         <v/>
       </c>
       <c r="AZ19" t="str">
-        <f>IF('cantidad pollos muertos'!AZ18="","",BETAINV(0.025,'cantidad pollos muertos'!AZ18+1,'cantidad inicial pollos'!AZ18-'cantidad pollos muertos'!AZ18+1))</f>
+        <f>IF('cantidad pollos muertos'!AZ20="","",BETAINV(0.025,'cantidad pollos muertos'!AZ20+1,'cantidad inicial pollos'!AZ20-'cantidad pollos muertos'!AZ20+1))</f>
         <v/>
       </c>
       <c r="BA19" t="str">
-        <f>IF('cantidad pollos muertos'!AZ18="","",BETAINV(0.975,'cantidad pollos muertos'!AZ18+1,'cantidad inicial pollos'!AZ18-'cantidad pollos muertos'!AZ18+1))</f>
+        <f>IF('cantidad pollos muertos'!AZ20="","",BETAINV(0.975,'cantidad pollos muertos'!AZ20+1,'cantidad inicial pollos'!AZ20-'cantidad pollos muertos'!AZ20+1))</f>
         <v/>
       </c>
       <c r="BB19" t="str">
-        <f>IF('cantidad pollos muertos'!BC18="","",BETAINV(0.025,'cantidad pollos muertos'!BC18+1,'cantidad inicial pollos'!BC18-'cantidad pollos muertos'!BC18+1))</f>
+        <f>IF('cantidad pollos muertos'!BC20="","",BETAINV(0.025,'cantidad pollos muertos'!BC20+1,'cantidad inicial pollos'!BC20-'cantidad pollos muertos'!BC20+1))</f>
         <v/>
       </c>
       <c r="BC19" t="str">
-        <f>IF('cantidad pollos muertos'!BC18="","",BETAINV(0.975,'cantidad pollos muertos'!BC18+1,'cantidad inicial pollos'!BC18-'cantidad pollos muertos'!BC18+1))</f>
+        <f>IF('cantidad pollos muertos'!BC20="","",BETAINV(0.975,'cantidad pollos muertos'!BC20+1,'cantidad inicial pollos'!BC20-'cantidad pollos muertos'!BC20+1))</f>
         <v/>
       </c>
       <c r="BD19" t="str">
-        <f>IF('cantidad pollos muertos'!BD18="","",BETAINV(0.025,'cantidad pollos muertos'!BD18+1,'cantidad inicial pollos'!BD18-'cantidad pollos muertos'!BD18+1))</f>
+        <f>IF('cantidad pollos muertos'!BD20="","",BETAINV(0.025,'cantidad pollos muertos'!BD20+1,'cantidad inicial pollos'!BD20-'cantidad pollos muertos'!BD20+1))</f>
         <v/>
       </c>
       <c r="BE19" t="str">
-        <f>IF('cantidad pollos muertos'!BD18="","",BETAINV(0.975,'cantidad pollos muertos'!BD18+1,'cantidad inicial pollos'!BD18-'cantidad pollos muertos'!BD18+1))</f>
+        <f>IF('cantidad pollos muertos'!BD20="","",BETAINV(0.975,'cantidad pollos muertos'!BD20+1,'cantidad inicial pollos'!BD20-'cantidad pollos muertos'!BD20+1))</f>
         <v/>
       </c>
     </row>
@@ -20289,27 +20299,27 @@
         <v/>
       </c>
       <c r="AZ20" t="str">
-        <f>IF('cantidad pollos muertos'!AZ19="","",BETAINV(0.025,'cantidad pollos muertos'!AZ19+1,'cantidad inicial pollos'!AZ19-'cantidad pollos muertos'!AZ19+1))</f>
+        <f>IF('cantidad pollos muertos'!AZ21="","",BETAINV(0.025,'cantidad pollos muertos'!AZ21+1,'cantidad inicial pollos'!AZ21-'cantidad pollos muertos'!AZ21+1))</f>
         <v/>
       </c>
       <c r="BA20" t="str">
-        <f>IF('cantidad pollos muertos'!AZ19="","",BETAINV(0.975,'cantidad pollos muertos'!AZ19+1,'cantidad inicial pollos'!AZ19-'cantidad pollos muertos'!AZ19+1))</f>
+        <f>IF('cantidad pollos muertos'!AZ21="","",BETAINV(0.975,'cantidad pollos muertos'!AZ21+1,'cantidad inicial pollos'!AZ21-'cantidad pollos muertos'!AZ21+1))</f>
         <v/>
       </c>
       <c r="BB20" t="str">
-        <f>IF('cantidad pollos muertos'!BC19="","",BETAINV(0.025,'cantidad pollos muertos'!BC19+1,'cantidad inicial pollos'!BC19-'cantidad pollos muertos'!BC19+1))</f>
+        <f>IF('cantidad pollos muertos'!BC21="","",BETAINV(0.025,'cantidad pollos muertos'!BC21+1,'cantidad inicial pollos'!BC21-'cantidad pollos muertos'!BC21+1))</f>
         <v/>
       </c>
       <c r="BC20" t="str">
-        <f>IF('cantidad pollos muertos'!BC19="","",BETAINV(0.975,'cantidad pollos muertos'!BC19+1,'cantidad inicial pollos'!BC19-'cantidad pollos muertos'!BC19+1))</f>
+        <f>IF('cantidad pollos muertos'!BC21="","",BETAINV(0.975,'cantidad pollos muertos'!BC21+1,'cantidad inicial pollos'!BC21-'cantidad pollos muertos'!BC21+1))</f>
         <v/>
       </c>
       <c r="BD20" t="str">
-        <f>IF('cantidad pollos muertos'!BD19="","",BETAINV(0.025,'cantidad pollos muertos'!BD19+1,'cantidad inicial pollos'!BD19-'cantidad pollos muertos'!BD19+1))</f>
+        <f>IF('cantidad pollos muertos'!BD21="","",BETAINV(0.025,'cantidad pollos muertos'!BD21+1,'cantidad inicial pollos'!BD21-'cantidad pollos muertos'!BD21+1))</f>
         <v/>
       </c>
       <c r="BE20" t="str">
-        <f>IF('cantidad pollos muertos'!BD19="","",BETAINV(0.975,'cantidad pollos muertos'!BD19+1,'cantidad inicial pollos'!BD19-'cantidad pollos muertos'!BD19+1))</f>
+        <f>IF('cantidad pollos muertos'!BD21="","",BETAINV(0.975,'cantidad pollos muertos'!BD21+1,'cantidad inicial pollos'!BD21-'cantidad pollos muertos'!BD21+1))</f>
         <v/>
       </c>
     </row>
@@ -20518,27 +20528,27 @@
         <v/>
       </c>
       <c r="AZ21" t="str">
-        <f>IF('cantidad pollos muertos'!AZ20="","",BETAINV(0.025,'cantidad pollos muertos'!AZ20+1,'cantidad inicial pollos'!AZ20-'cantidad pollos muertos'!AZ20+1))</f>
+        <f>IF('cantidad pollos muertos'!AZ22="","",BETAINV(0.025,'cantidad pollos muertos'!AZ22+1,'cantidad inicial pollos'!AZ22-'cantidad pollos muertos'!AZ22+1))</f>
         <v/>
       </c>
       <c r="BA21" t="str">
-        <f>IF('cantidad pollos muertos'!AZ20="","",BETAINV(0.975,'cantidad pollos muertos'!AZ20+1,'cantidad inicial pollos'!AZ20-'cantidad pollos muertos'!AZ20+1))</f>
+        <f>IF('cantidad pollos muertos'!AZ22="","",BETAINV(0.975,'cantidad pollos muertos'!AZ22+1,'cantidad inicial pollos'!AZ22-'cantidad pollos muertos'!AZ22+1))</f>
         <v/>
       </c>
       <c r="BB21" t="str">
-        <f>IF('cantidad pollos muertos'!BC20="","",BETAINV(0.025,'cantidad pollos muertos'!BC20+1,'cantidad inicial pollos'!BC20-'cantidad pollos muertos'!BC20+1))</f>
+        <f>IF('cantidad pollos muertos'!BC22="","",BETAINV(0.025,'cantidad pollos muertos'!BC22+1,'cantidad inicial pollos'!BC22-'cantidad pollos muertos'!BC22+1))</f>
         <v/>
       </c>
       <c r="BC21" t="str">
-        <f>IF('cantidad pollos muertos'!BC20="","",BETAINV(0.975,'cantidad pollos muertos'!BC20+1,'cantidad inicial pollos'!BC20-'cantidad pollos muertos'!BC20+1))</f>
+        <f>IF('cantidad pollos muertos'!BC22="","",BETAINV(0.975,'cantidad pollos muertos'!BC22+1,'cantidad inicial pollos'!BC22-'cantidad pollos muertos'!BC22+1))</f>
         <v/>
       </c>
       <c r="BD21" t="str">
-        <f>IF('cantidad pollos muertos'!BD20="","",BETAINV(0.025,'cantidad pollos muertos'!BD20+1,'cantidad inicial pollos'!BD20-'cantidad pollos muertos'!BD20+1))</f>
+        <f>IF('cantidad pollos muertos'!BD22="","",BETAINV(0.025,'cantidad pollos muertos'!BD22+1,'cantidad inicial pollos'!BD22-'cantidad pollos muertos'!BD22+1))</f>
         <v/>
       </c>
       <c r="BE21" t="str">
-        <f>IF('cantidad pollos muertos'!BD20="","",BETAINV(0.975,'cantidad pollos muertos'!BD20+1,'cantidad inicial pollos'!BD20-'cantidad pollos muertos'!BD20+1))</f>
+        <f>IF('cantidad pollos muertos'!BD22="","",BETAINV(0.975,'cantidad pollos muertos'!BD22+1,'cantidad inicial pollos'!BD22-'cantidad pollos muertos'!BD22+1))</f>
         <v/>
       </c>
     </row>
@@ -20747,27 +20757,27 @@
         <v/>
       </c>
       <c r="AZ22" t="str">
-        <f>IF('cantidad pollos muertos'!AZ21="","",BETAINV(0.025,'cantidad pollos muertos'!AZ21+1,'cantidad inicial pollos'!AZ21-'cantidad pollos muertos'!AZ21+1))</f>
+        <f>IF('cantidad pollos muertos'!AZ23="","",BETAINV(0.025,'cantidad pollos muertos'!AZ23+1,'cantidad inicial pollos'!AZ23-'cantidad pollos muertos'!AZ23+1))</f>
         <v/>
       </c>
       <c r="BA22" t="str">
-        <f>IF('cantidad pollos muertos'!AZ21="","",BETAINV(0.975,'cantidad pollos muertos'!AZ21+1,'cantidad inicial pollos'!AZ21-'cantidad pollos muertos'!AZ21+1))</f>
+        <f>IF('cantidad pollos muertos'!AZ23="","",BETAINV(0.975,'cantidad pollos muertos'!AZ23+1,'cantidad inicial pollos'!AZ23-'cantidad pollos muertos'!AZ23+1))</f>
         <v/>
       </c>
       <c r="BB22" t="str">
-        <f>IF('cantidad pollos muertos'!BC21="","",BETAINV(0.025,'cantidad pollos muertos'!BC21+1,'cantidad inicial pollos'!BC21-'cantidad pollos muertos'!BC21+1))</f>
+        <f>IF('cantidad pollos muertos'!BC23="","",BETAINV(0.025,'cantidad pollos muertos'!BC23+1,'cantidad inicial pollos'!BC23-'cantidad pollos muertos'!BC23+1))</f>
         <v/>
       </c>
       <c r="BC22" t="str">
-        <f>IF('cantidad pollos muertos'!BC21="","",BETAINV(0.975,'cantidad pollos muertos'!BC21+1,'cantidad inicial pollos'!BC21-'cantidad pollos muertos'!BC21+1))</f>
+        <f>IF('cantidad pollos muertos'!BC23="","",BETAINV(0.975,'cantidad pollos muertos'!BC23+1,'cantidad inicial pollos'!BC23-'cantidad pollos muertos'!BC23+1))</f>
         <v/>
       </c>
       <c r="BD22" t="str">
-        <f>IF('cantidad pollos muertos'!BD21="","",BETAINV(0.025,'cantidad pollos muertos'!BD21+1,'cantidad inicial pollos'!BD21-'cantidad pollos muertos'!BD21+1))</f>
+        <f>IF('cantidad pollos muertos'!BD23="","",BETAINV(0.025,'cantidad pollos muertos'!BD23+1,'cantidad inicial pollos'!BD23-'cantidad pollos muertos'!BD23+1))</f>
         <v/>
       </c>
       <c r="BE22" t="str">
-        <f>IF('cantidad pollos muertos'!BD21="","",BETAINV(0.975,'cantidad pollos muertos'!BD21+1,'cantidad inicial pollos'!BD21-'cantidad pollos muertos'!BD21+1))</f>
+        <f>IF('cantidad pollos muertos'!BD23="","",BETAINV(0.975,'cantidad pollos muertos'!BD23+1,'cantidad inicial pollos'!BD23-'cantidad pollos muertos'!BD23+1))</f>
         <v/>
       </c>
     </row>
@@ -20976,27 +20986,27 @@
         <v/>
       </c>
       <c r="AZ23" t="str">
-        <f>IF('cantidad pollos muertos'!AZ22="","",BETAINV(0.025,'cantidad pollos muertos'!AZ22+1,'cantidad inicial pollos'!AZ22-'cantidad pollos muertos'!AZ22+1))</f>
+        <f>IF('cantidad pollos muertos'!AZ24="","",BETAINV(0.025,'cantidad pollos muertos'!AZ24+1,'cantidad inicial pollos'!AZ24-'cantidad pollos muertos'!AZ24+1))</f>
         <v/>
       </c>
       <c r="BA23" t="str">
-        <f>IF('cantidad pollos muertos'!AZ22="","",BETAINV(0.975,'cantidad pollos muertos'!AZ22+1,'cantidad inicial pollos'!AZ22-'cantidad pollos muertos'!AZ22+1))</f>
+        <f>IF('cantidad pollos muertos'!AZ24="","",BETAINV(0.975,'cantidad pollos muertos'!AZ24+1,'cantidad inicial pollos'!AZ24-'cantidad pollos muertos'!AZ24+1))</f>
         <v/>
       </c>
       <c r="BB23" t="str">
-        <f>IF('cantidad pollos muertos'!BC22="","",BETAINV(0.025,'cantidad pollos muertos'!BC22+1,'cantidad inicial pollos'!BC22-'cantidad pollos muertos'!BC22+1))</f>
+        <f>IF('cantidad pollos muertos'!BC24="","",BETAINV(0.025,'cantidad pollos muertos'!BC24+1,'cantidad inicial pollos'!BC24-'cantidad pollos muertos'!BC24+1))</f>
         <v/>
       </c>
       <c r="BC23" t="str">
-        <f>IF('cantidad pollos muertos'!BC22="","",BETAINV(0.975,'cantidad pollos muertos'!BC22+1,'cantidad inicial pollos'!BC22-'cantidad pollos muertos'!BC22+1))</f>
+        <f>IF('cantidad pollos muertos'!BC24="","",BETAINV(0.975,'cantidad pollos muertos'!BC24+1,'cantidad inicial pollos'!BC24-'cantidad pollos muertos'!BC24+1))</f>
         <v/>
       </c>
       <c r="BD23" t="str">
-        <f>IF('cantidad pollos muertos'!BD22="","",BETAINV(0.025,'cantidad pollos muertos'!BD22+1,'cantidad inicial pollos'!BD22-'cantidad pollos muertos'!BD22+1))</f>
+        <f>IF('cantidad pollos muertos'!BD24="","",BETAINV(0.025,'cantidad pollos muertos'!BD24+1,'cantidad inicial pollos'!BD24-'cantidad pollos muertos'!BD24+1))</f>
         <v/>
       </c>
       <c r="BE23" t="str">
-        <f>IF('cantidad pollos muertos'!BD22="","",BETAINV(0.975,'cantidad pollos muertos'!BD22+1,'cantidad inicial pollos'!BD22-'cantidad pollos muertos'!BD22+1))</f>
+        <f>IF('cantidad pollos muertos'!BD24="","",BETAINV(0.975,'cantidad pollos muertos'!BD24+1,'cantidad inicial pollos'!BD24-'cantidad pollos muertos'!BD24+1))</f>
         <v/>
       </c>
     </row>
@@ -21205,27 +21215,27 @@
         <v/>
       </c>
       <c r="AZ24" t="str">
-        <f>IF('cantidad pollos muertos'!AZ23="","",BETAINV(0.025,'cantidad pollos muertos'!AZ23+1,'cantidad inicial pollos'!AZ23-'cantidad pollos muertos'!AZ23+1))</f>
+        <f>IF('cantidad pollos muertos'!AZ25="","",BETAINV(0.025,'cantidad pollos muertos'!AZ25+1,'cantidad inicial pollos'!AZ25-'cantidad pollos muertos'!AZ25+1))</f>
         <v/>
       </c>
       <c r="BA24" t="str">
-        <f>IF('cantidad pollos muertos'!AZ23="","",BETAINV(0.975,'cantidad pollos muertos'!AZ23+1,'cantidad inicial pollos'!AZ23-'cantidad pollos muertos'!AZ23+1))</f>
+        <f>IF('cantidad pollos muertos'!AZ25="","",BETAINV(0.975,'cantidad pollos muertos'!AZ25+1,'cantidad inicial pollos'!AZ25-'cantidad pollos muertos'!AZ25+1))</f>
         <v/>
       </c>
       <c r="BB24" t="str">
-        <f>IF('cantidad pollos muertos'!BC23="","",BETAINV(0.025,'cantidad pollos muertos'!BC23+1,'cantidad inicial pollos'!BC23-'cantidad pollos muertos'!BC23+1))</f>
+        <f>IF('cantidad pollos muertos'!BC25="","",BETAINV(0.025,'cantidad pollos muertos'!BC25+1,'cantidad inicial pollos'!BC25-'cantidad pollos muertos'!BC25+1))</f>
         <v/>
       </c>
       <c r="BC24" t="str">
-        <f>IF('cantidad pollos muertos'!BC23="","",BETAINV(0.975,'cantidad pollos muertos'!BC23+1,'cantidad inicial pollos'!BC23-'cantidad pollos muertos'!BC23+1))</f>
+        <f>IF('cantidad pollos muertos'!BC25="","",BETAINV(0.975,'cantidad pollos muertos'!BC25+1,'cantidad inicial pollos'!BC25-'cantidad pollos muertos'!BC25+1))</f>
         <v/>
       </c>
       <c r="BD24" t="str">
-        <f>IF('cantidad pollos muertos'!BD23="","",BETAINV(0.025,'cantidad pollos muertos'!BD23+1,'cantidad inicial pollos'!BD23-'cantidad pollos muertos'!BD23+1))</f>
+        <f>IF('cantidad pollos muertos'!BD25="","",BETAINV(0.025,'cantidad pollos muertos'!BD25+1,'cantidad inicial pollos'!BD25-'cantidad pollos muertos'!BD25+1))</f>
         <v/>
       </c>
       <c r="BE24" t="str">
-        <f>IF('cantidad pollos muertos'!BD23="","",BETAINV(0.975,'cantidad pollos muertos'!BD23+1,'cantidad inicial pollos'!BD23-'cantidad pollos muertos'!BD23+1))</f>
+        <f>IF('cantidad pollos muertos'!BD25="","",BETAINV(0.975,'cantidad pollos muertos'!BD25+1,'cantidad inicial pollos'!BD25-'cantidad pollos muertos'!BD25+1))</f>
         <v/>
       </c>
     </row>
@@ -21434,27 +21444,27 @@
         <v/>
       </c>
       <c r="AZ25" t="str">
-        <f>IF('cantidad pollos muertos'!AZ24="","",BETAINV(0.025,'cantidad pollos muertos'!AZ24+1,'cantidad inicial pollos'!AZ24-'cantidad pollos muertos'!AZ24+1))</f>
+        <f>IF('cantidad pollos muertos'!AZ26="","",BETAINV(0.025,'cantidad pollos muertos'!AZ26+1,'cantidad inicial pollos'!AZ26-'cantidad pollos muertos'!AZ26+1))</f>
         <v/>
       </c>
       <c r="BA25" t="str">
-        <f>IF('cantidad pollos muertos'!AZ24="","",BETAINV(0.975,'cantidad pollos muertos'!AZ24+1,'cantidad inicial pollos'!AZ24-'cantidad pollos muertos'!AZ24+1))</f>
+        <f>IF('cantidad pollos muertos'!AZ26="","",BETAINV(0.975,'cantidad pollos muertos'!AZ26+1,'cantidad inicial pollos'!AZ26-'cantidad pollos muertos'!AZ26+1))</f>
         <v/>
       </c>
       <c r="BB25" t="str">
-        <f>IF('cantidad pollos muertos'!BC24="","",BETAINV(0.025,'cantidad pollos muertos'!BC24+1,'cantidad inicial pollos'!BC24-'cantidad pollos muertos'!BC24+1))</f>
+        <f>IF('cantidad pollos muertos'!BC26="","",BETAINV(0.025,'cantidad pollos muertos'!BC26+1,'cantidad inicial pollos'!BC26-'cantidad pollos muertos'!BC26+1))</f>
         <v/>
       </c>
       <c r="BC25" t="str">
-        <f>IF('cantidad pollos muertos'!BC24="","",BETAINV(0.975,'cantidad pollos muertos'!BC24+1,'cantidad inicial pollos'!BC24-'cantidad pollos muertos'!BC24+1))</f>
+        <f>IF('cantidad pollos muertos'!BC26="","",BETAINV(0.975,'cantidad pollos muertos'!BC26+1,'cantidad inicial pollos'!BC26-'cantidad pollos muertos'!BC26+1))</f>
         <v/>
       </c>
       <c r="BD25" t="str">
-        <f>IF('cantidad pollos muertos'!BD24="","",BETAINV(0.025,'cantidad pollos muertos'!BD24+1,'cantidad inicial pollos'!BD24-'cantidad pollos muertos'!BD24+1))</f>
+        <f>IF('cantidad pollos muertos'!BD26="","",BETAINV(0.025,'cantidad pollos muertos'!BD26+1,'cantidad inicial pollos'!BD26-'cantidad pollos muertos'!BD26+1))</f>
         <v/>
       </c>
       <c r="BE25" t="str">
-        <f>IF('cantidad pollos muertos'!BD24="","",BETAINV(0.975,'cantidad pollos muertos'!BD24+1,'cantidad inicial pollos'!BD24-'cantidad pollos muertos'!BD24+1))</f>
+        <f>IF('cantidad pollos muertos'!BD26="","",BETAINV(0.975,'cantidad pollos muertos'!BD26+1,'cantidad inicial pollos'!BD26-'cantidad pollos muertos'!BD26+1))</f>
         <v/>
       </c>
     </row>
@@ -21663,27 +21673,27 @@
         <v/>
       </c>
       <c r="AZ26" t="str">
-        <f>IF('cantidad pollos muertos'!AZ25="","",BETAINV(0.025,'cantidad pollos muertos'!AZ25+1,'cantidad inicial pollos'!AZ25-'cantidad pollos muertos'!AZ25+1))</f>
+        <f>IF('cantidad pollos muertos'!AZ27="","",BETAINV(0.025,'cantidad pollos muertos'!AZ27+1,'cantidad inicial pollos'!AZ27-'cantidad pollos muertos'!AZ27+1))</f>
         <v/>
       </c>
       <c r="BA26" t="str">
-        <f>IF('cantidad pollos muertos'!AZ25="","",BETAINV(0.975,'cantidad pollos muertos'!AZ25+1,'cantidad inicial pollos'!AZ25-'cantidad pollos muertos'!AZ25+1))</f>
+        <f>IF('cantidad pollos muertos'!AZ27="","",BETAINV(0.975,'cantidad pollos muertos'!AZ27+1,'cantidad inicial pollos'!AZ27-'cantidad pollos muertos'!AZ27+1))</f>
         <v/>
       </c>
       <c r="BB26" t="str">
-        <f>IF('cantidad pollos muertos'!BC25="","",BETAINV(0.025,'cantidad pollos muertos'!BC25+1,'cantidad inicial pollos'!BC25-'cantidad pollos muertos'!BC25+1))</f>
+        <f>IF('cantidad pollos muertos'!BC27="","",BETAINV(0.025,'cantidad pollos muertos'!BC27+1,'cantidad inicial pollos'!BC27-'cantidad pollos muertos'!BC27+1))</f>
         <v/>
       </c>
       <c r="BC26" t="str">
-        <f>IF('cantidad pollos muertos'!BC25="","",BETAINV(0.975,'cantidad pollos muertos'!BC25+1,'cantidad inicial pollos'!BC25-'cantidad pollos muertos'!BC25+1))</f>
+        <f>IF('cantidad pollos muertos'!BC27="","",BETAINV(0.975,'cantidad pollos muertos'!BC27+1,'cantidad inicial pollos'!BC27-'cantidad pollos muertos'!BC27+1))</f>
         <v/>
       </c>
       <c r="BD26" t="str">
-        <f>IF('cantidad pollos muertos'!BD25="","",BETAINV(0.025,'cantidad pollos muertos'!BD25+1,'cantidad inicial pollos'!BD25-'cantidad pollos muertos'!BD25+1))</f>
+        <f>IF('cantidad pollos muertos'!BD27="","",BETAINV(0.025,'cantidad pollos muertos'!BD27+1,'cantidad inicial pollos'!BD27-'cantidad pollos muertos'!BD27+1))</f>
         <v/>
       </c>
       <c r="BE26" t="str">
-        <f>IF('cantidad pollos muertos'!BD25="","",BETAINV(0.975,'cantidad pollos muertos'!BD25+1,'cantidad inicial pollos'!BD25-'cantidad pollos muertos'!BD25+1))</f>
+        <f>IF('cantidad pollos muertos'!BD27="","",BETAINV(0.975,'cantidad pollos muertos'!BD27+1,'cantidad inicial pollos'!BD27-'cantidad pollos muertos'!BD27+1))</f>
         <v/>
       </c>
     </row>
@@ -21892,27 +21902,27 @@
         <v/>
       </c>
       <c r="AZ27" t="str">
-        <f>IF('cantidad pollos muertos'!AZ26="","",BETAINV(0.025,'cantidad pollos muertos'!AZ26+1,'cantidad inicial pollos'!AZ26-'cantidad pollos muertos'!AZ26+1))</f>
+        <f>IF('cantidad pollos muertos'!AZ28="","",BETAINV(0.025,'cantidad pollos muertos'!AZ28+1,'cantidad inicial pollos'!AZ28-'cantidad pollos muertos'!AZ28+1))</f>
         <v/>
       </c>
       <c r="BA27" t="str">
-        <f>IF('cantidad pollos muertos'!AZ26="","",BETAINV(0.975,'cantidad pollos muertos'!AZ26+1,'cantidad inicial pollos'!AZ26-'cantidad pollos muertos'!AZ26+1))</f>
+        <f>IF('cantidad pollos muertos'!AZ28="","",BETAINV(0.975,'cantidad pollos muertos'!AZ28+1,'cantidad inicial pollos'!AZ28-'cantidad pollos muertos'!AZ28+1))</f>
         <v/>
       </c>
       <c r="BB27" t="str">
-        <f>IF('cantidad pollos muertos'!BC26="","",BETAINV(0.025,'cantidad pollos muertos'!BC26+1,'cantidad inicial pollos'!BC26-'cantidad pollos muertos'!BC26+1))</f>
+        <f>IF('cantidad pollos muertos'!BC28="","",BETAINV(0.025,'cantidad pollos muertos'!BC28+1,'cantidad inicial pollos'!BC28-'cantidad pollos muertos'!BC28+1))</f>
         <v/>
       </c>
       <c r="BC27" t="str">
-        <f>IF('cantidad pollos muertos'!BC26="","",BETAINV(0.975,'cantidad pollos muertos'!BC26+1,'cantidad inicial pollos'!BC26-'cantidad pollos muertos'!BC26+1))</f>
+        <f>IF('cantidad pollos muertos'!BC28="","",BETAINV(0.975,'cantidad pollos muertos'!BC28+1,'cantidad inicial pollos'!BC28-'cantidad pollos muertos'!BC28+1))</f>
         <v/>
       </c>
       <c r="BD27" t="str">
-        <f>IF('cantidad pollos muertos'!BD26="","",BETAINV(0.025,'cantidad pollos muertos'!BD26+1,'cantidad inicial pollos'!BD26-'cantidad pollos muertos'!BD26+1))</f>
+        <f>IF('cantidad pollos muertos'!BD28="","",BETAINV(0.025,'cantidad pollos muertos'!BD28+1,'cantidad inicial pollos'!BD28-'cantidad pollos muertos'!BD28+1))</f>
         <v/>
       </c>
       <c r="BE27" t="str">
-        <f>IF('cantidad pollos muertos'!BD26="","",BETAINV(0.975,'cantidad pollos muertos'!BD26+1,'cantidad inicial pollos'!BD26-'cantidad pollos muertos'!BD26+1))</f>
+        <f>IF('cantidad pollos muertos'!BD28="","",BETAINV(0.975,'cantidad pollos muertos'!BD28+1,'cantidad inicial pollos'!BD28-'cantidad pollos muertos'!BD28+1))</f>
         <v/>
       </c>
     </row>
@@ -22121,27 +22131,27 @@
         <v/>
       </c>
       <c r="AZ28" t="str">
-        <f>IF('cantidad pollos muertos'!AZ27="","",BETAINV(0.025,'cantidad pollos muertos'!AZ27+1,'cantidad inicial pollos'!AZ27-'cantidad pollos muertos'!AZ27+1))</f>
+        <f>IF('cantidad pollos muertos'!AZ29="","",BETAINV(0.025,'cantidad pollos muertos'!AZ29+1,'cantidad inicial pollos'!AZ29-'cantidad pollos muertos'!AZ29+1))</f>
         <v/>
       </c>
       <c r="BA28" t="str">
-        <f>IF('cantidad pollos muertos'!AZ27="","",BETAINV(0.975,'cantidad pollos muertos'!AZ27+1,'cantidad inicial pollos'!AZ27-'cantidad pollos muertos'!AZ27+1))</f>
+        <f>IF('cantidad pollos muertos'!AZ29="","",BETAINV(0.975,'cantidad pollos muertos'!AZ29+1,'cantidad inicial pollos'!AZ29-'cantidad pollos muertos'!AZ29+1))</f>
         <v/>
       </c>
       <c r="BB28" t="str">
-        <f>IF('cantidad pollos muertos'!BC27="","",BETAINV(0.025,'cantidad pollos muertos'!BC27+1,'cantidad inicial pollos'!BC27-'cantidad pollos muertos'!BC27+1))</f>
+        <f>IF('cantidad pollos muertos'!BC29="","",BETAINV(0.025,'cantidad pollos muertos'!BC29+1,'cantidad inicial pollos'!BC29-'cantidad pollos muertos'!BC29+1))</f>
         <v/>
       </c>
       <c r="BC28" t="str">
-        <f>IF('cantidad pollos muertos'!BC27="","",BETAINV(0.975,'cantidad pollos muertos'!BC27+1,'cantidad inicial pollos'!BC27-'cantidad pollos muertos'!BC27+1))</f>
+        <f>IF('cantidad pollos muertos'!BC29="","",BETAINV(0.975,'cantidad pollos muertos'!BC29+1,'cantidad inicial pollos'!BC29-'cantidad pollos muertos'!BC29+1))</f>
         <v/>
       </c>
       <c r="BD28" t="str">
-        <f>IF('cantidad pollos muertos'!BD27="","",BETAINV(0.025,'cantidad pollos muertos'!BD27+1,'cantidad inicial pollos'!BD27-'cantidad pollos muertos'!BD27+1))</f>
+        <f>IF('cantidad pollos muertos'!BD29="","",BETAINV(0.025,'cantidad pollos muertos'!BD29+1,'cantidad inicial pollos'!BD29-'cantidad pollos muertos'!BD29+1))</f>
         <v/>
       </c>
       <c r="BE28" t="str">
-        <f>IF('cantidad pollos muertos'!BD27="","",BETAINV(0.975,'cantidad pollos muertos'!BD27+1,'cantidad inicial pollos'!BD27-'cantidad pollos muertos'!BD27+1))</f>
+        <f>IF('cantidad pollos muertos'!BD29="","",BETAINV(0.975,'cantidad pollos muertos'!BD29+1,'cantidad inicial pollos'!BD29-'cantidad pollos muertos'!BD29+1))</f>
         <v/>
       </c>
     </row>
@@ -22350,27 +22360,27 @@
         <v/>
       </c>
       <c r="AZ29" t="str">
-        <f>IF('cantidad pollos muertos'!AZ28="","",BETAINV(0.025,'cantidad pollos muertos'!AZ28+1,'cantidad inicial pollos'!AZ28-'cantidad pollos muertos'!AZ28+1))</f>
+        <f>IF('cantidad pollos muertos'!AZ30="","",BETAINV(0.025,'cantidad pollos muertos'!AZ30+1,'cantidad inicial pollos'!AZ30-'cantidad pollos muertos'!AZ30+1))</f>
         <v/>
       </c>
       <c r="BA29" t="str">
-        <f>IF('cantidad pollos muertos'!AZ28="","",BETAINV(0.975,'cantidad pollos muertos'!AZ28+1,'cantidad inicial pollos'!AZ28-'cantidad pollos muertos'!AZ28+1))</f>
+        <f>IF('cantidad pollos muertos'!AZ30="","",BETAINV(0.975,'cantidad pollos muertos'!AZ30+1,'cantidad inicial pollos'!AZ30-'cantidad pollos muertos'!AZ30+1))</f>
         <v/>
       </c>
       <c r="BB29" t="str">
-        <f>IF('cantidad pollos muertos'!BC28="","",BETAINV(0.025,'cantidad pollos muertos'!BC28+1,'cantidad inicial pollos'!BC28-'cantidad pollos muertos'!BC28+1))</f>
+        <f>IF('cantidad pollos muertos'!BC30="","",BETAINV(0.025,'cantidad pollos muertos'!BC30+1,'cantidad inicial pollos'!BC30-'cantidad pollos muertos'!BC30+1))</f>
         <v/>
       </c>
       <c r="BC29" t="str">
-        <f>IF('cantidad pollos muertos'!BC28="","",BETAINV(0.975,'cantidad pollos muertos'!BC28+1,'cantidad inicial pollos'!BC28-'cantidad pollos muertos'!BC28+1))</f>
+        <f>IF('cantidad pollos muertos'!BC30="","",BETAINV(0.975,'cantidad pollos muertos'!BC30+1,'cantidad inicial pollos'!BC30-'cantidad pollos muertos'!BC30+1))</f>
         <v/>
       </c>
       <c r="BD29" t="str">
-        <f>IF('cantidad pollos muertos'!BD28="","",BETAINV(0.025,'cantidad pollos muertos'!BD28+1,'cantidad inicial pollos'!BD28-'cantidad pollos muertos'!BD28+1))</f>
+        <f>IF('cantidad pollos muertos'!BD30="","",BETAINV(0.025,'cantidad pollos muertos'!BD30+1,'cantidad inicial pollos'!BD30-'cantidad pollos muertos'!BD30+1))</f>
         <v/>
       </c>
       <c r="BE29" t="str">
-        <f>IF('cantidad pollos muertos'!BD28="","",BETAINV(0.975,'cantidad pollos muertos'!BD28+1,'cantidad inicial pollos'!BD28-'cantidad pollos muertos'!BD28+1))</f>
+        <f>IF('cantidad pollos muertos'!BD30="","",BETAINV(0.975,'cantidad pollos muertos'!BD30+1,'cantidad inicial pollos'!BD30-'cantidad pollos muertos'!BD30+1))</f>
         <v/>
       </c>
     </row>
@@ -22579,27 +22589,27 @@
         <v/>
       </c>
       <c r="AZ30" t="str">
-        <f>IF('cantidad pollos muertos'!AZ29="","",BETAINV(0.025,'cantidad pollos muertos'!AZ29+1,'cantidad inicial pollos'!AZ29-'cantidad pollos muertos'!AZ29+1))</f>
+        <f>IF('cantidad pollos muertos'!AZ31="","",BETAINV(0.025,'cantidad pollos muertos'!AZ31+1,'cantidad inicial pollos'!AZ31-'cantidad pollos muertos'!AZ31+1))</f>
         <v/>
       </c>
       <c r="BA30" t="str">
-        <f>IF('cantidad pollos muertos'!AZ29="","",BETAINV(0.975,'cantidad pollos muertos'!AZ29+1,'cantidad inicial pollos'!AZ29-'cantidad pollos muertos'!AZ29+1))</f>
+        <f>IF('cantidad pollos muertos'!AZ31="","",BETAINV(0.975,'cantidad pollos muertos'!AZ31+1,'cantidad inicial pollos'!AZ31-'cantidad pollos muertos'!AZ31+1))</f>
         <v/>
       </c>
       <c r="BB30" t="str">
-        <f>IF('cantidad pollos muertos'!BC29="","",BETAINV(0.025,'cantidad pollos muertos'!BC29+1,'cantidad inicial pollos'!BC29-'cantidad pollos muertos'!BC29+1))</f>
+        <f>IF('cantidad pollos muertos'!BC31="","",BETAINV(0.025,'cantidad pollos muertos'!BC31+1,'cantidad inicial pollos'!BC31-'cantidad pollos muertos'!BC31+1))</f>
         <v/>
       </c>
       <c r="BC30" t="str">
-        <f>IF('cantidad pollos muertos'!BC29="","",BETAINV(0.975,'cantidad pollos muertos'!BC29+1,'cantidad inicial pollos'!BC29-'cantidad pollos muertos'!BC29+1))</f>
+        <f>IF('cantidad pollos muertos'!BC31="","",BETAINV(0.975,'cantidad pollos muertos'!BC31+1,'cantidad inicial pollos'!BC31-'cantidad pollos muertos'!BC31+1))</f>
         <v/>
       </c>
       <c r="BD30" t="str">
-        <f>IF('cantidad pollos muertos'!BD29="","",BETAINV(0.025,'cantidad pollos muertos'!BD29+1,'cantidad inicial pollos'!BD29-'cantidad pollos muertos'!BD29+1))</f>
+        <f>IF('cantidad pollos muertos'!BD31="","",BETAINV(0.025,'cantidad pollos muertos'!BD31+1,'cantidad inicial pollos'!BD31-'cantidad pollos muertos'!BD31+1))</f>
         <v/>
       </c>
       <c r="BE30" t="str">
-        <f>IF('cantidad pollos muertos'!BD29="","",BETAINV(0.975,'cantidad pollos muertos'!BD29+1,'cantidad inicial pollos'!BD29-'cantidad pollos muertos'!BD29+1))</f>
+        <f>IF('cantidad pollos muertos'!BD31="","",BETAINV(0.975,'cantidad pollos muertos'!BD31+1,'cantidad inicial pollos'!BD31-'cantidad pollos muertos'!BD31+1))</f>
         <v/>
       </c>
     </row>
@@ -22808,27 +22818,27 @@
         <v/>
       </c>
       <c r="AZ31" t="str">
-        <f>IF('cantidad pollos muertos'!AZ30="","",BETAINV(0.025,'cantidad pollos muertos'!AZ30+1,'cantidad inicial pollos'!AZ30-'cantidad pollos muertos'!AZ30+1))</f>
+        <f>IF('cantidad pollos muertos'!AZ32="","",BETAINV(0.025,'cantidad pollos muertos'!AZ32+1,'cantidad inicial pollos'!AZ32-'cantidad pollos muertos'!AZ32+1))</f>
         <v/>
       </c>
       <c r="BA31" t="str">
-        <f>IF('cantidad pollos muertos'!AZ30="","",BETAINV(0.975,'cantidad pollos muertos'!AZ30+1,'cantidad inicial pollos'!AZ30-'cantidad pollos muertos'!AZ30+1))</f>
+        <f>IF('cantidad pollos muertos'!AZ32="","",BETAINV(0.975,'cantidad pollos muertos'!AZ32+1,'cantidad inicial pollos'!AZ32-'cantidad pollos muertos'!AZ32+1))</f>
         <v/>
       </c>
       <c r="BB31" t="str">
-        <f>IF('cantidad pollos muertos'!BC30="","",BETAINV(0.025,'cantidad pollos muertos'!BC30+1,'cantidad inicial pollos'!BC30-'cantidad pollos muertos'!BC30+1))</f>
+        <f>IF('cantidad pollos muertos'!BC32="","",BETAINV(0.025,'cantidad pollos muertos'!BC32+1,'cantidad inicial pollos'!BC32-'cantidad pollos muertos'!BC32+1))</f>
         <v/>
       </c>
       <c r="BC31" t="str">
-        <f>IF('cantidad pollos muertos'!BC30="","",BETAINV(0.975,'cantidad pollos muertos'!BC30+1,'cantidad inicial pollos'!BC30-'cantidad pollos muertos'!BC30+1))</f>
+        <f>IF('cantidad pollos muertos'!BC32="","",BETAINV(0.975,'cantidad pollos muertos'!BC32+1,'cantidad inicial pollos'!BC32-'cantidad pollos muertos'!BC32+1))</f>
         <v/>
       </c>
       <c r="BD31" t="str">
-        <f>IF('cantidad pollos muertos'!BD30="","",BETAINV(0.025,'cantidad pollos muertos'!BD30+1,'cantidad inicial pollos'!BD30-'cantidad pollos muertos'!BD30+1))</f>
+        <f>IF('cantidad pollos muertos'!BD32="","",BETAINV(0.025,'cantidad pollos muertos'!BD32+1,'cantidad inicial pollos'!BD32-'cantidad pollos muertos'!BD32+1))</f>
         <v/>
       </c>
       <c r="BE31" t="str">
-        <f>IF('cantidad pollos muertos'!BD30="","",BETAINV(0.975,'cantidad pollos muertos'!BD30+1,'cantidad inicial pollos'!BD30-'cantidad pollos muertos'!BD30+1))</f>
+        <f>IF('cantidad pollos muertos'!BD32="","",BETAINV(0.975,'cantidad pollos muertos'!BD32+1,'cantidad inicial pollos'!BD32-'cantidad pollos muertos'!BD32+1))</f>
         <v/>
       </c>
     </row>
@@ -23037,27 +23047,27 @@
         <v/>
       </c>
       <c r="AZ32" t="str">
-        <f>IF('cantidad pollos muertos'!AZ31="","",BETAINV(0.025,'cantidad pollos muertos'!AZ31+1,'cantidad inicial pollos'!AZ31-'cantidad pollos muertos'!AZ31+1))</f>
+        <f>IF('cantidad pollos muertos'!AZ33="","",BETAINV(0.025,'cantidad pollos muertos'!AZ33+1,'cantidad inicial pollos'!AZ33-'cantidad pollos muertos'!AZ33+1))</f>
         <v/>
       </c>
       <c r="BA32" t="str">
-        <f>IF('cantidad pollos muertos'!AZ31="","",BETAINV(0.975,'cantidad pollos muertos'!AZ31+1,'cantidad inicial pollos'!AZ31-'cantidad pollos muertos'!AZ31+1))</f>
+        <f>IF('cantidad pollos muertos'!AZ33="","",BETAINV(0.975,'cantidad pollos muertos'!AZ33+1,'cantidad inicial pollos'!AZ33-'cantidad pollos muertos'!AZ33+1))</f>
         <v/>
       </c>
       <c r="BB32" t="str">
-        <f>IF('cantidad pollos muertos'!BC31="","",BETAINV(0.025,'cantidad pollos muertos'!BC31+1,'cantidad inicial pollos'!BC31-'cantidad pollos muertos'!BC31+1))</f>
+        <f>IF('cantidad pollos muertos'!BC33="","",BETAINV(0.025,'cantidad pollos muertos'!BC33+1,'cantidad inicial pollos'!BC33-'cantidad pollos muertos'!BC33+1))</f>
         <v/>
       </c>
       <c r="BC32" t="str">
-        <f>IF('cantidad pollos muertos'!BC31="","",BETAINV(0.975,'cantidad pollos muertos'!BC31+1,'cantidad inicial pollos'!BC31-'cantidad pollos muertos'!BC31+1))</f>
+        <f>IF('cantidad pollos muertos'!BC33="","",BETAINV(0.975,'cantidad pollos muertos'!BC33+1,'cantidad inicial pollos'!BC33-'cantidad pollos muertos'!BC33+1))</f>
         <v/>
       </c>
       <c r="BD32" t="str">
-        <f>IF('cantidad pollos muertos'!BD31="","",BETAINV(0.025,'cantidad pollos muertos'!BD31+1,'cantidad inicial pollos'!BD31-'cantidad pollos muertos'!BD31+1))</f>
+        <f>IF('cantidad pollos muertos'!BD33="","",BETAINV(0.025,'cantidad pollos muertos'!BD33+1,'cantidad inicial pollos'!BD33-'cantidad pollos muertos'!BD33+1))</f>
         <v/>
       </c>
       <c r="BE32" t="str">
-        <f>IF('cantidad pollos muertos'!BD31="","",BETAINV(0.975,'cantidad pollos muertos'!BD31+1,'cantidad inicial pollos'!BD31-'cantidad pollos muertos'!BD31+1))</f>
+        <f>IF('cantidad pollos muertos'!BD33="","",BETAINV(0.975,'cantidad pollos muertos'!BD33+1,'cantidad inicial pollos'!BD33-'cantidad pollos muertos'!BD33+1))</f>
         <v/>
       </c>
     </row>
@@ -23266,27 +23276,27 @@
         <v/>
       </c>
       <c r="AZ33" t="str">
-        <f>IF('cantidad pollos muertos'!AZ32="","",BETAINV(0.025,'cantidad pollos muertos'!AZ32+1,'cantidad inicial pollos'!AZ32-'cantidad pollos muertos'!AZ32+1))</f>
+        <f>IF('cantidad pollos muertos'!AZ34="","",BETAINV(0.025,'cantidad pollos muertos'!AZ34+1,'cantidad inicial pollos'!AZ34-'cantidad pollos muertos'!AZ34+1))</f>
         <v/>
       </c>
       <c r="BA33" t="str">
-        <f>IF('cantidad pollos muertos'!AZ32="","",BETAINV(0.975,'cantidad pollos muertos'!AZ32+1,'cantidad inicial pollos'!AZ32-'cantidad pollos muertos'!AZ32+1))</f>
+        <f>IF('cantidad pollos muertos'!AZ34="","",BETAINV(0.975,'cantidad pollos muertos'!AZ34+1,'cantidad inicial pollos'!AZ34-'cantidad pollos muertos'!AZ34+1))</f>
         <v/>
       </c>
       <c r="BB33" t="str">
-        <f>IF('cantidad pollos muertos'!BC32="","",BETAINV(0.025,'cantidad pollos muertos'!BC32+1,'cantidad inicial pollos'!BC32-'cantidad pollos muertos'!BC32+1))</f>
+        <f>IF('cantidad pollos muertos'!BC34="","",BETAINV(0.025,'cantidad pollos muertos'!BC34+1,'cantidad inicial pollos'!BC34-'cantidad pollos muertos'!BC34+1))</f>
         <v/>
       </c>
       <c r="BC33" t="str">
-        <f>IF('cantidad pollos muertos'!BC32="","",BETAINV(0.975,'cantidad pollos muertos'!BC32+1,'cantidad inicial pollos'!BC32-'cantidad pollos muertos'!BC32+1))</f>
+        <f>IF('cantidad pollos muertos'!BC34="","",BETAINV(0.975,'cantidad pollos muertos'!BC34+1,'cantidad inicial pollos'!BC34-'cantidad pollos muertos'!BC34+1))</f>
         <v/>
       </c>
       <c r="BD33" t="str">
-        <f>IF('cantidad pollos muertos'!BD32="","",BETAINV(0.025,'cantidad pollos muertos'!BD32+1,'cantidad inicial pollos'!BD32-'cantidad pollos muertos'!BD32+1))</f>
+        <f>IF('cantidad pollos muertos'!BD34="","",BETAINV(0.025,'cantidad pollos muertos'!BD34+1,'cantidad inicial pollos'!BD34-'cantidad pollos muertos'!BD34+1))</f>
         <v/>
       </c>
       <c r="BE33" t="str">
-        <f>IF('cantidad pollos muertos'!BD32="","",BETAINV(0.975,'cantidad pollos muertos'!BD32+1,'cantidad inicial pollos'!BD32-'cantidad pollos muertos'!BD32+1))</f>
+        <f>IF('cantidad pollos muertos'!BD34="","",BETAINV(0.975,'cantidad pollos muertos'!BD34+1,'cantidad inicial pollos'!BD34-'cantidad pollos muertos'!BD34+1))</f>
         <v/>
       </c>
     </row>
@@ -23495,27 +23505,27 @@
         <v/>
       </c>
       <c r="AZ34" t="str">
-        <f>IF('cantidad pollos muertos'!AZ33="","",BETAINV(0.025,'cantidad pollos muertos'!AZ33+1,'cantidad inicial pollos'!AZ33-'cantidad pollos muertos'!AZ33+1))</f>
+        <f>IF('cantidad pollos muertos'!AZ35="","",BETAINV(0.025,'cantidad pollos muertos'!AZ35+1,'cantidad inicial pollos'!AZ35-'cantidad pollos muertos'!AZ35+1))</f>
         <v/>
       </c>
       <c r="BA34" t="str">
-        <f>IF('cantidad pollos muertos'!AZ33="","",BETAINV(0.975,'cantidad pollos muertos'!AZ33+1,'cantidad inicial pollos'!AZ33-'cantidad pollos muertos'!AZ33+1))</f>
+        <f>IF('cantidad pollos muertos'!AZ35="","",BETAINV(0.975,'cantidad pollos muertos'!AZ35+1,'cantidad inicial pollos'!AZ35-'cantidad pollos muertos'!AZ35+1))</f>
         <v/>
       </c>
       <c r="BB34" t="str">
-        <f>IF('cantidad pollos muertos'!BC33="","",BETAINV(0.025,'cantidad pollos muertos'!BC33+1,'cantidad inicial pollos'!BC33-'cantidad pollos muertos'!BC33+1))</f>
+        <f>IF('cantidad pollos muertos'!BC35="","",BETAINV(0.025,'cantidad pollos muertos'!BC35+1,'cantidad inicial pollos'!BC35-'cantidad pollos muertos'!BC35+1))</f>
         <v/>
       </c>
       <c r="BC34" t="str">
-        <f>IF('cantidad pollos muertos'!BC33="","",BETAINV(0.975,'cantidad pollos muertos'!BC33+1,'cantidad inicial pollos'!BC33-'cantidad pollos muertos'!BC33+1))</f>
+        <f>IF('cantidad pollos muertos'!BC35="","",BETAINV(0.975,'cantidad pollos muertos'!BC35+1,'cantidad inicial pollos'!BC35-'cantidad pollos muertos'!BC35+1))</f>
         <v/>
       </c>
       <c r="BD34" t="str">
-        <f>IF('cantidad pollos muertos'!BD33="","",BETAINV(0.025,'cantidad pollos muertos'!BD33+1,'cantidad inicial pollos'!BD33-'cantidad pollos muertos'!BD33+1))</f>
+        <f>IF('cantidad pollos muertos'!BD35="","",BETAINV(0.025,'cantidad pollos muertos'!BD35+1,'cantidad inicial pollos'!BD35-'cantidad pollos muertos'!BD35+1))</f>
         <v/>
       </c>
       <c r="BE34" t="str">
-        <f>IF('cantidad pollos muertos'!BD33="","",BETAINV(0.975,'cantidad pollos muertos'!BD33+1,'cantidad inicial pollos'!BD33-'cantidad pollos muertos'!BD33+1))</f>
+        <f>IF('cantidad pollos muertos'!BD35="","",BETAINV(0.975,'cantidad pollos muertos'!BD35+1,'cantidad inicial pollos'!BD35-'cantidad pollos muertos'!BD35+1))</f>
         <v/>
       </c>
     </row>
@@ -23724,27 +23734,27 @@
         <v/>
       </c>
       <c r="AZ35" t="str">
-        <f>IF('cantidad pollos muertos'!AZ34="","",BETAINV(0.025,'cantidad pollos muertos'!AZ34+1,'cantidad inicial pollos'!AZ34-'cantidad pollos muertos'!AZ34+1))</f>
+        <f>IF('cantidad pollos muertos'!AZ36="","",BETAINV(0.025,'cantidad pollos muertos'!AZ36+1,'cantidad inicial pollos'!AZ36-'cantidad pollos muertos'!AZ36+1))</f>
         <v/>
       </c>
       <c r="BA35" t="str">
-        <f>IF('cantidad pollos muertos'!AZ34="","",BETAINV(0.975,'cantidad pollos muertos'!AZ34+1,'cantidad inicial pollos'!AZ34-'cantidad pollos muertos'!AZ34+1))</f>
+        <f>IF('cantidad pollos muertos'!AZ36="","",BETAINV(0.975,'cantidad pollos muertos'!AZ36+1,'cantidad inicial pollos'!AZ36-'cantidad pollos muertos'!AZ36+1))</f>
         <v/>
       </c>
       <c r="BB35" t="str">
-        <f>IF('cantidad pollos muertos'!BC34="","",BETAINV(0.025,'cantidad pollos muertos'!BC34+1,'cantidad inicial pollos'!BC34-'cantidad pollos muertos'!BC34+1))</f>
+        <f>IF('cantidad pollos muertos'!BC36="","",BETAINV(0.025,'cantidad pollos muertos'!BC36+1,'cantidad inicial pollos'!BC36-'cantidad pollos muertos'!BC36+1))</f>
         <v/>
       </c>
       <c r="BC35" t="str">
-        <f>IF('cantidad pollos muertos'!BC34="","",BETAINV(0.975,'cantidad pollos muertos'!BC34+1,'cantidad inicial pollos'!BC34-'cantidad pollos muertos'!BC34+1))</f>
+        <f>IF('cantidad pollos muertos'!BC36="","",BETAINV(0.975,'cantidad pollos muertos'!BC36+1,'cantidad inicial pollos'!BC36-'cantidad pollos muertos'!BC36+1))</f>
         <v/>
       </c>
       <c r="BD35" t="str">
-        <f>IF('cantidad pollos muertos'!BD34="","",BETAINV(0.025,'cantidad pollos muertos'!BD34+1,'cantidad inicial pollos'!BD34-'cantidad pollos muertos'!BD34+1))</f>
+        <f>IF('cantidad pollos muertos'!BD36="","",BETAINV(0.025,'cantidad pollos muertos'!BD36+1,'cantidad inicial pollos'!BD36-'cantidad pollos muertos'!BD36+1))</f>
         <v/>
       </c>
       <c r="BE35" t="str">
-        <f>IF('cantidad pollos muertos'!BD34="","",BETAINV(0.975,'cantidad pollos muertos'!BD34+1,'cantidad inicial pollos'!BD34-'cantidad pollos muertos'!BD34+1))</f>
+        <f>IF('cantidad pollos muertos'!BD36="","",BETAINV(0.975,'cantidad pollos muertos'!BD36+1,'cantidad inicial pollos'!BD36-'cantidad pollos muertos'!BD36+1))</f>
         <v/>
       </c>
     </row>
@@ -23953,27 +23963,27 @@
         <v/>
       </c>
       <c r="AZ36" t="str">
-        <f>IF('cantidad pollos muertos'!AZ35="","",BETAINV(0.025,'cantidad pollos muertos'!AZ35+1,'cantidad inicial pollos'!AZ35-'cantidad pollos muertos'!AZ35+1))</f>
+        <f>IF('cantidad pollos muertos'!AZ37="","",BETAINV(0.025,'cantidad pollos muertos'!AZ37+1,'cantidad inicial pollos'!AZ37-'cantidad pollos muertos'!AZ37+1))</f>
         <v/>
       </c>
       <c r="BA36" t="str">
-        <f>IF('cantidad pollos muertos'!AZ35="","",BETAINV(0.975,'cantidad pollos muertos'!AZ35+1,'cantidad inicial pollos'!AZ35-'cantidad pollos muertos'!AZ35+1))</f>
+        <f>IF('cantidad pollos muertos'!AZ37="","",BETAINV(0.975,'cantidad pollos muertos'!AZ37+1,'cantidad inicial pollos'!AZ37-'cantidad pollos muertos'!AZ37+1))</f>
         <v/>
       </c>
       <c r="BB36" t="str">
-        <f>IF('cantidad pollos muertos'!BC35="","",BETAINV(0.025,'cantidad pollos muertos'!BC35+1,'cantidad inicial pollos'!BC35-'cantidad pollos muertos'!BC35+1))</f>
+        <f>IF('cantidad pollos muertos'!BC37="","",BETAINV(0.025,'cantidad pollos muertos'!BC37+1,'cantidad inicial pollos'!BC37-'cantidad pollos muertos'!BC37+1))</f>
         <v/>
       </c>
       <c r="BC36" t="str">
-        <f>IF('cantidad pollos muertos'!BC35="","",BETAINV(0.975,'cantidad pollos muertos'!BC35+1,'cantidad inicial pollos'!BC35-'cantidad pollos muertos'!BC35+1))</f>
+        <f>IF('cantidad pollos muertos'!BC37="","",BETAINV(0.975,'cantidad pollos muertos'!BC37+1,'cantidad inicial pollos'!BC37-'cantidad pollos muertos'!BC37+1))</f>
         <v/>
       </c>
       <c r="BD36" t="str">
-        <f>IF('cantidad pollos muertos'!BD35="","",BETAINV(0.025,'cantidad pollos muertos'!BD35+1,'cantidad inicial pollos'!BD35-'cantidad pollos muertos'!BD35+1))</f>
+        <f>IF('cantidad pollos muertos'!BD37="","",BETAINV(0.025,'cantidad pollos muertos'!BD37+1,'cantidad inicial pollos'!BD37-'cantidad pollos muertos'!BD37+1))</f>
         <v/>
       </c>
       <c r="BE36" t="str">
-        <f>IF('cantidad pollos muertos'!BD35="","",BETAINV(0.975,'cantidad pollos muertos'!BD35+1,'cantidad inicial pollos'!BD35-'cantidad pollos muertos'!BD35+1))</f>
+        <f>IF('cantidad pollos muertos'!BD37="","",BETAINV(0.975,'cantidad pollos muertos'!BD37+1,'cantidad inicial pollos'!BD37-'cantidad pollos muertos'!BD37+1))</f>
         <v/>
       </c>
     </row>
@@ -24182,27 +24192,27 @@
         <v/>
       </c>
       <c r="AZ37" t="str">
-        <f>IF('cantidad pollos muertos'!AZ36="","",BETAINV(0.025,'cantidad pollos muertos'!AZ36+1,'cantidad inicial pollos'!AZ36-'cantidad pollos muertos'!AZ36+1))</f>
+        <f>IF('cantidad pollos muertos'!AZ38="","",BETAINV(0.025,'cantidad pollos muertos'!AZ38+1,'cantidad inicial pollos'!AZ38-'cantidad pollos muertos'!AZ38+1))</f>
         <v/>
       </c>
       <c r="BA37" t="str">
-        <f>IF('cantidad pollos muertos'!AZ36="","",BETAINV(0.975,'cantidad pollos muertos'!AZ36+1,'cantidad inicial pollos'!AZ36-'cantidad pollos muertos'!AZ36+1))</f>
+        <f>IF('cantidad pollos muertos'!AZ38="","",BETAINV(0.975,'cantidad pollos muertos'!AZ38+1,'cantidad inicial pollos'!AZ38-'cantidad pollos muertos'!AZ38+1))</f>
         <v/>
       </c>
       <c r="BB37" t="str">
-        <f>IF('cantidad pollos muertos'!BC36="","",BETAINV(0.025,'cantidad pollos muertos'!BC36+1,'cantidad inicial pollos'!BC36-'cantidad pollos muertos'!BC36+1))</f>
+        <f>IF('cantidad pollos muertos'!BC38="","",BETAINV(0.025,'cantidad pollos muertos'!BC38+1,'cantidad inicial pollos'!BC38-'cantidad pollos muertos'!BC38+1))</f>
         <v/>
       </c>
       <c r="BC37" t="str">
-        <f>IF('cantidad pollos muertos'!BC36="","",BETAINV(0.975,'cantidad pollos muertos'!BC36+1,'cantidad inicial pollos'!BC36-'cantidad pollos muertos'!BC36+1))</f>
+        <f>IF('cantidad pollos muertos'!BC38="","",BETAINV(0.975,'cantidad pollos muertos'!BC38+1,'cantidad inicial pollos'!BC38-'cantidad pollos muertos'!BC38+1))</f>
         <v/>
       </c>
       <c r="BD37" t="str">
-        <f>IF('cantidad pollos muertos'!BD36="","",BETAINV(0.025,'cantidad pollos muertos'!BD36+1,'cantidad inicial pollos'!BD36-'cantidad pollos muertos'!BD36+1))</f>
+        <f>IF('cantidad pollos muertos'!BD38="","",BETAINV(0.025,'cantidad pollos muertos'!BD38+1,'cantidad inicial pollos'!BD38-'cantidad pollos muertos'!BD38+1))</f>
         <v/>
       </c>
       <c r="BE37" t="str">
-        <f>IF('cantidad pollos muertos'!BD36="","",BETAINV(0.975,'cantidad pollos muertos'!BD36+1,'cantidad inicial pollos'!BD36-'cantidad pollos muertos'!BD36+1))</f>
+        <f>IF('cantidad pollos muertos'!BD38="","",BETAINV(0.975,'cantidad pollos muertos'!BD38+1,'cantidad inicial pollos'!BD38-'cantidad pollos muertos'!BD38+1))</f>
         <v/>
       </c>
     </row>
@@ -24411,27 +24421,27 @@
         <v/>
       </c>
       <c r="AZ38" t="str">
-        <f>IF('cantidad pollos muertos'!AZ37="","",BETAINV(0.025,'cantidad pollos muertos'!AZ37+1,'cantidad inicial pollos'!AZ37-'cantidad pollos muertos'!AZ37+1))</f>
+        <f>IF('cantidad pollos muertos'!AZ39="","",BETAINV(0.025,'cantidad pollos muertos'!AZ39+1,'cantidad inicial pollos'!AZ39-'cantidad pollos muertos'!AZ39+1))</f>
         <v/>
       </c>
       <c r="BA38" t="str">
-        <f>IF('cantidad pollos muertos'!AZ37="","",BETAINV(0.975,'cantidad pollos muertos'!AZ37+1,'cantidad inicial pollos'!AZ37-'cantidad pollos muertos'!AZ37+1))</f>
+        <f>IF('cantidad pollos muertos'!AZ39="","",BETAINV(0.975,'cantidad pollos muertos'!AZ39+1,'cantidad inicial pollos'!AZ39-'cantidad pollos muertos'!AZ39+1))</f>
         <v/>
       </c>
       <c r="BB38" t="str">
-        <f>IF('cantidad pollos muertos'!BC37="","",BETAINV(0.025,'cantidad pollos muertos'!BC37+1,'cantidad inicial pollos'!BC37-'cantidad pollos muertos'!BC37+1))</f>
+        <f>IF('cantidad pollos muertos'!BC39="","",BETAINV(0.025,'cantidad pollos muertos'!BC39+1,'cantidad inicial pollos'!BC39-'cantidad pollos muertos'!BC39+1))</f>
         <v/>
       </c>
       <c r="BC38" t="str">
-        <f>IF('cantidad pollos muertos'!BC37="","",BETAINV(0.975,'cantidad pollos muertos'!BC37+1,'cantidad inicial pollos'!BC37-'cantidad pollos muertos'!BC37+1))</f>
+        <f>IF('cantidad pollos muertos'!BC39="","",BETAINV(0.975,'cantidad pollos muertos'!BC39+1,'cantidad inicial pollos'!BC39-'cantidad pollos muertos'!BC39+1))</f>
         <v/>
       </c>
       <c r="BD38" t="str">
-        <f>IF('cantidad pollos muertos'!BD37="","",BETAINV(0.025,'cantidad pollos muertos'!BD37+1,'cantidad inicial pollos'!BD37-'cantidad pollos muertos'!BD37+1))</f>
+        <f>IF('cantidad pollos muertos'!BD39="","",BETAINV(0.025,'cantidad pollos muertos'!BD39+1,'cantidad inicial pollos'!BD39-'cantidad pollos muertos'!BD39+1))</f>
         <v/>
       </c>
       <c r="BE38" t="str">
-        <f>IF('cantidad pollos muertos'!BD37="","",BETAINV(0.975,'cantidad pollos muertos'!BD37+1,'cantidad inicial pollos'!BD37-'cantidad pollos muertos'!BD37+1))</f>
+        <f>IF('cantidad pollos muertos'!BD39="","",BETAINV(0.975,'cantidad pollos muertos'!BD39+1,'cantidad inicial pollos'!BD39-'cantidad pollos muertos'!BD39+1))</f>
         <v/>
       </c>
     </row>
@@ -24640,27 +24650,27 @@
         <v/>
       </c>
       <c r="AZ39" t="str">
-        <f>IF('cantidad pollos muertos'!AZ38="","",BETAINV(0.025,'cantidad pollos muertos'!AZ38+1,'cantidad inicial pollos'!AZ38-'cantidad pollos muertos'!AZ38+1))</f>
+        <f>IF('cantidad pollos muertos'!AZ40="","",BETAINV(0.025,'cantidad pollos muertos'!AZ40+1,'cantidad inicial pollos'!AZ40-'cantidad pollos muertos'!AZ40+1))</f>
         <v/>
       </c>
       <c r="BA39" t="str">
-        <f>IF('cantidad pollos muertos'!AZ38="","",BETAINV(0.975,'cantidad pollos muertos'!AZ38+1,'cantidad inicial pollos'!AZ38-'cantidad pollos muertos'!AZ38+1))</f>
+        <f>IF('cantidad pollos muertos'!AZ40="","",BETAINV(0.975,'cantidad pollos muertos'!AZ40+1,'cantidad inicial pollos'!AZ40-'cantidad pollos muertos'!AZ40+1))</f>
         <v/>
       </c>
       <c r="BB39" t="str">
-        <f>IF('cantidad pollos muertos'!BC38="","",BETAINV(0.025,'cantidad pollos muertos'!BC38+1,'cantidad inicial pollos'!BC38-'cantidad pollos muertos'!BC38+1))</f>
+        <f>IF('cantidad pollos muertos'!BC40="","",BETAINV(0.025,'cantidad pollos muertos'!BC40+1,'cantidad inicial pollos'!BC40-'cantidad pollos muertos'!BC40+1))</f>
         <v/>
       </c>
       <c r="BC39" t="str">
-        <f>IF('cantidad pollos muertos'!BC38="","",BETAINV(0.975,'cantidad pollos muertos'!BC38+1,'cantidad inicial pollos'!BC38-'cantidad pollos muertos'!BC38+1))</f>
+        <f>IF('cantidad pollos muertos'!BC40="","",BETAINV(0.975,'cantidad pollos muertos'!BC40+1,'cantidad inicial pollos'!BC40-'cantidad pollos muertos'!BC40+1))</f>
         <v/>
       </c>
       <c r="BD39" t="str">
-        <f>IF('cantidad pollos muertos'!BD38="","",BETAINV(0.025,'cantidad pollos muertos'!BD38+1,'cantidad inicial pollos'!BD38-'cantidad pollos muertos'!BD38+1))</f>
+        <f>IF('cantidad pollos muertos'!BD40="","",BETAINV(0.025,'cantidad pollos muertos'!BD40+1,'cantidad inicial pollos'!BD40-'cantidad pollos muertos'!BD40+1))</f>
         <v/>
       </c>
       <c r="BE39" t="str">
-        <f>IF('cantidad pollos muertos'!BD38="","",BETAINV(0.975,'cantidad pollos muertos'!BD38+1,'cantidad inicial pollos'!BD38-'cantidad pollos muertos'!BD38+1))</f>
+        <f>IF('cantidad pollos muertos'!BD40="","",BETAINV(0.975,'cantidad pollos muertos'!BD40+1,'cantidad inicial pollos'!BD40-'cantidad pollos muertos'!BD40+1))</f>
         <v/>
       </c>
     </row>
@@ -24869,27 +24879,27 @@
         <v/>
       </c>
       <c r="AZ40" t="str">
-        <f>IF('cantidad pollos muertos'!AZ39="","",BETAINV(0.025,'cantidad pollos muertos'!AZ39+1,'cantidad inicial pollos'!AZ39-'cantidad pollos muertos'!AZ39+1))</f>
+        <f>IF('cantidad pollos muertos'!AZ41="","",BETAINV(0.025,'cantidad pollos muertos'!AZ41+1,'cantidad inicial pollos'!AZ41-'cantidad pollos muertos'!AZ41+1))</f>
         <v/>
       </c>
       <c r="BA40" t="str">
-        <f>IF('cantidad pollos muertos'!AZ39="","",BETAINV(0.975,'cantidad pollos muertos'!AZ39+1,'cantidad inicial pollos'!AZ39-'cantidad pollos muertos'!AZ39+1))</f>
+        <f>IF('cantidad pollos muertos'!AZ41="","",BETAINV(0.975,'cantidad pollos muertos'!AZ41+1,'cantidad inicial pollos'!AZ41-'cantidad pollos muertos'!AZ41+1))</f>
         <v/>
       </c>
       <c r="BB40" t="str">
-        <f>IF('cantidad pollos muertos'!BC39="","",BETAINV(0.025,'cantidad pollos muertos'!BC39+1,'cantidad inicial pollos'!BC39-'cantidad pollos muertos'!BC39+1))</f>
+        <f>IF('cantidad pollos muertos'!BC41="","",BETAINV(0.025,'cantidad pollos muertos'!BC41+1,'cantidad inicial pollos'!BC41-'cantidad pollos muertos'!BC41+1))</f>
         <v/>
       </c>
       <c r="BC40" t="str">
-        <f>IF('cantidad pollos muertos'!BC39="","",BETAINV(0.975,'cantidad pollos muertos'!BC39+1,'cantidad inicial pollos'!BC39-'cantidad pollos muertos'!BC39+1))</f>
+        <f>IF('cantidad pollos muertos'!BC41="","",BETAINV(0.975,'cantidad pollos muertos'!BC41+1,'cantidad inicial pollos'!BC41-'cantidad pollos muertos'!BC41+1))</f>
         <v/>
       </c>
       <c r="BD40" t="str">
-        <f>IF('cantidad pollos muertos'!BD39="","",BETAINV(0.025,'cantidad pollos muertos'!BD39+1,'cantidad inicial pollos'!BD39-'cantidad pollos muertos'!BD39+1))</f>
+        <f>IF('cantidad pollos muertos'!BD41="","",BETAINV(0.025,'cantidad pollos muertos'!BD41+1,'cantidad inicial pollos'!BD41-'cantidad pollos muertos'!BD41+1))</f>
         <v/>
       </c>
       <c r="BE40" t="str">
-        <f>IF('cantidad pollos muertos'!BD39="","",BETAINV(0.975,'cantidad pollos muertos'!BD39+1,'cantidad inicial pollos'!BD39-'cantidad pollos muertos'!BD39+1))</f>
+        <f>IF('cantidad pollos muertos'!BD41="","",BETAINV(0.975,'cantidad pollos muertos'!BD41+1,'cantidad inicial pollos'!BD41-'cantidad pollos muertos'!BD41+1))</f>
         <v/>
       </c>
     </row>
@@ -25098,27 +25108,27 @@
         <v/>
       </c>
       <c r="AZ41" t="str">
-        <f>IF('cantidad pollos muertos'!AZ40="","",BETAINV(0.025,'cantidad pollos muertos'!AZ40+1,'cantidad inicial pollos'!AZ40-'cantidad pollos muertos'!AZ40+1))</f>
+        <f>IF('cantidad pollos muertos'!AZ42="","",BETAINV(0.025,'cantidad pollos muertos'!AZ42+1,'cantidad inicial pollos'!AZ42-'cantidad pollos muertos'!AZ42+1))</f>
         <v/>
       </c>
       <c r="BA41" t="str">
-        <f>IF('cantidad pollos muertos'!AZ40="","",BETAINV(0.975,'cantidad pollos muertos'!AZ40+1,'cantidad inicial pollos'!AZ40-'cantidad pollos muertos'!AZ40+1))</f>
+        <f>IF('cantidad pollos muertos'!AZ42="","",BETAINV(0.975,'cantidad pollos muertos'!AZ42+1,'cantidad inicial pollos'!AZ42-'cantidad pollos muertos'!AZ42+1))</f>
         <v/>
       </c>
       <c r="BB41" t="str">
-        <f>IF('cantidad pollos muertos'!BC40="","",BETAINV(0.025,'cantidad pollos muertos'!BC40+1,'cantidad inicial pollos'!BC40-'cantidad pollos muertos'!BC40+1))</f>
+        <f>IF('cantidad pollos muertos'!BC42="","",BETAINV(0.025,'cantidad pollos muertos'!BC42+1,'cantidad inicial pollos'!BC42-'cantidad pollos muertos'!BC42+1))</f>
         <v/>
       </c>
       <c r="BC41" t="str">
-        <f>IF('cantidad pollos muertos'!BC40="","",BETAINV(0.975,'cantidad pollos muertos'!BC40+1,'cantidad inicial pollos'!BC40-'cantidad pollos muertos'!BC40+1))</f>
+        <f>IF('cantidad pollos muertos'!BC42="","",BETAINV(0.975,'cantidad pollos muertos'!BC42+1,'cantidad inicial pollos'!BC42-'cantidad pollos muertos'!BC42+1))</f>
         <v/>
       </c>
       <c r="BD41" t="str">
-        <f>IF('cantidad pollos muertos'!BD40="","",BETAINV(0.025,'cantidad pollos muertos'!BD40+1,'cantidad inicial pollos'!BD40-'cantidad pollos muertos'!BD40+1))</f>
+        <f>IF('cantidad pollos muertos'!BD42="","",BETAINV(0.025,'cantidad pollos muertos'!BD42+1,'cantidad inicial pollos'!BD42-'cantidad pollos muertos'!BD42+1))</f>
         <v/>
       </c>
       <c r="BE41" t="str">
-        <f>IF('cantidad pollos muertos'!BD40="","",BETAINV(0.975,'cantidad pollos muertos'!BD40+1,'cantidad inicial pollos'!BD40-'cantidad pollos muertos'!BD40+1))</f>
+        <f>IF('cantidad pollos muertos'!BD42="","",BETAINV(0.975,'cantidad pollos muertos'!BD42+1,'cantidad inicial pollos'!BD42-'cantidad pollos muertos'!BD42+1))</f>
         <v/>
       </c>
     </row>
@@ -25327,27 +25337,27 @@
         <v/>
       </c>
       <c r="AZ42" t="str">
-        <f>IF('cantidad pollos muertos'!AZ41="","",BETAINV(0.025,'cantidad pollos muertos'!AZ41+1,'cantidad inicial pollos'!AZ41-'cantidad pollos muertos'!AZ41+1))</f>
+        <f>IF('cantidad pollos muertos'!AZ43="","",BETAINV(0.025,'cantidad pollos muertos'!AZ43+1,'cantidad inicial pollos'!AZ43-'cantidad pollos muertos'!AZ43+1))</f>
         <v/>
       </c>
       <c r="BA42" t="str">
-        <f>IF('cantidad pollos muertos'!AZ41="","",BETAINV(0.975,'cantidad pollos muertos'!AZ41+1,'cantidad inicial pollos'!AZ41-'cantidad pollos muertos'!AZ41+1))</f>
+        <f>IF('cantidad pollos muertos'!AZ43="","",BETAINV(0.975,'cantidad pollos muertos'!AZ43+1,'cantidad inicial pollos'!AZ43-'cantidad pollos muertos'!AZ43+1))</f>
         <v/>
       </c>
       <c r="BB42" t="str">
-        <f>IF('cantidad pollos muertos'!BC41="","",BETAINV(0.025,'cantidad pollos muertos'!BC41+1,'cantidad inicial pollos'!BC41-'cantidad pollos muertos'!BC41+1))</f>
+        <f>IF('cantidad pollos muertos'!BC43="","",BETAINV(0.025,'cantidad pollos muertos'!BC43+1,'cantidad inicial pollos'!BC43-'cantidad pollos muertos'!BC43+1))</f>
         <v/>
       </c>
       <c r="BC42" t="str">
-        <f>IF('cantidad pollos muertos'!BC41="","",BETAINV(0.975,'cantidad pollos muertos'!BC41+1,'cantidad inicial pollos'!BC41-'cantidad pollos muertos'!BC41+1))</f>
+        <f>IF('cantidad pollos muertos'!BC43="","",BETAINV(0.975,'cantidad pollos muertos'!BC43+1,'cantidad inicial pollos'!BC43-'cantidad pollos muertos'!BC43+1))</f>
         <v/>
       </c>
       <c r="BD42" t="str">
-        <f>IF('cantidad pollos muertos'!BD41="","",BETAINV(0.025,'cantidad pollos muertos'!BD41+1,'cantidad inicial pollos'!BD41-'cantidad pollos muertos'!BD41+1))</f>
+        <f>IF('cantidad pollos muertos'!BD43="","",BETAINV(0.025,'cantidad pollos muertos'!BD43+1,'cantidad inicial pollos'!BD43-'cantidad pollos muertos'!BD43+1))</f>
         <v/>
       </c>
       <c r="BE42" t="str">
-        <f>IF('cantidad pollos muertos'!BD41="","",BETAINV(0.975,'cantidad pollos muertos'!BD41+1,'cantidad inicial pollos'!BD41-'cantidad pollos muertos'!BD41+1))</f>
+        <f>IF('cantidad pollos muertos'!BD43="","",BETAINV(0.975,'cantidad pollos muertos'!BD43+1,'cantidad inicial pollos'!BD43-'cantidad pollos muertos'!BD43+1))</f>
         <v/>
       </c>
     </row>
@@ -25556,27 +25566,27 @@
         <v/>
       </c>
       <c r="AZ43" t="str">
-        <f>IF('cantidad pollos muertos'!AZ42="","",BETAINV(0.025,'cantidad pollos muertos'!AZ42+1,'cantidad inicial pollos'!AZ42-'cantidad pollos muertos'!AZ42+1))</f>
+        <f>IF('cantidad pollos muertos'!AZ44="","",BETAINV(0.025,'cantidad pollos muertos'!AZ44+1,'cantidad inicial pollos'!AZ44-'cantidad pollos muertos'!AZ44+1))</f>
         <v/>
       </c>
       <c r="BA43" t="str">
-        <f>IF('cantidad pollos muertos'!AZ42="","",BETAINV(0.975,'cantidad pollos muertos'!AZ42+1,'cantidad inicial pollos'!AZ42-'cantidad pollos muertos'!AZ42+1))</f>
+        <f>IF('cantidad pollos muertos'!AZ44="","",BETAINV(0.975,'cantidad pollos muertos'!AZ44+1,'cantidad inicial pollos'!AZ44-'cantidad pollos muertos'!AZ44+1))</f>
         <v/>
       </c>
       <c r="BB43" t="str">
-        <f>IF('cantidad pollos muertos'!BC42="","",BETAINV(0.025,'cantidad pollos muertos'!BC42+1,'cantidad inicial pollos'!BC42-'cantidad pollos muertos'!BC42+1))</f>
+        <f>IF('cantidad pollos muertos'!BC44="","",BETAINV(0.025,'cantidad pollos muertos'!BC44+1,'cantidad inicial pollos'!BC44-'cantidad pollos muertos'!BC44+1))</f>
         <v/>
       </c>
       <c r="BC43" t="str">
-        <f>IF('cantidad pollos muertos'!BC42="","",BETAINV(0.975,'cantidad pollos muertos'!BC42+1,'cantidad inicial pollos'!BC42-'cantidad pollos muertos'!BC42+1))</f>
+        <f>IF('cantidad pollos muertos'!BC44="","",BETAINV(0.975,'cantidad pollos muertos'!BC44+1,'cantidad inicial pollos'!BC44-'cantidad pollos muertos'!BC44+1))</f>
         <v/>
       </c>
       <c r="BD43" t="str">
-        <f>IF('cantidad pollos muertos'!BD42="","",BETAINV(0.025,'cantidad pollos muertos'!BD42+1,'cantidad inicial pollos'!BD42-'cantidad pollos muertos'!BD42+1))</f>
+        <f>IF('cantidad pollos muertos'!BD44="","",BETAINV(0.025,'cantidad pollos muertos'!BD44+1,'cantidad inicial pollos'!BD44-'cantidad pollos muertos'!BD44+1))</f>
         <v/>
       </c>
       <c r="BE43" t="str">
-        <f>IF('cantidad pollos muertos'!BD42="","",BETAINV(0.975,'cantidad pollos muertos'!BD42+1,'cantidad inicial pollos'!BD42-'cantidad pollos muertos'!BD42+1))</f>
+        <f>IF('cantidad pollos muertos'!BD44="","",BETAINV(0.975,'cantidad pollos muertos'!BD44+1,'cantidad inicial pollos'!BD44-'cantidad pollos muertos'!BD44+1))</f>
         <v/>
       </c>
     </row>
@@ -25785,27 +25795,27 @@
         <v/>
       </c>
       <c r="AZ44" t="str">
-        <f>IF('cantidad pollos muertos'!AZ43="","",BETAINV(0.025,'cantidad pollos muertos'!AZ43+1,'cantidad inicial pollos'!AZ43-'cantidad pollos muertos'!AZ43+1))</f>
+        <f>IF('cantidad pollos muertos'!AZ45="","",BETAINV(0.025,'cantidad pollos muertos'!AZ45+1,'cantidad inicial pollos'!AZ45-'cantidad pollos muertos'!AZ45+1))</f>
         <v/>
       </c>
       <c r="BA44" t="str">
-        <f>IF('cantidad pollos muertos'!AZ43="","",BETAINV(0.975,'cantidad pollos muertos'!AZ43+1,'cantidad inicial pollos'!AZ43-'cantidad pollos muertos'!AZ43+1))</f>
+        <f>IF('cantidad pollos muertos'!AZ45="","",BETAINV(0.975,'cantidad pollos muertos'!AZ45+1,'cantidad inicial pollos'!AZ45-'cantidad pollos muertos'!AZ45+1))</f>
         <v/>
       </c>
       <c r="BB44" t="str">
-        <f>IF('cantidad pollos muertos'!BC43="","",BETAINV(0.025,'cantidad pollos muertos'!BC43+1,'cantidad inicial pollos'!BC43-'cantidad pollos muertos'!BC43+1))</f>
+        <f>IF('cantidad pollos muertos'!BC45="","",BETAINV(0.025,'cantidad pollos muertos'!BC45+1,'cantidad inicial pollos'!BC45-'cantidad pollos muertos'!BC45+1))</f>
         <v/>
       </c>
       <c r="BC44" t="str">
-        <f>IF('cantidad pollos muertos'!BC43="","",BETAINV(0.975,'cantidad pollos muertos'!BC43+1,'cantidad inicial pollos'!BC43-'cantidad pollos muertos'!BC43+1))</f>
+        <f>IF('cantidad pollos muertos'!BC45="","",BETAINV(0.975,'cantidad pollos muertos'!BC45+1,'cantidad inicial pollos'!BC45-'cantidad pollos muertos'!BC45+1))</f>
         <v/>
       </c>
       <c r="BD44" t="str">
-        <f>IF('cantidad pollos muertos'!BD43="","",BETAINV(0.025,'cantidad pollos muertos'!BD43+1,'cantidad inicial pollos'!BD43-'cantidad pollos muertos'!BD43+1))</f>
+        <f>IF('cantidad pollos muertos'!BD45="","",BETAINV(0.025,'cantidad pollos muertos'!BD45+1,'cantidad inicial pollos'!BD45-'cantidad pollos muertos'!BD45+1))</f>
         <v/>
       </c>
       <c r="BE44" t="str">
-        <f>IF('cantidad pollos muertos'!BD43="","",BETAINV(0.975,'cantidad pollos muertos'!BD43+1,'cantidad inicial pollos'!BD43-'cantidad pollos muertos'!BD43+1))</f>
+        <f>IF('cantidad pollos muertos'!BD45="","",BETAINV(0.975,'cantidad pollos muertos'!BD45+1,'cantidad inicial pollos'!BD45-'cantidad pollos muertos'!BD45+1))</f>
         <v/>
       </c>
     </row>
@@ -26014,27 +26024,27 @@
         <v/>
       </c>
       <c r="AZ45" t="str">
-        <f>IF('cantidad pollos muertos'!AZ44="","",BETAINV(0.025,'cantidad pollos muertos'!AZ44+1,'cantidad inicial pollos'!AZ44-'cantidad pollos muertos'!AZ44+1))</f>
+        <f>IF('cantidad pollos muertos'!AZ46="","",BETAINV(0.025,'cantidad pollos muertos'!AZ46+1,'cantidad inicial pollos'!AZ46-'cantidad pollos muertos'!AZ46+1))</f>
         <v/>
       </c>
       <c r="BA45" t="str">
-        <f>IF('cantidad pollos muertos'!AZ44="","",BETAINV(0.975,'cantidad pollos muertos'!AZ44+1,'cantidad inicial pollos'!AZ44-'cantidad pollos muertos'!AZ44+1))</f>
+        <f>IF('cantidad pollos muertos'!AZ46="","",BETAINV(0.975,'cantidad pollos muertos'!AZ46+1,'cantidad inicial pollos'!AZ46-'cantidad pollos muertos'!AZ46+1))</f>
         <v/>
       </c>
       <c r="BB45" t="str">
-        <f>IF('cantidad pollos muertos'!BC44="","",BETAINV(0.025,'cantidad pollos muertos'!BC44+1,'cantidad inicial pollos'!BC44-'cantidad pollos muertos'!BC44+1))</f>
+        <f>IF('cantidad pollos muertos'!BC46="","",BETAINV(0.025,'cantidad pollos muertos'!BC46+1,'cantidad inicial pollos'!BC46-'cantidad pollos muertos'!BC46+1))</f>
         <v/>
       </c>
       <c r="BC45" t="str">
-        <f>IF('cantidad pollos muertos'!BC44="","",BETAINV(0.975,'cantidad pollos muertos'!BC44+1,'cantidad inicial pollos'!BC44-'cantidad pollos muertos'!BC44+1))</f>
+        <f>IF('cantidad pollos muertos'!BC46="","",BETAINV(0.975,'cantidad pollos muertos'!BC46+1,'cantidad inicial pollos'!BC46-'cantidad pollos muertos'!BC46+1))</f>
         <v/>
       </c>
       <c r="BD45" t="str">
-        <f>IF('cantidad pollos muertos'!BD44="","",BETAINV(0.025,'cantidad pollos muertos'!BD44+1,'cantidad inicial pollos'!BD44-'cantidad pollos muertos'!BD44+1))</f>
+        <f>IF('cantidad pollos muertos'!BD46="","",BETAINV(0.025,'cantidad pollos muertos'!BD46+1,'cantidad inicial pollos'!BD46-'cantidad pollos muertos'!BD46+1))</f>
         <v/>
       </c>
       <c r="BE45" t="str">
-        <f>IF('cantidad pollos muertos'!BD44="","",BETAINV(0.975,'cantidad pollos muertos'!BD44+1,'cantidad inicial pollos'!BD44-'cantidad pollos muertos'!BD44+1))</f>
+        <f>IF('cantidad pollos muertos'!BD46="","",BETAINV(0.975,'cantidad pollos muertos'!BD46+1,'cantidad inicial pollos'!BD46-'cantidad pollos muertos'!BD46+1))</f>
         <v/>
       </c>
     </row>
@@ -26243,27 +26253,27 @@
         <v/>
       </c>
       <c r="AZ46" t="str">
-        <f>IF('cantidad pollos muertos'!AZ45="","",BETAINV(0.025,'cantidad pollos muertos'!AZ45+1,'cantidad inicial pollos'!AZ45-'cantidad pollos muertos'!AZ45+1))</f>
+        <f>IF('cantidad pollos muertos'!AZ47="","",BETAINV(0.025,'cantidad pollos muertos'!AZ47+1,'cantidad inicial pollos'!AZ47-'cantidad pollos muertos'!AZ47+1))</f>
         <v/>
       </c>
       <c r="BA46" t="str">
-        <f>IF('cantidad pollos muertos'!AZ45="","",BETAINV(0.975,'cantidad pollos muertos'!AZ45+1,'cantidad inicial pollos'!AZ45-'cantidad pollos muertos'!AZ45+1))</f>
+        <f>IF('cantidad pollos muertos'!AZ47="","",BETAINV(0.975,'cantidad pollos muertos'!AZ47+1,'cantidad inicial pollos'!AZ47-'cantidad pollos muertos'!AZ47+1))</f>
         <v/>
       </c>
       <c r="BB46" t="str">
-        <f>IF('cantidad pollos muertos'!BC45="","",BETAINV(0.025,'cantidad pollos muertos'!BC45+1,'cantidad inicial pollos'!BC45-'cantidad pollos muertos'!BC45+1))</f>
+        <f>IF('cantidad pollos muertos'!BC47="","",BETAINV(0.025,'cantidad pollos muertos'!BC47+1,'cantidad inicial pollos'!BC47-'cantidad pollos muertos'!BC47+1))</f>
         <v/>
       </c>
       <c r="BC46" t="str">
-        <f>IF('cantidad pollos muertos'!BC45="","",BETAINV(0.975,'cantidad pollos muertos'!BC45+1,'cantidad inicial pollos'!BC45-'cantidad pollos muertos'!BC45+1))</f>
+        <f>IF('cantidad pollos muertos'!BC47="","",BETAINV(0.975,'cantidad pollos muertos'!BC47+1,'cantidad inicial pollos'!BC47-'cantidad pollos muertos'!BC47+1))</f>
         <v/>
       </c>
       <c r="BD46" t="str">
-        <f>IF('cantidad pollos muertos'!BD45="","",BETAINV(0.025,'cantidad pollos muertos'!BD45+1,'cantidad inicial pollos'!BD45-'cantidad pollos muertos'!BD45+1))</f>
+        <f>IF('cantidad pollos muertos'!BD47="","",BETAINV(0.025,'cantidad pollos muertos'!BD47+1,'cantidad inicial pollos'!BD47-'cantidad pollos muertos'!BD47+1))</f>
         <v/>
       </c>
       <c r="BE46" t="str">
-        <f>IF('cantidad pollos muertos'!BD45="","",BETAINV(0.975,'cantidad pollos muertos'!BD45+1,'cantidad inicial pollos'!BD45-'cantidad pollos muertos'!BD45+1))</f>
+        <f>IF('cantidad pollos muertos'!BD47="","",BETAINV(0.975,'cantidad pollos muertos'!BD47+1,'cantidad inicial pollos'!BD47-'cantidad pollos muertos'!BD47+1))</f>
         <v/>
       </c>
     </row>
@@ -26472,27 +26482,27 @@
         <v/>
       </c>
       <c r="AZ47" t="str">
-        <f>IF('cantidad pollos muertos'!AZ46="","",BETAINV(0.025,'cantidad pollos muertos'!AZ46+1,'cantidad inicial pollos'!AZ46-'cantidad pollos muertos'!AZ46+1))</f>
+        <f>IF('cantidad pollos muertos'!AZ48="","",BETAINV(0.025,'cantidad pollos muertos'!AZ48+1,'cantidad inicial pollos'!AZ48-'cantidad pollos muertos'!AZ48+1))</f>
         <v/>
       </c>
       <c r="BA47" t="str">
-        <f>IF('cantidad pollos muertos'!AZ46="","",BETAINV(0.975,'cantidad pollos muertos'!AZ46+1,'cantidad inicial pollos'!AZ46-'cantidad pollos muertos'!AZ46+1))</f>
+        <f>IF('cantidad pollos muertos'!AZ48="","",BETAINV(0.975,'cantidad pollos muertos'!AZ48+1,'cantidad inicial pollos'!AZ48-'cantidad pollos muertos'!AZ48+1))</f>
         <v/>
       </c>
       <c r="BB47" t="str">
-        <f>IF('cantidad pollos muertos'!BC46="","",BETAINV(0.025,'cantidad pollos muertos'!BC46+1,'cantidad inicial pollos'!BC46-'cantidad pollos muertos'!BC46+1))</f>
+        <f>IF('cantidad pollos muertos'!BC48="","",BETAINV(0.025,'cantidad pollos muertos'!BC48+1,'cantidad inicial pollos'!BC48-'cantidad pollos muertos'!BC48+1))</f>
         <v/>
       </c>
       <c r="BC47" t="str">
-        <f>IF('cantidad pollos muertos'!BC46="","",BETAINV(0.975,'cantidad pollos muertos'!BC46+1,'cantidad inicial pollos'!BC46-'cantidad pollos muertos'!BC46+1))</f>
+        <f>IF('cantidad pollos muertos'!BC48="","",BETAINV(0.975,'cantidad pollos muertos'!BC48+1,'cantidad inicial pollos'!BC48-'cantidad pollos muertos'!BC48+1))</f>
         <v/>
       </c>
       <c r="BD47" t="str">
-        <f>IF('cantidad pollos muertos'!BD46="","",BETAINV(0.025,'cantidad pollos muertos'!BD46+1,'cantidad inicial pollos'!BD46-'cantidad pollos muertos'!BD46+1))</f>
+        <f>IF('cantidad pollos muertos'!BD48="","",BETAINV(0.025,'cantidad pollos muertos'!BD48+1,'cantidad inicial pollos'!BD48-'cantidad pollos muertos'!BD48+1))</f>
         <v/>
       </c>
       <c r="BE47" t="str">
-        <f>IF('cantidad pollos muertos'!BD46="","",BETAINV(0.975,'cantidad pollos muertos'!BD46+1,'cantidad inicial pollos'!BD46-'cantidad pollos muertos'!BD46+1))</f>
+        <f>IF('cantidad pollos muertos'!BD48="","",BETAINV(0.975,'cantidad pollos muertos'!BD48+1,'cantidad inicial pollos'!BD48-'cantidad pollos muertos'!BD48+1))</f>
         <v/>
       </c>
     </row>
@@ -26701,31 +26711,31 @@
         <v/>
       </c>
       <c r="AZ48" t="str">
-        <f>IF('cantidad pollos muertos'!AZ47="","",BETAINV(0.025,'cantidad pollos muertos'!AZ47+1,'cantidad inicial pollos'!AZ47-'cantidad pollos muertos'!AZ47+1))</f>
+        <f>IF('cantidad pollos muertos'!AZ49="","",BETAINV(0.025,'cantidad pollos muertos'!AZ49+1,'cantidad inicial pollos'!AZ49-'cantidad pollos muertos'!AZ49+1))</f>
         <v/>
       </c>
       <c r="BA48" t="str">
-        <f>IF('cantidad pollos muertos'!AZ47="","",BETAINV(0.975,'cantidad pollos muertos'!AZ47+1,'cantidad inicial pollos'!AZ47-'cantidad pollos muertos'!AZ47+1))</f>
+        <f>IF('cantidad pollos muertos'!AZ49="","",BETAINV(0.975,'cantidad pollos muertos'!AZ49+1,'cantidad inicial pollos'!AZ49-'cantidad pollos muertos'!AZ49+1))</f>
         <v/>
       </c>
       <c r="BB48" t="str">
-        <f>IF('cantidad pollos muertos'!BC47="","",BETAINV(0.025,'cantidad pollos muertos'!BC47+1,'cantidad inicial pollos'!BC47-'cantidad pollos muertos'!BC47+1))</f>
+        <f>IF('cantidad pollos muertos'!BC49="","",BETAINV(0.025,'cantidad pollos muertos'!BC49+1,'cantidad inicial pollos'!BC49-'cantidad pollos muertos'!BC49+1))</f>
         <v/>
       </c>
       <c r="BC48" t="str">
-        <f>IF('cantidad pollos muertos'!BC47="","",BETAINV(0.975,'cantidad pollos muertos'!BC47+1,'cantidad inicial pollos'!BC47-'cantidad pollos muertos'!BC47+1))</f>
+        <f>IF('cantidad pollos muertos'!BC49="","",BETAINV(0.975,'cantidad pollos muertos'!BC49+1,'cantidad inicial pollos'!BC49-'cantidad pollos muertos'!BC49+1))</f>
         <v/>
       </c>
       <c r="BD48" t="str">
-        <f>IF('cantidad pollos muertos'!BD47="","",BETAINV(0.025,'cantidad pollos muertos'!BD47+1,'cantidad inicial pollos'!BD47-'cantidad pollos muertos'!BD47+1))</f>
+        <f>IF('cantidad pollos muertos'!BD49="","",BETAINV(0.025,'cantidad pollos muertos'!BD49+1,'cantidad inicial pollos'!BD49-'cantidad pollos muertos'!BD49+1))</f>
         <v/>
       </c>
       <c r="BE48" t="str">
-        <f>IF('cantidad pollos muertos'!BD47="","",BETAINV(0.975,'cantidad pollos muertos'!BD47+1,'cantidad inicial pollos'!BD47-'cantidad pollos muertos'!BD47+1))</f>
+        <f>IF('cantidad pollos muertos'!BD49="","",BETAINV(0.975,'cantidad pollos muertos'!BD49+1,'cantidad inicial pollos'!BD49-'cantidad pollos muertos'!BD49+1))</f>
         <v/>
       </c>
     </row>
-    <row r="49" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>3</v>
       </c>
@@ -26929,32 +26939,8 @@
         <f>IF('cantidad pollos muertos'!AY48="","",BETAINV(0.975,'cantidad pollos muertos'!AY48+1,'cantidad inicial pollos'!AY48-'cantidad pollos muertos'!AY48+1))</f>
         <v/>
       </c>
-      <c r="AZ49" t="str">
-        <f>IF('cantidad pollos muertos'!AZ48="","",BETAINV(0.025,'cantidad pollos muertos'!AZ48+1,'cantidad inicial pollos'!AZ48-'cantidad pollos muertos'!AZ48+1))</f>
-        <v/>
-      </c>
-      <c r="BA49" t="str">
-        <f>IF('cantidad pollos muertos'!AZ48="","",BETAINV(0.975,'cantidad pollos muertos'!AZ48+1,'cantidad inicial pollos'!AZ48-'cantidad pollos muertos'!AZ48+1))</f>
-        <v/>
-      </c>
-      <c r="BB49" t="str">
-        <f>IF('cantidad pollos muertos'!BC48="","",BETAINV(0.025,'cantidad pollos muertos'!BC48+1,'cantidad inicial pollos'!BC48-'cantidad pollos muertos'!BC48+1))</f>
-        <v/>
-      </c>
-      <c r="BC49" t="str">
-        <f>IF('cantidad pollos muertos'!BC48="","",BETAINV(0.975,'cantidad pollos muertos'!BC48+1,'cantidad inicial pollos'!BC48-'cantidad pollos muertos'!BC48+1))</f>
-        <v/>
-      </c>
-      <c r="BD49" t="str">
-        <f>IF('cantidad pollos muertos'!BD48="","",BETAINV(0.025,'cantidad pollos muertos'!BD48+1,'cantidad inicial pollos'!BD48-'cantidad pollos muertos'!BD48+1))</f>
-        <v/>
-      </c>
-      <c r="BE49" t="str">
-        <f>IF('cantidad pollos muertos'!BD48="","",BETAINV(0.975,'cantidad pollos muertos'!BD48+1,'cantidad inicial pollos'!BD48-'cantidad pollos muertos'!BD48+1))</f>
-        <v/>
-      </c>
     </row>
-    <row r="50" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>17</v>
       </c>
@@ -27158,32 +27144,8 @@
         <f>IF('cantidad pollos muertos'!AY49="","",BETAINV(0.975,'cantidad pollos muertos'!AY49+1,'cantidad inicial pollos'!AY49-'cantidad pollos muertos'!AY49+1))</f>
         <v/>
       </c>
-      <c r="AZ50" t="str">
-        <f>IF('cantidad pollos muertos'!AZ49="","",BETAINV(0.025,'cantidad pollos muertos'!AZ49+1,'cantidad inicial pollos'!AZ49-'cantidad pollos muertos'!AZ49+1))</f>
-        <v/>
-      </c>
-      <c r="BA50" t="str">
-        <f>IF('cantidad pollos muertos'!AZ49="","",BETAINV(0.975,'cantidad pollos muertos'!AZ49+1,'cantidad inicial pollos'!AZ49-'cantidad pollos muertos'!AZ49+1))</f>
-        <v/>
-      </c>
-      <c r="BB50" t="str">
-        <f>IF('cantidad pollos muertos'!BC49="","",BETAINV(0.025,'cantidad pollos muertos'!BC49+1,'cantidad inicial pollos'!BC49-'cantidad pollos muertos'!BC49+1))</f>
-        <v/>
-      </c>
-      <c r="BC50" t="str">
-        <f>IF('cantidad pollos muertos'!BC49="","",BETAINV(0.975,'cantidad pollos muertos'!BC49+1,'cantidad inicial pollos'!BC49-'cantidad pollos muertos'!BC49+1))</f>
-        <v/>
-      </c>
-      <c r="BD50" t="str">
-        <f>IF('cantidad pollos muertos'!BD49="","",BETAINV(0.025,'cantidad pollos muertos'!BD49+1,'cantidad inicial pollos'!BD49-'cantidad pollos muertos'!BD49+1))</f>
-        <v/>
-      </c>
-      <c r="BE50" t="str">
-        <f>IF('cantidad pollos muertos'!BD49="","",BETAINV(0.975,'cantidad pollos muertos'!BD49+1,'cantidad inicial pollos'!BD49-'cantidad pollos muertos'!BD49+1))</f>
-        <v/>
-      </c>
     </row>
-    <row r="51" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:51" x14ac:dyDescent="0.25">
       <c r="H51" t="str">
         <f>IF('cantidad pollos muertos'!F50="","",BETAINV(0.025,'cantidad pollos muertos'!F50+1,'cantidad inicial pollos'!F50-'cantidad pollos muertos'!F50+1))</f>
         <v/>
@@ -27193,3285 +27155,19 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A53" s="12" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
-    <row r="54" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A54" s="12">
         <v>0.05</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="28">
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="AJ1:AK1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="X1:Y1"/>
-    <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="AD1:AE1"/>
-    <mergeCell ref="AF1:AG1"/>
-    <mergeCell ref="AH1:AI1"/>
+  <mergeCells count="25">
     <mergeCell ref="AX1:AY1"/>
-    <mergeCell ref="AZ1:BA1"/>
-    <mergeCell ref="BB1:BC1"/>
-    <mergeCell ref="BD1:BE1"/>
-    <mergeCell ref="AL1:AM1"/>
-    <mergeCell ref="AN1:AO1"/>
-    <mergeCell ref="AP1:AQ1"/>
-    <mergeCell ref="AR1:AS1"/>
-    <mergeCell ref="AT1:AU1"/>
-    <mergeCell ref="AV1:AW1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BE50"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3:Q3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="23.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="B1" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="S1" s="16"/>
-      <c r="T1" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="U1" s="16"/>
-      <c r="V1" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="W1" s="16"/>
-      <c r="X1" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y1" s="16"/>
-      <c r="Z1" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="AA1" s="16"/>
-      <c r="AB1" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="AC1" s="16"/>
-      <c r="AD1" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="AE1" s="16"/>
-      <c r="AF1" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="AG1" s="16"/>
-      <c r="AH1" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="AI1" s="16"/>
-      <c r="AJ1" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="AK1" s="16"/>
-      <c r="AL1" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="AM1" s="16"/>
-      <c r="AN1" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO1" s="16"/>
-      <c r="AP1" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="AQ1" s="16"/>
-      <c r="AR1" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="AS1" s="16"/>
-      <c r="AT1" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="AU1" s="16"/>
-      <c r="AV1" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="AW1" s="16"/>
-      <c r="AX1" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="AY1" s="16"/>
-      <c r="AZ1" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="BA1" s="16"/>
-      <c r="BB1" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="BC1" s="16"/>
-      <c r="BD1" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="BE1" s="16"/>
-    </row>
-    <row r="2" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E2" t="s">
-        <v>79</v>
-      </c>
-      <c r="F2" t="s">
-        <v>78</v>
-      </c>
-      <c r="G2" t="s">
-        <v>79</v>
-      </c>
-      <c r="H2" t="s">
-        <v>78</v>
-      </c>
-      <c r="I2" t="s">
-        <v>79</v>
-      </c>
-      <c r="J2" t="s">
-        <v>78</v>
-      </c>
-      <c r="K2" t="s">
-        <v>79</v>
-      </c>
-      <c r="L2" t="s">
-        <v>78</v>
-      </c>
-      <c r="M2" t="s">
-        <v>79</v>
-      </c>
-      <c r="N2" t="s">
-        <v>78</v>
-      </c>
-      <c r="O2" t="s">
-        <v>79</v>
-      </c>
-      <c r="P2" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>79</v>
-      </c>
-      <c r="R2" t="s">
-        <v>78</v>
-      </c>
-      <c r="S2" t="s">
-        <v>79</v>
-      </c>
-      <c r="T2" t="s">
-        <v>78</v>
-      </c>
-      <c r="U2" t="s">
-        <v>79</v>
-      </c>
-      <c r="V2" t="s">
-        <v>78</v>
-      </c>
-      <c r="W2" t="s">
-        <v>79</v>
-      </c>
-      <c r="X2" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AR2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AS2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AT2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AU2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AV2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AW2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AX2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AY2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AZ2" t="s">
-        <v>78</v>
-      </c>
-      <c r="BA2" t="s">
-        <v>79</v>
-      </c>
-      <c r="BB2" t="s">
-        <v>78</v>
-      </c>
-      <c r="BC2" t="s">
-        <v>79</v>
-      </c>
-      <c r="BD2" t="s">
-        <v>78</v>
-      </c>
-      <c r="BE2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="3" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3">
-        <f>IF('cantidad pollos muertos'!C2="","",GAMMAINV(0.025,'cantidad pollos muertos'!C2+(1/2),1))</f>
-        <v>81.81501408848392</v>
-      </c>
-      <c r="C3">
-        <f>IF('cantidad pollos muertos'!C2="","",GAMMAINV(0.975,'cantidad pollos muertos'!C2+(1/2),1))</f>
-        <v>121.07793174019264</v>
-      </c>
-      <c r="D3">
-        <f>IF('cantidad pollos muertos'!D2="","",GAMMAINV(0.025,'cantidad pollos muertos'!D2+(1/2),1))</f>
-        <v>113.64654356442688</v>
-      </c>
-      <c r="E3">
-        <f>IF('cantidad pollos muertos'!D2="","",GAMMAINV(0.975,'cantidad pollos muertos'!D2+(1/2),1))</f>
-        <v>159.24675449675792</v>
-      </c>
-      <c r="F3">
-        <f>IF('cantidad pollos muertos'!E2="","",GAMMAINV(0.025,'cantidad pollos muertos'!E2+(1/2),1))</f>
-        <v>157.90936386034264</v>
-      </c>
-      <c r="G3">
-        <f>IF('cantidad pollos muertos'!E2="","",GAMMAINV(0.975,'cantidad pollos muertos'!E2+(1/2),1))</f>
-        <v>210.98419834076878</v>
-      </c>
-      <c r="H3">
-        <f>IF('cantidad pollos muertos'!F2="","",GAMMAINV(0.025,'cantidad pollos muertos'!F2+(1/2),1))</f>
-        <v>488.22642066888108</v>
-      </c>
-      <c r="I3">
-        <f>IF('cantidad pollos muertos'!F2="","",GAMMAINV(0.975,'cantidad pollos muertos'!F2+(1/2),1))</f>
-        <v>578.66762926654928</v>
-      </c>
-      <c r="J3">
-        <f>IF('cantidad pollos muertos'!G2="","",GAMMAINV(0.025,'cantidad pollos muertos'!G2+(1/2),1))</f>
-        <v>188.61972359104468</v>
-      </c>
-      <c r="K3">
-        <f>IF('cantidad pollos muertos'!G2="","",GAMMAINV(0.975,'cantidad pollos muertos'!G2+(1/2),1))</f>
-        <v>246.27395215279662</v>
-      </c>
-      <c r="L3">
-        <f>IF('cantidad pollos muertos'!H2="","",GAMMAINV(0.025,'cantidad pollos muertos'!H2+(1/2),1))</f>
-        <v>41.867513849812639</v>
-      </c>
-      <c r="M3">
-        <f>IF('cantidad pollos muertos'!H2="","",GAMMAINV(0.975,'cantidad pollos muertos'!H2+(1/2),1))</f>
-        <v>71.024322115123894</v>
-      </c>
-      <c r="N3">
-        <f>IF('cantidad pollos muertos'!I2="","",GAMMAINV(0.025,'cantidad pollos muertos'!I2+(1/2),1))</f>
-        <v>56.777856776887383</v>
-      </c>
-      <c r="O3">
-        <f>IF('cantidad pollos muertos'!I2="","",GAMMAINV(0.975,'cantidad pollos muertos'!I2+(1/2),1))</f>
-        <v>90.114561196020517</v>
-      </c>
-    </row>
-    <row r="4" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4">
-        <f>IF('cantidad pollos muertos'!C3="","",GAMMAINV(0.025,'cantidad pollos muertos'!C3+(1/2),1))</f>
-        <v>516.96965233938352</v>
-      </c>
-      <c r="C4">
-        <f>IF('cantidad pollos muertos'!C3="","",GAMMAINV(0.975,'cantidad pollos muertos'!C3+(1/2),1))</f>
-        <v>609.92441125514006</v>
-      </c>
-      <c r="D4">
-        <f>IF('cantidad pollos muertos'!D3="","",GAMMAINV(0.025,'cantidad pollos muertos'!D3+(1/2),1))</f>
-        <v>2714.4152288149658</v>
-      </c>
-      <c r="E4">
-        <f>IF('cantidad pollos muertos'!D3="","",GAMMAINV(0.975,'cantidad pollos muertos'!D3+(1/2),1))</f>
-        <v>2922.4790287189476</v>
-      </c>
-      <c r="F4">
-        <f>IF('cantidad pollos muertos'!E3="","",GAMMAINV(0.025,'cantidad pollos muertos'!E3+(1/2),1))</f>
-        <v>3188.8502371014001</v>
-      </c>
-      <c r="G4">
-        <f>IF('cantidad pollos muertos'!E3="","",GAMMAINV(0.975,'cantidad pollos muertos'!E3+(1/2),1))</f>
-        <v>3414.0440275083861</v>
-      </c>
-      <c r="H4">
-        <f>IF('cantidad pollos muertos'!F3="","",GAMMAINV(0.025,'cantidad pollos muertos'!F3+(1/2),1))</f>
-        <v>1015.0860812957022</v>
-      </c>
-      <c r="I4">
-        <f>IF('cantidad pollos muertos'!F3="","",GAMMAINV(0.975,'cantidad pollos muertos'!F3+(1/2),1))</f>
-        <v>1143.8080982571503</v>
-      </c>
-      <c r="J4">
-        <f>IF('cantidad pollos muertos'!G3="","",GAMMAINV(0.025,'cantidad pollos muertos'!G3+(1/2),1))</f>
-        <v>474.82502426625246</v>
-      </c>
-      <c r="K4">
-        <f>IF('cantidad pollos muertos'!G3="","",GAMMAINV(0.975,'cantidad pollos muertos'!G3+(1/2),1))</f>
-        <v>564.06901875364156</v>
-      </c>
-      <c r="L4">
-        <f>IF('cantidad pollos muertos'!H3="","",GAMMAINV(0.025,'cantidad pollos muertos'!H3+(1/2),1))</f>
-        <v>319.5015285063526</v>
-      </c>
-      <c r="M4">
-        <f>IF('cantidad pollos muertos'!H3="","",GAMMAINV(0.975,'cantidad pollos muertos'!H3+(1/2),1))</f>
-        <v>393.39239386812818</v>
-      </c>
-      <c r="N4">
-        <f>IF('cantidad pollos muertos'!I3="","",GAMMAINV(0.025,'cantidad pollos muertos'!I3+(1/2),1))</f>
-        <v>341.32455791271349</v>
-      </c>
-      <c r="O4">
-        <f>IF('cantidad pollos muertos'!I3="","",GAMMAINV(0.975,'cantidad pollos muertos'!I3+(1/2),1))</f>
-        <v>417.56938778801128</v>
-      </c>
-    </row>
-    <row r="5" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>74</v>
-      </c>
-      <c r="B5" t="str">
-        <f>IF('cantidad pollos muertos'!C4="","",GAMMAINV(0.025,'cantidad pollos muertos'!C4+(1/2),1))</f>
-        <v/>
-      </c>
-      <c r="C5" t="str">
-        <f>IF('cantidad pollos muertos'!C4="","",GAMMAINV(0.975,'cantidad pollos muertos'!C4+(1/2),1))</f>
-        <v/>
-      </c>
-      <c r="D5" t="str">
-        <f>IF('cantidad pollos muertos'!D4="","",GAMMAINV(0.025,'cantidad pollos muertos'!D4+(1/2),1))</f>
-        <v/>
-      </c>
-      <c r="E5" t="str">
-        <f>IF('cantidad pollos muertos'!D4="","",GAMMAINV(0.975,'cantidad pollos muertos'!D4+(1/2),1))</f>
-        <v/>
-      </c>
-      <c r="F5" t="str">
-        <f>IF('cantidad pollos muertos'!E4="","",GAMMAINV(0.025,'cantidad pollos muertos'!E4+(1/2),1))</f>
-        <v/>
-      </c>
-      <c r="G5" t="str">
-        <f>IF('cantidad pollos muertos'!E4="","",GAMMAINV(0.975,'cantidad pollos muertos'!E4+(1/2),1))</f>
-        <v/>
-      </c>
-      <c r="H5" t="str">
-        <f>IF('cantidad pollos muertos'!F4="","",GAMMAINV(0.025,'cantidad pollos muertos'!F4+(1/2),1))</f>
-        <v/>
-      </c>
-      <c r="I5" t="str">
-        <f>IF('cantidad pollos muertos'!F4="","",GAMMAINV(0.975,'cantidad pollos muertos'!F4+(1/2),1))</f>
-        <v/>
-      </c>
-      <c r="J5" t="str">
-        <f>IF('cantidad pollos muertos'!G4="","",GAMMAINV(0.025,'cantidad pollos muertos'!G4+(1/2),1))</f>
-        <v/>
-      </c>
-      <c r="K5" t="str">
-        <f>IF('cantidad pollos muertos'!G4="","",GAMMAINV(0.975,'cantidad pollos muertos'!G4+(1/2),1))</f>
-        <v/>
-      </c>
-      <c r="L5" t="str">
-        <f>IF('cantidad pollos muertos'!H4="","",GAMMAINV(0.025,'cantidad pollos muertos'!H4+(1/2),1))</f>
-        <v/>
-      </c>
-      <c r="M5" t="str">
-        <f>IF('cantidad pollos muertos'!H4="","",GAMMAINV(0.975,'cantidad pollos muertos'!H4+(1/2),1))</f>
-        <v/>
-      </c>
-      <c r="N5" t="str">
-        <f>IF('cantidad pollos muertos'!I4="","",GAMMAINV(0.025,'cantidad pollos muertos'!I4+(1/2),1))</f>
-        <v/>
-      </c>
-      <c r="O5" t="str">
-        <f>IF('cantidad pollos muertos'!I4="","",GAMMAINV(0.975,'cantidad pollos muertos'!I4+(1/2),1))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6">
-        <f>IF('cantidad pollos muertos'!C5="","",GAMMAINV(0.025,'cantidad pollos muertos'!C5+(1/2),1))</f>
-        <v>62.100315262370202</v>
-      </c>
-      <c r="C6">
-        <f>IF('cantidad pollos muertos'!C5="","",GAMMAINV(0.975,'cantidad pollos muertos'!C5+(1/2),1))</f>
-        <v>96.792247666792676</v>
-      </c>
-      <c r="D6">
-        <f>IF('cantidad pollos muertos'!D5="","",GAMMAINV(0.025,'cantidad pollos muertos'!D5+(1/2),1))</f>
-        <v>80.91309119682343</v>
-      </c>
-      <c r="E6">
-        <f>IF('cantidad pollos muertos'!D5="","",GAMMAINV(0.975,'cantidad pollos muertos'!D5+(1/2),1))</f>
-        <v>119.9798409138221</v>
-      </c>
-      <c r="F6">
-        <f>IF('cantidad pollos muertos'!E5="","",GAMMAINV(0.025,'cantidad pollos muertos'!E5+(1/2),1))</f>
-        <v>88.141732680851817</v>
-      </c>
-      <c r="G6">
-        <f>IF('cantidad pollos muertos'!E5="","",GAMMAINV(0.975,'cantidad pollos muertos'!E5+(1/2),1))</f>
-        <v>128.75130200416774</v>
-      </c>
-      <c r="H6">
-        <f>IF('cantidad pollos muertos'!F5="","",GAMMAINV(0.025,'cantidad pollos muertos'!F5+(1/2),1))</f>
-        <v>70.13092837414608</v>
-      </c>
-      <c r="I6">
-        <f>IF('cantidad pollos muertos'!F5="","",GAMMAINV(0.975,'cantidad pollos muertos'!F5+(1/2),1))</f>
-        <v>106.76181456300202</v>
-      </c>
-      <c r="J6">
-        <f>IF('cantidad pollos muertos'!G5="","",GAMMAINV(0.025,'cantidad pollos muertos'!G5+(1/2),1))</f>
-        <v>66.555282724745524</v>
-      </c>
-      <c r="K6">
-        <f>IF('cantidad pollos muertos'!G5="","",GAMMAINV(0.975,'cantidad pollos muertos'!G5+(1/2),1))</f>
-        <v>102.33738501995983</v>
-      </c>
-      <c r="L6">
-        <f>IF('cantidad pollos muertos'!H5="","",GAMMAINV(0.025,'cantidad pollos muertos'!H5+(1/2),1))</f>
-        <v>38.404302086786373</v>
-      </c>
-      <c r="M6">
-        <f>IF('cantidad pollos muertos'!H5="","",GAMMAINV(0.975,'cantidad pollos muertos'!H5+(1/2),1))</f>
-        <v>66.487340707595948</v>
-      </c>
-      <c r="N6">
-        <f>IF('cantidad pollos muertos'!I5="","",GAMMAINV(0.025,'cantidad pollos muertos'!I5+(1/2),1))</f>
-        <v>21.47513743774951</v>
-      </c>
-      <c r="O6">
-        <f>IF('cantidad pollos muertos'!I5="","",GAMMAINV(0.975,'cantidad pollos muertos'!I5+(1/2),1))</f>
-        <v>43.414795283643059</v>
-      </c>
-    </row>
-    <row r="7" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7">
-        <f>IF('cantidad pollos muertos'!C6="","",GAMMAINV(0.025,'cantidad pollos muertos'!C6+(1/2),1))</f>
-        <v>44.47754524508602</v>
-      </c>
-      <c r="C7">
-        <f>IF('cantidad pollos muertos'!C6="","",GAMMAINV(0.975,'cantidad pollos muertos'!C6+(1/2),1))</f>
-        <v>74.414418156443148</v>
-      </c>
-      <c r="D7">
-        <f>IF('cantidad pollos muertos'!D6="","",GAMMAINV(0.025,'cantidad pollos muertos'!D6+(1/2),1))</f>
-        <v>75.512217647445581</v>
-      </c>
-      <c r="E7">
-        <f>IF('cantidad pollos muertos'!D6="","",GAMMAINV(0.975,'cantidad pollos muertos'!D6+(1/2),1))</f>
-        <v>113.38062596936612</v>
-      </c>
-      <c r="F7">
-        <f>IF('cantidad pollos muertos'!E6="","",GAMMAINV(0.025,'cantidad pollos muertos'!E6+(1/2),1))</f>
-        <v>132.94130350503522</v>
-      </c>
-      <c r="G7">
-        <f>IF('cantidad pollos muertos'!E6="","",GAMMAINV(0.975,'cantidad pollos muertos'!E6+(1/2),1))</f>
-        <v>181.95213009999131</v>
-      </c>
-      <c r="H7">
-        <f>IF('cantidad pollos muertos'!F6="","",GAMMAINV(0.025,'cantidad pollos muertos'!F6+(1/2),1))</f>
-        <v>117.31204422916028</v>
-      </c>
-      <c r="I7">
-        <f>IF('cantidad pollos muertos'!F6="","",GAMMAINV(0.975,'cantidad pollos muertos'!F6+(1/2),1))</f>
-        <v>163.58128280422588</v>
-      </c>
-      <c r="J7">
-        <f>IF('cantidad pollos muertos'!G6="","",GAMMAINV(0.025,'cantidad pollos muertos'!G6+(1/2),1))</f>
-        <v>119.14659511982991</v>
-      </c>
-      <c r="K7">
-        <f>IF('cantidad pollos muertos'!G6="","",GAMMAINV(0.975,'cantidad pollos muertos'!G6+(1/2),1))</f>
-        <v>165.74674578385378</v>
-      </c>
-      <c r="L7">
-        <f>IF('cantidad pollos muertos'!H6="","",GAMMAINV(0.025,'cantidad pollos muertos'!H6+(1/2),1))</f>
-        <v>35.820758132639803</v>
-      </c>
-      <c r="M7">
-        <f>IF('cantidad pollos muertos'!H6="","",GAMMAINV(0.975,'cantidad pollos muertos'!H6+(1/2),1))</f>
-        <v>63.070718720047985</v>
-      </c>
-      <c r="N7">
-        <f>IF('cantidad pollos muertos'!I6="","",GAMMAINV(0.025,'cantidad pollos muertos'!I6+(1/2),1))</f>
-        <v>72.819004490068878</v>
-      </c>
-      <c r="O7">
-        <f>IF('cantidad pollos muertos'!I6="","",GAMMAINV(0.975,'cantidad pollos muertos'!I6+(1/2),1))</f>
-        <v>110.07379046221725</v>
-      </c>
-    </row>
-    <row r="8" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8">
-        <f>IF('cantidad pollos muertos'!C7="","",GAMMAINV(0.025,'cantidad pollos muertos'!C7+(1/2),1))</f>
-        <v>158.83708624586913</v>
-      </c>
-      <c r="C8">
-        <f>IF('cantidad pollos muertos'!C7="","",GAMMAINV(0.975,'cantidad pollos muertos'!C7+(1/2),1))</f>
-        <v>212.05647999384703</v>
-      </c>
-      <c r="D8">
-        <f>IF('cantidad pollos muertos'!D7="","",GAMMAINV(0.025,'cantidad pollos muertos'!D7+(1/2),1))</f>
-        <v>42.736375985688582</v>
-      </c>
-      <c r="E8">
-        <f>IF('cantidad pollos muertos'!D7="","",GAMMAINV(0.975,'cantidad pollos muertos'!D7+(1/2),1))</f>
-        <v>72.155503971269738</v>
-      </c>
-      <c r="F8">
-        <f>IF('cantidad pollos muertos'!E7="","",GAMMAINV(0.025,'cantidad pollos muertos'!E7+(1/2),1))</f>
-        <v>72.819004490068878</v>
-      </c>
-      <c r="G8">
-        <f>IF('cantidad pollos muertos'!E7="","",GAMMAINV(0.975,'cantidad pollos muertos'!E7+(1/2),1))</f>
-        <v>110.07379046221725</v>
-      </c>
-      <c r="H8">
-        <f>IF('cantidad pollos muertos'!F7="","",GAMMAINV(0.025,'cantidad pollos muertos'!F7+(1/2),1))</f>
-        <v>103.59279761759664</v>
-      </c>
-      <c r="I8">
-        <f>IF('cantidad pollos muertos'!F7="","",GAMMAINV(0.975,'cantidad pollos muertos'!F7+(1/2),1))</f>
-        <v>147.3004111432507</v>
-      </c>
-      <c r="J8">
-        <f>IF('cantidad pollos muertos'!G7="","",GAMMAINV(0.025,'cantidad pollos muertos'!G7+(1/2),1))</f>
-        <v>57.663034081546456</v>
-      </c>
-      <c r="K8">
-        <f>IF('cantidad pollos muertos'!G7="","",GAMMAINV(0.975,'cantidad pollos muertos'!G7+(1/2),1))</f>
-        <v>91.229409702209395</v>
-      </c>
-      <c r="L8">
-        <f>IF('cantidad pollos muertos'!H7="","",GAMMAINV(0.025,'cantidad pollos muertos'!H7+(1/2),1))</f>
-        <v>21.47513743774951</v>
-      </c>
-      <c r="M8">
-        <f>IF('cantidad pollos muertos'!H7="","",GAMMAINV(0.975,'cantidad pollos muertos'!H7+(1/2),1))</f>
-        <v>43.414795283643059</v>
-      </c>
-      <c r="N8">
-        <f>IF('cantidad pollos muertos'!I7="","",GAMMAINV(0.025,'cantidad pollos muertos'!I7+(1/2),1))</f>
-        <v>21.47513743774951</v>
-      </c>
-      <c r="O8">
-        <f>IF('cantidad pollos muertos'!I7="","",GAMMAINV(0.975,'cantidad pollos muertos'!I7+(1/2),1))</f>
-        <v>43.414795283643059</v>
-      </c>
-    </row>
-    <row r="9" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9">
-        <f>IF('cantidad pollos muertos'!C8="","",GAMMAINV(0.025,'cantidad pollos muertos'!C8+(1/2),1))</f>
-        <v>102.68086028845509</v>
-      </c>
-      <c r="C9">
-        <f>IF('cantidad pollos muertos'!C8="","",GAMMAINV(0.975,'cantidad pollos muertos'!C8+(1/2),1))</f>
-        <v>146.21233956308285</v>
-      </c>
-      <c r="D9">
-        <f>IF('cantidad pollos muertos'!D8="","",GAMMAINV(0.025,'cantidad pollos muertos'!D8+(1/2),1))</f>
-        <v>100.85806313977369</v>
-      </c>
-      <c r="E9">
-        <f>IF('cantidad pollos muertos'!D8="","",GAMMAINV(0.975,'cantidad pollos muertos'!D8+(1/2),1))</f>
-        <v>144.03511845188567</v>
-      </c>
-      <c r="F9">
-        <f>IF('cantidad pollos muertos'!E8="","",GAMMAINV(0.025,'cantidad pollos muertos'!E8+(1/2),1))</f>
-        <v>81.81501408848392</v>
-      </c>
-      <c r="G9">
-        <f>IF('cantidad pollos muertos'!E8="","",GAMMAINV(0.975,'cantidad pollos muertos'!E8+(1/2),1))</f>
-        <v>121.07793174019264</v>
-      </c>
-      <c r="H9">
-        <f>IF('cantidad pollos muertos'!F8="","",GAMMAINV(0.025,'cantidad pollos muertos'!F8+(1/2),1))</f>
-        <v>110.90067430604017</v>
-      </c>
-      <c r="I9">
-        <f>IF('cantidad pollos muertos'!F8="","",GAMMAINV(0.975,'cantidad pollos muertos'!F8+(1/2),1))</f>
-        <v>155.99260087494179</v>
-      </c>
-      <c r="J9">
-        <f>IF('cantidad pollos muertos'!G8="","",GAMMAINV(0.025,'cantidad pollos muertos'!G8+(1/2),1))</f>
-        <v>60.323184053048578</v>
-      </c>
-      <c r="K9">
-        <f>IF('cantidad pollos muertos'!G8="","",GAMMAINV(0.975,'cantidad pollos muertos'!G8+(1/2),1))</f>
-        <v>94.569333095614553</v>
-      </c>
-      <c r="L9">
-        <f>IF('cantidad pollos muertos'!H8="","",GAMMAINV(0.025,'cantidad pollos muertos'!H8+(1/2),1))</f>
-        <v>69.236090053698319</v>
-      </c>
-      <c r="M9">
-        <f>IF('cantidad pollos muertos'!H8="","",GAMMAINV(0.975,'cantidad pollos muertos'!H8+(1/2),1))</f>
-        <v>105.65663473998677</v>
-      </c>
-      <c r="N9">
-        <f>IF('cantidad pollos muertos'!I8="","",GAMMAINV(0.025,'cantidad pollos muertos'!I8+(1/2),1))</f>
-        <v>43.606396503709874</v>
-      </c>
-      <c r="O9">
-        <f>IF('cantidad pollos muertos'!I8="","",GAMMAINV(0.975,'cantidad pollos muertos'!I8+(1/2),1))</f>
-        <v>73.285525905634486</v>
-      </c>
-    </row>
-    <row r="10" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <f>IF('cantidad pollos muertos'!C9="","",GAMMAINV(0.025,'cantidad pollos muertos'!C9+(1/2),1))</f>
-        <v>115.47868500239804</v>
-      </c>
-      <c r="C10">
-        <f>IF('cantidad pollos muertos'!C9="","",GAMMAINV(0.975,'cantidad pollos muertos'!C9+(1/2),1))</f>
-        <v>161.41462775614207</v>
-      </c>
-      <c r="D10">
-        <f>IF('cantidad pollos muertos'!D9="","",GAMMAINV(0.025,'cantidad pollos muertos'!D9+(1/2),1))</f>
-        <v>62.100315262370202</v>
-      </c>
-      <c r="E10">
-        <f>IF('cantidad pollos muertos'!D9="","",GAMMAINV(0.975,'cantidad pollos muertos'!D9+(1/2),1))</f>
-        <v>96.792247666792676</v>
-      </c>
-      <c r="F10">
-        <f>IF('cantidad pollos muertos'!E9="","",GAMMAINV(0.025,'cantidad pollos muertos'!E9+(1/2),1))</f>
-        <v>80.01166316279793</v>
-      </c>
-      <c r="G10">
-        <f>IF('cantidad pollos muertos'!E9="","",GAMMAINV(0.975,'cantidad pollos muertos'!E9+(1/2),1))</f>
-        <v>118.88125495026803</v>
-      </c>
-      <c r="H10">
-        <f>IF('cantidad pollos muertos'!F9="","",GAMMAINV(0.025,'cantidad pollos muertos'!F9+(1/2),1))</f>
-        <v>140.32211069619123</v>
-      </c>
-      <c r="I10">
-        <f>IF('cantidad pollos muertos'!F9="","",GAMMAINV(0.975,'cantidad pollos muertos'!F9+(1/2),1))</f>
-        <v>190.57136542184699</v>
-      </c>
-      <c r="J10">
-        <f>IF('cantidad pollos muertos'!G9="","",GAMMAINV(0.025,'cantidad pollos muertos'!G9+(1/2),1))</f>
-        <v>60.323184053048578</v>
-      </c>
-      <c r="K10">
-        <f>IF('cantidad pollos muertos'!G9="","",GAMMAINV(0.975,'cantidad pollos muertos'!G9+(1/2),1))</f>
-        <v>94.569333095614553</v>
-      </c>
-      <c r="L10">
-        <f>IF('cantidad pollos muertos'!H9="","",GAMMAINV(0.025,'cantidad pollos muertos'!H9+(1/2),1))</f>
-        <v>11.827162278796511</v>
-      </c>
-      <c r="M10">
-        <f>IF('cantidad pollos muertos'!H9="","",GAMMAINV(0.975,'cantidad pollos muertos'!H9+(1/2),1))</f>
-        <v>29.060029867343136</v>
-      </c>
-      <c r="N10">
-        <f>IF('cantidad pollos muertos'!I9="","",GAMMAINV(0.025,'cantidad pollos muertos'!I9+(1/2),1))</f>
-        <v>59.435713143054343</v>
-      </c>
-      <c r="O10">
-        <f>IF('cantidad pollos muertos'!I9="","",GAMMAINV(0.975,'cantidad pollos muertos'!I9+(1/2),1))</f>
-        <v>93.456780201514249</v>
-      </c>
-    </row>
-    <row r="11" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11">
-        <f>IF('cantidad pollos muertos'!C10="","",GAMMAINV(0.025,'cantidad pollos muertos'!C10+(1/2),1))</f>
-        <v>131.09856179092077</v>
-      </c>
-      <c r="C11">
-        <f>IF('cantidad pollos muertos'!C10="","",GAMMAINV(0.975,'cantidad pollos muertos'!C10+(1/2),1))</f>
-        <v>179.79486049634806</v>
-      </c>
-      <c r="D11">
-        <f>IF('cantidad pollos muertos'!D10="","",GAMMAINV(0.025,'cantidad pollos muertos'!D10+(1/2),1))</f>
-        <v>118.22917231280019</v>
-      </c>
-      <c r="E11">
-        <f>IF('cantidad pollos muertos'!D10="","",GAMMAINV(0.975,'cantidad pollos muertos'!D10+(1/2),1))</f>
-        <v>164.66416170522081</v>
-      </c>
-      <c r="F11">
-        <f>IF('cantidad pollos muertos'!E10="","",GAMMAINV(0.025,'cantidad pollos muertos'!E10+(1/2),1))</f>
-        <v>78.210322127740184</v>
-      </c>
-      <c r="G11">
-        <f>IF('cantidad pollos muertos'!E10="","",GAMMAINV(0.975,'cantidad pollos muertos'!E10+(1/2),1))</f>
-        <v>116.68256711663008</v>
-      </c>
-      <c r="H11">
-        <f>IF('cantidad pollos muertos'!F10="","",GAMMAINV(0.025,'cantidad pollos muertos'!F10+(1/2),1))</f>
-        <v>356.52678175263407</v>
-      </c>
-      <c r="I11">
-        <f>IF('cantidad pollos muertos'!F10="","",GAMMAINV(0.975,'cantidad pollos muertos'!F10+(1/2),1))</f>
-        <v>434.3671785694022</v>
-      </c>
-      <c r="J11">
-        <f>IF('cantidad pollos muertos'!G10="","",GAMMAINV(0.025,'cantidad pollos muertos'!G10+(1/2),1))</f>
-        <v>67.448256305265616</v>
-      </c>
-      <c r="K11">
-        <f>IF('cantidad pollos muertos'!G10="","",GAMMAINV(0.975,'cantidad pollos muertos'!G10+(1/2),1))</f>
-        <v>103.44443090775799</v>
-      </c>
-      <c r="L11">
-        <f>IF('cantidad pollos muertos'!H10="","",GAMMAINV(0.025,'cantidad pollos muertos'!H10+(1/2),1))</f>
-        <v>44.47754524508602</v>
-      </c>
-      <c r="M11">
-        <f>IF('cantidad pollos muertos'!H10="","",GAMMAINV(0.975,'cantidad pollos muertos'!H10+(1/2),1))</f>
-        <v>74.414418156443148</v>
-      </c>
-      <c r="N11">
-        <f>IF('cantidad pollos muertos'!I10="","",GAMMAINV(0.025,'cantidad pollos muertos'!I10+(1/2),1))</f>
-        <v>65.662953118336475</v>
-      </c>
-      <c r="O11">
-        <f>IF('cantidad pollos muertos'!I10="","",GAMMAINV(0.975,'cantidad pollos muertos'!I10+(1/2),1))</f>
-        <v>101.22969468404963</v>
-      </c>
-    </row>
-    <row r="12" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>75</v>
-      </c>
-      <c r="B12">
-        <f>IF('cantidad pollos muertos'!C11="","",GAMMAINV(0.025,'cantidad pollos muertos'!C11+(1/2),1))</f>
-        <v>53.245281263312236</v>
-      </c>
-      <c r="C12">
-        <f>IF('cantidad pollos muertos'!C11="","",GAMMAINV(0.975,'cantidad pollos muertos'!C11+(1/2),1))</f>
-        <v>85.647025890944377</v>
-      </c>
-      <c r="D12">
-        <f>IF('cantidad pollos muertos'!D11="","",GAMMAINV(0.025,'cantidad pollos muertos'!D11+(1/2),1))</f>
-        <v>51.484124143889233</v>
-      </c>
-      <c r="E12">
-        <f>IF('cantidad pollos muertos'!D11="","",GAMMAINV(0.975,'cantidad pollos muertos'!D11+(1/2),1))</f>
-        <v>83.40812257489047</v>
-      </c>
-      <c r="F12">
-        <f>IF('cantidad pollos muertos'!E11="","",GAMMAINV(0.025,'cantidad pollos muertos'!E11+(1/2),1))</f>
-        <v>47.097478066231957</v>
-      </c>
-      <c r="G12">
-        <f>IF('cantidad pollos muertos'!E11="","",GAMMAINV(0.975,'cantidad pollos muertos'!E11+(1/2),1))</f>
-        <v>77.794600267046718</v>
-      </c>
-      <c r="H12">
-        <f>IF('cantidad pollos muertos'!F11="","",GAMMAINV(0.025,'cantidad pollos muertos'!F11+(1/2),1))</f>
-        <v>104.50508834559244</v>
-      </c>
-      <c r="I12">
-        <f>IF('cantidad pollos muertos'!F11="","",GAMMAINV(0.975,'cantidad pollos muertos'!F11+(1/2),1))</f>
-        <v>148.38812918217897</v>
-      </c>
-      <c r="J12">
-        <f>IF('cantidad pollos muertos'!G11="","",GAMMAINV(0.025,'cantidad pollos muertos'!G11+(1/2),1))</f>
-        <v>26.470969885266424</v>
-      </c>
-      <c r="K12">
-        <f>IF('cantidad pollos muertos'!G11="","",GAMMAINV(0.975,'cantidad pollos muertos'!G11+(1/2),1))</f>
-        <v>50.419669200906682</v>
-      </c>
-      <c r="L12">
-        <f>IF('cantidad pollos muertos'!H11="","",GAMMAINV(0.025,'cantidad pollos muertos'!H11+(1/2),1))</f>
-        <v>23.962081311793447</v>
-      </c>
-      <c r="M12">
-        <f>IF('cantidad pollos muertos'!H11="","",GAMMAINV(0.975,'cantidad pollos muertos'!H11+(1/2),1))</f>
-        <v>46.928235619342686</v>
-      </c>
-      <c r="N12">
-        <f>IF('cantidad pollos muertos'!I11="","",GAMMAINV(0.025,'cantidad pollos muertos'!I11+(1/2),1))</f>
-        <v>34.962433543720138</v>
-      </c>
-      <c r="O12">
-        <f>IF('cantidad pollos muertos'!I11="","",GAMMAINV(0.975,'cantidad pollos muertos'!I11+(1/2),1))</f>
-        <v>61.928983302147522</v>
-      </c>
-    </row>
-    <row r="13" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>72</v>
-      </c>
-      <c r="B13" t="str">
-        <f>IF('cantidad pollos muertos'!C12="","",GAMMAINV(0.025,'cantidad pollos muertos'!C12+(1/2),1))</f>
-        <v/>
-      </c>
-      <c r="C13" t="str">
-        <f>IF('cantidad pollos muertos'!C12="","",GAMMAINV(0.975,'cantidad pollos muertos'!C12+(1/2),1))</f>
-        <v/>
-      </c>
-      <c r="D13" t="str">
-        <f>IF('cantidad pollos muertos'!D12="","",GAMMAINV(0.025,'cantidad pollos muertos'!D12+(1/2),1))</f>
-        <v/>
-      </c>
-      <c r="E13" t="str">
-        <f>IF('cantidad pollos muertos'!D12="","",GAMMAINV(0.975,'cantidad pollos muertos'!D12+(1/2),1))</f>
-        <v/>
-      </c>
-      <c r="F13" t="str">
-        <f>IF('cantidad pollos muertos'!E12="","",GAMMAINV(0.025,'cantidad pollos muertos'!E12+(1/2),1))</f>
-        <v/>
-      </c>
-      <c r="G13" t="str">
-        <f>IF('cantidad pollos muertos'!E12="","",GAMMAINV(0.975,'cantidad pollos muertos'!E12+(1/2),1))</f>
-        <v/>
-      </c>
-      <c r="H13" t="str">
-        <f>IF('cantidad pollos muertos'!F12="","",GAMMAINV(0.025,'cantidad pollos muertos'!F12+(1/2),1))</f>
-        <v/>
-      </c>
-      <c r="I13" t="str">
-        <f>IF('cantidad pollos muertos'!F12="","",GAMMAINV(0.975,'cantidad pollos muertos'!F12+(1/2),1))</f>
-        <v/>
-      </c>
-      <c r="J13" t="str">
-        <f>IF('cantidad pollos muertos'!G12="","",GAMMAINV(0.025,'cantidad pollos muertos'!G12+(1/2),1))</f>
-        <v/>
-      </c>
-      <c r="K13" t="str">
-        <f>IF('cantidad pollos muertos'!G12="","",GAMMAINV(0.975,'cantidad pollos muertos'!G12+(1/2),1))</f>
-        <v/>
-      </c>
-      <c r="L13" t="str">
-        <f>IF('cantidad pollos muertos'!H12="","",GAMMAINV(0.025,'cantidad pollos muertos'!H12+(1/2),1))</f>
-        <v/>
-      </c>
-      <c r="M13" t="str">
-        <f>IF('cantidad pollos muertos'!H12="","",GAMMAINV(0.975,'cantidad pollos muertos'!H12+(1/2),1))</f>
-        <v/>
-      </c>
-      <c r="N13" t="str">
-        <f>IF('cantidad pollos muertos'!I12="","",GAMMAINV(0.025,'cantidad pollos muertos'!I12+(1/2),1))</f>
-        <v/>
-      </c>
-      <c r="O13" t="str">
-        <f>IF('cantidad pollos muertos'!I12="","",GAMMAINV(0.975,'cantidad pollos muertos'!I12+(1/2),1))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14">
-        <f>IF('cantidad pollos muertos'!C13="","",GAMMAINV(0.025,'cantidad pollos muertos'!C13+(1/2),1))</f>
-        <v>90.859922139610205</v>
-      </c>
-      <c r="C14">
-        <f>IF('cantidad pollos muertos'!C13="","",GAMMAINV(0.975,'cantidad pollos muertos'!C13+(1/2),1))</f>
-        <v>132.0331471692906</v>
-      </c>
-      <c r="D14">
-        <f>IF('cantidad pollos muertos'!D13="","",GAMMAINV(0.025,'cantidad pollos muertos'!D13+(1/2),1))</f>
-        <v>365.08513746329737</v>
-      </c>
-      <c r="E14">
-        <f>IF('cantidad pollos muertos'!D13="","",GAMMAINV(0.975,'cantidad pollos muertos'!D13+(1/2),1))</f>
-        <v>443.8088305732029</v>
-      </c>
-      <c r="F14">
-        <f>IF('cantidad pollos muertos'!E13="","",GAMMAINV(0.025,'cantidad pollos muertos'!E13+(1/2),1))</f>
-        <v>183.95480974406874</v>
-      </c>
-      <c r="G14">
-        <f>IF('cantidad pollos muertos'!E13="","",GAMMAINV(0.975,'cantidad pollos muertos'!E13+(1/2),1))</f>
-        <v>240.93885107770447</v>
-      </c>
-      <c r="H14">
-        <f>IF('cantidad pollos muertos'!F13="","",GAMMAINV(0.025,'cantidad pollos muertos'!F13+(1/2),1))</f>
-        <v>869.73007517075735</v>
-      </c>
-      <c r="I14">
-        <f>IF('cantidad pollos muertos'!F13="","",GAMMAINV(0.975,'cantidad pollos muertos'!F13+(1/2),1))</f>
-        <v>989.1640839658844</v>
-      </c>
-      <c r="J14">
-        <f>IF('cantidad pollos muertos'!G13="","",GAMMAINV(0.025,'cantidad pollos muertos'!G13+(1/2),1))</f>
-        <v>188.61972359104468</v>
-      </c>
-      <c r="K14">
-        <f>IF('cantidad pollos muertos'!G13="","",GAMMAINV(0.975,'cantidad pollos muertos'!G13+(1/2),1))</f>
-        <v>246.27395215279662</v>
-      </c>
-      <c r="L14">
-        <f>IF('cantidad pollos muertos'!H13="","",GAMMAINV(0.025,'cantidad pollos muertos'!H13+(1/2),1))</f>
-        <v>89.047363315798918</v>
-      </c>
-      <c r="M14">
-        <f>IF('cantidad pollos muertos'!H13="","",GAMMAINV(0.975,'cantidad pollos muertos'!H13+(1/2),1))</f>
-        <v>129.84568312395754</v>
-      </c>
-      <c r="N14">
-        <f>IF('cantidad pollos muertos'!I13="","",GAMMAINV(0.025,'cantidad pollos muertos'!I13+(1/2),1))</f>
-        <v>75.512217647445581</v>
-      </c>
-      <c r="O14">
-        <f>IF('cantidad pollos muertos'!I13="","",GAMMAINV(0.975,'cantidad pollos muertos'!I13+(1/2),1))</f>
-        <v>113.38062596936612</v>
-      </c>
-    </row>
-    <row r="15" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15">
-        <f>IF('cantidad pollos muertos'!C14="","",GAMMAINV(0.025,'cantidad pollos muertos'!C14+(1/2),1))</f>
-        <v>548.62533919166628</v>
-      </c>
-      <c r="C15">
-        <f>IF('cantidad pollos muertos'!C14="","",GAMMAINV(0.975,'cantidad pollos muertos'!C14+(1/2),1))</f>
-        <v>644.26873783735732</v>
-      </c>
-      <c r="D15">
-        <f>IF('cantidad pollos muertos'!D14="","",GAMMAINV(0.025,'cantidad pollos muertos'!D14+(1/2),1))</f>
-        <v>1929.4378712657417</v>
-      </c>
-      <c r="E15">
-        <f>IF('cantidad pollos muertos'!D14="","",GAMMAINV(0.975,'cantidad pollos muertos'!D14+(1/2),1))</f>
-        <v>2105.4563670604039</v>
-      </c>
-      <c r="F15">
-        <f>IF('cantidad pollos muertos'!E14="","",GAMMAINV(0.025,'cantidad pollos muertos'!E14+(1/2),1))</f>
-        <v>960.77956899582364</v>
-      </c>
-      <c r="G15">
-        <f>IF('cantidad pollos muertos'!E14="","",GAMMAINV(0.975,'cantidad pollos muertos'!E14+(1/2),1))</f>
-        <v>1086.1146036359291</v>
-      </c>
-      <c r="H15">
-        <f>IF('cantidad pollos muertos'!F14="","",GAMMAINV(0.025,'cantidad pollos muertos'!F14+(1/2),1))</f>
-        <v>590.88961410159629</v>
-      </c>
-      <c r="I15">
-        <f>IF('cantidad pollos muertos'!F14="","",GAMMAINV(0.975,'cantidad pollos muertos'!F14+(1/2),1))</f>
-        <v>690.0044786820838</v>
-      </c>
-      <c r="J15">
-        <f>IF('cantidad pollos muertos'!G14="","",GAMMAINV(0.025,'cantidad pollos muertos'!G14+(1/2),1))</f>
-        <v>664.99010981710069</v>
-      </c>
-      <c r="K15">
-        <f>IF('cantidad pollos muertos'!G14="","",GAMMAINV(0.975,'cantidad pollos muertos'!G14+(1/2),1))</f>
-        <v>769.90400587886734</v>
-      </c>
-      <c r="L15">
-        <f>IF('cantidad pollos muertos'!H14="","",GAMMAINV(0.025,'cantidad pollos muertos'!H14+(1/2),1))</f>
-        <v>184.8874780024845</v>
-      </c>
-      <c r="M15">
-        <f>IF('cantidad pollos muertos'!H14="","",GAMMAINV(0.975,'cantidad pollos muertos'!H14+(1/2),1))</f>
-        <v>242.00618585997404</v>
-      </c>
-      <c r="N15">
-        <f>IF('cantidad pollos muertos'!I14="","",GAMMAINV(0.025,'cantidad pollos muertos'!I14+(1/2),1))</f>
-        <v>418.4413310947719</v>
-      </c>
-      <c r="O15">
-        <f>IF('cantidad pollos muertos'!I14="","",GAMMAINV(0.975,'cantidad pollos muertos'!I14+(1/2),1))</f>
-        <v>502.45267814740237</v>
-      </c>
-    </row>
-    <row r="16" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>68</v>
-      </c>
-      <c r="B16" t="str">
-        <f>IF('cantidad pollos muertos'!C15="","",GAMMAINV(0.025,'cantidad pollos muertos'!C15+(1/2),1))</f>
-        <v/>
-      </c>
-      <c r="C16" t="str">
-        <f>IF('cantidad pollos muertos'!C15="","",GAMMAINV(0.975,'cantidad pollos muertos'!C15+(1/2),1))</f>
-        <v/>
-      </c>
-      <c r="D16">
-        <f>IF('cantidad pollos muertos'!D15="","",GAMMAINV(0.025,'cantidad pollos muertos'!D15+(1/2),1))</f>
-        <v>83.620315112988024</v>
-      </c>
-      <c r="E16">
-        <f>IF('cantidad pollos muertos'!D15="","",GAMMAINV(0.975,'cantidad pollos muertos'!D15+(1/2),1))</f>
-        <v>123.27265734594629</v>
-      </c>
-      <c r="F16">
-        <f>IF('cantidad pollos muertos'!E15="","",GAMMAINV(0.025,'cantidad pollos muertos'!E15+(1/2),1))</f>
-        <v>99.036732422663277</v>
-      </c>
-      <c r="G16">
-        <f>IF('cantidad pollos muertos'!E15="","",GAMMAINV(0.975,'cantidad pollos muertos'!E15+(1/2),1))</f>
-        <v>141.85643029608053</v>
-      </c>
-      <c r="H16">
-        <f>IF('cantidad pollos muertos'!F15="","",GAMMAINV(0.025,'cantidad pollos muertos'!F15+(1/2),1))</f>
-        <v>237.34147530468096</v>
-      </c>
-      <c r="I16">
-        <f>IF('cantidad pollos muertos'!F15="","",GAMMAINV(0.975,'cantidad pollos muertos'!F15+(1/2),1))</f>
-        <v>301.5523226395245</v>
-      </c>
-      <c r="J16">
-        <f>IF('cantidad pollos muertos'!G15="","",GAMMAINV(0.025,'cantidad pollos muertos'!G15+(1/2),1))</f>
-        <v>224.19024026146081</v>
-      </c>
-      <c r="K16">
-        <f>IF('cantidad pollos muertos'!G15="","",GAMMAINV(0.975,'cantidad pollos muertos'!G15+(1/2),1))</f>
-        <v>286.70352970194375</v>
-      </c>
-      <c r="L16">
-        <f>IF('cantidad pollos muertos'!H15="","",GAMMAINV(0.025,'cantidad pollos muertos'!H15+(1/2),1))</f>
-        <v>65.662953118336475</v>
-      </c>
-      <c r="M16">
-        <f>IF('cantidad pollos muertos'!H15="","",GAMMAINV(0.975,'cantidad pollos muertos'!H15+(1/2),1))</f>
-        <v>101.22969468404963</v>
-      </c>
-      <c r="N16">
-        <f>IF('cantidad pollos muertos'!I15="","",GAMMAINV(0.025,'cantidad pollos muertos'!I15+(1/2),1))</f>
-        <v>316.65782225114049</v>
-      </c>
-      <c r="O16">
-        <f>IF('cantidad pollos muertos'!I15="","",GAMMAINV(0.975,'cantidad pollos muertos'!I15+(1/2),1))</f>
-        <v>390.23609685614366</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17">
-        <f>IF('cantidad pollos muertos'!C16="","",GAMMAINV(0.025,'cantidad pollos muertos'!C16+(1/2),1))</f>
-        <v>414.62463159782908</v>
-      </c>
-      <c r="C17">
-        <f>IF('cantidad pollos muertos'!C16="","",GAMMAINV(0.975,'cantidad pollos muertos'!C16+(1/2),1))</f>
-        <v>498.26937503735041</v>
-      </c>
-      <c r="D17">
-        <f>IF('cantidad pollos muertos'!D16="","",GAMMAINV(0.025,'cantidad pollos muertos'!D16+(1/2),1))</f>
-        <v>954.96373633968722</v>
-      </c>
-      <c r="E17">
-        <f>IF('cantidad pollos muertos'!D16="","",GAMMAINV(0.975,'cantidad pollos muertos'!D16+(1/2),1))</f>
-        <v>1079.9304355052736</v>
-      </c>
-      <c r="F17">
-        <f>IF('cantidad pollos muertos'!E16="","",GAMMAINV(0.025,'cantidad pollos muertos'!E16+(1/2),1))</f>
-        <v>218.56113580640749</v>
-      </c>
-      <c r="G17">
-        <f>IF('cantidad pollos muertos'!E16="","",GAMMAINV(0.975,'cantidad pollos muertos'!E16+(1/2),1))</f>
-        <v>280.33262119870307</v>
-      </c>
-      <c r="H17">
-        <f>IF('cantidad pollos muertos'!F16="","",GAMMAINV(0.025,'cantidad pollos muertos'!F16+(1/2),1))</f>
-        <v>459.5191297448269</v>
-      </c>
-      <c r="I17">
-        <f>IF('cantidad pollos muertos'!F16="","",GAMMAINV(0.975,'cantidad pollos muertos'!F16+(1/2),1))</f>
-        <v>547.37490489941183</v>
-      </c>
-      <c r="J17">
-        <f>IF('cantidad pollos muertos'!G16="","",GAMMAINV(0.025,'cantidad pollos muertos'!G16+(1/2),1))</f>
-        <v>567.82869082765899</v>
-      </c>
-      <c r="K17">
-        <f>IF('cantidad pollos muertos'!G16="","",GAMMAINV(0.975,'cantidad pollos muertos'!G16+(1/2),1))</f>
-        <v>665.06539364196919</v>
-      </c>
-      <c r="L17">
-        <f>IF('cantidad pollos muertos'!H16="","",GAMMAINV(0.025,'cantidad pollos muertos'!H16+(1/2),1))</f>
-        <v>134.78504789814309</v>
-      </c>
-      <c r="M17">
-        <f>IF('cantidad pollos muertos'!H16="","",GAMMAINV(0.975,'cantidad pollos muertos'!H16+(1/2),1))</f>
-        <v>184.10839673837526</v>
-      </c>
-      <c r="N17">
-        <f>IF('cantidad pollos muertos'!I16="","",GAMMAINV(0.025,'cantidad pollos muertos'!I16+(1/2),1))</f>
-        <v>296.77104480838858</v>
-      </c>
-      <c r="O17">
-        <f>IF('cantidad pollos muertos'!I16="","",GAMMAINV(0.975,'cantidad pollos muertos'!I16+(1/2),1))</f>
-        <v>368.12284977095686</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18">
-        <f>IF('cantidad pollos muertos'!C17="","",GAMMAINV(0.025,'cantidad pollos muertos'!C17+(1/2),1))</f>
-        <v>235.46134851689186</v>
-      </c>
-      <c r="C18">
-        <f>IF('cantidad pollos muertos'!C17="","",GAMMAINV(0.975,'cantidad pollos muertos'!C17+(1/2),1))</f>
-        <v>299.43244561028706</v>
-      </c>
-      <c r="D18">
-        <f>IF('cantidad pollos muertos'!D17="","",GAMMAINV(0.025,'cantidad pollos muertos'!D17+(1/2),1))</f>
-        <v>392.69460594412999</v>
-      </c>
-      <c r="E18">
-        <f>IF('cantidad pollos muertos'!D17="","",GAMMAINV(0.975,'cantidad pollos muertos'!D17+(1/2),1))</f>
-        <v>474.19938476424937</v>
-      </c>
-      <c r="F18">
-        <f>IF('cantidad pollos muertos'!E17="","",GAMMAINV(0.025,'cantidad pollos muertos'!E17+(1/2),1))</f>
-        <v>515.05237774304203</v>
-      </c>
-      <c r="G18">
-        <f>IF('cantidad pollos muertos'!E17="","",GAMMAINV(0.975,'cantidad pollos muertos'!E17+(1/2),1))</f>
-        <v>607.84168498639417</v>
-      </c>
-      <c r="H18">
-        <f>IF('cantidad pollos muertos'!F17="","",GAMMAINV(0.025,'cantidad pollos muertos'!F17+(1/2),1))</f>
-        <v>801.0591213348855</v>
-      </c>
-      <c r="I18">
-        <f>IF('cantidad pollos muertos'!F17="","",GAMMAINV(0.975,'cantidad pollos muertos'!F17+(1/2),1))</f>
-        <v>915.83502564646369</v>
-      </c>
-      <c r="J18">
-        <f>IF('cantidad pollos muertos'!G17="","",GAMMAINV(0.025,'cantidad pollos muertos'!G17+(1/2),1))</f>
-        <v>493.97228832351379</v>
-      </c>
-      <c r="K18">
-        <f>IF('cantidad pollos muertos'!G17="","",GAMMAINV(0.975,'cantidad pollos muertos'!G17+(1/2),1))</f>
-        <v>584.92176446556857</v>
-      </c>
-      <c r="L18">
-        <f>IF('cantidad pollos muertos'!H17="","",GAMMAINV(0.025,'cantidad pollos muertos'!H17+(1/2),1))</f>
-        <v>122.81917195302653</v>
-      </c>
-      <c r="M18">
-        <f>IF('cantidad pollos muertos'!H17="","",GAMMAINV(0.975,'cantidad pollos muertos'!H17+(1/2),1))</f>
-        <v>170.07419554450007</v>
-      </c>
-      <c r="N18">
-        <f>IF('cantidad pollos muertos'!I17="","",GAMMAINV(0.025,'cantidad pollos muertos'!I17+(1/2),1))</f>
-        <v>152.3472322788605</v>
-      </c>
-      <c r="O18">
-        <f>IF('cantidad pollos muertos'!I17="","",GAMMAINV(0.975,'cantidad pollos muertos'!I17+(1/2),1))</f>
-        <v>204.54630473308362</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>73</v>
-      </c>
-      <c r="B19" t="str">
-        <f>IF('cantidad pollos muertos'!C18="","",GAMMAINV(0.025,'cantidad pollos muertos'!C18+(1/2),1))</f>
-        <v/>
-      </c>
-      <c r="C19" t="str">
-        <f>IF('cantidad pollos muertos'!C18="","",GAMMAINV(0.975,'cantidad pollos muertos'!C18+(1/2),1))</f>
-        <v/>
-      </c>
-      <c r="D19">
-        <f>IF('cantidad pollos muertos'!D18="","",GAMMAINV(0.025,'cantidad pollos muertos'!D18+(1/2),1))</f>
-        <v>642.83913038380899</v>
-      </c>
-      <c r="E19">
-        <f>IF('cantidad pollos muertos'!D18="","",GAMMAINV(0.975,'cantidad pollos muertos'!D18+(1/2),1))</f>
-        <v>746.05497900141279</v>
-      </c>
-      <c r="F19">
-        <f>IF('cantidad pollos muertos'!E18="","",GAMMAINV(0.025,'cantidad pollos muertos'!E18+(1/2),1))</f>
-        <v>149.56894453321635</v>
-      </c>
-      <c r="G19">
-        <f>IF('cantidad pollos muertos'!E18="","",GAMMAINV(0.975,'cantidad pollos muertos'!E18+(1/2),1))</f>
-        <v>201.32457923323548</v>
-      </c>
-      <c r="H19">
-        <f>IF('cantidad pollos muertos'!F18="","",GAMMAINV(0.025,'cantidad pollos muertos'!F18+(1/2),1))</f>
-        <v>99.947212199714798</v>
-      </c>
-      <c r="I19">
-        <f>IF('cantidad pollos muertos'!F18="","",GAMMAINV(0.975,'cantidad pollos muertos'!F18+(1/2),1))</f>
-        <v>142.94596003402984</v>
-      </c>
-      <c r="J19">
-        <f>IF('cantidad pollos muertos'!G18="","",GAMMAINV(0.025,'cantidad pollos muertos'!G18+(1/2),1))</f>
-        <v>375.55198881323582</v>
-      </c>
-      <c r="K19">
-        <f>IF('cantidad pollos muertos'!G18="","",GAMMAINV(0.975,'cantidad pollos muertos'!G18+(1/2),1))</f>
-        <v>455.34198819671326</v>
-      </c>
-      <c r="L19">
-        <f>IF('cantidad pollos muertos'!H18="","",GAMMAINV(0.025,'cantidad pollos muertos'!H18+(1/2),1))</f>
-        <v>34.105612724253191</v>
-      </c>
-      <c r="M19">
-        <f>IF('cantidad pollos muertos'!H18="","",GAMMAINV(0.975,'cantidad pollos muertos'!H18+(1/2),1))</f>
-        <v>60.785741514103385</v>
-      </c>
-      <c r="N19">
-        <f>IF('cantidad pollos muertos'!I18="","",GAMMAINV(0.025,'cantidad pollos muertos'!I18+(1/2),1))</f>
-        <v>77.310424850812296</v>
-      </c>
-      <c r="O19">
-        <f>IF('cantidad pollos muertos'!I18="","",GAMMAINV(0.975,'cantidad pollos muertos'!I18+(1/2),1))</f>
-        <v>115.58244950407959</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>11</v>
-      </c>
-      <c r="B20">
-        <f>IF('cantidad pollos muertos'!C19="","",GAMMAINV(0.025,'cantidad pollos muertos'!C19+(1/2),1))</f>
-        <v>87.236542631327438</v>
-      </c>
-      <c r="C20">
-        <f>IF('cantidad pollos muertos'!C19="","",GAMMAINV(0.975,'cantidad pollos muertos'!C19+(1/2),1))</f>
-        <v>127.65648007746864</v>
-      </c>
-      <c r="D20">
-        <f>IF('cantidad pollos muertos'!D19="","",GAMMAINV(0.025,'cantidad pollos muertos'!D19+(1/2),1))</f>
-        <v>63.880273249180242</v>
-      </c>
-      <c r="E20">
-        <f>IF('cantidad pollos muertos'!D19="","",GAMMAINV(0.975,'cantidad pollos muertos'!D19+(1/2),1))</f>
-        <v>99.012333175593525</v>
-      </c>
-      <c r="F20">
-        <f>IF('cantidad pollos muertos'!E19="","",GAMMAINV(0.025,'cantidad pollos muertos'!E19+(1/2),1))</f>
-        <v>543.82658359546087</v>
-      </c>
-      <c r="G20">
-        <f>IF('cantidad pollos muertos'!E19="","",GAMMAINV(0.975,'cantidad pollos muertos'!E19+(1/2),1))</f>
-        <v>639.06749149461064</v>
-      </c>
-      <c r="H20">
-        <f>IF('cantidad pollos muertos'!F19="","",GAMMAINV(0.025,'cantidad pollos muertos'!F19+(1/2),1))</f>
-        <v>85.427509351337406</v>
-      </c>
-      <c r="I20">
-        <f>IF('cantidad pollos muertos'!F19="","",GAMMAINV(0.975,'cantidad pollos muertos'!F19+(1/2),1))</f>
-        <v>125.46548871503119</v>
-      </c>
-      <c r="J20">
-        <f>IF('cantidad pollos muertos'!G19="","",GAMMAINV(0.025,'cantidad pollos muertos'!G19+(1/2),1))</f>
-        <v>47.097478066231957</v>
-      </c>
-      <c r="K20">
-        <f>IF('cantidad pollos muertos'!G19="","",GAMMAINV(0.975,'cantidad pollos muertos'!G19+(1/2),1))</f>
-        <v>77.794600267046718</v>
-      </c>
-      <c r="L20">
-        <f>IF('cantidad pollos muertos'!H19="","",GAMMAINV(0.025,'cantidad pollos muertos'!H19+(1/2),1))</f>
-        <v>44.47754524508602</v>
-      </c>
-      <c r="M20">
-        <f>IF('cantidad pollos muertos'!H19="","",GAMMAINV(0.975,'cantidad pollos muertos'!H19+(1/2),1))</f>
-        <v>74.414418156443148</v>
-      </c>
-      <c r="N20">
-        <f>IF('cantidad pollos muertos'!I19="","",GAMMAINV(0.025,'cantidad pollos muertos'!I19+(1/2),1))</f>
-        <v>17.388164308345313</v>
-      </c>
-      <c r="O20">
-        <f>IF('cantidad pollos muertos'!I19="","",GAMMAINV(0.975,'cantidad pollos muertos'!I19+(1/2),1))</f>
-        <v>37.500932160964304</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>69</v>
-      </c>
-      <c r="B21" t="str">
-        <f>IF('cantidad pollos muertos'!C20="","",GAMMAINV(0.025,'cantidad pollos muertos'!C20+(1/2),1))</f>
-        <v/>
-      </c>
-      <c r="C21" t="str">
-        <f>IF('cantidad pollos muertos'!C20="","",GAMMAINV(0.975,'cantidad pollos muertos'!C20+(1/2),1))</f>
-        <v/>
-      </c>
-      <c r="D21">
-        <f>IF('cantidad pollos muertos'!D20="","",GAMMAINV(0.025,'cantidad pollos muertos'!D20+(1/2),1))</f>
-        <v>157.90936386034264</v>
-      </c>
-      <c r="E21">
-        <f>IF('cantidad pollos muertos'!D20="","",GAMMAINV(0.975,'cantidad pollos muertos'!D20+(1/2),1))</f>
-        <v>210.98419834076878</v>
-      </c>
-      <c r="F21">
-        <f>IF('cantidad pollos muertos'!E20="","",GAMMAINV(0.025,'cantidad pollos muertos'!E20+(1/2),1))</f>
-        <v>199.83098059938479</v>
-      </c>
-      <c r="G21">
-        <f>IF('cantidad pollos muertos'!E20="","",GAMMAINV(0.975,'cantidad pollos muertos'!E20+(1/2),1))</f>
-        <v>259.06272828882726</v>
-      </c>
-      <c r="H21">
-        <f>IF('cantidad pollos muertos'!F20="","",GAMMAINV(0.025,'cantidad pollos muertos'!F20+(1/2),1))</f>
-        <v>197.96097260210999</v>
-      </c>
-      <c r="I21">
-        <f>IF('cantidad pollos muertos'!F20="","",GAMMAINV(0.975,'cantidad pollos muertos'!F20+(1/2),1))</f>
-        <v>256.93273100631336</v>
-      </c>
-      <c r="J21">
-        <f>IF('cantidad pollos muertos'!G20="","",GAMMAINV(0.025,'cantidad pollos muertos'!G20+(1/2),1))</f>
-        <v>297.71724772566876</v>
-      </c>
-      <c r="K21">
-        <f>IF('cantidad pollos muertos'!G20="","",GAMMAINV(0.975,'cantidad pollos muertos'!G20+(1/2),1))</f>
-        <v>369.17664809200483</v>
-      </c>
-      <c r="L21">
-        <f>IF('cantidad pollos muertos'!H20="","",GAMMAINV(0.025,'cantidad pollos muertos'!H20+(1/2),1))</f>
-        <v>173.70624244043358</v>
-      </c>
-      <c r="M21">
-        <f>IF('cantidad pollos muertos'!H20="","",GAMMAINV(0.975,'cantidad pollos muertos'!H20+(1/2),1))</f>
-        <v>229.1873829283812</v>
-      </c>
-      <c r="N21">
-        <f>IF('cantidad pollos muertos'!I20="","",GAMMAINV(0.025,'cantidad pollos muertos'!I20+(1/2),1))</f>
-        <v>109.07169811998602</v>
-      </c>
-      <c r="O21">
-        <f>IF('cantidad pollos muertos'!I20="","",GAMMAINV(0.975,'cantidad pollos muertos'!I20+(1/2),1))</f>
-        <v>153.82156122150266</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22">
-        <f>IF('cantidad pollos muertos'!C21="","",GAMMAINV(0.025,'cantidad pollos muertos'!C21+(1/2),1))</f>
-        <v>34.105612724253191</v>
-      </c>
-      <c r="C22">
-        <f>IF('cantidad pollos muertos'!C21="","",GAMMAINV(0.975,'cantidad pollos muertos'!C21+(1/2),1))</f>
-        <v>60.785741514103385</v>
-      </c>
-      <c r="D22">
-        <f>IF('cantidad pollos muertos'!D21="","",GAMMAINV(0.025,'cantidad pollos muertos'!D21+(1/2),1))</f>
-        <v>28.999208263699717</v>
-      </c>
-      <c r="E22">
-        <f>IF('cantidad pollos muertos'!D21="","",GAMMAINV(0.975,'cantidad pollos muertos'!D21+(1/2),1))</f>
-        <v>53.891704832667266</v>
-      </c>
-      <c r="F22">
-        <f>IF('cantidad pollos muertos'!E21="","",GAMMAINV(0.025,'cantidad pollos muertos'!E21+(1/2),1))</f>
-        <v>53.245281263312236</v>
-      </c>
-      <c r="G22">
-        <f>IF('cantidad pollos muertos'!E21="","",GAMMAINV(0.975,'cantidad pollos muertos'!E21+(1/2),1))</f>
-        <v>85.647025890944377</v>
-      </c>
-      <c r="H22">
-        <f>IF('cantidad pollos muertos'!F21="","",GAMMAINV(0.025,'cantidad pollos muertos'!F21+(1/2),1))</f>
-        <v>32.396680742579541</v>
-      </c>
-      <c r="I22">
-        <f>IF('cantidad pollos muertos'!F21="","",GAMMAINV(0.975,'cantidad pollos muertos'!F21+(1/2),1))</f>
-        <v>58.494539771790699</v>
-      </c>
-      <c r="J22">
-        <f>IF('cantidad pollos muertos'!G21="","",GAMMAINV(0.025,'cantidad pollos muertos'!G21+(1/2),1))</f>
-        <v>63.880273249180242</v>
-      </c>
-      <c r="K22">
-        <f>IF('cantidad pollos muertos'!G21="","",GAMMAINV(0.975,'cantidad pollos muertos'!G21+(1/2),1))</f>
-        <v>99.012333175593525</v>
-      </c>
-      <c r="L22">
-        <f>IF('cantidad pollos muertos'!H21="","",GAMMAINV(0.025,'cantidad pollos muertos'!H21+(1/2),1))</f>
-        <v>19.013370478108719</v>
-      </c>
-      <c r="M22">
-        <f>IF('cantidad pollos muertos'!H21="","",GAMMAINV(0.975,'cantidad pollos muertos'!H21+(1/2),1))</f>
-        <v>39.876096140145194</v>
-      </c>
-      <c r="N22">
-        <f>IF('cantidad pollos muertos'!I21="","",GAMMAINV(0.025,'cantidad pollos muertos'!I21+(1/2),1))</f>
-        <v>4.9103455858762819E-4</v>
-      </c>
-      <c r="O22">
-        <f>IF('cantidad pollos muertos'!I21="","",GAMMAINV(0.975,'cantidad pollos muertos'!I21+(1/2),1))</f>
-        <v>2.5119430936574432</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>10</v>
-      </c>
-      <c r="B23">
-        <f>IF('cantidad pollos muertos'!C22="","",GAMMAINV(0.025,'cantidad pollos muertos'!C22+(1/2),1))</f>
-        <v>126.49622413335962</v>
-      </c>
-      <c r="C23">
-        <f>IF('cantidad pollos muertos'!C22="","",GAMMAINV(0.975,'cantidad pollos muertos'!C22+(1/2),1))</f>
-        <v>174.39716853152555</v>
-      </c>
-      <c r="D23">
-        <f>IF('cantidad pollos muertos'!D22="","",GAMMAINV(0.025,'cantidad pollos muertos'!D22+(1/2),1))</f>
-        <v>80.01166316279793</v>
-      </c>
-      <c r="E23">
-        <f>IF('cantidad pollos muertos'!D22="","",GAMMAINV(0.975,'cantidad pollos muertos'!D22+(1/2),1))</f>
-        <v>118.88125495026803</v>
-      </c>
-      <c r="F23">
-        <f>IF('cantidad pollos muertos'!E22="","",GAMMAINV(0.025,'cantidad pollos muertos'!E22+(1/2),1))</f>
-        <v>241.10306163544675</v>
-      </c>
-      <c r="G23">
-        <f>IF('cantidad pollos muertos'!E22="","",GAMMAINV(0.975,'cantidad pollos muertos'!E22+(1/2),1))</f>
-        <v>305.79074377450195</v>
-      </c>
-      <c r="H23">
-        <f>IF('cantidad pollos muertos'!F22="","",GAMMAINV(0.025,'cantidad pollos muertos'!F22+(1/2),1))</f>
-        <v>140.32211069619123</v>
-      </c>
-      <c r="I23">
-        <f>IF('cantidad pollos muertos'!F22="","",GAMMAINV(0.975,'cantidad pollos muertos'!F22+(1/2),1))</f>
-        <v>190.57136542184699</v>
-      </c>
-      <c r="J23">
-        <f>IF('cantidad pollos muertos'!G22="","",GAMMAINV(0.025,'cantidad pollos muertos'!G22+(1/2),1))</f>
-        <v>62.100315262370202</v>
-      </c>
-      <c r="K23">
-        <f>IF('cantidad pollos muertos'!G22="","",GAMMAINV(0.975,'cantidad pollos muertos'!G22+(1/2),1))</f>
-        <v>96.792247666792676</v>
-      </c>
-      <c r="L23">
-        <f>IF('cantidad pollos muertos'!H22="","",GAMMAINV(0.025,'cantidad pollos muertos'!H22+(1/2),1))</f>
-        <v>77.310424850812296</v>
-      </c>
-      <c r="M23">
-        <f>IF('cantidad pollos muertos'!H22="","",GAMMAINV(0.975,'cantidad pollos muertos'!H22+(1/2),1))</f>
-        <v>115.58244950407959</v>
-      </c>
-      <c r="N23">
-        <f>IF('cantidad pollos muertos'!I22="","",GAMMAINV(0.025,'cantidad pollos muertos'!I22+(1/2),1))</f>
-        <v>25.632406636710915</v>
-      </c>
-      <c r="O23">
-        <f>IF('cantidad pollos muertos'!I22="","",GAMMAINV(0.975,'cantidad pollos muertos'!I22+(1/2),1))</f>
-        <v>49.258131005783902</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>38</v>
-      </c>
-      <c r="B24">
-        <f>IF('cantidad pollos muertos'!C23="","",GAMMAINV(0.025,'cantidad pollos muertos'!C23+(1/2),1))</f>
-        <v>58.548991431160559</v>
-      </c>
-      <c r="C24">
-        <f>IF('cantidad pollos muertos'!C23="","",GAMMAINV(0.975,'cantidad pollos muertos'!C23+(1/2),1))</f>
-        <v>92.343477467217241</v>
-      </c>
-      <c r="D24">
-        <f>IF('cantidad pollos muertos'!D23="","",GAMMAINV(0.025,'cantidad pollos muertos'!D23+(1/2),1))</f>
-        <v>180.22574302985143</v>
-      </c>
-      <c r="E24">
-        <f>IF('cantidad pollos muertos'!D23="","",GAMMAINV(0.975,'cantidad pollos muertos'!D23+(1/2),1))</f>
-        <v>236.66790533559694</v>
-      </c>
-      <c r="F24">
-        <f>IF('cantidad pollos muertos'!E23="","",GAMMAINV(0.025,'cantidad pollos muertos'!E23+(1/2),1))</f>
-        <v>96.307567312785139</v>
-      </c>
-      <c r="G24">
-        <f>IF('cantidad pollos muertos'!E23="","",GAMMAINV(0.975,'cantidad pollos muertos'!E23+(1/2),1))</f>
-        <v>138.5855658778643</v>
-      </c>
-      <c r="H24">
-        <f>IF('cantidad pollos muertos'!F23="","",GAMMAINV(0.025,'cantidad pollos muertos'!F23+(1/2),1))</f>
-        <v>266.53758456086342</v>
-      </c>
-      <c r="I24">
-        <f>IF('cantidad pollos muertos'!F23="","",GAMMAINV(0.975,'cantidad pollos muertos'!F23+(1/2),1))</f>
-        <v>334.35626602057096</v>
-      </c>
-      <c r="J24">
-        <f>IF('cantidad pollos muertos'!G23="","",GAMMAINV(0.025,'cantidad pollos muertos'!G23+(1/2),1))</f>
-        <v>108.15770207238351</v>
-      </c>
-      <c r="K24">
-        <f>IF('cantidad pollos muertos'!G23="","",GAMMAINV(0.975,'cantidad pollos muertos'!G23+(1/2),1))</f>
-        <v>152.73554916538322</v>
-      </c>
-      <c r="L24">
-        <f>IF('cantidad pollos muertos'!H23="","",GAMMAINV(0.025,'cantidad pollos muertos'!H23+(1/2),1))</f>
-        <v>94.490068117969813</v>
-      </c>
-      <c r="M24">
-        <f>IF('cantidad pollos muertos'!H23="","",GAMMAINV(0.975,'cantidad pollos muertos'!H23+(1/2),1))</f>
-        <v>136.40304452497662</v>
-      </c>
-      <c r="N24">
-        <f>IF('cantidad pollos muertos'!I23="","",GAMMAINV(0.025,'cantidad pollos muertos'!I23+(1/2),1))</f>
-        <v>94.490068117969813</v>
-      </c>
-      <c r="O24">
-        <f>IF('cantidad pollos muertos'!I23="","",GAMMAINV(0.975,'cantidad pollos muertos'!I23+(1/2),1))</f>
-        <v>136.40304452497662</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>14</v>
-      </c>
-      <c r="B25">
-        <f>IF('cantidad pollos muertos'!C24="","",GAMMAINV(0.025,'cantidad pollos muertos'!C24+(1/2),1))</f>
-        <v>35.820758132639803</v>
-      </c>
-      <c r="C25">
-        <f>IF('cantidad pollos muertos'!C24="","",GAMMAINV(0.975,'cantidad pollos muertos'!C24+(1/2),1))</f>
-        <v>63.070718720047985</v>
-      </c>
-      <c r="D25">
-        <f>IF('cantidad pollos muertos'!D24="","",GAMMAINV(0.025,'cantidad pollos muertos'!D24+(1/2),1))</f>
-        <v>23.13051713198502</v>
-      </c>
-      <c r="E25">
-        <f>IF('cantidad pollos muertos'!D24="","",GAMMAINV(0.975,'cantidad pollos muertos'!D24+(1/2),1))</f>
-        <v>45.759679456144767</v>
-      </c>
-      <c r="F25">
-        <f>IF('cantidad pollos muertos'!E24="","",GAMMAINV(0.025,'cantidad pollos muertos'!E24+(1/2),1))</f>
-        <v>59.435713143054343</v>
-      </c>
-      <c r="G25">
-        <f>IF('cantidad pollos muertos'!E24="","",GAMMAINV(0.975,'cantidad pollos muertos'!E24+(1/2),1))</f>
-        <v>93.456780201514249</v>
-      </c>
-      <c r="H25">
-        <f>IF('cantidad pollos muertos'!F24="","",GAMMAINV(0.025,'cantidad pollos muertos'!F24+(1/2),1))</f>
-        <v>79.110737552732772</v>
-      </c>
-      <c r="I25">
-        <f>IF('cantidad pollos muertos'!F24="","",GAMMAINV(0.975,'cantidad pollos muertos'!F24+(1/2),1))</f>
-        <v>117.78216627457212</v>
-      </c>
-      <c r="J25">
-        <f>IF('cantidad pollos muertos'!G24="","",GAMMAINV(0.025,'cantidad pollos muertos'!G24+(1/2),1))</f>
-        <v>67.448256305265616</v>
-      </c>
-      <c r="K25">
-        <f>IF('cantidad pollos muertos'!G24="","",GAMMAINV(0.975,'cantidad pollos muertos'!G24+(1/2),1))</f>
-        <v>103.44443090775799</v>
-      </c>
-      <c r="L25">
-        <f>IF('cantidad pollos muertos'!H24="","",GAMMAINV(0.025,'cantidad pollos muertos'!H24+(1/2),1))</f>
-        <v>76.411053894249775</v>
-      </c>
-      <c r="M25">
-        <f>IF('cantidad pollos muertos'!H24="","",GAMMAINV(0.975,'cantidad pollos muertos'!H24+(1/2),1))</f>
-        <v>114.48180525485184</v>
-      </c>
-      <c r="N25">
-        <f>IF('cantidad pollos muertos'!I24="","",GAMMAINV(0.025,'cantidad pollos muertos'!I24+(1/2),1))</f>
-        <v>29.845876516766921</v>
-      </c>
-      <c r="O25">
-        <f>IF('cantidad pollos muertos'!I24="","",GAMMAINV(0.975,'cantidad pollos muertos'!I24+(1/2),1))</f>
-        <v>55.045119037444387</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>36</v>
-      </c>
-      <c r="B26">
-        <f>IF('cantidad pollos muertos'!C25="","",GAMMAINV(0.025,'cantidad pollos muertos'!C25+(1/2),1))</f>
-        <v>400.31928364210245</v>
-      </c>
-      <c r="C26">
-        <f>IF('cantidad pollos muertos'!C25="","",GAMMAINV(0.975,'cantidad pollos muertos'!C25+(1/2),1))</f>
-        <v>482.57471279482775</v>
-      </c>
-      <c r="D26">
-        <f>IF('cantidad pollos muertos'!D25="","",GAMMAINV(0.025,'cantidad pollos muertos'!D25+(1/2),1))</f>
-        <v>1403.1139704312056</v>
-      </c>
-      <c r="E26">
-        <f>IF('cantidad pollos muertos'!D25="","",GAMMAINV(0.975,'cantidad pollos muertos'!D25+(1/2),1))</f>
-        <v>1553.7802432447843</v>
-      </c>
-      <c r="F26">
-        <f>IF('cantidad pollos muertos'!E25="","",GAMMAINV(0.025,'cantidad pollos muertos'!E25+(1/2),1))</f>
-        <v>613.96800412404264</v>
-      </c>
-      <c r="G26">
-        <f>IF('cantidad pollos muertos'!E25="","",GAMMAINV(0.975,'cantidad pollos muertos'!E25+(1/2),1))</f>
-        <v>714.92609637189594</v>
-      </c>
-      <c r="H26">
-        <f>IF('cantidad pollos muertos'!F25="","",GAMMAINV(0.025,'cantidad pollos muertos'!F25+(1/2),1))</f>
-        <v>1456.7244803313497</v>
-      </c>
-      <c r="I26">
-        <f>IF('cantidad pollos muertos'!F25="","",GAMMAINV(0.975,'cantidad pollos muertos'!F25+(1/2),1))</f>
-        <v>1610.1697366545463</v>
-      </c>
-      <c r="J26">
-        <f>IF('cantidad pollos muertos'!G25="","",GAMMAINV(0.025,'cantidad pollos muertos'!G25+(1/2),1))</f>
-        <v>312.86725266441226</v>
-      </c>
-      <c r="K26">
-        <f>IF('cantidad pollos muertos'!G25="","",GAMMAINV(0.975,'cantidad pollos muertos'!G25+(1/2),1))</f>
-        <v>386.02666199901944</v>
-      </c>
-      <c r="L26">
-        <f>IF('cantidad pollos muertos'!H25="","",GAMMAINV(0.025,'cantidad pollos muertos'!H25+(1/2),1))</f>
-        <v>516.96965233938352</v>
-      </c>
-      <c r="M26">
-        <f>IF('cantidad pollos muertos'!H25="","",GAMMAINV(0.975,'cantidad pollos muertos'!H25+(1/2),1))</f>
-        <v>609.92441125514006</v>
-      </c>
-      <c r="N26">
-        <f>IF('cantidad pollos muertos'!I25="","",GAMMAINV(0.025,'cantidad pollos muertos'!I25+(1/2),1))</f>
-        <v>354.62560721962421</v>
-      </c>
-      <c r="O26">
-        <f>IF('cantidad pollos muertos'!I25="","",GAMMAINV(0.975,'cantidad pollos muertos'!I25+(1/2),1))</f>
-        <v>432.26835133999811</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27">
-        <f>IF('cantidad pollos muertos'!C26="","",GAMMAINV(0.025,'cantidad pollos muertos'!C26+(1/2),1))</f>
-        <v>70.13092837414608</v>
-      </c>
-      <c r="C27">
-        <f>IF('cantidad pollos muertos'!C26="","",GAMMAINV(0.975,'cantidad pollos muertos'!C26+(1/2),1))</f>
-        <v>106.76181456300202</v>
-      </c>
-      <c r="D27">
-        <f>IF('cantidad pollos muertos'!D26="","",GAMMAINV(0.025,'cantidad pollos muertos'!D26+(1/2),1))</f>
-        <v>55.893475743516525</v>
-      </c>
-      <c r="E27">
-        <f>IF('cantidad pollos muertos'!D26="","",GAMMAINV(0.975,'cantidad pollos muertos'!D26+(1/2),1))</f>
-        <v>88.998915692959812</v>
-      </c>
-      <c r="F27">
-        <f>IF('cantidad pollos muertos'!E26="","",GAMMAINV(0.025,'cantidad pollos muertos'!E26+(1/2),1))</f>
-        <v>232.64200542759227</v>
-      </c>
-      <c r="G27">
-        <f>IF('cantidad pollos muertos'!E26="","",GAMMAINV(0.975,'cantidad pollos muertos'!E26+(1/2),1))</f>
-        <v>296.25178286525528</v>
-      </c>
-      <c r="H27">
-        <f>IF('cantidad pollos muertos'!F26="","",GAMMAINV(0.025,'cantidad pollos muertos'!F26+(1/2),1))</f>
-        <v>102.68086028845509</v>
-      </c>
-      <c r="I27">
-        <f>IF('cantidad pollos muertos'!F26="","",GAMMAINV(0.975,'cantidad pollos muertos'!F26+(1/2),1))</f>
-        <v>146.21233956308285</v>
-      </c>
-      <c r="J27">
-        <f>IF('cantidad pollos muertos'!G26="","",GAMMAINV(0.025,'cantidad pollos muertos'!G26+(1/2),1))</f>
-        <v>137.55250324716494</v>
-      </c>
-      <c r="K27">
-        <f>IF('cantidad pollos muertos'!G26="","",GAMMAINV(0.975,'cantidad pollos muertos'!G26+(1/2),1))</f>
-        <v>187.3409574231587</v>
-      </c>
-      <c r="L27">
-        <f>IF('cantidad pollos muertos'!H26="","",GAMMAINV(0.025,'cantidad pollos muertos'!H26+(1/2),1))</f>
-        <v>6.5598600124688922</v>
-      </c>
-      <c r="M27">
-        <f>IF('cantidad pollos muertos'!H26="","",GAMMAINV(0.975,'cantidad pollos muertos'!H26+(1/2),1))</f>
-        <v>20.3232345601376</v>
-      </c>
-      <c r="N27">
-        <f>IF('cantidad pollos muertos'!I26="","",GAMMAINV(0.025,'cantidad pollos muertos'!I26+(1/2),1))</f>
-        <v>26.470969885266424</v>
-      </c>
-      <c r="O27">
-        <f>IF('cantidad pollos muertos'!I26="","",GAMMAINV(0.975,'cantidad pollos muertos'!I26+(1/2),1))</f>
-        <v>50.419669200906682</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>39</v>
-      </c>
-      <c r="B28">
-        <f>IF('cantidad pollos muertos'!C27="","",GAMMAINV(0.025,'cantidad pollos muertos'!C27+(1/2),1))</f>
-        <v>41.867513849812639</v>
-      </c>
-      <c r="C28">
-        <f>IF('cantidad pollos muertos'!C27="","",GAMMAINV(0.975,'cantidad pollos muertos'!C27+(1/2),1))</f>
-        <v>71.024322115123894</v>
-      </c>
-      <c r="D28">
-        <f>IF('cantidad pollos muertos'!D27="","",GAMMAINV(0.025,'cantidad pollos muertos'!D27+(1/2),1))</f>
-        <v>89.047363315798918</v>
-      </c>
-      <c r="E28">
-        <f>IF('cantidad pollos muertos'!D27="","",GAMMAINV(0.975,'cantidad pollos muertos'!D27+(1/2),1))</f>
-        <v>129.84568312395754</v>
-      </c>
-      <c r="F28">
-        <f>IF('cantidad pollos muertos'!E27="","",GAMMAINV(0.025,'cantidad pollos muertos'!E27+(1/2),1))</f>
-        <v>74.613924725044839</v>
-      </c>
-      <c r="G28">
-        <f>IF('cantidad pollos muertos'!E27="","",GAMMAINV(0.975,'cantidad pollos muertos'!E27+(1/2),1))</f>
-        <v>112.27890302234732</v>
-      </c>
-      <c r="H28">
-        <f>IF('cantidad pollos muertos'!F27="","",GAMMAINV(0.025,'cantidad pollos muertos'!F27+(1/2),1))</f>
-        <v>313.81478281302623</v>
-      </c>
-      <c r="I28">
-        <f>IF('cantidad pollos muertos'!F27="","",GAMMAINV(0.975,'cantidad pollos muertos'!F27+(1/2),1))</f>
-        <v>387.07913297091449</v>
-      </c>
-      <c r="J28">
-        <f>IF('cantidad pollos muertos'!G27="","",GAMMAINV(0.025,'cantidad pollos muertos'!G27+(1/2),1))</f>
-        <v>59.435713143054343</v>
-      </c>
-      <c r="K28">
-        <f>IF('cantidad pollos muertos'!G27="","",GAMMAINV(0.975,'cantidad pollos muertos'!G27+(1/2),1))</f>
-        <v>93.456780201514249</v>
-      </c>
-      <c r="L28">
-        <f>IF('cantidad pollos muertos'!H27="","",GAMMAINV(0.025,'cantidad pollos muertos'!H27+(1/2),1))</f>
-        <v>74.613924725044839</v>
-      </c>
-      <c r="M28">
-        <f>IF('cantidad pollos muertos'!H27="","",GAMMAINV(0.975,'cantidad pollos muertos'!H27+(1/2),1))</f>
-        <v>112.27890302234732</v>
-      </c>
-      <c r="N28">
-        <f>IF('cantidad pollos muertos'!I27="","",GAMMAINV(0.025,'cantidad pollos muertos'!I27+(1/2),1))</f>
-        <v>74.613924725044839</v>
-      </c>
-      <c r="O28">
-        <f>IF('cantidad pollos muertos'!I27="","",GAMMAINV(0.975,'cantidad pollos muertos'!I27+(1/2),1))</f>
-        <v>112.27890302234732</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29">
-        <f>IF('cantidad pollos muertos'!C28="","",GAMMAINV(0.025,'cantidad pollos muertos'!C28+(1/2),1))</f>
-        <v>102.68086028845509</v>
-      </c>
-      <c r="C29">
-        <f>IF('cantidad pollos muertos'!C28="","",GAMMAINV(0.975,'cantidad pollos muertos'!C28+(1/2),1))</f>
-        <v>146.21233956308285</v>
-      </c>
-      <c r="D29">
-        <f>IF('cantidad pollos muertos'!D28="","",GAMMAINV(0.025,'cantidad pollos muertos'!D28+(1/2),1))</f>
-        <v>421.30437891522735</v>
-      </c>
-      <c r="E29">
-        <f>IF('cantidad pollos muertos'!D28="","",GAMMAINV(0.975,'cantidad pollos muertos'!D28+(1/2),1))</f>
-        <v>505.58963225257719</v>
-      </c>
-      <c r="F29">
-        <f>IF('cantidad pollos muertos'!E28="","",GAMMAINV(0.025,'cantidad pollos muertos'!E28+(1/2),1))</f>
-        <v>491.09917647614657</v>
-      </c>
-      <c r="G29">
-        <f>IF('cantidad pollos muertos'!E28="","",GAMMAINV(0.975,'cantidad pollos muertos'!E28+(1/2),1))</f>
-        <v>581.7948748941086</v>
-      </c>
-      <c r="H29">
-        <f>IF('cantidad pollos muertos'!F28="","",GAMMAINV(0.025,'cantidad pollos muertos'!F28+(1/2),1))</f>
-        <v>360.32987981559398</v>
-      </c>
-      <c r="I29">
-        <f>IF('cantidad pollos muertos'!F28="","",GAMMAINV(0.975,'cantidad pollos muertos'!F28+(1/2),1))</f>
-        <v>438.56408397815102</v>
-      </c>
-      <c r="J29">
-        <f>IF('cantidad pollos muertos'!G28="","",GAMMAINV(0.025,'cantidad pollos muertos'!G28+(1/2),1))</f>
-        <v>106.33071319944781</v>
-      </c>
-      <c r="K29">
-        <f>IF('cantidad pollos muertos'!G28="","",GAMMAINV(0.975,'cantidad pollos muertos'!G28+(1/2),1))</f>
-        <v>150.56252144845442</v>
-      </c>
-      <c r="L29">
-        <f>IF('cantidad pollos muertos'!H28="","",GAMMAINV(0.025,'cantidad pollos muertos'!H28+(1/2),1))</f>
-        <v>40.999841622666459</v>
-      </c>
-      <c r="M29">
-        <f>IF('cantidad pollos muertos'!H28="","",GAMMAINV(0.975,'cantidad pollos muertos'!H28+(1/2),1))</f>
-        <v>69.891948725310272</v>
-      </c>
-      <c r="N29">
-        <f>IF('cantidad pollos muertos'!I28="","",GAMMAINV(0.025,'cantidad pollos muertos'!I28+(1/2),1))</f>
-        <v>58.548991431160559</v>
-      </c>
-      <c r="O29">
-        <f>IF('cantidad pollos muertos'!I28="","",GAMMAINV(0.975,'cantidad pollos muertos'!I28+(1/2),1))</f>
-        <v>92.343477467217241</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>21</v>
-      </c>
-      <c r="B30">
-        <f>IF('cantidad pollos muertos'!C29="","",GAMMAINV(0.025,'cantidad pollos muertos'!C29+(1/2),1))</f>
-        <v>86.331799395886435</v>
-      </c>
-      <c r="C30">
-        <f>IF('cantidad pollos muertos'!C29="","",GAMMAINV(0.975,'cantidad pollos muertos'!C29+(1/2),1))</f>
-        <v>126.56121110888003</v>
-      </c>
-      <c r="D30">
-        <f>IF('cantidad pollos muertos'!D29="","",GAMMAINV(0.025,'cantidad pollos muertos'!D29+(1/2),1))</f>
-        <v>348.92360468551533</v>
-      </c>
-      <c r="E30">
-        <f>IF('cantidad pollos muertos'!D29="","",GAMMAINV(0.975,'cantidad pollos muertos'!D29+(1/2),1))</f>
-        <v>425.9703484773255</v>
-      </c>
-      <c r="F30">
-        <f>IF('cantidad pollos muertos'!E29="","",GAMMAINV(0.025,'cantidad pollos muertos'!E29+(1/2),1))</f>
-        <v>143.09381158067083</v>
-      </c>
-      <c r="G30">
-        <f>IF('cantidad pollos muertos'!E29="","",GAMMAINV(0.975,'cantidad pollos muertos'!E29+(1/2),1))</f>
-        <v>193.79967943054982</v>
-      </c>
-      <c r="H30">
-        <f>IF('cantidad pollos muertos'!F29="","",GAMMAINV(0.025,'cantidad pollos muertos'!F29+(1/2),1))</f>
-        <v>95.398619937676514</v>
-      </c>
-      <c r="I30">
-        <f>IF('cantidad pollos muertos'!F29="","",GAMMAINV(0.975,'cantidad pollos muertos'!F29+(1/2),1))</f>
-        <v>137.49450306834768</v>
-      </c>
-      <c r="J30">
-        <f>IF('cantidad pollos muertos'!G29="","",GAMMAINV(0.025,'cantidad pollos muertos'!G29+(1/2),1))</f>
-        <v>43.606396503709874</v>
-      </c>
-      <c r="K30">
-        <f>IF('cantidad pollos muertos'!G29="","",GAMMAINV(0.975,'cantidad pollos muertos'!G29+(1/2),1))</f>
-        <v>73.285525905634486</v>
-      </c>
-      <c r="L30">
-        <f>IF('cantidad pollos muertos'!H29="","",GAMMAINV(0.025,'cantidad pollos muertos'!H29+(1/2),1))</f>
-        <v>48.849242700029897</v>
-      </c>
-      <c r="M30">
-        <f>IF('cantidad pollos muertos'!H29="","",GAMMAINV(0.975,'cantidad pollos muertos'!H29+(1/2),1))</f>
-        <v>80.042906187400447</v>
-      </c>
-      <c r="N30">
-        <f>IF('cantidad pollos muertos'!I29="","",GAMMAINV(0.025,'cantidad pollos muertos'!I29+(1/2),1))</f>
-        <v>36.680540095641831</v>
-      </c>
-      <c r="O30">
-        <f>IF('cantidad pollos muertos'!I29="","",GAMMAINV(0.975,'cantidad pollos muertos'!I29+(1/2),1))</f>
-        <v>64.210994321920154</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>0</v>
-      </c>
-      <c r="B31">
-        <f>IF('cantidad pollos muertos'!C30="","",GAMMAINV(0.025,'cantidad pollos muertos'!C30+(1/2),1))</f>
-        <v>473.86808923842597</v>
-      </c>
-      <c r="C31">
-        <f>IF('cantidad pollos muertos'!C30="","",GAMMAINV(0.975,'cantidad pollos muertos'!C30+(1/2),1))</f>
-        <v>563.0259532731734</v>
-      </c>
-      <c r="D31">
-        <f>IF('cantidad pollos muertos'!D30="","",GAMMAINV(0.025,'cantidad pollos muertos'!D30+(1/2),1))</f>
-        <v>271.25554599892587</v>
-      </c>
-      <c r="E31">
-        <f>IF('cantidad pollos muertos'!D30="","",GAMMAINV(0.975,'cantidad pollos muertos'!D30+(1/2),1))</f>
-        <v>339.63831206747551</v>
-      </c>
-      <c r="F31">
-        <f>IF('cantidad pollos muertos'!E30="","",GAMMAINV(0.025,'cantidad pollos muertos'!E30+(1/2),1))</f>
-        <v>366.03637137290895</v>
-      </c>
-      <c r="G31">
-        <f>IF('cantidad pollos muertos'!E30="","",GAMMAINV(0.975,'cantidad pollos muertos'!E30+(1/2),1))</f>
-        <v>444.85759749954457</v>
-      </c>
-      <c r="H31">
-        <f>IF('cantidad pollos muertos'!F30="","",GAMMAINV(0.025,'cantidad pollos muertos'!F30+(1/2),1))</f>
-        <v>162.54991785519817</v>
-      </c>
-      <c r="I31">
-        <f>IF('cantidad pollos muertos'!F30="","",GAMMAINV(0.975,'cantidad pollos muertos'!F30+(1/2),1))</f>
-        <v>216.34366410962483</v>
-      </c>
-      <c r="J31">
-        <f>IF('cantidad pollos muertos'!G30="","",GAMMAINV(0.025,'cantidad pollos muertos'!G30+(1/2),1))</f>
-        <v>163.47860352006961</v>
-      </c>
-      <c r="K31">
-        <f>IF('cantidad pollos muertos'!G30="","",GAMMAINV(0.975,'cantidad pollos muertos'!G30+(1/2),1))</f>
-        <v>217.41498227210667</v>
-      </c>
-      <c r="L31">
-        <f>IF('cantidad pollos muertos'!H30="","",GAMMAINV(0.025,'cantidad pollos muertos'!H30+(1/2),1))</f>
-        <v>123.73802262051886</v>
-      </c>
-      <c r="M31">
-        <f>IF('cantidad pollos muertos'!H30="","",GAMMAINV(0.975,'cantidad pollos muertos'!H30+(1/2),1))</f>
-        <v>171.15535129800489</v>
-      </c>
-      <c r="N31">
-        <f>IF('cantidad pollos muertos'!I30="","",GAMMAINV(0.025,'cantidad pollos muertos'!I30+(1/2),1))</f>
-        <v>89.953428450881972</v>
-      </c>
-      <c r="O31">
-        <f>IF('cantidad pollos muertos'!I30="","",GAMMAINV(0.975,'cantidad pollos muertos'!I30+(1/2),1))</f>
-        <v>130.93962952821263</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>31</v>
-      </c>
-      <c r="B32">
-        <f>IF('cantidad pollos muertos'!C31="","",GAMMAINV(0.025,'cantidad pollos muertos'!C31+(1/2),1))</f>
-        <v>57.663034081546456</v>
-      </c>
-      <c r="C32">
-        <f>IF('cantidad pollos muertos'!C31="","",GAMMAINV(0.975,'cantidad pollos muertos'!C31+(1/2),1))</f>
-        <v>91.229409702209395</v>
-      </c>
-      <c r="D32">
-        <f>IF('cantidad pollos muertos'!D31="","",GAMMAINV(0.025,'cantidad pollos muertos'!D31+(1/2),1))</f>
-        <v>19.83092967575783</v>
-      </c>
-      <c r="E32">
-        <f>IF('cantidad pollos muertos'!D31="","",GAMMAINV(0.975,'cantidad pollos muertos'!D31+(1/2),1))</f>
-        <v>41.058702970119143</v>
-      </c>
-      <c r="F32">
-        <f>IF('cantidad pollos muertos'!E31="","",GAMMAINV(0.025,'cantidad pollos muertos'!E31+(1/2),1))</f>
-        <v>183.95480974406874</v>
-      </c>
-      <c r="G32">
-        <f>IF('cantidad pollos muertos'!E31="","",GAMMAINV(0.975,'cantidad pollos muertos'!E31+(1/2),1))</f>
-        <v>240.93885107770447</v>
-      </c>
-      <c r="H32">
-        <f>IF('cantidad pollos muertos'!F31="","",GAMMAINV(0.025,'cantidad pollos muertos'!F31+(1/2),1))</f>
-        <v>238.28170622120132</v>
-      </c>
-      <c r="I32">
-        <f>IF('cantidad pollos muertos'!F31="","",GAMMAINV(0.975,'cantidad pollos muertos'!F31+(1/2),1))</f>
-        <v>302.61209361024419</v>
-      </c>
-      <c r="J32">
-        <f>IF('cantidad pollos muertos'!G31="","",GAMMAINV(0.025,'cantidad pollos muertos'!G31+(1/2),1))</f>
-        <v>122.81917195302653</v>
-      </c>
-      <c r="K32">
-        <f>IF('cantidad pollos muertos'!G31="","",GAMMAINV(0.975,'cantidad pollos muertos'!G31+(1/2),1))</f>
-        <v>170.07419554450007</v>
-      </c>
-      <c r="L32">
-        <f>IF('cantidad pollos muertos'!H31="","",GAMMAINV(0.025,'cantidad pollos muertos'!H31+(1/2),1))</f>
-        <v>55.009907778178558</v>
-      </c>
-      <c r="M32">
-        <f>IF('cantidad pollos muertos'!H31="","",GAMMAINV(0.975,'cantidad pollos muertos'!H31+(1/2),1))</f>
-        <v>87.882456365251016</v>
-      </c>
-      <c r="N32">
-        <f>IF('cantidad pollos muertos'!I31="","",GAMMAINV(0.025,'cantidad pollos muertos'!I31+(1/2),1))</f>
-        <v>78.210322127740184</v>
-      </c>
-      <c r="O32">
-        <f>IF('cantidad pollos muertos'!I31="","",GAMMAINV(0.975,'cantidad pollos muertos'!I31+(1/2),1))</f>
-        <v>116.68256711663008</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>32</v>
-      </c>
-      <c r="B33">
-        <f>IF('cantidad pollos muertos'!C32="","",GAMMAINV(0.025,'cantidad pollos muertos'!C32+(1/2),1))</f>
-        <v>136.62977603290807</v>
-      </c>
-      <c r="C33">
-        <f>IF('cantidad pollos muertos'!C32="","",GAMMAINV(0.975,'cantidad pollos muertos'!C32+(1/2),1))</f>
-        <v>186.26367935956154</v>
-      </c>
-      <c r="D33">
-        <f>IF('cantidad pollos muertos'!D32="","",GAMMAINV(0.025,'cantidad pollos muertos'!D32+(1/2),1))</f>
-        <v>250.51457758582322</v>
-      </c>
-      <c r="E33">
-        <f>IF('cantidad pollos muertos'!D32="","",GAMMAINV(0.975,'cantidad pollos muertos'!D32+(1/2),1))</f>
-        <v>316.37924556235248</v>
-      </c>
-      <c r="F33">
-        <f>IF('cantidad pollos muertos'!E32="","",GAMMAINV(0.025,'cantidad pollos muertos'!E32+(1/2),1))</f>
-        <v>190.48677466209961</v>
-      </c>
-      <c r="G33">
-        <f>IF('cantidad pollos muertos'!E32="","",GAMMAINV(0.975,'cantidad pollos muertos'!E32+(1/2),1))</f>
-        <v>248.40690685903488</v>
-      </c>
-      <c r="H33">
-        <f>IF('cantidad pollos muertos'!F32="","",GAMMAINV(0.025,'cantidad pollos muertos'!F32+(1/2),1))</f>
-        <v>460.47542715905729</v>
-      </c>
-      <c r="I33">
-        <f>IF('cantidad pollos muertos'!F32="","",GAMMAINV(0.975,'cantidad pollos muertos'!F32+(1/2),1))</f>
-        <v>548.41860802426629</v>
-      </c>
-      <c r="J33">
-        <f>IF('cantidad pollos muertos'!G32="","",GAMMAINV(0.025,'cantidad pollos muertos'!G32+(1/2),1))</f>
-        <v>97.216905154744765</v>
-      </c>
-      <c r="K33">
-        <f>IF('cantidad pollos muertos'!G32="","",GAMMAINV(0.975,'cantidad pollos muertos'!G32+(1/2),1))</f>
-        <v>139.67623804664751</v>
-      </c>
-      <c r="L33">
-        <f>IF('cantidad pollos muertos'!H32="","",GAMMAINV(0.025,'cantidad pollos muertos'!H32+(1/2),1))</f>
-        <v>48.849242700029897</v>
-      </c>
-      <c r="M33">
-        <f>IF('cantidad pollos muertos'!H32="","",GAMMAINV(0.975,'cantidad pollos muertos'!H32+(1/2),1))</f>
-        <v>80.042906187400447</v>
-      </c>
-      <c r="N33">
-        <f>IF('cantidad pollos muertos'!I32="","",GAMMAINV(0.025,'cantidad pollos muertos'!I32+(1/2),1))</f>
-        <v>57.663034081546456</v>
-      </c>
-      <c r="O33">
-        <f>IF('cantidad pollos muertos'!I32="","",GAMMAINV(0.975,'cantidad pollos muertos'!I32+(1/2),1))</f>
-        <v>91.229409702209395</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>13</v>
-      </c>
-      <c r="B34">
-        <f>IF('cantidad pollos muertos'!C33="","",GAMMAINV(0.025,'cantidad pollos muertos'!C33+(1/2),1))</f>
-        <v>47.097478066231957</v>
-      </c>
-      <c r="C34">
-        <f>IF('cantidad pollos muertos'!C33="","",GAMMAINV(0.975,'cantidad pollos muertos'!C33+(1/2),1))</f>
-        <v>77.794600267046718</v>
-      </c>
-      <c r="D34">
-        <f>IF('cantidad pollos muertos'!D33="","",GAMMAINV(0.025,'cantidad pollos muertos'!D33+(1/2),1))</f>
-        <v>141.24578120708773</v>
-      </c>
-      <c r="E34">
-        <f>IF('cantidad pollos muertos'!D33="","",GAMMAINV(0.975,'cantidad pollos muertos'!D33+(1/2),1))</f>
-        <v>191.6476999354669</v>
-      </c>
-      <c r="F34">
-        <f>IF('cantidad pollos muertos'!E33="","",GAMMAINV(0.025,'cantidad pollos muertos'!E33+(1/2),1))</f>
-        <v>133.86305156440224</v>
-      </c>
-      <c r="G34">
-        <f>IF('cantidad pollos muertos'!E33="","",GAMMAINV(0.975,'cantidad pollos muertos'!E33+(1/2),1))</f>
-        <v>183.03038759147029</v>
-      </c>
-      <c r="H34">
-        <f>IF('cantidad pollos muertos'!F33="","",GAMMAINV(0.025,'cantidad pollos muertos'!F33+(1/2),1))</f>
-        <v>54.127170276499882</v>
-      </c>
-      <c r="I34">
-        <f>IF('cantidad pollos muertos'!F33="","",GAMMAINV(0.975,'cantidad pollos muertos'!F33+(1/2),1))</f>
-        <v>86.765165784440967</v>
-      </c>
-      <c r="J34">
-        <f>IF('cantidad pollos muertos'!G33="","",GAMMAINV(0.025,'cantidad pollos muertos'!G33+(1/2),1))</f>
-        <v>96.307567312785139</v>
-      </c>
-      <c r="K34">
-        <f>IF('cantidad pollos muertos'!G33="","",GAMMAINV(0.975,'cantidad pollos muertos'!G33+(1/2),1))</f>
-        <v>138.5855658778643</v>
-      </c>
-      <c r="L34">
-        <f>IF('cantidad pollos muertos'!H33="","",GAMMAINV(0.025,'cantidad pollos muertos'!H33+(1/2),1))</f>
-        <v>26.470969885266424</v>
-      </c>
-      <c r="M34">
-        <f>IF('cantidad pollos muertos'!H33="","",GAMMAINV(0.975,'cantidad pollos muertos'!H33+(1/2),1))</f>
-        <v>50.419669200906682</v>
-      </c>
-      <c r="N34">
-        <f>IF('cantidad pollos muertos'!I33="","",GAMMAINV(0.025,'cantidad pollos muertos'!I33+(1/2),1))</f>
-        <v>6.5598600124688922</v>
-      </c>
-      <c r="O34">
-        <f>IF('cantidad pollos muertos'!I33="","",GAMMAINV(0.975,'cantidad pollos muertos'!I33+(1/2),1))</f>
-        <v>20.3232345601376</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>18</v>
-      </c>
-      <c r="B35">
-        <f>IF('cantidad pollos muertos'!C34="","",GAMMAINV(0.025,'cantidad pollos muertos'!C34+(1/2),1))</f>
-        <v>108.15770207238351</v>
-      </c>
-      <c r="C35">
-        <f>IF('cantidad pollos muertos'!C34="","",GAMMAINV(0.975,'cantidad pollos muertos'!C34+(1/2),1))</f>
-        <v>152.73554916538322</v>
-      </c>
-      <c r="D35">
-        <f>IF('cantidad pollos muertos'!D34="","",GAMMAINV(0.025,'cantidad pollos muertos'!D34+(1/2),1))</f>
-        <v>121.90060093266091</v>
-      </c>
-      <c r="E35">
-        <f>IF('cantidad pollos muertos'!D34="","",GAMMAINV(0.975,'cantidad pollos muertos'!D34+(1/2),1))</f>
-        <v>168.99276005477674</v>
-      </c>
-      <c r="F35">
-        <f>IF('cantidad pollos muertos'!E34="","",GAMMAINV(0.025,'cantidad pollos muertos'!E34+(1/2),1))</f>
-        <v>141.24578120708773</v>
-      </c>
-      <c r="G35">
-        <f>IF('cantidad pollos muertos'!E34="","",GAMMAINV(0.975,'cantidad pollos muertos'!E34+(1/2),1))</f>
-        <v>191.6476999354669</v>
-      </c>
-      <c r="H35">
-        <f>IF('cantidad pollos muertos'!F34="","",GAMMAINV(0.025,'cantidad pollos muertos'!F34+(1/2),1))</f>
-        <v>271.25554599892587</v>
-      </c>
-      <c r="I35">
-        <f>IF('cantidad pollos muertos'!F34="","",GAMMAINV(0.975,'cantidad pollos muertos'!F34+(1/2),1))</f>
-        <v>339.63831206747551</v>
-      </c>
-      <c r="J35">
-        <f>IF('cantidad pollos muertos'!G34="","",GAMMAINV(0.025,'cantidad pollos muertos'!G34+(1/2),1))</f>
-        <v>171.84506423059591</v>
-      </c>
-      <c r="K35">
-        <f>IF('cantidad pollos muertos'!G34="","",GAMMAINV(0.975,'cantidad pollos muertos'!G34+(1/2),1))</f>
-        <v>227.04855426931005</v>
-      </c>
-      <c r="L35">
-        <f>IF('cantidad pollos muertos'!H34="","",GAMMAINV(0.025,'cantidad pollos muertos'!H34+(1/2),1))</f>
-        <v>140.32211069619123</v>
-      </c>
-      <c r="M35">
-        <f>IF('cantidad pollos muertos'!H34="","",GAMMAINV(0.975,'cantidad pollos muertos'!H34+(1/2),1))</f>
-        <v>190.57136542184699</v>
-      </c>
-      <c r="N35">
-        <f>IF('cantidad pollos muertos'!I34="","",GAMMAINV(0.025,'cantidad pollos muertos'!I34+(1/2),1))</f>
-        <v>51.484124143889233</v>
-      </c>
-      <c r="O35">
-        <f>IF('cantidad pollos muertos'!I34="","",GAMMAINV(0.975,'cantidad pollos muertos'!I34+(1/2),1))</f>
-        <v>83.40812257489047</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>1</v>
-      </c>
-      <c r="B36">
-        <f>IF('cantidad pollos muertos'!C35="","",GAMMAINV(0.025,'cantidad pollos muertos'!C35+(1/2),1))</f>
-        <v>181.15776645576832</v>
-      </c>
-      <c r="C36">
-        <f>IF('cantidad pollos muertos'!C35="","",GAMMAINV(0.975,'cantidad pollos muertos'!C35+(1/2),1))</f>
-        <v>237.73588506864502</v>
-      </c>
-      <c r="D36">
-        <f>IF('cantidad pollos muertos'!D35="","",GAMMAINV(0.025,'cantidad pollos muertos'!D35+(1/2),1))</f>
-        <v>109.07169811998602</v>
-      </c>
-      <c r="E36">
-        <f>IF('cantidad pollos muertos'!D35="","",GAMMAINV(0.975,'cantidad pollos muertos'!D35+(1/2),1))</f>
-        <v>153.82156122150266</v>
-      </c>
-      <c r="F36">
-        <f>IF('cantidad pollos muertos'!E35="","",GAMMAINV(0.025,'cantidad pollos muertos'!E35+(1/2),1))</f>
-        <v>129.25684230860779</v>
-      </c>
-      <c r="G36">
-        <f>IF('cantidad pollos muertos'!E35="","",GAMMAINV(0.975,'cantidad pollos muertos'!E35+(1/2),1))</f>
-        <v>177.63656836334818</v>
-      </c>
-      <c r="H36">
-        <f>IF('cantidad pollos muertos'!F35="","",GAMMAINV(0.025,'cantidad pollos muertos'!F35+(1/2),1))</f>
-        <v>156.98183885717842</v>
-      </c>
-      <c r="I36">
-        <f>IF('cantidad pollos muertos'!F35="","",GAMMAINV(0.975,'cantidad pollos muertos'!F35+(1/2),1))</f>
-        <v>209.91171926098286</v>
-      </c>
-      <c r="J36">
-        <f>IF('cantidad pollos muertos'!G35="","",GAMMAINV(0.025,'cantidad pollos muertos'!G35+(1/2),1))</f>
-        <v>255.22424421274033</v>
-      </c>
-      <c r="K36">
-        <f>IF('cantidad pollos muertos'!G35="","",GAMMAINV(0.975,'cantidad pollos muertos'!G35+(1/2),1))</f>
-        <v>321.66958734123659</v>
-      </c>
-      <c r="L36">
-        <f>IF('cantidad pollos muertos'!H35="","",GAMMAINV(0.025,'cantidad pollos muertos'!H35+(1/2),1))</f>
-        <v>69.236090053698319</v>
-      </c>
-      <c r="M36">
-        <f>IF('cantidad pollos muertos'!H35="","",GAMMAINV(0.975,'cantidad pollos muertos'!H35+(1/2),1))</f>
-        <v>105.65663473998677</v>
-      </c>
-      <c r="N36">
-        <f>IF('cantidad pollos muertos'!I35="","",GAMMAINV(0.025,'cantidad pollos muertos'!I35+(1/2),1))</f>
-        <v>56.777856776887383</v>
-      </c>
-      <c r="O36">
-        <f>IF('cantidad pollos muertos'!I35="","",GAMMAINV(0.975,'cantidad pollos muertos'!I35+(1/2),1))</f>
-        <v>90.114561196020517</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>37</v>
-      </c>
-      <c r="B37">
-        <f>IF('cantidad pollos muertos'!C36="","",GAMMAINV(0.025,'cantidad pollos muertos'!C36+(1/2),1))</f>
-        <v>49.726594486708123</v>
-      </c>
-      <c r="C37">
-        <f>IF('cantidad pollos muertos'!C36="","",GAMMAINV(0.975,'cantidad pollos muertos'!C36+(1/2),1))</f>
-        <v>81.165588027937574</v>
-      </c>
-      <c r="D37">
-        <f>IF('cantidad pollos muertos'!D36="","",GAMMAINV(0.025,'cantidad pollos muertos'!D36+(1/2),1))</f>
-        <v>120.06430952815636</v>
-      </c>
-      <c r="E37">
-        <f>IF('cantidad pollos muertos'!D36="","",GAMMAINV(0.975,'cantidad pollos muertos'!D36+(1/2),1))</f>
-        <v>166.82903816430675</v>
-      </c>
-      <c r="F37">
-        <f>IF('cantidad pollos muertos'!E36="","",GAMMAINV(0.025,'cantidad pollos muertos'!E36+(1/2),1))</f>
-        <v>112.73093794377093</v>
-      </c>
-      <c r="G37">
-        <f>IF('cantidad pollos muertos'!E36="","",GAMMAINV(0.975,'cantidad pollos muertos'!E36+(1/2),1))</f>
-        <v>158.16235260438964</v>
-      </c>
-      <c r="H37">
-        <f>IF('cantidad pollos muertos'!F36="","",GAMMAINV(0.025,'cantidad pollos muertos'!F36+(1/2),1))</f>
-        <v>262.76491571972474</v>
-      </c>
-      <c r="I37">
-        <f>IF('cantidad pollos muertos'!F36="","",GAMMAINV(0.975,'cantidad pollos muertos'!F36+(1/2),1))</f>
-        <v>330.12892869114035</v>
-      </c>
-      <c r="J37">
-        <f>IF('cantidad pollos muertos'!G36="","",GAMMAINV(0.025,'cantidad pollos muertos'!G36+(1/2),1))</f>
-        <v>93.581917053701943</v>
-      </c>
-      <c r="K37">
-        <f>IF('cantidad pollos muertos'!G36="","",GAMMAINV(0.975,'cantidad pollos muertos'!G36+(1/2),1))</f>
-        <v>135.31118504298269</v>
-      </c>
-      <c r="L37">
-        <f>IF('cantidad pollos muertos'!H36="","",GAMMAINV(0.025,'cantidad pollos muertos'!H36+(1/2),1))</f>
-        <v>91.766838569897061</v>
-      </c>
-      <c r="M37">
-        <f>IF('cantidad pollos muertos'!H36="","",GAMMAINV(0.975,'cantidad pollos muertos'!H36+(1/2),1))</f>
-        <v>133.12624186493369</v>
-      </c>
-      <c r="N37">
-        <f>IF('cantidad pollos muertos'!I36="","",GAMMAINV(0.025,'cantidad pollos muertos'!I36+(1/2),1))</f>
-        <v>67.448256305265616</v>
-      </c>
-      <c r="O37">
-        <f>IF('cantidad pollos muertos'!I36="","",GAMMAINV(0.975,'cantidad pollos muertos'!I36+(1/2),1))</f>
-        <v>103.44443090775799</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>20</v>
-      </c>
-      <c r="B38">
-        <f>IF('cantidad pollos muertos'!C37="","",GAMMAINV(0.025,'cantidad pollos muertos'!C37+(1/2),1))</f>
-        <v>55.893475743516525</v>
-      </c>
-      <c r="C38">
-        <f>IF('cantidad pollos muertos'!C37="","",GAMMAINV(0.975,'cantidad pollos muertos'!C37+(1/2),1))</f>
-        <v>88.998915692959812</v>
-      </c>
-      <c r="D38">
-        <f>IF('cantidad pollos muertos'!D37="","",GAMMAINV(0.025,'cantidad pollos muertos'!D37+(1/2),1))</f>
-        <v>34.962433543720138</v>
-      </c>
-      <c r="E38">
-        <f>IF('cantidad pollos muertos'!D37="","",GAMMAINV(0.975,'cantidad pollos muertos'!D37+(1/2),1))</f>
-        <v>61.928983302147522</v>
-      </c>
-      <c r="F38">
-        <f>IF('cantidad pollos muertos'!E37="","",GAMMAINV(0.025,'cantidad pollos muertos'!E37+(1/2),1))</f>
-        <v>30.694387291605764</v>
-      </c>
-      <c r="G38">
-        <f>IF('cantidad pollos muertos'!E37="","",GAMMAINV(0.975,'cantidad pollos muertos'!E37+(1/2),1))</f>
-        <v>56.196686807634066</v>
-      </c>
-      <c r="H38">
-        <f>IF('cantidad pollos muertos'!F37="","",GAMMAINV(0.025,'cantidad pollos muertos'!F37+(1/2),1))</f>
-        <v>101.76928066438617</v>
-      </c>
-      <c r="I38">
-        <f>IF('cantidad pollos muertos'!F37="","",GAMMAINV(0.975,'cantidad pollos muertos'!F37+(1/2),1))</f>
-        <v>145.12391013196</v>
-      </c>
-      <c r="J38">
-        <f>IF('cantidad pollos muertos'!G37="","",GAMMAINV(0.025,'cantidad pollos muertos'!G37+(1/2),1))</f>
-        <v>67.448256305265616</v>
-      </c>
-      <c r="K38">
-        <f>IF('cantidad pollos muertos'!G37="","",GAMMAINV(0.975,'cantidad pollos muertos'!G37+(1/2),1))</f>
-        <v>103.44443090775799</v>
-      </c>
-      <c r="L38">
-        <f>IF('cantidad pollos muertos'!H37="","",GAMMAINV(0.025,'cantidad pollos muertos'!H37+(1/2),1))</f>
-        <v>64.77127925072125</v>
-      </c>
-      <c r="M38">
-        <f>IF('cantidad pollos muertos'!H37="","",GAMMAINV(0.975,'cantidad pollos muertos'!H37+(1/2),1))</f>
-        <v>100.12134811782056</v>
-      </c>
-      <c r="N38">
-        <f>IF('cantidad pollos muertos'!I37="","",GAMMAINV(0.025,'cantidad pollos muertos'!I37+(1/2),1))</f>
-        <v>33.250344584097988</v>
-      </c>
-      <c r="O38">
-        <f>IF('cantidad pollos muertos'!I37="","",GAMMAINV(0.975,'cantidad pollos muertos'!I37+(1/2),1))</f>
-        <v>59.640944273247818</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>70</v>
-      </c>
-      <c r="B39" t="str">
-        <f>IF('cantidad pollos muertos'!C38="","",GAMMAINV(0.025,'cantidad pollos muertos'!C38+(1/2),1))</f>
-        <v/>
-      </c>
-      <c r="C39" t="str">
-        <f>IF('cantidad pollos muertos'!C38="","",GAMMAINV(0.975,'cantidad pollos muertos'!C38+(1/2),1))</f>
-        <v/>
-      </c>
-      <c r="D39" t="str">
-        <f>IF('cantidad pollos muertos'!D38="","",GAMMAINV(0.025,'cantidad pollos muertos'!D38+(1/2),1))</f>
-        <v/>
-      </c>
-      <c r="E39" t="str">
-        <f>IF('cantidad pollos muertos'!D38="","",GAMMAINV(0.975,'cantidad pollos muertos'!D38+(1/2),1))</f>
-        <v/>
-      </c>
-      <c r="F39" t="str">
-        <f>IF('cantidad pollos muertos'!E38="","",GAMMAINV(0.025,'cantidad pollos muertos'!E38+(1/2),1))</f>
-        <v/>
-      </c>
-      <c r="G39" t="str">
-        <f>IF('cantidad pollos muertos'!E38="","",GAMMAINV(0.975,'cantidad pollos muertos'!E38+(1/2),1))</f>
-        <v/>
-      </c>
-      <c r="H39">
-        <f>IF('cantidad pollos muertos'!F38="","",GAMMAINV(0.025,'cantidad pollos muertos'!F38+(1/2),1))</f>
-        <v>150.49483000255319</v>
-      </c>
-      <c r="I39">
-        <f>IF('cantidad pollos muertos'!F38="","",GAMMAINV(0.975,'cantidad pollos muertos'!F38+(1/2),1))</f>
-        <v>202.39869822948049</v>
-      </c>
-      <c r="J39">
-        <f>IF('cantidad pollos muertos'!G38="","",GAMMAINV(0.025,'cantidad pollos muertos'!G38+(1/2),1))</f>
-        <v>765.31113591636995</v>
-      </c>
-      <c r="K39">
-        <f>IF('cantidad pollos muertos'!G38="","",GAMMAINV(0.975,'cantidad pollos muertos'!G38+(1/2),1))</f>
-        <v>877.58300389638237</v>
-      </c>
-      <c r="L39">
-        <f>IF('cantidad pollos muertos'!H38="","",GAMMAINV(0.025,'cantidad pollos muertos'!H38+(1/2),1))</f>
-        <v>222.31338117944131</v>
-      </c>
-      <c r="M39">
-        <f>IF('cantidad pollos muertos'!H38="","",GAMMAINV(0.975,'cantidad pollos muertos'!H38+(1/2),1))</f>
-        <v>284.58038453305556</v>
-      </c>
-      <c r="N39">
-        <f>IF('cantidad pollos muertos'!I38="","",GAMMAINV(0.025,'cantidad pollos muertos'!I38+(1/2),1))</f>
-        <v>222.31338117944131</v>
-      </c>
-      <c r="O39">
-        <f>IF('cantidad pollos muertos'!I38="","",GAMMAINV(0.975,'cantidad pollos muertos'!I38+(1/2),1))</f>
-        <v>284.58038453305556</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>19</v>
-      </c>
-      <c r="B40">
-        <f>IF('cantidad pollos muertos'!C39="","",GAMMAINV(0.025,'cantidad pollos muertos'!C39+(1/2),1))</f>
-        <v>199.83098059938479</v>
-      </c>
-      <c r="C40">
-        <f>IF('cantidad pollos muertos'!C39="","",GAMMAINV(0.975,'cantidad pollos muertos'!C39+(1/2),1))</f>
-        <v>259.06272828882726</v>
-      </c>
-      <c r="D40">
-        <f>IF('cantidad pollos muertos'!D39="","",GAMMAINV(0.025,'cantidad pollos muertos'!D39+(1/2),1))</f>
-        <v>142.16968219363059</v>
-      </c>
-      <c r="E40">
-        <f>IF('cantidad pollos muertos'!D39="","",GAMMAINV(0.975,'cantidad pollos muertos'!D39+(1/2),1))</f>
-        <v>192.72380391295633</v>
-      </c>
-      <c r="F40">
-        <f>IF('cantidad pollos muertos'!E39="","",GAMMAINV(0.025,'cantidad pollos muertos'!E39+(1/2),1))</f>
-        <v>179.29388372768716</v>
-      </c>
-      <c r="G40">
-        <f>IF('cantidad pollos muertos'!E39="","",GAMMAINV(0.975,'cantidad pollos muertos'!E39+(1/2),1))</f>
-        <v>235.59976144814786</v>
-      </c>
-      <c r="H40">
-        <f>IF('cantidad pollos muertos'!F39="","",GAMMAINV(0.025,'cantidad pollos muertos'!F39+(1/2),1))</f>
-        <v>201.70155665364121</v>
-      </c>
-      <c r="I40">
-        <f>IF('cantidad pollos muertos'!F39="","",GAMMAINV(0.975,'cantidad pollos muertos'!F39+(1/2),1))</f>
-        <v>261.19215742259411</v>
-      </c>
-      <c r="J40">
-        <f>IF('cantidad pollos muertos'!G39="","",GAMMAINV(0.025,'cantidad pollos muertos'!G39+(1/2),1))</f>
-        <v>156.05451286229808</v>
-      </c>
-      <c r="K40">
-        <f>IF('cantidad pollos muertos'!G39="","",GAMMAINV(0.975,'cantidad pollos muertos'!G39+(1/2),1))</f>
-        <v>208.83904112783321</v>
-      </c>
-      <c r="L40">
-        <f>IF('cantidad pollos muertos'!H39="","",GAMMAINV(0.025,'cantidad pollos muertos'!H39+(1/2),1))</f>
-        <v>96.307567312785139</v>
-      </c>
-      <c r="M40">
-        <f>IF('cantidad pollos muertos'!H39="","",GAMMAINV(0.975,'cantidad pollos muertos'!H39+(1/2),1))</f>
-        <v>138.5855658778643</v>
-      </c>
-      <c r="N40">
-        <f>IF('cantidad pollos muertos'!I39="","",GAMMAINV(0.025,'cantidad pollos muertos'!I39+(1/2),1))</f>
-        <v>66.555282724745524</v>
-      </c>
-      <c r="O40">
-        <f>IF('cantidad pollos muertos'!I39="","",GAMMAINV(0.975,'cantidad pollos muertos'!I39+(1/2),1))</f>
-        <v>102.33738501995983</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>26</v>
-      </c>
-      <c r="B41">
-        <f>IF('cantidad pollos muertos'!C40="","",GAMMAINV(0.025,'cantidad pollos muertos'!C40+(1/2),1))</f>
-        <v>548.62533919166628</v>
-      </c>
-      <c r="C41">
-        <f>IF('cantidad pollos muertos'!C40="","",GAMMAINV(0.975,'cantidad pollos muertos'!C40+(1/2),1))</f>
-        <v>644.26873783735732</v>
-      </c>
-      <c r="D41">
-        <f>IF('cantidad pollos muertos'!D40="","",GAMMAINV(0.025,'cantidad pollos muertos'!D40+(1/2),1))</f>
-        <v>1049.0499170025248</v>
-      </c>
-      <c r="E41">
-        <f>IF('cantidad pollos muertos'!D40="","",GAMMAINV(0.975,'cantidad pollos muertos'!D40+(1/2),1))</f>
-        <v>1179.8442665223874</v>
-      </c>
-      <c r="F41">
-        <f>IF('cantidad pollos muertos'!E40="","",GAMMAINV(0.025,'cantidad pollos muertos'!E40+(1/2),1))</f>
-        <v>924.924049454586</v>
-      </c>
-      <c r="G41">
-        <f>IF('cantidad pollos muertos'!E40="","",GAMMAINV(0.975,'cantidad pollos muertos'!E40+(1/2),1))</f>
-        <v>1047.9701181726064</v>
-      </c>
-      <c r="H41">
-        <f>IF('cantidad pollos muertos'!F40="","",GAMMAINV(0.025,'cantidad pollos muertos'!F40+(1/2),1))</f>
-        <v>321.39769896169901</v>
-      </c>
-      <c r="I41">
-        <f>IF('cantidad pollos muertos'!F40="","",GAMMAINV(0.975,'cantidad pollos muertos'!F40+(1/2),1))</f>
-        <v>395.49622556041908</v>
-      </c>
-      <c r="J41">
-        <f>IF('cantidad pollos muertos'!G40="","",GAMMAINV(0.025,'cantidad pollos muertos'!G40+(1/2),1))</f>
-        <v>986.95742658016775</v>
-      </c>
-      <c r="K41">
-        <f>IF('cantidad pollos muertos'!G40="","",GAMMAINV(0.975,'cantidad pollos muertos'!G40+(1/2),1))</f>
-        <v>1113.9367494807827</v>
-      </c>
-      <c r="L41">
-        <f>IF('cantidad pollos muertos'!H40="","",GAMMAINV(0.025,'cantidad pollos muertos'!H40+(1/2),1))</f>
-        <v>67.448256305265616</v>
-      </c>
-      <c r="M41">
-        <f>IF('cantidad pollos muertos'!H40="","",GAMMAINV(0.975,'cantidad pollos muertos'!H40+(1/2),1))</f>
-        <v>103.44443090775799</v>
-      </c>
-      <c r="N41">
-        <f>IF('cantidad pollos muertos'!I40="","",GAMMAINV(0.025,'cantidad pollos muertos'!I40+(1/2),1))</f>
-        <v>119.14659511982991</v>
-      </c>
-      <c r="O41">
-        <f>IF('cantidad pollos muertos'!I40="","",GAMMAINV(0.975,'cantidad pollos muertos'!I40+(1/2),1))</f>
-        <v>165.74674578385378</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>33</v>
-      </c>
-      <c r="B42">
-        <f>IF('cantidad pollos muertos'!C41="","",GAMMAINV(0.025,'cantidad pollos muertos'!C41+(1/2),1))</f>
-        <v>174.63709139652676</v>
-      </c>
-      <c r="C42">
-        <f>IF('cantidad pollos muertos'!C41="","",GAMMAINV(0.975,'cantidad pollos muertos'!C41+(1/2),1))</f>
-        <v>230.25653735551839</v>
-      </c>
-      <c r="D42">
-        <f>IF('cantidad pollos muertos'!D41="","",GAMMAINV(0.025,'cantidad pollos muertos'!D41+(1/2),1))</f>
-        <v>319.5015285063526</v>
-      </c>
-      <c r="E42">
-        <f>IF('cantidad pollos muertos'!D41="","",GAMMAINV(0.975,'cantidad pollos muertos'!D41+(1/2),1))</f>
-        <v>393.39239386812818</v>
-      </c>
-      <c r="F42">
-        <f>IF('cantidad pollos muertos'!E41="","",GAMMAINV(0.025,'cantidad pollos muertos'!E41+(1/2),1))</f>
-        <v>221.37513463914547</v>
-      </c>
-      <c r="G42">
-        <f>IF('cantidad pollos muertos'!E41="","",GAMMAINV(0.975,'cantidad pollos muertos'!E41+(1/2),1))</f>
-        <v>283.51862892250807</v>
-      </c>
-      <c r="H42">
-        <f>IF('cantidad pollos muertos'!F41="","",GAMMAINV(0.025,'cantidad pollos muertos'!F41+(1/2),1))</f>
-        <v>169.9845877189511</v>
-      </c>
-      <c r="I42">
-        <f>IF('cantidad pollos muertos'!F41="","",GAMMAINV(0.975,'cantidad pollos muertos'!F41+(1/2),1))</f>
-        <v>224.90902377196636</v>
-      </c>
-      <c r="J42">
-        <f>IF('cantidad pollos muertos'!G41="","",GAMMAINV(0.025,'cantidad pollos muertos'!G41+(1/2),1))</f>
-        <v>110.90067430604017</v>
-      </c>
-      <c r="K42">
-        <f>IF('cantidad pollos muertos'!G41="","",GAMMAINV(0.975,'cantidad pollos muertos'!G41+(1/2),1))</f>
-        <v>155.99260087494179</v>
-      </c>
-      <c r="L42">
-        <f>IF('cantidad pollos muertos'!H41="","",GAMMAINV(0.025,'cantidad pollos muertos'!H41+(1/2),1))</f>
-        <v>66.555282724745524</v>
-      </c>
-      <c r="M42">
-        <f>IF('cantidad pollos muertos'!H41="","",GAMMAINV(0.975,'cantidad pollos muertos'!H41+(1/2),1))</f>
-        <v>102.33738501995983</v>
-      </c>
-      <c r="N42">
-        <f>IF('cantidad pollos muertos'!I41="","",GAMMAINV(0.025,'cantidad pollos muertos'!I41+(1/2),1))</f>
-        <v>66.555282724745524</v>
-      </c>
-      <c r="O42">
-        <f>IF('cantidad pollos muertos'!I41="","",GAMMAINV(0.975,'cantidad pollos muertos'!I41+(1/2),1))</f>
-        <v>102.33738501995983</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>6</v>
-      </c>
-      <c r="B43">
-        <f>IF('cantidad pollos muertos'!C42="","",GAMMAINV(0.025,'cantidad pollos muertos'!C42+(1/2),1))</f>
-        <v>967.56538881400036</v>
-      </c>
-      <c r="C43">
-        <f>IF('cantidad pollos muertos'!C42="","",GAMMAINV(0.975,'cantidad pollos muertos'!C42+(1/2),1))</f>
-        <v>1093.3287847240811</v>
-      </c>
-      <c r="D43">
-        <f>IF('cantidad pollos muertos'!D42="","",GAMMAINV(0.025,'cantidad pollos muertos'!D42+(1/2),1))</f>
-        <v>1696.7950697366227</v>
-      </c>
-      <c r="E43">
-        <f>IF('cantidad pollos muertos'!D42="","",GAMMAINV(0.975,'cantidad pollos muertos'!D42+(1/2),1))</f>
-        <v>1862.0991595475402</v>
-      </c>
-      <c r="F43">
-        <f>IF('cantidad pollos muertos'!E42="","",GAMMAINV(0.025,'cantidad pollos muertos'!E42+(1/2),1))</f>
-        <v>4583.8313595495547</v>
-      </c>
-      <c r="G43">
-        <f>IF('cantidad pollos muertos'!E42="","",GAMMAINV(0.975,'cantidad pollos muertos'!E42+(1/2),1))</f>
-        <v>4853.0629174576852</v>
-      </c>
-      <c r="H43">
-        <f>IF('cantidad pollos muertos'!F42="","",GAMMAINV(0.025,'cantidad pollos muertos'!F42+(1/2),1))</f>
-        <v>871.66578222027056</v>
-      </c>
-      <c r="I43">
-        <f>IF('cantidad pollos muertos'!F42="","",GAMMAINV(0.975,'cantidad pollos muertos'!F42+(1/2),1))</f>
-        <v>991.22837723190105</v>
-      </c>
-      <c r="J43">
-        <f>IF('cantidad pollos muertos'!G42="","",GAMMAINV(0.025,'cantidad pollos muertos'!G42+(1/2),1))</f>
-        <v>699.6881198571507</v>
-      </c>
-      <c r="K43">
-        <f>IF('cantidad pollos muertos'!G42="","",GAMMAINV(0.975,'cantidad pollos muertos'!G42+(1/2),1))</f>
-        <v>807.20600494167547</v>
-      </c>
-      <c r="L43">
-        <f>IF('cantidad pollos muertos'!H42="","",GAMMAINV(0.025,'cantidad pollos muertos'!H42+(1/2),1))</f>
-        <v>478.65317839881567</v>
-      </c>
-      <c r="M43">
-        <f>IF('cantidad pollos muertos'!H42="","",GAMMAINV(0.975,'cantidad pollos muertos'!H42+(1/2),1))</f>
-        <v>568.24086663478749</v>
-      </c>
-      <c r="N43">
-        <f>IF('cantidad pollos muertos'!I42="","",GAMMAINV(0.025,'cantidad pollos muertos'!I42+(1/2),1))</f>
-        <v>864.89111119897188</v>
-      </c>
-      <c r="O43">
-        <f>IF('cantidad pollos muertos'!I42="","",GAMMAINV(0.975,'cantidad pollos muertos'!I42+(1/2),1))</f>
-        <v>984.00304714286347</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>4</v>
-      </c>
-      <c r="B44">
-        <f>IF('cantidad pollos muertos'!C43="","",GAMMAINV(0.025,'cantidad pollos muertos'!C43+(1/2),1))</f>
-        <v>985.01796057738704</v>
-      </c>
-      <c r="C44">
-        <f>IF('cantidad pollos muertos'!C43="","",GAMMAINV(0.975,'cantidad pollos muertos'!C43+(1/2),1))</f>
-        <v>1111.8762152356135</v>
-      </c>
-      <c r="D44">
-        <f>IF('cantidad pollos muertos'!D43="","",GAMMAINV(0.025,'cantidad pollos muertos'!D43+(1/2),1))</f>
-        <v>1357.3219889319423</v>
-      </c>
-      <c r="E44">
-        <f>IF('cantidad pollos muertos'!D43="","",GAMMAINV(0.975,'cantidad pollos muertos'!D43+(1/2),1))</f>
-        <v>1505.5722217138516</v>
-      </c>
-      <c r="F44">
-        <f>IF('cantidad pollos muertos'!E43="","",GAMMAINV(0.025,'cantidad pollos muertos'!E43+(1/2),1))</f>
-        <v>3960.1883460942354</v>
-      </c>
-      <c r="G44">
-        <f>IF('cantidad pollos muertos'!E43="","",GAMMAINV(0.975,'cantidad pollos muertos'!E43+(1/2),1))</f>
-        <v>4210.7059264379523</v>
-      </c>
-      <c r="H44">
-        <f>IF('cantidad pollos muertos'!F43="","",GAMMAINV(0.025,'cantidad pollos muertos'!F43+(1/2),1))</f>
-        <v>1526.9426730191165</v>
-      </c>
-      <c r="I44">
-        <f>IF('cantidad pollos muertos'!F43="","",GAMMAINV(0.975,'cantidad pollos muertos'!F43+(1/2),1))</f>
-        <v>1683.9515479567065</v>
-      </c>
-      <c r="J44">
-        <f>IF('cantidad pollos muertos'!G43="","",GAMMAINV(0.025,'cantidad pollos muertos'!G43+(1/2),1))</f>
-        <v>1114.110862795982</v>
-      </c>
-      <c r="K44">
-        <f>IF('cantidad pollos muertos'!G43="","",GAMMAINV(0.975,'cantidad pollos muertos'!G43+(1/2),1))</f>
-        <v>1248.7833276754016</v>
-      </c>
-      <c r="L44">
-        <f>IF('cantidad pollos muertos'!H43="","",GAMMAINV(0.025,'cantidad pollos muertos'!H43+(1/2),1))</f>
-        <v>608.19682197829161</v>
-      </c>
-      <c r="M44">
-        <f>IF('cantidad pollos muertos'!H43="","",GAMMAINV(0.975,'cantidad pollos muertos'!H43+(1/2),1))</f>
-        <v>708.69727664239463</v>
-      </c>
-      <c r="N44">
-        <f>IF('cantidad pollos muertos'!I43="","",GAMMAINV(0.025,'cantidad pollos muertos'!I43+(1/2),1))</f>
-        <v>678.47997729179644</v>
-      </c>
-      <c r="O44">
-        <f>IF('cantidad pollos muertos'!I43="","",GAMMAINV(0.975,'cantidad pollos muertos'!I43+(1/2),1))</f>
-        <v>784.41414205083629</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>2</v>
-      </c>
-      <c r="B45">
-        <f>IF('cantidad pollos muertos'!C44="","",GAMMAINV(0.025,'cantidad pollos muertos'!C44+(1/2),1))</f>
-        <v>83.620315112988024</v>
-      </c>
-      <c r="C45">
-        <f>IF('cantidad pollos muertos'!C44="","",GAMMAINV(0.975,'cantidad pollos muertos'!C44+(1/2),1))</f>
-        <v>123.27265734594629</v>
-      </c>
-      <c r="D45">
-        <f>IF('cantidad pollos muertos'!D44="","",GAMMAINV(0.025,'cantidad pollos muertos'!D44+(1/2),1))</f>
-        <v>82.717424459465121</v>
-      </c>
-      <c r="E45">
-        <f>IF('cantidad pollos muertos'!D44="","",GAMMAINV(0.975,'cantidad pollos muertos'!D44+(1/2),1))</f>
-        <v>122.17553481598543</v>
-      </c>
-      <c r="F45">
-        <f>IF('cantidad pollos muertos'!E44="","",GAMMAINV(0.025,'cantidad pollos muertos'!E44+(1/2),1))</f>
-        <v>115.47868500239804</v>
-      </c>
-      <c r="G45">
-        <f>IF('cantidad pollos muertos'!E44="","",GAMMAINV(0.975,'cantidad pollos muertos'!E44+(1/2),1))</f>
-        <v>161.41462775614207</v>
-      </c>
-      <c r="H45">
-        <f>IF('cantidad pollos muertos'!F44="","",GAMMAINV(0.025,'cantidad pollos muertos'!F44+(1/2),1))</f>
-        <v>107.24403913202086</v>
-      </c>
-      <c r="I45">
-        <f>IF('cantidad pollos muertos'!F44="","",GAMMAINV(0.975,'cantidad pollos muertos'!F44+(1/2),1))</f>
-        <v>151.64920387554514</v>
-      </c>
-      <c r="J45">
-        <f>IF('cantidad pollos muertos'!G44="","",GAMMAINV(0.025,'cantidad pollos muertos'!G44+(1/2),1))</f>
-        <v>87.236542631327438</v>
-      </c>
-      <c r="K45">
-        <f>IF('cantidad pollos muertos'!G44="","",GAMMAINV(0.975,'cantidad pollos muertos'!G44+(1/2),1))</f>
-        <v>127.65648007746864</v>
-      </c>
-      <c r="L45">
-        <f>IF('cantidad pollos muertos'!H44="","",GAMMAINV(0.025,'cantidad pollos muertos'!H44+(1/2),1))</f>
-        <v>51.484124143889233</v>
-      </c>
-      <c r="M45">
-        <f>IF('cantidad pollos muertos'!H44="","",GAMMAINV(0.975,'cantidad pollos muertos'!H44+(1/2),1))</f>
-        <v>83.40812257489047</v>
-      </c>
-      <c r="N45">
-        <f>IF('cantidad pollos muertos'!I44="","",GAMMAINV(0.025,'cantidad pollos muertos'!I44+(1/2),1))</f>
-        <v>55.893475743516525</v>
-      </c>
-      <c r="O45">
-        <f>IF('cantidad pollos muertos'!I44="","",GAMMAINV(0.975,'cantidad pollos muertos'!I44+(1/2),1))</f>
-        <v>88.998915692959812</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>29</v>
-      </c>
-      <c r="B46">
-        <f>IF('cantidad pollos muertos'!C45="","",GAMMAINV(0.025,'cantidad pollos muertos'!C45+(1/2),1))</f>
-        <v>132.0198061058029</v>
-      </c>
-      <c r="C46">
-        <f>IF('cantidad pollos muertos'!C45="","",GAMMAINV(0.975,'cantidad pollos muertos'!C45+(1/2),1))</f>
-        <v>180.87362187681995</v>
-      </c>
-      <c r="D46">
-        <f>IF('cantidad pollos muertos'!D45="","",GAMMAINV(0.025,'cantidad pollos muertos'!D45+(1/2),1))</f>
-        <v>535.19098313718803</v>
-      </c>
-      <c r="E46">
-        <f>IF('cantidad pollos muertos'!D45="","",GAMMAINV(0.975,'cantidad pollos muertos'!D45+(1/2),1))</f>
-        <v>629.70308837869106</v>
-      </c>
-      <c r="F46">
-        <f>IF('cantidad pollos muertos'!E45="","",GAMMAINV(0.025,'cantidad pollos muertos'!E45+(1/2),1))</f>
-        <v>640.91361929566665</v>
-      </c>
-      <c r="G46">
-        <f>IF('cantidad pollos muertos'!E45="","",GAMMAINV(0.975,'cantidad pollos muertos'!E45+(1/2),1))</f>
-        <v>743.98048952094484</v>
-      </c>
-      <c r="H46">
-        <f>IF('cantidad pollos muertos'!F45="","",GAMMAINV(0.025,'cantidad pollos muertos'!F45+(1/2),1))</f>
-        <v>362.23179958488959</v>
-      </c>
-      <c r="I46">
-        <f>IF('cantidad pollos muertos'!F45="","",GAMMAINV(0.975,'cantidad pollos muertos'!F45+(1/2),1))</f>
-        <v>440.66216591868124</v>
-      </c>
-      <c r="J46">
-        <f>IF('cantidad pollos muertos'!G45="","",GAMMAINV(0.025,'cantidad pollos muertos'!G45+(1/2),1))</f>
-        <v>75.512217647445581</v>
-      </c>
-      <c r="K46">
-        <f>IF('cantidad pollos muertos'!G45="","",GAMMAINV(0.975,'cantidad pollos muertos'!G45+(1/2),1))</f>
-        <v>113.38062596936612</v>
-      </c>
-      <c r="L46">
-        <f>IF('cantidad pollos muertos'!H45="","",GAMMAINV(0.025,'cantidad pollos muertos'!H45+(1/2),1))</f>
-        <v>72.819004490068878</v>
-      </c>
-      <c r="M46">
-        <f>IF('cantidad pollos muertos'!H45="","",GAMMAINV(0.975,'cantidad pollos muertos'!H45+(1/2),1))</f>
-        <v>110.07379046221725</v>
-      </c>
-      <c r="N46">
-        <f>IF('cantidad pollos muertos'!I45="","",GAMMAINV(0.025,'cantidad pollos muertos'!I45+(1/2),1))</f>
-        <v>80.01166316279793</v>
-      </c>
-      <c r="O46">
-        <f>IF('cantidad pollos muertos'!I45="","",GAMMAINV(0.975,'cantidad pollos muertos'!I45+(1/2),1))</f>
-        <v>118.88125495026803</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>22</v>
-      </c>
-      <c r="B47">
-        <f>IF('cantidad pollos muertos'!C46="","",GAMMAINV(0.025,'cantidad pollos muertos'!C46+(1/2),1))</f>
-        <v>28.999208263699717</v>
-      </c>
-      <c r="C47">
-        <f>IF('cantidad pollos muertos'!C46="","",GAMMAINV(0.975,'cantidad pollos muertos'!C46+(1/2),1))</f>
-        <v>53.891704832667266</v>
-      </c>
-      <c r="D47">
-        <f>IF('cantidad pollos muertos'!D46="","",GAMMAINV(0.025,'cantidad pollos muertos'!D46+(1/2),1))</f>
-        <v>27.311679260779517</v>
-      </c>
-      <c r="E47">
-        <f>IF('cantidad pollos muertos'!D46="","",GAMMAINV(0.975,'cantidad pollos muertos'!D46+(1/2),1))</f>
-        <v>51.579055950673293</v>
-      </c>
-      <c r="F47">
-        <f>IF('cantidad pollos muertos'!E46="","",GAMMAINV(0.025,'cantidad pollos muertos'!E46+(1/2),1))</f>
-        <v>40.133392287067011</v>
-      </c>
-      <c r="G47">
-        <f>IF('cantidad pollos muertos'!E46="","",GAMMAINV(0.975,'cantidad pollos muertos'!E46+(1/2),1))</f>
-        <v>68.758350727289638</v>
-      </c>
-      <c r="H47">
-        <f>IF('cantidad pollos muertos'!F46="","",GAMMAINV(0.025,'cantidad pollos muertos'!F46+(1/2),1))</f>
-        <v>32.396680742579541</v>
-      </c>
-      <c r="I47">
-        <f>IF('cantidad pollos muertos'!F46="","",GAMMAINV(0.975,'cantidad pollos muertos'!F46+(1/2),1))</f>
-        <v>58.494539771790699</v>
-      </c>
-      <c r="J47">
-        <f>IF('cantidad pollos muertos'!G46="","",GAMMAINV(0.025,'cantidad pollos muertos'!G46+(1/2),1))</f>
-        <v>54.127170276499882</v>
-      </c>
-      <c r="K47">
-        <f>IF('cantidad pollos muertos'!G46="","",GAMMAINV(0.975,'cantidad pollos muertos'!G46+(1/2),1))</f>
-        <v>86.765165784440967</v>
-      </c>
-      <c r="L47">
-        <f>IF('cantidad pollos muertos'!H46="","",GAMMAINV(0.025,'cantidad pollos muertos'!H46+(1/2),1))</f>
-        <v>25.632406636710915</v>
-      </c>
-      <c r="M47">
-        <f>IF('cantidad pollos muertos'!H46="","",GAMMAINV(0.975,'cantidad pollos muertos'!H46+(1/2),1))</f>
-        <v>49.258131005783902</v>
-      </c>
-      <c r="N47">
-        <f>IF('cantidad pollos muertos'!I46="","",GAMMAINV(0.025,'cantidad pollos muertos'!I46+(1/2),1))</f>
-        <v>15.777458231333561</v>
-      </c>
-      <c r="O47">
-        <f>IF('cantidad pollos muertos'!I46="","",GAMMAINV(0.975,'cantidad pollos muertos'!I46+(1/2),1))</f>
-        <v>35.11120678321727</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>71</v>
-      </c>
-      <c r="B48" t="str">
-        <f>IF('cantidad pollos muertos'!C47="","",GAMMAINV(0.025,'cantidad pollos muertos'!C47+(1/2),1))</f>
-        <v/>
-      </c>
-      <c r="C48" t="str">
-        <f>IF('cantidad pollos muertos'!C47="","",GAMMAINV(0.975,'cantidad pollos muertos'!C47+(1/2),1))</f>
-        <v/>
-      </c>
-      <c r="D48">
-        <f>IF('cantidad pollos muertos'!D47="","",GAMMAINV(0.025,'cantidad pollos muertos'!D47+(1/2),1))</f>
-        <v>278.80906055151064</v>
-      </c>
-      <c r="E48">
-        <f>IF('cantidad pollos muertos'!D47="","",GAMMAINV(0.975,'cantidad pollos muertos'!D47+(1/2),1))</f>
-        <v>348.08480899206802</v>
-      </c>
-      <c r="F48">
-        <f>IF('cantidad pollos muertos'!E47="","",GAMMAINV(0.025,'cantidad pollos muertos'!E47+(1/2),1))</f>
-        <v>286.36825741056521</v>
-      </c>
-      <c r="G48">
-        <f>IF('cantidad pollos muertos'!E47="","",GAMMAINV(0.975,'cantidad pollos muertos'!E47+(1/2),1))</f>
-        <v>356.52562303658738</v>
-      </c>
-      <c r="H48">
-        <f>IF('cantidad pollos muertos'!F47="","",GAMMAINV(0.025,'cantidad pollos muertos'!F47+(1/2),1))</f>
-        <v>77.310424850812296</v>
-      </c>
-      <c r="I48">
-        <f>IF('cantidad pollos muertos'!F47="","",GAMMAINV(0.975,'cantidad pollos muertos'!F47+(1/2),1))</f>
-        <v>115.58244950407959</v>
-      </c>
-      <c r="J48">
-        <f>IF('cantidad pollos muertos'!G47="","",GAMMAINV(0.025,'cantidad pollos muertos'!G47+(1/2),1))</f>
-        <v>187.68642850911837</v>
-      </c>
-      <c r="K48">
-        <f>IF('cantidad pollos muertos'!G47="","",GAMMAINV(0.975,'cantidad pollos muertos'!G47+(1/2),1))</f>
-        <v>245.20724430579639</v>
-      </c>
-      <c r="L48">
-        <f>IF('cantidad pollos muertos'!H47="","",GAMMAINV(0.025,'cantidad pollos muertos'!H47+(1/2),1))</f>
-        <v>51.484124143889233</v>
-      </c>
-      <c r="M48">
-        <f>IF('cantidad pollos muertos'!H47="","",GAMMAINV(0.975,'cantidad pollos muertos'!H47+(1/2),1))</f>
-        <v>83.40812257489047</v>
-      </c>
-      <c r="N48">
-        <f>IF('cantidad pollos muertos'!I47="","",GAMMAINV(0.025,'cantidad pollos muertos'!I47+(1/2),1))</f>
-        <v>101.76928066438617</v>
-      </c>
-      <c r="O48">
-        <f>IF('cantidad pollos muertos'!I47="","",GAMMAINV(0.975,'cantidad pollos muertos'!I47+(1/2),1))</f>
-        <v>145.12391013196</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>3</v>
-      </c>
-      <c r="B49">
-        <f>IF('cantidad pollos muertos'!C48="","",GAMMAINV(0.025,'cantidad pollos muertos'!C48+(1/2),1))</f>
-        <v>80.01166316279793</v>
-      </c>
-      <c r="C49">
-        <f>IF('cantidad pollos muertos'!C48="","",GAMMAINV(0.975,'cantidad pollos muertos'!C48+(1/2),1))</f>
-        <v>118.88125495026803</v>
-      </c>
-      <c r="D49">
-        <f>IF('cantidad pollos muertos'!D48="","",GAMMAINV(0.025,'cantidad pollos muertos'!D48+(1/2),1))</f>
-        <v>37.5417353745407</v>
-      </c>
-      <c r="E49">
-        <f>IF('cantidad pollos muertos'!D48="","",GAMMAINV(0.975,'cantidad pollos muertos'!D48+(1/2),1))</f>
-        <v>65.349854312032974</v>
-      </c>
-      <c r="F49">
-        <f>IF('cantidad pollos muertos'!E48="","",GAMMAINV(0.025,'cantidad pollos muertos'!E48+(1/2),1))</f>
-        <v>88.141732680851817</v>
-      </c>
-      <c r="G49">
-        <f>IF('cantidad pollos muertos'!E48="","",GAMMAINV(0.975,'cantidad pollos muertos'!E48+(1/2),1))</f>
-        <v>128.75130200416774</v>
-      </c>
-      <c r="H49">
-        <f>IF('cantidad pollos muertos'!F48="","",GAMMAINV(0.025,'cantidad pollos muertos'!F48+(1/2),1))</f>
-        <v>48.849242700029897</v>
-      </c>
-      <c r="I49">
-        <f>IF('cantidad pollos muertos'!F48="","",GAMMAINV(0.975,'cantidad pollos muertos'!F48+(1/2),1))</f>
-        <v>80.042906187400447</v>
-      </c>
-      <c r="J49">
-        <f>IF('cantidad pollos muertos'!G48="","",GAMMAINV(0.025,'cantidad pollos muertos'!G48+(1/2),1))</f>
-        <v>51.484124143889233</v>
-      </c>
-      <c r="K49">
-        <f>IF('cantidad pollos muertos'!G48="","",GAMMAINV(0.975,'cantidad pollos muertos'!G48+(1/2),1))</f>
-        <v>83.40812257489047</v>
-      </c>
-      <c r="L49">
-        <f>IF('cantidad pollos muertos'!H48="","",GAMMAINV(0.025,'cantidad pollos muertos'!H48+(1/2),1))</f>
-        <v>40.999841622666459</v>
-      </c>
-      <c r="M49">
-        <f>IF('cantidad pollos muertos'!H48="","",GAMMAINV(0.975,'cantidad pollos muertos'!H48+(1/2),1))</f>
-        <v>69.891948725310272</v>
-      </c>
-      <c r="N49">
-        <f>IF('cantidad pollos muertos'!I48="","",GAMMAINV(0.025,'cantidad pollos muertos'!I48+(1/2),1))</f>
-        <v>66.555282724745524</v>
-      </c>
-      <c r="O49">
-        <f>IF('cantidad pollos muertos'!I48="","",GAMMAINV(0.975,'cantidad pollos muertos'!I48+(1/2),1))</f>
-        <v>102.33738501995983</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>17</v>
-      </c>
-      <c r="B50">
-        <f>IF('cantidad pollos muertos'!C49="","",GAMMAINV(0.025,'cantidad pollos muertos'!C49+(1/2),1))</f>
-        <v>44.47754524508602</v>
-      </c>
-      <c r="C50">
-        <f>IF('cantidad pollos muertos'!C49="","",GAMMAINV(0.975,'cantidad pollos muertos'!C49+(1/2),1))</f>
-        <v>74.414418156443148</v>
-      </c>
-      <c r="D50">
-        <f>IF('cantidad pollos muertos'!D49="","",GAMMAINV(0.025,'cantidad pollos muertos'!D49+(1/2),1))</f>
-        <v>27.311679260779517</v>
-      </c>
-      <c r="E50">
-        <f>IF('cantidad pollos muertos'!D49="","",GAMMAINV(0.975,'cantidad pollos muertos'!D49+(1/2),1))</f>
-        <v>51.579055950673293</v>
-      </c>
-      <c r="F50">
-        <f>IF('cantidad pollos muertos'!E49="","",GAMMAINV(0.025,'cantidad pollos muertos'!E49+(1/2),1))</f>
-        <v>101.76928066438617</v>
-      </c>
-      <c r="G50">
-        <f>IF('cantidad pollos muertos'!E49="","",GAMMAINV(0.975,'cantidad pollos muertos'!E49+(1/2),1))</f>
-        <v>145.12391013196</v>
-      </c>
-      <c r="H50">
-        <f>IF('cantidad pollos muertos'!F49="","",GAMMAINV(0.025,'cantidad pollos muertos'!F49+(1/2),1))</f>
-        <v>35.820758132639803</v>
-      </c>
-      <c r="I50">
-        <f>IF('cantidad pollos muertos'!F49="","",GAMMAINV(0.975,'cantidad pollos muertos'!F49+(1/2),1))</f>
-        <v>63.070718720047985</v>
-      </c>
-      <c r="J50">
-        <f>IF('cantidad pollos muertos'!G49="","",GAMMAINV(0.025,'cantidad pollos muertos'!G49+(1/2),1))</f>
-        <v>117.31204422916028</v>
-      </c>
-      <c r="K50">
-        <f>IF('cantidad pollos muertos'!G49="","",GAMMAINV(0.975,'cantidad pollos muertos'!G49+(1/2),1))</f>
-        <v>163.58128280422588</v>
-      </c>
-      <c r="L50">
-        <f>IF('cantidad pollos muertos'!H49="","",GAMMAINV(0.025,'cantidad pollos muertos'!H49+(1/2),1))</f>
-        <v>80.91309119682343</v>
-      </c>
-      <c r="M50">
-        <f>IF('cantidad pollos muertos'!H49="","",GAMMAINV(0.975,'cantidad pollos muertos'!H49+(1/2),1))</f>
-        <v>119.9798409138221</v>
-      </c>
-      <c r="N50">
-        <f>IF('cantidad pollos muertos'!I49="","",GAMMAINV(0.025,'cantidad pollos muertos'!I49+(1/2),1))</f>
-        <v>24.796078627840313</v>
-      </c>
-      <c r="O50">
-        <f>IF('cantidad pollos muertos'!I49="","",GAMMAINV(0.975,'cantidad pollos muertos'!I49+(1/2),1))</f>
-        <v>48.094351798666601</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="28">
-    <mergeCell ref="AX1:AY1"/>
-    <mergeCell ref="AZ1:BA1"/>
-    <mergeCell ref="BB1:BC1"/>
-    <mergeCell ref="BD1:BE1"/>
     <mergeCell ref="AL1:AM1"/>
     <mergeCell ref="AN1:AO1"/>
     <mergeCell ref="AP1:AQ1"/>
@@ -30501,11 +27197,3389 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AZ50"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="C1" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="R1" s="16"/>
+      <c r="S1" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="T1" s="16"/>
+      <c r="U1" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="V1" s="16"/>
+      <c r="W1" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="X1" s="16"/>
+      <c r="Y1" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z1" s="16"/>
+      <c r="AA1" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB1" s="16"/>
+      <c r="AC1" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD1" s="16"/>
+      <c r="AE1" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF1" s="16"/>
+      <c r="AG1" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH1" s="16"/>
+      <c r="AI1" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ1" s="16"/>
+      <c r="AK1" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL1" s="16"/>
+      <c r="AM1" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN1" s="16"/>
+      <c r="AO1" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP1" s="16"/>
+      <c r="AQ1" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="AR1" s="16"/>
+      <c r="AS1" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="AT1" s="16"/>
+      <c r="AU1" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="AV1" s="16"/>
+      <c r="AW1" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX1" s="16"/>
+      <c r="AY1" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="AZ1" s="16"/>
+    </row>
+    <row r="2" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H2" t="s">
+        <v>79</v>
+      </c>
+      <c r="I2" t="s">
+        <v>78</v>
+      </c>
+      <c r="J2" t="s">
+        <v>79</v>
+      </c>
+      <c r="K2" t="s">
+        <v>78</v>
+      </c>
+      <c r="L2" t="s">
+        <v>79</v>
+      </c>
+      <c r="M2" t="s">
+        <v>78</v>
+      </c>
+      <c r="N2" t="s">
+        <v>79</v>
+      </c>
+      <c r="O2" t="s">
+        <v>78</v>
+      </c>
+      <c r="P2" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>78</v>
+      </c>
+      <c r="R2" t="s">
+        <v>79</v>
+      </c>
+      <c r="S2" t="s">
+        <v>78</v>
+      </c>
+      <c r="T2" t="s">
+        <v>79</v>
+      </c>
+      <c r="U2" t="s">
+        <v>78</v>
+      </c>
+      <c r="V2" t="s">
+        <v>79</v>
+      </c>
+      <c r="W2" t="s">
+        <v>78</v>
+      </c>
+      <c r="X2" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A3" s="17">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3">
+        <f>IF('cantidad pollos muertos'!C2="","",GAMMAINV(0.025,'cantidad pollos muertos'!C2+(1/2),1))</f>
+        <v>81.81501408848392</v>
+      </c>
+      <c r="D3">
+        <f>IF('cantidad pollos muertos'!C2="","",GAMMAINV(0.975,'cantidad pollos muertos'!C2+(1/2),1))</f>
+        <v>121.07793174019264</v>
+      </c>
+      <c r="E3">
+        <f>IF('cantidad pollos muertos'!D2="","",GAMMAINV(0.025,'cantidad pollos muertos'!D2+(1/2),1))</f>
+        <v>113.64654356442688</v>
+      </c>
+      <c r="F3">
+        <f>IF('cantidad pollos muertos'!D2="","",GAMMAINV(0.975,'cantidad pollos muertos'!D2+(1/2),1))</f>
+        <v>159.24675449675792</v>
+      </c>
+      <c r="G3">
+        <f>IF('cantidad pollos muertos'!E2="","",GAMMAINV(0.025,'cantidad pollos muertos'!E2+(1/2),1))</f>
+        <v>157.90936386034264</v>
+      </c>
+      <c r="H3">
+        <f>IF('cantidad pollos muertos'!E2="","",GAMMAINV(0.975,'cantidad pollos muertos'!E2+(1/2),1))</f>
+        <v>210.98419834076878</v>
+      </c>
+      <c r="I3">
+        <f>IF('cantidad pollos muertos'!F2="","",GAMMAINV(0.025,'cantidad pollos muertos'!F2+(1/2),1))</f>
+        <v>488.22642066888108</v>
+      </c>
+      <c r="J3">
+        <f>IF('cantidad pollos muertos'!F2="","",GAMMAINV(0.975,'cantidad pollos muertos'!F2+(1/2),1))</f>
+        <v>578.66762926654928</v>
+      </c>
+      <c r="K3">
+        <f>IF('cantidad pollos muertos'!G2="","",GAMMAINV(0.025,'cantidad pollos muertos'!G2+(1/2),1))</f>
+        <v>188.61972359104468</v>
+      </c>
+      <c r="L3">
+        <f>IF('cantidad pollos muertos'!G2="","",GAMMAINV(0.975,'cantidad pollos muertos'!G2+(1/2),1))</f>
+        <v>246.27395215279662</v>
+      </c>
+      <c r="M3">
+        <f>IF('cantidad pollos muertos'!H2="","",GAMMAINV(0.025,'cantidad pollos muertos'!H2+(1/2),1))</f>
+        <v>41.867513849812639</v>
+      </c>
+      <c r="N3">
+        <f>IF('cantidad pollos muertos'!H2="","",GAMMAINV(0.975,'cantidad pollos muertos'!H2+(1/2),1))</f>
+        <v>71.024322115123894</v>
+      </c>
+      <c r="O3">
+        <f>IF('cantidad pollos muertos'!I2="","",GAMMAINV(0.025,'cantidad pollos muertos'!I2+(1/2),1))</f>
+        <v>56.777856776887383</v>
+      </c>
+      <c r="P3">
+        <f>IF('cantidad pollos muertos'!I2="","",GAMMAINV(0.975,'cantidad pollos muertos'!I2+(1/2),1))</f>
+        <v>90.114561196020517</v>
+      </c>
+    </row>
+    <row r="4" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A4" s="17">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <f>IF('cantidad pollos muertos'!C3="","",GAMMAINV(0.025,'cantidad pollos muertos'!C3+(1/2),1))</f>
+        <v>516.96965233938352</v>
+      </c>
+      <c r="D4">
+        <f>IF('cantidad pollos muertos'!C3="","",GAMMAINV(0.975,'cantidad pollos muertos'!C3+(1/2),1))</f>
+        <v>609.92441125514006</v>
+      </c>
+      <c r="E4">
+        <f>IF('cantidad pollos muertos'!D3="","",GAMMAINV(0.025,'cantidad pollos muertos'!D3+(1/2),1))</f>
+        <v>2714.4152288149658</v>
+      </c>
+      <c r="F4">
+        <f>IF('cantidad pollos muertos'!D3="","",GAMMAINV(0.975,'cantidad pollos muertos'!D3+(1/2),1))</f>
+        <v>2922.4790287189476</v>
+      </c>
+      <c r="G4">
+        <f>IF('cantidad pollos muertos'!E3="","",GAMMAINV(0.025,'cantidad pollos muertos'!E3+(1/2),1))</f>
+        <v>3188.8502371014001</v>
+      </c>
+      <c r="H4">
+        <f>IF('cantidad pollos muertos'!E3="","",GAMMAINV(0.975,'cantidad pollos muertos'!E3+(1/2),1))</f>
+        <v>3414.0440275083861</v>
+      </c>
+      <c r="I4">
+        <f>IF('cantidad pollos muertos'!F3="","",GAMMAINV(0.025,'cantidad pollos muertos'!F3+(1/2),1))</f>
+        <v>1015.0860812957022</v>
+      </c>
+      <c r="J4">
+        <f>IF('cantidad pollos muertos'!F3="","",GAMMAINV(0.975,'cantidad pollos muertos'!F3+(1/2),1))</f>
+        <v>1143.8080982571503</v>
+      </c>
+      <c r="K4">
+        <f>IF('cantidad pollos muertos'!G3="","",GAMMAINV(0.025,'cantidad pollos muertos'!G3+(1/2),1))</f>
+        <v>474.82502426625246</v>
+      </c>
+      <c r="L4">
+        <f>IF('cantidad pollos muertos'!G3="","",GAMMAINV(0.975,'cantidad pollos muertos'!G3+(1/2),1))</f>
+        <v>564.06901875364156</v>
+      </c>
+      <c r="M4">
+        <f>IF('cantidad pollos muertos'!H3="","",GAMMAINV(0.025,'cantidad pollos muertos'!H3+(1/2),1))</f>
+        <v>319.5015285063526</v>
+      </c>
+      <c r="N4">
+        <f>IF('cantidad pollos muertos'!H3="","",GAMMAINV(0.975,'cantidad pollos muertos'!H3+(1/2),1))</f>
+        <v>393.39239386812818</v>
+      </c>
+      <c r="O4">
+        <f>IF('cantidad pollos muertos'!I3="","",GAMMAINV(0.025,'cantidad pollos muertos'!I3+(1/2),1))</f>
+        <v>341.32455791271349</v>
+      </c>
+      <c r="P4">
+        <f>IF('cantidad pollos muertos'!I3="","",GAMMAINV(0.975,'cantidad pollos muertos'!I3+(1/2),1))</f>
+        <v>417.56938778801128</v>
+      </c>
+    </row>
+    <row r="5" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A5" s="17">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5" t="str">
+        <f>IF('cantidad pollos muertos'!C4="","",GAMMAINV(0.025,'cantidad pollos muertos'!C4+(1/2),1))</f>
+        <v/>
+      </c>
+      <c r="D5" t="str">
+        <f>IF('cantidad pollos muertos'!C4="","",GAMMAINV(0.975,'cantidad pollos muertos'!C4+(1/2),1))</f>
+        <v/>
+      </c>
+      <c r="E5" t="str">
+        <f>IF('cantidad pollos muertos'!D4="","",GAMMAINV(0.025,'cantidad pollos muertos'!D4+(1/2),1))</f>
+        <v/>
+      </c>
+      <c r="F5" t="str">
+        <f>IF('cantidad pollos muertos'!D4="","",GAMMAINV(0.975,'cantidad pollos muertos'!D4+(1/2),1))</f>
+        <v/>
+      </c>
+      <c r="G5" t="str">
+        <f>IF('cantidad pollos muertos'!E4="","",GAMMAINV(0.025,'cantidad pollos muertos'!E4+(1/2),1))</f>
+        <v/>
+      </c>
+      <c r="H5" t="str">
+        <f>IF('cantidad pollos muertos'!E4="","",GAMMAINV(0.975,'cantidad pollos muertos'!E4+(1/2),1))</f>
+        <v/>
+      </c>
+      <c r="I5" t="str">
+        <f>IF('cantidad pollos muertos'!F4="","",GAMMAINV(0.025,'cantidad pollos muertos'!F4+(1/2),1))</f>
+        <v/>
+      </c>
+      <c r="J5" t="str">
+        <f>IF('cantidad pollos muertos'!F4="","",GAMMAINV(0.975,'cantidad pollos muertos'!F4+(1/2),1))</f>
+        <v/>
+      </c>
+      <c r="K5" t="str">
+        <f>IF('cantidad pollos muertos'!G4="","",GAMMAINV(0.025,'cantidad pollos muertos'!G4+(1/2),1))</f>
+        <v/>
+      </c>
+      <c r="L5" t="str">
+        <f>IF('cantidad pollos muertos'!G4="","",GAMMAINV(0.975,'cantidad pollos muertos'!G4+(1/2),1))</f>
+        <v/>
+      </c>
+      <c r="M5" t="str">
+        <f>IF('cantidad pollos muertos'!H4="","",GAMMAINV(0.025,'cantidad pollos muertos'!H4+(1/2),1))</f>
+        <v/>
+      </c>
+      <c r="N5" t="str">
+        <f>IF('cantidad pollos muertos'!H4="","",GAMMAINV(0.975,'cantidad pollos muertos'!H4+(1/2),1))</f>
+        <v/>
+      </c>
+      <c r="O5" t="str">
+        <f>IF('cantidad pollos muertos'!I4="","",GAMMAINV(0.025,'cantidad pollos muertos'!I4+(1/2),1))</f>
+        <v/>
+      </c>
+      <c r="P5" t="str">
+        <f>IF('cantidad pollos muertos'!I4="","",GAMMAINV(0.975,'cantidad pollos muertos'!I4+(1/2),1))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A6" s="17">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6">
+        <f>IF('cantidad pollos muertos'!C5="","",GAMMAINV(0.025,'cantidad pollos muertos'!C5+(1/2),1))</f>
+        <v>62.100315262370202</v>
+      </c>
+      <c r="D6">
+        <f>IF('cantidad pollos muertos'!C5="","",GAMMAINV(0.975,'cantidad pollos muertos'!C5+(1/2),1))</f>
+        <v>96.792247666792676</v>
+      </c>
+      <c r="E6">
+        <f>IF('cantidad pollos muertos'!D5="","",GAMMAINV(0.025,'cantidad pollos muertos'!D5+(1/2),1))</f>
+        <v>80.91309119682343</v>
+      </c>
+      <c r="F6">
+        <f>IF('cantidad pollos muertos'!D5="","",GAMMAINV(0.975,'cantidad pollos muertos'!D5+(1/2),1))</f>
+        <v>119.9798409138221</v>
+      </c>
+      <c r="G6">
+        <f>IF('cantidad pollos muertos'!E5="","",GAMMAINV(0.025,'cantidad pollos muertos'!E5+(1/2),1))</f>
+        <v>88.141732680851817</v>
+      </c>
+      <c r="H6">
+        <f>IF('cantidad pollos muertos'!E5="","",GAMMAINV(0.975,'cantidad pollos muertos'!E5+(1/2),1))</f>
+        <v>128.75130200416774</v>
+      </c>
+      <c r="I6">
+        <f>IF('cantidad pollos muertos'!F5="","",GAMMAINV(0.025,'cantidad pollos muertos'!F5+(1/2),1))</f>
+        <v>70.13092837414608</v>
+      </c>
+      <c r="J6">
+        <f>IF('cantidad pollos muertos'!F5="","",GAMMAINV(0.975,'cantidad pollos muertos'!F5+(1/2),1))</f>
+        <v>106.76181456300202</v>
+      </c>
+      <c r="K6">
+        <f>IF('cantidad pollos muertos'!G5="","",GAMMAINV(0.025,'cantidad pollos muertos'!G5+(1/2),1))</f>
+        <v>66.555282724745524</v>
+      </c>
+      <c r="L6">
+        <f>IF('cantidad pollos muertos'!G5="","",GAMMAINV(0.975,'cantidad pollos muertos'!G5+(1/2),1))</f>
+        <v>102.33738501995983</v>
+      </c>
+      <c r="M6">
+        <f>IF('cantidad pollos muertos'!H5="","",GAMMAINV(0.025,'cantidad pollos muertos'!H5+(1/2),1))</f>
+        <v>38.404302086786373</v>
+      </c>
+      <c r="N6">
+        <f>IF('cantidad pollos muertos'!H5="","",GAMMAINV(0.975,'cantidad pollos muertos'!H5+(1/2),1))</f>
+        <v>66.487340707595948</v>
+      </c>
+      <c r="O6">
+        <f>IF('cantidad pollos muertos'!I5="","",GAMMAINV(0.025,'cantidad pollos muertos'!I5+(1/2),1))</f>
+        <v>21.47513743774951</v>
+      </c>
+      <c r="P6">
+        <f>IF('cantidad pollos muertos'!I5="","",GAMMAINV(0.975,'cantidad pollos muertos'!I5+(1/2),1))</f>
+        <v>43.414795283643059</v>
+      </c>
+    </row>
+    <row r="7" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A7" s="17">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7">
+        <f>IF('cantidad pollos muertos'!C6="","",GAMMAINV(0.025,'cantidad pollos muertos'!C6+(1/2),1))</f>
+        <v>44.47754524508602</v>
+      </c>
+      <c r="D7">
+        <f>IF('cantidad pollos muertos'!C6="","",GAMMAINV(0.975,'cantidad pollos muertos'!C6+(1/2),1))</f>
+        <v>74.414418156443148</v>
+      </c>
+      <c r="E7">
+        <f>IF('cantidad pollos muertos'!D6="","",GAMMAINV(0.025,'cantidad pollos muertos'!D6+(1/2),1))</f>
+        <v>75.512217647445581</v>
+      </c>
+      <c r="F7">
+        <f>IF('cantidad pollos muertos'!D6="","",GAMMAINV(0.975,'cantidad pollos muertos'!D6+(1/2),1))</f>
+        <v>113.38062596936612</v>
+      </c>
+      <c r="G7">
+        <f>IF('cantidad pollos muertos'!E6="","",GAMMAINV(0.025,'cantidad pollos muertos'!E6+(1/2),1))</f>
+        <v>132.94130350503522</v>
+      </c>
+      <c r="H7">
+        <f>IF('cantidad pollos muertos'!E6="","",GAMMAINV(0.975,'cantidad pollos muertos'!E6+(1/2),1))</f>
+        <v>181.95213009999131</v>
+      </c>
+      <c r="I7">
+        <f>IF('cantidad pollos muertos'!F6="","",GAMMAINV(0.025,'cantidad pollos muertos'!F6+(1/2),1))</f>
+        <v>117.31204422916028</v>
+      </c>
+      <c r="J7">
+        <f>IF('cantidad pollos muertos'!F6="","",GAMMAINV(0.975,'cantidad pollos muertos'!F6+(1/2),1))</f>
+        <v>163.58128280422588</v>
+      </c>
+      <c r="K7">
+        <f>IF('cantidad pollos muertos'!G6="","",GAMMAINV(0.025,'cantidad pollos muertos'!G6+(1/2),1))</f>
+        <v>119.14659511982991</v>
+      </c>
+      <c r="L7">
+        <f>IF('cantidad pollos muertos'!G6="","",GAMMAINV(0.975,'cantidad pollos muertos'!G6+(1/2),1))</f>
+        <v>165.74674578385378</v>
+      </c>
+      <c r="M7">
+        <f>IF('cantidad pollos muertos'!H6="","",GAMMAINV(0.025,'cantidad pollos muertos'!H6+(1/2),1))</f>
+        <v>35.820758132639803</v>
+      </c>
+      <c r="N7">
+        <f>IF('cantidad pollos muertos'!H6="","",GAMMAINV(0.975,'cantidad pollos muertos'!H6+(1/2),1))</f>
+        <v>63.070718720047985</v>
+      </c>
+      <c r="O7">
+        <f>IF('cantidad pollos muertos'!I6="","",GAMMAINV(0.025,'cantidad pollos muertos'!I6+(1/2),1))</f>
+        <v>72.819004490068878</v>
+      </c>
+      <c r="P7">
+        <f>IF('cantidad pollos muertos'!I6="","",GAMMAINV(0.975,'cantidad pollos muertos'!I6+(1/2),1))</f>
+        <v>110.07379046221725</v>
+      </c>
+    </row>
+    <row r="8" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A8" s="17">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8">
+        <f>IF('cantidad pollos muertos'!C7="","",GAMMAINV(0.025,'cantidad pollos muertos'!C7+(1/2),1))</f>
+        <v>158.83708624586913</v>
+      </c>
+      <c r="D8">
+        <f>IF('cantidad pollos muertos'!C7="","",GAMMAINV(0.975,'cantidad pollos muertos'!C7+(1/2),1))</f>
+        <v>212.05647999384703</v>
+      </c>
+      <c r="E8">
+        <f>IF('cantidad pollos muertos'!D7="","",GAMMAINV(0.025,'cantidad pollos muertos'!D7+(1/2),1))</f>
+        <v>42.736375985688582</v>
+      </c>
+      <c r="F8">
+        <f>IF('cantidad pollos muertos'!D7="","",GAMMAINV(0.975,'cantidad pollos muertos'!D7+(1/2),1))</f>
+        <v>72.155503971269738</v>
+      </c>
+      <c r="G8">
+        <f>IF('cantidad pollos muertos'!E7="","",GAMMAINV(0.025,'cantidad pollos muertos'!E7+(1/2),1))</f>
+        <v>72.819004490068878</v>
+      </c>
+      <c r="H8">
+        <f>IF('cantidad pollos muertos'!E7="","",GAMMAINV(0.975,'cantidad pollos muertos'!E7+(1/2),1))</f>
+        <v>110.07379046221725</v>
+      </c>
+      <c r="I8">
+        <f>IF('cantidad pollos muertos'!F7="","",GAMMAINV(0.025,'cantidad pollos muertos'!F7+(1/2),1))</f>
+        <v>103.59279761759664</v>
+      </c>
+      <c r="J8">
+        <f>IF('cantidad pollos muertos'!F7="","",GAMMAINV(0.975,'cantidad pollos muertos'!F7+(1/2),1))</f>
+        <v>147.3004111432507</v>
+      </c>
+      <c r="K8">
+        <f>IF('cantidad pollos muertos'!G7="","",GAMMAINV(0.025,'cantidad pollos muertos'!G7+(1/2),1))</f>
+        <v>57.663034081546456</v>
+      </c>
+      <c r="L8">
+        <f>IF('cantidad pollos muertos'!G7="","",GAMMAINV(0.975,'cantidad pollos muertos'!G7+(1/2),1))</f>
+        <v>91.229409702209395</v>
+      </c>
+      <c r="M8">
+        <f>IF('cantidad pollos muertos'!H7="","",GAMMAINV(0.025,'cantidad pollos muertos'!H7+(1/2),1))</f>
+        <v>21.47513743774951</v>
+      </c>
+      <c r="N8">
+        <f>IF('cantidad pollos muertos'!H7="","",GAMMAINV(0.975,'cantidad pollos muertos'!H7+(1/2),1))</f>
+        <v>43.414795283643059</v>
+      </c>
+      <c r="O8">
+        <f>IF('cantidad pollos muertos'!I7="","",GAMMAINV(0.025,'cantidad pollos muertos'!I7+(1/2),1))</f>
+        <v>21.47513743774951</v>
+      </c>
+      <c r="P8">
+        <f>IF('cantidad pollos muertos'!I7="","",GAMMAINV(0.975,'cantidad pollos muertos'!I7+(1/2),1))</f>
+        <v>43.414795283643059</v>
+      </c>
+    </row>
+    <row r="9" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A9" s="17">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9">
+        <f>IF('cantidad pollos muertos'!C8="","",GAMMAINV(0.025,'cantidad pollos muertos'!C8+(1/2),1))</f>
+        <v>102.68086028845509</v>
+      </c>
+      <c r="D9">
+        <f>IF('cantidad pollos muertos'!C8="","",GAMMAINV(0.975,'cantidad pollos muertos'!C8+(1/2),1))</f>
+        <v>146.21233956308285</v>
+      </c>
+      <c r="E9">
+        <f>IF('cantidad pollos muertos'!D8="","",GAMMAINV(0.025,'cantidad pollos muertos'!D8+(1/2),1))</f>
+        <v>100.85806313977369</v>
+      </c>
+      <c r="F9">
+        <f>IF('cantidad pollos muertos'!D8="","",GAMMAINV(0.975,'cantidad pollos muertos'!D8+(1/2),1))</f>
+        <v>144.03511845188567</v>
+      </c>
+      <c r="G9">
+        <f>IF('cantidad pollos muertos'!E8="","",GAMMAINV(0.025,'cantidad pollos muertos'!E8+(1/2),1))</f>
+        <v>81.81501408848392</v>
+      </c>
+      <c r="H9">
+        <f>IF('cantidad pollos muertos'!E8="","",GAMMAINV(0.975,'cantidad pollos muertos'!E8+(1/2),1))</f>
+        <v>121.07793174019264</v>
+      </c>
+      <c r="I9">
+        <f>IF('cantidad pollos muertos'!F8="","",GAMMAINV(0.025,'cantidad pollos muertos'!F8+(1/2),1))</f>
+        <v>110.90067430604017</v>
+      </c>
+      <c r="J9">
+        <f>IF('cantidad pollos muertos'!F8="","",GAMMAINV(0.975,'cantidad pollos muertos'!F8+(1/2),1))</f>
+        <v>155.99260087494179</v>
+      </c>
+      <c r="K9">
+        <f>IF('cantidad pollos muertos'!G8="","",GAMMAINV(0.025,'cantidad pollos muertos'!G8+(1/2),1))</f>
+        <v>60.323184053048578</v>
+      </c>
+      <c r="L9">
+        <f>IF('cantidad pollos muertos'!G8="","",GAMMAINV(0.975,'cantidad pollos muertos'!G8+(1/2),1))</f>
+        <v>94.569333095614553</v>
+      </c>
+      <c r="M9">
+        <f>IF('cantidad pollos muertos'!H8="","",GAMMAINV(0.025,'cantidad pollos muertos'!H8+(1/2),1))</f>
+        <v>69.236090053698319</v>
+      </c>
+      <c r="N9">
+        <f>IF('cantidad pollos muertos'!H8="","",GAMMAINV(0.975,'cantidad pollos muertos'!H8+(1/2),1))</f>
+        <v>105.65663473998677</v>
+      </c>
+      <c r="O9">
+        <f>IF('cantidad pollos muertos'!I8="","",GAMMAINV(0.025,'cantidad pollos muertos'!I8+(1/2),1))</f>
+        <v>43.606396503709874</v>
+      </c>
+      <c r="P9">
+        <f>IF('cantidad pollos muertos'!I8="","",GAMMAINV(0.975,'cantidad pollos muertos'!I8+(1/2),1))</f>
+        <v>73.285525905634486</v>
+      </c>
+    </row>
+    <row r="10" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A10" s="17">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <f>IF('cantidad pollos muertos'!C9="","",GAMMAINV(0.025,'cantidad pollos muertos'!C9+(1/2),1))</f>
+        <v>115.47868500239804</v>
+      </c>
+      <c r="D10">
+        <f>IF('cantidad pollos muertos'!C9="","",GAMMAINV(0.975,'cantidad pollos muertos'!C9+(1/2),1))</f>
+        <v>161.41462775614207</v>
+      </c>
+      <c r="E10">
+        <f>IF('cantidad pollos muertos'!D9="","",GAMMAINV(0.025,'cantidad pollos muertos'!D9+(1/2),1))</f>
+        <v>62.100315262370202</v>
+      </c>
+      <c r="F10">
+        <f>IF('cantidad pollos muertos'!D9="","",GAMMAINV(0.975,'cantidad pollos muertos'!D9+(1/2),1))</f>
+        <v>96.792247666792676</v>
+      </c>
+      <c r="G10">
+        <f>IF('cantidad pollos muertos'!E9="","",GAMMAINV(0.025,'cantidad pollos muertos'!E9+(1/2),1))</f>
+        <v>80.01166316279793</v>
+      </c>
+      <c r="H10">
+        <f>IF('cantidad pollos muertos'!E9="","",GAMMAINV(0.975,'cantidad pollos muertos'!E9+(1/2),1))</f>
+        <v>118.88125495026803</v>
+      </c>
+      <c r="I10">
+        <f>IF('cantidad pollos muertos'!F9="","",GAMMAINV(0.025,'cantidad pollos muertos'!F9+(1/2),1))</f>
+        <v>140.32211069619123</v>
+      </c>
+      <c r="J10">
+        <f>IF('cantidad pollos muertos'!F9="","",GAMMAINV(0.975,'cantidad pollos muertos'!F9+(1/2),1))</f>
+        <v>190.57136542184699</v>
+      </c>
+      <c r="K10">
+        <f>IF('cantidad pollos muertos'!G9="","",GAMMAINV(0.025,'cantidad pollos muertos'!G9+(1/2),1))</f>
+        <v>60.323184053048578</v>
+      </c>
+      <c r="L10">
+        <f>IF('cantidad pollos muertos'!G9="","",GAMMAINV(0.975,'cantidad pollos muertos'!G9+(1/2),1))</f>
+        <v>94.569333095614553</v>
+      </c>
+      <c r="M10">
+        <f>IF('cantidad pollos muertos'!H9="","",GAMMAINV(0.025,'cantidad pollos muertos'!H9+(1/2),1))</f>
+        <v>11.827162278796511</v>
+      </c>
+      <c r="N10">
+        <f>IF('cantidad pollos muertos'!H9="","",GAMMAINV(0.975,'cantidad pollos muertos'!H9+(1/2),1))</f>
+        <v>29.060029867343136</v>
+      </c>
+      <c r="O10">
+        <f>IF('cantidad pollos muertos'!I9="","",GAMMAINV(0.025,'cantidad pollos muertos'!I9+(1/2),1))</f>
+        <v>59.435713143054343</v>
+      </c>
+      <c r="P10">
+        <f>IF('cantidad pollos muertos'!I9="","",GAMMAINV(0.975,'cantidad pollos muertos'!I9+(1/2),1))</f>
+        <v>93.456780201514249</v>
+      </c>
+    </row>
+    <row r="11" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A11" s="17">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11">
+        <f>IF('cantidad pollos muertos'!C10="","",GAMMAINV(0.025,'cantidad pollos muertos'!C10+(1/2),1))</f>
+        <v>131.09856179092077</v>
+      </c>
+      <c r="D11">
+        <f>IF('cantidad pollos muertos'!C10="","",GAMMAINV(0.975,'cantidad pollos muertos'!C10+(1/2),1))</f>
+        <v>179.79486049634806</v>
+      </c>
+      <c r="E11">
+        <f>IF('cantidad pollos muertos'!D10="","",GAMMAINV(0.025,'cantidad pollos muertos'!D10+(1/2),1))</f>
+        <v>118.22917231280019</v>
+      </c>
+      <c r="F11">
+        <f>IF('cantidad pollos muertos'!D10="","",GAMMAINV(0.975,'cantidad pollos muertos'!D10+(1/2),1))</f>
+        <v>164.66416170522081</v>
+      </c>
+      <c r="G11">
+        <f>IF('cantidad pollos muertos'!E10="","",GAMMAINV(0.025,'cantidad pollos muertos'!E10+(1/2),1))</f>
+        <v>78.210322127740184</v>
+      </c>
+      <c r="H11">
+        <f>IF('cantidad pollos muertos'!E10="","",GAMMAINV(0.975,'cantidad pollos muertos'!E10+(1/2),1))</f>
+        <v>116.68256711663008</v>
+      </c>
+      <c r="I11">
+        <f>IF('cantidad pollos muertos'!F10="","",GAMMAINV(0.025,'cantidad pollos muertos'!F10+(1/2),1))</f>
+        <v>356.52678175263407</v>
+      </c>
+      <c r="J11">
+        <f>IF('cantidad pollos muertos'!F10="","",GAMMAINV(0.975,'cantidad pollos muertos'!F10+(1/2),1))</f>
+        <v>434.3671785694022</v>
+      </c>
+      <c r="K11">
+        <f>IF('cantidad pollos muertos'!G10="","",GAMMAINV(0.025,'cantidad pollos muertos'!G10+(1/2),1))</f>
+        <v>67.448256305265616</v>
+      </c>
+      <c r="L11">
+        <f>IF('cantidad pollos muertos'!G10="","",GAMMAINV(0.975,'cantidad pollos muertos'!G10+(1/2),1))</f>
+        <v>103.44443090775799</v>
+      </c>
+      <c r="M11">
+        <f>IF('cantidad pollos muertos'!H10="","",GAMMAINV(0.025,'cantidad pollos muertos'!H10+(1/2),1))</f>
+        <v>44.47754524508602</v>
+      </c>
+      <c r="N11">
+        <f>IF('cantidad pollos muertos'!H10="","",GAMMAINV(0.975,'cantidad pollos muertos'!H10+(1/2),1))</f>
+        <v>74.414418156443148</v>
+      </c>
+      <c r="O11">
+        <f>IF('cantidad pollos muertos'!I10="","",GAMMAINV(0.025,'cantidad pollos muertos'!I10+(1/2),1))</f>
+        <v>65.662953118336475</v>
+      </c>
+      <c r="P11">
+        <f>IF('cantidad pollos muertos'!I10="","",GAMMAINV(0.975,'cantidad pollos muertos'!I10+(1/2),1))</f>
+        <v>101.22969468404963</v>
+      </c>
+    </row>
+    <row r="12" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A12" s="17">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12">
+        <f>IF('cantidad pollos muertos'!C11="","",GAMMAINV(0.025,'cantidad pollos muertos'!C11+(1/2),1))</f>
+        <v>53.245281263312236</v>
+      </c>
+      <c r="D12">
+        <f>IF('cantidad pollos muertos'!C11="","",GAMMAINV(0.975,'cantidad pollos muertos'!C11+(1/2),1))</f>
+        <v>85.647025890944377</v>
+      </c>
+      <c r="E12">
+        <f>IF('cantidad pollos muertos'!D11="","",GAMMAINV(0.025,'cantidad pollos muertos'!D11+(1/2),1))</f>
+        <v>51.484124143889233</v>
+      </c>
+      <c r="F12">
+        <f>IF('cantidad pollos muertos'!D11="","",GAMMAINV(0.975,'cantidad pollos muertos'!D11+(1/2),1))</f>
+        <v>83.40812257489047</v>
+      </c>
+      <c r="G12">
+        <f>IF('cantidad pollos muertos'!E11="","",GAMMAINV(0.025,'cantidad pollos muertos'!E11+(1/2),1))</f>
+        <v>47.097478066231957</v>
+      </c>
+      <c r="H12">
+        <f>IF('cantidad pollos muertos'!E11="","",GAMMAINV(0.975,'cantidad pollos muertos'!E11+(1/2),1))</f>
+        <v>77.794600267046718</v>
+      </c>
+      <c r="I12">
+        <f>IF('cantidad pollos muertos'!F11="","",GAMMAINV(0.025,'cantidad pollos muertos'!F11+(1/2),1))</f>
+        <v>104.50508834559244</v>
+      </c>
+      <c r="J12">
+        <f>IF('cantidad pollos muertos'!F11="","",GAMMAINV(0.975,'cantidad pollos muertos'!F11+(1/2),1))</f>
+        <v>148.38812918217897</v>
+      </c>
+      <c r="K12">
+        <f>IF('cantidad pollos muertos'!G11="","",GAMMAINV(0.025,'cantidad pollos muertos'!G11+(1/2),1))</f>
+        <v>26.470969885266424</v>
+      </c>
+      <c r="L12">
+        <f>IF('cantidad pollos muertos'!G11="","",GAMMAINV(0.975,'cantidad pollos muertos'!G11+(1/2),1))</f>
+        <v>50.419669200906682</v>
+      </c>
+      <c r="M12">
+        <f>IF('cantidad pollos muertos'!H11="","",GAMMAINV(0.025,'cantidad pollos muertos'!H11+(1/2),1))</f>
+        <v>23.962081311793447</v>
+      </c>
+      <c r="N12">
+        <f>IF('cantidad pollos muertos'!H11="","",GAMMAINV(0.975,'cantidad pollos muertos'!H11+(1/2),1))</f>
+        <v>46.928235619342686</v>
+      </c>
+      <c r="O12">
+        <f>IF('cantidad pollos muertos'!I11="","",GAMMAINV(0.025,'cantidad pollos muertos'!I11+(1/2),1))</f>
+        <v>34.962433543720138</v>
+      </c>
+      <c r="P12">
+        <f>IF('cantidad pollos muertos'!I11="","",GAMMAINV(0.975,'cantidad pollos muertos'!I11+(1/2),1))</f>
+        <v>61.928983302147522</v>
+      </c>
+    </row>
+    <row r="13" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A13" s="17">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13" t="str">
+        <f>IF('cantidad pollos muertos'!C12="","",GAMMAINV(0.025,'cantidad pollos muertos'!C12+(1/2),1))</f>
+        <v/>
+      </c>
+      <c r="D13" t="str">
+        <f>IF('cantidad pollos muertos'!C12="","",GAMMAINV(0.975,'cantidad pollos muertos'!C12+(1/2),1))</f>
+        <v/>
+      </c>
+      <c r="E13" t="str">
+        <f>IF('cantidad pollos muertos'!D12="","",GAMMAINV(0.025,'cantidad pollos muertos'!D12+(1/2),1))</f>
+        <v/>
+      </c>
+      <c r="F13" t="str">
+        <f>IF('cantidad pollos muertos'!D12="","",GAMMAINV(0.975,'cantidad pollos muertos'!D12+(1/2),1))</f>
+        <v/>
+      </c>
+      <c r="G13" t="str">
+        <f>IF('cantidad pollos muertos'!E12="","",GAMMAINV(0.025,'cantidad pollos muertos'!E12+(1/2),1))</f>
+        <v/>
+      </c>
+      <c r="H13" t="str">
+        <f>IF('cantidad pollos muertos'!E12="","",GAMMAINV(0.975,'cantidad pollos muertos'!E12+(1/2),1))</f>
+        <v/>
+      </c>
+      <c r="I13" t="str">
+        <f>IF('cantidad pollos muertos'!F12="","",GAMMAINV(0.025,'cantidad pollos muertos'!F12+(1/2),1))</f>
+        <v/>
+      </c>
+      <c r="J13" t="str">
+        <f>IF('cantidad pollos muertos'!F12="","",GAMMAINV(0.975,'cantidad pollos muertos'!F12+(1/2),1))</f>
+        <v/>
+      </c>
+      <c r="K13" t="str">
+        <f>IF('cantidad pollos muertos'!G12="","",GAMMAINV(0.025,'cantidad pollos muertos'!G12+(1/2),1))</f>
+        <v/>
+      </c>
+      <c r="L13" t="str">
+        <f>IF('cantidad pollos muertos'!G12="","",GAMMAINV(0.975,'cantidad pollos muertos'!G12+(1/2),1))</f>
+        <v/>
+      </c>
+      <c r="M13" t="str">
+        <f>IF('cantidad pollos muertos'!H12="","",GAMMAINV(0.025,'cantidad pollos muertos'!H12+(1/2),1))</f>
+        <v/>
+      </c>
+      <c r="N13" t="str">
+        <f>IF('cantidad pollos muertos'!H12="","",GAMMAINV(0.975,'cantidad pollos muertos'!H12+(1/2),1))</f>
+        <v/>
+      </c>
+      <c r="O13" t="str">
+        <f>IF('cantidad pollos muertos'!I12="","",GAMMAINV(0.025,'cantidad pollos muertos'!I12+(1/2),1))</f>
+        <v/>
+      </c>
+      <c r="P13" t="str">
+        <f>IF('cantidad pollos muertos'!I12="","",GAMMAINV(0.975,'cantidad pollos muertos'!I12+(1/2),1))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A14" s="17">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14">
+        <f>IF('cantidad pollos muertos'!C13="","",GAMMAINV(0.025,'cantidad pollos muertos'!C13+(1/2),1))</f>
+        <v>90.859922139610205</v>
+      </c>
+      <c r="D14">
+        <f>IF('cantidad pollos muertos'!C13="","",GAMMAINV(0.975,'cantidad pollos muertos'!C13+(1/2),1))</f>
+        <v>132.0331471692906</v>
+      </c>
+      <c r="E14">
+        <f>IF('cantidad pollos muertos'!D13="","",GAMMAINV(0.025,'cantidad pollos muertos'!D13+(1/2),1))</f>
+        <v>365.08513746329737</v>
+      </c>
+      <c r="F14">
+        <f>IF('cantidad pollos muertos'!D13="","",GAMMAINV(0.975,'cantidad pollos muertos'!D13+(1/2),1))</f>
+        <v>443.8088305732029</v>
+      </c>
+      <c r="G14">
+        <f>IF('cantidad pollos muertos'!E13="","",GAMMAINV(0.025,'cantidad pollos muertos'!E13+(1/2),1))</f>
+        <v>183.95480974406874</v>
+      </c>
+      <c r="H14">
+        <f>IF('cantidad pollos muertos'!E13="","",GAMMAINV(0.975,'cantidad pollos muertos'!E13+(1/2),1))</f>
+        <v>240.93885107770447</v>
+      </c>
+      <c r="I14">
+        <f>IF('cantidad pollos muertos'!F13="","",GAMMAINV(0.025,'cantidad pollos muertos'!F13+(1/2),1))</f>
+        <v>869.73007517075735</v>
+      </c>
+      <c r="J14">
+        <f>IF('cantidad pollos muertos'!F13="","",GAMMAINV(0.975,'cantidad pollos muertos'!F13+(1/2),1))</f>
+        <v>989.1640839658844</v>
+      </c>
+      <c r="K14">
+        <f>IF('cantidad pollos muertos'!G13="","",GAMMAINV(0.025,'cantidad pollos muertos'!G13+(1/2),1))</f>
+        <v>188.61972359104468</v>
+      </c>
+      <c r="L14">
+        <f>IF('cantidad pollos muertos'!G13="","",GAMMAINV(0.975,'cantidad pollos muertos'!G13+(1/2),1))</f>
+        <v>246.27395215279662</v>
+      </c>
+      <c r="M14">
+        <f>IF('cantidad pollos muertos'!H13="","",GAMMAINV(0.025,'cantidad pollos muertos'!H13+(1/2),1))</f>
+        <v>89.047363315798918</v>
+      </c>
+      <c r="N14">
+        <f>IF('cantidad pollos muertos'!H13="","",GAMMAINV(0.975,'cantidad pollos muertos'!H13+(1/2),1))</f>
+        <v>129.84568312395754</v>
+      </c>
+      <c r="O14">
+        <f>IF('cantidad pollos muertos'!I13="","",GAMMAINV(0.025,'cantidad pollos muertos'!I13+(1/2),1))</f>
+        <v>75.512217647445581</v>
+      </c>
+      <c r="P14">
+        <f>IF('cantidad pollos muertos'!I13="","",GAMMAINV(0.975,'cantidad pollos muertos'!I13+(1/2),1))</f>
+        <v>113.38062596936612</v>
+      </c>
+    </row>
+    <row r="15" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A15" s="17">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15">
+        <f>IF('cantidad pollos muertos'!C14="","",GAMMAINV(0.025,'cantidad pollos muertos'!C14+(1/2),1))</f>
+        <v>548.62533919166628</v>
+      </c>
+      <c r="D15">
+        <f>IF('cantidad pollos muertos'!C14="","",GAMMAINV(0.975,'cantidad pollos muertos'!C14+(1/2),1))</f>
+        <v>644.26873783735732</v>
+      </c>
+      <c r="E15">
+        <f>IF('cantidad pollos muertos'!D14="","",GAMMAINV(0.025,'cantidad pollos muertos'!D14+(1/2),1))</f>
+        <v>1929.4378712657417</v>
+      </c>
+      <c r="F15">
+        <f>IF('cantidad pollos muertos'!D14="","",GAMMAINV(0.975,'cantidad pollos muertos'!D14+(1/2),1))</f>
+        <v>2105.4563670604039</v>
+      </c>
+      <c r="G15">
+        <f>IF('cantidad pollos muertos'!E14="","",GAMMAINV(0.025,'cantidad pollos muertos'!E14+(1/2),1))</f>
+        <v>960.77956899582364</v>
+      </c>
+      <c r="H15">
+        <f>IF('cantidad pollos muertos'!E14="","",GAMMAINV(0.975,'cantidad pollos muertos'!E14+(1/2),1))</f>
+        <v>1086.1146036359291</v>
+      </c>
+      <c r="I15">
+        <f>IF('cantidad pollos muertos'!F14="","",GAMMAINV(0.025,'cantidad pollos muertos'!F14+(1/2),1))</f>
+        <v>590.88961410159629</v>
+      </c>
+      <c r="J15">
+        <f>IF('cantidad pollos muertos'!F14="","",GAMMAINV(0.975,'cantidad pollos muertos'!F14+(1/2),1))</f>
+        <v>690.0044786820838</v>
+      </c>
+      <c r="K15">
+        <f>IF('cantidad pollos muertos'!G14="","",GAMMAINV(0.025,'cantidad pollos muertos'!G14+(1/2),1))</f>
+        <v>664.99010981710069</v>
+      </c>
+      <c r="L15">
+        <f>IF('cantidad pollos muertos'!G14="","",GAMMAINV(0.975,'cantidad pollos muertos'!G14+(1/2),1))</f>
+        <v>769.90400587886734</v>
+      </c>
+      <c r="M15">
+        <f>IF('cantidad pollos muertos'!H14="","",GAMMAINV(0.025,'cantidad pollos muertos'!H14+(1/2),1))</f>
+        <v>184.8874780024845</v>
+      </c>
+      <c r="N15">
+        <f>IF('cantidad pollos muertos'!H14="","",GAMMAINV(0.975,'cantidad pollos muertos'!H14+(1/2),1))</f>
+        <v>242.00618585997404</v>
+      </c>
+      <c r="O15">
+        <f>IF('cantidad pollos muertos'!I14="","",GAMMAINV(0.025,'cantidad pollos muertos'!I14+(1/2),1))</f>
+        <v>418.4413310947719</v>
+      </c>
+      <c r="P15">
+        <f>IF('cantidad pollos muertos'!I14="","",GAMMAINV(0.975,'cantidad pollos muertos'!I14+(1/2),1))</f>
+        <v>502.45267814740237</v>
+      </c>
+    </row>
+    <row r="16" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A16" s="17">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" t="str">
+        <f>IF('cantidad pollos muertos'!C15="","",GAMMAINV(0.025,'cantidad pollos muertos'!C15+(1/2),1))</f>
+        <v/>
+      </c>
+      <c r="D16" t="str">
+        <f>IF('cantidad pollos muertos'!C15="","",GAMMAINV(0.975,'cantidad pollos muertos'!C15+(1/2),1))</f>
+        <v/>
+      </c>
+      <c r="E16">
+        <f>IF('cantidad pollos muertos'!D15="","",GAMMAINV(0.025,'cantidad pollos muertos'!D15+(1/2),1))</f>
+        <v>83.620315112988024</v>
+      </c>
+      <c r="F16">
+        <f>IF('cantidad pollos muertos'!D15="","",GAMMAINV(0.975,'cantidad pollos muertos'!D15+(1/2),1))</f>
+        <v>123.27265734594629</v>
+      </c>
+      <c r="G16">
+        <f>IF('cantidad pollos muertos'!E15="","",GAMMAINV(0.025,'cantidad pollos muertos'!E15+(1/2),1))</f>
+        <v>99.036732422663277</v>
+      </c>
+      <c r="H16">
+        <f>IF('cantidad pollos muertos'!E15="","",GAMMAINV(0.975,'cantidad pollos muertos'!E15+(1/2),1))</f>
+        <v>141.85643029608053</v>
+      </c>
+      <c r="I16">
+        <f>IF('cantidad pollos muertos'!F15="","",GAMMAINV(0.025,'cantidad pollos muertos'!F15+(1/2),1))</f>
+        <v>237.34147530468096</v>
+      </c>
+      <c r="J16">
+        <f>IF('cantidad pollos muertos'!F15="","",GAMMAINV(0.975,'cantidad pollos muertos'!F15+(1/2),1))</f>
+        <v>301.5523226395245</v>
+      </c>
+      <c r="K16">
+        <f>IF('cantidad pollos muertos'!G15="","",GAMMAINV(0.025,'cantidad pollos muertos'!G15+(1/2),1))</f>
+        <v>224.19024026146081</v>
+      </c>
+      <c r="L16">
+        <f>IF('cantidad pollos muertos'!G15="","",GAMMAINV(0.975,'cantidad pollos muertos'!G15+(1/2),1))</f>
+        <v>286.70352970194375</v>
+      </c>
+      <c r="M16">
+        <f>IF('cantidad pollos muertos'!H15="","",GAMMAINV(0.025,'cantidad pollos muertos'!H15+(1/2),1))</f>
+        <v>65.662953118336475</v>
+      </c>
+      <c r="N16">
+        <f>IF('cantidad pollos muertos'!H15="","",GAMMAINV(0.975,'cantidad pollos muertos'!H15+(1/2),1))</f>
+        <v>101.22969468404963</v>
+      </c>
+      <c r="O16">
+        <f>IF('cantidad pollos muertos'!I15="","",GAMMAINV(0.025,'cantidad pollos muertos'!I15+(1/2),1))</f>
+        <v>316.65782225114049</v>
+      </c>
+      <c r="P16">
+        <f>IF('cantidad pollos muertos'!I15="","",GAMMAINV(0.975,'cantidad pollos muertos'!I15+(1/2),1))</f>
+        <v>390.23609685614366</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" s="17">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17">
+        <f>IF('cantidad pollos muertos'!C16="","",GAMMAINV(0.025,'cantidad pollos muertos'!C16+(1/2),1))</f>
+        <v>414.62463159782908</v>
+      </c>
+      <c r="D17">
+        <f>IF('cantidad pollos muertos'!C16="","",GAMMAINV(0.975,'cantidad pollos muertos'!C16+(1/2),1))</f>
+        <v>498.26937503735041</v>
+      </c>
+      <c r="E17">
+        <f>IF('cantidad pollos muertos'!D16="","",GAMMAINV(0.025,'cantidad pollos muertos'!D16+(1/2),1))</f>
+        <v>954.96373633968722</v>
+      </c>
+      <c r="F17">
+        <f>IF('cantidad pollos muertos'!D16="","",GAMMAINV(0.975,'cantidad pollos muertos'!D16+(1/2),1))</f>
+        <v>1079.9304355052736</v>
+      </c>
+      <c r="G17">
+        <f>IF('cantidad pollos muertos'!E16="","",GAMMAINV(0.025,'cantidad pollos muertos'!E16+(1/2),1))</f>
+        <v>218.56113580640749</v>
+      </c>
+      <c r="H17">
+        <f>IF('cantidad pollos muertos'!E16="","",GAMMAINV(0.975,'cantidad pollos muertos'!E16+(1/2),1))</f>
+        <v>280.33262119870307</v>
+      </c>
+      <c r="I17">
+        <f>IF('cantidad pollos muertos'!F16="","",GAMMAINV(0.025,'cantidad pollos muertos'!F16+(1/2),1))</f>
+        <v>459.5191297448269</v>
+      </c>
+      <c r="J17">
+        <f>IF('cantidad pollos muertos'!F16="","",GAMMAINV(0.975,'cantidad pollos muertos'!F16+(1/2),1))</f>
+        <v>547.37490489941183</v>
+      </c>
+      <c r="K17">
+        <f>IF('cantidad pollos muertos'!G16="","",GAMMAINV(0.025,'cantidad pollos muertos'!G16+(1/2),1))</f>
+        <v>567.82869082765899</v>
+      </c>
+      <c r="L17">
+        <f>IF('cantidad pollos muertos'!G16="","",GAMMAINV(0.975,'cantidad pollos muertos'!G16+(1/2),1))</f>
+        <v>665.06539364196919</v>
+      </c>
+      <c r="M17">
+        <f>IF('cantidad pollos muertos'!H16="","",GAMMAINV(0.025,'cantidad pollos muertos'!H16+(1/2),1))</f>
+        <v>134.78504789814309</v>
+      </c>
+      <c r="N17">
+        <f>IF('cantidad pollos muertos'!H16="","",GAMMAINV(0.975,'cantidad pollos muertos'!H16+(1/2),1))</f>
+        <v>184.10839673837526</v>
+      </c>
+      <c r="O17">
+        <f>IF('cantidad pollos muertos'!I16="","",GAMMAINV(0.025,'cantidad pollos muertos'!I16+(1/2),1))</f>
+        <v>296.77104480838858</v>
+      </c>
+      <c r="P17">
+        <f>IF('cantidad pollos muertos'!I16="","",GAMMAINV(0.975,'cantidad pollos muertos'!I16+(1/2),1))</f>
+        <v>368.12284977095686</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" s="17">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18">
+        <f>IF('cantidad pollos muertos'!C17="","",GAMMAINV(0.025,'cantidad pollos muertos'!C17+(1/2),1))</f>
+        <v>235.46134851689186</v>
+      </c>
+      <c r="D18">
+        <f>IF('cantidad pollos muertos'!C17="","",GAMMAINV(0.975,'cantidad pollos muertos'!C17+(1/2),1))</f>
+        <v>299.43244561028706</v>
+      </c>
+      <c r="E18">
+        <f>IF('cantidad pollos muertos'!D17="","",GAMMAINV(0.025,'cantidad pollos muertos'!D17+(1/2),1))</f>
+        <v>392.69460594412999</v>
+      </c>
+      <c r="F18">
+        <f>IF('cantidad pollos muertos'!D17="","",GAMMAINV(0.975,'cantidad pollos muertos'!D17+(1/2),1))</f>
+        <v>474.19938476424937</v>
+      </c>
+      <c r="G18">
+        <f>IF('cantidad pollos muertos'!E17="","",GAMMAINV(0.025,'cantidad pollos muertos'!E17+(1/2),1))</f>
+        <v>515.05237774304203</v>
+      </c>
+      <c r="H18">
+        <f>IF('cantidad pollos muertos'!E17="","",GAMMAINV(0.975,'cantidad pollos muertos'!E17+(1/2),1))</f>
+        <v>607.84168498639417</v>
+      </c>
+      <c r="I18">
+        <f>IF('cantidad pollos muertos'!F17="","",GAMMAINV(0.025,'cantidad pollos muertos'!F17+(1/2),1))</f>
+        <v>801.0591213348855</v>
+      </c>
+      <c r="J18">
+        <f>IF('cantidad pollos muertos'!F17="","",GAMMAINV(0.975,'cantidad pollos muertos'!F17+(1/2),1))</f>
+        <v>915.83502564646369</v>
+      </c>
+      <c r="K18">
+        <f>IF('cantidad pollos muertos'!G17="","",GAMMAINV(0.025,'cantidad pollos muertos'!G17+(1/2),1))</f>
+        <v>493.97228832351379</v>
+      </c>
+      <c r="L18">
+        <f>IF('cantidad pollos muertos'!G17="","",GAMMAINV(0.975,'cantidad pollos muertos'!G17+(1/2),1))</f>
+        <v>584.92176446556857</v>
+      </c>
+      <c r="M18">
+        <f>IF('cantidad pollos muertos'!H17="","",GAMMAINV(0.025,'cantidad pollos muertos'!H17+(1/2),1))</f>
+        <v>122.81917195302653</v>
+      </c>
+      <c r="N18">
+        <f>IF('cantidad pollos muertos'!H17="","",GAMMAINV(0.975,'cantidad pollos muertos'!H17+(1/2),1))</f>
+        <v>170.07419554450007</v>
+      </c>
+      <c r="O18">
+        <f>IF('cantidad pollos muertos'!I17="","",GAMMAINV(0.025,'cantidad pollos muertos'!I17+(1/2),1))</f>
+        <v>152.3472322788605</v>
+      </c>
+      <c r="P18">
+        <f>IF('cantidad pollos muertos'!I17="","",GAMMAINV(0.975,'cantidad pollos muertos'!I17+(1/2),1))</f>
+        <v>204.54630473308362</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" s="17">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19" t="str">
+        <f>IF('cantidad pollos muertos'!C18="","",GAMMAINV(0.025,'cantidad pollos muertos'!C18+(1/2),1))</f>
+        <v/>
+      </c>
+      <c r="D19" t="str">
+        <f>IF('cantidad pollos muertos'!C18="","",GAMMAINV(0.975,'cantidad pollos muertos'!C18+(1/2),1))</f>
+        <v/>
+      </c>
+      <c r="E19">
+        <f>IF('cantidad pollos muertos'!D18="","",GAMMAINV(0.025,'cantidad pollos muertos'!D18+(1/2),1))</f>
+        <v>642.83913038380899</v>
+      </c>
+      <c r="F19">
+        <f>IF('cantidad pollos muertos'!D18="","",GAMMAINV(0.975,'cantidad pollos muertos'!D18+(1/2),1))</f>
+        <v>746.05497900141279</v>
+      </c>
+      <c r="G19">
+        <f>IF('cantidad pollos muertos'!E18="","",GAMMAINV(0.025,'cantidad pollos muertos'!E18+(1/2),1))</f>
+        <v>149.56894453321635</v>
+      </c>
+      <c r="H19">
+        <f>IF('cantidad pollos muertos'!E18="","",GAMMAINV(0.975,'cantidad pollos muertos'!E18+(1/2),1))</f>
+        <v>201.32457923323548</v>
+      </c>
+      <c r="I19">
+        <f>IF('cantidad pollos muertos'!F18="","",GAMMAINV(0.025,'cantidad pollos muertos'!F18+(1/2),1))</f>
+        <v>99.947212199714798</v>
+      </c>
+      <c r="J19">
+        <f>IF('cantidad pollos muertos'!F18="","",GAMMAINV(0.975,'cantidad pollos muertos'!F18+(1/2),1))</f>
+        <v>142.94596003402984</v>
+      </c>
+      <c r="K19">
+        <f>IF('cantidad pollos muertos'!G18="","",GAMMAINV(0.025,'cantidad pollos muertos'!G18+(1/2),1))</f>
+        <v>375.55198881323582</v>
+      </c>
+      <c r="L19">
+        <f>IF('cantidad pollos muertos'!G18="","",GAMMAINV(0.975,'cantidad pollos muertos'!G18+(1/2),1))</f>
+        <v>455.34198819671326</v>
+      </c>
+      <c r="M19">
+        <f>IF('cantidad pollos muertos'!H18="","",GAMMAINV(0.025,'cantidad pollos muertos'!H18+(1/2),1))</f>
+        <v>34.105612724253191</v>
+      </c>
+      <c r="N19">
+        <f>IF('cantidad pollos muertos'!H18="","",GAMMAINV(0.975,'cantidad pollos muertos'!H18+(1/2),1))</f>
+        <v>60.785741514103385</v>
+      </c>
+      <c r="O19">
+        <f>IF('cantidad pollos muertos'!I18="","",GAMMAINV(0.025,'cantidad pollos muertos'!I18+(1/2),1))</f>
+        <v>77.310424850812296</v>
+      </c>
+      <c r="P19">
+        <f>IF('cantidad pollos muertos'!I18="","",GAMMAINV(0.975,'cantidad pollos muertos'!I18+(1/2),1))</f>
+        <v>115.58244950407959</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" s="17">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20">
+        <f>IF('cantidad pollos muertos'!C19="","",GAMMAINV(0.025,'cantidad pollos muertos'!C19+(1/2),1))</f>
+        <v>87.236542631327438</v>
+      </c>
+      <c r="D20">
+        <f>IF('cantidad pollos muertos'!C19="","",GAMMAINV(0.975,'cantidad pollos muertos'!C19+(1/2),1))</f>
+        <v>127.65648007746864</v>
+      </c>
+      <c r="E20">
+        <f>IF('cantidad pollos muertos'!D19="","",GAMMAINV(0.025,'cantidad pollos muertos'!D19+(1/2),1))</f>
+        <v>63.880273249180242</v>
+      </c>
+      <c r="F20">
+        <f>IF('cantidad pollos muertos'!D19="","",GAMMAINV(0.975,'cantidad pollos muertos'!D19+(1/2),1))</f>
+        <v>99.012333175593525</v>
+      </c>
+      <c r="G20">
+        <f>IF('cantidad pollos muertos'!E19="","",GAMMAINV(0.025,'cantidad pollos muertos'!E19+(1/2),1))</f>
+        <v>543.82658359546087</v>
+      </c>
+      <c r="H20">
+        <f>IF('cantidad pollos muertos'!E19="","",GAMMAINV(0.975,'cantidad pollos muertos'!E19+(1/2),1))</f>
+        <v>639.06749149461064</v>
+      </c>
+      <c r="I20">
+        <f>IF('cantidad pollos muertos'!F19="","",GAMMAINV(0.025,'cantidad pollos muertos'!F19+(1/2),1))</f>
+        <v>85.427509351337406</v>
+      </c>
+      <c r="J20">
+        <f>IF('cantidad pollos muertos'!F19="","",GAMMAINV(0.975,'cantidad pollos muertos'!F19+(1/2),1))</f>
+        <v>125.46548871503119</v>
+      </c>
+      <c r="K20">
+        <f>IF('cantidad pollos muertos'!G19="","",GAMMAINV(0.025,'cantidad pollos muertos'!G19+(1/2),1))</f>
+        <v>47.097478066231957</v>
+      </c>
+      <c r="L20">
+        <f>IF('cantidad pollos muertos'!G19="","",GAMMAINV(0.975,'cantidad pollos muertos'!G19+(1/2),1))</f>
+        <v>77.794600267046718</v>
+      </c>
+      <c r="M20">
+        <f>IF('cantidad pollos muertos'!H19="","",GAMMAINV(0.025,'cantidad pollos muertos'!H19+(1/2),1))</f>
+        <v>44.47754524508602</v>
+      </c>
+      <c r="N20">
+        <f>IF('cantidad pollos muertos'!H19="","",GAMMAINV(0.975,'cantidad pollos muertos'!H19+(1/2),1))</f>
+        <v>74.414418156443148</v>
+      </c>
+      <c r="O20">
+        <f>IF('cantidad pollos muertos'!I19="","",GAMMAINV(0.025,'cantidad pollos muertos'!I19+(1/2),1))</f>
+        <v>17.388164308345313</v>
+      </c>
+      <c r="P20">
+        <f>IF('cantidad pollos muertos'!I19="","",GAMMAINV(0.975,'cantidad pollos muertos'!I19+(1/2),1))</f>
+        <v>37.500932160964304</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" s="17">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21" t="str">
+        <f>IF('cantidad pollos muertos'!C20="","",GAMMAINV(0.025,'cantidad pollos muertos'!C20+(1/2),1))</f>
+        <v/>
+      </c>
+      <c r="D21" t="str">
+        <f>IF('cantidad pollos muertos'!C20="","",GAMMAINV(0.975,'cantidad pollos muertos'!C20+(1/2),1))</f>
+        <v/>
+      </c>
+      <c r="E21">
+        <f>IF('cantidad pollos muertos'!D20="","",GAMMAINV(0.025,'cantidad pollos muertos'!D20+(1/2),1))</f>
+        <v>157.90936386034264</v>
+      </c>
+      <c r="F21">
+        <f>IF('cantidad pollos muertos'!D20="","",GAMMAINV(0.975,'cantidad pollos muertos'!D20+(1/2),1))</f>
+        <v>210.98419834076878</v>
+      </c>
+      <c r="G21">
+        <f>IF('cantidad pollos muertos'!E20="","",GAMMAINV(0.025,'cantidad pollos muertos'!E20+(1/2),1))</f>
+        <v>199.83098059938479</v>
+      </c>
+      <c r="H21">
+        <f>IF('cantidad pollos muertos'!E20="","",GAMMAINV(0.975,'cantidad pollos muertos'!E20+(1/2),1))</f>
+        <v>259.06272828882726</v>
+      </c>
+      <c r="I21">
+        <f>IF('cantidad pollos muertos'!F20="","",GAMMAINV(0.025,'cantidad pollos muertos'!F20+(1/2),1))</f>
+        <v>197.96097260210999</v>
+      </c>
+      <c r="J21">
+        <f>IF('cantidad pollos muertos'!F20="","",GAMMAINV(0.975,'cantidad pollos muertos'!F20+(1/2),1))</f>
+        <v>256.93273100631336</v>
+      </c>
+      <c r="K21">
+        <f>IF('cantidad pollos muertos'!G20="","",GAMMAINV(0.025,'cantidad pollos muertos'!G20+(1/2),1))</f>
+        <v>297.71724772566876</v>
+      </c>
+      <c r="L21">
+        <f>IF('cantidad pollos muertos'!G20="","",GAMMAINV(0.975,'cantidad pollos muertos'!G20+(1/2),1))</f>
+        <v>369.17664809200483</v>
+      </c>
+      <c r="M21">
+        <f>IF('cantidad pollos muertos'!H20="","",GAMMAINV(0.025,'cantidad pollos muertos'!H20+(1/2),1))</f>
+        <v>173.70624244043358</v>
+      </c>
+      <c r="N21">
+        <f>IF('cantidad pollos muertos'!H20="","",GAMMAINV(0.975,'cantidad pollos muertos'!H20+(1/2),1))</f>
+        <v>229.1873829283812</v>
+      </c>
+      <c r="O21">
+        <f>IF('cantidad pollos muertos'!I20="","",GAMMAINV(0.025,'cantidad pollos muertos'!I20+(1/2),1))</f>
+        <v>109.07169811998602</v>
+      </c>
+      <c r="P21">
+        <f>IF('cantidad pollos muertos'!I20="","",GAMMAINV(0.975,'cantidad pollos muertos'!I20+(1/2),1))</f>
+        <v>153.82156122150266</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" s="17">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22">
+        <f>IF('cantidad pollos muertos'!C21="","",GAMMAINV(0.025,'cantidad pollos muertos'!C21+(1/2),1))</f>
+        <v>34.105612724253191</v>
+      </c>
+      <c r="D22">
+        <f>IF('cantidad pollos muertos'!C21="","",GAMMAINV(0.975,'cantidad pollos muertos'!C21+(1/2),1))</f>
+        <v>60.785741514103385</v>
+      </c>
+      <c r="E22">
+        <f>IF('cantidad pollos muertos'!D21="","",GAMMAINV(0.025,'cantidad pollos muertos'!D21+(1/2),1))</f>
+        <v>28.999208263699717</v>
+      </c>
+      <c r="F22">
+        <f>IF('cantidad pollos muertos'!D21="","",GAMMAINV(0.975,'cantidad pollos muertos'!D21+(1/2),1))</f>
+        <v>53.891704832667266</v>
+      </c>
+      <c r="G22">
+        <f>IF('cantidad pollos muertos'!E21="","",GAMMAINV(0.025,'cantidad pollos muertos'!E21+(1/2),1))</f>
+        <v>53.245281263312236</v>
+      </c>
+      <c r="H22">
+        <f>IF('cantidad pollos muertos'!E21="","",GAMMAINV(0.975,'cantidad pollos muertos'!E21+(1/2),1))</f>
+        <v>85.647025890944377</v>
+      </c>
+      <c r="I22">
+        <f>IF('cantidad pollos muertos'!F21="","",GAMMAINV(0.025,'cantidad pollos muertos'!F21+(1/2),1))</f>
+        <v>32.396680742579541</v>
+      </c>
+      <c r="J22">
+        <f>IF('cantidad pollos muertos'!F21="","",GAMMAINV(0.975,'cantidad pollos muertos'!F21+(1/2),1))</f>
+        <v>58.494539771790699</v>
+      </c>
+      <c r="K22">
+        <f>IF('cantidad pollos muertos'!G21="","",GAMMAINV(0.025,'cantidad pollos muertos'!G21+(1/2),1))</f>
+        <v>63.880273249180242</v>
+      </c>
+      <c r="L22">
+        <f>IF('cantidad pollos muertos'!G21="","",GAMMAINV(0.975,'cantidad pollos muertos'!G21+(1/2),1))</f>
+        <v>99.012333175593525</v>
+      </c>
+      <c r="M22">
+        <f>IF('cantidad pollos muertos'!H21="","",GAMMAINV(0.025,'cantidad pollos muertos'!H21+(1/2),1))</f>
+        <v>19.013370478108719</v>
+      </c>
+      <c r="N22">
+        <f>IF('cantidad pollos muertos'!H21="","",GAMMAINV(0.975,'cantidad pollos muertos'!H21+(1/2),1))</f>
+        <v>39.876096140145194</v>
+      </c>
+      <c r="O22">
+        <f>IF('cantidad pollos muertos'!I21="","",GAMMAINV(0.025,'cantidad pollos muertos'!I21+(1/2),1))</f>
+        <v>4.9103455858762819E-4</v>
+      </c>
+      <c r="P22">
+        <f>IF('cantidad pollos muertos'!I21="","",GAMMAINV(0.975,'cantidad pollos muertos'!I21+(1/2),1))</f>
+        <v>2.5119430936574432</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" s="17">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23">
+        <f>IF('cantidad pollos muertos'!C22="","",GAMMAINV(0.025,'cantidad pollos muertos'!C22+(1/2),1))</f>
+        <v>126.49622413335962</v>
+      </c>
+      <c r="D23">
+        <f>IF('cantidad pollos muertos'!C22="","",GAMMAINV(0.975,'cantidad pollos muertos'!C22+(1/2),1))</f>
+        <v>174.39716853152555</v>
+      </c>
+      <c r="E23">
+        <f>IF('cantidad pollos muertos'!D22="","",GAMMAINV(0.025,'cantidad pollos muertos'!D22+(1/2),1))</f>
+        <v>80.01166316279793</v>
+      </c>
+      <c r="F23">
+        <f>IF('cantidad pollos muertos'!D22="","",GAMMAINV(0.975,'cantidad pollos muertos'!D22+(1/2),1))</f>
+        <v>118.88125495026803</v>
+      </c>
+      <c r="G23">
+        <f>IF('cantidad pollos muertos'!E22="","",GAMMAINV(0.025,'cantidad pollos muertos'!E22+(1/2),1))</f>
+        <v>241.10306163544675</v>
+      </c>
+      <c r="H23">
+        <f>IF('cantidad pollos muertos'!E22="","",GAMMAINV(0.975,'cantidad pollos muertos'!E22+(1/2),1))</f>
+        <v>305.79074377450195</v>
+      </c>
+      <c r="I23">
+        <f>IF('cantidad pollos muertos'!F22="","",GAMMAINV(0.025,'cantidad pollos muertos'!F22+(1/2),1))</f>
+        <v>140.32211069619123</v>
+      </c>
+      <c r="J23">
+        <f>IF('cantidad pollos muertos'!F22="","",GAMMAINV(0.975,'cantidad pollos muertos'!F22+(1/2),1))</f>
+        <v>190.57136542184699</v>
+      </c>
+      <c r="K23">
+        <f>IF('cantidad pollos muertos'!G22="","",GAMMAINV(0.025,'cantidad pollos muertos'!G22+(1/2),1))</f>
+        <v>62.100315262370202</v>
+      </c>
+      <c r="L23">
+        <f>IF('cantidad pollos muertos'!G22="","",GAMMAINV(0.975,'cantidad pollos muertos'!G22+(1/2),1))</f>
+        <v>96.792247666792676</v>
+      </c>
+      <c r="M23">
+        <f>IF('cantidad pollos muertos'!H22="","",GAMMAINV(0.025,'cantidad pollos muertos'!H22+(1/2),1))</f>
+        <v>77.310424850812296</v>
+      </c>
+      <c r="N23">
+        <f>IF('cantidad pollos muertos'!H22="","",GAMMAINV(0.975,'cantidad pollos muertos'!H22+(1/2),1))</f>
+        <v>115.58244950407959</v>
+      </c>
+      <c r="O23">
+        <f>IF('cantidad pollos muertos'!I22="","",GAMMAINV(0.025,'cantidad pollos muertos'!I22+(1/2),1))</f>
+        <v>25.632406636710915</v>
+      </c>
+      <c r="P23">
+        <f>IF('cantidad pollos muertos'!I22="","",GAMMAINV(0.975,'cantidad pollos muertos'!I22+(1/2),1))</f>
+        <v>49.258131005783902</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" s="17">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24">
+        <f>IF('cantidad pollos muertos'!C23="","",GAMMAINV(0.025,'cantidad pollos muertos'!C23+(1/2),1))</f>
+        <v>58.548991431160559</v>
+      </c>
+      <c r="D24">
+        <f>IF('cantidad pollos muertos'!C23="","",GAMMAINV(0.975,'cantidad pollos muertos'!C23+(1/2),1))</f>
+        <v>92.343477467217241</v>
+      </c>
+      <c r="E24">
+        <f>IF('cantidad pollos muertos'!D23="","",GAMMAINV(0.025,'cantidad pollos muertos'!D23+(1/2),1))</f>
+        <v>180.22574302985143</v>
+      </c>
+      <c r="F24">
+        <f>IF('cantidad pollos muertos'!D23="","",GAMMAINV(0.975,'cantidad pollos muertos'!D23+(1/2),1))</f>
+        <v>236.66790533559694</v>
+      </c>
+      <c r="G24">
+        <f>IF('cantidad pollos muertos'!E23="","",GAMMAINV(0.025,'cantidad pollos muertos'!E23+(1/2),1))</f>
+        <v>96.307567312785139</v>
+      </c>
+      <c r="H24">
+        <f>IF('cantidad pollos muertos'!E23="","",GAMMAINV(0.975,'cantidad pollos muertos'!E23+(1/2),1))</f>
+        <v>138.5855658778643</v>
+      </c>
+      <c r="I24">
+        <f>IF('cantidad pollos muertos'!F23="","",GAMMAINV(0.025,'cantidad pollos muertos'!F23+(1/2),1))</f>
+        <v>266.53758456086342</v>
+      </c>
+      <c r="J24">
+        <f>IF('cantidad pollos muertos'!F23="","",GAMMAINV(0.975,'cantidad pollos muertos'!F23+(1/2),1))</f>
+        <v>334.35626602057096</v>
+      </c>
+      <c r="K24">
+        <f>IF('cantidad pollos muertos'!G23="","",GAMMAINV(0.025,'cantidad pollos muertos'!G23+(1/2),1))</f>
+        <v>108.15770207238351</v>
+      </c>
+      <c r="L24">
+        <f>IF('cantidad pollos muertos'!G23="","",GAMMAINV(0.975,'cantidad pollos muertos'!G23+(1/2),1))</f>
+        <v>152.73554916538322</v>
+      </c>
+      <c r="M24">
+        <f>IF('cantidad pollos muertos'!H23="","",GAMMAINV(0.025,'cantidad pollos muertos'!H23+(1/2),1))</f>
+        <v>94.490068117969813</v>
+      </c>
+      <c r="N24">
+        <f>IF('cantidad pollos muertos'!H23="","",GAMMAINV(0.975,'cantidad pollos muertos'!H23+(1/2),1))</f>
+        <v>136.40304452497662</v>
+      </c>
+      <c r="O24">
+        <f>IF('cantidad pollos muertos'!I23="","",GAMMAINV(0.025,'cantidad pollos muertos'!I23+(1/2),1))</f>
+        <v>94.490068117969813</v>
+      </c>
+      <c r="P24">
+        <f>IF('cantidad pollos muertos'!I23="","",GAMMAINV(0.975,'cantidad pollos muertos'!I23+(1/2),1))</f>
+        <v>136.40304452497662</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" s="17">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25">
+        <f>IF('cantidad pollos muertos'!C24="","",GAMMAINV(0.025,'cantidad pollos muertos'!C24+(1/2),1))</f>
+        <v>35.820758132639803</v>
+      </c>
+      <c r="D25">
+        <f>IF('cantidad pollos muertos'!C24="","",GAMMAINV(0.975,'cantidad pollos muertos'!C24+(1/2),1))</f>
+        <v>63.070718720047985</v>
+      </c>
+      <c r="E25">
+        <f>IF('cantidad pollos muertos'!D24="","",GAMMAINV(0.025,'cantidad pollos muertos'!D24+(1/2),1))</f>
+        <v>23.13051713198502</v>
+      </c>
+      <c r="F25">
+        <f>IF('cantidad pollos muertos'!D24="","",GAMMAINV(0.975,'cantidad pollos muertos'!D24+(1/2),1))</f>
+        <v>45.759679456144767</v>
+      </c>
+      <c r="G25">
+        <f>IF('cantidad pollos muertos'!E24="","",GAMMAINV(0.025,'cantidad pollos muertos'!E24+(1/2),1))</f>
+        <v>59.435713143054343</v>
+      </c>
+      <c r="H25">
+        <f>IF('cantidad pollos muertos'!E24="","",GAMMAINV(0.975,'cantidad pollos muertos'!E24+(1/2),1))</f>
+        <v>93.456780201514249</v>
+      </c>
+      <c r="I25">
+        <f>IF('cantidad pollos muertos'!F24="","",GAMMAINV(0.025,'cantidad pollos muertos'!F24+(1/2),1))</f>
+        <v>79.110737552732772</v>
+      </c>
+      <c r="J25">
+        <f>IF('cantidad pollos muertos'!F24="","",GAMMAINV(0.975,'cantidad pollos muertos'!F24+(1/2),1))</f>
+        <v>117.78216627457212</v>
+      </c>
+      <c r="K25">
+        <f>IF('cantidad pollos muertos'!G24="","",GAMMAINV(0.025,'cantidad pollos muertos'!G24+(1/2),1))</f>
+        <v>67.448256305265616</v>
+      </c>
+      <c r="L25">
+        <f>IF('cantidad pollos muertos'!G24="","",GAMMAINV(0.975,'cantidad pollos muertos'!G24+(1/2),1))</f>
+        <v>103.44443090775799</v>
+      </c>
+      <c r="M25">
+        <f>IF('cantidad pollos muertos'!H24="","",GAMMAINV(0.025,'cantidad pollos muertos'!H24+(1/2),1))</f>
+        <v>76.411053894249775</v>
+      </c>
+      <c r="N25">
+        <f>IF('cantidad pollos muertos'!H24="","",GAMMAINV(0.975,'cantidad pollos muertos'!H24+(1/2),1))</f>
+        <v>114.48180525485184</v>
+      </c>
+      <c r="O25">
+        <f>IF('cantidad pollos muertos'!I24="","",GAMMAINV(0.025,'cantidad pollos muertos'!I24+(1/2),1))</f>
+        <v>29.845876516766921</v>
+      </c>
+      <c r="P25">
+        <f>IF('cantidad pollos muertos'!I24="","",GAMMAINV(0.975,'cantidad pollos muertos'!I24+(1/2),1))</f>
+        <v>55.045119037444387</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26" s="17">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26">
+        <f>IF('cantidad pollos muertos'!C25="","",GAMMAINV(0.025,'cantidad pollos muertos'!C25+(1/2),1))</f>
+        <v>400.31928364210245</v>
+      </c>
+      <c r="D26">
+        <f>IF('cantidad pollos muertos'!C25="","",GAMMAINV(0.975,'cantidad pollos muertos'!C25+(1/2),1))</f>
+        <v>482.57471279482775</v>
+      </c>
+      <c r="E26">
+        <f>IF('cantidad pollos muertos'!D25="","",GAMMAINV(0.025,'cantidad pollos muertos'!D25+(1/2),1))</f>
+        <v>1403.1139704312056</v>
+      </c>
+      <c r="F26">
+        <f>IF('cantidad pollos muertos'!D25="","",GAMMAINV(0.975,'cantidad pollos muertos'!D25+(1/2),1))</f>
+        <v>1553.7802432447843</v>
+      </c>
+      <c r="G26">
+        <f>IF('cantidad pollos muertos'!E25="","",GAMMAINV(0.025,'cantidad pollos muertos'!E25+(1/2),1))</f>
+        <v>613.96800412404264</v>
+      </c>
+      <c r="H26">
+        <f>IF('cantidad pollos muertos'!E25="","",GAMMAINV(0.975,'cantidad pollos muertos'!E25+(1/2),1))</f>
+        <v>714.92609637189594</v>
+      </c>
+      <c r="I26">
+        <f>IF('cantidad pollos muertos'!F25="","",GAMMAINV(0.025,'cantidad pollos muertos'!F25+(1/2),1))</f>
+        <v>1456.7244803313497</v>
+      </c>
+      <c r="J26">
+        <f>IF('cantidad pollos muertos'!F25="","",GAMMAINV(0.975,'cantidad pollos muertos'!F25+(1/2),1))</f>
+        <v>1610.1697366545463</v>
+      </c>
+      <c r="K26">
+        <f>IF('cantidad pollos muertos'!G25="","",GAMMAINV(0.025,'cantidad pollos muertos'!G25+(1/2),1))</f>
+        <v>312.86725266441226</v>
+      </c>
+      <c r="L26">
+        <f>IF('cantidad pollos muertos'!G25="","",GAMMAINV(0.975,'cantidad pollos muertos'!G25+(1/2),1))</f>
+        <v>386.02666199901944</v>
+      </c>
+      <c r="M26">
+        <f>IF('cantidad pollos muertos'!H25="","",GAMMAINV(0.025,'cantidad pollos muertos'!H25+(1/2),1))</f>
+        <v>516.96965233938352</v>
+      </c>
+      <c r="N26">
+        <f>IF('cantidad pollos muertos'!H25="","",GAMMAINV(0.975,'cantidad pollos muertos'!H25+(1/2),1))</f>
+        <v>609.92441125514006</v>
+      </c>
+      <c r="O26">
+        <f>IF('cantidad pollos muertos'!I25="","",GAMMAINV(0.025,'cantidad pollos muertos'!I25+(1/2),1))</f>
+        <v>354.62560721962421</v>
+      </c>
+      <c r="P26">
+        <f>IF('cantidad pollos muertos'!I25="","",GAMMAINV(0.975,'cantidad pollos muertos'!I25+(1/2),1))</f>
+        <v>432.26835133999811</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" s="17">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27">
+        <f>IF('cantidad pollos muertos'!C26="","",GAMMAINV(0.025,'cantidad pollos muertos'!C26+(1/2),1))</f>
+        <v>70.13092837414608</v>
+      </c>
+      <c r="D27">
+        <f>IF('cantidad pollos muertos'!C26="","",GAMMAINV(0.975,'cantidad pollos muertos'!C26+(1/2),1))</f>
+        <v>106.76181456300202</v>
+      </c>
+      <c r="E27">
+        <f>IF('cantidad pollos muertos'!D26="","",GAMMAINV(0.025,'cantidad pollos muertos'!D26+(1/2),1))</f>
+        <v>55.893475743516525</v>
+      </c>
+      <c r="F27">
+        <f>IF('cantidad pollos muertos'!D26="","",GAMMAINV(0.975,'cantidad pollos muertos'!D26+(1/2),1))</f>
+        <v>88.998915692959812</v>
+      </c>
+      <c r="G27">
+        <f>IF('cantidad pollos muertos'!E26="","",GAMMAINV(0.025,'cantidad pollos muertos'!E26+(1/2),1))</f>
+        <v>232.64200542759227</v>
+      </c>
+      <c r="H27">
+        <f>IF('cantidad pollos muertos'!E26="","",GAMMAINV(0.975,'cantidad pollos muertos'!E26+(1/2),1))</f>
+        <v>296.25178286525528</v>
+      </c>
+      <c r="I27">
+        <f>IF('cantidad pollos muertos'!F26="","",GAMMAINV(0.025,'cantidad pollos muertos'!F26+(1/2),1))</f>
+        <v>102.68086028845509</v>
+      </c>
+      <c r="J27">
+        <f>IF('cantidad pollos muertos'!F26="","",GAMMAINV(0.975,'cantidad pollos muertos'!F26+(1/2),1))</f>
+        <v>146.21233956308285</v>
+      </c>
+      <c r="K27">
+        <f>IF('cantidad pollos muertos'!G26="","",GAMMAINV(0.025,'cantidad pollos muertos'!G26+(1/2),1))</f>
+        <v>137.55250324716494</v>
+      </c>
+      <c r="L27">
+        <f>IF('cantidad pollos muertos'!G26="","",GAMMAINV(0.975,'cantidad pollos muertos'!G26+(1/2),1))</f>
+        <v>187.3409574231587</v>
+      </c>
+      <c r="M27">
+        <f>IF('cantidad pollos muertos'!H26="","",GAMMAINV(0.025,'cantidad pollos muertos'!H26+(1/2),1))</f>
+        <v>6.5598600124688922</v>
+      </c>
+      <c r="N27">
+        <f>IF('cantidad pollos muertos'!H26="","",GAMMAINV(0.975,'cantidad pollos muertos'!H26+(1/2),1))</f>
+        <v>20.3232345601376</v>
+      </c>
+      <c r="O27">
+        <f>IF('cantidad pollos muertos'!I26="","",GAMMAINV(0.025,'cantidad pollos muertos'!I26+(1/2),1))</f>
+        <v>26.470969885266424</v>
+      </c>
+      <c r="P27">
+        <f>IF('cantidad pollos muertos'!I26="","",GAMMAINV(0.975,'cantidad pollos muertos'!I26+(1/2),1))</f>
+        <v>50.419669200906682</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28" s="17">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>39</v>
+      </c>
+      <c r="C28">
+        <f>IF('cantidad pollos muertos'!C27="","",GAMMAINV(0.025,'cantidad pollos muertos'!C27+(1/2),1))</f>
+        <v>41.867513849812639</v>
+      </c>
+      <c r="D28">
+        <f>IF('cantidad pollos muertos'!C27="","",GAMMAINV(0.975,'cantidad pollos muertos'!C27+(1/2),1))</f>
+        <v>71.024322115123894</v>
+      </c>
+      <c r="E28">
+        <f>IF('cantidad pollos muertos'!D27="","",GAMMAINV(0.025,'cantidad pollos muertos'!D27+(1/2),1))</f>
+        <v>89.047363315798918</v>
+      </c>
+      <c r="F28">
+        <f>IF('cantidad pollos muertos'!D27="","",GAMMAINV(0.975,'cantidad pollos muertos'!D27+(1/2),1))</f>
+        <v>129.84568312395754</v>
+      </c>
+      <c r="G28">
+        <f>IF('cantidad pollos muertos'!E27="","",GAMMAINV(0.025,'cantidad pollos muertos'!E27+(1/2),1))</f>
+        <v>74.613924725044839</v>
+      </c>
+      <c r="H28">
+        <f>IF('cantidad pollos muertos'!E27="","",GAMMAINV(0.975,'cantidad pollos muertos'!E27+(1/2),1))</f>
+        <v>112.27890302234732</v>
+      </c>
+      <c r="I28">
+        <f>IF('cantidad pollos muertos'!F27="","",GAMMAINV(0.025,'cantidad pollos muertos'!F27+(1/2),1))</f>
+        <v>313.81478281302623</v>
+      </c>
+      <c r="J28">
+        <f>IF('cantidad pollos muertos'!F27="","",GAMMAINV(0.975,'cantidad pollos muertos'!F27+(1/2),1))</f>
+        <v>387.07913297091449</v>
+      </c>
+      <c r="K28">
+        <f>IF('cantidad pollos muertos'!G27="","",GAMMAINV(0.025,'cantidad pollos muertos'!G27+(1/2),1))</f>
+        <v>59.435713143054343</v>
+      </c>
+      <c r="L28">
+        <f>IF('cantidad pollos muertos'!G27="","",GAMMAINV(0.975,'cantidad pollos muertos'!G27+(1/2),1))</f>
+        <v>93.456780201514249</v>
+      </c>
+      <c r="M28">
+        <f>IF('cantidad pollos muertos'!H27="","",GAMMAINV(0.025,'cantidad pollos muertos'!H27+(1/2),1))</f>
+        <v>74.613924725044839</v>
+      </c>
+      <c r="N28">
+        <f>IF('cantidad pollos muertos'!H27="","",GAMMAINV(0.975,'cantidad pollos muertos'!H27+(1/2),1))</f>
+        <v>112.27890302234732</v>
+      </c>
+      <c r="O28">
+        <f>IF('cantidad pollos muertos'!I27="","",GAMMAINV(0.025,'cantidad pollos muertos'!I27+(1/2),1))</f>
+        <v>74.613924725044839</v>
+      </c>
+      <c r="P28">
+        <f>IF('cantidad pollos muertos'!I27="","",GAMMAINV(0.975,'cantidad pollos muertos'!I27+(1/2),1))</f>
+        <v>112.27890302234732</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29" s="17">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29">
+        <f>IF('cantidad pollos muertos'!C28="","",GAMMAINV(0.025,'cantidad pollos muertos'!C28+(1/2),1))</f>
+        <v>102.68086028845509</v>
+      </c>
+      <c r="D29">
+        <f>IF('cantidad pollos muertos'!C28="","",GAMMAINV(0.975,'cantidad pollos muertos'!C28+(1/2),1))</f>
+        <v>146.21233956308285</v>
+      </c>
+      <c r="E29">
+        <f>IF('cantidad pollos muertos'!D28="","",GAMMAINV(0.025,'cantidad pollos muertos'!D28+(1/2),1))</f>
+        <v>421.30437891522735</v>
+      </c>
+      <c r="F29">
+        <f>IF('cantidad pollos muertos'!D28="","",GAMMAINV(0.975,'cantidad pollos muertos'!D28+(1/2),1))</f>
+        <v>505.58963225257719</v>
+      </c>
+      <c r="G29">
+        <f>IF('cantidad pollos muertos'!E28="","",GAMMAINV(0.025,'cantidad pollos muertos'!E28+(1/2),1))</f>
+        <v>491.09917647614657</v>
+      </c>
+      <c r="H29">
+        <f>IF('cantidad pollos muertos'!E28="","",GAMMAINV(0.975,'cantidad pollos muertos'!E28+(1/2),1))</f>
+        <v>581.7948748941086</v>
+      </c>
+      <c r="I29">
+        <f>IF('cantidad pollos muertos'!F28="","",GAMMAINV(0.025,'cantidad pollos muertos'!F28+(1/2),1))</f>
+        <v>360.32987981559398</v>
+      </c>
+      <c r="J29">
+        <f>IF('cantidad pollos muertos'!F28="","",GAMMAINV(0.975,'cantidad pollos muertos'!F28+(1/2),1))</f>
+        <v>438.56408397815102</v>
+      </c>
+      <c r="K29">
+        <f>IF('cantidad pollos muertos'!G28="","",GAMMAINV(0.025,'cantidad pollos muertos'!G28+(1/2),1))</f>
+        <v>106.33071319944781</v>
+      </c>
+      <c r="L29">
+        <f>IF('cantidad pollos muertos'!G28="","",GAMMAINV(0.975,'cantidad pollos muertos'!G28+(1/2),1))</f>
+        <v>150.56252144845442</v>
+      </c>
+      <c r="M29">
+        <f>IF('cantidad pollos muertos'!H28="","",GAMMAINV(0.025,'cantidad pollos muertos'!H28+(1/2),1))</f>
+        <v>40.999841622666459</v>
+      </c>
+      <c r="N29">
+        <f>IF('cantidad pollos muertos'!H28="","",GAMMAINV(0.975,'cantidad pollos muertos'!H28+(1/2),1))</f>
+        <v>69.891948725310272</v>
+      </c>
+      <c r="O29">
+        <f>IF('cantidad pollos muertos'!I28="","",GAMMAINV(0.025,'cantidad pollos muertos'!I28+(1/2),1))</f>
+        <v>58.548991431160559</v>
+      </c>
+      <c r="P29">
+        <f>IF('cantidad pollos muertos'!I28="","",GAMMAINV(0.975,'cantidad pollos muertos'!I28+(1/2),1))</f>
+        <v>92.343477467217241</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30" s="17">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C30">
+        <f>IF('cantidad pollos muertos'!C29="","",GAMMAINV(0.025,'cantidad pollos muertos'!C29+(1/2),1))</f>
+        <v>86.331799395886435</v>
+      </c>
+      <c r="D30">
+        <f>IF('cantidad pollos muertos'!C29="","",GAMMAINV(0.975,'cantidad pollos muertos'!C29+(1/2),1))</f>
+        <v>126.56121110888003</v>
+      </c>
+      <c r="E30">
+        <f>IF('cantidad pollos muertos'!D29="","",GAMMAINV(0.025,'cantidad pollos muertos'!D29+(1/2),1))</f>
+        <v>348.92360468551533</v>
+      </c>
+      <c r="F30">
+        <f>IF('cantidad pollos muertos'!D29="","",GAMMAINV(0.975,'cantidad pollos muertos'!D29+(1/2),1))</f>
+        <v>425.9703484773255</v>
+      </c>
+      <c r="G30">
+        <f>IF('cantidad pollos muertos'!E29="","",GAMMAINV(0.025,'cantidad pollos muertos'!E29+(1/2),1))</f>
+        <v>143.09381158067083</v>
+      </c>
+      <c r="H30">
+        <f>IF('cantidad pollos muertos'!E29="","",GAMMAINV(0.975,'cantidad pollos muertos'!E29+(1/2),1))</f>
+        <v>193.79967943054982</v>
+      </c>
+      <c r="I30">
+        <f>IF('cantidad pollos muertos'!F29="","",GAMMAINV(0.025,'cantidad pollos muertos'!F29+(1/2),1))</f>
+        <v>95.398619937676514</v>
+      </c>
+      <c r="J30">
+        <f>IF('cantidad pollos muertos'!F29="","",GAMMAINV(0.975,'cantidad pollos muertos'!F29+(1/2),1))</f>
+        <v>137.49450306834768</v>
+      </c>
+      <c r="K30">
+        <f>IF('cantidad pollos muertos'!G29="","",GAMMAINV(0.025,'cantidad pollos muertos'!G29+(1/2),1))</f>
+        <v>43.606396503709874</v>
+      </c>
+      <c r="L30">
+        <f>IF('cantidad pollos muertos'!G29="","",GAMMAINV(0.975,'cantidad pollos muertos'!G29+(1/2),1))</f>
+        <v>73.285525905634486</v>
+      </c>
+      <c r="M30">
+        <f>IF('cantidad pollos muertos'!H29="","",GAMMAINV(0.025,'cantidad pollos muertos'!H29+(1/2),1))</f>
+        <v>48.849242700029897</v>
+      </c>
+      <c r="N30">
+        <f>IF('cantidad pollos muertos'!H29="","",GAMMAINV(0.975,'cantidad pollos muertos'!H29+(1/2),1))</f>
+        <v>80.042906187400447</v>
+      </c>
+      <c r="O30">
+        <f>IF('cantidad pollos muertos'!I29="","",GAMMAINV(0.025,'cantidad pollos muertos'!I29+(1/2),1))</f>
+        <v>36.680540095641831</v>
+      </c>
+      <c r="P30">
+        <f>IF('cantidad pollos muertos'!I29="","",GAMMAINV(0.975,'cantidad pollos muertos'!I29+(1/2),1))</f>
+        <v>64.210994321920154</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A31" s="17">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <f>IF('cantidad pollos muertos'!C30="","",GAMMAINV(0.025,'cantidad pollos muertos'!C30+(1/2),1))</f>
+        <v>473.86808923842597</v>
+      </c>
+      <c r="D31">
+        <f>IF('cantidad pollos muertos'!C30="","",GAMMAINV(0.975,'cantidad pollos muertos'!C30+(1/2),1))</f>
+        <v>563.0259532731734</v>
+      </c>
+      <c r="E31">
+        <f>IF('cantidad pollos muertos'!D30="","",GAMMAINV(0.025,'cantidad pollos muertos'!D30+(1/2),1))</f>
+        <v>271.25554599892587</v>
+      </c>
+      <c r="F31">
+        <f>IF('cantidad pollos muertos'!D30="","",GAMMAINV(0.975,'cantidad pollos muertos'!D30+(1/2),1))</f>
+        <v>339.63831206747551</v>
+      </c>
+      <c r="G31">
+        <f>IF('cantidad pollos muertos'!E30="","",GAMMAINV(0.025,'cantidad pollos muertos'!E30+(1/2),1))</f>
+        <v>366.03637137290895</v>
+      </c>
+      <c r="H31">
+        <f>IF('cantidad pollos muertos'!E30="","",GAMMAINV(0.975,'cantidad pollos muertos'!E30+(1/2),1))</f>
+        <v>444.85759749954457</v>
+      </c>
+      <c r="I31">
+        <f>IF('cantidad pollos muertos'!F30="","",GAMMAINV(0.025,'cantidad pollos muertos'!F30+(1/2),1))</f>
+        <v>162.54991785519817</v>
+      </c>
+      <c r="J31">
+        <f>IF('cantidad pollos muertos'!F30="","",GAMMAINV(0.975,'cantidad pollos muertos'!F30+(1/2),1))</f>
+        <v>216.34366410962483</v>
+      </c>
+      <c r="K31">
+        <f>IF('cantidad pollos muertos'!G30="","",GAMMAINV(0.025,'cantidad pollos muertos'!G30+(1/2),1))</f>
+        <v>163.47860352006961</v>
+      </c>
+      <c r="L31">
+        <f>IF('cantidad pollos muertos'!G30="","",GAMMAINV(0.975,'cantidad pollos muertos'!G30+(1/2),1))</f>
+        <v>217.41498227210667</v>
+      </c>
+      <c r="M31">
+        <f>IF('cantidad pollos muertos'!H30="","",GAMMAINV(0.025,'cantidad pollos muertos'!H30+(1/2),1))</f>
+        <v>123.73802262051886</v>
+      </c>
+      <c r="N31">
+        <f>IF('cantidad pollos muertos'!H30="","",GAMMAINV(0.975,'cantidad pollos muertos'!H30+(1/2),1))</f>
+        <v>171.15535129800489</v>
+      </c>
+      <c r="O31">
+        <f>IF('cantidad pollos muertos'!I30="","",GAMMAINV(0.025,'cantidad pollos muertos'!I30+(1/2),1))</f>
+        <v>89.953428450881972</v>
+      </c>
+      <c r="P31">
+        <f>IF('cantidad pollos muertos'!I30="","",GAMMAINV(0.975,'cantidad pollos muertos'!I30+(1/2),1))</f>
+        <v>130.93962952821263</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A32" s="17">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32">
+        <f>IF('cantidad pollos muertos'!C31="","",GAMMAINV(0.025,'cantidad pollos muertos'!C31+(1/2),1))</f>
+        <v>57.663034081546456</v>
+      </c>
+      <c r="D32">
+        <f>IF('cantidad pollos muertos'!C31="","",GAMMAINV(0.975,'cantidad pollos muertos'!C31+(1/2),1))</f>
+        <v>91.229409702209395</v>
+      </c>
+      <c r="E32">
+        <f>IF('cantidad pollos muertos'!D31="","",GAMMAINV(0.025,'cantidad pollos muertos'!D31+(1/2),1))</f>
+        <v>19.83092967575783</v>
+      </c>
+      <c r="F32">
+        <f>IF('cantidad pollos muertos'!D31="","",GAMMAINV(0.975,'cantidad pollos muertos'!D31+(1/2),1))</f>
+        <v>41.058702970119143</v>
+      </c>
+      <c r="G32">
+        <f>IF('cantidad pollos muertos'!E31="","",GAMMAINV(0.025,'cantidad pollos muertos'!E31+(1/2),1))</f>
+        <v>183.95480974406874</v>
+      </c>
+      <c r="H32">
+        <f>IF('cantidad pollos muertos'!E31="","",GAMMAINV(0.975,'cantidad pollos muertos'!E31+(1/2),1))</f>
+        <v>240.93885107770447</v>
+      </c>
+      <c r="I32">
+        <f>IF('cantidad pollos muertos'!F31="","",GAMMAINV(0.025,'cantidad pollos muertos'!F31+(1/2),1))</f>
+        <v>238.28170622120132</v>
+      </c>
+      <c r="J32">
+        <f>IF('cantidad pollos muertos'!F31="","",GAMMAINV(0.975,'cantidad pollos muertos'!F31+(1/2),1))</f>
+        <v>302.61209361024419</v>
+      </c>
+      <c r="K32">
+        <f>IF('cantidad pollos muertos'!G31="","",GAMMAINV(0.025,'cantidad pollos muertos'!G31+(1/2),1))</f>
+        <v>122.81917195302653</v>
+      </c>
+      <c r="L32">
+        <f>IF('cantidad pollos muertos'!G31="","",GAMMAINV(0.975,'cantidad pollos muertos'!G31+(1/2),1))</f>
+        <v>170.07419554450007</v>
+      </c>
+      <c r="M32">
+        <f>IF('cantidad pollos muertos'!H31="","",GAMMAINV(0.025,'cantidad pollos muertos'!H31+(1/2),1))</f>
+        <v>55.009907778178558</v>
+      </c>
+      <c r="N32">
+        <f>IF('cantidad pollos muertos'!H31="","",GAMMAINV(0.975,'cantidad pollos muertos'!H31+(1/2),1))</f>
+        <v>87.882456365251016</v>
+      </c>
+      <c r="O32">
+        <f>IF('cantidad pollos muertos'!I31="","",GAMMAINV(0.025,'cantidad pollos muertos'!I31+(1/2),1))</f>
+        <v>78.210322127740184</v>
+      </c>
+      <c r="P32">
+        <f>IF('cantidad pollos muertos'!I31="","",GAMMAINV(0.975,'cantidad pollos muertos'!I31+(1/2),1))</f>
+        <v>116.68256711663008</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A33" s="17">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>32</v>
+      </c>
+      <c r="C33">
+        <f>IF('cantidad pollos muertos'!C32="","",GAMMAINV(0.025,'cantidad pollos muertos'!C32+(1/2),1))</f>
+        <v>136.62977603290807</v>
+      </c>
+      <c r="D33">
+        <f>IF('cantidad pollos muertos'!C32="","",GAMMAINV(0.975,'cantidad pollos muertos'!C32+(1/2),1))</f>
+        <v>186.26367935956154</v>
+      </c>
+      <c r="E33">
+        <f>IF('cantidad pollos muertos'!D32="","",GAMMAINV(0.025,'cantidad pollos muertos'!D32+(1/2),1))</f>
+        <v>250.51457758582322</v>
+      </c>
+      <c r="F33">
+        <f>IF('cantidad pollos muertos'!D32="","",GAMMAINV(0.975,'cantidad pollos muertos'!D32+(1/2),1))</f>
+        <v>316.37924556235248</v>
+      </c>
+      <c r="G33">
+        <f>IF('cantidad pollos muertos'!E32="","",GAMMAINV(0.025,'cantidad pollos muertos'!E32+(1/2),1))</f>
+        <v>190.48677466209961</v>
+      </c>
+      <c r="H33">
+        <f>IF('cantidad pollos muertos'!E32="","",GAMMAINV(0.975,'cantidad pollos muertos'!E32+(1/2),1))</f>
+        <v>248.40690685903488</v>
+      </c>
+      <c r="I33">
+        <f>IF('cantidad pollos muertos'!F32="","",GAMMAINV(0.025,'cantidad pollos muertos'!F32+(1/2),1))</f>
+        <v>460.47542715905729</v>
+      </c>
+      <c r="J33">
+        <f>IF('cantidad pollos muertos'!F32="","",GAMMAINV(0.975,'cantidad pollos muertos'!F32+(1/2),1))</f>
+        <v>548.41860802426629</v>
+      </c>
+      <c r="K33">
+        <f>IF('cantidad pollos muertos'!G32="","",GAMMAINV(0.025,'cantidad pollos muertos'!G32+(1/2),1))</f>
+        <v>97.216905154744765</v>
+      </c>
+      <c r="L33">
+        <f>IF('cantidad pollos muertos'!G32="","",GAMMAINV(0.975,'cantidad pollos muertos'!G32+(1/2),1))</f>
+        <v>139.67623804664751</v>
+      </c>
+      <c r="M33">
+        <f>IF('cantidad pollos muertos'!H32="","",GAMMAINV(0.025,'cantidad pollos muertos'!H32+(1/2),1))</f>
+        <v>48.849242700029897</v>
+      </c>
+      <c r="N33">
+        <f>IF('cantidad pollos muertos'!H32="","",GAMMAINV(0.975,'cantidad pollos muertos'!H32+(1/2),1))</f>
+        <v>80.042906187400447</v>
+      </c>
+      <c r="O33">
+        <f>IF('cantidad pollos muertos'!I32="","",GAMMAINV(0.025,'cantidad pollos muertos'!I32+(1/2),1))</f>
+        <v>57.663034081546456</v>
+      </c>
+      <c r="P33">
+        <f>IF('cantidad pollos muertos'!I32="","",GAMMAINV(0.975,'cantidad pollos muertos'!I32+(1/2),1))</f>
+        <v>91.229409702209395</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A34" s="17">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34">
+        <f>IF('cantidad pollos muertos'!C33="","",GAMMAINV(0.025,'cantidad pollos muertos'!C33+(1/2),1))</f>
+        <v>47.097478066231957</v>
+      </c>
+      <c r="D34">
+        <f>IF('cantidad pollos muertos'!C33="","",GAMMAINV(0.975,'cantidad pollos muertos'!C33+(1/2),1))</f>
+        <v>77.794600267046718</v>
+      </c>
+      <c r="E34">
+        <f>IF('cantidad pollos muertos'!D33="","",GAMMAINV(0.025,'cantidad pollos muertos'!D33+(1/2),1))</f>
+        <v>141.24578120708773</v>
+      </c>
+      <c r="F34">
+        <f>IF('cantidad pollos muertos'!D33="","",GAMMAINV(0.975,'cantidad pollos muertos'!D33+(1/2),1))</f>
+        <v>191.6476999354669</v>
+      </c>
+      <c r="G34">
+        <f>IF('cantidad pollos muertos'!E33="","",GAMMAINV(0.025,'cantidad pollos muertos'!E33+(1/2),1))</f>
+        <v>133.86305156440224</v>
+      </c>
+      <c r="H34">
+        <f>IF('cantidad pollos muertos'!E33="","",GAMMAINV(0.975,'cantidad pollos muertos'!E33+(1/2),1))</f>
+        <v>183.03038759147029</v>
+      </c>
+      <c r="I34">
+        <f>IF('cantidad pollos muertos'!F33="","",GAMMAINV(0.025,'cantidad pollos muertos'!F33+(1/2),1))</f>
+        <v>54.127170276499882</v>
+      </c>
+      <c r="J34">
+        <f>IF('cantidad pollos muertos'!F33="","",GAMMAINV(0.975,'cantidad pollos muertos'!F33+(1/2),1))</f>
+        <v>86.765165784440967</v>
+      </c>
+      <c r="K34">
+        <f>IF('cantidad pollos muertos'!G33="","",GAMMAINV(0.025,'cantidad pollos muertos'!G33+(1/2),1))</f>
+        <v>96.307567312785139</v>
+      </c>
+      <c r="L34">
+        <f>IF('cantidad pollos muertos'!G33="","",GAMMAINV(0.975,'cantidad pollos muertos'!G33+(1/2),1))</f>
+        <v>138.5855658778643</v>
+      </c>
+      <c r="M34">
+        <f>IF('cantidad pollos muertos'!H33="","",GAMMAINV(0.025,'cantidad pollos muertos'!H33+(1/2),1))</f>
+        <v>26.470969885266424</v>
+      </c>
+      <c r="N34">
+        <f>IF('cantidad pollos muertos'!H33="","",GAMMAINV(0.975,'cantidad pollos muertos'!H33+(1/2),1))</f>
+        <v>50.419669200906682</v>
+      </c>
+      <c r="O34">
+        <f>IF('cantidad pollos muertos'!I33="","",GAMMAINV(0.025,'cantidad pollos muertos'!I33+(1/2),1))</f>
+        <v>6.5598600124688922</v>
+      </c>
+      <c r="P34">
+        <f>IF('cantidad pollos muertos'!I33="","",GAMMAINV(0.975,'cantidad pollos muertos'!I33+(1/2),1))</f>
+        <v>20.3232345601376</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A35" s="17">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>18</v>
+      </c>
+      <c r="C35">
+        <f>IF('cantidad pollos muertos'!C34="","",GAMMAINV(0.025,'cantidad pollos muertos'!C34+(1/2),1))</f>
+        <v>108.15770207238351</v>
+      </c>
+      <c r="D35">
+        <f>IF('cantidad pollos muertos'!C34="","",GAMMAINV(0.975,'cantidad pollos muertos'!C34+(1/2),1))</f>
+        <v>152.73554916538322</v>
+      </c>
+      <c r="E35">
+        <f>IF('cantidad pollos muertos'!D34="","",GAMMAINV(0.025,'cantidad pollos muertos'!D34+(1/2),1))</f>
+        <v>121.90060093266091</v>
+      </c>
+      <c r="F35">
+        <f>IF('cantidad pollos muertos'!D34="","",GAMMAINV(0.975,'cantidad pollos muertos'!D34+(1/2),1))</f>
+        <v>168.99276005477674</v>
+      </c>
+      <c r="G35">
+        <f>IF('cantidad pollos muertos'!E34="","",GAMMAINV(0.025,'cantidad pollos muertos'!E34+(1/2),1))</f>
+        <v>141.24578120708773</v>
+      </c>
+      <c r="H35">
+        <f>IF('cantidad pollos muertos'!E34="","",GAMMAINV(0.975,'cantidad pollos muertos'!E34+(1/2),1))</f>
+        <v>191.6476999354669</v>
+      </c>
+      <c r="I35">
+        <f>IF('cantidad pollos muertos'!F34="","",GAMMAINV(0.025,'cantidad pollos muertos'!F34+(1/2),1))</f>
+        <v>271.25554599892587</v>
+      </c>
+      <c r="J35">
+        <f>IF('cantidad pollos muertos'!F34="","",GAMMAINV(0.975,'cantidad pollos muertos'!F34+(1/2),1))</f>
+        <v>339.63831206747551</v>
+      </c>
+      <c r="K35">
+        <f>IF('cantidad pollos muertos'!G34="","",GAMMAINV(0.025,'cantidad pollos muertos'!G34+(1/2),1))</f>
+        <v>171.84506423059591</v>
+      </c>
+      <c r="L35">
+        <f>IF('cantidad pollos muertos'!G34="","",GAMMAINV(0.975,'cantidad pollos muertos'!G34+(1/2),1))</f>
+        <v>227.04855426931005</v>
+      </c>
+      <c r="M35">
+        <f>IF('cantidad pollos muertos'!H34="","",GAMMAINV(0.025,'cantidad pollos muertos'!H34+(1/2),1))</f>
+        <v>140.32211069619123</v>
+      </c>
+      <c r="N35">
+        <f>IF('cantidad pollos muertos'!H34="","",GAMMAINV(0.975,'cantidad pollos muertos'!H34+(1/2),1))</f>
+        <v>190.57136542184699</v>
+      </c>
+      <c r="O35">
+        <f>IF('cantidad pollos muertos'!I34="","",GAMMAINV(0.025,'cantidad pollos muertos'!I34+(1/2),1))</f>
+        <v>51.484124143889233</v>
+      </c>
+      <c r="P35">
+        <f>IF('cantidad pollos muertos'!I34="","",GAMMAINV(0.975,'cantidad pollos muertos'!I34+(1/2),1))</f>
+        <v>83.40812257489047</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A36" s="17">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1</v>
+      </c>
+      <c r="C36">
+        <f>IF('cantidad pollos muertos'!C35="","",GAMMAINV(0.025,'cantidad pollos muertos'!C35+(1/2),1))</f>
+        <v>181.15776645576832</v>
+      </c>
+      <c r="D36">
+        <f>IF('cantidad pollos muertos'!C35="","",GAMMAINV(0.975,'cantidad pollos muertos'!C35+(1/2),1))</f>
+        <v>237.73588506864502</v>
+      </c>
+      <c r="E36">
+        <f>IF('cantidad pollos muertos'!D35="","",GAMMAINV(0.025,'cantidad pollos muertos'!D35+(1/2),1))</f>
+        <v>109.07169811998602</v>
+      </c>
+      <c r="F36">
+        <f>IF('cantidad pollos muertos'!D35="","",GAMMAINV(0.975,'cantidad pollos muertos'!D35+(1/2),1))</f>
+        <v>153.82156122150266</v>
+      </c>
+      <c r="G36">
+        <f>IF('cantidad pollos muertos'!E35="","",GAMMAINV(0.025,'cantidad pollos muertos'!E35+(1/2),1))</f>
+        <v>129.25684230860779</v>
+      </c>
+      <c r="H36">
+        <f>IF('cantidad pollos muertos'!E35="","",GAMMAINV(0.975,'cantidad pollos muertos'!E35+(1/2),1))</f>
+        <v>177.63656836334818</v>
+      </c>
+      <c r="I36">
+        <f>IF('cantidad pollos muertos'!F35="","",GAMMAINV(0.025,'cantidad pollos muertos'!F35+(1/2),1))</f>
+        <v>156.98183885717842</v>
+      </c>
+      <c r="J36">
+        <f>IF('cantidad pollos muertos'!F35="","",GAMMAINV(0.975,'cantidad pollos muertos'!F35+(1/2),1))</f>
+        <v>209.91171926098286</v>
+      </c>
+      <c r="K36">
+        <f>IF('cantidad pollos muertos'!G35="","",GAMMAINV(0.025,'cantidad pollos muertos'!G35+(1/2),1))</f>
+        <v>255.22424421274033</v>
+      </c>
+      <c r="L36">
+        <f>IF('cantidad pollos muertos'!G35="","",GAMMAINV(0.975,'cantidad pollos muertos'!G35+(1/2),1))</f>
+        <v>321.66958734123659</v>
+      </c>
+      <c r="M36">
+        <f>IF('cantidad pollos muertos'!H35="","",GAMMAINV(0.025,'cantidad pollos muertos'!H35+(1/2),1))</f>
+        <v>69.236090053698319</v>
+      </c>
+      <c r="N36">
+        <f>IF('cantidad pollos muertos'!H35="","",GAMMAINV(0.975,'cantidad pollos muertos'!H35+(1/2),1))</f>
+        <v>105.65663473998677</v>
+      </c>
+      <c r="O36">
+        <f>IF('cantidad pollos muertos'!I35="","",GAMMAINV(0.025,'cantidad pollos muertos'!I35+(1/2),1))</f>
+        <v>56.777856776887383</v>
+      </c>
+      <c r="P36">
+        <f>IF('cantidad pollos muertos'!I35="","",GAMMAINV(0.975,'cantidad pollos muertos'!I35+(1/2),1))</f>
+        <v>90.114561196020517</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A37" s="17">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37">
+        <f>IF('cantidad pollos muertos'!C36="","",GAMMAINV(0.025,'cantidad pollos muertos'!C36+(1/2),1))</f>
+        <v>49.726594486708123</v>
+      </c>
+      <c r="D37">
+        <f>IF('cantidad pollos muertos'!C36="","",GAMMAINV(0.975,'cantidad pollos muertos'!C36+(1/2),1))</f>
+        <v>81.165588027937574</v>
+      </c>
+      <c r="E37">
+        <f>IF('cantidad pollos muertos'!D36="","",GAMMAINV(0.025,'cantidad pollos muertos'!D36+(1/2),1))</f>
+        <v>120.06430952815636</v>
+      </c>
+      <c r="F37">
+        <f>IF('cantidad pollos muertos'!D36="","",GAMMAINV(0.975,'cantidad pollos muertos'!D36+(1/2),1))</f>
+        <v>166.82903816430675</v>
+      </c>
+      <c r="G37">
+        <f>IF('cantidad pollos muertos'!E36="","",GAMMAINV(0.025,'cantidad pollos muertos'!E36+(1/2),1))</f>
+        <v>112.73093794377093</v>
+      </c>
+      <c r="H37">
+        <f>IF('cantidad pollos muertos'!E36="","",GAMMAINV(0.975,'cantidad pollos muertos'!E36+(1/2),1))</f>
+        <v>158.16235260438964</v>
+      </c>
+      <c r="I37">
+        <f>IF('cantidad pollos muertos'!F36="","",GAMMAINV(0.025,'cantidad pollos muertos'!F36+(1/2),1))</f>
+        <v>262.76491571972474</v>
+      </c>
+      <c r="J37">
+        <f>IF('cantidad pollos muertos'!F36="","",GAMMAINV(0.975,'cantidad pollos muertos'!F36+(1/2),1))</f>
+        <v>330.12892869114035</v>
+      </c>
+      <c r="K37">
+        <f>IF('cantidad pollos muertos'!G36="","",GAMMAINV(0.025,'cantidad pollos muertos'!G36+(1/2),1))</f>
+        <v>93.581917053701943</v>
+      </c>
+      <c r="L37">
+        <f>IF('cantidad pollos muertos'!G36="","",GAMMAINV(0.975,'cantidad pollos muertos'!G36+(1/2),1))</f>
+        <v>135.31118504298269</v>
+      </c>
+      <c r="M37">
+        <f>IF('cantidad pollos muertos'!H36="","",GAMMAINV(0.025,'cantidad pollos muertos'!H36+(1/2),1))</f>
+        <v>91.766838569897061</v>
+      </c>
+      <c r="N37">
+        <f>IF('cantidad pollos muertos'!H36="","",GAMMAINV(0.975,'cantidad pollos muertos'!H36+(1/2),1))</f>
+        <v>133.12624186493369</v>
+      </c>
+      <c r="O37">
+        <f>IF('cantidad pollos muertos'!I36="","",GAMMAINV(0.025,'cantidad pollos muertos'!I36+(1/2),1))</f>
+        <v>67.448256305265616</v>
+      </c>
+      <c r="P37">
+        <f>IF('cantidad pollos muertos'!I36="","",GAMMAINV(0.975,'cantidad pollos muertos'!I36+(1/2),1))</f>
+        <v>103.44443090775799</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A38" s="17">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>20</v>
+      </c>
+      <c r="C38">
+        <f>IF('cantidad pollos muertos'!C37="","",GAMMAINV(0.025,'cantidad pollos muertos'!C37+(1/2),1))</f>
+        <v>55.893475743516525</v>
+      </c>
+      <c r="D38">
+        <f>IF('cantidad pollos muertos'!C37="","",GAMMAINV(0.975,'cantidad pollos muertos'!C37+(1/2),1))</f>
+        <v>88.998915692959812</v>
+      </c>
+      <c r="E38">
+        <f>IF('cantidad pollos muertos'!D37="","",GAMMAINV(0.025,'cantidad pollos muertos'!D37+(1/2),1))</f>
+        <v>34.962433543720138</v>
+      </c>
+      <c r="F38">
+        <f>IF('cantidad pollos muertos'!D37="","",GAMMAINV(0.975,'cantidad pollos muertos'!D37+(1/2),1))</f>
+        <v>61.928983302147522</v>
+      </c>
+      <c r="G38">
+        <f>IF('cantidad pollos muertos'!E37="","",GAMMAINV(0.025,'cantidad pollos muertos'!E37+(1/2),1))</f>
+        <v>30.694387291605764</v>
+      </c>
+      <c r="H38">
+        <f>IF('cantidad pollos muertos'!E37="","",GAMMAINV(0.975,'cantidad pollos muertos'!E37+(1/2),1))</f>
+        <v>56.196686807634066</v>
+      </c>
+      <c r="I38">
+        <f>IF('cantidad pollos muertos'!F37="","",GAMMAINV(0.025,'cantidad pollos muertos'!F37+(1/2),1))</f>
+        <v>101.76928066438617</v>
+      </c>
+      <c r="J38">
+        <f>IF('cantidad pollos muertos'!F37="","",GAMMAINV(0.975,'cantidad pollos muertos'!F37+(1/2),1))</f>
+        <v>145.12391013196</v>
+      </c>
+      <c r="K38">
+        <f>IF('cantidad pollos muertos'!G37="","",GAMMAINV(0.025,'cantidad pollos muertos'!G37+(1/2),1))</f>
+        <v>67.448256305265616</v>
+      </c>
+      <c r="L38">
+        <f>IF('cantidad pollos muertos'!G37="","",GAMMAINV(0.975,'cantidad pollos muertos'!G37+(1/2),1))</f>
+        <v>103.44443090775799</v>
+      </c>
+      <c r="M38">
+        <f>IF('cantidad pollos muertos'!H37="","",GAMMAINV(0.025,'cantidad pollos muertos'!H37+(1/2),1))</f>
+        <v>64.77127925072125</v>
+      </c>
+      <c r="N38">
+        <f>IF('cantidad pollos muertos'!H37="","",GAMMAINV(0.975,'cantidad pollos muertos'!H37+(1/2),1))</f>
+        <v>100.12134811782056</v>
+      </c>
+      <c r="O38">
+        <f>IF('cantidad pollos muertos'!I37="","",GAMMAINV(0.025,'cantidad pollos muertos'!I37+(1/2),1))</f>
+        <v>33.250344584097988</v>
+      </c>
+      <c r="P38">
+        <f>IF('cantidad pollos muertos'!I37="","",GAMMAINV(0.975,'cantidad pollos muertos'!I37+(1/2),1))</f>
+        <v>59.640944273247818</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A39" s="17">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>70</v>
+      </c>
+      <c r="C39" t="str">
+        <f>IF('cantidad pollos muertos'!C38="","",GAMMAINV(0.025,'cantidad pollos muertos'!C38+(1/2),1))</f>
+        <v/>
+      </c>
+      <c r="D39" t="str">
+        <f>IF('cantidad pollos muertos'!C38="","",GAMMAINV(0.975,'cantidad pollos muertos'!C38+(1/2),1))</f>
+        <v/>
+      </c>
+      <c r="E39" t="str">
+        <f>IF('cantidad pollos muertos'!D38="","",GAMMAINV(0.025,'cantidad pollos muertos'!D38+(1/2),1))</f>
+        <v/>
+      </c>
+      <c r="F39" t="str">
+        <f>IF('cantidad pollos muertos'!D38="","",GAMMAINV(0.975,'cantidad pollos muertos'!D38+(1/2),1))</f>
+        <v/>
+      </c>
+      <c r="G39" t="str">
+        <f>IF('cantidad pollos muertos'!E38="","",GAMMAINV(0.025,'cantidad pollos muertos'!E38+(1/2),1))</f>
+        <v/>
+      </c>
+      <c r="H39" t="str">
+        <f>IF('cantidad pollos muertos'!E38="","",GAMMAINV(0.975,'cantidad pollos muertos'!E38+(1/2),1))</f>
+        <v/>
+      </c>
+      <c r="I39">
+        <f>IF('cantidad pollos muertos'!F38="","",GAMMAINV(0.025,'cantidad pollos muertos'!F38+(1/2),1))</f>
+        <v>150.49483000255319</v>
+      </c>
+      <c r="J39">
+        <f>IF('cantidad pollos muertos'!F38="","",GAMMAINV(0.975,'cantidad pollos muertos'!F38+(1/2),1))</f>
+        <v>202.39869822948049</v>
+      </c>
+      <c r="K39">
+        <f>IF('cantidad pollos muertos'!G38="","",GAMMAINV(0.025,'cantidad pollos muertos'!G38+(1/2),1))</f>
+        <v>765.31113591636995</v>
+      </c>
+      <c r="L39">
+        <f>IF('cantidad pollos muertos'!G38="","",GAMMAINV(0.975,'cantidad pollos muertos'!G38+(1/2),1))</f>
+        <v>877.58300389638237</v>
+      </c>
+      <c r="M39">
+        <f>IF('cantidad pollos muertos'!H38="","",GAMMAINV(0.025,'cantidad pollos muertos'!H38+(1/2),1))</f>
+        <v>222.31338117944131</v>
+      </c>
+      <c r="N39">
+        <f>IF('cantidad pollos muertos'!H38="","",GAMMAINV(0.975,'cantidad pollos muertos'!H38+(1/2),1))</f>
+        <v>284.58038453305556</v>
+      </c>
+      <c r="O39">
+        <f>IF('cantidad pollos muertos'!I38="","",GAMMAINV(0.025,'cantidad pollos muertos'!I38+(1/2),1))</f>
+        <v>222.31338117944131</v>
+      </c>
+      <c r="P39">
+        <f>IF('cantidad pollos muertos'!I38="","",GAMMAINV(0.975,'cantidad pollos muertos'!I38+(1/2),1))</f>
+        <v>284.58038453305556</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A40" s="17">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>19</v>
+      </c>
+      <c r="C40">
+        <f>IF('cantidad pollos muertos'!C39="","",GAMMAINV(0.025,'cantidad pollos muertos'!C39+(1/2),1))</f>
+        <v>199.83098059938479</v>
+      </c>
+      <c r="D40">
+        <f>IF('cantidad pollos muertos'!C39="","",GAMMAINV(0.975,'cantidad pollos muertos'!C39+(1/2),1))</f>
+        <v>259.06272828882726</v>
+      </c>
+      <c r="E40">
+        <f>IF('cantidad pollos muertos'!D39="","",GAMMAINV(0.025,'cantidad pollos muertos'!D39+(1/2),1))</f>
+        <v>142.16968219363059</v>
+      </c>
+      <c r="F40">
+        <f>IF('cantidad pollos muertos'!D39="","",GAMMAINV(0.975,'cantidad pollos muertos'!D39+(1/2),1))</f>
+        <v>192.72380391295633</v>
+      </c>
+      <c r="G40">
+        <f>IF('cantidad pollos muertos'!E39="","",GAMMAINV(0.025,'cantidad pollos muertos'!E39+(1/2),1))</f>
+        <v>179.29388372768716</v>
+      </c>
+      <c r="H40">
+        <f>IF('cantidad pollos muertos'!E39="","",GAMMAINV(0.975,'cantidad pollos muertos'!E39+(1/2),1))</f>
+        <v>235.59976144814786</v>
+      </c>
+      <c r="I40">
+        <f>IF('cantidad pollos muertos'!F39="","",GAMMAINV(0.025,'cantidad pollos muertos'!F39+(1/2),1))</f>
+        <v>201.70155665364121</v>
+      </c>
+      <c r="J40">
+        <f>IF('cantidad pollos muertos'!F39="","",GAMMAINV(0.975,'cantidad pollos muertos'!F39+(1/2),1))</f>
+        <v>261.19215742259411</v>
+      </c>
+      <c r="K40">
+        <f>IF('cantidad pollos muertos'!G39="","",GAMMAINV(0.025,'cantidad pollos muertos'!G39+(1/2),1))</f>
+        <v>156.05451286229808</v>
+      </c>
+      <c r="L40">
+        <f>IF('cantidad pollos muertos'!G39="","",GAMMAINV(0.975,'cantidad pollos muertos'!G39+(1/2),1))</f>
+        <v>208.83904112783321</v>
+      </c>
+      <c r="M40">
+        <f>IF('cantidad pollos muertos'!H39="","",GAMMAINV(0.025,'cantidad pollos muertos'!H39+(1/2),1))</f>
+        <v>96.307567312785139</v>
+      </c>
+      <c r="N40">
+        <f>IF('cantidad pollos muertos'!H39="","",GAMMAINV(0.975,'cantidad pollos muertos'!H39+(1/2),1))</f>
+        <v>138.5855658778643</v>
+      </c>
+      <c r="O40">
+        <f>IF('cantidad pollos muertos'!I39="","",GAMMAINV(0.025,'cantidad pollos muertos'!I39+(1/2),1))</f>
+        <v>66.555282724745524</v>
+      </c>
+      <c r="P40">
+        <f>IF('cantidad pollos muertos'!I39="","",GAMMAINV(0.975,'cantidad pollos muertos'!I39+(1/2),1))</f>
+        <v>102.33738501995983</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A41" s="17">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>26</v>
+      </c>
+      <c r="C41">
+        <f>IF('cantidad pollos muertos'!C40="","",GAMMAINV(0.025,'cantidad pollos muertos'!C40+(1/2),1))</f>
+        <v>548.62533919166628</v>
+      </c>
+      <c r="D41">
+        <f>IF('cantidad pollos muertos'!C40="","",GAMMAINV(0.975,'cantidad pollos muertos'!C40+(1/2),1))</f>
+        <v>644.26873783735732</v>
+      </c>
+      <c r="E41">
+        <f>IF('cantidad pollos muertos'!D40="","",GAMMAINV(0.025,'cantidad pollos muertos'!D40+(1/2),1))</f>
+        <v>1049.0499170025248</v>
+      </c>
+      <c r="F41">
+        <f>IF('cantidad pollos muertos'!D40="","",GAMMAINV(0.975,'cantidad pollos muertos'!D40+(1/2),1))</f>
+        <v>1179.8442665223874</v>
+      </c>
+      <c r="G41">
+        <f>IF('cantidad pollos muertos'!E40="","",GAMMAINV(0.025,'cantidad pollos muertos'!E40+(1/2),1))</f>
+        <v>924.924049454586</v>
+      </c>
+      <c r="H41">
+        <f>IF('cantidad pollos muertos'!E40="","",GAMMAINV(0.975,'cantidad pollos muertos'!E40+(1/2),1))</f>
+        <v>1047.9701181726064</v>
+      </c>
+      <c r="I41">
+        <f>IF('cantidad pollos muertos'!F40="","",GAMMAINV(0.025,'cantidad pollos muertos'!F40+(1/2),1))</f>
+        <v>321.39769896169901</v>
+      </c>
+      <c r="J41">
+        <f>IF('cantidad pollos muertos'!F40="","",GAMMAINV(0.975,'cantidad pollos muertos'!F40+(1/2),1))</f>
+        <v>395.49622556041908</v>
+      </c>
+      <c r="K41">
+        <f>IF('cantidad pollos muertos'!G40="","",GAMMAINV(0.025,'cantidad pollos muertos'!G40+(1/2),1))</f>
+        <v>986.95742658016775</v>
+      </c>
+      <c r="L41">
+        <f>IF('cantidad pollos muertos'!G40="","",GAMMAINV(0.975,'cantidad pollos muertos'!G40+(1/2),1))</f>
+        <v>1113.9367494807827</v>
+      </c>
+      <c r="M41">
+        <f>IF('cantidad pollos muertos'!H40="","",GAMMAINV(0.025,'cantidad pollos muertos'!H40+(1/2),1))</f>
+        <v>67.448256305265616</v>
+      </c>
+      <c r="N41">
+        <f>IF('cantidad pollos muertos'!H40="","",GAMMAINV(0.975,'cantidad pollos muertos'!H40+(1/2),1))</f>
+        <v>103.44443090775799</v>
+      </c>
+      <c r="O41">
+        <f>IF('cantidad pollos muertos'!I40="","",GAMMAINV(0.025,'cantidad pollos muertos'!I40+(1/2),1))</f>
+        <v>119.14659511982991</v>
+      </c>
+      <c r="P41">
+        <f>IF('cantidad pollos muertos'!I40="","",GAMMAINV(0.975,'cantidad pollos muertos'!I40+(1/2),1))</f>
+        <v>165.74674578385378</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A42" s="17">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>33</v>
+      </c>
+      <c r="C42">
+        <f>IF('cantidad pollos muertos'!C41="","",GAMMAINV(0.025,'cantidad pollos muertos'!C41+(1/2),1))</f>
+        <v>174.63709139652676</v>
+      </c>
+      <c r="D42">
+        <f>IF('cantidad pollos muertos'!C41="","",GAMMAINV(0.975,'cantidad pollos muertos'!C41+(1/2),1))</f>
+        <v>230.25653735551839</v>
+      </c>
+      <c r="E42">
+        <f>IF('cantidad pollos muertos'!D41="","",GAMMAINV(0.025,'cantidad pollos muertos'!D41+(1/2),1))</f>
+        <v>319.5015285063526</v>
+      </c>
+      <c r="F42">
+        <f>IF('cantidad pollos muertos'!D41="","",GAMMAINV(0.975,'cantidad pollos muertos'!D41+(1/2),1))</f>
+        <v>393.39239386812818</v>
+      </c>
+      <c r="G42">
+        <f>IF('cantidad pollos muertos'!E41="","",GAMMAINV(0.025,'cantidad pollos muertos'!E41+(1/2),1))</f>
+        <v>221.37513463914547</v>
+      </c>
+      <c r="H42">
+        <f>IF('cantidad pollos muertos'!E41="","",GAMMAINV(0.975,'cantidad pollos muertos'!E41+(1/2),1))</f>
+        <v>283.51862892250807</v>
+      </c>
+      <c r="I42">
+        <f>IF('cantidad pollos muertos'!F41="","",GAMMAINV(0.025,'cantidad pollos muertos'!F41+(1/2),1))</f>
+        <v>169.9845877189511</v>
+      </c>
+      <c r="J42">
+        <f>IF('cantidad pollos muertos'!F41="","",GAMMAINV(0.975,'cantidad pollos muertos'!F41+(1/2),1))</f>
+        <v>224.90902377196636</v>
+      </c>
+      <c r="K42">
+        <f>IF('cantidad pollos muertos'!G41="","",GAMMAINV(0.025,'cantidad pollos muertos'!G41+(1/2),1))</f>
+        <v>110.90067430604017</v>
+      </c>
+      <c r="L42">
+        <f>IF('cantidad pollos muertos'!G41="","",GAMMAINV(0.975,'cantidad pollos muertos'!G41+(1/2),1))</f>
+        <v>155.99260087494179</v>
+      </c>
+      <c r="M42">
+        <f>IF('cantidad pollos muertos'!H41="","",GAMMAINV(0.025,'cantidad pollos muertos'!H41+(1/2),1))</f>
+        <v>66.555282724745524</v>
+      </c>
+      <c r="N42">
+        <f>IF('cantidad pollos muertos'!H41="","",GAMMAINV(0.975,'cantidad pollos muertos'!H41+(1/2),1))</f>
+        <v>102.33738501995983</v>
+      </c>
+      <c r="O42">
+        <f>IF('cantidad pollos muertos'!I41="","",GAMMAINV(0.025,'cantidad pollos muertos'!I41+(1/2),1))</f>
+        <v>66.555282724745524</v>
+      </c>
+      <c r="P42">
+        <f>IF('cantidad pollos muertos'!I41="","",GAMMAINV(0.975,'cantidad pollos muertos'!I41+(1/2),1))</f>
+        <v>102.33738501995983</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A43" s="17">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43">
+        <f>IF('cantidad pollos muertos'!C42="","",GAMMAINV(0.025,'cantidad pollos muertos'!C42+(1/2),1))</f>
+        <v>967.56538881400036</v>
+      </c>
+      <c r="D43">
+        <f>IF('cantidad pollos muertos'!C42="","",GAMMAINV(0.975,'cantidad pollos muertos'!C42+(1/2),1))</f>
+        <v>1093.3287847240811</v>
+      </c>
+      <c r="E43">
+        <f>IF('cantidad pollos muertos'!D42="","",GAMMAINV(0.025,'cantidad pollos muertos'!D42+(1/2),1))</f>
+        <v>1696.7950697366227</v>
+      </c>
+      <c r="F43">
+        <f>IF('cantidad pollos muertos'!D42="","",GAMMAINV(0.975,'cantidad pollos muertos'!D42+(1/2),1))</f>
+        <v>1862.0991595475402</v>
+      </c>
+      <c r="G43">
+        <f>IF('cantidad pollos muertos'!E42="","",GAMMAINV(0.025,'cantidad pollos muertos'!E42+(1/2),1))</f>
+        <v>4583.8313595495547</v>
+      </c>
+      <c r="H43">
+        <f>IF('cantidad pollos muertos'!E42="","",GAMMAINV(0.975,'cantidad pollos muertos'!E42+(1/2),1))</f>
+        <v>4853.0629174576852</v>
+      </c>
+      <c r="I43">
+        <f>IF('cantidad pollos muertos'!F42="","",GAMMAINV(0.025,'cantidad pollos muertos'!F42+(1/2),1))</f>
+        <v>871.66578222027056</v>
+      </c>
+      <c r="J43">
+        <f>IF('cantidad pollos muertos'!F42="","",GAMMAINV(0.975,'cantidad pollos muertos'!F42+(1/2),1))</f>
+        <v>991.22837723190105</v>
+      </c>
+      <c r="K43">
+        <f>IF('cantidad pollos muertos'!G42="","",GAMMAINV(0.025,'cantidad pollos muertos'!G42+(1/2),1))</f>
+        <v>699.6881198571507</v>
+      </c>
+      <c r="L43">
+        <f>IF('cantidad pollos muertos'!G42="","",GAMMAINV(0.975,'cantidad pollos muertos'!G42+(1/2),1))</f>
+        <v>807.20600494167547</v>
+      </c>
+      <c r="M43">
+        <f>IF('cantidad pollos muertos'!H42="","",GAMMAINV(0.025,'cantidad pollos muertos'!H42+(1/2),1))</f>
+        <v>478.65317839881567</v>
+      </c>
+      <c r="N43">
+        <f>IF('cantidad pollos muertos'!H42="","",GAMMAINV(0.975,'cantidad pollos muertos'!H42+(1/2),1))</f>
+        <v>568.24086663478749</v>
+      </c>
+      <c r="O43">
+        <f>IF('cantidad pollos muertos'!I42="","",GAMMAINV(0.025,'cantidad pollos muertos'!I42+(1/2),1))</f>
+        <v>864.89111119897188</v>
+      </c>
+      <c r="P43">
+        <f>IF('cantidad pollos muertos'!I42="","",GAMMAINV(0.975,'cantidad pollos muertos'!I42+(1/2),1))</f>
+        <v>984.00304714286347</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A44" s="17">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>4</v>
+      </c>
+      <c r="C44">
+        <f>IF('cantidad pollos muertos'!C43="","",GAMMAINV(0.025,'cantidad pollos muertos'!C43+(1/2),1))</f>
+        <v>985.01796057738704</v>
+      </c>
+      <c r="D44">
+        <f>IF('cantidad pollos muertos'!C43="","",GAMMAINV(0.975,'cantidad pollos muertos'!C43+(1/2),1))</f>
+        <v>1111.8762152356135</v>
+      </c>
+      <c r="E44">
+        <f>IF('cantidad pollos muertos'!D43="","",GAMMAINV(0.025,'cantidad pollos muertos'!D43+(1/2),1))</f>
+        <v>1357.3219889319423</v>
+      </c>
+      <c r="F44">
+        <f>IF('cantidad pollos muertos'!D43="","",GAMMAINV(0.975,'cantidad pollos muertos'!D43+(1/2),1))</f>
+        <v>1505.5722217138516</v>
+      </c>
+      <c r="G44">
+        <f>IF('cantidad pollos muertos'!E43="","",GAMMAINV(0.025,'cantidad pollos muertos'!E43+(1/2),1))</f>
+        <v>3960.1883460942354</v>
+      </c>
+      <c r="H44">
+        <f>IF('cantidad pollos muertos'!E43="","",GAMMAINV(0.975,'cantidad pollos muertos'!E43+(1/2),1))</f>
+        <v>4210.7059264379523</v>
+      </c>
+      <c r="I44">
+        <f>IF('cantidad pollos muertos'!F43="","",GAMMAINV(0.025,'cantidad pollos muertos'!F43+(1/2),1))</f>
+        <v>1526.9426730191165</v>
+      </c>
+      <c r="J44">
+        <f>IF('cantidad pollos muertos'!F43="","",GAMMAINV(0.975,'cantidad pollos muertos'!F43+(1/2),1))</f>
+        <v>1683.9515479567065</v>
+      </c>
+      <c r="K44">
+        <f>IF('cantidad pollos muertos'!G43="","",GAMMAINV(0.025,'cantidad pollos muertos'!G43+(1/2),1))</f>
+        <v>1114.110862795982</v>
+      </c>
+      <c r="L44">
+        <f>IF('cantidad pollos muertos'!G43="","",GAMMAINV(0.975,'cantidad pollos muertos'!G43+(1/2),1))</f>
+        <v>1248.7833276754016</v>
+      </c>
+      <c r="M44">
+        <f>IF('cantidad pollos muertos'!H43="","",GAMMAINV(0.025,'cantidad pollos muertos'!H43+(1/2),1))</f>
+        <v>608.19682197829161</v>
+      </c>
+      <c r="N44">
+        <f>IF('cantidad pollos muertos'!H43="","",GAMMAINV(0.975,'cantidad pollos muertos'!H43+(1/2),1))</f>
+        <v>708.69727664239463</v>
+      </c>
+      <c r="O44">
+        <f>IF('cantidad pollos muertos'!I43="","",GAMMAINV(0.025,'cantidad pollos muertos'!I43+(1/2),1))</f>
+        <v>678.47997729179644</v>
+      </c>
+      <c r="P44">
+        <f>IF('cantidad pollos muertos'!I43="","",GAMMAINV(0.975,'cantidad pollos muertos'!I43+(1/2),1))</f>
+        <v>784.41414205083629</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A45" s="17">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>2</v>
+      </c>
+      <c r="C45">
+        <f>IF('cantidad pollos muertos'!C44="","",GAMMAINV(0.025,'cantidad pollos muertos'!C44+(1/2),1))</f>
+        <v>83.620315112988024</v>
+      </c>
+      <c r="D45">
+        <f>IF('cantidad pollos muertos'!C44="","",GAMMAINV(0.975,'cantidad pollos muertos'!C44+(1/2),1))</f>
+        <v>123.27265734594629</v>
+      </c>
+      <c r="E45">
+        <f>IF('cantidad pollos muertos'!D44="","",GAMMAINV(0.025,'cantidad pollos muertos'!D44+(1/2),1))</f>
+        <v>82.717424459465121</v>
+      </c>
+      <c r="F45">
+        <f>IF('cantidad pollos muertos'!D44="","",GAMMAINV(0.975,'cantidad pollos muertos'!D44+(1/2),1))</f>
+        <v>122.17553481598543</v>
+      </c>
+      <c r="G45">
+        <f>IF('cantidad pollos muertos'!E44="","",GAMMAINV(0.025,'cantidad pollos muertos'!E44+(1/2),1))</f>
+        <v>115.47868500239804</v>
+      </c>
+      <c r="H45">
+        <f>IF('cantidad pollos muertos'!E44="","",GAMMAINV(0.975,'cantidad pollos muertos'!E44+(1/2),1))</f>
+        <v>161.41462775614207</v>
+      </c>
+      <c r="I45">
+        <f>IF('cantidad pollos muertos'!F44="","",GAMMAINV(0.025,'cantidad pollos muertos'!F44+(1/2),1))</f>
+        <v>107.24403913202086</v>
+      </c>
+      <c r="J45">
+        <f>IF('cantidad pollos muertos'!F44="","",GAMMAINV(0.975,'cantidad pollos muertos'!F44+(1/2),1))</f>
+        <v>151.64920387554514</v>
+      </c>
+      <c r="K45">
+        <f>IF('cantidad pollos muertos'!G44="","",GAMMAINV(0.025,'cantidad pollos muertos'!G44+(1/2),1))</f>
+        <v>87.236542631327438</v>
+      </c>
+      <c r="L45">
+        <f>IF('cantidad pollos muertos'!G44="","",GAMMAINV(0.975,'cantidad pollos muertos'!G44+(1/2),1))</f>
+        <v>127.65648007746864</v>
+      </c>
+      <c r="M45">
+        <f>IF('cantidad pollos muertos'!H44="","",GAMMAINV(0.025,'cantidad pollos muertos'!H44+(1/2),1))</f>
+        <v>51.484124143889233</v>
+      </c>
+      <c r="N45">
+        <f>IF('cantidad pollos muertos'!H44="","",GAMMAINV(0.975,'cantidad pollos muertos'!H44+(1/2),1))</f>
+        <v>83.40812257489047</v>
+      </c>
+      <c r="O45">
+        <f>IF('cantidad pollos muertos'!I44="","",GAMMAINV(0.025,'cantidad pollos muertos'!I44+(1/2),1))</f>
+        <v>55.893475743516525</v>
+      </c>
+      <c r="P45">
+        <f>IF('cantidad pollos muertos'!I44="","",GAMMAINV(0.975,'cantidad pollos muertos'!I44+(1/2),1))</f>
+        <v>88.998915692959812</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A46" s="17">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>29</v>
+      </c>
+      <c r="C46">
+        <f>IF('cantidad pollos muertos'!C45="","",GAMMAINV(0.025,'cantidad pollos muertos'!C45+(1/2),1))</f>
+        <v>132.0198061058029</v>
+      </c>
+      <c r="D46">
+        <f>IF('cantidad pollos muertos'!C45="","",GAMMAINV(0.975,'cantidad pollos muertos'!C45+(1/2),1))</f>
+        <v>180.87362187681995</v>
+      </c>
+      <c r="E46">
+        <f>IF('cantidad pollos muertos'!D45="","",GAMMAINV(0.025,'cantidad pollos muertos'!D45+(1/2),1))</f>
+        <v>535.19098313718803</v>
+      </c>
+      <c r="F46">
+        <f>IF('cantidad pollos muertos'!D45="","",GAMMAINV(0.975,'cantidad pollos muertos'!D45+(1/2),1))</f>
+        <v>629.70308837869106</v>
+      </c>
+      <c r="G46">
+        <f>IF('cantidad pollos muertos'!E45="","",GAMMAINV(0.025,'cantidad pollos muertos'!E45+(1/2),1))</f>
+        <v>640.91361929566665</v>
+      </c>
+      <c r="H46">
+        <f>IF('cantidad pollos muertos'!E45="","",GAMMAINV(0.975,'cantidad pollos muertos'!E45+(1/2),1))</f>
+        <v>743.98048952094484</v>
+      </c>
+      <c r="I46">
+        <f>IF('cantidad pollos muertos'!F45="","",GAMMAINV(0.025,'cantidad pollos muertos'!F45+(1/2),1))</f>
+        <v>362.23179958488959</v>
+      </c>
+      <c r="J46">
+        <f>IF('cantidad pollos muertos'!F45="","",GAMMAINV(0.975,'cantidad pollos muertos'!F45+(1/2),1))</f>
+        <v>440.66216591868124</v>
+      </c>
+      <c r="K46">
+        <f>IF('cantidad pollos muertos'!G45="","",GAMMAINV(0.025,'cantidad pollos muertos'!G45+(1/2),1))</f>
+        <v>75.512217647445581</v>
+      </c>
+      <c r="L46">
+        <f>IF('cantidad pollos muertos'!G45="","",GAMMAINV(0.975,'cantidad pollos muertos'!G45+(1/2),1))</f>
+        <v>113.38062596936612</v>
+      </c>
+      <c r="M46">
+        <f>IF('cantidad pollos muertos'!H45="","",GAMMAINV(0.025,'cantidad pollos muertos'!H45+(1/2),1))</f>
+        <v>72.819004490068878</v>
+      </c>
+      <c r="N46">
+        <f>IF('cantidad pollos muertos'!H45="","",GAMMAINV(0.975,'cantidad pollos muertos'!H45+(1/2),1))</f>
+        <v>110.07379046221725</v>
+      </c>
+      <c r="O46">
+        <f>IF('cantidad pollos muertos'!I45="","",GAMMAINV(0.025,'cantidad pollos muertos'!I45+(1/2),1))</f>
+        <v>80.01166316279793</v>
+      </c>
+      <c r="P46">
+        <f>IF('cantidad pollos muertos'!I45="","",GAMMAINV(0.975,'cantidad pollos muertos'!I45+(1/2),1))</f>
+        <v>118.88125495026803</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A47" s="17">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>22</v>
+      </c>
+      <c r="C47">
+        <f>IF('cantidad pollos muertos'!C46="","",GAMMAINV(0.025,'cantidad pollos muertos'!C46+(1/2),1))</f>
+        <v>28.999208263699717</v>
+      </c>
+      <c r="D47">
+        <f>IF('cantidad pollos muertos'!C46="","",GAMMAINV(0.975,'cantidad pollos muertos'!C46+(1/2),1))</f>
+        <v>53.891704832667266</v>
+      </c>
+      <c r="E47">
+        <f>IF('cantidad pollos muertos'!D46="","",GAMMAINV(0.025,'cantidad pollos muertos'!D46+(1/2),1))</f>
+        <v>27.311679260779517</v>
+      </c>
+      <c r="F47">
+        <f>IF('cantidad pollos muertos'!D46="","",GAMMAINV(0.975,'cantidad pollos muertos'!D46+(1/2),1))</f>
+        <v>51.579055950673293</v>
+      </c>
+      <c r="G47">
+        <f>IF('cantidad pollos muertos'!E46="","",GAMMAINV(0.025,'cantidad pollos muertos'!E46+(1/2),1))</f>
+        <v>40.133392287067011</v>
+      </c>
+      <c r="H47">
+        <f>IF('cantidad pollos muertos'!E46="","",GAMMAINV(0.975,'cantidad pollos muertos'!E46+(1/2),1))</f>
+        <v>68.758350727289638</v>
+      </c>
+      <c r="I47">
+        <f>IF('cantidad pollos muertos'!F46="","",GAMMAINV(0.025,'cantidad pollos muertos'!F46+(1/2),1))</f>
+        <v>32.396680742579541</v>
+      </c>
+      <c r="J47">
+        <f>IF('cantidad pollos muertos'!F46="","",GAMMAINV(0.975,'cantidad pollos muertos'!F46+(1/2),1))</f>
+        <v>58.494539771790699</v>
+      </c>
+      <c r="K47">
+        <f>IF('cantidad pollos muertos'!G46="","",GAMMAINV(0.025,'cantidad pollos muertos'!G46+(1/2),1))</f>
+        <v>54.127170276499882</v>
+      </c>
+      <c r="L47">
+        <f>IF('cantidad pollos muertos'!G46="","",GAMMAINV(0.975,'cantidad pollos muertos'!G46+(1/2),1))</f>
+        <v>86.765165784440967</v>
+      </c>
+      <c r="M47">
+        <f>IF('cantidad pollos muertos'!H46="","",GAMMAINV(0.025,'cantidad pollos muertos'!H46+(1/2),1))</f>
+        <v>25.632406636710915</v>
+      </c>
+      <c r="N47">
+        <f>IF('cantidad pollos muertos'!H46="","",GAMMAINV(0.975,'cantidad pollos muertos'!H46+(1/2),1))</f>
+        <v>49.258131005783902</v>
+      </c>
+      <c r="O47">
+        <f>IF('cantidad pollos muertos'!I46="","",GAMMAINV(0.025,'cantidad pollos muertos'!I46+(1/2),1))</f>
+        <v>15.777458231333561</v>
+      </c>
+      <c r="P47">
+        <f>IF('cantidad pollos muertos'!I46="","",GAMMAINV(0.975,'cantidad pollos muertos'!I46+(1/2),1))</f>
+        <v>35.11120678321727</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A48" s="17">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>71</v>
+      </c>
+      <c r="C48" t="str">
+        <f>IF('cantidad pollos muertos'!C47="","",GAMMAINV(0.025,'cantidad pollos muertos'!C47+(1/2),1))</f>
+        <v/>
+      </c>
+      <c r="D48" t="str">
+        <f>IF('cantidad pollos muertos'!C47="","",GAMMAINV(0.975,'cantidad pollos muertos'!C47+(1/2),1))</f>
+        <v/>
+      </c>
+      <c r="E48">
+        <f>IF('cantidad pollos muertos'!D47="","",GAMMAINV(0.025,'cantidad pollos muertos'!D47+(1/2),1))</f>
+        <v>278.80906055151064</v>
+      </c>
+      <c r="F48">
+        <f>IF('cantidad pollos muertos'!D47="","",GAMMAINV(0.975,'cantidad pollos muertos'!D47+(1/2),1))</f>
+        <v>348.08480899206802</v>
+      </c>
+      <c r="G48">
+        <f>IF('cantidad pollos muertos'!E47="","",GAMMAINV(0.025,'cantidad pollos muertos'!E47+(1/2),1))</f>
+        <v>286.36825741056521</v>
+      </c>
+      <c r="H48">
+        <f>IF('cantidad pollos muertos'!E47="","",GAMMAINV(0.975,'cantidad pollos muertos'!E47+(1/2),1))</f>
+        <v>356.52562303658738</v>
+      </c>
+      <c r="I48">
+        <f>IF('cantidad pollos muertos'!F47="","",GAMMAINV(0.025,'cantidad pollos muertos'!F47+(1/2),1))</f>
+        <v>77.310424850812296</v>
+      </c>
+      <c r="J48">
+        <f>IF('cantidad pollos muertos'!F47="","",GAMMAINV(0.975,'cantidad pollos muertos'!F47+(1/2),1))</f>
+        <v>115.58244950407959</v>
+      </c>
+      <c r="K48">
+        <f>IF('cantidad pollos muertos'!G47="","",GAMMAINV(0.025,'cantidad pollos muertos'!G47+(1/2),1))</f>
+        <v>187.68642850911837</v>
+      </c>
+      <c r="L48">
+        <f>IF('cantidad pollos muertos'!G47="","",GAMMAINV(0.975,'cantidad pollos muertos'!G47+(1/2),1))</f>
+        <v>245.20724430579639</v>
+      </c>
+      <c r="M48">
+        <f>IF('cantidad pollos muertos'!H47="","",GAMMAINV(0.025,'cantidad pollos muertos'!H47+(1/2),1))</f>
+        <v>51.484124143889233</v>
+      </c>
+      <c r="N48">
+        <f>IF('cantidad pollos muertos'!H47="","",GAMMAINV(0.975,'cantidad pollos muertos'!H47+(1/2),1))</f>
+        <v>83.40812257489047</v>
+      </c>
+      <c r="O48">
+        <f>IF('cantidad pollos muertos'!I47="","",GAMMAINV(0.025,'cantidad pollos muertos'!I47+(1/2),1))</f>
+        <v>101.76928066438617</v>
+      </c>
+      <c r="P48">
+        <f>IF('cantidad pollos muertos'!I47="","",GAMMAINV(0.975,'cantidad pollos muertos'!I47+(1/2),1))</f>
+        <v>145.12391013196</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A49" s="17">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>3</v>
+      </c>
+      <c r="C49">
+        <f>IF('cantidad pollos muertos'!C48="","",GAMMAINV(0.025,'cantidad pollos muertos'!C48+(1/2),1))</f>
+        <v>80.01166316279793</v>
+      </c>
+      <c r="D49">
+        <f>IF('cantidad pollos muertos'!C48="","",GAMMAINV(0.975,'cantidad pollos muertos'!C48+(1/2),1))</f>
+        <v>118.88125495026803</v>
+      </c>
+      <c r="E49">
+        <f>IF('cantidad pollos muertos'!D48="","",GAMMAINV(0.025,'cantidad pollos muertos'!D48+(1/2),1))</f>
+        <v>37.5417353745407</v>
+      </c>
+      <c r="F49">
+        <f>IF('cantidad pollos muertos'!D48="","",GAMMAINV(0.975,'cantidad pollos muertos'!D48+(1/2),1))</f>
+        <v>65.349854312032974</v>
+      </c>
+      <c r="G49">
+        <f>IF('cantidad pollos muertos'!E48="","",GAMMAINV(0.025,'cantidad pollos muertos'!E48+(1/2),1))</f>
+        <v>88.141732680851817</v>
+      </c>
+      <c r="H49">
+        <f>IF('cantidad pollos muertos'!E48="","",GAMMAINV(0.975,'cantidad pollos muertos'!E48+(1/2),1))</f>
+        <v>128.75130200416774</v>
+      </c>
+      <c r="I49">
+        <f>IF('cantidad pollos muertos'!F48="","",GAMMAINV(0.025,'cantidad pollos muertos'!F48+(1/2),1))</f>
+        <v>48.849242700029897</v>
+      </c>
+      <c r="J49">
+        <f>IF('cantidad pollos muertos'!F48="","",GAMMAINV(0.975,'cantidad pollos muertos'!F48+(1/2),1))</f>
+        <v>80.042906187400447</v>
+      </c>
+      <c r="K49">
+        <f>IF('cantidad pollos muertos'!G48="","",GAMMAINV(0.025,'cantidad pollos muertos'!G48+(1/2),1))</f>
+        <v>51.484124143889233</v>
+      </c>
+      <c r="L49">
+        <f>IF('cantidad pollos muertos'!G48="","",GAMMAINV(0.975,'cantidad pollos muertos'!G48+(1/2),1))</f>
+        <v>83.40812257489047</v>
+      </c>
+      <c r="M49">
+        <f>IF('cantidad pollos muertos'!H48="","",GAMMAINV(0.025,'cantidad pollos muertos'!H48+(1/2),1))</f>
+        <v>40.999841622666459</v>
+      </c>
+      <c r="N49">
+        <f>IF('cantidad pollos muertos'!H48="","",GAMMAINV(0.975,'cantidad pollos muertos'!H48+(1/2),1))</f>
+        <v>69.891948725310272</v>
+      </c>
+      <c r="O49">
+        <f>IF('cantidad pollos muertos'!I48="","",GAMMAINV(0.025,'cantidad pollos muertos'!I48+(1/2),1))</f>
+        <v>66.555282724745524</v>
+      </c>
+      <c r="P49">
+        <f>IF('cantidad pollos muertos'!I48="","",GAMMAINV(0.975,'cantidad pollos muertos'!I48+(1/2),1))</f>
+        <v>102.33738501995983</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A50" s="17">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>17</v>
+      </c>
+      <c r="C50">
+        <f>IF('cantidad pollos muertos'!C49="","",GAMMAINV(0.025,'cantidad pollos muertos'!C49+(1/2),1))</f>
+        <v>44.47754524508602</v>
+      </c>
+      <c r="D50">
+        <f>IF('cantidad pollos muertos'!C49="","",GAMMAINV(0.975,'cantidad pollos muertos'!C49+(1/2),1))</f>
+        <v>74.414418156443148</v>
+      </c>
+      <c r="E50">
+        <f>IF('cantidad pollos muertos'!D49="","",GAMMAINV(0.025,'cantidad pollos muertos'!D49+(1/2),1))</f>
+        <v>27.311679260779517</v>
+      </c>
+      <c r="F50">
+        <f>IF('cantidad pollos muertos'!D49="","",GAMMAINV(0.975,'cantidad pollos muertos'!D49+(1/2),1))</f>
+        <v>51.579055950673293</v>
+      </c>
+      <c r="G50">
+        <f>IF('cantidad pollos muertos'!E49="","",GAMMAINV(0.025,'cantidad pollos muertos'!E49+(1/2),1))</f>
+        <v>101.76928066438617</v>
+      </c>
+      <c r="H50">
+        <f>IF('cantidad pollos muertos'!E49="","",GAMMAINV(0.975,'cantidad pollos muertos'!E49+(1/2),1))</f>
+        <v>145.12391013196</v>
+      </c>
+      <c r="I50">
+        <f>IF('cantidad pollos muertos'!F49="","",GAMMAINV(0.025,'cantidad pollos muertos'!F49+(1/2),1))</f>
+        <v>35.820758132639803</v>
+      </c>
+      <c r="J50">
+        <f>IF('cantidad pollos muertos'!F49="","",GAMMAINV(0.975,'cantidad pollos muertos'!F49+(1/2),1))</f>
+        <v>63.070718720047985</v>
+      </c>
+      <c r="K50">
+        <f>IF('cantidad pollos muertos'!G49="","",GAMMAINV(0.025,'cantidad pollos muertos'!G49+(1/2),1))</f>
+        <v>117.31204422916028</v>
+      </c>
+      <c r="L50">
+        <f>IF('cantidad pollos muertos'!G49="","",GAMMAINV(0.975,'cantidad pollos muertos'!G49+(1/2),1))</f>
+        <v>163.58128280422588</v>
+      </c>
+      <c r="M50">
+        <f>IF('cantidad pollos muertos'!H49="","",GAMMAINV(0.025,'cantidad pollos muertos'!H49+(1/2),1))</f>
+        <v>80.91309119682343</v>
+      </c>
+      <c r="N50">
+        <f>IF('cantidad pollos muertos'!H49="","",GAMMAINV(0.975,'cantidad pollos muertos'!H49+(1/2),1))</f>
+        <v>119.9798409138221</v>
+      </c>
+      <c r="O50">
+        <f>IF('cantidad pollos muertos'!I49="","",GAMMAINV(0.025,'cantidad pollos muertos'!I49+(1/2),1))</f>
+        <v>24.796078627840313</v>
+      </c>
+      <c r="P50">
+        <f>IF('cantidad pollos muertos'!I49="","",GAMMAINV(0.975,'cantidad pollos muertos'!I49+(1/2),1))</f>
+        <v>48.094351798666601</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="25">
+    <mergeCell ref="AG1:AH1"/>
+    <mergeCell ref="AI1:AJ1"/>
+    <mergeCell ref="AK1:AL1"/>
+    <mergeCell ref="AM1:AN1"/>
+    <mergeCell ref="AO1:AP1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AC1:AD1"/>
+    <mergeCell ref="AE1:AF1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="AQ1:AR1"/>
+    <mergeCell ref="AS1:AT1"/>
+    <mergeCell ref="AU1:AV1"/>
+    <mergeCell ref="AW1:AX1"/>
+    <mergeCell ref="AY1:AZ1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="P50" sqref="P50"/>
     </sheetView>
   </sheetViews>

--- a/PROPUESTA FUNDEMERCA (2.5).xlsx
+++ b/PROPUESTA FUNDEMERCA (2.5).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7635" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7635" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="cantidad inicial pollos" sheetId="2" r:id="rId1"/>
@@ -443,11 +443,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4992,7 +4992,7 @@
   <dimension ref="A1:Y54"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U1" sqref="U1:U1048576"/>
+      <selection activeCell="E63" sqref="E63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8765,8 +8765,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y49"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Y2" sqref="Y2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12523,7 +12523,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="O2" sqref="O2"/>
     </sheetView>
@@ -28360,12 +28360,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="AS1:AT1"/>
-    <mergeCell ref="AI1:AJ1"/>
-    <mergeCell ref="AK1:AL1"/>
-    <mergeCell ref="AM1:AN1"/>
-    <mergeCell ref="AO1:AP1"/>
-    <mergeCell ref="AQ1:AR1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
     <mergeCell ref="AG1:AH1"/>
     <mergeCell ref="O1:P1"/>
     <mergeCell ref="Q1:R1"/>
@@ -28376,12 +28376,12 @@
     <mergeCell ref="AA1:AB1"/>
     <mergeCell ref="AC1:AD1"/>
     <mergeCell ref="AE1:AF1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="AS1:AT1"/>
+    <mergeCell ref="AI1:AJ1"/>
+    <mergeCell ref="AK1:AL1"/>
+    <mergeCell ref="AM1:AN1"/>
+    <mergeCell ref="AO1:AP1"/>
+    <mergeCell ref="AQ1:AR1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -28391,8 +28391,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28405,14 +28405,14 @@
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="7"/>
       <c r="B1" s="7"/>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
       <c r="I1" s="24"/>
       <c r="J1" s="24"/>
       <c r="K1" s="24"/>
@@ -28435,12 +28435,12 @@
         <v>77</v>
       </c>
       <c r="H2" s="23"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="25"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">

--- a/PROPUESTA FUNDEMERCA (2.5).xlsx
+++ b/PROPUESTA FUNDEMERCA (2.5).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7635" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7635" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="cantidad inicial pollos" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="89">
   <si>
     <t>MANAEM LUCUMI</t>
   </si>
@@ -293,6 +293,9 @@
   <si>
     <t>CONTEO DATOS</t>
   </si>
+  <si>
+    <t>PROMEDIO</t>
+  </si>
 </sst>
 </file>
 
@@ -373,7 +376,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -435,6 +438,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -15473,7 +15479,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y54"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E63" sqref="E63"/>
     </sheetView>
   </sheetViews>
@@ -23003,11 +23009,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA52"/>
+  <dimension ref="A1:AB56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G29" sqref="G29"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Z54" sqref="Z54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23020,7 +23026,7 @@
     <col min="27" max="27" width="14.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>63</v>
       </c>
@@ -23102,8 +23108,11 @@
       <c r="AA1" s="4" t="s">
         <v>85</v>
       </c>
+      <c r="AB1" s="23" t="s">
+        <v>88</v>
+      </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -23210,8 +23219,12 @@
         <f>IFERROR(1-_xlfn.BINOM.DIST(Z2/2,Z2,Y2/Z2,TRUE),"")</f>
         <v>1.1900994294188338E-3</v>
       </c>
+      <c r="AB2">
+        <f>AVERAGE(C2:X2)</f>
+        <v>4.4967321343301107E-2</v>
+      </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -23318,8 +23331,12 @@
         <f t="shared" ref="AA3:AA49" si="2">IFERROR(1-_xlfn.BINOM.DIST(Z3/2,Z3,Y3/Z3,TRUE),"")</f>
         <v>5.5722972225529688E-2</v>
       </c>
+      <c r="AB3">
+        <f t="shared" ref="AB3:AB48" si="3">AVERAGE(C3:X3)</f>
+        <v>7.0815844562226643E-2</v>
+      </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>3</v>
       </c>
@@ -23426,8 +23443,12 @@
         <f t="shared" si="2"/>
         <v>1.4252781867980957E-2</v>
       </c>
+      <c r="AB4">
+        <f t="shared" si="3"/>
+        <v>4.4408244163146121E-2</v>
+      </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>4</v>
       </c>
@@ -23534,8 +23555,12 @@
         <f t="shared" si="2"/>
         <v>0.13948164066608992</v>
       </c>
+      <c r="AB5">
+        <f t="shared" si="3"/>
+        <v>4.5181647983289532E-2</v>
+      </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>5</v>
       </c>
@@ -23642,8 +23667,12 @@
         <f t="shared" si="2"/>
         <v>7.0035182202499158E-6</v>
       </c>
+      <c r="AB6">
+        <f t="shared" si="3"/>
+        <v>3.0529711127065338E-2</v>
+      </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>6</v>
       </c>
@@ -23750,8 +23779,12 @@
         <f t="shared" si="2"/>
         <v>0.13948164066608992</v>
       </c>
+      <c r="AB7">
+        <f t="shared" si="3"/>
+        <v>5.6175847290834358E-2</v>
+      </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>7</v>
       </c>
@@ -23858,8 +23891,12 @@
         <f t="shared" si="2"/>
         <v>8.596318690212712E-8</v>
       </c>
+      <c r="AB8">
+        <f t="shared" si="3"/>
+        <v>4.7648237536201316E-2</v>
+      </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>8</v>
       </c>
@@ -23966,8 +24003,12 @@
         <f t="shared" si="2"/>
         <v>7.0035182202499158E-6</v>
       </c>
+      <c r="AB9">
+        <f t="shared" si="3"/>
+        <v>3.1072580702547467E-2</v>
+      </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>9</v>
       </c>
@@ -24074,8 +24115,12 @@
         <f t="shared" si="2"/>
         <v>1.1900994294188338E-3</v>
       </c>
+      <c r="AB10">
+        <f t="shared" si="3"/>
+        <v>4.1467980702570177E-2</v>
+      </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>10</v>
       </c>
@@ -24182,8 +24227,12 @@
         <f t="shared" si="2"/>
         <v>0.38853007823222008</v>
       </c>
+      <c r="AB11">
+        <f t="shared" si="3"/>
+        <v>5.1689553374943784E-2</v>
+      </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>11</v>
       </c>
@@ -24290,8 +24339,12 @@
         <f t="shared" si="2"/>
         <v>1.8025671460586423E-5</v>
       </c>
+      <c r="AB12">
+        <f t="shared" si="3"/>
+        <v>3.3554645927001178E-2</v>
+      </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>12</v>
       </c>
@@ -24398,8 +24451,12 @@
         <f t="shared" si="2"/>
         <v>4.3056902669614816E-3</v>
       </c>
+      <c r="AB13">
+        <f t="shared" si="3"/>
+        <v>5.5957054651080626E-2</v>
+      </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>13</v>
       </c>
@@ -24506,8 +24563,12 @@
         <f t="shared" si="2"/>
         <v>6.2699623345580879E-2</v>
       </c>
+      <c r="AB14">
+        <f t="shared" si="3"/>
+        <v>5.555422367375349E-2</v>
+      </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>14</v>
       </c>
@@ -24614,8 +24675,12 @@
         <f t="shared" si="2"/>
         <v>8.2967505810049857E-7</v>
       </c>
+      <c r="AB15">
+        <f t="shared" si="3"/>
+        <v>3.3328386382271709E-2</v>
+      </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>15</v>
       </c>
@@ -24722,8 +24787,12 @@
         <f t="shared" si="2"/>
         <v>8.596318690212712E-8</v>
       </c>
+      <c r="AB16">
+        <f t="shared" si="3"/>
+        <v>3.6573872129011961E-2</v>
+      </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>16</v>
       </c>
@@ -24830,8 +24899,12 @@
         <f t="shared" si="2"/>
         <v>1.8330193523772964E-2</v>
       </c>
+      <c r="AB17">
+        <f t="shared" si="3"/>
+        <v>4.2722580474846041E-2</v>
+      </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>17</v>
       </c>
@@ -24938,8 +25011,12 @@
         <f t="shared" si="2"/>
         <v>4.3056902669614816E-3</v>
       </c>
+      <c r="AB18">
+        <f t="shared" si="3"/>
+        <v>5.15135521220529E-2</v>
+      </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>18</v>
       </c>
@@ -25046,8 +25123,12 @@
         <f t="shared" si="2"/>
         <v>6.2699623345580879E-2</v>
       </c>
+      <c r="AB19">
+        <f t="shared" si="3"/>
+        <v>7.6240744762344284E-2</v>
+      </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>19</v>
       </c>
@@ -25154,8 +25235,12 @@
         <f t="shared" si="2"/>
         <v>6.448626077570907E-10</v>
       </c>
+      <c r="AB20">
+        <f t="shared" si="3"/>
+        <v>2.7881848629828655E-2</v>
+      </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>20</v>
       </c>
@@ -25262,8 +25347,12 @@
         <f t="shared" si="2"/>
         <v>4.4162101180855728E-5</v>
       </c>
+      <c r="AB21">
+        <f t="shared" si="3"/>
+        <v>2.9780519130976648E-2</v>
+      </c>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <v>21</v>
       </c>
@@ -25370,8 +25459,12 @@
         <f t="shared" si="2"/>
         <v>1.3597907757478822E-4</v>
       </c>
+      <c r="AB22">
+        <f t="shared" si="3"/>
+        <v>3.355666929958518E-2</v>
+      </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <v>22</v>
       </c>
@@ -25478,8 +25571,12 @@
         <f t="shared" si="2"/>
         <v>0.94198765971836673</v>
       </c>
+      <c r="AB23">
+        <f t="shared" si="3"/>
+        <v>5.7445473727834394E-2</v>
+      </c>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
         <v>23</v>
       </c>
@@ -25586,8 +25683,12 @@
         <f t="shared" si="2"/>
         <v>1.3597907757478822E-4</v>
       </c>
+      <c r="AB24">
+        <f t="shared" si="3"/>
+        <v>3.6453392754365523E-2</v>
+      </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <v>24</v>
       </c>
@@ -25694,8 +25795,12 @@
         <f t="shared" si="2"/>
         <v>1.3597907757478822E-4</v>
       </c>
+      <c r="AB25">
+        <f t="shared" si="3"/>
+        <v>4.2582055864939967E-2</v>
+      </c>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A26" s="7">
         <v>25</v>
       </c>
@@ -25802,8 +25907,12 @@
         <f t="shared" si="2"/>
         <v>1.3597907757478822E-4</v>
       </c>
+      <c r="AB26">
+        <f t="shared" si="3"/>
+        <v>2.8940341531484268E-2</v>
+      </c>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
         <v>26</v>
       </c>
@@ -25910,8 +26019,12 @@
         <f t="shared" si="2"/>
         <v>0.41590595245361339</v>
       </c>
+      <c r="AB27">
+        <f t="shared" si="3"/>
+        <v>6.0153128667574274E-2</v>
+      </c>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A28" s="7">
         <v>27</v>
       </c>
@@ -26018,8 +26131,12 @@
         <f t="shared" si="2"/>
         <v>6.2306848894930766E-3</v>
       </c>
+      <c r="AB28">
+        <f t="shared" si="3"/>
+        <v>5.3467479682960728E-2</v>
+      </c>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A29" s="7">
         <v>28</v>
       </c>
@@ -26126,8 +26243,12 @@
         <f t="shared" si="2"/>
         <v>6.2699623345580879E-2</v>
       </c>
+      <c r="AB29">
+        <f t="shared" si="3"/>
+        <v>5.3879870562329076E-2</v>
+      </c>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A30" s="7">
         <v>29</v>
       </c>
@@ -26234,8 +26355,12 @@
         <f t="shared" si="2"/>
         <v>7.0035182202499158E-6</v>
       </c>
+      <c r="AB30">
+        <f t="shared" si="3"/>
+        <v>3.6180789299549994E-2</v>
+      </c>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A31" s="7">
         <v>30</v>
       </c>
@@ -26342,8 +26467,12 @@
         <f t="shared" si="2"/>
         <v>2.2674624937796706E-2</v>
       </c>
+      <c r="AB31">
+        <f t="shared" si="3"/>
+        <v>4.2930856290174742E-2</v>
+      </c>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A32" s="7">
         <v>31</v>
       </c>
@@ -26450,8 +26579,12 @@
         <f t="shared" si="2"/>
         <v>1.1900994294188338E-3</v>
       </c>
+      <c r="AB32">
+        <f t="shared" si="3"/>
+        <v>4.161647244845413E-2</v>
+      </c>
     </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A33" s="7">
         <v>32</v>
       </c>
@@ -26558,8 +26691,12 @@
         <f t="shared" si="2"/>
         <v>7.0035182202499158E-6</v>
       </c>
+      <c r="AB33">
+        <f t="shared" si="3"/>
+        <v>3.7356891426316347E-2</v>
+      </c>
     </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A34" s="7">
         <v>33</v>
       </c>
@@ -26666,8 +26803,12 @@
         <f t="shared" si="2"/>
         <v>0.41590595245361339</v>
       </c>
+      <c r="AB34">
+        <f t="shared" si="3"/>
+        <v>5.7982593691985211E-2</v>
+      </c>
     </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A35" s="7">
         <v>34</v>
       </c>
@@ -26774,8 +26915,12 @@
         <f t="shared" si="2"/>
         <v>7.0035182202499158E-6</v>
       </c>
+      <c r="AB35">
+        <f t="shared" si="3"/>
+        <v>3.2684591327891151E-2</v>
+      </c>
     </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A36" s="7">
         <v>35</v>
       </c>
@@ -26882,8 +27027,12 @@
         <f t="shared" si="2"/>
         <v>1.1900994294188338E-3</v>
       </c>
+      <c r="AB36">
+        <f t="shared" si="3"/>
+        <v>4.089849823219191E-2</v>
+      </c>
     </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
         <v>36</v>
       </c>
@@ -26990,8 +27139,12 @@
         <f t="shared" si="2"/>
         <v>8.596318690212712E-8</v>
       </c>
+      <c r="AB37">
+        <f t="shared" si="3"/>
+        <v>3.5775784483136702E-2</v>
+      </c>
     </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A38" s="7">
         <v>37</v>
       </c>
@@ -27098,8 +27251,12 @@
         <f t="shared" si="2"/>
         <v>6.2615408933375249E-6</v>
       </c>
+      <c r="AB38">
+        <f t="shared" si="3"/>
+        <v>3.3382756813775366E-2</v>
+      </c>
     </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A39" s="7">
         <v>38</v>
       </c>
@@ -27206,8 +27363,12 @@
         <f t="shared" si="2"/>
         <v>8.596318690212712E-8</v>
       </c>
+      <c r="AB39">
+        <f t="shared" si="3"/>
+        <v>3.4552274305400817E-2</v>
+      </c>
     </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A40" s="7">
         <v>39</v>
       </c>
@@ -27314,8 +27475,12 @@
         <f t="shared" si="2"/>
         <v>6.2306848894930766E-3</v>
       </c>
+      <c r="AB40">
+        <f t="shared" si="3"/>
+        <v>5.550884170944765E-2</v>
+      </c>
     </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A41" s="7">
         <v>40</v>
       </c>
@@ -27422,8 +27587,12 @@
         <f t="shared" si="2"/>
         <v>6.2306848894930766E-3</v>
       </c>
+      <c r="AB41">
+        <f t="shared" si="3"/>
+        <v>3.9797798264223784E-2</v>
+      </c>
     </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A42" s="7">
         <v>41</v>
       </c>
@@ -27530,8 +27699,12 @@
         <f t="shared" si="2"/>
         <v>0.13948164066608992</v>
       </c>
+      <c r="AB42">
+        <f t="shared" si="3"/>
+        <v>6.6537053216767811E-2</v>
+      </c>
     </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A43" s="7">
         <v>42</v>
       </c>
@@ -27638,8 +27811,12 @@
         <f t="shared" si="2"/>
         <v>0.41590595245361339</v>
       </c>
+      <c r="AB43">
+        <f t="shared" si="3"/>
+        <v>6.3251064544186109E-2</v>
+      </c>
     </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A44" s="7">
         <v>43</v>
       </c>
@@ -27746,8 +27923,12 @@
         <f t="shared" si="2"/>
         <v>8.596318690212712E-8</v>
       </c>
+      <c r="AB44">
+        <f t="shared" si="3"/>
+        <v>3.2224346059921936E-2</v>
+      </c>
     </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A45" s="7">
         <v>44</v>
       </c>
@@ -27854,8 +28035,12 @@
         <f t="shared" si="2"/>
         <v>6.2306848894930766E-3</v>
       </c>
+      <c r="AB45">
+        <f t="shared" si="3"/>
+        <v>5.9237252136963695E-2</v>
+      </c>
     </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A46" s="7">
         <v>45</v>
       </c>
@@ -27962,8 +28147,12 @@
         <f t="shared" si="2"/>
         <v>5.3701942132056146E-6</v>
       </c>
+      <c r="AB46">
+        <f t="shared" si="3"/>
+        <v>2.9743149883589601E-2</v>
+      </c>
     </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A47" s="7">
         <v>46</v>
       </c>
@@ -28070,8 +28259,12 @@
         <f t="shared" si="2"/>
         <v>4.3056902669614816E-3</v>
       </c>
+      <c r="AB47">
+        <f t="shared" si="3"/>
+        <v>3.415250286179336E-2</v>
+      </c>
     </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A48" s="7">
         <v>47</v>
       </c>
@@ -28178,8 +28371,12 @@
         <f t="shared" si="2"/>
         <v>8.596318690212712E-8</v>
       </c>
+      <c r="AB48">
+        <f t="shared" si="3"/>
+        <v>3.2752490040500064E-2</v>
+      </c>
     </row>
-    <row r="49" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A49" s="7">
         <v>48</v>
       </c>
@@ -28286,8 +28483,12 @@
         <f t="shared" si="2"/>
         <v>0.25958607259719702</v>
       </c>
+      <c r="AB49">
+        <f>AVERAGE(C49:X49)</f>
+        <v>5.1913310266304483E-2</v>
+      </c>
     </row>
-    <row r="50" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A50" s="7"/>
       <c r="B50" s="4" t="s">
         <v>86</v>
@@ -28297,87 +28498,87 @@
         <v>22</v>
       </c>
       <c r="D50" s="7">
-        <f t="shared" ref="D50:X50" si="3">COUNTIF(D2:D49,"&gt;0,05")</f>
+        <f t="shared" ref="D50:X50" si="4">COUNTIF(D2:D49,"&gt;0,05")</f>
         <v>23</v>
       </c>
       <c r="E50" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
       <c r="F50" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
       <c r="G50" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>21</v>
       </c>
       <c r="H50" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="I50" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="J50" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="K50" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="L50" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="M50" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="N50" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="O50" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="P50" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="Q50" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="R50" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="S50" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="T50" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="U50" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="V50" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="W50" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
       <c r="X50" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>17</v>
       </c>
       <c r="Y50" s="7">
@@ -28387,7 +28588,7 @@
       <c r="Z50" s="7"/>
       <c r="AA50" s="7"/>
     </row>
-    <row r="51" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A51" s="7"/>
       <c r="B51" s="4" t="s">
         <v>87</v>
@@ -28397,87 +28598,87 @@
         <v>41</v>
       </c>
       <c r="D51" s="7">
-        <f t="shared" ref="D51:X51" si="4">COUNT(D2:D49)</f>
+        <f t="shared" ref="D51:X51" si="5">COUNT(D2:D49)</f>
         <v>45</v>
       </c>
       <c r="E51" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>45</v>
       </c>
       <c r="F51" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>46</v>
       </c>
       <c r="G51" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>46</v>
       </c>
       <c r="H51" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>46</v>
       </c>
       <c r="I51" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>46</v>
       </c>
       <c r="J51" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>46</v>
       </c>
       <c r="K51" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>47</v>
       </c>
       <c r="L51" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>47</v>
       </c>
       <c r="M51" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>47</v>
       </c>
       <c r="N51" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>47</v>
       </c>
       <c r="O51" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>47</v>
       </c>
       <c r="P51" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>46</v>
       </c>
       <c r="Q51" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>47</v>
       </c>
       <c r="R51" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>46</v>
       </c>
       <c r="S51" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>47</v>
       </c>
       <c r="T51" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>47</v>
       </c>
       <c r="U51" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>47</v>
       </c>
       <c r="V51" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>46</v>
       </c>
       <c r="W51" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>47</v>
       </c>
       <c r="X51" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>44</v>
       </c>
       <c r="Y51" s="7"/>
@@ -28487,7 +28688,7 @@
       </c>
       <c r="AA51" s="7"/>
     </row>
-    <row r="52" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A52" s="7"/>
       <c r="B52" s="4" t="s">
         <v>85</v>
@@ -28497,92 +28698,191 @@
         <v>0.6815439644947815</v>
       </c>
       <c r="D52" s="7">
-        <f t="shared" ref="D52:X52" si="5">IFERROR(1-_xlfn.BINOM.DIST(D51/2,D51,D50/D51,TRUE),"")</f>
+        <f t="shared" ref="D52:X52" si="6">IFERROR(1-_xlfn.BINOM.DIST(D51/2,D51,D50/D51,TRUE),"")</f>
         <v>0.55958619430570367</v>
       </c>
       <c r="E52" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.98969828668624293</v>
       </c>
       <c r="F52" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.77213047027167092</v>
       </c>
       <c r="G52" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.22924033711667069</v>
       </c>
       <c r="H52" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.0634162701280729E-14</v>
       </c>
       <c r="I52" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.0634162701280729E-14</v>
       </c>
       <c r="J52" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.4653179497846622E-10</v>
       </c>
       <c r="K52" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.8217284064879777E-10</v>
       </c>
       <c r="L52" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9.1186206407911641E-7</v>
       </c>
       <c r="M52" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6.4293489958622274E-6</v>
       </c>
       <c r="N52" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.75175454539567E-14</v>
       </c>
       <c r="O52" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9.4746788859012554E-8</v>
       </c>
       <c r="P52" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.0634162701280729E-14</v>
       </c>
       <c r="Q52" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6.4293489958622274E-6</v>
       </c>
       <c r="R52" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5.1947335322211075E-12</v>
       </c>
       <c r="S52" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T52" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U52" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.5518257116586831E-4</v>
       </c>
       <c r="V52" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.4396443453390528E-4</v>
       </c>
       <c r="W52" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.1939174859695978E-2</v>
       </c>
       <c r="X52" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.5763889335864172E-2</v>
       </c>
       <c r="Y52" s="7"/>
       <c r="Z52" s="7"/>
       <c r="AA52" s="7"/>
+    </row>
+    <row r="53" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B53" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="C53">
+        <f>AVERAGE(C2:C49)</f>
+        <v>5.7317884812787163E-2</v>
+      </c>
+      <c r="D53">
+        <f t="shared" ref="D53:X53" si="7">AVERAGE(D2:D49)</f>
+        <v>8.0803391161001437E-2</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="7"/>
+        <v>9.123072656640778E-2</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="7"/>
+        <v>7.9771487131238092E-2</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="7"/>
+        <v>5.7617263019192552E-2</v>
+      </c>
+      <c r="H53">
+        <f t="shared" si="7"/>
+        <v>3.0992129877649256E-2</v>
+      </c>
+      <c r="I53">
+        <f t="shared" si="7"/>
+        <v>2.8377127671693595E-2</v>
+      </c>
+      <c r="J53">
+        <f t="shared" si="7"/>
+        <v>3.4306136591163924E-2</v>
+      </c>
+      <c r="K53">
+        <f t="shared" si="7"/>
+        <v>3.0816430036799135E-2</v>
+      </c>
+      <c r="L53">
+        <f t="shared" si="7"/>
+        <v>3.8005586294063122E-2</v>
+      </c>
+      <c r="M53">
+        <f t="shared" si="7"/>
+        <v>4.4531476354511823E-2</v>
+      </c>
+      <c r="N53">
+        <f t="shared" si="7"/>
+        <v>3.0113428696336944E-2</v>
+      </c>
+      <c r="O53">
+        <f t="shared" si="7"/>
+        <v>4.1501676502585537E-2</v>
+      </c>
+      <c r="P53">
+        <f t="shared" si="7"/>
+        <v>3.3747801619440201E-2</v>
+      </c>
+      <c r="Q53">
+        <f t="shared" si="7"/>
+        <v>3.5478143725675336E-2</v>
+      </c>
+      <c r="R53">
+        <f t="shared" si="7"/>
+        <v>3.6733379830558605E-2</v>
+      </c>
+      <c r="S53">
+        <f t="shared" si="7"/>
+        <v>2.6912924900204645E-2</v>
+      </c>
+      <c r="T53">
+        <f t="shared" si="7"/>
+        <v>2.8572139628102677E-2</v>
+      </c>
+      <c r="U53">
+        <f t="shared" si="7"/>
+        <v>4.7480986934131213E-2</v>
+      </c>
+      <c r="V53">
+        <f t="shared" si="7"/>
+        <v>3.9816256743845965E-2</v>
+      </c>
+      <c r="W53">
+        <f t="shared" si="7"/>
+        <v>4.1619077268521619E-2</v>
+      </c>
+      <c r="X53">
+        <f t="shared" si="7"/>
+        <v>4.9482593269625112E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="U56">
+        <f>AVERAGE(C2:X49)</f>
+        <v>4.4548798992344582E-2</v>
+      </c>
     </row>
   </sheetData>
   <sortState ref="B2:AD54">
@@ -28599,7 +28899,7 @@
   <dimension ref="A1:AZ54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28612,94 +28912,94 @@
     <row r="1" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A1" s="7"/>
       <c r="B1" s="7"/>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23" t="s">
+      <c r="D1" s="24"/>
+      <c r="E1" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23" t="s">
+      <c r="F1" s="24"/>
+      <c r="G1" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23" t="s">
+      <c r="H1" s="24"/>
+      <c r="I1" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23" t="s">
+      <c r="J1" s="24"/>
+      <c r="K1" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23" t="s">
+      <c r="L1" s="24"/>
+      <c r="M1" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23" t="s">
+      <c r="N1" s="24"/>
+      <c r="O1" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="P1" s="23"/>
-      <c r="Q1" s="23" t="s">
+      <c r="P1" s="24"/>
+      <c r="Q1" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="R1" s="23"/>
-      <c r="S1" s="23" t="s">
+      <c r="R1" s="24"/>
+      <c r="S1" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="T1" s="23"/>
-      <c r="U1" s="23" t="s">
+      <c r="T1" s="24"/>
+      <c r="U1" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="V1" s="23"/>
-      <c r="W1" s="23" t="s">
+      <c r="V1" s="24"/>
+      <c r="W1" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="X1" s="23"/>
-      <c r="Y1" s="23" t="s">
+      <c r="X1" s="24"/>
+      <c r="Y1" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="Z1" s="23"/>
-      <c r="AA1" s="23" t="s">
+      <c r="Z1" s="24"/>
+      <c r="AA1" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="AB1" s="23"/>
-      <c r="AC1" s="23" t="s">
+      <c r="AB1" s="24"/>
+      <c r="AC1" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="AD1" s="23"/>
-      <c r="AE1" s="23" t="s">
+      <c r="AD1" s="24"/>
+      <c r="AE1" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="AF1" s="23"/>
-      <c r="AG1" s="23" t="s">
+      <c r="AF1" s="24"/>
+      <c r="AG1" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="AH1" s="23"/>
-      <c r="AI1" s="23" t="s">
+      <c r="AH1" s="24"/>
+      <c r="AI1" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="AJ1" s="23"/>
-      <c r="AK1" s="23" t="s">
+      <c r="AJ1" s="24"/>
+      <c r="AK1" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="AL1" s="23"/>
-      <c r="AM1" s="23" t="s">
+      <c r="AL1" s="24"/>
+      <c r="AM1" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="AN1" s="23"/>
-      <c r="AO1" s="23" t="s">
+      <c r="AN1" s="24"/>
+      <c r="AO1" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="AP1" s="23"/>
-      <c r="AQ1" s="23" t="s">
+      <c r="AP1" s="24"/>
+      <c r="AQ1" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="AR1" s="23"/>
-      <c r="AS1" s="23" t="s">
+      <c r="AR1" s="24"/>
+      <c r="AS1" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="AT1" s="23"/>
+      <c r="AT1" s="24"/>
       <c r="AU1" t="str">
         <f>IF('cantidad pollos muertos'!AU2="","",BETAINV(0.975,'cantidad pollos muertos'!AU2+1,'cantidad inicial pollos'!AU2-'cantidad pollos muertos'!AU2+1))</f>
         <v/>
@@ -38875,7 +39175,7 @@
   <dimension ref="A1:N103"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -38888,42 +39188,42 @@
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="7"/>
       <c r="B1" s="7"/>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23" t="s">
+      <c r="D2" s="24"/>
+      <c r="E2" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23" t="s">
+      <c r="F2" s="24"/>
+      <c r="G2" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="H2" s="23"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="27"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
@@ -40488,11 +40788,11 @@
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C54" s="24" t="s">
+      <c r="C54" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="D54" s="24"/>
-      <c r="E54" s="24"/>
+      <c r="D54" s="25"/>
+      <c r="E54" s="25"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C55" s="3" t="s">

--- a/PROPUESTA FUNDEMERCA (2.5).xlsx
+++ b/PROPUESTA FUNDEMERCA (2.5).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7635" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7635" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="cantidad inicial pollos" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="88">
   <si>
     <t>MANAEM LUCUMI</t>
   </si>
@@ -261,9 +261,6 @@
     <t>Intervalo exigente</t>
   </si>
   <si>
-    <t>Intervalo general</t>
-  </si>
-  <si>
     <t>BINOMIAL</t>
   </si>
   <si>
@@ -282,9 +279,6 @@
     <t xml:space="preserve">exigente </t>
   </si>
   <si>
-    <t>general</t>
-  </si>
-  <si>
     <t>PROBABILIDAD</t>
   </si>
   <si>
@@ -295,6 +289,9 @@
   </si>
   <si>
     <t>PROMEDIO</t>
+  </si>
+  <si>
+    <t>PROPORCIÓN</t>
   </si>
 </sst>
 </file>
@@ -376,7 +373,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -444,16 +441,24 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -12036,826 +12041,6 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="es-CO"/>
-              <a:t>GENERALES</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:stockChart>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Intervalos finales productores'!$G$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Inferior</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'Intervalos finales productores'!$G$4:$G$51</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="48"/>
-                <c:pt idx="0">
-                  <c:v>4.3414972184710972E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.106673259562489E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.0329237378989365E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.3008271084828922E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.9134794183380709E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5.3870699057990856E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4.6458873104556875E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.0089030134216314E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4.0094960846399338E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4.8801966687877778E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3.1149333196670782E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>5.1083080694232848E-2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>5.3142797746995395E-2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3.2390096495922248E-2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3.5916392320685546E-2</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>4.1449066282051826E-2</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>4.8176329022937288E-2</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>7.3769529119208893E-2</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>3.043219268729299E-2</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2.9310772199238683E-2</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>3.2392177225255052E-2</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>5.5093608922868083E-2</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>3.4372810211299523E-2</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>4.1919873512861264E-2</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2.9264505700703974E-2</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>5.6283054035471985E-2</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>5.1730331284711994E-2</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>5.3410819776576031E-2</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>3.4956113480661966E-2</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>4.1388038893899977E-2</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>3.9977677057111548E-2</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>3.3705190744545768E-2</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>5.692874472276329E-2</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>3.1185335557600967E-2</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>3.9127811476002312E-2</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>3.3520024152212835E-2</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>3.1955243273488081E-2</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>3.3572940730048038E-2</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>5.3094240911793919E-2</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>3.7914859997461095E-2</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>6.5446364117353814E-2</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>6.2129359768308551E-2</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>2.9094463448739227E-2</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>5.7698136969593514E-2</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>2.7871432053764932E-2</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>3.3119127644909013E-2</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>3.1027292586214946E-2</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>5.0667044761728286E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-FDF1-4FBD-AFB6-4E1990A10AC8}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Intervalos finales productores'!$H$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Superior</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'Intervalos finales productores'!$H$4:$H$51</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="48"/>
-                <c:pt idx="0">
-                  <c:v>4.6674151400936892E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.3436214326617177E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.4710162081052607E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.731704095244782E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.1826768434740416E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5.9392263888921493E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4.9852582128780853E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.2832604597176185E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4.206170296942402E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>5.5959345168451913E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3.6159688402027768E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>5.4345233650403557E-2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>5.5172849927653922E-2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3.4397073626333485E-2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3.738648584844706E-2</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>4.370134410316262E-2</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>5.1597134030222702E-2</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>7.9122961368643385E-2</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>3.2887497441944191E-2</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>3.2638638966859035E-2</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>3.5261078564105319E-2</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>5.9121885703156019E-2</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>3.7487804200787789E-2</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>4.3537426120741629E-2</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>3.1809961791843366E-2</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>6.0979041549275581E-2</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>5.5299310051269868E-2</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>5.7112182193912675E-2</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>3.696669477062442E-2</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>4.4566909993360326E-2</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>4.3121192123154461E-2</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>3.6968646183064613E-2</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>6.0098496522562939E-2</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>3.3894288392701699E-2</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>4.2226673930942815E-2</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>3.67040937777946E-2</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>3.4001650634348235E-2</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>3.559800281059422E-2</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>5.5553065102276311E-2</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>4.0971378034838968E-2</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>6.7212618949343383E-2</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>6.3656080301423668E-2</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>3.185229454761962E-2</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>6.1441799262549335E-2</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>3.159015564156431E-2</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>3.509925354059984E-2</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>3.3950861633463281E-2</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>5.4892513796904963E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-FDF1-4FBD-AFB6-4E1990A10AC8}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Intervalos finales productores'!$E$55</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>general</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="dot"/>
-            <c:size val="3"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent5"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'Intervalos finales productores'!$E$56:$E$103</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="48"/>
-                <c:pt idx="0">
-                  <c:v>4.5044561792823928E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.2251473461121041E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.2519699730020982E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.5162656018638371E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.048078130906056E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5.6631481473456174E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4.8155727616668864E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.1460817365696253E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4.1078331907911679E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>5.2380655928164849E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3.3654510799349273E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>5.2714157172318199E-2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>5.4157823837324662E-2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3.339358506112787E-2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3.6651439084566306E-2</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>4.2575205192607227E-2</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>4.9886731526579992E-2</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>7.6446245243926139E-2</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>3.1659845064618594E-2</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>3.0974705583048857E-2</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>3.3826627894680189E-2</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>5.7107747313012047E-2</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>3.5930307206043656E-2</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>4.2728649816801446E-2</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>3.0537233746273672E-2</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>5.8631047792373783E-2</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>5.3514820667990931E-2</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>5.526150098524435E-2</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>3.5961404125643193E-2</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>4.2977474443630148E-2</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>4.1549434590133008E-2</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>3.5336918463805191E-2</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>5.8513620622663118E-2</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>3.2539811975151336E-2</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>4.067724270347256E-2</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>3.5112058965003717E-2</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>3.2978446953918161E-2</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>3.4585471770321133E-2</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>5.4323653007035115E-2</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>3.9443119016150031E-2</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>6.6329491533348606E-2</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>6.2892720034866109E-2</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>3.0473378998179423E-2</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>5.9569968116071424E-2</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>2.9730793847664621E-2</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>3.4109190592754426E-2</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>3.2489077109839115E-2</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>5.2779779279316624E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-FDF1-4FBD-AFB6-4E1990A10AC8}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:hiLowLines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="75000"/>
-                  <a:lumOff val="25000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:hiLowLines>
-        <c:axId val="566215632"/>
-        <c:axId val="566215960"/>
-      </c:stockChart>
-      <c:catAx>
-        <c:axId val="566215632"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="566215960"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="566215960"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="566215632"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="es-CO"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -12934,43 +12119,6 @@
 </file>
 
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="11">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent5"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="11">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent3"/>
@@ -14550,522 +13698,6 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="322">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -15170,42 +13802,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>82</xdr:row>
-      <xdr:rowOff>185737</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>97</xdr:row>
-      <xdr:rowOff>71437</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Gráfico 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63F88A98-9009-4DEC-9425-586683258785}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -15479,8 +14075,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y54"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E63" sqref="E63"/>
+    <sheetView topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Z1" sqref="Z1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15564,7 +14160,7 @@
         <v>62</v>
       </c>
       <c r="Y1" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
@@ -19254,7 +17850,7 @@
   <dimension ref="A1:Y49"/>
   <sheetViews>
     <sheetView topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Y2" sqref="Y2"/>
+      <selection activeCell="Y3" sqref="Y3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19338,7 +17934,7 @@
         <v>62</v>
       </c>
       <c r="Y1" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
@@ -23009,11 +21605,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB56"/>
+  <dimension ref="A1:AD53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Z54" sqref="Z54"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P50" sqref="P50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23024,9 +21620,11 @@
     <col min="25" max="25" width="15" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>63</v>
       </c>
@@ -23100,19 +21698,22 @@
         <v>62</v>
       </c>
       <c r="Y1" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z1" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="AA1" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB1" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="AC1" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="AA1" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="AB1" s="23" t="s">
-        <v>88</v>
-      </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -23223,8 +21824,16 @@
         <f>AVERAGE(C2:X2)</f>
         <v>4.4967321343301107E-2</v>
       </c>
+      <c r="AC2">
+        <f>Y2/Z2</f>
+        <v>0.22727272727272727</v>
+      </c>
+      <c r="AD2">
+        <f>6/24</f>
+        <v>0.25</v>
+      </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -23335,8 +21944,12 @@
         <f t="shared" ref="AB3:AB48" si="3">AVERAGE(C3:X3)</f>
         <v>7.0815844562226643E-2</v>
       </c>
+      <c r="AC3">
+        <f t="shared" ref="AC3:AC49" si="4">Y3/Z3</f>
+        <v>0.33333333333333331</v>
+      </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>3</v>
       </c>
@@ -23447,8 +22060,12 @@
         <f t="shared" si="3"/>
         <v>4.4408244163146121E-2</v>
       </c>
+      <c r="AC4">
+        <f t="shared" si="4"/>
+        <v>0.25</v>
+      </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>4</v>
       </c>
@@ -23559,8 +22176,12 @@
         <f t="shared" si="3"/>
         <v>4.5181647983289532E-2</v>
       </c>
+      <c r="AC5">
+        <f t="shared" si="4"/>
+        <v>0.40909090909090912</v>
+      </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>5</v>
       </c>
@@ -23671,8 +22292,12 @@
         <f t="shared" si="3"/>
         <v>3.0529711127065338E-2</v>
       </c>
+      <c r="AC6">
+        <f t="shared" si="4"/>
+        <v>0.13636363636363635</v>
+      </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>6</v>
       </c>
@@ -23783,8 +22408,12 @@
         <f t="shared" si="3"/>
         <v>5.6175847290834358E-2</v>
       </c>
+      <c r="AC7">
+        <f t="shared" si="4"/>
+        <v>0.40909090909090912</v>
+      </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>7</v>
       </c>
@@ -23895,8 +22524,12 @@
         <f t="shared" si="3"/>
         <v>4.7648237536201316E-2</v>
       </c>
+      <c r="AC8">
+        <f t="shared" si="4"/>
+        <v>9.0909090909090912E-2</v>
+      </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>8</v>
       </c>
@@ -24007,8 +22640,12 @@
         <f t="shared" si="3"/>
         <v>3.1072580702547467E-2</v>
       </c>
+      <c r="AC9">
+        <f t="shared" si="4"/>
+        <v>0.13636363636363635</v>
+      </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>9</v>
       </c>
@@ -24119,8 +22756,12 @@
         <f t="shared" si="3"/>
         <v>4.1467980702570177E-2</v>
       </c>
+      <c r="AC10">
+        <f t="shared" si="4"/>
+        <v>0.22727272727272727</v>
+      </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>10</v>
       </c>
@@ -24231,8 +22872,12 @@
         <f t="shared" si="3"/>
         <v>5.1689553374943784E-2</v>
       </c>
+      <c r="AC11">
+        <f t="shared" si="4"/>
+        <v>0.46153846153846156</v>
+      </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>11</v>
       </c>
@@ -24343,8 +22988,12 @@
         <f t="shared" si="3"/>
         <v>3.3554645927001178E-2</v>
       </c>
+      <c r="AC12">
+        <f t="shared" si="4"/>
+        <v>7.6923076923076927E-2</v>
+      </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>12</v>
       </c>
@@ -24455,8 +23104,12 @@
         <f t="shared" si="3"/>
         <v>5.5957054651080626E-2</v>
       </c>
+      <c r="AC13">
+        <f t="shared" si="4"/>
+        <v>0.23809523809523808</v>
+      </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>13</v>
       </c>
@@ -24567,8 +23220,12 @@
         <f t="shared" si="3"/>
         <v>5.555422367375349E-2</v>
       </c>
+      <c r="AC14">
+        <f t="shared" si="4"/>
+        <v>0.36363636363636365</v>
+      </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>14</v>
       </c>
@@ -24679,8 +23336,12 @@
         <f t="shared" si="3"/>
         <v>3.3328386382271709E-2</v>
       </c>
+      <c r="AC15">
+        <f t="shared" si="4"/>
+        <v>9.5238095238095233E-2</v>
+      </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>15</v>
       </c>
@@ -24791,8 +23452,12 @@
         <f t="shared" si="3"/>
         <v>3.6573872129011961E-2</v>
       </c>
+      <c r="AC16">
+        <f t="shared" si="4"/>
+        <v>9.0909090909090912E-2</v>
+      </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>16</v>
       </c>
@@ -24903,8 +23568,12 @@
         <f t="shared" si="3"/>
         <v>4.2722580474846041E-2</v>
       </c>
+      <c r="AC17">
+        <f t="shared" si="4"/>
+        <v>0.2857142857142857</v>
+      </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>17</v>
       </c>
@@ -25015,8 +23684,12 @@
         <f t="shared" si="3"/>
         <v>5.15135521220529E-2</v>
       </c>
+      <c r="AC18">
+        <f t="shared" si="4"/>
+        <v>0.23809523809523808</v>
+      </c>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>18</v>
       </c>
@@ -25127,8 +23800,12 @@
         <f t="shared" si="3"/>
         <v>7.6240744762344284E-2</v>
       </c>
+      <c r="AC19">
+        <f t="shared" si="4"/>
+        <v>0.36363636363636365</v>
+      </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>19</v>
       </c>
@@ -25239,8 +23916,12 @@
         <f t="shared" si="3"/>
         <v>2.7881848629828655E-2</v>
       </c>
+      <c r="AC20">
+        <f t="shared" si="4"/>
+        <v>4.7619047619047616E-2</v>
+      </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>20</v>
       </c>
@@ -25351,8 +24032,12 @@
         <f t="shared" si="3"/>
         <v>2.9780519130976648E-2</v>
       </c>
+      <c r="AC21">
+        <f t="shared" si="4"/>
+        <v>0.14285714285714285</v>
+      </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <v>21</v>
       </c>
@@ -25463,8 +24148,12 @@
         <f t="shared" si="3"/>
         <v>3.355666929958518E-2</v>
       </c>
+      <c r="AC22">
+        <f t="shared" si="4"/>
+        <v>0.18181818181818182</v>
+      </c>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <v>22</v>
       </c>
@@ -25575,8 +24264,12 @@
         <f t="shared" si="3"/>
         <v>5.7445473727834394E-2</v>
       </c>
+      <c r="AC23">
+        <f t="shared" si="4"/>
+        <v>0.68181818181818177</v>
+      </c>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
         <v>23</v>
       </c>
@@ -25687,8 +24380,12 @@
         <f t="shared" si="3"/>
         <v>3.6453392754365523E-2</v>
       </c>
+      <c r="AC24">
+        <f t="shared" si="4"/>
+        <v>0.18181818181818182</v>
+      </c>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <v>24</v>
       </c>
@@ -25799,8 +24496,12 @@
         <f t="shared" si="3"/>
         <v>4.2582055864939967E-2</v>
       </c>
+      <c r="AC25">
+        <f t="shared" si="4"/>
+        <v>0.18181818181818182</v>
+      </c>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A26" s="7">
         <v>25</v>
       </c>
@@ -25911,8 +24612,12 @@
         <f t="shared" si="3"/>
         <v>2.8940341531484268E-2</v>
       </c>
+      <c r="AC26">
+        <f t="shared" si="4"/>
+        <v>0.18181818181818182</v>
+      </c>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
         <v>26</v>
       </c>
@@ -26023,8 +24728,12 @@
         <f t="shared" si="3"/>
         <v>6.0153128667574274E-2</v>
       </c>
+      <c r="AC27">
+        <f t="shared" si="4"/>
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A28" s="7">
         <v>27</v>
       </c>
@@ -26135,8 +24844,12 @@
         <f t="shared" si="3"/>
         <v>5.3467479682960728E-2</v>
       </c>
+      <c r="AC28">
+        <f t="shared" si="4"/>
+        <v>0.27272727272727271</v>
+      </c>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A29" s="7">
         <v>28</v>
       </c>
@@ -26247,8 +24960,12 @@
         <f t="shared" si="3"/>
         <v>5.3879870562329076E-2</v>
       </c>
+      <c r="AC29">
+        <f t="shared" si="4"/>
+        <v>0.36363636363636365</v>
+      </c>
     </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A30" s="7">
         <v>29</v>
       </c>
@@ -26359,8 +25076,12 @@
         <f t="shared" si="3"/>
         <v>3.6180789299549994E-2</v>
       </c>
+      <c r="AC30">
+        <f t="shared" si="4"/>
+        <v>0.13636363636363635</v>
+      </c>
     </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A31" s="7">
         <v>30</v>
       </c>
@@ -26471,8 +25192,12 @@
         <f t="shared" si="3"/>
         <v>4.2930856290174742E-2</v>
       </c>
+      <c r="AC31">
+        <f t="shared" si="4"/>
+        <v>0.31818181818181818</v>
+      </c>
     </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A32" s="7">
         <v>31</v>
       </c>
@@ -26583,8 +25308,12 @@
         <f t="shared" si="3"/>
         <v>4.161647244845413E-2</v>
       </c>
+      <c r="AC32">
+        <f t="shared" si="4"/>
+        <v>0.22727272727272727</v>
+      </c>
     </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A33" s="7">
         <v>32</v>
       </c>
@@ -26695,8 +25424,12 @@
         <f t="shared" si="3"/>
         <v>3.7356891426316347E-2</v>
       </c>
+      <c r="AC33">
+        <f t="shared" si="4"/>
+        <v>0.13636363636363635</v>
+      </c>
     </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A34" s="7">
         <v>33</v>
       </c>
@@ -26807,8 +25540,12 @@
         <f t="shared" si="3"/>
         <v>5.7982593691985211E-2</v>
       </c>
+      <c r="AC34">
+        <f t="shared" si="4"/>
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A35" s="7">
         <v>34</v>
       </c>
@@ -26919,8 +25656,12 @@
         <f t="shared" si="3"/>
         <v>3.2684591327891151E-2</v>
       </c>
+      <c r="AC35">
+        <f t="shared" si="4"/>
+        <v>0.13636363636363635</v>
+      </c>
     </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A36" s="7">
         <v>35</v>
       </c>
@@ -27031,8 +25772,12 @@
         <f t="shared" si="3"/>
         <v>4.089849823219191E-2</v>
       </c>
+      <c r="AC36">
+        <f t="shared" si="4"/>
+        <v>0.22727272727272727</v>
+      </c>
     </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
         <v>36</v>
       </c>
@@ -27143,8 +25888,12 @@
         <f t="shared" si="3"/>
         <v>3.5775784483136702E-2</v>
       </c>
+      <c r="AC37">
+        <f t="shared" si="4"/>
+        <v>9.0909090909090912E-2</v>
+      </c>
     </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A38" s="7">
         <v>37</v>
       </c>
@@ -27255,8 +26004,12 @@
         <f t="shared" si="3"/>
         <v>3.3382756813775366E-2</v>
       </c>
+      <c r="AC38">
+        <f t="shared" si="4"/>
+        <v>0.10526315789473684</v>
+      </c>
     </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A39" s="7">
         <v>38</v>
       </c>
@@ -27367,8 +26120,12 @@
         <f t="shared" si="3"/>
         <v>3.4552274305400817E-2</v>
       </c>
+      <c r="AC39">
+        <f t="shared" si="4"/>
+        <v>9.0909090909090912E-2</v>
+      </c>
     </row>
-    <row r="40" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A40" s="7">
         <v>39</v>
       </c>
@@ -27479,8 +26236,12 @@
         <f t="shared" si="3"/>
         <v>5.550884170944765E-2</v>
       </c>
+      <c r="AC40">
+        <f t="shared" si="4"/>
+        <v>0.27272727272727271</v>
+      </c>
     </row>
-    <row r="41" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A41" s="7">
         <v>40</v>
       </c>
@@ -27591,8 +26352,12 @@
         <f t="shared" si="3"/>
         <v>3.9797798264223784E-2</v>
       </c>
+      <c r="AC41">
+        <f t="shared" si="4"/>
+        <v>0.27272727272727271</v>
+      </c>
     </row>
-    <row r="42" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A42" s="7">
         <v>41</v>
       </c>
@@ -27703,8 +26468,12 @@
         <f t="shared" si="3"/>
         <v>6.6537053216767811E-2</v>
       </c>
+      <c r="AC42">
+        <f t="shared" si="4"/>
+        <v>0.40909090909090912</v>
+      </c>
     </row>
-    <row r="43" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A43" s="7">
         <v>42</v>
       </c>
@@ -27815,8 +26584,12 @@
         <f t="shared" si="3"/>
         <v>6.3251064544186109E-2</v>
       </c>
+      <c r="AC43">
+        <f t="shared" si="4"/>
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="44" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A44" s="7">
         <v>43</v>
       </c>
@@ -27927,8 +26700,12 @@
         <f t="shared" si="3"/>
         <v>3.2224346059921936E-2</v>
       </c>
+      <c r="AC44">
+        <f t="shared" si="4"/>
+        <v>9.0909090909090912E-2</v>
+      </c>
     </row>
-    <row r="45" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A45" s="7">
         <v>44</v>
       </c>
@@ -28039,8 +26816,12 @@
         <f t="shared" si="3"/>
         <v>5.9237252136963695E-2</v>
       </c>
+      <c r="AC45">
+        <f t="shared" si="4"/>
+        <v>0.27272727272727271</v>
+      </c>
     </row>
-    <row r="46" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A46" s="7">
         <v>45</v>
       </c>
@@ -28151,8 +26932,12 @@
         <f t="shared" si="3"/>
         <v>2.9743149883589601E-2</v>
       </c>
+      <c r="AC46">
+        <f t="shared" si="4"/>
+        <v>0.1111111111111111</v>
+      </c>
     </row>
-    <row r="47" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A47" s="7">
         <v>46</v>
       </c>
@@ -28263,8 +27048,12 @@
         <f t="shared" si="3"/>
         <v>3.415250286179336E-2</v>
       </c>
+      <c r="AC47">
+        <f t="shared" si="4"/>
+        <v>0.23809523809523808</v>
+      </c>
     </row>
-    <row r="48" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A48" s="7">
         <v>47</v>
       </c>
@@ -28375,8 +27164,12 @@
         <f t="shared" si="3"/>
         <v>3.2752490040500064E-2</v>
       </c>
+      <c r="AC48">
+        <f t="shared" si="4"/>
+        <v>9.0909090909090912E-2</v>
+      </c>
     </row>
-    <row r="49" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A49" s="7">
         <v>48</v>
       </c>
@@ -28487,98 +27280,102 @@
         <f>AVERAGE(C49:X49)</f>
         <v>5.1913310266304483E-2</v>
       </c>
+      <c r="AC49">
+        <f t="shared" si="4"/>
+        <v>0.45454545454545453</v>
+      </c>
     </row>
-    <row r="50" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A50" s="7"/>
       <c r="B50" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C50" s="7">
         <f>COUNTIF(C2:C49,"&gt;0,05")</f>
         <v>22</v>
       </c>
       <c r="D50" s="7">
-        <f t="shared" ref="D50:X50" si="4">COUNTIF(D2:D49,"&gt;0,05")</f>
+        <f t="shared" ref="D50:X50" si="5">COUNTIF(D2:D49,"&gt;0,05")</f>
         <v>23</v>
       </c>
       <c r="E50" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>30</v>
       </c>
       <c r="F50" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>26</v>
       </c>
       <c r="G50" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>21</v>
       </c>
       <c r="H50" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="I50" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="J50" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="K50" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="L50" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="M50" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="N50" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="O50" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="P50" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="Q50" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="R50" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="S50" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="T50" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="U50" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="V50" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="W50" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>16</v>
       </c>
       <c r="X50" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>17</v>
       </c>
       <c r="Y50" s="7">
@@ -28588,97 +27385,97 @@
       <c r="Z50" s="7"/>
       <c r="AA50" s="7"/>
     </row>
-    <row r="51" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A51" s="7"/>
       <c r="B51" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C51" s="7">
         <f>COUNT(C2:C49)</f>
         <v>41</v>
       </c>
       <c r="D51" s="7">
-        <f t="shared" ref="D51:X51" si="5">COUNT(D2:D49)</f>
+        <f t="shared" ref="D51:X51" si="6">COUNT(D2:D49)</f>
         <v>45</v>
       </c>
       <c r="E51" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>45</v>
       </c>
       <c r="F51" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>46</v>
       </c>
       <c r="G51" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>46</v>
       </c>
       <c r="H51" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>46</v>
       </c>
       <c r="I51" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>46</v>
       </c>
       <c r="J51" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>46</v>
       </c>
       <c r="K51" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>47</v>
       </c>
       <c r="L51" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>47</v>
       </c>
       <c r="M51" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>47</v>
       </c>
       <c r="N51" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>47</v>
       </c>
       <c r="O51" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>47</v>
       </c>
       <c r="P51" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>46</v>
       </c>
       <c r="Q51" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>47</v>
       </c>
       <c r="R51" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>46</v>
       </c>
       <c r="S51" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>47</v>
       </c>
       <c r="T51" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>47</v>
       </c>
       <c r="U51" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>47</v>
       </c>
       <c r="V51" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>46</v>
       </c>
       <c r="W51" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>47</v>
       </c>
       <c r="X51" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44</v>
       </c>
       <c r="Y51" s="7"/>
@@ -28688,200 +27485,194 @@
       </c>
       <c r="AA51" s="7"/>
     </row>
-    <row r="52" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A52" s="7"/>
       <c r="B52" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C52" s="7">
         <f>IFERROR(1-_xlfn.BINOM.DIST(C51/2,C51,C50/C51,TRUE),"")</f>
         <v>0.6815439644947815</v>
       </c>
       <c r="D52" s="7">
-        <f t="shared" ref="D52:X52" si="6">IFERROR(1-_xlfn.BINOM.DIST(D51/2,D51,D50/D51,TRUE),"")</f>
+        <f t="shared" ref="D52:X52" si="7">IFERROR(1-_xlfn.BINOM.DIST(D51/2,D51,D50/D51,TRUE),"")</f>
         <v>0.55958619430570367</v>
       </c>
       <c r="E52" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.98969828668624293</v>
       </c>
       <c r="F52" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.77213047027167092</v>
       </c>
       <c r="G52" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.22924033711667069</v>
       </c>
       <c r="H52" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4.0634162701280729E-14</v>
       </c>
       <c r="I52" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4.0634162701280729E-14</v>
       </c>
       <c r="J52" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.4653179497846622E-10</v>
       </c>
       <c r="K52" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.8217284064879777E-10</v>
       </c>
       <c r="L52" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>9.1186206407911641E-7</v>
       </c>
       <c r="M52" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6.4293489958622274E-6</v>
       </c>
       <c r="N52" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4.75175454539567E-14</v>
       </c>
       <c r="O52" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>9.4746788859012554E-8</v>
       </c>
       <c r="P52" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4.0634162701280729E-14</v>
       </c>
       <c r="Q52" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6.4293489958622274E-6</v>
       </c>
       <c r="R52" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5.1947335322211075E-12</v>
       </c>
       <c r="S52" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="T52" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="U52" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.5518257116586831E-4</v>
       </c>
       <c r="V52" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.4396443453390528E-4</v>
       </c>
       <c r="W52" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.1939174859695978E-2</v>
       </c>
       <c r="X52" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4.5763889335864172E-2</v>
       </c>
       <c r="Y52" s="7"/>
       <c r="Z52" s="7"/>
       <c r="AA52" s="7"/>
     </row>
-    <row r="53" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B53" s="23" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C53">
         <f>AVERAGE(C2:C49)</f>
         <v>5.7317884812787163E-2</v>
       </c>
       <c r="D53">
-        <f t="shared" ref="D53:X53" si="7">AVERAGE(D2:D49)</f>
+        <f t="shared" ref="D53:X53" si="8">AVERAGE(D2:D49)</f>
         <v>8.0803391161001437E-2</v>
       </c>
       <c r="E53">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>9.123072656640778E-2</v>
       </c>
       <c r="F53">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>7.9771487131238092E-2</v>
       </c>
       <c r="G53">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5.7617263019192552E-2</v>
       </c>
       <c r="H53">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.0992129877649256E-2</v>
       </c>
       <c r="I53">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.8377127671693595E-2</v>
       </c>
       <c r="J53">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.4306136591163924E-2</v>
       </c>
       <c r="K53">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.0816430036799135E-2</v>
       </c>
       <c r="L53">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.8005586294063122E-2</v>
       </c>
       <c r="M53">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4.4531476354511823E-2</v>
       </c>
       <c r="N53">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.0113428696336944E-2</v>
       </c>
       <c r="O53">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4.1501676502585537E-2</v>
       </c>
       <c r="P53">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.3747801619440201E-2</v>
       </c>
       <c r="Q53">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.5478143725675336E-2</v>
       </c>
       <c r="R53">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.6733379830558605E-2</v>
       </c>
       <c r="S53">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.6912924900204645E-2</v>
       </c>
       <c r="T53">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.8572139628102677E-2</v>
       </c>
       <c r="U53">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4.7480986934131213E-2</v>
       </c>
       <c r="V53">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.9816256743845965E-2</v>
       </c>
       <c r="W53">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4.1619077268521619E-2</v>
       </c>
       <c r="X53">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4.9482593269625112E-2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="U56">
-        <f>AVERAGE(C2:X49)</f>
-        <v>4.4548798992344582E-2</v>
       </c>
     </row>
   </sheetData>
@@ -28898,7 +27689,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AZ54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="Z1" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -28912,94 +27703,94 @@
     <row r="1" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A1" s="7"/>
       <c r="B1" s="7"/>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24" t="s">
+      <c r="D1" s="28"/>
+      <c r="E1" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24" t="s">
+      <c r="F1" s="28"/>
+      <c r="G1" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24" t="s">
+      <c r="H1" s="28"/>
+      <c r="I1" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24" t="s">
+      <c r="J1" s="28"/>
+      <c r="K1" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24" t="s">
+      <c r="L1" s="28"/>
+      <c r="M1" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24" t="s">
+      <c r="N1" s="28"/>
+      <c r="O1" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="24" t="s">
+      <c r="P1" s="28"/>
+      <c r="Q1" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="R1" s="24"/>
-      <c r="S1" s="24" t="s">
+      <c r="R1" s="28"/>
+      <c r="S1" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="T1" s="24"/>
-      <c r="U1" s="24" t="s">
+      <c r="T1" s="28"/>
+      <c r="U1" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="V1" s="24"/>
-      <c r="W1" s="24" t="s">
+      <c r="V1" s="28"/>
+      <c r="W1" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="X1" s="24"/>
-      <c r="Y1" s="24" t="s">
+      <c r="X1" s="28"/>
+      <c r="Y1" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="Z1" s="24"/>
-      <c r="AA1" s="24" t="s">
+      <c r="Z1" s="28"/>
+      <c r="AA1" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="AB1" s="24"/>
-      <c r="AC1" s="24" t="s">
+      <c r="AB1" s="28"/>
+      <c r="AC1" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="AD1" s="24"/>
-      <c r="AE1" s="24" t="s">
+      <c r="AD1" s="28"/>
+      <c r="AE1" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="AF1" s="24"/>
-      <c r="AG1" s="24" t="s">
+      <c r="AF1" s="28"/>
+      <c r="AG1" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="AH1" s="24"/>
-      <c r="AI1" s="24" t="s">
+      <c r="AH1" s="28"/>
+      <c r="AI1" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="AJ1" s="24"/>
-      <c r="AK1" s="24" t="s">
+      <c r="AJ1" s="28"/>
+      <c r="AK1" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="AL1" s="24"/>
-      <c r="AM1" s="24" t="s">
+      <c r="AL1" s="28"/>
+      <c r="AM1" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="AN1" s="24"/>
-      <c r="AO1" s="24" t="s">
+      <c r="AN1" s="28"/>
+      <c r="AO1" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="AP1" s="24"/>
-      <c r="AQ1" s="24" t="s">
+      <c r="AP1" s="28"/>
+      <c r="AQ1" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="AR1" s="24"/>
-      <c r="AS1" s="24" t="s">
+      <c r="AR1" s="28"/>
+      <c r="AS1" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="AT1" s="24"/>
+      <c r="AT1" s="28"/>
       <c r="AU1" t="str">
         <f>IF('cantidad pollos muertos'!AU2="","",BETAINV(0.975,'cantidad pollos muertos'!AU2+1,'cantidad inicial pollos'!AU2-'cantidad pollos muertos'!AU2+1))</f>
         <v/>
@@ -39143,12 +37934,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="AS1:AT1"/>
-    <mergeCell ref="AI1:AJ1"/>
-    <mergeCell ref="AK1:AL1"/>
-    <mergeCell ref="AM1:AN1"/>
-    <mergeCell ref="AO1:AP1"/>
-    <mergeCell ref="AQ1:AR1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
     <mergeCell ref="AG1:AH1"/>
     <mergeCell ref="O1:P1"/>
     <mergeCell ref="Q1:R1"/>
@@ -39159,12 +37950,12 @@
     <mergeCell ref="AA1:AB1"/>
     <mergeCell ref="AC1:AD1"/>
     <mergeCell ref="AE1:AF1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="AS1:AT1"/>
+    <mergeCell ref="AI1:AJ1"/>
+    <mergeCell ref="AK1:AL1"/>
+    <mergeCell ref="AM1:AN1"/>
+    <mergeCell ref="AO1:AP1"/>
+    <mergeCell ref="AQ1:AR1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -39174,8 +37965,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N103"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -39188,42 +37979,40 @@
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="7"/>
       <c r="B1" s="7"/>
-      <c r="C1" s="26" t="s">
-        <v>78</v>
-      </c>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
+      <c r="C1" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24" t="s">
+      <c r="D2" s="28"/>
+      <c r="E2" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="H2" s="24"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="27"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
@@ -39244,12 +38033,8 @@
       <c r="F3" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>73</v>
-      </c>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
@@ -39274,14 +38059,8 @@
         <f>MAX('regiones de credibilidad bin'!C3,'regiones de credibilidad bin'!E3,'regiones de credibilidad bin'!G3,'regiones de credibilidad bin'!K3,'regiones de credibilidad bin'!M3,'regiones de credibilidad bin'!O3,'regiones de credibilidad bin'!Q3,'regiones de credibilidad bin'!S3,'regiones de credibilidad bin'!U3,'regiones de credibilidad bin'!W3,'regiones de credibilidad bin'!Y3,'regiones de credibilidad bin'!AA3,'regiones de credibilidad bin'!AC3,'regiones de credibilidad bin'!AE3,'regiones de credibilidad bin'!AG3,'regiones de credibilidad bin'!AI3,'regiones de credibilidad bin'!AK3,'regiones de credibilidad bin'!AM3,'regiones de credibilidad bin'!AO3,'regiones de credibilidad bin'!AQ3,'regiones de credibilidad bin'!AS3)</f>
         <v>6.6502590428620278E-2</v>
       </c>
-      <c r="G4" s="7">
-        <f>BETAINV(0.025,'cantidad pollos muertos'!Y2+1,'cantidad inicial pollos'!Y2-'cantidad pollos muertos'!Y2+1)</f>
-        <v>4.3414972184710972E-2</v>
-      </c>
-      <c r="H4" s="7">
-        <f>BETAINV(0.975,'cantidad pollos muertos'!Y2+1,'cantidad inicial pollos'!Y2-'cantidad pollos muertos'!Y2+1)</f>
-        <v>4.6674151400936892E-2</v>
-      </c>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
@@ -39306,14 +38085,8 @@
         <f>MAX('regiones de credibilidad bin'!C4,'regiones de credibilidad bin'!K4,'regiones de credibilidad bin'!M4,'regiones de credibilidad bin'!O4,'regiones de credibilidad bin'!Q4,'regiones de credibilidad bin'!S4,'regiones de credibilidad bin'!U4,'regiones de credibilidad bin'!W4,'regiones de credibilidad bin'!Y4,'regiones de credibilidad bin'!AA4,'regiones de credibilidad bin'!AC4,'regiones de credibilidad bin'!AE4,'regiones de credibilidad bin'!AG4,'regiones de credibilidad bin'!AI4,'regiones de credibilidad bin'!AK4,'regiones de credibilidad bin'!AM4,'regiones de credibilidad bin'!AO4,'regiones de credibilidad bin'!AQ4,'regiones de credibilidad bin'!AS4)</f>
         <v>6.7478812792070991E-2</v>
       </c>
-      <c r="G5" s="7">
-        <f>BETAINV(0.025,'cantidad pollos muertos'!Y3+1,'cantidad inicial pollos'!Y3-'cantidad pollos muertos'!Y3+1)</f>
-        <v>7.106673259562489E-2</v>
-      </c>
-      <c r="H5" s="7">
-        <f>BETAINV(0.975,'cantidad pollos muertos'!Y3+1,'cantidad inicial pollos'!Y3-'cantidad pollos muertos'!Y3+1)</f>
-        <v>7.3436214326617177E-2</v>
-      </c>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
@@ -39338,14 +38111,8 @@
         <f>MAX('regiones de credibilidad bin'!Y5,'regiones de credibilidad bin'!AA5,'regiones de credibilidad bin'!AC5,'regiones de credibilidad bin'!AE5,'regiones de credibilidad bin'!AG5,'regiones de credibilidad bin'!AI5,'regiones de credibilidad bin'!AK5,'regiones de credibilidad bin'!AM5,'regiones de credibilidad bin'!AO5,'regiones de credibilidad bin'!AQ5,'regiones de credibilidad bin'!AS5)</f>
         <v>5.0131485534768455E-2</v>
       </c>
-      <c r="G6" s="7">
-        <f>BETAINV(0.025,'cantidad pollos muertos'!Y4+1,'cantidad inicial pollos'!Y4-'cantidad pollos muertos'!Y4+1)</f>
-        <v>4.0329237378989365E-2</v>
-      </c>
-      <c r="H6" s="7">
-        <f>BETAINV(0.975,'cantidad pollos muertos'!Y4+1,'cantidad inicial pollos'!Y4-'cantidad pollos muertos'!Y4+1)</f>
-        <v>4.4710162081052607E-2</v>
-      </c>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
@@ -39370,14 +38137,8 @@
         <f>MAX('regiones de credibilidad bin'!C6,'regiones de credibilidad bin'!E6,'regiones de credibilidad bin'!G6,'regiones de credibilidad bin'!I6,'regiones de credibilidad bin'!K6,'regiones de credibilidad bin'!M6,'regiones de credibilidad bin'!O6,'regiones de credibilidad bin'!Q6,'regiones de credibilidad bin'!S6,'regiones de credibilidad bin'!U6,'regiones de credibilidad bin'!W6,'regiones de credibilidad bin'!Y6,'regiones de credibilidad bin'!AA6,'regiones de credibilidad bin'!AC6,'regiones de credibilidad bin'!AE6,'regiones de credibilidad bin'!AG6,'regiones de credibilidad bin'!AI6,'regiones de credibilidad bin'!AK6,'regiones de credibilidad bin'!AM6,'regiones de credibilidad bin'!AO6,'regiones de credibilidad bin'!AS6)</f>
         <v>7.3168264260430854E-2</v>
       </c>
-      <c r="G7" s="7">
-        <f>BETAINV(0.025,'cantidad pollos muertos'!Y5+1,'cantidad inicial pollos'!Y5-'cantidad pollos muertos'!Y5+1)</f>
-        <v>4.3008271084828922E-2</v>
-      </c>
-      <c r="H7" s="7">
-        <f>BETAINV(0.975,'cantidad pollos muertos'!Y5+1,'cantidad inicial pollos'!Y5-'cantidad pollos muertos'!Y5+1)</f>
-        <v>4.731704095244782E-2</v>
-      </c>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
@@ -39402,14 +38163,8 @@
         <f>MAX('regiones de credibilidad bin'!C7,'regiones de credibilidad bin'!E7,'regiones de credibilidad bin'!G7,'regiones de credibilidad bin'!I7,'regiones de credibilidad bin'!K7,'regiones de credibilidad bin'!M7,'regiones de credibilidad bin'!O7,'regiones de credibilidad bin'!Q7,'regiones de credibilidad bin'!S7,'regiones de credibilidad bin'!U7,'regiones de credibilidad bin'!W7,'regiones de credibilidad bin'!Y7,'regiones de credibilidad bin'!AA7,'regiones de credibilidad bin'!AC7,'regiones de credibilidad bin'!AE7,'regiones de credibilidad bin'!AG7,'regiones de credibilidad bin'!AI7,'regiones de credibilidad bin'!AK7,'regiones de credibilidad bin'!AM7,'regiones de credibilidad bin'!AO7,'regiones de credibilidad bin'!AQ7,'regiones de credibilidad bin'!AS7)</f>
         <v>4.9055701752429751E-2</v>
       </c>
-      <c r="G8" s="7">
-        <f>BETAINV(0.025,'cantidad pollos muertos'!Y6+1,'cantidad inicial pollos'!Y6-'cantidad pollos muertos'!Y6+1)</f>
-        <v>2.9134794183380709E-2</v>
-      </c>
-      <c r="H8" s="7">
-        <f>BETAINV(0.975,'cantidad pollos muertos'!Y6+1,'cantidad inicial pollos'!Y6-'cantidad pollos muertos'!Y6+1)</f>
-        <v>3.1826768434740416E-2</v>
-      </c>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
@@ -39434,14 +38189,8 @@
         <f>MAX('regiones de credibilidad bin'!E8,'regiones de credibilidad bin'!G8,'regiones de credibilidad bin'!I8,'regiones de credibilidad bin'!K8,'regiones de credibilidad bin'!M8,'regiones de credibilidad bin'!O8,'regiones de credibilidad bin'!Q8,'regiones de credibilidad bin'!S8,'regiones de credibilidad bin'!U8,'regiones de credibilidad bin'!W8,'regiones de credibilidad bin'!Y8,'regiones de credibilidad bin'!AA8,'regiones de credibilidad bin'!AC8,'regiones de credibilidad bin'!AE8,'regiones de credibilidad bin'!AG8,'regiones de credibilidad bin'!AI8,'regiones de credibilidad bin'!AK8,'regiones de credibilidad bin'!AM8,'regiones de credibilidad bin'!AO8,'regiones de credibilidad bin'!AQ8,'regiones de credibilidad bin'!AS8)</f>
         <v>7.9865880475373505E-2</v>
       </c>
-      <c r="G9" s="7">
-        <f>BETAINV(0.025,'cantidad pollos muertos'!Y7+1,'cantidad inicial pollos'!Y7-'cantidad pollos muertos'!Y7+1)</f>
-        <v>5.3870699057990856E-2</v>
-      </c>
-      <c r="H9" s="7">
-        <f>BETAINV(0.975,'cantidad pollos muertos'!Y7+1,'cantidad inicial pollos'!Y7-'cantidad pollos muertos'!Y7+1)</f>
-        <v>5.9392263888921493E-2</v>
-      </c>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
@@ -39466,14 +38215,8 @@
         <f>MAX('regiones de credibilidad bin'!C9,'regiones de credibilidad bin'!E9,'regiones de credibilidad bin'!G9,'regiones de credibilidad bin'!I9,'regiones de credibilidad bin'!K9,'regiones de credibilidad bin'!M9,'regiones de credibilidad bin'!O9,'regiones de credibilidad bin'!Q9,'regiones de credibilidad bin'!S9,'regiones de credibilidad bin'!U9,'regiones de credibilidad bin'!W9,'regiones de credibilidad bin'!Y9,'regiones de credibilidad bin'!AA9,'regiones de credibilidad bin'!AC9,'regiones de credibilidad bin'!AE9,'regiones de credibilidad bin'!AI9,'regiones de credibilidad bin'!AK9,'regiones de credibilidad bin'!AM9,'regiones de credibilidad bin'!AO9,'regiones de credibilidad bin'!AQ9,'regiones de credibilidad bin'!AS9)</f>
         <v>5.3390765979019546E-2</v>
       </c>
-      <c r="G10" s="7">
-        <f>BETAINV(0.025,'cantidad pollos muertos'!Y8+1,'cantidad inicial pollos'!Y8-'cantidad pollos muertos'!Y8+1)</f>
-        <v>4.6458873104556875E-2</v>
-      </c>
-      <c r="H10" s="7">
-        <f>BETAINV(0.975,'cantidad pollos muertos'!Y8+1,'cantidad inicial pollos'!Y8-'cantidad pollos muertos'!Y8+1)</f>
-        <v>4.9852582128780853E-2</v>
-      </c>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
@@ -39498,14 +38241,8 @@
         <f>MAX('regiones de credibilidad bin'!C10,'regiones de credibilidad bin'!E10,'regiones de credibilidad bin'!G10,'regiones de credibilidad bin'!I10,'regiones de credibilidad bin'!K10,'regiones de credibilidad bin'!M10,'regiones de credibilidad bin'!O10,'regiones de credibilidad bin'!Q10,'regiones de credibilidad bin'!S10,'regiones de credibilidad bin'!U10,'regiones de credibilidad bin'!W10,'regiones de credibilidad bin'!Y10,'regiones de credibilidad bin'!AA10,'regiones de credibilidad bin'!AC10,'regiones de credibilidad bin'!AE10,'regiones de credibilidad bin'!AG10,'regiones de credibilidad bin'!AI10,'regiones de credibilidad bin'!AK10,'regiones de credibilidad bin'!AM10,'regiones de credibilidad bin'!AQ10,'regiones de credibilidad bin'!AS10)</f>
         <v>4.6556371699174315E-2</v>
       </c>
-      <c r="G11" s="7">
-        <f>BETAINV(0.025,'cantidad pollos muertos'!Y9+1,'cantidad inicial pollos'!Y9-'cantidad pollos muertos'!Y9+1)</f>
-        <v>3.0089030134216314E-2</v>
-      </c>
-      <c r="H11" s="7">
-        <f>BETAINV(0.975,'cantidad pollos muertos'!Y9+1,'cantidad inicial pollos'!Y9-'cantidad pollos muertos'!Y9+1)</f>
-        <v>3.2832604597176185E-2</v>
-      </c>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
@@ -39530,14 +38267,8 @@
         <f>MAX('regiones de credibilidad bin'!C11,'regiones de credibilidad bin'!E11,'regiones de credibilidad bin'!G11,'regiones de credibilidad bin'!K11,'regiones de credibilidad bin'!M11,'regiones de credibilidad bin'!O11,'regiones de credibilidad bin'!Q11,'regiones de credibilidad bin'!S11,'regiones de credibilidad bin'!U11,'regiones de credibilidad bin'!W11,'regiones de credibilidad bin'!Y11,'regiones de credibilidad bin'!AA11,'regiones de credibilidad bin'!AC11,'regiones de credibilidad bin'!AE11,'regiones de credibilidad bin'!AG11,'regiones de credibilidad bin'!AI11,'regiones de credibilidad bin'!AK11,'regiones de credibilidad bin'!AM11,'regiones de credibilidad bin'!AO11,'regiones de credibilidad bin'!AQ11,'regiones de credibilidad bin'!AS11)</f>
         <v>5.894964882288637E-2</v>
       </c>
-      <c r="G12" s="7">
-        <f>BETAINV(0.025,'cantidad pollos muertos'!Y10+1,'cantidad inicial pollos'!Y10-'cantidad pollos muertos'!Y10+1)</f>
-        <v>4.0094960846399338E-2</v>
-      </c>
-      <c r="H12" s="7">
-        <f>BETAINV(0.975,'cantidad pollos muertos'!Y10+1,'cantidad inicial pollos'!Y10-'cantidad pollos muertos'!Y10+1)</f>
-        <v>4.206170296942402E-2</v>
-      </c>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
@@ -39562,14 +38293,8 @@
         <f>MAX('regiones de credibilidad bin'!C12,'regiones de credibilidad bin'!E12,'regiones de credibilidad bin'!G12,'regiones de credibilidad bin'!K12,'regiones de credibilidad bin'!M12,'regiones de credibilidad bin'!O12,'regiones de credibilidad bin'!Q12,'regiones de credibilidad bin'!S12,'regiones de credibilidad bin'!U12,'regiones de credibilidad bin'!W12,'regiones de credibilidad bin'!Y12,'regiones de credibilidad bin'!AA12,'regiones de credibilidad bin'!AC12,'regiones de credibilidad bin'!AE12,'regiones de credibilidad bin'!AG12,'regiones de credibilidad bin'!AI12,'regiones de credibilidad bin'!AK12,'regiones de credibilidad bin'!AM12,'regiones de credibilidad bin'!AO12,'regiones de credibilidad bin'!AQ12,'regiones de credibilidad bin'!AS12)</f>
         <v>5.4324485196669464E-2</v>
       </c>
-      <c r="G13" s="7">
-        <f>BETAINV(0.025,'cantidad pollos muertos'!Y11+1,'cantidad inicial pollos'!Y11-'cantidad pollos muertos'!Y11+1)</f>
-        <v>4.8801966687877778E-2</v>
-      </c>
-      <c r="H13" s="7">
-        <f>BETAINV(0.975,'cantidad pollos muertos'!Y11+1,'cantidad inicial pollos'!Y11-'cantidad pollos muertos'!Y11+1)</f>
-        <v>5.5959345168451913E-2</v>
-      </c>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
@@ -39594,14 +38319,8 @@
         <f>MAX('regiones de credibilidad bin'!C13,'regiones de credibilidad bin'!E13,'regiones de credibilidad bin'!G13,'regiones de credibilidad bin'!I13,'regiones de credibilidad bin'!K13,'regiones de credibilidad bin'!M13,'regiones de credibilidad bin'!O13,'regiones de credibilidad bin'!Q13,'regiones de credibilidad bin'!S13,'regiones de credibilidad bin'!U13,'regiones de credibilidad bin'!W13,'regiones de credibilidad bin'!Y13,'regiones de credibilidad bin'!AC13,'regiones de credibilidad bin'!AE13,'regiones de credibilidad bin'!AG13,'regiones de credibilidad bin'!AI13,'regiones de credibilidad bin'!AK13,'regiones de credibilidad bin'!AM13,'regiones de credibilidad bin'!AO13,'regiones de credibilidad bin'!AQ13,'regiones de credibilidad bin'!AS13)</f>
         <v>3.4652583497444871E-2</v>
       </c>
-      <c r="G14" s="7">
-        <f>BETAINV(0.025,'cantidad pollos muertos'!Y12+1,'cantidad inicial pollos'!Y12-'cantidad pollos muertos'!Y12+1)</f>
-        <v>3.1149333196670782E-2</v>
-      </c>
-      <c r="H14" s="7">
-        <f>BETAINV(0.975,'cantidad pollos muertos'!Y12+1,'cantidad inicial pollos'!Y12-'cantidad pollos muertos'!Y12+1)</f>
-        <v>3.6159688402027768E-2</v>
-      </c>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
@@ -39626,14 +38345,8 @@
         <f>MAX('regiones de credibilidad bin'!C14,'regiones de credibilidad bin'!G14,'regiones de credibilidad bin'!M14,'regiones de credibilidad bin'!O14,'regiones de credibilidad bin'!Q14,'regiones de credibilidad bin'!S14,'regiones de credibilidad bin'!U14,'regiones de credibilidad bin'!W14,'regiones de credibilidad bin'!Y14,'regiones de credibilidad bin'!AA14,'regiones de credibilidad bin'!AC14,'regiones de credibilidad bin'!AE14,'regiones de credibilidad bin'!AG14,'regiones de credibilidad bin'!AI14,'regiones de credibilidad bin'!AK14,'regiones de credibilidad bin'!AM14,'regiones de credibilidad bin'!AO14,'regiones de credibilidad bin'!AQ14,'regiones de credibilidad bin'!AS14)</f>
         <v>6.490340907495977E-2</v>
       </c>
-      <c r="G15" s="7">
-        <f>BETAINV(0.025,'cantidad pollos muertos'!Y13+1,'cantidad inicial pollos'!Y13-'cantidad pollos muertos'!Y13+1)</f>
-        <v>5.1083080694232848E-2</v>
-      </c>
-      <c r="H15" s="7">
-        <f>BETAINV(0.975,'cantidad pollos muertos'!Y13+1,'cantidad inicial pollos'!Y13-'cantidad pollos muertos'!Y13+1)</f>
-        <v>5.4345233650403557E-2</v>
-      </c>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
@@ -39658,14 +38371,8 @@
         <f>MAX('regiones de credibilidad bin'!C15,'regiones de credibilidad bin'!G15,'regiones de credibilidad bin'!I15,'regiones de credibilidad bin'!K15,'regiones de credibilidad bin'!M15,'regiones de credibilidad bin'!O15,'regiones de credibilidad bin'!Q15,'regiones de credibilidad bin'!S15,'regiones de credibilidad bin'!U15,'regiones de credibilidad bin'!W15,'regiones de credibilidad bin'!Y15,'regiones de credibilidad bin'!AA15,'regiones de credibilidad bin'!AC15,'regiones de credibilidad bin'!AE15,'regiones de credibilidad bin'!AG15,'regiones de credibilidad bin'!AI15,'regiones de credibilidad bin'!AK15,'regiones de credibilidad bin'!AM15,'regiones de credibilidad bin'!AO15,'regiones de credibilidad bin'!AQ15,'regiones de credibilidad bin'!AS15)</f>
         <v>0.10502449496865905</v>
       </c>
-      <c r="G16" s="7">
-        <f>BETAINV(0.025,'cantidad pollos muertos'!Y14+1,'cantidad inicial pollos'!Y14-'cantidad pollos muertos'!Y14+1)</f>
-        <v>5.3142797746995395E-2</v>
-      </c>
-      <c r="H16" s="7">
-        <f>BETAINV(0.975,'cantidad pollos muertos'!Y14+1,'cantidad inicial pollos'!Y14-'cantidad pollos muertos'!Y14+1)</f>
-        <v>5.5172849927653922E-2</v>
-      </c>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
@@ -39690,14 +38397,8 @@
         <f>MAX('regiones de credibilidad bin'!C16,'regiones de credibilidad bin'!E16,'regiones de credibilidad bin'!G16,'regiones de credibilidad bin'!I16,'regiones de credibilidad bin'!K16,'regiones de credibilidad bin'!M16,'regiones de credibilidad bin'!O16,'regiones de credibilidad bin'!Q16,'regiones de credibilidad bin'!S16,'regiones de credibilidad bin'!U16,'regiones de credibilidad bin'!W16,'regiones de credibilidad bin'!Y16,'regiones de credibilidad bin'!AA16,'regiones de credibilidad bin'!AC16,'regiones de credibilidad bin'!AE16,'regiones de credibilidad bin'!AG16,'regiones de credibilidad bin'!AI16,'regiones de credibilidad bin'!AK16,'regiones de credibilidad bin'!AM16,'regiones de credibilidad bin'!AO16,'regiones de credibilidad bin'!AQ16,'regiones de credibilidad bin'!AS16)</f>
         <v>6.3574655205062849E-2</v>
       </c>
-      <c r="G17" s="7">
-        <f>BETAINV(0.025,'cantidad pollos muertos'!Y15+1,'cantidad inicial pollos'!Y15-'cantidad pollos muertos'!Y15+1)</f>
-        <v>3.2390096495922248E-2</v>
-      </c>
-      <c r="H17" s="7">
-        <f>BETAINV(0.975,'cantidad pollos muertos'!Y15+1,'cantidad inicial pollos'!Y15-'cantidad pollos muertos'!Y15+1)</f>
-        <v>3.4397073626333485E-2</v>
-      </c>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
@@ -39722,14 +38423,8 @@
         <f>MAX('regiones de credibilidad bin'!C17,'regiones de credibilidad bin'!G17,'regiones de credibilidad bin'!I17,'regiones de credibilidad bin'!K17,'regiones de credibilidad bin'!M17,'regiones de credibilidad bin'!O17,'regiones de credibilidad bin'!Q17,'regiones de credibilidad bin'!S17,'regiones de credibilidad bin'!U17,'regiones de credibilidad bin'!W17,'regiones de credibilidad bin'!Y17,'regiones de credibilidad bin'!AA17,'regiones de credibilidad bin'!AC17,'regiones de credibilidad bin'!AE17,'regiones de credibilidad bin'!AG17,'regiones de credibilidad bin'!AI17,'regiones de credibilidad bin'!AK17,'regiones de credibilidad bin'!AM17,'regiones de credibilidad bin'!AO17,'regiones de credibilidad bin'!AQ17,'regiones de credibilidad bin'!AS17)</f>
         <v>6.0054134380961979E-2</v>
       </c>
-      <c r="G18" s="7">
-        <f>BETAINV(0.025,'cantidad pollos muertos'!Y16+1,'cantidad inicial pollos'!Y16-'cantidad pollos muertos'!Y16+1)</f>
-        <v>3.5916392320685546E-2</v>
-      </c>
-      <c r="H18" s="7">
-        <f>BETAINV(0.975,'cantidad pollos muertos'!Y16+1,'cantidad inicial pollos'!Y16-'cantidad pollos muertos'!Y16+1)</f>
-        <v>3.738648584844706E-2</v>
-      </c>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
@@ -39754,14 +38449,8 @@
         <f>MAX('regiones de credibilidad bin'!C18,'regiones de credibilidad bin'!E18,'regiones de credibilidad bin'!G18,'regiones de credibilidad bin'!K18,'regiones de credibilidad bin'!M18,'regiones de credibilidad bin'!O18,'regiones de credibilidad bin'!Q18,'regiones de credibilidad bin'!S18,'regiones de credibilidad bin'!U18,'regiones de credibilidad bin'!W18,'regiones de credibilidad bin'!Y18,'regiones de credibilidad bin'!AA18,'regiones de credibilidad bin'!AC18,'regiones de credibilidad bin'!AE18,'regiones de credibilidad bin'!AG18,'regiones de credibilidad bin'!AI18,'regiones de credibilidad bin'!AK18,'regiones de credibilidad bin'!AM18,'regiones de credibilidad bin'!AO18,'regiones de credibilidad bin'!AQ18,'regiones de credibilidad bin'!AS18)</f>
         <v>8.7463724666055731E-2</v>
       </c>
-      <c r="G19" s="7">
-        <f>BETAINV(0.025,'cantidad pollos muertos'!Y17+1,'cantidad inicial pollos'!Y17-'cantidad pollos muertos'!Y17+1)</f>
-        <v>4.1449066282051826E-2</v>
-      </c>
-      <c r="H19" s="7">
-        <f>BETAINV(0.975,'cantidad pollos muertos'!Y17+1,'cantidad inicial pollos'!Y17-'cantidad pollos muertos'!Y17+1)</f>
-        <v>4.370134410316262E-2</v>
-      </c>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
@@ -39786,14 +38475,8 @@
         <f>MAX('regiones de credibilidad bin'!C19,'regiones de credibilidad bin'!G19,'regiones de credibilidad bin'!I19,'regiones de credibilidad bin'!M19,'regiones de credibilidad bin'!O19,'regiones de credibilidad bin'!Q19,'regiones de credibilidad bin'!S19,'regiones de credibilidad bin'!U19,'regiones de credibilidad bin'!W19,'regiones de credibilidad bin'!Y19,'regiones de credibilidad bin'!AA19,'regiones de credibilidad bin'!AC19,'regiones de credibilidad bin'!AE19,'regiones de credibilidad bin'!AG19,'regiones de credibilidad bin'!AI19,'regiones de credibilidad bin'!AK19,'regiones de credibilidad bin'!AM19,'regiones de credibilidad bin'!AO19,'regiones de credibilidad bin'!AQ19)</f>
         <v>5.6350813646779553E-2</v>
       </c>
-      <c r="G20" s="7">
-        <f>BETAINV(0.025,'cantidad pollos muertos'!Y18+1,'cantidad inicial pollos'!Y18-'cantidad pollos muertos'!Y18+1)</f>
-        <v>4.8176329022937288E-2</v>
-      </c>
-      <c r="H20" s="7">
-        <f>BETAINV(0.975,'cantidad pollos muertos'!Y18+1,'cantidad inicial pollos'!Y18-'cantidad pollos muertos'!Y18+1)</f>
-        <v>5.1597134030222702E-2</v>
-      </c>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
@@ -39818,14 +38501,8 @@
         <f>MAX('regiones de credibilidad bin'!C20,'regiones de credibilidad bin'!E20,'regiones de credibilidad bin'!I20,'regiones de credibilidad bin'!K20,'regiones de credibilidad bin'!M20,'regiones de credibilidad bin'!O20,'regiones de credibilidad bin'!Q20,'regiones de credibilidad bin'!S20,'regiones de credibilidad bin'!U20,'regiones de credibilidad bin'!Y20,'regiones de credibilidad bin'!AC20,'regiones de credibilidad bin'!AE20,'regiones de credibilidad bin'!AG20,'regiones de credibilidad bin'!AI20,'regiones de credibilidad bin'!AK20,'regiones de credibilidad bin'!AM20,'regiones de credibilidad bin'!AO20,'regiones de credibilidad bin'!AQ20,'regiones de credibilidad bin'!AS20)</f>
         <v>7.6330936165841884E-2</v>
       </c>
-      <c r="G21" s="7">
-        <f>BETAINV(0.025,'cantidad pollos muertos'!Y19+1,'cantidad inicial pollos'!Y19-'cantidad pollos muertos'!Y19+1)</f>
-        <v>7.3769529119208893E-2</v>
-      </c>
-      <c r="H21" s="7">
-        <f>BETAINV(0.975,'cantidad pollos muertos'!Y19+1,'cantidad inicial pollos'!Y19-'cantidad pollos muertos'!Y19+1)</f>
-        <v>7.9122961368643385E-2</v>
-      </c>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
@@ -39850,14 +38527,8 @@
         <f>MAX('regiones de credibilidad bin'!C21,'regiones de credibilidad bin'!E21,'regiones de credibilidad bin'!G21,'regiones de credibilidad bin'!I21,'regiones de credibilidad bin'!K21,'regiones de credibilidad bin'!M21,'regiones de credibilidad bin'!O21,'regiones de credibilidad bin'!Q21,'regiones de credibilidad bin'!S21,'regiones de credibilidad bin'!U21,'regiones de credibilidad bin'!W21,'regiones de credibilidad bin'!Y21,'regiones de credibilidad bin'!AA21,'regiones de credibilidad bin'!AC21,'regiones de credibilidad bin'!AE21,'regiones de credibilidad bin'!AG21,'regiones de credibilidad bin'!AI21,'regiones de credibilidad bin'!AK21,'regiones de credibilidad bin'!AM21,'regiones de credibilidad bin'!AO21,'regiones de credibilidad bin'!AQ21,'regiones de credibilidad bin'!AS21)</f>
         <v>9.5607521931984768E-2</v>
       </c>
-      <c r="G22" s="7">
-        <f>BETAINV(0.025,'cantidad pollos muertos'!Y20+1,'cantidad inicial pollos'!Y20-'cantidad pollos muertos'!Y20+1)</f>
-        <v>3.043219268729299E-2</v>
-      </c>
-      <c r="H22" s="7">
-        <f>BETAINV(0.975,'cantidad pollos muertos'!Y20+1,'cantidad inicial pollos'!Y20-'cantidad pollos muertos'!Y20+1)</f>
-        <v>3.2887497441944191E-2</v>
-      </c>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
@@ -39882,14 +38553,8 @@
         <f>MAX('regiones de credibilidad bin'!C22,'regiones de credibilidad bin'!E22,'regiones de credibilidad bin'!G22,'regiones de credibilidad bin'!I22,'regiones de credibilidad bin'!K22,'regiones de credibilidad bin'!M22,'regiones de credibilidad bin'!Q22,'regiones de credibilidad bin'!S22,'regiones de credibilidad bin'!U22,'regiones de credibilidad bin'!W22,'regiones de credibilidad bin'!Y22,'regiones de credibilidad bin'!AA22,'regiones de credibilidad bin'!AC22,'regiones de credibilidad bin'!AE22,'regiones de credibilidad bin'!AG22,'regiones de credibilidad bin'!AI22,'regiones de credibilidad bin'!AK22,'regiones de credibilidad bin'!AM22,'regiones de credibilidad bin'!AO22,'regiones de credibilidad bin'!AQ22,'regiones de credibilidad bin'!AS22)</f>
         <v>4.9641027899044961E-2</v>
       </c>
-      <c r="G23" s="7">
-        <f>BETAINV(0.025,'cantidad pollos muertos'!Y21+1,'cantidad inicial pollos'!Y21-'cantidad pollos muertos'!Y21+1)</f>
-        <v>2.9310772199238683E-2</v>
-      </c>
-      <c r="H23" s="7">
-        <f>BETAINV(0.975,'cantidad pollos muertos'!Y21+1,'cantidad inicial pollos'!Y21-'cantidad pollos muertos'!Y21+1)</f>
-        <v>3.2638638966859035E-2</v>
-      </c>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
@@ -39914,14 +38579,8 @@
         <f>MAX('regiones de credibilidad bin'!C23,'regiones de credibilidad bin'!E23,'regiones de credibilidad bin'!I23,'regiones de credibilidad bin'!K23,'regiones de credibilidad bin'!M23,'regiones de credibilidad bin'!O23,'regiones de credibilidad bin'!Q23,'regiones de credibilidad bin'!S23,'regiones de credibilidad bin'!U23,'regiones de credibilidad bin'!W23,'regiones de credibilidad bin'!Y23,'regiones de credibilidad bin'!AA23,'regiones de credibilidad bin'!AC23,'regiones de credibilidad bin'!AE23,'regiones de credibilidad bin'!AG23,'regiones de credibilidad bin'!AI23,'regiones de credibilidad bin'!AK23,'regiones de credibilidad bin'!AM23,'regiones de credibilidad bin'!AO23,'regiones de credibilidad bin'!AQ23,'regiones de credibilidad bin'!AS23)</f>
         <v>5.4751367704510057E-2</v>
       </c>
-      <c r="G24" s="7">
-        <f>BETAINV(0.025,'cantidad pollos muertos'!Y22+1,'cantidad inicial pollos'!Y22-'cantidad pollos muertos'!Y22+1)</f>
-        <v>3.2392177225255052E-2</v>
-      </c>
-      <c r="H24" s="7">
-        <f>BETAINV(0.975,'cantidad pollos muertos'!Y22+1,'cantidad inicial pollos'!Y22-'cantidad pollos muertos'!Y22+1)</f>
-        <v>3.5261078564105319E-2</v>
-      </c>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
@@ -39946,14 +38605,8 @@
         <f>MAX('regiones de credibilidad bin'!C24,'regiones de credibilidad bin'!E24,'regiones de credibilidad bin'!G24,'regiones de credibilidad bin'!K24,'regiones de credibilidad bin'!M24,'regiones de credibilidad bin'!O24,'regiones de credibilidad bin'!Q24,'regiones de credibilidad bin'!S24,'regiones de credibilidad bin'!U24,'regiones de credibilidad bin'!W24,'regiones de credibilidad bin'!Y24,'regiones de credibilidad bin'!AA24,'regiones de credibilidad bin'!AC24,'regiones de credibilidad bin'!AE24,'regiones de credibilidad bin'!AI24,'regiones de credibilidad bin'!AK24,'regiones de credibilidad bin'!AM24,'regiones de credibilidad bin'!AO24,'regiones de credibilidad bin'!AQ24,'regiones de credibilidad bin'!AS24)</f>
         <v>8.0971522858486522E-2</v>
       </c>
-      <c r="G25" s="7">
-        <f>BETAINV(0.025,'cantidad pollos muertos'!Y23+1,'cantidad inicial pollos'!Y23-'cantidad pollos muertos'!Y23+1)</f>
-        <v>5.5093608922868083E-2</v>
-      </c>
-      <c r="H25" s="7">
-        <f>BETAINV(0.975,'cantidad pollos muertos'!Y23+1,'cantidad inicial pollos'!Y23-'cantidad pollos muertos'!Y23+1)</f>
-        <v>5.9121885703156019E-2</v>
-      </c>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="7">
@@ -39978,14 +38631,8 @@
         <f>MAX('regiones de credibilidad bin'!C25,'regiones de credibilidad bin'!E25,'regiones de credibilidad bin'!G25,'regiones de credibilidad bin'!I25,'regiones de credibilidad bin'!K25,'regiones de credibilidad bin'!M25,'regiones de credibilidad bin'!O25,'regiones de credibilidad bin'!Q25,'regiones de credibilidad bin'!S25,'regiones de credibilidad bin'!U25,'regiones de credibilidad bin'!W25,'regiones de credibilidad bin'!Y25,'regiones de credibilidad bin'!AA25,'regiones de credibilidad bin'!AC25,'regiones de credibilidad bin'!AE25,'regiones de credibilidad bin'!AG25,'regiones de credibilidad bin'!AI25,'regiones de credibilidad bin'!AK25,'regiones de credibilidad bin'!AO25,'regiones de credibilidad bin'!AQ25,'regiones de credibilidad bin'!AS25)</f>
         <v>5.537644217549683E-2</v>
       </c>
-      <c r="G26" s="7">
-        <f>BETAINV(0.025,'cantidad pollos muertos'!Y24+1,'cantidad inicial pollos'!Y24-'cantidad pollos muertos'!Y24+1)</f>
-        <v>3.4372810211299523E-2</v>
-      </c>
-      <c r="H26" s="7">
-        <f>BETAINV(0.975,'cantidad pollos muertos'!Y24+1,'cantidad inicial pollos'!Y24-'cantidad pollos muertos'!Y24+1)</f>
-        <v>3.7487804200787789E-2</v>
-      </c>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
@@ -40010,14 +38657,8 @@
         <f>MAX('regiones de credibilidad bin'!C26,'regiones de credibilidad bin'!G26,'regiones de credibilidad bin'!K26,'regiones de credibilidad bin'!M26,'regiones de credibilidad bin'!O26,'regiones de credibilidad bin'!Q26,'regiones de credibilidad bin'!S26,'regiones de credibilidad bin'!U26,'regiones de credibilidad bin'!W26,'regiones de credibilidad bin'!Y26,'regiones de credibilidad bin'!AA26,'regiones de credibilidad bin'!AC26,'regiones de credibilidad bin'!AE26,'regiones de credibilidad bin'!AG26,'regiones de credibilidad bin'!AI26,'regiones de credibilidad bin'!AK26,'regiones de credibilidad bin'!AM26,'regiones de credibilidad bin'!AO26,'regiones de credibilidad bin'!AQ26,'regiones de credibilidad bin'!AS26)</f>
         <v>5.5897816608143996E-2</v>
       </c>
-      <c r="G27" s="7">
-        <f>BETAINV(0.025,'cantidad pollos muertos'!Y25+1,'cantidad inicial pollos'!Y25-'cantidad pollos muertos'!Y25+1)</f>
-        <v>4.1919873512861264E-2</v>
-      </c>
-      <c r="H27" s="7">
-        <f>BETAINV(0.975,'cantidad pollos muertos'!Y25+1,'cantidad inicial pollos'!Y25-'cantidad pollos muertos'!Y25+1)</f>
-        <v>4.3537426120741629E-2</v>
-      </c>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="7">
@@ -40042,14 +38683,8 @@
         <f>MAX('regiones de credibilidad bin'!C27,'regiones de credibilidad bin'!E27,'regiones de credibilidad bin'!I27,'regiones de credibilidad bin'!K27,'regiones de credibilidad bin'!M27,'regiones de credibilidad bin'!O27,'regiones de credibilidad bin'!Q27,'regiones de credibilidad bin'!S27,'regiones de credibilidad bin'!U27,'regiones de credibilidad bin'!W27,'regiones de credibilidad bin'!Y27,'regiones de credibilidad bin'!AA27,'regiones de credibilidad bin'!AC27,'regiones de credibilidad bin'!AE27,'regiones de credibilidad bin'!AG27,'regiones de credibilidad bin'!AI27,'regiones de credibilidad bin'!AK27,'regiones de credibilidad bin'!AM27,'regiones de credibilidad bin'!AO27,'regiones de credibilidad bin'!AQ27,'regiones de credibilidad bin'!AS27)</f>
         <v>7.3096590804953648E-2</v>
       </c>
-      <c r="G28" s="7">
-        <f>BETAINV(0.025,'cantidad pollos muertos'!Y26+1,'cantidad inicial pollos'!Y26-'cantidad pollos muertos'!Y26+1)</f>
-        <v>2.9264505700703974E-2</v>
-      </c>
-      <c r="H28" s="7">
-        <f>BETAINV(0.975,'cantidad pollos muertos'!Y26+1,'cantidad inicial pollos'!Y26-'cantidad pollos muertos'!Y26+1)</f>
-        <v>3.1809961791843366E-2</v>
-      </c>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="7">
@@ -40074,14 +38709,8 @@
         <f>MAX('regiones de credibilidad bin'!C28,'regiones de credibilidad bin'!E28,'regiones de credibilidad bin'!G28,'regiones de credibilidad bin'!K28,'regiones de credibilidad bin'!M28,'regiones de credibilidad bin'!O28,'regiones de credibilidad bin'!S28,'regiones de credibilidad bin'!U28,'regiones de credibilidad bin'!W28,'regiones de credibilidad bin'!Y28,'regiones de credibilidad bin'!AA28,'regiones de credibilidad bin'!AC28,'regiones de credibilidad bin'!AE28,'regiones de credibilidad bin'!AG28,'regiones de credibilidad bin'!AI28,'regiones de credibilidad bin'!AK28,'regiones de credibilidad bin'!AM28,'regiones de credibilidad bin'!AO28,'regiones de credibilidad bin'!AQ28)</f>
         <v>7.4186838650892623E-2</v>
       </c>
-      <c r="G29" s="7">
-        <f>BETAINV(0.025,'cantidad pollos muertos'!Y27+1,'cantidad inicial pollos'!Y27-'cantidad pollos muertos'!Y27+1)</f>
-        <v>5.6283054035471985E-2</v>
-      </c>
-      <c r="H29" s="7">
-        <f>BETAINV(0.975,'cantidad pollos muertos'!Y27+1,'cantidad inicial pollos'!Y27-'cantidad pollos muertos'!Y27+1)</f>
-        <v>6.0979041549275581E-2</v>
-      </c>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="7">
@@ -40106,14 +38735,8 @@
         <f>MAX('regiones de credibilidad bin'!C29,'regiones de credibilidad bin'!K29,'regiones de credibilidad bin'!M29,'regiones de credibilidad bin'!O29,'regiones de credibilidad bin'!Q29,'regiones de credibilidad bin'!S29,'regiones de credibilidad bin'!U29,'regiones de credibilidad bin'!W29,'regiones de credibilidad bin'!Y29,'regiones de credibilidad bin'!AA29,'regiones de credibilidad bin'!AC29,'regiones de credibilidad bin'!AE29,'regiones de credibilidad bin'!AG29,'regiones de credibilidad bin'!AI29,'regiones de credibilidad bin'!AK29,'regiones de credibilidad bin'!AM29,'regiones de credibilidad bin'!AO29,'regiones de credibilidad bin'!AQ29,'regiones de credibilidad bin'!AS29)</f>
         <v>7.1445980706064643E-2</v>
       </c>
-      <c r="G30" s="7">
-        <f>BETAINV(0.025,'cantidad pollos muertos'!Y28+1,'cantidad inicial pollos'!Y28-'cantidad pollos muertos'!Y28+1)</f>
-        <v>5.1730331284711994E-2</v>
-      </c>
-      <c r="H30" s="7">
-        <f>BETAINV(0.975,'cantidad pollos muertos'!Y28+1,'cantidad inicial pollos'!Y28-'cantidad pollos muertos'!Y28+1)</f>
-        <v>5.5299310051269868E-2</v>
-      </c>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="7">
@@ -40138,14 +38761,8 @@
         <f>MAX('regiones de credibilidad bin'!C30,'regiones de credibilidad bin'!G30,'regiones de credibilidad bin'!I30,'regiones de credibilidad bin'!K30,'regiones de credibilidad bin'!M30,'regiones de credibilidad bin'!O30,'regiones de credibilidad bin'!Q30,'regiones de credibilidad bin'!S30,'regiones de credibilidad bin'!U30,'regiones de credibilidad bin'!W30,'regiones de credibilidad bin'!Y30,'regiones de credibilidad bin'!AA30,'regiones de credibilidad bin'!AC30,'regiones de credibilidad bin'!AE30,'regiones de credibilidad bin'!AG30,'regiones de credibilidad bin'!AI30,'regiones de credibilidad bin'!AK30,'regiones de credibilidad bin'!AO30,'regiones de credibilidad bin'!AQ30,'regiones de credibilidad bin'!AS30)</f>
         <v>6.8977307187676487E-2</v>
       </c>
-      <c r="G31" s="7">
-        <f>BETAINV(0.025,'cantidad pollos muertos'!Y29+1,'cantidad inicial pollos'!Y29-'cantidad pollos muertos'!Y29+1)</f>
-        <v>5.3410819776576031E-2</v>
-      </c>
-      <c r="H31" s="7">
-        <f>BETAINV(0.975,'cantidad pollos muertos'!Y29+1,'cantidad inicial pollos'!Y29-'cantidad pollos muertos'!Y29+1)</f>
-        <v>5.7112182193912675E-2</v>
-      </c>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="7">
@@ -40170,14 +38787,8 @@
         <f>MAX('regiones de credibilidad bin'!E31,'regiones de credibilidad bin'!G31,'regiones de credibilidad bin'!I31,'regiones de credibilidad bin'!K31,'regiones de credibilidad bin'!M31,'regiones de credibilidad bin'!O31,'regiones de credibilidad bin'!Q31,'regiones de credibilidad bin'!S31,'regiones de credibilidad bin'!U31,'regiones de credibilidad bin'!W31,'regiones de credibilidad bin'!Y31,'regiones de credibilidad bin'!AA31,'regiones de credibilidad bin'!AC31,'regiones de credibilidad bin'!AE31,'regiones de credibilidad bin'!AG31,'regiones de credibilidad bin'!AI31,'regiones de credibilidad bin'!AK31,'regiones de credibilidad bin'!AM31,'regiones de credibilidad bin'!AO31,'regiones de credibilidad bin'!AQ31,'regiones de credibilidad bin'!AS31)</f>
         <v>6.0845626424668862E-2</v>
       </c>
-      <c r="G32" s="7">
-        <f>BETAINV(0.025,'cantidad pollos muertos'!Y30+1,'cantidad inicial pollos'!Y30-'cantidad pollos muertos'!Y30+1)</f>
-        <v>3.4956113480661966E-2</v>
-      </c>
-      <c r="H32" s="7">
-        <f>BETAINV(0.975,'cantidad pollos muertos'!Y30+1,'cantidad inicial pollos'!Y30-'cantidad pollos muertos'!Y30+1)</f>
-        <v>3.696669477062442E-2</v>
-      </c>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="7">
@@ -40202,14 +38813,8 @@
         <f>MAX('regiones de credibilidad bin'!C32,'regiones de credibilidad bin'!E32,'regiones de credibilidad bin'!G32,'regiones de credibilidad bin'!K32,'regiones de credibilidad bin'!M32,'regiones de credibilidad bin'!O32,'regiones de credibilidad bin'!Q32,'regiones de credibilidad bin'!S32,'regiones de credibilidad bin'!U32,'regiones de credibilidad bin'!W32,'regiones de credibilidad bin'!Y32,'regiones de credibilidad bin'!AA32,'regiones de credibilidad bin'!AC32,'regiones de credibilidad bin'!AE32,'regiones de credibilidad bin'!AG32,'regiones de credibilidad bin'!AI32,'regiones de credibilidad bin'!AK32,'regiones de credibilidad bin'!AM32,'regiones de credibilidad bin'!AQ32,'regiones de credibilidad bin'!AS32)</f>
         <v>6.4857754252320987E-2</v>
       </c>
-      <c r="G33" s="7">
-        <f>BETAINV(0.025,'cantidad pollos muertos'!Y31+1,'cantidad inicial pollos'!Y31-'cantidad pollos muertos'!Y31+1)</f>
-        <v>4.1388038893899977E-2</v>
-      </c>
-      <c r="H33" s="7">
-        <f>BETAINV(0.975,'cantidad pollos muertos'!Y31+1,'cantidad inicial pollos'!Y31-'cantidad pollos muertos'!Y31+1)</f>
-        <v>4.4566909993360326E-2</v>
-      </c>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="7">
@@ -40234,14 +38839,8 @@
         <f>MAX('regiones de credibilidad bin'!C33,'regiones de credibilidad bin'!K33,'regiones de credibilidad bin'!M33,'regiones de credibilidad bin'!O33,'regiones de credibilidad bin'!Q33,'regiones de credibilidad bin'!S33,'regiones de credibilidad bin'!U33,'regiones de credibilidad bin'!W33,'regiones de credibilidad bin'!Y33,'regiones de credibilidad bin'!AA33,'regiones de credibilidad bin'!AC33,'regiones de credibilidad bin'!AE33,'regiones de credibilidad bin'!AG33,'regiones de credibilidad bin'!AI33,'regiones de credibilidad bin'!AK33,'regiones de credibilidad bin'!AM33,'regiones de credibilidad bin'!AO33,'regiones de credibilidad bin'!AQ33,'regiones de credibilidad bin'!AS33)</f>
         <v>5.3986217274952807E-2</v>
       </c>
-      <c r="G34" s="7">
-        <f>BETAINV(0.025,'cantidad pollos muertos'!Y32+1,'cantidad inicial pollos'!Y32-'cantidad pollos muertos'!Y32+1)</f>
-        <v>3.9977677057111548E-2</v>
-      </c>
-      <c r="H34" s="7">
-        <f>BETAINV(0.975,'cantidad pollos muertos'!Y32+1,'cantidad inicial pollos'!Y32-'cantidad pollos muertos'!Y32+1)</f>
-        <v>4.3121192123154461E-2</v>
-      </c>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="7">
@@ -40266,14 +38865,8 @@
         <f>MAX('regiones de credibilidad bin'!C34,'regiones de credibilidad bin'!I34,'regiones de credibilidad bin'!K34,'regiones de credibilidad bin'!M34,'regiones de credibilidad bin'!O34,'regiones de credibilidad bin'!Q34,'regiones de credibilidad bin'!S34,'regiones de credibilidad bin'!U34,'regiones de credibilidad bin'!W34,'regiones de credibilidad bin'!Y34,'regiones de credibilidad bin'!AA34,'regiones de credibilidad bin'!AC34,'regiones de credibilidad bin'!AE34,'regiones de credibilidad bin'!AG34,'regiones de credibilidad bin'!AI34,'regiones de credibilidad bin'!AK34,'regiones de credibilidad bin'!AM34,'regiones de credibilidad bin'!AO34,'regiones de credibilidad bin'!AQ34,'regiones de credibilidad bin'!AS34)</f>
         <v>4.5358889203911186E-2</v>
       </c>
-      <c r="G35" s="7">
-        <f>BETAINV(0.025,'cantidad pollos muertos'!Y33+1,'cantidad inicial pollos'!Y33-'cantidad pollos muertos'!Y33+1)</f>
-        <v>3.3705190744545768E-2</v>
-      </c>
-      <c r="H35" s="7">
-        <f>BETAINV(0.975,'cantidad pollos muertos'!Y33+1,'cantidad inicial pollos'!Y33-'cantidad pollos muertos'!Y33+1)</f>
-        <v>3.6968646183064613E-2</v>
-      </c>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="7">
@@ -40298,14 +38891,8 @@
         <f>MAX('regiones de credibilidad bin'!C35,'regiones de credibilidad bin'!E35,'regiones de credibilidad bin'!G35,'regiones de credibilidad bin'!I35,'regiones de credibilidad bin'!K35,'regiones de credibilidad bin'!M35,'regiones de credibilidad bin'!O35,'regiones de credibilidad bin'!Q35,'regiones de credibilidad bin'!S35,'regiones de credibilidad bin'!U35,'regiones de credibilidad bin'!Y35,'regiones de credibilidad bin'!AA35,'regiones de credibilidad bin'!AE35,'regiones de credibilidad bin'!AG35,'regiones de credibilidad bin'!AI35,'regiones de credibilidad bin'!AK35,'regiones de credibilidad bin'!AM35,'regiones de credibilidad bin'!AO35,'regiones de credibilidad bin'!AQ35,'regiones de credibilidad bin'!AS35)</f>
         <v>9.093857077439485E-2</v>
       </c>
-      <c r="G36" s="7">
-        <f>BETAINV(0.025,'cantidad pollos muertos'!Y34+1,'cantidad inicial pollos'!Y34-'cantidad pollos muertos'!Y34+1)</f>
-        <v>5.692874472276329E-2</v>
-      </c>
-      <c r="H36" s="7">
-        <f>BETAINV(0.975,'cantidad pollos muertos'!Y34+1,'cantidad inicial pollos'!Y34-'cantidad pollos muertos'!Y34+1)</f>
-        <v>6.0098496522562939E-2</v>
-      </c>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
@@ -40330,14 +38917,8 @@
         <f>MAX('regiones de credibilidad bin'!E36,'regiones de credibilidad bin'!G36,'regiones de credibilidad bin'!M36,'regiones de credibilidad bin'!O36,'regiones de credibilidad bin'!Q36,'regiones de credibilidad bin'!S36,'regiones de credibilidad bin'!U36,'regiones de credibilidad bin'!W36,'regiones de credibilidad bin'!Y36,'regiones de credibilidad bin'!AA36,'regiones de credibilidad bin'!AC36,'regiones de credibilidad bin'!AE36,'regiones de credibilidad bin'!AG36,'regiones de credibilidad bin'!AI36,'regiones de credibilidad bin'!AK36,'regiones de credibilidad bin'!AM36,'regiones de credibilidad bin'!AO36,'regiones de credibilidad bin'!AQ36,'regiones de credibilidad bin'!AS36)</f>
         <v>4.2589900693957065E-2</v>
       </c>
-      <c r="G37" s="7">
-        <f>BETAINV(0.025,'cantidad pollos muertos'!Y35+1,'cantidad inicial pollos'!Y35-'cantidad pollos muertos'!Y35+1)</f>
-        <v>3.1185335557600967E-2</v>
-      </c>
-      <c r="H37" s="7">
-        <f>BETAINV(0.975,'cantidad pollos muertos'!Y35+1,'cantidad inicial pollos'!Y35-'cantidad pollos muertos'!Y35+1)</f>
-        <v>3.3894288392701699E-2</v>
-      </c>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="7">
@@ -40362,14 +38943,8 @@
         <f>MAX('regiones de credibilidad bin'!C37,'regiones de credibilidad bin'!E37,'regiones de credibilidad bin'!G37,'regiones de credibilidad bin'!K37,'regiones de credibilidad bin'!M37,'regiones de credibilidad bin'!O37,'regiones de credibilidad bin'!Q37,'regiones de credibilidad bin'!S37,'regiones de credibilidad bin'!U37,'regiones de credibilidad bin'!W37,'regiones de credibilidad bin'!Y37,'regiones de credibilidad bin'!AA37,'regiones de credibilidad bin'!AC37,'regiones de credibilidad bin'!AE37,'regiones de credibilidad bin'!AG37,'regiones de credibilidad bin'!AI37,'regiones de credibilidad bin'!AK37,'regiones de credibilidad bin'!AM37,'regiones de credibilidad bin'!AO37,'regiones de credibilidad bin'!AQ37,'regiones de credibilidad bin'!AS37)</f>
         <v>6.2894482434461677E-2</v>
       </c>
-      <c r="G38" s="7">
-        <f>BETAINV(0.025,'cantidad pollos muertos'!Y36+1,'cantidad inicial pollos'!Y36-'cantidad pollos muertos'!Y36+1)</f>
-        <v>3.9127811476002312E-2</v>
-      </c>
-      <c r="H38" s="7">
-        <f>BETAINV(0.975,'cantidad pollos muertos'!Y36+1,'cantidad inicial pollos'!Y36-'cantidad pollos muertos'!Y36+1)</f>
-        <v>4.2226673930942815E-2</v>
-      </c>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="7">
@@ -40394,14 +38969,8 @@
         <f>MAX('regiones de credibilidad bin'!C38,'regiones de credibilidad bin'!E38,'regiones de credibilidad bin'!G38,'regiones de credibilidad bin'!I38,'regiones de credibilidad bin'!K38,'regiones de credibilidad bin'!M38,'regiones de credibilidad bin'!O38,'regiones de credibilidad bin'!Q38,'regiones de credibilidad bin'!S38,'regiones de credibilidad bin'!U38,'regiones de credibilidad bin'!Y38,'regiones de credibilidad bin'!AA38,'regiones de credibilidad bin'!AC38,'regiones de credibilidad bin'!AE38,'regiones de credibilidad bin'!AG38,'regiones de credibilidad bin'!AI38,'regiones de credibilidad bin'!AK38,'regiones de credibilidad bin'!AM38,'regiones de credibilidad bin'!AO38,'regiones de credibilidad bin'!AQ38,'regiones de credibilidad bin'!AS38)</f>
         <v>4.6574956178320581E-2</v>
       </c>
-      <c r="G39" s="7">
-        <f>BETAINV(0.025,'cantidad pollos muertos'!Y37+1,'cantidad inicial pollos'!Y37-'cantidad pollos muertos'!Y37+1)</f>
-        <v>3.3520024152212835E-2</v>
-      </c>
-      <c r="H39" s="7">
-        <f>BETAINV(0.975,'cantidad pollos muertos'!Y37+1,'cantidad inicial pollos'!Y37-'cantidad pollos muertos'!Y37+1)</f>
-        <v>3.67040937777946E-2</v>
-      </c>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="7">
@@ -40426,14 +38995,8 @@
         <f>MAX('regiones de credibilidad bin'!C39,'regiones de credibilidad bin'!E39,'regiones de credibilidad bin'!G39,'regiones de credibilidad bin'!I39,'regiones de credibilidad bin'!M39,'regiones de credibilidad bin'!O39,'regiones de credibilidad bin'!Q39,'regiones de credibilidad bin'!S39,'regiones de credibilidad bin'!U39,'regiones de credibilidad bin'!W39,'regiones de credibilidad bin'!Y39,'regiones de credibilidad bin'!AA39,'regiones de credibilidad bin'!AC39,'regiones de credibilidad bin'!AE39,'regiones de credibilidad bin'!AG39,'regiones de credibilidad bin'!AI39,'regiones de credibilidad bin'!AK39,'regiones de credibilidad bin'!AM39,'regiones de credibilidad bin'!AO39,'regiones de credibilidad bin'!AQ39,'regiones de credibilidad bin'!AS39)</f>
         <v>5.6797412621892994E-2</v>
       </c>
-      <c r="G40" s="7">
-        <f>BETAINV(0.025,'cantidad pollos muertos'!Y38+1,'cantidad inicial pollos'!Y38-'cantidad pollos muertos'!Y38+1)</f>
-        <v>3.1955243273488081E-2</v>
-      </c>
-      <c r="H40" s="7">
-        <f>BETAINV(0.975,'cantidad pollos muertos'!Y38+1,'cantidad inicial pollos'!Y38-'cantidad pollos muertos'!Y38+1)</f>
-        <v>3.4001650634348235E-2</v>
-      </c>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="7">
@@ -40458,14 +39021,8 @@
         <f>MAX('regiones de credibilidad bin'!C40,'regiones de credibilidad bin'!E40,'regiones de credibilidad bin'!G40,'regiones de credibilidad bin'!I40,'regiones de credibilidad bin'!K40,'regiones de credibilidad bin'!M40,'regiones de credibilidad bin'!O40,'regiones de credibilidad bin'!Q40,'regiones de credibilidad bin'!S40,'regiones de credibilidad bin'!U40,'regiones de credibilidad bin'!W40,'regiones de credibilidad bin'!Y40,'regiones de credibilidad bin'!AA40,'regiones de credibilidad bin'!AC40,'regiones de credibilidad bin'!AE40,'regiones de credibilidad bin'!AG40,'regiones de credibilidad bin'!AI40,'regiones de credibilidad bin'!AK40,'regiones de credibilidad bin'!AM40,'regiones de credibilidad bin'!AO40,'regiones de credibilidad bin'!AQ40,'regiones de credibilidad bin'!AS40)</f>
         <v>6.0850251608887726E-2</v>
       </c>
-      <c r="G41" s="7">
-        <f>BETAINV(0.025,'cantidad pollos muertos'!Y39+1,'cantidad inicial pollos'!Y39-'cantidad pollos muertos'!Y39+1)</f>
-        <v>3.3572940730048038E-2</v>
-      </c>
-      <c r="H41" s="7">
-        <f>BETAINV(0.975,'cantidad pollos muertos'!Y39+1,'cantidad inicial pollos'!Y39-'cantidad pollos muertos'!Y39+1)</f>
-        <v>3.559800281059422E-2</v>
-      </c>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="7">
@@ -40490,14 +39047,8 @@
         <f>MAX('regiones de credibilidad bin'!I41,'regiones de credibilidad bin'!M41,'regiones de credibilidad bin'!O41,'regiones de credibilidad bin'!Q41,'regiones de credibilidad bin'!S41,'regiones de credibilidad bin'!U41,'regiones de credibilidad bin'!W41,'regiones de credibilidad bin'!Y41,'regiones de credibilidad bin'!AA41,'regiones de credibilidad bin'!AC41,'regiones de credibilidad bin'!AE41,'regiones de credibilidad bin'!AG41,'regiones de credibilidad bin'!AI41,'regiones de credibilidad bin'!AK41,'regiones de credibilidad bin'!AM41,'regiones de credibilidad bin'!AO41,'regiones de credibilidad bin'!AQ41,'regiones de credibilidad bin'!AS41)</f>
         <v>5.2772924700858946E-2</v>
       </c>
-      <c r="G42" s="7">
-        <f>BETAINV(0.025,'cantidad pollos muertos'!Y40+1,'cantidad inicial pollos'!Y40-'cantidad pollos muertos'!Y40+1)</f>
-        <v>5.3094240911793919E-2</v>
-      </c>
-      <c r="H42" s="7">
-        <f>BETAINV(0.975,'cantidad pollos muertos'!Y40+1,'cantidad inicial pollos'!Y40-'cantidad pollos muertos'!Y40+1)</f>
-        <v>5.5553065102276311E-2</v>
-      </c>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="7">
@@ -40522,14 +39073,8 @@
         <f>MAX('regiones de credibilidad bin'!C42,'regiones de credibilidad bin'!G42,'regiones de credibilidad bin'!I42,'regiones de credibilidad bin'!K42,'regiones de credibilidad bin'!M42,'regiones de credibilidad bin'!O42,'regiones de credibilidad bin'!Q42,'regiones de credibilidad bin'!S42,'regiones de credibilidad bin'!U42,'regiones de credibilidad bin'!W42,'regiones de credibilidad bin'!Y42,'regiones de credibilidad bin'!AA42,'regiones de credibilidad bin'!AC42,'regiones de credibilidad bin'!AE42,'regiones de credibilidad bin'!AG42,'regiones de credibilidad bin'!AI42,'regiones de credibilidad bin'!AK42,'regiones de credibilidad bin'!AM42,'regiones de credibilidad bin'!AO42,'regiones de credibilidad bin'!AQ42,'regiones de credibilidad bin'!AS42)</f>
         <v>9.1452882234430183E-2</v>
       </c>
-      <c r="G43" s="7">
-        <f>BETAINV(0.025,'cantidad pollos muertos'!Y41+1,'cantidad inicial pollos'!Y41-'cantidad pollos muertos'!Y41+1)</f>
-        <v>3.7914859997461095E-2</v>
-      </c>
-      <c r="H43" s="7">
-        <f>BETAINV(0.975,'cantidad pollos muertos'!Y41+1,'cantidad inicial pollos'!Y41-'cantidad pollos muertos'!Y41+1)</f>
-        <v>4.0971378034838968E-2</v>
-      </c>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="7">
@@ -40554,14 +39099,8 @@
         <f>MAX('regiones de credibilidad bin'!C43,'regiones de credibilidad bin'!E43,'regiones de credibilidad bin'!I43,'regiones de credibilidad bin'!K43,'regiones de credibilidad bin'!M43,'regiones de credibilidad bin'!O43,'regiones de credibilidad bin'!Q43,'regiones de credibilidad bin'!S43,'regiones de credibilidad bin'!U43,'regiones de credibilidad bin'!W43,'regiones de credibilidad bin'!Y43,'regiones de credibilidad bin'!AA43,'regiones de credibilidad bin'!AC43,'regiones de credibilidad bin'!AE43,'regiones de credibilidad bin'!AG43,'regiones de credibilidad bin'!AI43,'regiones de credibilidad bin'!AK43,'regiones de credibilidad bin'!AM43,'regiones de credibilidad bin'!AO43,'regiones de credibilidad bin'!AQ43,'regiones de credibilidad bin'!AS43)</f>
         <v>0.12362510477764389</v>
       </c>
-      <c r="G44" s="7">
-        <f>BETAINV(0.025,'cantidad pollos muertos'!Y42+1,'cantidad inicial pollos'!Y42-'cantidad pollos muertos'!Y42+1)</f>
-        <v>6.5446364117353814E-2</v>
-      </c>
-      <c r="H44" s="7">
-        <f>BETAINV(0.975,'cantidad pollos muertos'!Y42+1,'cantidad inicial pollos'!Y42-'cantidad pollos muertos'!Y42+1)</f>
-        <v>6.7212618949343383E-2</v>
-      </c>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="7">
@@ -40586,14 +39125,8 @@
         <f>MAX('regiones de credibilidad bin'!C44,'regiones de credibilidad bin'!E44,'regiones de credibilidad bin'!I44,'regiones de credibilidad bin'!K44,'regiones de credibilidad bin'!M44,'regiones de credibilidad bin'!O44,'regiones de credibilidad bin'!Q44,'regiones de credibilidad bin'!S44,'regiones de credibilidad bin'!U44,'regiones de credibilidad bin'!W44,'regiones de credibilidad bin'!Y44,'regiones de credibilidad bin'!AA44,'regiones de credibilidad bin'!AC44,'regiones de credibilidad bin'!AE44,'regiones de credibilidad bin'!AG44,'regiones de credibilidad bin'!AI44,'regiones de credibilidad bin'!AK44,'regiones de credibilidad bin'!AM44,'regiones de credibilidad bin'!AO44,'regiones de credibilidad bin'!AQ44,'regiones de credibilidad bin'!AS44)</f>
         <v>0.12065692298419085</v>
       </c>
-      <c r="G45" s="7">
-        <f>BETAINV(0.025,'cantidad pollos muertos'!Y43+1,'cantidad inicial pollos'!Y43-'cantidad pollos muertos'!Y43+1)</f>
-        <v>6.2129359768308551E-2</v>
-      </c>
-      <c r="H45" s="7">
-        <f>BETAINV(0.975,'cantidad pollos muertos'!Y43+1,'cantidad inicial pollos'!Y43-'cantidad pollos muertos'!Y43+1)</f>
-        <v>6.3656080301423668E-2</v>
-      </c>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="7">
@@ -40618,14 +39151,8 @@
         <f>MAX('regiones de credibilidad bin'!E45,'regiones de credibilidad bin'!G45,'regiones de credibilidad bin'!I45,'regiones de credibilidad bin'!K45,'regiones de credibilidad bin'!M45,'regiones de credibilidad bin'!O45,'regiones de credibilidad bin'!Q45,'regiones de credibilidad bin'!S45,'regiones de credibilidad bin'!U45,'regiones de credibilidad bin'!W45,'regiones de credibilidad bin'!Y45,'regiones de credibilidad bin'!AA45,'regiones de credibilidad bin'!AC45,'regiones de credibilidad bin'!AE45,'regiones de credibilidad bin'!AG45,'regiones de credibilidad bin'!AI45,'regiones de credibilidad bin'!AK45,'regiones de credibilidad bin'!AM45,'regiones de credibilidad bin'!AO45,'regiones de credibilidad bin'!AQ45,'regiones de credibilidad bin'!AS45)</f>
         <v>4.6880919492669391E-2</v>
       </c>
-      <c r="G46" s="7">
-        <f>BETAINV(0.025,'cantidad pollos muertos'!Y44+1,'cantidad inicial pollos'!Y44-'cantidad pollos muertos'!Y44+1)</f>
-        <v>2.9094463448739227E-2</v>
-      </c>
-      <c r="H46" s="7">
-        <f>BETAINV(0.975,'cantidad pollos muertos'!Y44+1,'cantidad inicial pollos'!Y44-'cantidad pollos muertos'!Y44+1)</f>
-        <v>3.185229454761962E-2</v>
-      </c>
+      <c r="G46" s="7"/>
+      <c r="H46" s="7"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="7">
@@ -40650,14 +39177,8 @@
         <f>MAX('regiones de credibilidad bin'!C46,'regiones de credibilidad bin'!K46,'regiones de credibilidad bin'!M46,'regiones de credibilidad bin'!O46,'regiones de credibilidad bin'!Q46,'regiones de credibilidad bin'!S46,'regiones de credibilidad bin'!U46,'regiones de credibilidad bin'!W46,'regiones de credibilidad bin'!Y46,'regiones de credibilidad bin'!AA46,'regiones de credibilidad bin'!AC46,'regiones de credibilidad bin'!AE46,'regiones de credibilidad bin'!AG46,'regiones de credibilidad bin'!AI46,'regiones de credibilidad bin'!AK46,'regiones de credibilidad bin'!AM46,'regiones de credibilidad bin'!AO46,'regiones de credibilidad bin'!AQ46,'regiones de credibilidad bin'!AS46)</f>
         <v>8.3027114078755473E-2</v>
       </c>
-      <c r="G47" s="7">
-        <f>BETAINV(0.025,'cantidad pollos muertos'!Y45+1,'cantidad inicial pollos'!Y45-'cantidad pollos muertos'!Y45+1)</f>
-        <v>5.7698136969593514E-2</v>
-      </c>
-      <c r="H47" s="7">
-        <f>BETAINV(0.975,'cantidad pollos muertos'!Y45+1,'cantidad inicial pollos'!Y45-'cantidad pollos muertos'!Y45+1)</f>
-        <v>6.1441799262549335E-2</v>
-      </c>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="7">
@@ -40682,14 +39203,8 @@
         <f>MAX('regiones de credibilidad bin'!C47,'regiones de credibilidad bin'!E47,'regiones de credibilidad bin'!G47,'regiones de credibilidad bin'!I47,'regiones de credibilidad bin'!K47,'regiones de credibilidad bin'!M47,'regiones de credibilidad bin'!O47,'regiones de credibilidad bin'!Q47,'regiones de credibilidad bin'!U47,'regiones de credibilidad bin'!W47,'regiones de credibilidad bin'!Y47,'regiones de credibilidad bin'!AA47,'regiones de credibilidad bin'!AC47,'regiones de credibilidad bin'!AE47,'regiones de credibilidad bin'!AG47,'regiones de credibilidad bin'!AI47,'regiones de credibilidad bin'!AO47,'regiones de credibilidad bin'!AQ47,'regiones de credibilidad bin'!AS47)</f>
         <v>3.7614089485154246E-2</v>
       </c>
-      <c r="G48" s="7">
-        <f>BETAINV(0.025,'cantidad pollos muertos'!Y46+1,'cantidad inicial pollos'!Y46-'cantidad pollos muertos'!Y46+1)</f>
-        <v>2.7871432053764932E-2</v>
-      </c>
-      <c r="H48" s="7">
-        <f>BETAINV(0.975,'cantidad pollos muertos'!Y46+1,'cantidad inicial pollos'!Y46-'cantidad pollos muertos'!Y46+1)</f>
-        <v>3.159015564156431E-2</v>
-      </c>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="7">
@@ -40714,14 +39229,8 @@
         <f>MAX('regiones de credibilidad bin'!C48,'regiones de credibilidad bin'!E48,'regiones de credibilidad bin'!G48,'regiones de credibilidad bin'!I48,'regiones de credibilidad bin'!K48,'regiones de credibilidad bin'!M48,'regiones de credibilidad bin'!O48,'regiones de credibilidad bin'!Q48,'regiones de credibilidad bin'!S48,'regiones de credibilidad bin'!U48,'regiones de credibilidad bin'!W48,'regiones de credibilidad bin'!Y48,'regiones de credibilidad bin'!AA48,'regiones de credibilidad bin'!AC48,'regiones de credibilidad bin'!AE48,'regiones de credibilidad bin'!AG48,'regiones de credibilidad bin'!AI48,'regiones de credibilidad bin'!AK48,'regiones de credibilidad bin'!AM48,'regiones de credibilidad bin'!AO48,'regiones de credibilidad bin'!AQ48,'regiones de credibilidad bin'!AS48)</f>
         <v>6.5692966787837093E-2</v>
       </c>
-      <c r="G49" s="7">
-        <f>BETAINV(0.025,'cantidad pollos muertos'!Y47+1,'cantidad inicial pollos'!Y47-'cantidad pollos muertos'!Y47+1)</f>
-        <v>3.3119127644909013E-2</v>
-      </c>
-      <c r="H49" s="7">
-        <f>BETAINV(0.975,'cantidad pollos muertos'!Y47+1,'cantidad inicial pollos'!Y47-'cantidad pollos muertos'!Y47+1)</f>
-        <v>3.509925354059984E-2</v>
-      </c>
+      <c r="G49" s="7"/>
+      <c r="H49" s="7"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="7">
@@ -40746,14 +39255,8 @@
         <f>MAX('regiones de credibilidad bin'!C49,'regiones de credibilidad bin'!E49,'regiones de credibilidad bin'!G49,'regiones de credibilidad bin'!I49,'regiones de credibilidad bin'!K49,'regiones de credibilidad bin'!M49,'regiones de credibilidad bin'!O49,'regiones de credibilidad bin'!Q49,'regiones de credibilidad bin'!S49,'regiones de credibilidad bin'!W49,'regiones de credibilidad bin'!Y49,'regiones de credibilidad bin'!AA49,'regiones de credibilidad bin'!AC49,'regiones de credibilidad bin'!AE49,'regiones de credibilidad bin'!AG49,'regiones de credibilidad bin'!AI49,'regiones de credibilidad bin'!AK49,'regiones de credibilidad bin'!AM49,'regiones de credibilidad bin'!AO49,'regiones de credibilidad bin'!AQ49,'regiones de credibilidad bin'!AS49)</f>
         <v>4.8301445094402512E-2</v>
       </c>
-      <c r="G50" s="7">
-        <f>BETAINV(0.025,'cantidad pollos muertos'!Y48+1,'cantidad inicial pollos'!Y48-'cantidad pollos muertos'!Y48+1)</f>
-        <v>3.1027292586214946E-2</v>
-      </c>
-      <c r="H50" s="7">
-        <f>BETAINV(0.975,'cantidad pollos muertos'!Y48+1,'cantidad inicial pollos'!Y48-'cantidad pollos muertos'!Y48+1)</f>
-        <v>3.3950861633463281E-2</v>
-      </c>
+      <c r="G50" s="7"/>
+      <c r="H50" s="7"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="7">
@@ -40778,32 +39281,24 @@
         <f>MAX('regiones de credibilidad bin'!C50,'regiones de credibilidad bin'!E50,'regiones de credibilidad bin'!G50,'regiones de credibilidad bin'!I50,'regiones de credibilidad bin'!K50,'regiones de credibilidad bin'!M50,'regiones de credibilidad bin'!O50,'regiones de credibilidad bin'!Q50,'regiones de credibilidad bin'!S50,'regiones de credibilidad bin'!U50,'regiones de credibilidad bin'!W50,'regiones de credibilidad bin'!Y50,'regiones de credibilidad bin'!AA50,'regiones de credibilidad bin'!AC50,'regiones de credibilidad bin'!AE50,'regiones de credibilidad bin'!AG50,'regiones de credibilidad bin'!AI50,'regiones de credibilidad bin'!AK50,'regiones de credibilidad bin'!AO50,'regiones de credibilidad bin'!AQ50,'regiones de credibilidad bin'!AS50)</f>
         <v>9.8112121407240391E-2</v>
       </c>
-      <c r="G51" s="7">
-        <f>BETAINV(0.025,'cantidad pollos muertos'!Y49+1,'cantidad inicial pollos'!Y49-'cantidad pollos muertos'!Y49+1)</f>
-        <v>5.0667044761728286E-2</v>
-      </c>
-      <c r="H51" s="7">
-        <f>BETAINV(0.975,'cantidad pollos muertos'!Y49+1,'cantidad inicial pollos'!Y49-'cantidad pollos muertos'!Y49+1)</f>
-        <v>5.4892513796904963E-2</v>
-      </c>
+      <c r="G51" s="7"/>
+      <c r="H51" s="7"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C54" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="D54" s="25"/>
-      <c r="E54" s="25"/>
+      <c r="C54" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="D54" s="29"/>
+      <c r="E54" s="27"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C55" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D55" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="D55" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="E55" s="3" t="s">
-        <v>84</v>
-      </c>
+      <c r="E55" s="3"/>
       <c r="F55" s="6"/>
       <c r="G55" s="3"/>
       <c r="H55" s="6"/>
@@ -40817,10 +39312,6 @@
         <f t="shared" ref="D56:D103" si="0">(E4+F4)/2</f>
         <v>4.2483573146848697E-2</v>
       </c>
-      <c r="E56">
-        <f>(H4+G4)/2</f>
-        <v>4.5044561792823928E-2</v>
-      </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C57">
@@ -40831,10 +39322,6 @@
         <f t="shared" si="0"/>
         <v>4.1483549296814734E-2</v>
       </c>
-      <c r="E57">
-        <f t="shared" ref="E57:E103" si="2">(H5+G5)/2</f>
-        <v>7.2251473461121041E-2</v>
-      </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C58">
@@ -40845,10 +39332,6 @@
         <f t="shared" si="0"/>
         <v>3.5735445039081951E-2</v>
       </c>
-      <c r="E58">
-        <f t="shared" si="2"/>
-        <v>4.2519699730020982E-2</v>
-      </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C59">
@@ -40859,10 +39342,6 @@
         <f t="shared" si="0"/>
         <v>4.9286909523467856E-2</v>
       </c>
-      <c r="E59">
-        <f t="shared" si="2"/>
-        <v>4.5162656018638371E-2</v>
-      </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C60">
@@ -40873,10 +39352,6 @@
         <f t="shared" si="0"/>
         <v>3.3834905753445201E-2</v>
       </c>
-      <c r="E60">
-        <f t="shared" si="2"/>
-        <v>3.048078130906056E-2</v>
-      </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C61">
@@ -40887,10 +39362,6 @@
         <f t="shared" si="0"/>
         <v>5.1990706460430212E-2</v>
       </c>
-      <c r="E61">
-        <f t="shared" si="2"/>
-        <v>5.6631481473456174E-2</v>
-      </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C62">
@@ -40901,10 +39372,6 @@
         <f t="shared" si="0"/>
         <v>3.6659431652632773E-2</v>
       </c>
-      <c r="E62">
-        <f t="shared" si="2"/>
-        <v>4.8155727616668864E-2</v>
-      </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C63">
@@ -40915,10 +39382,6 @@
         <f t="shared" si="0"/>
         <v>3.0527881054806555E-2</v>
       </c>
-      <c r="E63">
-        <f t="shared" si="2"/>
-        <v>3.1460817365696253E-2</v>
-      </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C64">
@@ -40929,12 +39392,8 @@
         <f t="shared" si="0"/>
         <v>3.797322566127094E-2</v>
       </c>
-      <c r="E64">
-        <f t="shared" si="2"/>
-        <v>4.1078331907911679E-2</v>
-      </c>
     </row>
-    <row r="65" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C65">
         <f t="shared" si="1"/>
         <v>5.2778173279380725E-2</v>
@@ -40943,12 +39402,8 @@
         <f t="shared" si="0"/>
         <v>4.8395153734491783E-2</v>
       </c>
-      <c r="E65">
-        <f t="shared" si="2"/>
-        <v>5.2380655928164849E-2</v>
-      </c>
     </row>
-    <row r="66" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C66">
         <f t="shared" si="1"/>
         <v>3.4522053559650649E-2</v>
@@ -40957,12 +39412,8 @@
         <f t="shared" si="0"/>
         <v>3.1254157422064471E-2</v>
       </c>
-      <c r="E66">
-        <f t="shared" si="2"/>
-        <v>3.3654510799349273E-2</v>
-      </c>
     </row>
-    <row r="67" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C67">
         <f t="shared" si="1"/>
         <v>4.4812012255452512E-2</v>
@@ -40971,12 +39422,8 @@
         <f t="shared" si="0"/>
         <v>3.8715790317096065E-2</v>
       </c>
-      <c r="E67">
-        <f t="shared" si="2"/>
-        <v>5.2714157172318199E-2</v>
-      </c>
     </row>
-    <row r="68" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C68">
         <f t="shared" si="1"/>
         <v>6.7430003561988833E-2</v>
@@ -40985,12 +39432,8 @@
         <f t="shared" si="0"/>
         <v>6.3838918681456025E-2</v>
       </c>
-      <c r="E68">
-        <f t="shared" si="2"/>
-        <v>5.4157823837324662E-2</v>
-      </c>
     </row>
-    <row r="69" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C69">
         <f t="shared" si="1"/>
         <v>4.2267278303202087E-2</v>
@@ -40999,12 +39442,8 @@
         <f t="shared" si="0"/>
         <v>3.9783640969365132E-2</v>
       </c>
-      <c r="E69">
-        <f t="shared" si="2"/>
-        <v>3.339358506112787E-2</v>
-      </c>
     </row>
-    <row r="70" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C70">
         <f t="shared" si="1"/>
         <v>4.2516353112182839E-2</v>
@@ -41013,12 +39452,8 @@
         <f t="shared" si="0"/>
         <v>3.9818503841528415E-2</v>
       </c>
-      <c r="E70">
-        <f t="shared" si="2"/>
-        <v>3.6651439084566306E-2</v>
-      </c>
     </row>
-    <row r="71" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C71">
         <f t="shared" si="1"/>
         <v>5.6691914313167863E-2</v>
@@ -41027,12 +39462,8 @@
         <f t="shared" si="0"/>
         <v>5.3453754133051562E-2</v>
       </c>
-      <c r="E71">
-        <f t="shared" si="2"/>
-        <v>4.2575205192607227E-2</v>
-      </c>
     </row>
-    <row r="72" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C72">
         <f t="shared" si="1"/>
         <v>4.0137140580196573E-2</v>
@@ -41041,12 +39472,8 @@
         <f t="shared" si="0"/>
         <v>3.6876543811975318E-2</v>
       </c>
-      <c r="E72">
-        <f t="shared" si="2"/>
-        <v>4.9886731526579992E-2</v>
-      </c>
     </row>
-    <row r="73" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C73">
         <f t="shared" si="1"/>
         <v>5.6241283025071823E-2</v>
@@ -41055,12 +39482,8 @@
         <f t="shared" si="0"/>
         <v>4.8421797909485156E-2</v>
       </c>
-      <c r="E73">
-        <f t="shared" si="2"/>
-        <v>7.6446245243926139E-2</v>
-      </c>
     </row>
-    <row r="74" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C74">
         <f t="shared" si="1"/>
         <v>2.9516069015001548E-2</v>
@@ -41069,12 +39492,8 @@
         <f t="shared" si="0"/>
         <v>5.1973362026201744E-2</v>
       </c>
-      <c r="E74">
-        <f t="shared" si="2"/>
-        <v>3.1659845064618594E-2</v>
-      </c>
     </row>
-    <row r="75" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C75">
         <f t="shared" si="1"/>
         <v>3.6973439860464946E-2</v>
@@ -41083,12 +39502,8 @@
         <f t="shared" si="0"/>
         <v>3.2136421533886877E-2</v>
       </c>
-      <c r="E75">
-        <f t="shared" si="2"/>
-        <v>3.0974705583048857E-2</v>
-      </c>
     </row>
-    <row r="76" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C76">
         <f t="shared" si="1"/>
         <v>3.6531447400988126E-2</v>
@@ -41097,12 +39512,8 @@
         <f t="shared" si="0"/>
         <v>3.6411240442849824E-2</v>
       </c>
-      <c r="E76">
-        <f t="shared" si="2"/>
-        <v>3.3826627894680189E-2</v>
-      </c>
     </row>
-    <row r="77" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C77">
         <f t="shared" si="1"/>
         <v>5.745804589819898E-2</v>
@@ -41111,12 +39522,8 @@
         <f t="shared" si="0"/>
         <v>5.0167049997711544E-2</v>
       </c>
-      <c r="E77">
-        <f t="shared" si="2"/>
-        <v>5.7107747313012047E-2</v>
-      </c>
     </row>
-    <row r="78" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C78">
         <f t="shared" si="1"/>
         <v>4.233048970564024E-2</v>
@@ -41125,12 +39532,8 @@
         <f t="shared" si="0"/>
         <v>3.5655204503217283E-2</v>
       </c>
-      <c r="E78">
-        <f t="shared" si="2"/>
-        <v>3.5930307206043656E-2</v>
-      </c>
     </row>
-    <row r="79" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C79">
         <f>(D27+C27)/2</f>
         <v>4.0825647020573272E-2</v>
@@ -41139,12 +39542,8 @@
         <f t="shared" si="0"/>
         <v>3.8858420590934598E-2</v>
       </c>
-      <c r="E79">
-        <f t="shared" si="2"/>
-        <v>4.2728649816801446E-2</v>
-      </c>
     </row>
-    <row r="80" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C80">
         <f t="shared" si="1"/>
         <v>4.6967459253430217E-2</v>
@@ -41153,12 +39552,8 @@
         <f t="shared" si="0"/>
         <v>4.1428780881187496E-2</v>
       </c>
-      <c r="E80">
-        <f t="shared" si="2"/>
-        <v>3.0537233746273672E-2</v>
-      </c>
     </row>
-    <row r="81" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C81">
         <f t="shared" si="1"/>
         <v>5.744877001040033E-2</v>
@@ -41167,12 +39562,8 @@
         <f t="shared" si="0"/>
         <v>5.0507861233726317E-2</v>
       </c>
-      <c r="E81">
-        <f t="shared" si="2"/>
-        <v>5.8631047792373783E-2</v>
-      </c>
     </row>
-    <row r="82" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C82">
         <f>(D30+C30)/2</f>
         <v>4.9277977676795301E-2</v>
@@ -41181,12 +39572,8 @@
         <f t="shared" si="0"/>
         <v>4.2995751111981714E-2</v>
       </c>
-      <c r="E82">
-        <f t="shared" si="2"/>
-        <v>5.3514820667990931E-2</v>
-      </c>
     </row>
-    <row r="83" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C83">
         <f t="shared" si="1"/>
         <v>5.1556006014235031E-2</v>
@@ -41195,12 +39582,8 @@
         <f t="shared" si="0"/>
         <v>4.6674925274960317E-2</v>
       </c>
-      <c r="E83">
-        <f t="shared" si="2"/>
-        <v>5.526150098524435E-2</v>
-      </c>
     </row>
-    <row r="84" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C84">
         <f>(D32+C32)/2</f>
         <v>3.7431736160829766E-2</v>
@@ -41209,12 +39592,8 @@
         <f t="shared" si="0"/>
         <v>3.2446429115888423E-2</v>
       </c>
-      <c r="E84">
-        <f t="shared" si="2"/>
-        <v>3.5961404125643193E-2</v>
-      </c>
     </row>
-    <row r="85" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C85">
         <f t="shared" si="1"/>
         <v>4.5588796895214355E-2</v>
@@ -41223,12 +39602,8 @@
         <f t="shared" si="0"/>
         <v>3.9722014297559782E-2</v>
       </c>
-      <c r="E85">
-        <f t="shared" si="2"/>
-        <v>4.2977474443630148E-2</v>
-      </c>
     </row>
-    <row r="86" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C86">
         <f t="shared" si="1"/>
         <v>4.1652261064670071E-2</v>
@@ -41237,12 +39612,8 @@
         <f t="shared" si="0"/>
         <v>3.6434164042557907E-2</v>
       </c>
-      <c r="E86">
-        <f t="shared" si="2"/>
-        <v>4.1549434590133008E-2</v>
-      </c>
     </row>
-    <row r="87" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C87">
         <f>(D35+C35)/2</f>
         <v>3.3828196417877793E-2</v>
@@ -41251,12 +39622,8 @@
         <f t="shared" si="0"/>
         <v>2.7338632064517258E-2</v>
       </c>
-      <c r="E87">
-        <f t="shared" si="2"/>
-        <v>3.5336918463805191E-2</v>
-      </c>
     </row>
-    <row r="88" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C88">
         <f t="shared" si="1"/>
         <v>5.9964996072542846E-2</v>
@@ -41265,12 +39632,8 @@
         <f t="shared" si="0"/>
         <v>5.4360659204005748E-2</v>
       </c>
-      <c r="E88">
-        <f t="shared" si="2"/>
-        <v>5.8513620622663118E-2</v>
-      </c>
     </row>
-    <row r="89" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C89">
         <f>(D37+C37)/2</f>
         <v>3.2302964857036626E-2</v>
@@ -41279,12 +39642,8 @@
         <f t="shared" si="0"/>
         <v>2.811861854650188E-2</v>
       </c>
-      <c r="E89">
-        <f t="shared" si="2"/>
-        <v>3.2539811975151336E-2</v>
-      </c>
     </row>
-    <row r="90" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C90">
         <f t="shared" si="1"/>
         <v>4.3046117063583557E-2</v>
@@ -41293,12 +39652,8 @@
         <f t="shared" si="0"/>
         <v>3.598654746058997E-2</v>
       </c>
-      <c r="E90">
-        <f t="shared" si="2"/>
-        <v>4.067724270347256E-2</v>
-      </c>
     </row>
-    <row r="91" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C91">
         <f t="shared" si="1"/>
         <v>4.3129216049080966E-2</v>
@@ -41307,12 +39662,8 @@
         <f t="shared" si="0"/>
         <v>3.5058755704557659E-2</v>
       </c>
-      <c r="E91">
-        <f t="shared" si="2"/>
-        <v>3.5112058965003717E-2</v>
-      </c>
     </row>
-    <row r="92" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C92">
         <f>(D40+C40)/2</f>
         <v>4.048694534603417E-2</v>
@@ -41321,12 +39672,8 @@
         <f t="shared" si="0"/>
         <v>3.6893066542129441E-2</v>
       </c>
-      <c r="E92">
-        <f t="shared" si="2"/>
-        <v>3.2978446953918161E-2</v>
-      </c>
     </row>
-    <row r="93" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C93">
         <f t="shared" si="1"/>
         <v>4.2469267537245795E-2</v>
@@ -41335,12 +39682,8 @@
         <f t="shared" si="0"/>
         <v>3.9109397163629565E-2</v>
       </c>
-      <c r="E93">
-        <f t="shared" si="2"/>
-        <v>3.4585471770321133E-2</v>
-      </c>
     </row>
-    <row r="94" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C94">
         <f t="shared" si="1"/>
         <v>3.7308818488362504E-2</v>
@@ -41349,12 +39692,8 @@
         <f t="shared" si="0"/>
         <v>3.4235282929091074E-2</v>
       </c>
-      <c r="E94">
-        <f t="shared" si="2"/>
-        <v>5.4323653007035115E-2</v>
-      </c>
     </row>
-    <row r="95" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C95">
         <f t="shared" si="1"/>
         <v>6.103440843630864E-2</v>
@@ -41363,12 +39702,8 @@
         <f t="shared" si="0"/>
         <v>5.3693424532683956E-2</v>
       </c>
-      <c r="E95">
-        <f t="shared" si="2"/>
-        <v>3.9443119016150031E-2</v>
-      </c>
     </row>
-    <row r="96" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C96">
         <f t="shared" si="1"/>
         <v>7.5079321747904063E-2</v>
@@ -41377,12 +39712,8 @@
         <f t="shared" si="0"/>
         <v>7.1681741951767186E-2</v>
       </c>
-      <c r="E96">
-        <f t="shared" si="2"/>
-        <v>6.6329491533348606E-2</v>
-      </c>
     </row>
-    <row r="97" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C97">
         <f>(D45+C45)/2</f>
         <v>7.3987890534842005E-2</v>
@@ -41391,12 +39722,8 @@
         <f t="shared" si="0"/>
         <v>7.1185739881838683E-2</v>
       </c>
-      <c r="E97">
-        <f t="shared" si="2"/>
-        <v>6.2892720034866109E-2</v>
-      </c>
     </row>
-    <row r="98" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C98">
         <f t="shared" si="1"/>
         <v>3.6355145999683466E-2</v>
@@ -41405,12 +39732,8 @@
         <f t="shared" si="0"/>
         <v>3.2141596734920244E-2</v>
       </c>
-      <c r="E98">
-        <f t="shared" si="2"/>
-        <v>3.0473378998179423E-2</v>
-      </c>
     </row>
-    <row r="99" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C99">
         <f t="shared" si="1"/>
         <v>5.718817236260635E-2</v>
@@ -41419,12 +39742,8 @@
         <f t="shared" si="0"/>
         <v>5.0820611916608062E-2</v>
       </c>
-      <c r="E99">
-        <f t="shared" si="2"/>
-        <v>5.9569968116071424E-2</v>
-      </c>
     </row>
-    <row r="100" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C100">
         <f t="shared" si="1"/>
         <v>3.2862696489712372E-2</v>
@@ -41433,12 +39752,8 @@
         <f t="shared" si="0"/>
         <v>2.8495713559194408E-2</v>
       </c>
-      <c r="E100">
-        <f t="shared" si="2"/>
-        <v>2.9730793847664621E-2</v>
-      </c>
     </row>
-    <row r="101" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C101">
         <f t="shared" si="1"/>
         <v>4.3886407771377742E-2</v>
@@ -41447,12 +39762,8 @@
         <f t="shared" si="0"/>
         <v>4.0275962196145154E-2</v>
       </c>
-      <c r="E101">
-        <f t="shared" si="2"/>
-        <v>3.4109190592754426E-2</v>
-      </c>
     </row>
-    <row r="102" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C102">
         <f t="shared" si="1"/>
         <v>3.8890622076086456E-2</v>
@@ -41461,12 +39772,8 @@
         <f t="shared" si="0"/>
         <v>3.4388161816543431E-2</v>
       </c>
-      <c r="E102">
-        <f t="shared" si="2"/>
-        <v>3.2489077109839115E-2</v>
-      </c>
     </row>
-    <row r="103" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C103">
         <f t="shared" si="1"/>
         <v>6.7644164635798421E-2</v>
@@ -41475,22 +39782,17 @@
         <f t="shared" si="0"/>
         <v>6.0946515285476698E-2</v>
       </c>
-      <c r="E103">
-        <f t="shared" si="2"/>
-        <v>5.2779779279316624E-2</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="C1:H1"/>
+  <mergeCells count="8">
+    <mergeCell ref="C54:D54"/>
     <mergeCell ref="I1:N1"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="M2:N2"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="C1:F1"/>
   </mergeCells>
   <conditionalFormatting sqref="B4:B51">
     <cfRule type="expression" dxfId="2" priority="1">

--- a/PROPUESTA FUNDEMERCA (2.5).xlsx
+++ b/PROPUESTA FUNDEMERCA (2.5).xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="89">
   <si>
     <t>MANAEM LUCUMI</t>
   </si>
@@ -293,6 +293,9 @@
   <si>
     <t>PROPORCIÓN</t>
   </si>
+  <si>
+    <t>PARÁMETRO</t>
+  </si>
 </sst>
 </file>
 
@@ -373,7 +376,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -448,6 +451,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -460,6 +469,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Millares 2" xfId="2"/>
@@ -13703,15 +13713,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>495301</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>147636</xdr:rowOff>
+      <xdr:colOff>514351</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>157161</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -21605,11 +21615,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD53"/>
+  <dimension ref="A1:AD54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P50" sqref="P50"/>
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21622,6 +21632,7 @@
     <col min="27" max="27" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="13" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.25">
@@ -21712,6 +21723,9 @@
       <c r="AC1" s="24" t="s">
         <v>87</v>
       </c>
+      <c r="AD1" s="34" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
@@ -21817,8 +21831,8 @@
         <v>22</v>
       </c>
       <c r="AA2" s="7">
-        <f>IFERROR(1-_xlfn.BINOM.DIST(Z2/2,Z2,Y2/Z2,TRUE),"")</f>
-        <v>1.1900994294188338E-3</v>
+        <f>IFERROR(1-_xlfn.BINOM.DIST(Z2/2,Z2,AD2,TRUE),"")</f>
+        <v>2.8709869463909854E-3</v>
       </c>
       <c r="AB2">
         <f>AVERAGE(C2:X2)</f>
@@ -21829,7 +21843,7 @@
         <v>0.22727272727272727</v>
       </c>
       <c r="AD2">
-        <f>6/24</f>
+        <f>(Y2+1)/(Z2+2)</f>
         <v>0.25</v>
       </c>
     </row>
@@ -21936,9 +21950,9 @@
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="AA3" s="7">
-        <f t="shared" ref="AA3:AA49" si="2">IFERROR(1-_xlfn.BINOM.DIST(Z3/2,Z3,Y3/Z3,TRUE),"")</f>
-        <v>5.5722972225529688E-2</v>
+      <c r="AA3" s="28">
+        <f t="shared" ref="AA3:AA49" si="2">IFERROR(1-_xlfn.BINOM.DIST(Z3/2,Z3,AD3,TRUE),"")</f>
+        <v>7.4093854293142192E-2</v>
       </c>
       <c r="AB3">
         <f t="shared" ref="AB3:AB48" si="3">AVERAGE(C3:X3)</f>
@@ -21947,6 +21961,10 @@
       <c r="AC3">
         <f t="shared" ref="AC3:AC49" si="4">Y3/Z3</f>
         <v>0.33333333333333331</v>
+      </c>
+      <c r="AD3">
+        <f t="shared" ref="AD3:AD49" si="5">(Y3+1)/(Z3+2)</f>
+        <v>0.34782608695652173</v>
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.25">
@@ -22052,9 +22070,9 @@
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="AA4" s="7">
+      <c r="AA4" s="28">
         <f t="shared" si="2"/>
-        <v>1.4252781867980957E-2</v>
+        <v>2.9758545575894191E-2</v>
       </c>
       <c r="AB4">
         <f t="shared" si="3"/>
@@ -22063,6 +22081,10 @@
       <c r="AC4">
         <f t="shared" si="4"/>
         <v>0.25</v>
+      </c>
+      <c r="AD4">
+        <f t="shared" si="5"/>
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.25">
@@ -22168,9 +22190,9 @@
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="AA5" s="7">
+      <c r="AA5" s="28">
         <f t="shared" si="2"/>
-        <v>0.13948164066608992</v>
+        <v>0.15648750319561799</v>
       </c>
       <c r="AB5">
         <f t="shared" si="3"/>
@@ -22179,6 +22201,10 @@
       <c r="AC5">
         <f t="shared" si="4"/>
         <v>0.40909090909090912</v>
+      </c>
+      <c r="AD5">
+        <f t="shared" si="5"/>
+        <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.25">
@@ -22284,9 +22310,9 @@
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="AA6" s="7">
+      <c r="AA6" s="28">
         <f t="shared" si="2"/>
-        <v>7.0035182202499158E-6</v>
+        <v>5.6418602425445386E-5</v>
       </c>
       <c r="AB6">
         <f t="shared" si="3"/>
@@ -22295,6 +22321,10 @@
       <c r="AC6">
         <f t="shared" si="4"/>
         <v>0.13636363636363635</v>
+      </c>
+      <c r="AD6">
+        <f t="shared" si="5"/>
+        <v>0.16666666666666666</v>
       </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.25">
@@ -22400,9 +22430,9 @@
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="AA7" s="7">
+      <c r="AA7" s="28">
         <f t="shared" si="2"/>
-        <v>0.13948164066608992</v>
+        <v>0.15648750319561799</v>
       </c>
       <c r="AB7">
         <f t="shared" si="3"/>
@@ -22411,6 +22441,10 @@
       <c r="AC7">
         <f t="shared" si="4"/>
         <v>0.40909090909090912</v>
+      </c>
+      <c r="AD7">
+        <f t="shared" si="5"/>
+        <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.25">
@@ -22516,9 +22550,9 @@
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="AA8" s="7">
+      <c r="AA8" s="28">
         <f t="shared" si="2"/>
-        <v>8.596318690212712E-8</v>
+        <v>2.7745720303506971E-6</v>
       </c>
       <c r="AB8">
         <f t="shared" si="3"/>
@@ -22527,6 +22561,10 @@
       <c r="AC8">
         <f t="shared" si="4"/>
         <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="AD8">
+        <f t="shared" si="5"/>
+        <v>0.125</v>
       </c>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.25">
@@ -22632,9 +22670,9 @@
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="AA9" s="7">
+      <c r="AA9" s="28">
         <f t="shared" si="2"/>
-        <v>7.0035182202499158E-6</v>
+        <v>5.6418602425445386E-5</v>
       </c>
       <c r="AB9">
         <f t="shared" si="3"/>
@@ -22643,6 +22681,10 @@
       <c r="AC9">
         <f t="shared" si="4"/>
         <v>0.13636363636363635</v>
+      </c>
+      <c r="AD9">
+        <f t="shared" si="5"/>
+        <v>0.16666666666666666</v>
       </c>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.25">
@@ -22748,9 +22790,9 @@
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="AA10" s="7">
+      <c r="AA10" s="28">
         <f t="shared" si="2"/>
-        <v>1.1900994294188338E-3</v>
+        <v>2.8709869463909854E-3</v>
       </c>
       <c r="AB10">
         <f t="shared" si="3"/>
@@ -22759,6 +22801,10 @@
       <c r="AC10">
         <f t="shared" si="4"/>
         <v>0.22727272727272727</v>
+      </c>
+      <c r="AD10">
+        <f t="shared" si="5"/>
+        <v>0.25</v>
       </c>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.25">
@@ -22864,9 +22910,9 @@
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="AA11" s="7">
+      <c r="AA11" s="28">
         <f t="shared" si="2"/>
-        <v>0.38853007823222008</v>
+        <v>0.40310924899344946</v>
       </c>
       <c r="AB11">
         <f t="shared" si="3"/>
@@ -22875,6 +22921,10 @@
       <c r="AC11">
         <f t="shared" si="4"/>
         <v>0.46153846153846156</v>
+      </c>
+      <c r="AD11">
+        <f t="shared" si="5"/>
+        <v>0.46666666666666667</v>
       </c>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.25">
@@ -22980,9 +23030,9 @@
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="AA12" s="7">
+      <c r="AA12" s="28">
         <f t="shared" si="2"/>
-        <v>1.8025671460586423E-5</v>
+        <v>6.1332820135762134E-4</v>
       </c>
       <c r="AB12">
         <f t="shared" si="3"/>
@@ -22991,6 +23041,10 @@
       <c r="AC12">
         <f t="shared" si="4"/>
         <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="AD12">
+        <f t="shared" si="5"/>
+        <v>0.13333333333333333</v>
       </c>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.25">
@@ -23096,9 +23150,9 @@
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="AA13" s="7">
+      <c r="AA13" s="28">
         <f t="shared" si="2"/>
-        <v>4.3056902669614816E-3</v>
+        <v>9.0403163632502004E-3</v>
       </c>
       <c r="AB13">
         <f t="shared" si="3"/>
@@ -23107,6 +23161,10 @@
       <c r="AC13">
         <f t="shared" si="4"/>
         <v>0.23809523809523808</v>
+      </c>
+      <c r="AD13">
+        <f t="shared" si="5"/>
+        <v>0.2608695652173913</v>
       </c>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.25">
@@ -23212,9 +23270,9 @@
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="AA14" s="7">
+      <c r="AA14" s="28">
         <f t="shared" si="2"/>
-        <v>6.2699623345580879E-2</v>
+        <v>7.8013382843864942E-2</v>
       </c>
       <c r="AB14">
         <f t="shared" si="3"/>
@@ -23223,6 +23281,10 @@
       <c r="AC14">
         <f t="shared" si="4"/>
         <v>0.36363636363636365</v>
+      </c>
+      <c r="AD14">
+        <f t="shared" si="5"/>
+        <v>0.375</v>
       </c>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.25">
@@ -23328,9 +23390,9 @@
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="AA15" s="7">
+      <c r="AA15" s="28">
         <f t="shared" si="2"/>
-        <v>8.2967505810049857E-7</v>
+        <v>1.8465673012113548E-5</v>
       </c>
       <c r="AB15">
         <f t="shared" si="3"/>
@@ -23339,6 +23401,10 @@
       <c r="AC15">
         <f t="shared" si="4"/>
         <v>9.5238095238095233E-2</v>
+      </c>
+      <c r="AD15">
+        <f t="shared" si="5"/>
+        <v>0.13043478260869565</v>
       </c>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.25">
@@ -23444,9 +23510,9 @@
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="AA16" s="7">
+      <c r="AA16" s="28">
         <f t="shared" si="2"/>
-        <v>8.596318690212712E-8</v>
+        <v>2.7745720303506971E-6</v>
       </c>
       <c r="AB16">
         <f t="shared" si="3"/>
@@ -23456,8 +23522,12 @@
         <f t="shared" si="4"/>
         <v>9.0909090909090912E-2</v>
       </c>
+      <c r="AD16">
+        <f t="shared" si="5"/>
+        <v>0.125</v>
+      </c>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>16</v>
       </c>
@@ -23560,9 +23630,9 @@
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="AA17" s="7">
+      <c r="AA17" s="28">
         <f t="shared" si="2"/>
-        <v>1.8330193523772964E-2</v>
+        <v>2.9322235528334017E-2</v>
       </c>
       <c r="AB17">
         <f t="shared" si="3"/>
@@ -23572,8 +23642,12 @@
         <f t="shared" si="4"/>
         <v>0.2857142857142857</v>
       </c>
+      <c r="AD17">
+        <f t="shared" si="5"/>
+        <v>0.30434782608695654</v>
+      </c>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>17</v>
       </c>
@@ -23676,9 +23750,9 @@
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="AA18" s="7">
+      <c r="AA18" s="28">
         <f t="shared" si="2"/>
-        <v>4.3056902669614816E-3</v>
+        <v>9.0403163632502004E-3</v>
       </c>
       <c r="AB18">
         <f t="shared" si="3"/>
@@ -23688,8 +23762,12 @@
         <f t="shared" si="4"/>
         <v>0.23809523809523808</v>
       </c>
+      <c r="AD18">
+        <f t="shared" si="5"/>
+        <v>0.2608695652173913</v>
+      </c>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>18</v>
       </c>
@@ -23792,9 +23870,9 @@
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="AA19" s="7">
+      <c r="AA19" s="28">
         <f t="shared" si="2"/>
-        <v>6.2699623345580879E-2</v>
+        <v>7.8013382843864942E-2</v>
       </c>
       <c r="AB19">
         <f t="shared" si="3"/>
@@ -23804,8 +23882,12 @@
         <f t="shared" si="4"/>
         <v>0.36363636363636365</v>
       </c>
+      <c r="AD19">
+        <f t="shared" si="5"/>
+        <v>0.375</v>
+      </c>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>19</v>
       </c>
@@ -23908,9 +23990,9 @@
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="AA20" s="7">
+      <c r="AA20" s="28">
         <f t="shared" si="2"/>
-        <v>6.448626077570907E-10</v>
+        <v>3.3117042852470746E-7</v>
       </c>
       <c r="AB20">
         <f t="shared" si="3"/>
@@ -23920,8 +24002,12 @@
         <f t="shared" si="4"/>
         <v>4.7619047619047616E-2</v>
       </c>
+      <c r="AD20">
+        <f t="shared" si="5"/>
+        <v>8.6956521739130432E-2</v>
+      </c>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>20</v>
       </c>
@@ -24024,9 +24110,9 @@
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="AA21" s="7">
+      <c r="AA21" s="28">
         <f t="shared" si="2"/>
-        <v>4.4162101180855728E-5</v>
+        <v>2.76765340429308E-4</v>
       </c>
       <c r="AB21">
         <f t="shared" si="3"/>
@@ -24036,8 +24122,12 @@
         <f t="shared" si="4"/>
         <v>0.14285714285714285</v>
       </c>
+      <c r="AD21">
+        <f t="shared" si="5"/>
+        <v>0.17391304347826086</v>
+      </c>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <v>21</v>
       </c>
@@ -24140,9 +24230,9 @@
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="AA22" s="7">
+      <c r="AA22" s="28">
         <f t="shared" si="2"/>
-        <v>1.3597907757478822E-4</v>
+        <v>5.1921632442675225E-4</v>
       </c>
       <c r="AB22">
         <f t="shared" si="3"/>
@@ -24152,8 +24242,12 @@
         <f t="shared" si="4"/>
         <v>0.18181818181818182</v>
       </c>
+      <c r="AD22">
+        <f t="shared" si="5"/>
+        <v>0.20833333333333334</v>
+      </c>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <v>22</v>
       </c>
@@ -24256,9 +24350,9 @@
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="AA23" s="7">
+      <c r="AA23" s="28">
         <f t="shared" si="2"/>
-        <v>0.94198765971836673</v>
+        <v>0.92125797178973123</v>
       </c>
       <c r="AB23">
         <f t="shared" si="3"/>
@@ -24268,8 +24362,12 @@
         <f t="shared" si="4"/>
         <v>0.68181818181818177</v>
       </c>
+      <c r="AD23">
+        <f t="shared" si="5"/>
+        <v>0.66666666666666663</v>
+      </c>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
         <v>23</v>
       </c>
@@ -24372,9 +24470,9 @@
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="AA24" s="7">
+      <c r="AA24" s="28">
         <f t="shared" si="2"/>
-        <v>1.3597907757478822E-4</v>
+        <v>5.1921632442675225E-4</v>
       </c>
       <c r="AB24">
         <f t="shared" si="3"/>
@@ -24384,8 +24482,12 @@
         <f t="shared" si="4"/>
         <v>0.18181818181818182</v>
       </c>
+      <c r="AD24">
+        <f t="shared" si="5"/>
+        <v>0.20833333333333334</v>
+      </c>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <v>24</v>
       </c>
@@ -24488,9 +24590,9 @@
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="AA25" s="7">
+      <c r="AA25" s="28">
         <f t="shared" si="2"/>
-        <v>1.3597907757478822E-4</v>
+        <v>5.1921632442675225E-4</v>
       </c>
       <c r="AB25">
         <f t="shared" si="3"/>
@@ -24500,8 +24602,12 @@
         <f t="shared" si="4"/>
         <v>0.18181818181818182</v>
       </c>
+      <c r="AD25">
+        <f t="shared" si="5"/>
+        <v>0.20833333333333334</v>
+      </c>
     </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A26" s="7">
         <v>25</v>
       </c>
@@ -24604,9 +24710,9 @@
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="AA26" s="7">
+      <c r="AA26" s="28">
         <f t="shared" si="2"/>
-        <v>1.3597907757478822E-4</v>
+        <v>5.1921632442675225E-4</v>
       </c>
       <c r="AB26">
         <f t="shared" si="3"/>
@@ -24616,8 +24722,12 @@
         <f t="shared" si="4"/>
         <v>0.18181818181818182</v>
       </c>
+      <c r="AD26">
+        <f t="shared" si="5"/>
+        <v>0.20833333333333334</v>
+      </c>
     </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
         <v>26</v>
       </c>
@@ -24720,7 +24830,7 @@
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="AA27" s="7">
+      <c r="AA27" s="28">
         <f t="shared" si="2"/>
         <v>0.41590595245361339</v>
       </c>
@@ -24732,8 +24842,12 @@
         <f t="shared" si="4"/>
         <v>0.5</v>
       </c>
+      <c r="AD27">
+        <f t="shared" si="5"/>
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A28" s="7">
         <v>27</v>
       </c>
@@ -24836,9 +24950,9 @@
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="AA28" s="7">
+      <c r="AA28" s="28">
         <f t="shared" si="2"/>
-        <v>6.2306848894930766E-3</v>
+        <v>1.1087825663388839E-2</v>
       </c>
       <c r="AB28">
         <f t="shared" si="3"/>
@@ -24848,8 +24962,12 @@
         <f t="shared" si="4"/>
         <v>0.27272727272727271</v>
       </c>
+      <c r="AD28">
+        <f t="shared" si="5"/>
+        <v>0.29166666666666669</v>
+      </c>
     </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A29" s="7">
         <v>28</v>
       </c>
@@ -24952,9 +25070,9 @@
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="AA29" s="7">
+      <c r="AA29" s="28">
         <f t="shared" si="2"/>
-        <v>6.2699623345580879E-2</v>
+        <v>7.8013382843864942E-2</v>
       </c>
       <c r="AB29">
         <f t="shared" si="3"/>
@@ -24964,8 +25082,12 @@
         <f t="shared" si="4"/>
         <v>0.36363636363636365</v>
       </c>
+      <c r="AD29">
+        <f t="shared" si="5"/>
+        <v>0.375</v>
+      </c>
     </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A30" s="7">
         <v>29</v>
       </c>
@@ -25068,9 +25190,9 @@
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="AA30" s="7">
+      <c r="AA30" s="28">
         <f t="shared" si="2"/>
-        <v>7.0035182202499158E-6</v>
+        <v>5.6418602425445386E-5</v>
       </c>
       <c r="AB30">
         <f t="shared" si="3"/>
@@ -25080,8 +25202,12 @@
         <f t="shared" si="4"/>
         <v>0.13636363636363635</v>
       </c>
+      <c r="AD30">
+        <f t="shared" si="5"/>
+        <v>0.16666666666666666</v>
+      </c>
     </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A31" s="7">
         <v>30</v>
       </c>
@@ -25184,9 +25310,9 @@
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="AA31" s="7">
+      <c r="AA31" s="28">
         <f t="shared" si="2"/>
-        <v>2.2674624937796706E-2</v>
+        <v>3.270391624079072E-2</v>
       </c>
       <c r="AB31">
         <f t="shared" si="3"/>
@@ -25196,8 +25322,12 @@
         <f t="shared" si="4"/>
         <v>0.31818181818181818</v>
       </c>
+      <c r="AD31">
+        <f t="shared" si="5"/>
+        <v>0.33333333333333331</v>
+      </c>
     </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A32" s="7">
         <v>31</v>
       </c>
@@ -25300,9 +25430,9 @@
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="AA32" s="7">
+      <c r="AA32" s="28">
         <f t="shared" si="2"/>
-        <v>1.1900994294188338E-3</v>
+        <v>2.8709869463909854E-3</v>
       </c>
       <c r="AB32">
         <f t="shared" si="3"/>
@@ -25312,8 +25442,12 @@
         <f t="shared" si="4"/>
         <v>0.22727272727272727</v>
       </c>
+      <c r="AD32">
+        <f t="shared" si="5"/>
+        <v>0.25</v>
+      </c>
     </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A33" s="7">
         <v>32</v>
       </c>
@@ -25416,9 +25550,9 @@
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="AA33" s="7">
+      <c r="AA33" s="28">
         <f t="shared" si="2"/>
-        <v>7.0035182202499158E-6</v>
+        <v>5.6418602425445386E-5</v>
       </c>
       <c r="AB33">
         <f t="shared" si="3"/>
@@ -25428,8 +25562,12 @@
         <f t="shared" si="4"/>
         <v>0.13636363636363635</v>
       </c>
+      <c r="AD33">
+        <f t="shared" si="5"/>
+        <v>0.16666666666666666</v>
+      </c>
     </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A34" s="7">
         <v>33</v>
       </c>
@@ -25532,7 +25670,7 @@
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="AA34" s="7">
+      <c r="AA34" s="28">
         <f t="shared" si="2"/>
         <v>0.41590595245361339</v>
       </c>
@@ -25544,8 +25682,12 @@
         <f t="shared" si="4"/>
         <v>0.5</v>
       </c>
+      <c r="AD34">
+        <f t="shared" si="5"/>
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A35" s="7">
         <v>34</v>
       </c>
@@ -25648,9 +25790,9 @@
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="AA35" s="7">
+      <c r="AA35" s="28">
         <f t="shared" si="2"/>
-        <v>7.0035182202499158E-6</v>
+        <v>5.6418602425445386E-5</v>
       </c>
       <c r="AB35">
         <f t="shared" si="3"/>
@@ -25660,8 +25802,12 @@
         <f t="shared" si="4"/>
         <v>0.13636363636363635</v>
       </c>
+      <c r="AD35">
+        <f t="shared" si="5"/>
+        <v>0.16666666666666666</v>
+      </c>
     </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A36" s="7">
         <v>35</v>
       </c>
@@ -25764,9 +25910,9 @@
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="AA36" s="7">
+      <c r="AA36" s="28">
         <f t="shared" si="2"/>
-        <v>1.1900994294188338E-3</v>
+        <v>2.8709869463909854E-3</v>
       </c>
       <c r="AB36">
         <f t="shared" si="3"/>
@@ -25776,8 +25922,12 @@
         <f t="shared" si="4"/>
         <v>0.22727272727272727</v>
       </c>
+      <c r="AD36">
+        <f t="shared" si="5"/>
+        <v>0.25</v>
+      </c>
     </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
         <v>36</v>
       </c>
@@ -25880,9 +26030,9 @@
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="AA37" s="7">
+      <c r="AA37" s="28">
         <f t="shared" si="2"/>
-        <v>8.596318690212712E-8</v>
+        <v>2.7745720303506971E-6</v>
       </c>
       <c r="AB37">
         <f t="shared" si="3"/>
@@ -25892,8 +26042,12 @@
         <f t="shared" si="4"/>
         <v>9.0909090909090912E-2</v>
       </c>
+      <c r="AD37">
+        <f t="shared" si="5"/>
+        <v>0.125</v>
+      </c>
     </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A38" s="7">
         <v>37</v>
       </c>
@@ -25996,9 +26150,9 @@
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="AA38" s="7">
+      <c r="AA38" s="28">
         <f t="shared" si="2"/>
-        <v>6.2615408933375249E-6</v>
+        <v>9.4164659302786724E-5</v>
       </c>
       <c r="AB38">
         <f t="shared" si="3"/>
@@ -26008,8 +26162,12 @@
         <f t="shared" si="4"/>
         <v>0.10526315789473684</v>
       </c>
+      <c r="AD38">
+        <f t="shared" si="5"/>
+        <v>0.14285714285714285</v>
+      </c>
     </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A39" s="7">
         <v>38</v>
       </c>
@@ -26112,9 +26270,9 @@
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="AA39" s="7">
+      <c r="AA39" s="28">
         <f t="shared" si="2"/>
-        <v>8.596318690212712E-8</v>
+        <v>2.7745720303506971E-6</v>
       </c>
       <c r="AB39">
         <f t="shared" si="3"/>
@@ -26124,8 +26282,12 @@
         <f t="shared" si="4"/>
         <v>9.0909090909090912E-2</v>
       </c>
+      <c r="AD39">
+        <f t="shared" si="5"/>
+        <v>0.125</v>
+      </c>
     </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A40" s="7">
         <v>39</v>
       </c>
@@ -26228,9 +26390,9 @@
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="AA40" s="7">
+      <c r="AA40" s="28">
         <f t="shared" si="2"/>
-        <v>6.2306848894930766E-3</v>
+        <v>1.1087825663388839E-2</v>
       </c>
       <c r="AB40">
         <f t="shared" si="3"/>
@@ -26240,8 +26402,12 @@
         <f t="shared" si="4"/>
         <v>0.27272727272727271</v>
       </c>
+      <c r="AD40">
+        <f t="shared" si="5"/>
+        <v>0.29166666666666669</v>
+      </c>
     </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A41" s="7">
         <v>40</v>
       </c>
@@ -26344,9 +26510,9 @@
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="AA41" s="7">
+      <c r="AA41" s="28">
         <f t="shared" si="2"/>
-        <v>6.2306848894930766E-3</v>
+        <v>1.1087825663388839E-2</v>
       </c>
       <c r="AB41">
         <f t="shared" si="3"/>
@@ -26356,8 +26522,12 @@
         <f t="shared" si="4"/>
         <v>0.27272727272727271</v>
       </c>
+      <c r="AD41">
+        <f t="shared" si="5"/>
+        <v>0.29166666666666669</v>
+      </c>
     </row>
-    <row r="42" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A42" s="7">
         <v>41</v>
       </c>
@@ -26460,9 +26630,9 @@
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="AA42" s="7">
+      <c r="AA42" s="28">
         <f t="shared" si="2"/>
-        <v>0.13948164066608992</v>
+        <v>0.15648750319561799</v>
       </c>
       <c r="AB42">
         <f t="shared" si="3"/>
@@ -26472,8 +26642,12 @@
         <f t="shared" si="4"/>
         <v>0.40909090909090912</v>
       </c>
+      <c r="AD42">
+        <f t="shared" si="5"/>
+        <v>0.41666666666666669</v>
+      </c>
     </row>
-    <row r="43" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A43" s="7">
         <v>42</v>
       </c>
@@ -26576,7 +26750,7 @@
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="AA43" s="7">
+      <c r="AA43" s="28">
         <f t="shared" si="2"/>
         <v>0.41590595245361339</v>
       </c>
@@ -26588,8 +26762,12 @@
         <f t="shared" si="4"/>
         <v>0.5</v>
       </c>
+      <c r="AD43">
+        <f t="shared" si="5"/>
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="44" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A44" s="7">
         <v>43</v>
       </c>
@@ -26692,9 +26870,9 @@
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="AA44" s="7">
+      <c r="AA44" s="28">
         <f t="shared" si="2"/>
-        <v>8.596318690212712E-8</v>
+        <v>2.7745720303506971E-6</v>
       </c>
       <c r="AB44">
         <f t="shared" si="3"/>
@@ -26704,8 +26882,12 @@
         <f t="shared" si="4"/>
         <v>9.0909090909090912E-2</v>
       </c>
+      <c r="AD44">
+        <f t="shared" si="5"/>
+        <v>0.125</v>
+      </c>
     </row>
-    <row r="45" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A45" s="7">
         <v>44</v>
       </c>
@@ -26808,9 +26990,9 @@
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="AA45" s="7">
+      <c r="AA45" s="28">
         <f t="shared" si="2"/>
-        <v>6.2306848894930766E-3</v>
+        <v>1.1087825663388839E-2</v>
       </c>
       <c r="AB45">
         <f t="shared" si="3"/>
@@ -26820,8 +27002,12 @@
         <f t="shared" si="4"/>
         <v>0.27272727272727271</v>
       </c>
+      <c r="AD45">
+        <f t="shared" si="5"/>
+        <v>0.29166666666666669</v>
+      </c>
     </row>
-    <row r="46" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A46" s="7">
         <v>45</v>
       </c>
@@ -26924,9 +27110,9 @@
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="AA46" s="7">
+      <c r="AA46" s="28">
         <f t="shared" si="2"/>
-        <v>5.3701942132056146E-6</v>
+        <v>7.8569523276450504E-5</v>
       </c>
       <c r="AB46">
         <f t="shared" si="3"/>
@@ -26936,8 +27122,12 @@
         <f t="shared" si="4"/>
         <v>0.1111111111111111</v>
       </c>
+      <c r="AD46">
+        <f t="shared" si="5"/>
+        <v>0.15</v>
+      </c>
     </row>
-    <row r="47" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A47" s="7">
         <v>46</v>
       </c>
@@ -27040,9 +27230,9 @@
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="AA47" s="7">
+      <c r="AA47" s="28">
         <f t="shared" si="2"/>
-        <v>4.3056902669614816E-3</v>
+        <v>9.0403163632502004E-3</v>
       </c>
       <c r="AB47">
         <f t="shared" si="3"/>
@@ -27052,8 +27242,12 @@
         <f t="shared" si="4"/>
         <v>0.23809523809523808</v>
       </c>
+      <c r="AD47">
+        <f t="shared" si="5"/>
+        <v>0.2608695652173913</v>
+      </c>
     </row>
-    <row r="48" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A48" s="7">
         <v>47</v>
       </c>
@@ -27156,9 +27350,9 @@
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="AA48" s="7">
+      <c r="AA48" s="28">
         <f t="shared" si="2"/>
-        <v>8.596318690212712E-8</v>
+        <v>2.7745720303506971E-6</v>
       </c>
       <c r="AB48">
         <f t="shared" si="3"/>
@@ -27168,8 +27362,12 @@
         <f t="shared" si="4"/>
         <v>9.0909090909090912E-2</v>
       </c>
+      <c r="AD48">
+        <f t="shared" si="5"/>
+        <v>0.125</v>
+      </c>
     </row>
-    <row r="49" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A49" s="7">
         <v>48</v>
       </c>
@@ -27272,9 +27470,9 @@
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="AA49" s="7">
+      <c r="AA49" s="28">
         <f t="shared" si="2"/>
-        <v>0.25958607259719702</v>
+        <v>0.27144168312328132</v>
       </c>
       <c r="AB49">
         <f>AVERAGE(C49:X49)</f>
@@ -27284,8 +27482,12 @@
         <f t="shared" si="4"/>
         <v>0.45454545454545453</v>
       </c>
+      <c r="AD49">
+        <f t="shared" si="5"/>
+        <v>0.45833333333333331</v>
+      </c>
     </row>
-    <row r="50" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A50" s="7"/>
       <c r="B50" s="4" t="s">
         <v>84</v>
@@ -27295,87 +27497,87 @@
         <v>22</v>
       </c>
       <c r="D50" s="7">
-        <f t="shared" ref="D50:X50" si="5">COUNTIF(D2:D49,"&gt;0,05")</f>
+        <f t="shared" ref="D50:X50" si="6">COUNTIF(D2:D49,"&gt;0,05")</f>
         <v>23</v>
       </c>
       <c r="E50" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>30</v>
       </c>
       <c r="F50" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>26</v>
       </c>
       <c r="G50" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>21</v>
       </c>
       <c r="H50" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="I50" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="J50" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="K50" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="L50" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
       <c r="M50" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="N50" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="O50" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="P50" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="Q50" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="R50" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="S50" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="T50" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="U50" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
       <c r="V50" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
       <c r="W50" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>16</v>
       </c>
       <c r="X50" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>17</v>
       </c>
       <c r="Y50" s="7">
@@ -27385,7 +27587,7 @@
       <c r="Z50" s="7"/>
       <c r="AA50" s="7"/>
     </row>
-    <row r="51" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A51" s="7"/>
       <c r="B51" s="4" t="s">
         <v>85</v>
@@ -27395,87 +27597,87 @@
         <v>41</v>
       </c>
       <c r="D51" s="7">
-        <f t="shared" ref="D51:X51" si="6">COUNT(D2:D49)</f>
+        <f t="shared" ref="D51:X51" si="7">COUNT(D2:D49)</f>
         <v>45</v>
       </c>
       <c r="E51" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>45</v>
       </c>
       <c r="F51" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>46</v>
       </c>
       <c r="G51" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>46</v>
       </c>
       <c r="H51" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>46</v>
       </c>
       <c r="I51" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>46</v>
       </c>
       <c r="J51" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>46</v>
       </c>
       <c r="K51" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>47</v>
       </c>
       <c r="L51" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>47</v>
       </c>
       <c r="M51" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>47</v>
       </c>
       <c r="N51" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>47</v>
       </c>
       <c r="O51" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>47</v>
       </c>
       <c r="P51" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>46</v>
       </c>
       <c r="Q51" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>47</v>
       </c>
       <c r="R51" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>46</v>
       </c>
       <c r="S51" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>47</v>
       </c>
       <c r="T51" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>47</v>
       </c>
       <c r="U51" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>47</v>
       </c>
       <c r="V51" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>46</v>
       </c>
       <c r="W51" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>47</v>
       </c>
       <c r="X51" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44</v>
       </c>
       <c r="Y51" s="7"/>
@@ -27485,104 +27687,104 @@
       </c>
       <c r="AA51" s="7"/>
     </row>
-    <row r="52" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A52" s="7"/>
       <c r="B52" s="4" t="s">
         <v>83</v>
       </c>
       <c r="C52" s="7">
-        <f>IFERROR(1-_xlfn.BINOM.DIST(C51/2,C51,C50/C51,TRUE),"")</f>
-        <v>0.6815439644947815</v>
-      </c>
-      <c r="D52" s="7">
-        <f t="shared" ref="D52:X52" si="7">IFERROR(1-_xlfn.BINOM.DIST(D51/2,D51,D50/D51,TRUE),"")</f>
-        <v>0.55958619430570367</v>
-      </c>
-      <c r="E52" s="7">
-        <f t="shared" si="7"/>
-        <v>0.98969828668624293</v>
-      </c>
-      <c r="F52" s="7">
-        <f t="shared" si="7"/>
-        <v>0.77213047027167092</v>
-      </c>
-      <c r="G52" s="7">
-        <f t="shared" si="7"/>
-        <v>0.22924033711667069</v>
-      </c>
-      <c r="H52" s="7">
-        <f t="shared" si="7"/>
-        <v>4.0634162701280729E-14</v>
-      </c>
-      <c r="I52" s="7">
-        <f t="shared" si="7"/>
-        <v>4.0634162701280729E-14</v>
-      </c>
-      <c r="J52" s="7">
-        <f t="shared" si="7"/>
-        <v>2.4653179497846622E-10</v>
-      </c>
-      <c r="K52" s="7">
-        <f t="shared" si="7"/>
-        <v>2.8217284064879777E-10</v>
-      </c>
-      <c r="L52" s="7">
-        <f t="shared" si="7"/>
-        <v>9.1186206407911641E-7</v>
-      </c>
-      <c r="M52" s="7">
-        <f t="shared" si="7"/>
-        <v>6.4293489958622274E-6</v>
-      </c>
-      <c r="N52" s="7">
-        <f t="shared" si="7"/>
-        <v>4.75175454539567E-14</v>
-      </c>
-      <c r="O52" s="7">
-        <f t="shared" si="7"/>
-        <v>9.4746788859012554E-8</v>
-      </c>
-      <c r="P52" s="7">
-        <f t="shared" si="7"/>
-        <v>4.0634162701280729E-14</v>
-      </c>
-      <c r="Q52" s="7">
-        <f t="shared" si="7"/>
-        <v>6.4293489958622274E-6</v>
-      </c>
-      <c r="R52" s="7">
-        <f t="shared" si="7"/>
-        <v>5.1947335322211075E-12</v>
-      </c>
-      <c r="S52" s="7">
-        <f t="shared" si="7"/>
+        <f>IFERROR(1-_xlfn.BINOM.DIST(C51/2,C51,C54,TRUE),"")</f>
+        <v>0.67364878007275264</v>
+      </c>
+      <c r="D52" s="28">
+        <f t="shared" ref="D52:X52" si="8">IFERROR(1-_xlfn.BINOM.DIST(D51/2,D51,D54,TRUE),"")</f>
+        <v>0.55706778040425065</v>
+      </c>
+      <c r="E52" s="28">
+        <f t="shared" si="8"/>
+        <v>0.9864827730473148</v>
+      </c>
+      <c r="F52" s="28">
+        <f t="shared" si="8"/>
+        <v>0.76064461146873785</v>
+      </c>
+      <c r="G52" s="28">
+        <f t="shared" si="8"/>
+        <v>0.2368409347343412</v>
+      </c>
+      <c r="H52" s="28">
+        <f t="shared" si="8"/>
+        <v>2.0797807920303057E-12</v>
+      </c>
+      <c r="I52" s="28">
+        <f t="shared" si="8"/>
+        <v>2.0797807920303057E-12</v>
+      </c>
+      <c r="J52" s="28">
+        <f t="shared" si="8"/>
+        <v>2.4730759662361379E-9</v>
+      </c>
+      <c r="K52" s="28">
+        <f t="shared" si="8"/>
+        <v>2.8611011337886794E-9</v>
+      </c>
+      <c r="L52" s="28">
+        <f t="shared" si="8"/>
+        <v>2.9958651649453216E-6</v>
+      </c>
+      <c r="M52" s="28">
+        <f t="shared" si="8"/>
+        <v>1.6866356346789679E-5</v>
+      </c>
+      <c r="N52" s="28">
+        <f t="shared" si="8"/>
+        <v>2.4571455981003965E-12</v>
+      </c>
+      <c r="O52" s="28">
+        <f t="shared" si="8"/>
+        <v>4.1300766429053226E-7</v>
+      </c>
+      <c r="P52" s="28">
+        <f t="shared" si="8"/>
+        <v>2.0797807920303057E-12</v>
+      </c>
+      <c r="Q52" s="28">
+        <f t="shared" si="8"/>
+        <v>1.6866356346789679E-5</v>
+      </c>
+      <c r="R52" s="28">
+        <f t="shared" si="8"/>
+        <v>1.0109968417992832E-10</v>
+      </c>
+      <c r="S52" s="28">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="T52" s="7">
-        <f t="shared" si="7"/>
+      <c r="T52" s="28">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="U52" s="7">
-        <f t="shared" si="7"/>
-        <v>1.5518257116586831E-4</v>
-      </c>
-      <c r="V52" s="7">
-        <f t="shared" si="7"/>
-        <v>1.4396443453390528E-4</v>
-      </c>
-      <c r="W52" s="7">
-        <f t="shared" si="7"/>
-        <v>1.1939174859695978E-2</v>
-      </c>
-      <c r="X52" s="7">
-        <f t="shared" si="7"/>
-        <v>4.5763889335864172E-2</v>
+      <c r="U52" s="28">
+        <f t="shared" si="8"/>
+        <v>2.9221375461285781E-4</v>
+      </c>
+      <c r="V52" s="28">
+        <f t="shared" si="8"/>
+        <v>2.6834223118743505E-4</v>
+      </c>
+      <c r="W52" s="28">
+        <f t="shared" si="8"/>
+        <v>1.5306636571632781E-2</v>
+      </c>
+      <c r="X52" s="28">
+        <f t="shared" si="8"/>
+        <v>5.2739194356755892E-2</v>
       </c>
       <c r="Y52" s="7"/>
       <c r="Z52" s="7"/>
       <c r="AA52" s="7"/>
     </row>
-    <row r="53" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B53" s="23" t="s">
         <v>86</v>
       </c>
@@ -27591,88 +27793,181 @@
         <v>5.7317884812787163E-2</v>
       </c>
       <c r="D53">
-        <f t="shared" ref="D53:X53" si="8">AVERAGE(D2:D49)</f>
+        <f t="shared" ref="D53:X53" si="9">AVERAGE(D2:D49)</f>
         <v>8.0803391161001437E-2</v>
       </c>
       <c r="E53">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>9.123072656640778E-2</v>
       </c>
       <c r="F53">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>7.9771487131238092E-2</v>
       </c>
       <c r="G53">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.7617263019192552E-2</v>
       </c>
       <c r="H53">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3.0992129877649256E-2</v>
       </c>
       <c r="I53">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.8377127671693595E-2</v>
       </c>
       <c r="J53">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3.4306136591163924E-2</v>
       </c>
       <c r="K53">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3.0816430036799135E-2</v>
       </c>
       <c r="L53">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3.8005586294063122E-2</v>
       </c>
       <c r="M53">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4.4531476354511823E-2</v>
       </c>
       <c r="N53">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3.0113428696336944E-2</v>
       </c>
       <c r="O53">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4.1501676502585537E-2</v>
       </c>
       <c r="P53">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3.3747801619440201E-2</v>
       </c>
       <c r="Q53">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3.5478143725675336E-2</v>
       </c>
       <c r="R53">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3.6733379830558605E-2</v>
       </c>
       <c r="S53">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.6912924900204645E-2</v>
       </c>
       <c r="T53">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.8572139628102677E-2</v>
       </c>
       <c r="U53">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4.7480986934131213E-2</v>
       </c>
       <c r="V53">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3.9816256743845965E-2</v>
       </c>
       <c r="W53">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4.1619077268521619E-2</v>
       </c>
       <c r="X53">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4.9482593269625112E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="B54" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="C54">
+        <f>(C50+1)/(C51+2)</f>
+        <v>0.53488372093023251</v>
+      </c>
+      <c r="D54">
+        <f t="shared" ref="D54:X54" si="10">(D50+1)/(D51+2)</f>
+        <v>0.51063829787234039</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="10"/>
+        <v>0.65957446808510634</v>
+      </c>
+      <c r="F54">
+        <f t="shared" si="10"/>
+        <v>0.5625</v>
+      </c>
+      <c r="G54">
+        <f t="shared" si="10"/>
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="H54">
+        <f t="shared" si="10"/>
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="I54">
+        <f t="shared" si="10"/>
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="J54">
+        <f t="shared" si="10"/>
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="K54">
+        <f t="shared" si="10"/>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="L54">
+        <f t="shared" si="10"/>
+        <v>0.20408163265306123</v>
+      </c>
+      <c r="M54">
+        <f t="shared" si="10"/>
+        <v>0.22448979591836735</v>
+      </c>
+      <c r="N54">
+        <f t="shared" si="10"/>
+        <v>0.10204081632653061</v>
+      </c>
+      <c r="O54">
+        <f t="shared" si="10"/>
+        <v>0.18367346938775511</v>
+      </c>
+      <c r="P54">
+        <f t="shared" si="10"/>
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="Q54">
+        <f t="shared" si="10"/>
+        <v>0.22448979591836735</v>
+      </c>
+      <c r="R54">
+        <f t="shared" si="10"/>
+        <v>0.125</v>
+      </c>
+      <c r="S54">
+        <f t="shared" si="10"/>
+        <v>4.0816326530612242E-2</v>
+      </c>
+      <c r="T54">
+        <f t="shared" si="10"/>
+        <v>4.0816326530612242E-2</v>
+      </c>
+      <c r="U54">
+        <f t="shared" si="10"/>
+        <v>0.26530612244897961</v>
+      </c>
+      <c r="V54">
+        <f t="shared" si="10"/>
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="W54">
+        <f t="shared" si="10"/>
+        <v>0.34693877551020408</v>
+      </c>
+      <c r="X54">
+        <f t="shared" si="10"/>
+        <v>0.39130434782608697</v>
       </c>
     </row>
   </sheetData>
@@ -27703,94 +27998,94 @@
     <row r="1" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A1" s="7"/>
       <c r="B1" s="7"/>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28" t="s">
+      <c r="D1" s="30"/>
+      <c r="E1" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28" t="s">
+      <c r="F1" s="30"/>
+      <c r="G1" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28" t="s">
+      <c r="H1" s="30"/>
+      <c r="I1" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28" t="s">
+      <c r="J1" s="30"/>
+      <c r="K1" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28" t="s">
+      <c r="L1" s="30"/>
+      <c r="M1" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28" t="s">
+      <c r="N1" s="30"/>
+      <c r="O1" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="28" t="s">
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="R1" s="28"/>
-      <c r="S1" s="28" t="s">
+      <c r="R1" s="30"/>
+      <c r="S1" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="T1" s="28"/>
-      <c r="U1" s="28" t="s">
+      <c r="T1" s="30"/>
+      <c r="U1" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="V1" s="28"/>
-      <c r="W1" s="28" t="s">
+      <c r="V1" s="30"/>
+      <c r="W1" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="X1" s="28"/>
-      <c r="Y1" s="28" t="s">
+      <c r="X1" s="30"/>
+      <c r="Y1" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="Z1" s="28"/>
-      <c r="AA1" s="28" t="s">
+      <c r="Z1" s="30"/>
+      <c r="AA1" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="AB1" s="28"/>
-      <c r="AC1" s="28" t="s">
+      <c r="AB1" s="30"/>
+      <c r="AC1" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="AD1" s="28"/>
-      <c r="AE1" s="28" t="s">
+      <c r="AD1" s="30"/>
+      <c r="AE1" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="AF1" s="28"/>
-      <c r="AG1" s="28" t="s">
+      <c r="AF1" s="30"/>
+      <c r="AG1" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="AH1" s="28"/>
-      <c r="AI1" s="28" t="s">
+      <c r="AH1" s="30"/>
+      <c r="AI1" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="AJ1" s="28"/>
-      <c r="AK1" s="28" t="s">
+      <c r="AJ1" s="30"/>
+      <c r="AK1" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="AL1" s="28"/>
-      <c r="AM1" s="28" t="s">
+      <c r="AL1" s="30"/>
+      <c r="AM1" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="AN1" s="28"/>
-      <c r="AO1" s="28" t="s">
+      <c r="AN1" s="30"/>
+      <c r="AO1" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="AP1" s="28"/>
-      <c r="AQ1" s="28" t="s">
+      <c r="AP1" s="30"/>
+      <c r="AQ1" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="AR1" s="28"/>
-      <c r="AS1" s="28" t="s">
+      <c r="AR1" s="30"/>
+      <c r="AS1" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="AT1" s="28"/>
+      <c r="AT1" s="30"/>
       <c r="AU1" t="str">
         <f>IF('cantidad pollos muertos'!AU2="","",BETAINV(0.975,'cantidad pollos muertos'!AU2+1,'cantidad inicial pollos'!AU2-'cantidad pollos muertos'!AU2+1))</f>
         <v/>
@@ -37934,12 +38229,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="AS1:AT1"/>
+    <mergeCell ref="AI1:AJ1"/>
+    <mergeCell ref="AK1:AL1"/>
+    <mergeCell ref="AM1:AN1"/>
+    <mergeCell ref="AO1:AP1"/>
+    <mergeCell ref="AQ1:AR1"/>
     <mergeCell ref="AG1:AH1"/>
     <mergeCell ref="O1:P1"/>
     <mergeCell ref="Q1:R1"/>
@@ -37950,12 +38245,12 @@
     <mergeCell ref="AA1:AB1"/>
     <mergeCell ref="AC1:AD1"/>
     <mergeCell ref="AE1:AF1"/>
-    <mergeCell ref="AS1:AT1"/>
-    <mergeCell ref="AI1:AJ1"/>
-    <mergeCell ref="AK1:AL1"/>
-    <mergeCell ref="AM1:AN1"/>
-    <mergeCell ref="AO1:AP1"/>
-    <mergeCell ref="AQ1:AR1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -37979,40 +38274,40 @@
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="7"/>
       <c r="B1" s="7"/>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
       <c r="G1" s="25"/>
       <c r="H1" s="25"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28" t="s">
+      <c r="D2" s="30"/>
+      <c r="E2" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="F2" s="28"/>
+      <c r="F2" s="30"/>
       <c r="G2" s="26"/>
       <c r="H2" s="26"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
@@ -39285,10 +39580,10 @@
       <c r="H51" s="7"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C54" s="29" t="s">
+      <c r="C54" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="D54" s="29"/>
+      <c r="D54" s="31"/>
       <c r="E54" s="27"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
